--- a/book.xlsx
+++ b/book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjgar\Documents\RPI\clubs and activities\Metallography\course-intro-ml-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B924A501-0F8C-49D1-B0AC-D389062D66B8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16429FD4-3C85-4D66-8D85-21AD94A93178}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,8 @@
     <sheet name="schedule_md" sheetId="3" state="hidden" r:id="rId9"/>
     <sheet name="readings_md" sheetId="20" state="hidden" r:id="rId10"/>
     <sheet name="notebooks_md" sheetId="12" state="hidden" r:id="rId11"/>
-    <sheet name="assignments_md" sheetId="13" state="hidden" r:id="rId12"/>
-    <sheet name="session_md" sheetId="4" r:id="rId13"/>
+    <sheet name="assignments_md" sheetId="13" r:id="rId12"/>
+    <sheet name="session_md" sheetId="4" state="hidden" r:id="rId13"/>
     <sheet name="assign_md" sheetId="23" r:id="rId14"/>
     <sheet name="grading_md" sheetId="15" state="hidden" r:id="rId15"/>
     <sheet name="AcademicCalendar" sheetId="5" state="hidden" r:id="rId16"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4076" uniqueCount="875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4105" uniqueCount="875">
   <si>
     <t>MGMT6560-fa19</t>
   </si>
@@ -3209,6 +3209,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3234,8 +3236,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3672,23 +3672,23 @@
       <c r="A14" s="24" t="s">
         <v>696</v>
       </c>
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="91" t="s">
         <v>698</v>
       </c>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
     </row>
     <row r="15" spans="1:5" s="4" customFormat="1" ht="99" customHeight="1">
       <c r="A15" s="24" t="s">
         <v>706</v>
       </c>
-      <c r="B15" s="89" t="s">
+      <c r="B15" s="91" t="s">
         <v>707</v>
       </c>
-      <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="91"/>
     </row>
     <row r="16" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="1"/>
@@ -4456,7 +4456,7 @@
   <dimension ref="A1:A36"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6"/>
@@ -4494,7 +4494,7 @@
     <row r="6" spans="1:1">
       <c r="A6" s="40" t="str">
         <f>IF(ISBLANK(Schedule!H5),"",CONCATENATE("| ",Schedule!H5," | [",Schedule!B5,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B5,"/) | ",TEXT(Schedule!D5+Configuration!$B$6, "mm/dd")," | ",Schedule!I5," | ",IF(ISBLANK(Schedule!K5),"*None*",Schedule!R5)," |"))</f>
-        <v>| 1 | [2](https://rpi-data.github.io/course-intro-ml-app/sessions/session2/) | 09/17 | This introductory assignment introduces the basics of loading files from a variety of formats.  | [Link](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/hm-01/hm01.ipynb) |</v>
+        <v>| 1 | [2](https://rpi-data.github.io/course-intro-ml-app/sessions/session2/) | 09/17 | This introductory assignment introduces the basics of loading files from a variety of formats.  | [Assignment 1](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/hm-01/hm01.ipynb) |</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -4512,7 +4512,7 @@
     <row r="9" spans="1:1">
       <c r="A9" s="40" t="str">
         <f>IF(ISBLANK(Schedule!H8),"",CONCATENATE("| ",Schedule!H8," | [",Schedule!B8,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B8,"/) | ",TEXT(Schedule!D8+Configuration!$B$6, "mm/dd")," | ",Schedule!I8," | ",IF(ISBLANK(Schedule!K8),"*None*",Schedule!R8)," |"))</f>
-        <v>| 2 | [5](https://rpi-data.github.io/course-intro-ml-app/sessions/session5/) | 09/26 |  | [Link](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/hm-02/hm02.ipynb) |</v>
+        <v>| 2 | [5](https://rpi-data.github.io/course-intro-ml-app/sessions/session5/) | 09/26 |  | [Assignment 2](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/hm-02/hm02.ipynb) |</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -4524,7 +4524,7 @@
     <row r="11" spans="1:1">
       <c r="A11" s="40" t="str">
         <f>IF(ISBLANK(Schedule!H10),"",CONCATENATE("| ",Schedule!H10," | [",Schedule!B10,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B10,"/) | ",TEXT(Schedule!D10+Configuration!$B$6, "mm/dd")," | ",Schedule!I10," | ",IF(ISBLANK(Schedule!K10),"*None*",Schedule!R10)," |"))</f>
-        <v>| 3 | [7](https://rpi-data.github.io/course-intro-ml-app/sessions/session7/) | 10/03 |  | [Link](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/hm-03/hm03.ipynb) |</v>
+        <v>| 3 | [7](https://rpi-data.github.io/course-intro-ml-app/sessions/session7/) | 10/03 |  | [Assignment 3](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/hm-03/hm03.ipynb) |</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -4687,35 +4687,40 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="45" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8" style="3" customWidth="1"/>
-    <col min="3" max="4" width="45" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="11.09765625" style="3"/>
+    <col min="1" max="1" width="11.09765625" style="42"/>
+    <col min="2" max="2" width="45" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8" style="3" customWidth="1"/>
+    <col min="4" max="5" width="45" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="11.09765625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:7" ht="15.6">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="120" customHeight="1">
-      <c r="A2" s="21" t="str">
-        <f>CONCATENATE(C2,D2)</f>
+    <row r="2" spans="1:7" ht="15" customHeight="1">
+      <c r="A2" s="42" t="str">
+        <f>IF(ISBLANK(Schedule!B3),"",CONCATENATE("session",Schedule!B3))</f>
+        <v>session1</v>
+      </c>
+      <c r="B2" s="21" t="str">
+        <f>CONCATENATE(D2,E2)</f>
         <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Course Overview &amp; Introduction to the Data Science Lifecycle&lt;/h1&gt;
 ---
 ### Description
@@ -4728,16 +4733,16 @@
 ### Notebooks
 [Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/assignments/)</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="3" t="str">
+      <c r="D2" s="3" t="str">
         <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E3,"&lt;/h1&gt;
 ---")</f>
         <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Course Overview &amp; Introduction to the Data Science Lifecycle&lt;/h1&gt;
 ---</v>
       </c>
-      <c r="D2" s="11" t="str">
+      <c r="E2" s="11" t="str">
         <f>CONCATENATE("
 ### Description
 ",IF(ISBLANK(Schedule!F3),"*None*",Schedule!F3),"
@@ -4758,11 +4763,15 @@
 ### Notebooks
 [Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/assignments/)</v>
       </c>
-      <c r="F2" s="41"/>
-    </row>
-    <row r="3" spans="1:6" ht="120" customHeight="1">
-      <c r="A3" s="21" t="str">
-        <f>CONCATENATE(C3,D3)</f>
+      <c r="G2" s="41"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1">
+      <c r="A3" s="42" t="str">
+        <f>IF(ISBLANK(Schedule!B4),"",CONCATENATE("session",Schedule!B4))</f>
+        <v/>
+      </c>
+      <c r="B3" s="21" t="str">
+        <f t="shared" ref="B3:B5" si="0">CONCATENATE(D3,E3)</f>
         <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Labor Day - no classes (Tuesday follows Monday schedule)&lt;/h1&gt;
 ---
 ### Description
@@ -4774,16 +4783,16 @@
 ### Notebooks
 *None*</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="C3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="42" t="str">
+      <c r="D3" s="42" t="str">
         <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E4,"&lt;/h1&gt;
 ---")</f>
         <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Labor Day - no classes (Tuesday follows Monday schedule)&lt;/h1&gt;
 ---</v>
       </c>
-      <c r="D3" s="11" t="str">
+      <c r="E3" s="11" t="str">
         <f>CONCATENATE("
 ### Description
 ",IF(ISBLANK(Schedule!F4),"*None*",Schedule!F4),"
@@ -4804,9 +4813,13 @@
 *None*</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="120" customHeight="1">
-      <c r="A4" s="21" t="str">
-        <f>CONCATENATE(C4,D4)</f>
+    <row r="4" spans="1:7" ht="15" customHeight="1">
+      <c r="A4" s="42" t="str">
+        <f>IF(ISBLANK(Schedule!B5),"",CONCATENATE("session",Schedule!B5))</f>
+        <v>session2</v>
+      </c>
+      <c r="B4" s="21" t="str">
+        <f t="shared" si="0"/>
         <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Python Basics&lt;/h1&gt;
 ---
 ### Description
@@ -4820,16 +4833,16 @@
 ### Notebooks
 [Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/assignments/)</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="42" t="str">
+      <c r="D4" s="42" t="str">
         <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E5,"&lt;/h1&gt;
 ---")</f>
         <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Python Basics&lt;/h1&gt;
 ---</v>
       </c>
-      <c r="D4" s="11" t="str">
+      <c r="E4" s="11" t="str">
         <f>CONCATENATE("
 ### Description
 ",IF(ISBLANK(Schedule!F5),"*None*",Schedule!F5),"
@@ -4851,7 +4864,1399 @@
 ### Notebooks
 [Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/assignments/)</v>
       </c>
-      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1">
+      <c r="A5" s="42" t="str">
+        <f>IF(ISBLANK(Schedule!B6),"",CONCATENATE("session",Schedule!B6))</f>
+        <v>session3</v>
+      </c>
+      <c r="B5" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Python Basics&lt;/h1&gt;
+---
+### Description
+Lab/homework
+### Learning Objectives
+*None*
+### Readings
+*None*
+### Notebooks
+*None*</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="42" t="str">
+        <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E6,"&lt;/h1&gt;
+---")</f>
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Python Basics&lt;/h1&gt;
+---</v>
+      </c>
+      <c r="E5" s="11" t="str">
+        <f>CONCATENATE("
+### Description
+",IF(ISBLANK(Schedule!F6),"*None*",Schedule!F6),"
+### Learning Objectives
+",IF(ISBLANK(Schedule!G6),"*None*",Schedule!G6),"
+### Readings
+",IF(Schedule!L6,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+### Notebooks
+",IF(Schedule!M6,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+        <v xml:space="preserve">
+### Description
+Lab/homework
+### Learning Objectives
+*None*
+### Readings
+*None*
+### Notebooks
+*None*</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1">
+      <c r="A6" s="42" t="str">
+        <f>IF(ISBLANK(Schedule!B7),"",CONCATENATE("session",Schedule!B7))</f>
+        <v>session4</v>
+      </c>
+      <c r="B6" s="21" t="str">
+        <f t="shared" ref="B6:B33" si="1">CONCATENATE(D6,E6)</f>
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Python conditionals, loops, functions, aggregating. &lt;/h1&gt;
+---
+### Description
+This lecture discusses the general strategic impact of data, open data, data encoding, data provenance, data wrangling, includeing merging, aggregation, filtering. Continued introduction to coding includes conditionals, loops, functions, missing values, filtering, group-by.  We will also introduce a basic Kaggle model for the Titantic dataset. 
+### Learning Objectives
+*None*
+### Readings
+[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/notebooks/)
+### Notebooks
+[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/assignments/)</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="42" t="str">
+        <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E7,"&lt;/h1&gt;
+---")</f>
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Python conditionals, loops, functions, aggregating. &lt;/h1&gt;
+---</v>
+      </c>
+      <c r="E6" s="11" t="str">
+        <f>CONCATENATE("
+### Description
+",IF(ISBLANK(Schedule!F7),"*None*",Schedule!F7),"
+### Learning Objectives
+",IF(ISBLANK(Schedule!G7),"*None*",Schedule!G7),"
+### Readings
+",IF(Schedule!L7,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+### Notebooks
+",IF(Schedule!M7,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+        <v xml:space="preserve">
+### Description
+This lecture discusses the general strategic impact of data, open data, data encoding, data provenance, data wrangling, includeing merging, aggregation, filtering. Continued introduction to coding includes conditionals, loops, functions, missing values, filtering, group-by.  We will also introduce a basic Kaggle model for the Titantic dataset. 
+### Learning Objectives
+*None*
+### Readings
+[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/notebooks/)
+### Notebooks
+[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/assignments/)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1">
+      <c r="A7" s="42" t="str">
+        <f>IF(ISBLANK(Schedule!B8),"",CONCATENATE("session",Schedule!B8))</f>
+        <v>session5</v>
+      </c>
+      <c r="B7" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Python conditionals, loops, functions, aggregating (continued) &lt;/h1&gt;
+---
+### Description
+Lab/homework
+### Learning Objectives
+*None*
+### Readings
+*None*
+### Notebooks
+*None*</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="42" t="str">
+        <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E8,"&lt;/h1&gt;
+---")</f>
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Python conditionals, loops, functions, aggregating (continued) &lt;/h1&gt;
+---</v>
+      </c>
+      <c r="E7" s="11" t="str">
+        <f>CONCATENATE("
+### Description
+",IF(ISBLANK(Schedule!F8),"*None*",Schedule!F8),"
+### Learning Objectives
+",IF(ISBLANK(Schedule!G8),"*None*",Schedule!G8),"
+### Readings
+",IF(Schedule!L8,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+### Notebooks
+",IF(Schedule!M8,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+        <v xml:space="preserve">
+### Description
+Lab/homework
+### Learning Objectives
+*None*
+### Readings
+*None*
+### Notebooks
+*None*</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1">
+      <c r="A8" s="42" t="str">
+        <f>IF(ISBLANK(Schedule!B9),"",CONCATENATE("session",Schedule!B9))</f>
+        <v>session6</v>
+      </c>
+      <c r="B8" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Python visualization, data manipulation , and feature creation.&lt;/h1&gt;
+---
+### Description
+Introduction to APIs, web scraping feature creation, and feature creation/extraction.  The genaral goal is to get students to the point where they are able to start to do some data manipulation and utilize code they haven't created (packages, functions)
+### Learning Objectives
+*None*
+### Readings
+[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/notebooks/)
+### Notebooks
+[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/assignments/)</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="42" t="str">
+        <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E9,"&lt;/h1&gt;
+---")</f>
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Python visualization, data manipulation , and feature creation.&lt;/h1&gt;
+---</v>
+      </c>
+      <c r="E8" s="11" t="str">
+        <f>CONCATENATE("
+### Description
+",IF(ISBLANK(Schedule!F9),"*None*",Schedule!F9),"
+### Learning Objectives
+",IF(ISBLANK(Schedule!G9),"*None*",Schedule!G9),"
+### Readings
+",IF(Schedule!L9,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+### Notebooks
+",IF(Schedule!M9,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+        <v xml:space="preserve">
+### Description
+Introduction to APIs, web scraping feature creation, and feature creation/extraction.  The genaral goal is to get students to the point where they are able to start to do some data manipulation and utilize code they haven't created (packages, functions)
+### Learning Objectives
+*None*
+### Readings
+[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/notebooks/)
+### Notebooks
+[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/assignments/)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1">
+      <c r="A9" s="42" t="str">
+        <f>IF(ISBLANK(Schedule!B10),"",CONCATENATE("session",Schedule!B10))</f>
+        <v>session7</v>
+      </c>
+      <c r="B9" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Python visualization, data manipulation , and feature creation (continued)&lt;/h1&gt;
+---
+### Description
+Lab/homework
+### Learning Objectives
+*None*
+### Readings
+*None*
+### Notebooks
+*None*</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="42" t="str">
+        <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E10,"&lt;/h1&gt;
+---")</f>
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Python visualization, data manipulation , and feature creation (continued)&lt;/h1&gt;
+---</v>
+      </c>
+      <c r="E9" s="11" t="str">
+        <f>CONCATENATE("
+### Description
+",IF(ISBLANK(Schedule!F10),"*None*",Schedule!F10),"
+### Learning Objectives
+",IF(ISBLANK(Schedule!G10),"*None*",Schedule!G10),"
+### Readings
+",IF(Schedule!L10,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+### Notebooks
+",IF(Schedule!M10,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+        <v xml:space="preserve">
+### Description
+Lab/homework
+### Learning Objectives
+*None*
+### Readings
+*None*
+### Notebooks
+*None*</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1">
+      <c r="A10" s="42" t="str">
+        <f>IF(ISBLANK(Schedule!B11),"",CONCATENATE("session",Schedule!B11))</f>
+        <v>session8</v>
+      </c>
+      <c r="B10" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Visualization with Tableau&lt;/h1&gt;
+---
+### Description
+Visualization is an important component of data understanding. 
+### Learning Objectives
+*None*
+### Readings
+[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/notebooks/)
+### Notebooks
+*None*</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="42" t="str">
+        <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E11,"&lt;/h1&gt;
+---")</f>
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Visualization with Tableau&lt;/h1&gt;
+---</v>
+      </c>
+      <c r="E10" s="11" t="str">
+        <f>CONCATENATE("
+### Description
+",IF(ISBLANK(Schedule!F11),"*None*",Schedule!F11),"
+### Learning Objectives
+",IF(ISBLANK(Schedule!G11),"*None*",Schedule!G11),"
+### Readings
+",IF(Schedule!L11,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+### Notebooks
+",IF(Schedule!M11,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+        <v xml:space="preserve">
+### Description
+Visualization is an important component of data understanding. 
+### Learning Objectives
+*None*
+### Readings
+[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/notebooks/)
+### Notebooks
+*None*</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1">
+      <c r="A11" s="42" t="str">
+        <f>IF(ISBLANK(Schedule!B12),"",CONCATENATE("session",Schedule!B12))</f>
+        <v>session9</v>
+      </c>
+      <c r="B11" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Visualization with Tableau&lt;/h1&gt;
+---
+### Description
+Lab/homework
+### Learning Objectives
+*None*
+### Readings
+*None*
+### Notebooks
+[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/assignments/)</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="42" t="str">
+        <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E12,"&lt;/h1&gt;
+---")</f>
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Visualization with Tableau&lt;/h1&gt;
+---</v>
+      </c>
+      <c r="E11" s="11" t="str">
+        <f>CONCATENATE("
+### Description
+",IF(ISBLANK(Schedule!F12),"*None*",Schedule!F12),"
+### Learning Objectives
+",IF(ISBLANK(Schedule!G12),"*None*",Schedule!G12),"
+### Readings
+",IF(Schedule!L12,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+### Notebooks
+",IF(Schedule!M12,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+        <v xml:space="preserve">
+### Description
+Lab/homework
+### Learning Objectives
+*None*
+### Readings
+*None*
+### Notebooks
+[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/assignments/)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1">
+      <c r="A12" s="42" t="str">
+        <f>IF(ISBLANK(Schedule!B13),"",CONCATENATE("session",Schedule!B13))</f>
+        <v>session10</v>
+      </c>
+      <c r="B12" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Introduction to R&lt;/h1&gt;
+---
+### Description
+The goal of this class is to get you familiar to using R. While we will be Jupyter notebooks, we will also examine using RStudio. Now that you have already started with Python, many of the concepts will map.
+### Learning Objectives
+*None*
+### Readings
+[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/notebooks/)
+### Notebooks
+*None*</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="42" t="str">
+        <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E13,"&lt;/h1&gt;
+---")</f>
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Introduction to R&lt;/h1&gt;
+---</v>
+      </c>
+      <c r="E12" s="11" t="str">
+        <f>CONCATENATE("
+### Description
+",IF(ISBLANK(Schedule!F13),"*None*",Schedule!F13),"
+### Learning Objectives
+",IF(ISBLANK(Schedule!G13),"*None*",Schedule!G13),"
+### Readings
+",IF(Schedule!L13,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+### Notebooks
+",IF(Schedule!M13,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+        <v xml:space="preserve">
+### Description
+The goal of this class is to get you familiar to using R. While we will be Jupyter notebooks, we will also examine using RStudio. Now that you have already started with Python, many of the concepts will map.
+### Learning Objectives
+*None*
+### Readings
+[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/notebooks/)
+### Notebooks
+*None*</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1">
+      <c r="A13" s="42" t="str">
+        <f>IF(ISBLANK(Schedule!B14),"",CONCATENATE("session",Schedule!B14))</f>
+        <v>session11</v>
+      </c>
+      <c r="B13" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Introduction to R&lt;/h1&gt;
+---
+### Description
+Lab/homework
+### Learning Objectives
+*None*
+### Readings
+*None*
+### Notebooks
+*None*</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="42" t="str">
+        <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E14,"&lt;/h1&gt;
+---")</f>
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Introduction to R&lt;/h1&gt;
+---</v>
+      </c>
+      <c r="E13" s="11" t="str">
+        <f>CONCATENATE("
+### Description
+",IF(ISBLANK(Schedule!F14),"*None*",Schedule!F14),"
+### Learning Objectives
+",IF(ISBLANK(Schedule!G14),"*None*",Schedule!G14),"
+### Readings
+",IF(Schedule!L14,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+### Notebooks
+",IF(Schedule!M14,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+        <v xml:space="preserve">
+### Description
+Lab/homework
+### Learning Objectives
+*None*
+### Readings
+*None*
+### Notebooks
+*None*</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1">
+      <c r="A14" s="42" t="str">
+        <f>IF(ISBLANK(Schedule!B15),"",CONCATENATE("session",Schedule!B15))</f>
+        <v>session12</v>
+      </c>
+      <c r="B14" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Overview of Modeling&lt;/h1&gt;
+---
+### Description
+We examine the basics of classess of supervised, unsupervised, reenforcement learning. Also examine overfitting and how cross validation is used for overfitting and how hypterparameters are used to optimize models. 
+### Learning Objectives
+*None*
+### Readings
+[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/notebooks/)
+### Notebooks
+*None*</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="42" t="str">
+        <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E15,"&lt;/h1&gt;
+---")</f>
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Overview of Modeling&lt;/h1&gt;
+---</v>
+      </c>
+      <c r="E14" s="11" t="str">
+        <f>CONCATENATE("
+### Description
+",IF(ISBLANK(Schedule!F15),"*None*",Schedule!F15),"
+### Learning Objectives
+",IF(ISBLANK(Schedule!G15),"*None*",Schedule!G15),"
+### Readings
+",IF(Schedule!L15,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+### Notebooks
+",IF(Schedule!M15,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+        <v xml:space="preserve">
+### Description
+We examine the basics of classess of supervised, unsupervised, reenforcement learning. Also examine overfitting and how cross validation is used for overfitting and how hypterparameters are used to optimize models. 
+### Learning Objectives
+*None*
+### Readings
+[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/notebooks/)
+### Notebooks
+*None*</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1">
+      <c r="A15" s="42" t="str">
+        <f>IF(ISBLANK(Schedule!B16),"",CONCATENATE("session",Schedule!B16))</f>
+        <v>session13</v>
+      </c>
+      <c r="B15" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Overview of Modeling&lt;/h1&gt;
+---
+### Description
+Lab/homework
+### Learning Objectives
+*None*
+### Readings
+*None*
+### Notebooks
+[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/assignments/)</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="42" t="str">
+        <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E16,"&lt;/h1&gt;
+---")</f>
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Overview of Modeling&lt;/h1&gt;
+---</v>
+      </c>
+      <c r="E15" s="11" t="str">
+        <f>CONCATENATE("
+### Description
+",IF(ISBLANK(Schedule!F16),"*None*",Schedule!F16),"
+### Learning Objectives
+",IF(ISBLANK(Schedule!G16),"*None*",Schedule!G16),"
+### Readings
+",IF(Schedule!L16,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+### Notebooks
+",IF(Schedule!M16,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+        <v xml:space="preserve">
+### Description
+Lab/homework
+### Learning Objectives
+*None*
+### Readings
+*None*
+### Notebooks
+[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/assignments/)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1">
+      <c r="A16" s="42" t="str">
+        <f>IF(ISBLANK(Schedule!B17),"",CONCATENATE("session",Schedule!B17))</f>
+        <v>session14</v>
+      </c>
+      <c r="B16" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Review/Kaggle Project Introduction &lt;/h1&gt;
+---
+### Description
+*None*
+### Learning Objectives
+*None*
+### Readings
+*None*
+### Notebooks
+*None*</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="42" t="str">
+        <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E17,"&lt;/h1&gt;
+---")</f>
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Review/Kaggle Project Introduction &lt;/h1&gt;
+---</v>
+      </c>
+      <c r="E16" s="11" t="str">
+        <f>CONCATENATE("
+### Description
+",IF(ISBLANK(Schedule!F17),"*None*",Schedule!F17),"
+### Learning Objectives
+",IF(ISBLANK(Schedule!G17),"*None*",Schedule!G17),"
+### Readings
+",IF(Schedule!L17,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+### Notebooks
+",IF(Schedule!M17,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+        <v xml:space="preserve">
+### Description
+*None*
+### Learning Objectives
+*None*
+### Readings
+*None*
+### Notebooks
+*None*</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1">
+      <c r="A17" s="42" t="str">
+        <f>IF(ISBLANK(Schedule!B18),"",CONCATENATE("session",Schedule!B18))</f>
+        <v>session15</v>
+      </c>
+      <c r="B17" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Midterm &lt;/h1&gt;
+---
+### Description
+*None*
+### Learning Objectives
+*None*
+### Readings
+*None*
+### Notebooks
+[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/assignments/)</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="42" t="str">
+        <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E18,"&lt;/h1&gt;
+---")</f>
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Midterm &lt;/h1&gt;
+---</v>
+      </c>
+      <c r="E17" s="11" t="str">
+        <f>CONCATENATE("
+### Description
+",IF(ISBLANK(Schedule!F18),"*None*",Schedule!F18),"
+### Learning Objectives
+",IF(ISBLANK(Schedule!G18),"*None*",Schedule!G18),"
+### Readings
+",IF(Schedule!L18,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+### Notebooks
+",IF(Schedule!M18,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+        <v xml:space="preserve">
+### Description
+*None*
+### Learning Objectives
+*None*
+### Readings
+*None*
+### Notebooks
+[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/assignments/)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1">
+      <c r="A18" s="42" t="str">
+        <f>IF(ISBLANK(Schedule!B19),"",CONCATENATE("session",Schedule!B19))</f>
+        <v>session16</v>
+      </c>
+      <c r="B18" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Classification&lt;/h1&gt;
+---
+### Description
+Classifcation is one of the critical machine learning applications.  In this class we review a variety of different approaches. 
+### Learning Objectives
+*None*
+### Readings
+*None*
+### Notebooks
+*None*</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="42" t="str">
+        <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E19,"&lt;/h1&gt;
+---")</f>
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Classification&lt;/h1&gt;
+---</v>
+      </c>
+      <c r="E18" s="11" t="str">
+        <f>CONCATENATE("
+### Description
+",IF(ISBLANK(Schedule!F19),"*None*",Schedule!F19),"
+### Learning Objectives
+",IF(ISBLANK(Schedule!G19),"*None*",Schedule!G19),"
+### Readings
+",IF(Schedule!L19,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+### Notebooks
+",IF(Schedule!M19,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+        <v xml:space="preserve">
+### Description
+Classifcation is one of the critical machine learning applications.  In this class we review a variety of different approaches. 
+### Learning Objectives
+*None*
+### Readings
+*None*
+### Notebooks
+*None*</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1">
+      <c r="A19" s="42" t="str">
+        <f>IF(ISBLANK(Schedule!B20),"",CONCATENATE("session",Schedule!B20))</f>
+        <v>session17</v>
+      </c>
+      <c r="B19" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Classification&lt;/h1&gt;
+---
+### Description
+Lab/homework
+### Learning Objectives
+*None*
+### Readings
+*None*
+### Notebooks
+*None*</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="42" t="str">
+        <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E20,"&lt;/h1&gt;
+---")</f>
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Classification&lt;/h1&gt;
+---</v>
+      </c>
+      <c r="E19" s="11" t="str">
+        <f>CONCATENATE("
+### Description
+",IF(ISBLANK(Schedule!F20),"*None*",Schedule!F20),"
+### Learning Objectives
+",IF(ISBLANK(Schedule!G20),"*None*",Schedule!G20),"
+### Readings
+",IF(Schedule!L20,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+### Notebooks
+",IF(Schedule!M20,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+        <v xml:space="preserve">
+### Description
+Lab/homework
+### Learning Objectives
+*None*
+### Readings
+*None*
+### Notebooks
+*None*</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1">
+      <c r="A20" s="42" t="str">
+        <f>IF(ISBLANK(Schedule!B21),"",CONCATENATE("session",Schedule!B21))</f>
+        <v>session18</v>
+      </c>
+      <c r="B20" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Regression&lt;/h1&gt;
+---
+### Description
+Regression models similarly a a major type of machine learning application.  In this 
+### Learning Objectives
+*None*
+### Readings
+*None*
+### Notebooks
+*None*</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="42" t="str">
+        <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E21,"&lt;/h1&gt;
+---")</f>
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Regression&lt;/h1&gt;
+---</v>
+      </c>
+      <c r="E20" s="11" t="str">
+        <f>CONCATENATE("
+### Description
+",IF(ISBLANK(Schedule!F21),"*None*",Schedule!F21),"
+### Learning Objectives
+",IF(ISBLANK(Schedule!G21),"*None*",Schedule!G21),"
+### Readings
+",IF(Schedule!L21,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+### Notebooks
+",IF(Schedule!M21,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+        <v xml:space="preserve">
+### Description
+Regression models similarly a a major type of machine learning application.  In this 
+### Learning Objectives
+*None*
+### Readings
+*None*
+### Notebooks
+*None*</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1">
+      <c r="A21" s="42" t="str">
+        <f>IF(ISBLANK(Schedule!B22),"",CONCATENATE("session",Schedule!B22))</f>
+        <v>session19</v>
+      </c>
+      <c r="B21" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Regression&lt;/h1&gt;
+---
+### Description
+Lab/homework
+### Learning Objectives
+*None*
+### Readings
+*None*
+### Notebooks
+*None*</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="42" t="str">
+        <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E22,"&lt;/h1&gt;
+---")</f>
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Regression&lt;/h1&gt;
+---</v>
+      </c>
+      <c r="E21" s="11" t="str">
+        <f>CONCATENATE("
+### Description
+",IF(ISBLANK(Schedule!F22),"*None*",Schedule!F22),"
+### Learning Objectives
+",IF(ISBLANK(Schedule!G22),"*None*",Schedule!G22),"
+### Readings
+",IF(Schedule!L22,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+### Notebooks
+",IF(Schedule!M22,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+        <v xml:space="preserve">
+### Description
+Lab/homework
+### Learning Objectives
+*None*
+### Readings
+*None*
+### Notebooks
+*None*</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1">
+      <c r="A22" s="42" t="str">
+        <f>IF(ISBLANK(Schedule!B23),"",CONCATENATE("session",Schedule!B23))</f>
+        <v>session20</v>
+      </c>
+      <c r="B22" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Text and NLP&lt;/h1&gt;
+---
+### Description
+The goal of this class is to investigate basic concepts surrounding text mining.
+### Learning Objectives
+*None*
+### Readings
+[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/notebooks/)
+### Notebooks
+*None*</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="42" t="str">
+        <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E23,"&lt;/h1&gt;
+---")</f>
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Text and NLP&lt;/h1&gt;
+---</v>
+      </c>
+      <c r="E22" s="11" t="str">
+        <f>CONCATENATE("
+### Description
+",IF(ISBLANK(Schedule!F23),"*None*",Schedule!F23),"
+### Learning Objectives
+",IF(ISBLANK(Schedule!G23),"*None*",Schedule!G23),"
+### Readings
+",IF(Schedule!L23,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+### Notebooks
+",IF(Schedule!M23,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+        <v xml:space="preserve">
+### Description
+The goal of this class is to investigate basic concepts surrounding text mining.
+### Learning Objectives
+*None*
+### Readings
+[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/notebooks/)
+### Notebooks
+*None*</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" customHeight="1">
+      <c r="A23" s="42" t="str">
+        <f>IF(ISBLANK(Schedule!B24),"",CONCATENATE("session",Schedule!B24))</f>
+        <v>session21</v>
+      </c>
+      <c r="B23" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Text and NLP&lt;/h1&gt;
+---
+### Description
+Lab/homework
+### Learning Objectives
+*None*
+### Readings
+*None*
+### Notebooks
+*None*</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="42" t="str">
+        <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E24,"&lt;/h1&gt;
+---")</f>
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Text and NLP&lt;/h1&gt;
+---</v>
+      </c>
+      <c r="E23" s="11" t="str">
+        <f>CONCATENATE("
+### Description
+",IF(ISBLANK(Schedule!F24),"*None*",Schedule!F24),"
+### Learning Objectives
+",IF(ISBLANK(Schedule!G24),"*None*",Schedule!G24),"
+### Readings
+",IF(Schedule!L24,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+### Notebooks
+",IF(Schedule!M24,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+        <v xml:space="preserve">
+### Description
+Lab/homework
+### Learning Objectives
+*None*
+### Readings
+*None*
+### Notebooks
+*None*</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" customHeight="1">
+      <c r="A24" s="42" t="str">
+        <f>IF(ISBLANK(Schedule!B25),"",CONCATENATE("session",Schedule!B25))</f>
+        <v>session22</v>
+      </c>
+      <c r="B24" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Introduction to Big Data &lt;/h1&gt;
+---
+### Description
+The goal here is to provide an overview of how data processes can be scaled with Spark.
+### Learning Objectives
+*None*
+### Readings
+*None*
+### Notebooks
+*None*</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="42" t="str">
+        <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E25,"&lt;/h1&gt;
+---")</f>
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Introduction to Big Data &lt;/h1&gt;
+---</v>
+      </c>
+      <c r="E24" s="11" t="str">
+        <f>CONCATENATE("
+### Description
+",IF(ISBLANK(Schedule!F25),"*None*",Schedule!F25),"
+### Learning Objectives
+",IF(ISBLANK(Schedule!G25),"*None*",Schedule!G25),"
+### Readings
+",IF(Schedule!L25,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+### Notebooks
+",IF(Schedule!M25,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+        <v xml:space="preserve">
+### Description
+The goal here is to provide an overview of how data processes can be scaled with Spark.
+### Learning Objectives
+*None*
+### Readings
+*None*
+### Notebooks
+*None*</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" customHeight="1">
+      <c r="A25" s="42" t="str">
+        <f>IF(ISBLANK(Schedule!B26),"",CONCATENATE("session",Schedule!B26))</f>
+        <v>session23</v>
+      </c>
+      <c r="B25" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Time Series Analysis&lt;/h1&gt;
+---
+### Description
+Time series and panel data is a bit different and requires a different approach.  Here we cover some of the basics. 
+### Learning Objectives
+*None*
+### Readings
+[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/notebooks/)
+### Notebooks
+*None*</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="42" t="str">
+        <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E26,"&lt;/h1&gt;
+---")</f>
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Time Series Analysis&lt;/h1&gt;
+---</v>
+      </c>
+      <c r="E25" s="11" t="str">
+        <f>CONCATENATE("
+### Description
+",IF(ISBLANK(Schedule!F26),"*None*",Schedule!F26),"
+### Learning Objectives
+",IF(ISBLANK(Schedule!G26),"*None*",Schedule!G26),"
+### Readings
+",IF(Schedule!L26,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+### Notebooks
+",IF(Schedule!M26,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+        <v xml:space="preserve">
+### Description
+Time series and panel data is a bit different and requires a different approach.  Here we cover some of the basics. 
+### Learning Objectives
+*None*
+### Readings
+[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/notebooks/)
+### Notebooks
+*None*</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" customHeight="1">
+      <c r="A26" s="42" t="str">
+        <f>IF(ISBLANK(Schedule!B27),"",CONCATENATE("session",Schedule!B27))</f>
+        <v>session24</v>
+      </c>
+      <c r="B26" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Image Data and Deep Learning&lt;/h1&gt;
+---
+### Description
+Image data is different and deep learning has transformed the ability of machines to process image data. In this lecture we will get an overview of image processing and deep learning techniques. 
+### Learning Objectives
+*None*
+### Readings
+*None*
+### Notebooks
+*None*</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="42" t="str">
+        <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E27,"&lt;/h1&gt;
+---")</f>
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Image Data and Deep Learning&lt;/h1&gt;
+---</v>
+      </c>
+      <c r="E26" s="11" t="str">
+        <f>CONCATENATE("
+### Description
+",IF(ISBLANK(Schedule!F27),"*None*",Schedule!F27),"
+### Learning Objectives
+",IF(ISBLANK(Schedule!G27),"*None*",Schedule!G27),"
+### Readings
+",IF(Schedule!L27,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+### Notebooks
+",IF(Schedule!M27,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+        <v xml:space="preserve">
+### Description
+Image data is different and deep learning has transformed the ability of machines to process image data. In this lecture we will get an overview of image processing and deep learning techniques. 
+### Learning Objectives
+*None*
+### Readings
+*None*
+### Notebooks
+*None*</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" customHeight="1">
+      <c r="A27" s="42" t="str">
+        <f>IF(ISBLANK(Schedule!B28),"",CONCATENATE("session",Schedule!B28))</f>
+        <v>session25</v>
+      </c>
+      <c r="B27" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Image Data and Deep Learning&lt;/h1&gt;
+---
+### Description
+Lab/homework
+### Learning Objectives
+*None*
+### Readings
+*None*
+### Notebooks
+*None*</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="42" t="str">
+        <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E28,"&lt;/h1&gt;
+---")</f>
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Image Data and Deep Learning&lt;/h1&gt;
+---</v>
+      </c>
+      <c r="E27" s="11" t="str">
+        <f>CONCATENATE("
+### Description
+",IF(ISBLANK(Schedule!F28),"*None*",Schedule!F28),"
+### Learning Objectives
+",IF(ISBLANK(Schedule!G28),"*None*",Schedule!G28),"
+### Readings
+",IF(Schedule!L28,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+### Notebooks
+",IF(Schedule!M28,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+        <v xml:space="preserve">
+### Description
+Lab/homework
+### Learning Objectives
+*None*
+### Readings
+*None*
+### Notebooks
+*None*</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" customHeight="1">
+      <c r="A28" s="42" t="str">
+        <f>IF(ISBLANK(Schedule!B29),"",CONCATENATE("session",Schedule!B29))</f>
+        <v>session26</v>
+      </c>
+      <c r="B28" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Automl and Modeling Packages&lt;/h1&gt;
+---
+### Description
+Increasingly there are tools to automate the process of selecting models. 
+### Learning Objectives
+*None*
+### Readings
+*None*
+### Notebooks
+*None*</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="42" t="str">
+        <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E29,"&lt;/h1&gt;
+---")</f>
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Automl and Modeling Packages&lt;/h1&gt;
+---</v>
+      </c>
+      <c r="E28" s="11" t="str">
+        <f>CONCATENATE("
+### Description
+",IF(ISBLANK(Schedule!F29),"*None*",Schedule!F29),"
+### Learning Objectives
+",IF(ISBLANK(Schedule!G29),"*None*",Schedule!G29),"
+### Readings
+",IF(Schedule!L29,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+### Notebooks
+",IF(Schedule!M29,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+        <v xml:space="preserve">
+### Description
+Increasingly there are tools to automate the process of selecting models. 
+### Learning Objectives
+*None*
+### Readings
+*None*
+### Notebooks
+*None*</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" customHeight="1">
+      <c r="A29" s="42" t="str">
+        <f>IF(ISBLANK(Schedule!B30),"",CONCATENATE("session",Schedule!B30))</f>
+        <v/>
+      </c>
+      <c r="B29" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Thanksgiving&lt;/h1&gt;
+---
+### Description
+*None*
+### Learning Objectives
+*None*
+### Readings
+*None*
+### Notebooks
+*None*</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="42" t="str">
+        <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E30,"&lt;/h1&gt;
+---")</f>
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Thanksgiving&lt;/h1&gt;
+---</v>
+      </c>
+      <c r="E29" s="11" t="str">
+        <f>CONCATENATE("
+### Description
+",IF(ISBLANK(Schedule!F30),"*None*",Schedule!F30),"
+### Learning Objectives
+",IF(ISBLANK(Schedule!G30),"*None*",Schedule!G30),"
+### Readings
+",IF(Schedule!L30,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+### Notebooks
+",IF(Schedule!M30,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+        <v xml:space="preserve">
+### Description
+*None*
+### Learning Objectives
+*None*
+### Readings
+*None*
+### Notebooks
+*None*</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" customHeight="1">
+      <c r="A30" s="42" t="str">
+        <f>IF(ISBLANK(Schedule!B31),"",CONCATENATE("session",Schedule!B31))</f>
+        <v>session27</v>
+      </c>
+      <c r="B30" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Automl and Model Search&lt;/h1&gt;
+---
+### Description
+Lab/homework
+### Learning Objectives
+*None*
+### Readings
+*None*
+### Notebooks
+*None*</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="42" t="str">
+        <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E31,"&lt;/h1&gt;
+---")</f>
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Automl and Model Search&lt;/h1&gt;
+---</v>
+      </c>
+      <c r="E30" s="11" t="str">
+        <f>CONCATENATE("
+### Description
+",IF(ISBLANK(Schedule!F31),"*None*",Schedule!F31),"
+### Learning Objectives
+",IF(ISBLANK(Schedule!G31),"*None*",Schedule!G31),"
+### Readings
+",IF(Schedule!L31,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+### Notebooks
+",IF(Schedule!M31,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+        <v xml:space="preserve">
+### Description
+Lab/homework
+### Learning Objectives
+*None*
+### Readings
+*None*
+### Notebooks
+*None*</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" customHeight="1">
+      <c r="A31" s="42" t="str">
+        <f>IF(ISBLANK(Schedule!B32),"",CONCATENATE("session",Schedule!B32))</f>
+        <v>session28</v>
+      </c>
+      <c r="B31" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Final Presentations&lt;/h1&gt;
+---
+### Description
+*None*
+### Learning Objectives
+*None*
+### Readings
+*None*
+### Notebooks
+*None*</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="42" t="str">
+        <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E32,"&lt;/h1&gt;
+---")</f>
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Final Presentations&lt;/h1&gt;
+---</v>
+      </c>
+      <c r="E31" s="11" t="str">
+        <f>CONCATENATE("
+### Description
+",IF(ISBLANK(Schedule!F32),"*None*",Schedule!F32),"
+### Learning Objectives
+",IF(ISBLANK(Schedule!G32),"*None*",Schedule!G32),"
+### Readings
+",IF(Schedule!L32,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+### Notebooks
+",IF(Schedule!M32,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+        <v xml:space="preserve">
+### Description
+*None*
+### Learning Objectives
+*None*
+### Readings
+*None*
+### Notebooks
+*None*</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" customHeight="1">
+      <c r="A32" s="42" t="str">
+        <f>IF(ISBLANK(Schedule!B33),"",CONCATENATE("session",Schedule!B33))</f>
+        <v>session29</v>
+      </c>
+      <c r="B32" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Final Presentations&lt;/h1&gt;
+---
+### Description
+*None*
+### Learning Objectives
+*None*
+### Readings
+*None*
+### Notebooks
+*None*</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="42" t="str">
+        <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E33,"&lt;/h1&gt;
+---")</f>
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Final Presentations&lt;/h1&gt;
+---</v>
+      </c>
+      <c r="E32" s="11" t="str">
+        <f>CONCATENATE("
+### Description
+",IF(ISBLANK(Schedule!F33),"*None*",Schedule!F33),"
+### Learning Objectives
+",IF(ISBLANK(Schedule!G33),"*None*",Schedule!G33),"
+### Readings
+",IF(Schedule!L33,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+### Notebooks
+",IF(Schedule!M33,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+        <v xml:space="preserve">
+### Description
+*None*
+### Learning Objectives
+*None*
+### Readings
+*None*
+### Notebooks
+*None*</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" customHeight="1">
+      <c r="A33" s="42" t="str">
+        <f>IF(ISBLANK(Schedule!B34),"",CONCATENATE("session",Schedule!B34))</f>
+        <v/>
+      </c>
+      <c r="B33" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Final Exam&lt;/h1&gt;
+---
+### Description
+*None*
+### Learning Objectives
+*None*
+### Readings
+*None*
+### Notebooks
+*None*</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="42" t="str">
+        <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E34,"&lt;/h1&gt;
+---")</f>
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Final Exam&lt;/h1&gt;
+---</v>
+      </c>
+      <c r="E33" s="11" t="str">
+        <f>CONCATENATE("
+### Description
+",IF(ISBLANK(Schedule!F34),"*None*",Schedule!F34),"
+### Learning Objectives
+",IF(ISBLANK(Schedule!G34),"*None*",Schedule!G34),"
+### Readings
+",IF(Schedule!L34,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+### Notebooks
+",IF(Schedule!M34,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+        <v xml:space="preserve">
+### Description
+*None*
+### Learning Objectives
+*None*
+### Readings
+*None*
+### Notebooks
+*None*</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4865,8 +6270,8 @@
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="15" customHeight="1"/>
@@ -4885,7 +6290,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.6">
+    <row r="2" spans="1:6" ht="15" customHeight="1">
+      <c r="A2" s="41" t="str">
+        <f>IF(ISBLANK(Schedule!H3),"",CONCATENATE("assign",Schedule!H3))</f>
+        <v/>
+      </c>
       <c r="B2" s="21" t="str">
         <f>CONCATENATE(C2,D2)</f>
         <v/>
@@ -4905,7 +6314,11 @@
       </c>
       <c r="F2" s="41"/>
     </row>
-    <row r="3" spans="1:6" ht="15.6">
+    <row r="3" spans="1:6" ht="15" customHeight="1">
+      <c r="A3" s="41" t="str">
+        <f>IF(ISBLANK(Schedule!H4),"",CONCATENATE("assign",Schedule!H4))</f>
+        <v/>
+      </c>
       <c r="B3" s="21" t="str">
         <f>CONCATENATE(C3,D3)</f>
         <v/>
@@ -4924,7 +6337,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="156">
+    <row r="4" spans="1:6" ht="15" customHeight="1">
       <c r="A4" s="41" t="str">
         <f>IF(ISBLANK(Schedule!H5),"",CONCATENATE("assign",Schedule!H5))</f>
         <v>assign1</v>
@@ -4936,7 +6349,9 @@
 ### Description
 This introductory assignment introduces the basics of loading files from a variety of formats. 
 ### Instructions
-*None*</v>
+*None*
+### Link
+[Assignment 3](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/hm-03/hm03.ipynb)</v>
       </c>
       <c r="C4" s="42" t="str">
         <f>IF(ISBLANK(Schedule!H5),"",CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;Assignment ",Schedule!H5,"&lt;/h1&gt;
@@ -4949,12 +6364,16 @@
 ### Description
 ",IF(ISBLANK(Schedule!I5),"*None*",Schedule!I5),"
 ### Instructions
-",IF(ISBLANK(Schedule!J5),"*None*",Schedule!J5)))</f>
+",IF(ISBLANK(Schedule!J5),"*None*",Schedule!J5),"
+### Link
+",IF(ISBLANK(Schedule!K10),"*None*",Schedule!R10)))</f>
         <v xml:space="preserve">
 ### Description
 This introductory assignment introduces the basics of loading files from a variety of formats. 
 ### Instructions
-*None*</v>
+*None*
+### Link
+[Assignment 3](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/hm-03/hm03.ipynb)</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1">
@@ -4976,7 +6395,9 @@
 ### Description
 ",IF(ISBLANK(Schedule!I6),"*None*",Schedule!I6),"
 ### Instructions
-",IF(ISBLANK(Schedule!J6),"*None*",Schedule!J6)))</f>
+",IF(ISBLANK(Schedule!J6),"*None*",Schedule!J6),"
+### Link
+",IF(ISBLANK(Schedule!K11),"*None*",Schedule!R11)))</f>
         <v/>
       </c>
     </row>
@@ -4999,11 +6420,13 @@
 ### Description
 ",IF(ISBLANK(Schedule!I7),"*None*",Schedule!I7),"
 ### Instructions
-",IF(ISBLANK(Schedule!J7),"*None*",Schedule!J7)))</f>
+",IF(ISBLANK(Schedule!J7),"*None*",Schedule!J7),"
+### Link
+",IF(ISBLANK(Schedule!K12),"*None*",Schedule!R12)))</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="140.4">
+    <row r="7" spans="1:6" ht="15" customHeight="1">
       <c r="A7" s="41" t="str">
         <f>IF(ISBLANK(Schedule!H8),"",CONCATENATE("assign",Schedule!H8))</f>
         <v>assign2</v>
@@ -5015,6 +6438,8 @@
 ### Description
 *None*
 ### Instructions
+*None*
+### Link
 *None*</v>
       </c>
       <c r="C7" s="42" t="str">
@@ -5028,11 +6453,15 @@
 ### Description
 ",IF(ISBLANK(Schedule!I8),"*None*",Schedule!I8),"
 ### Instructions
-",IF(ISBLANK(Schedule!J8),"*None*",Schedule!J8)))</f>
+",IF(ISBLANK(Schedule!J8),"*None*",Schedule!J8),"
+### Link
+",IF(ISBLANK(Schedule!K13),"*None*",Schedule!R13)))</f>
         <v xml:space="preserve">
 ### Description
 *None*
 ### Instructions
+*None*
+### Link
 *None*</v>
       </c>
     </row>
@@ -5055,7 +6484,9 @@
 ### Description
 ",IF(ISBLANK(Schedule!I9),"*None*",Schedule!I9),"
 ### Instructions
-",IF(ISBLANK(Schedule!J9),"*None*",Schedule!J9)))</f>
+",IF(ISBLANK(Schedule!J9),"*None*",Schedule!J9),"
+### Link
+",IF(ISBLANK(Schedule!K14),"*None*",Schedule!R14)))</f>
         <v/>
       </c>
     </row>
@@ -5071,6 +6502,8 @@
 ### Description
 *None*
 ### Instructions
+*None*
+### Link
 *None*</v>
       </c>
       <c r="C9" s="42" t="str">
@@ -5084,11 +6517,15 @@
 ### Description
 ",IF(ISBLANK(Schedule!I10),"*None*",Schedule!I10),"
 ### Instructions
-",IF(ISBLANK(Schedule!J10),"*None*",Schedule!J10)))</f>
+",IF(ISBLANK(Schedule!J10),"*None*",Schedule!J10),"
+### Link
+",IF(ISBLANK(Schedule!K15),"*None*",Schedule!R15)))</f>
         <v xml:space="preserve">
 ### Description
 *None*
 ### Instructions
+*None*
+### Link
 *None*</v>
       </c>
     </row>
@@ -5111,7 +6548,9 @@
 ### Description
 ",IF(ISBLANK(Schedule!I11),"*None*",Schedule!I11),"
 ### Instructions
-",IF(ISBLANK(Schedule!J11),"*None*",Schedule!J11)))</f>
+",IF(ISBLANK(Schedule!J11),"*None*",Schedule!J11),"
+### Link
+",IF(ISBLANK(Schedule!K16),"*None*",Schedule!R16)))</f>
         <v/>
       </c>
     </row>
@@ -5127,6 +6566,8 @@
 ### Description
 *None*
 ### Instructions
+*None*
+### Link
 *None*</v>
       </c>
       <c r="C11" s="42" t="str">
@@ -5140,11 +6581,15 @@
 ### Description
 ",IF(ISBLANK(Schedule!I12),"*None*",Schedule!I12),"
 ### Instructions
-",IF(ISBLANK(Schedule!J12),"*None*",Schedule!J12)))</f>
+",IF(ISBLANK(Schedule!J12),"*None*",Schedule!J12),"
+### Link
+",IF(ISBLANK(Schedule!K17),"*None*",Schedule!R17)))</f>
         <v xml:space="preserve">
 ### Description
 *None*
 ### Instructions
+*None*
+### Link
 *None*</v>
       </c>
     </row>
@@ -5167,7 +6612,9 @@
 ### Description
 ",IF(ISBLANK(Schedule!I13),"*None*",Schedule!I13),"
 ### Instructions
-",IF(ISBLANK(Schedule!J13),"*None*",Schedule!J13)))</f>
+",IF(ISBLANK(Schedule!J13),"*None*",Schedule!J13),"
+### Link
+",IF(ISBLANK(Schedule!K18),"*None*",Schedule!R18)))</f>
         <v/>
       </c>
     </row>
@@ -5183,6 +6630,8 @@
 ### Description
 *None*
 ### Instructions
+*None*
+### Link
 *None*</v>
       </c>
       <c r="C13" s="42" t="str">
@@ -5196,11 +6645,15 @@
 ### Description
 ",IF(ISBLANK(Schedule!I14),"*None*",Schedule!I14),"
 ### Instructions
-",IF(ISBLANK(Schedule!J14),"*None*",Schedule!J14)))</f>
+",IF(ISBLANK(Schedule!J14),"*None*",Schedule!J14),"
+### Link
+",IF(ISBLANK(Schedule!K19),"*None*",Schedule!R19)))</f>
         <v xml:space="preserve">
 ### Description
 *None*
 ### Instructions
+*None*
+### Link
 *None*</v>
       </c>
     </row>
@@ -5223,7 +6676,9 @@
 ### Description
 ",IF(ISBLANK(Schedule!I15),"*None*",Schedule!I15),"
 ### Instructions
-",IF(ISBLANK(Schedule!J15),"*None*",Schedule!J15)))</f>
+",IF(ISBLANK(Schedule!J15),"*None*",Schedule!J15),"
+### Link
+",IF(ISBLANK(Schedule!K20),"*None*",Schedule!R20)))</f>
         <v/>
       </c>
     </row>
@@ -5239,6 +6694,8 @@
 ### Description
 *None*
 ### Instructions
+*None*
+### Link
 *None*</v>
       </c>
       <c r="C15" s="42" t="str">
@@ -5252,11 +6709,15 @@
 ### Description
 ",IF(ISBLANK(Schedule!I16),"*None*",Schedule!I16),"
 ### Instructions
-",IF(ISBLANK(Schedule!J16),"*None*",Schedule!J16)))</f>
+",IF(ISBLANK(Schedule!J16),"*None*",Schedule!J16),"
+### Link
+",IF(ISBLANK(Schedule!K21),"*None*",Schedule!R21)))</f>
         <v xml:space="preserve">
 ### Description
 *None*
 ### Instructions
+*None*
+### Link
 *None*</v>
       </c>
     </row>
@@ -5279,7 +6740,9 @@
 ### Description
 ",IF(ISBLANK(Schedule!I17),"*None*",Schedule!I17),"
 ### Instructions
-",IF(ISBLANK(Schedule!J17),"*None*",Schedule!J17)))</f>
+",IF(ISBLANK(Schedule!J17),"*None*",Schedule!J17),"
+### Link
+",IF(ISBLANK(Schedule!K22),"*None*",Schedule!R22)))</f>
         <v/>
       </c>
     </row>
@@ -5295,6 +6758,8 @@
 ### Description
 *None*
 ### Instructions
+*None*
+### Link
 *None*</v>
       </c>
       <c r="C17" s="42" t="str">
@@ -5308,11 +6773,15 @@
 ### Description
 ",IF(ISBLANK(Schedule!I18),"*None*",Schedule!I18),"
 ### Instructions
-",IF(ISBLANK(Schedule!J18),"*None*",Schedule!J18)))</f>
+",IF(ISBLANK(Schedule!J18),"*None*",Schedule!J18),"
+### Link
+",IF(ISBLANK(Schedule!K23),"*None*",Schedule!R23)))</f>
         <v xml:space="preserve">
 ### Description
 *None*
 ### Instructions
+*None*
+### Link
 *None*</v>
       </c>
     </row>
@@ -5335,7 +6804,9 @@
 ### Description
 ",IF(ISBLANK(Schedule!I19),"*None*",Schedule!I19),"
 ### Instructions
-",IF(ISBLANK(Schedule!J19),"*None*",Schedule!J19)))</f>
+",IF(ISBLANK(Schedule!J19),"*None*",Schedule!J19),"
+### Link
+",IF(ISBLANK(Schedule!K24),"*None*",Schedule!R24)))</f>
         <v/>
       </c>
     </row>
@@ -5358,7 +6829,9 @@
 ### Description
 ",IF(ISBLANK(Schedule!I20),"*None*",Schedule!I20),"
 ### Instructions
-",IF(ISBLANK(Schedule!J20),"*None*",Schedule!J20)))</f>
+",IF(ISBLANK(Schedule!J20),"*None*",Schedule!J20),"
+### Link
+",IF(ISBLANK(Schedule!K25),"*None*",Schedule!R25)))</f>
         <v/>
       </c>
     </row>
@@ -5381,7 +6854,9 @@
 ### Description
 ",IF(ISBLANK(Schedule!I21),"*None*",Schedule!I21),"
 ### Instructions
-",IF(ISBLANK(Schedule!J21),"*None*",Schedule!J21)))</f>
+",IF(ISBLANK(Schedule!J21),"*None*",Schedule!J21),"
+### Link
+",IF(ISBLANK(Schedule!K26),"*None*",Schedule!R26)))</f>
         <v/>
       </c>
     </row>
@@ -5404,7 +6879,9 @@
 ### Description
 ",IF(ISBLANK(Schedule!I22),"*None*",Schedule!I22),"
 ### Instructions
-",IF(ISBLANK(Schedule!J22),"*None*",Schedule!J22)))</f>
+",IF(ISBLANK(Schedule!J22),"*None*",Schedule!J22),"
+### Link
+",IF(ISBLANK(Schedule!K27),"*None*",Schedule!R27)))</f>
         <v/>
       </c>
     </row>
@@ -5427,7 +6904,9 @@
 ### Description
 ",IF(ISBLANK(Schedule!I23),"*None*",Schedule!I23),"
 ### Instructions
-",IF(ISBLANK(Schedule!J23),"*None*",Schedule!J23)))</f>
+",IF(ISBLANK(Schedule!J23),"*None*",Schedule!J23),"
+### Link
+",IF(ISBLANK(Schedule!K28),"*None*",Schedule!R28)))</f>
         <v/>
       </c>
     </row>
@@ -5450,7 +6929,9 @@
 ### Description
 ",IF(ISBLANK(Schedule!I24),"*None*",Schedule!I24),"
 ### Instructions
-",IF(ISBLANK(Schedule!J24),"*None*",Schedule!J24)))</f>
+",IF(ISBLANK(Schedule!J24),"*None*",Schedule!J24),"
+### Link
+",IF(ISBLANK(Schedule!K29),"*None*",Schedule!R29)))</f>
         <v/>
       </c>
     </row>
@@ -5466,6 +6947,8 @@
 ### Description
 *None*
 ### Instructions
+*None*
+### Link
 *None*</v>
       </c>
       <c r="C24" s="42" t="str">
@@ -5479,11 +6962,15 @@
 ### Description
 ",IF(ISBLANK(Schedule!I25),"*None*",Schedule!I25),"
 ### Instructions
-",IF(ISBLANK(Schedule!J25),"*None*",Schedule!J25)))</f>
+",IF(ISBLANK(Schedule!J25),"*None*",Schedule!J25),"
+### Link
+",IF(ISBLANK(Schedule!K30),"*None*",Schedule!R30)))</f>
         <v xml:space="preserve">
 ### Description
 *None*
 ### Instructions
+*None*
+### Link
 *None*</v>
       </c>
     </row>
@@ -5674,10 +7161,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A5" s="96">
+      <c r="A5" s="98">
         <v>43709</v>
       </c>
-      <c r="B5" s="97"/>
+      <c r="B5" s="99"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="6">
@@ -5720,10 +7207,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A11" s="96">
+      <c r="A11" s="98">
         <v>43739</v>
       </c>
-      <c r="B11" s="97"/>
+      <c r="B11" s="99"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="6">
@@ -5774,10 +7261,10 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A18" s="96">
+      <c r="A18" s="98">
         <v>43770</v>
       </c>
-      <c r="B18" s="97"/>
+      <c r="B18" s="99"/>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1">
       <c r="A19" s="8" t="s">
@@ -5844,10 +7331,10 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A27" s="96">
+      <c r="A27" s="98">
         <v>43800</v>
       </c>
-      <c r="B27" s="97"/>
+      <c r="B27" s="99"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1">
       <c r="A28" s="6">
@@ -5930,10 +7417,10 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A38" s="96">
+      <c r="A38" s="98">
         <v>43831</v>
       </c>
-      <c r="B38" s="97"/>
+      <c r="B38" s="99"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1">
       <c r="A39" s="8" t="s">
@@ -5984,10 +7471,10 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A45" s="96">
+      <c r="A45" s="98">
         <v>43862</v>
       </c>
-      <c r="B45" s="97"/>
+      <c r="B45" s="99"/>
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1">
       <c r="A46" s="6">
@@ -6014,10 +7501,10 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A49" s="96">
+      <c r="A49" s="98">
         <v>43891</v>
       </c>
-      <c r="B49" s="97"/>
+      <c r="B49" s="99"/>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1">
       <c r="A50" s="6">
@@ -6092,10 +7579,10 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A59" s="96">
+      <c r="A59" s="98">
         <v>43922</v>
       </c>
-      <c r="B59" s="97"/>
+      <c r="B59" s="99"/>
     </row>
     <row r="60" spans="1:2" ht="15.75" customHeight="1">
       <c r="A60" s="6">
@@ -6138,10 +7625,10 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A65" s="96">
+      <c r="A65" s="98">
         <v>43952</v>
       </c>
-      <c r="B65" s="97"/>
+      <c r="B65" s="99"/>
     </row>
     <row r="66" spans="1:2" ht="15.75" customHeight="1">
       <c r="A66" s="8" t="s">
@@ -28503,11 +29990,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R956"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="G12" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="15.6"/>
@@ -28528,21 +30015,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="43" customFormat="1" ht="18.3" customHeight="1">
-      <c r="A1" s="90"/>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="92" t="s">
+      <c r="A1" s="92"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="94" t="s">
         <v>863</v>
       </c>
-      <c r="G1" s="92"/>
-      <c r="H1" s="93" t="s">
+      <c r="G1" s="94"/>
+      <c r="H1" s="95" t="s">
         <v>873</v>
       </c>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="95"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="97"/>
       <c r="L1" s="49"/>
       <c r="M1" s="84"/>
       <c r="N1" s="80"/>
@@ -28642,8 +30129,8 @@
         <v>**Course Overview &amp; Introduction to the Data Science Lifecycle** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session1/)</v>
       </c>
       <c r="R3" s="72" t="str">
-        <f t="shared" ref="R3:R34" si="1">CONCATENATE("[Link](",K3,")")</f>
-        <v>[Link]()</v>
+        <f>CONCATENATE("[Assignment ",H3,"](",K3,")")</f>
+        <v>[Assignment ]()</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15.6" customHeight="1">
@@ -28677,7 +30164,7 @@
         <v/>
       </c>
       <c r="P4" s="72" t="str">
-        <f t="shared" ref="P4:P35" si="2">IF(ISBLANK(H4),"",CONCATENATE(" &lt;br&gt; *",N4,"* &lt;br&gt;"))</f>
+        <f t="shared" ref="P4:P35" si="1">IF(ISBLANK(H4),"",CONCATENATE(" &lt;br&gt; *",N4,"* &lt;br&gt;"))</f>
         <v/>
       </c>
       <c r="Q4" s="72" t="str">
@@ -28685,8 +30172,8 @@
         <v xml:space="preserve">**Labor Day - no classes (Tuesday follows Monday schedule)** &lt;br&gt; </v>
       </c>
       <c r="R4" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>[Link]()</v>
+        <f t="shared" ref="R4:R34" si="2">CONCATENATE("[Assignment ",H4,"](",K4,")")</f>
+        <v>[Assignment ]()</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="124.8">
@@ -28719,7 +30206,7 @@
         <v>99</v>
       </c>
       <c r="J5" s="63"/>
-      <c r="K5" s="99" t="s">
+      <c r="K5" s="90" t="s">
         <v>761</v>
       </c>
       <c r="L5" s="79" t="b">
@@ -28737,7 +30224,7 @@
         <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session2/)</v>
       </c>
       <c r="P5" s="72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> &lt;br&gt; *Assignment 1 due 09/17* &lt;br&gt;</v>
       </c>
       <c r="Q5" s="72" t="str">
@@ -28745,8 +30232,8 @@
         <v>**Python Basics** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session2/) &lt;br&gt; *Assignment 1 due 09/17* &lt;br&gt;</v>
       </c>
       <c r="R5" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>[Link](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/hm-01/hm01.ipynb)</v>
+        <f t="shared" si="2"/>
+        <v>[Assignment 1](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/hm-01/hm01.ipynb)</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -28786,7 +30273,7 @@
         <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session3/)</v>
       </c>
       <c r="P6" s="72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q6" s="72" t="str">
@@ -28794,8 +30281,8 @@
         <v>**Python Basics** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session3/)</v>
       </c>
       <c r="R6" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>[Link]()</v>
+        <f t="shared" si="2"/>
+        <v>[Assignment ]()</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="140.4">
@@ -28836,7 +30323,7 @@
         <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session4/)</v>
       </c>
       <c r="P7" s="72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q7" s="72" t="str">
@@ -28844,8 +30331,8 @@
         <v>**Python conditionals, loops, functions, aggregating.** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session4/)</v>
       </c>
       <c r="R7" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>[Link]()</v>
+        <f t="shared" si="2"/>
+        <v>[Assignment ]()</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="46.8">
@@ -28874,7 +30361,7 @@
       <c r="H8" s="58">
         <v>2</v>
       </c>
-      <c r="K8" s="99" t="s">
+      <c r="K8" s="90" t="s">
         <v>826</v>
       </c>
       <c r="L8" s="51" t="b">
@@ -28892,7 +30379,7 @@
         <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session5/)</v>
       </c>
       <c r="P8" s="72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> &lt;br&gt; *Assignment 2 due 09/26* &lt;br&gt;</v>
       </c>
       <c r="Q8" s="72" t="str">
@@ -28900,8 +30387,8 @@
         <v>**Python conditionals, loops, functions, aggregating (continued)** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session5/) &lt;br&gt; *Assignment 2 due 09/26* &lt;br&gt;</v>
       </c>
       <c r="R8" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>[Link](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/hm-02/hm02.ipynb)</v>
+        <f t="shared" si="2"/>
+        <v>[Assignment 2](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/hm-02/hm02.ipynb)</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="93.6">
@@ -28942,7 +30429,7 @@
         <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session6/)</v>
       </c>
       <c r="P9" s="72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q9" s="72" t="str">
@@ -28950,8 +30437,8 @@
         <v>**Python visualization, data manipulation , and feature creation.** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session6/)</v>
       </c>
       <c r="R9" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>[Link]()</v>
+        <f t="shared" si="2"/>
+        <v>[Assignment ]()</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="46.8">
@@ -28980,7 +30467,7 @@
       <c r="H10" s="58">
         <v>3</v>
       </c>
-      <c r="K10" s="99" t="s">
+      <c r="K10" s="90" t="s">
         <v>838</v>
       </c>
       <c r="L10" s="51" t="b">
@@ -28998,7 +30485,7 @@
         <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session7/)</v>
       </c>
       <c r="P10" s="72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> &lt;br&gt; *Assignment 3 due 10/03* &lt;br&gt;</v>
       </c>
       <c r="Q10" s="72" t="str">
@@ -29006,8 +30493,8 @@
         <v>**Python visualization, data manipulation , and feature creation (continued)** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session7/) &lt;br&gt; *Assignment 3 due 10/03* &lt;br&gt;</v>
       </c>
       <c r="R10" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>[Link](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/hm-03/hm03.ipynb)</v>
+        <f t="shared" si="2"/>
+        <v>[Assignment 3](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/hm-03/hm03.ipynb)</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="31.2">
@@ -29048,7 +30535,7 @@
         <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session8/)</v>
       </c>
       <c r="P11" s="72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q11" s="72" t="str">
@@ -29056,8 +30543,8 @@
         <v>**Visualization with Tableau** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session8/)</v>
       </c>
       <c r="R11" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>[Link]()</v>
+        <f t="shared" si="2"/>
+        <v>[Assignment ]()</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -29101,7 +30588,7 @@
         <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session9/)</v>
       </c>
       <c r="P12" s="72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> &lt;br&gt; *Assignment 4 due 10/10* &lt;br&gt;</v>
       </c>
       <c r="Q12" s="72" t="str">
@@ -29109,8 +30596,8 @@
         <v>**Visualization with Tableau** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session9/) &lt;br&gt; *Assignment 4 due 10/10* &lt;br&gt;</v>
       </c>
       <c r="R12" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>[Link]()</v>
+        <f t="shared" si="2"/>
+        <v>[Assignment 4]()</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="93.6">
@@ -29151,7 +30638,7 @@
         <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session10/)</v>
       </c>
       <c r="P13" s="72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q13" s="72" t="str">
@@ -29159,8 +30646,8 @@
         <v>**Introduction to R** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session10/)</v>
       </c>
       <c r="R13" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>[Link]()</v>
+        <f t="shared" si="2"/>
+        <v>[Assignment ]()</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -29203,7 +30690,7 @@
         <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session11/)</v>
       </c>
       <c r="P14" s="72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> &lt;br&gt; *Assignment 5 due 10/17* &lt;br&gt;</v>
       </c>
       <c r="Q14" s="72" t="str">
@@ -29211,8 +30698,8 @@
         <v>**Introduction to R** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session11/) &lt;br&gt; *Assignment 5 due 10/17* &lt;br&gt;</v>
       </c>
       <c r="R14" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>[Link]()</v>
+        <f t="shared" si="2"/>
+        <v>[Assignment 5]()</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="93.6">
@@ -29238,7 +30725,7 @@
         <v>639</v>
       </c>
       <c r="G15" s="69"/>
-      <c r="L15" s="98" t="b">
+      <c r="L15" s="89" t="b">
         <v>1</v>
       </c>
       <c r="M15" s="86" t="b">
@@ -29253,7 +30740,7 @@
         <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session12/)</v>
       </c>
       <c r="P15" s="72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q15" s="72" t="str">
@@ -29261,8 +30748,8 @@
         <v>**Overview of Modeling** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session12/)</v>
       </c>
       <c r="R15" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>[Link]()</v>
+        <f t="shared" si="2"/>
+        <v>[Assignment ]()</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -29305,7 +30792,7 @@
         <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session13/)</v>
       </c>
       <c r="P16" s="72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> &lt;br&gt; *Assignment 6 due 10/24* &lt;br&gt;</v>
       </c>
       <c r="Q16" s="72" t="str">
@@ -29313,8 +30800,8 @@
         <v>**Overview of Modeling** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session13/) &lt;br&gt; *Assignment 6 due 10/24* &lt;br&gt;</v>
       </c>
       <c r="R16" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>[Link]()</v>
+        <f t="shared" si="2"/>
+        <v>[Assignment 6]()</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="31.2">
@@ -29353,7 +30840,7 @@
         <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session14/)</v>
       </c>
       <c r="P17" s="72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q17" s="72" t="str">
@@ -29361,8 +30848,8 @@
         <v>**Review/Kaggle Project Introduction** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session14/)</v>
       </c>
       <c r="R17" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>[Link]()</v>
+        <f t="shared" si="2"/>
+        <v>[Assignment ]()</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -29402,7 +30889,7 @@
         <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session15/)</v>
       </c>
       <c r="P18" s="72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> &lt;br&gt; *Assignment 7 due 10/31* &lt;br&gt;</v>
       </c>
       <c r="Q18" s="72" t="str">
@@ -29410,8 +30897,8 @@
         <v>**Midterm** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session15/) &lt;br&gt; *Assignment 7 due 10/31* &lt;br&gt;</v>
       </c>
       <c r="R18" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>[Link]()</v>
+        <f t="shared" si="2"/>
+        <v>[Assignment 7]()</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="46.8">
@@ -29452,7 +30939,7 @@
         <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session16/)</v>
       </c>
       <c r="P19" s="72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q19" s="72" t="str">
@@ -29460,8 +30947,8 @@
         <v>**Classification** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session16/)</v>
       </c>
       <c r="R19" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>[Link]()</v>
+        <f t="shared" si="2"/>
+        <v>[Assignment ]()</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -29502,7 +30989,7 @@
         <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session17/)</v>
       </c>
       <c r="P20" s="72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q20" s="72" t="str">
@@ -29510,8 +30997,8 @@
         <v>**Classification** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session17/)</v>
       </c>
       <c r="R20" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>[Link]()</v>
+        <f t="shared" si="2"/>
+        <v>[Assignment ]()</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="31.2">
@@ -29552,7 +31039,7 @@
         <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session18/)</v>
       </c>
       <c r="P21" s="72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q21" s="72" t="str">
@@ -29560,8 +31047,8 @@
         <v>**Regression** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session18/)</v>
       </c>
       <c r="R21" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>[Link]()</v>
+        <f t="shared" si="2"/>
+        <v>[Assignment ]()</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -29602,7 +31089,7 @@
         <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session19/)</v>
       </c>
       <c r="P22" s="72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q22" s="72" t="str">
@@ -29610,8 +31097,8 @@
         <v>**Regression** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session19/)</v>
       </c>
       <c r="R22" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>[Link]()</v>
+        <f t="shared" si="2"/>
+        <v>[Assignment ]()</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="31.2">
@@ -29652,7 +31139,7 @@
         <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session20/)</v>
       </c>
       <c r="P23" s="72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q23" s="72" t="str">
@@ -29660,8 +31147,8 @@
         <v>**Text and NLP** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session20/)</v>
       </c>
       <c r="R23" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>[Link]()</v>
+        <f t="shared" si="2"/>
+        <v>[Assignment ]()</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -29702,7 +31189,7 @@
         <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session21/)</v>
       </c>
       <c r="P24" s="72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q24" s="72" t="str">
@@ -29710,8 +31197,8 @@
         <v>**Text and NLP** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session21/)</v>
       </c>
       <c r="R24" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>[Link]()</v>
+        <f t="shared" si="2"/>
+        <v>[Assignment ]()</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="46.8">
@@ -29755,7 +31242,7 @@
         <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session22/)</v>
       </c>
       <c r="P25" s="72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> &lt;br&gt; *Assignment 8 due 11/25* &lt;br&gt;</v>
       </c>
       <c r="Q25" s="72" t="str">
@@ -29763,8 +31250,8 @@
         <v>**Introduction to Big Data** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session22/) &lt;br&gt; *Assignment 8 due 11/25* &lt;br&gt;</v>
       </c>
       <c r="R25" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>[Link]()</v>
+        <f t="shared" si="2"/>
+        <v>[Assignment 8]()</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="46.8">
@@ -29805,7 +31292,7 @@
         <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session23/)</v>
       </c>
       <c r="P26" s="72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q26" s="72" t="str">
@@ -29813,8 +31300,8 @@
         <v>**Time Series Analysis** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session23/)</v>
       </c>
       <c r="R26" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>[Link]()</v>
+        <f t="shared" si="2"/>
+        <v>[Assignment ]()</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="78">
@@ -29855,7 +31342,7 @@
         <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session24/)</v>
       </c>
       <c r="P27" s="72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q27" s="72" t="str">
@@ -29863,8 +31350,8 @@
         <v>**Image Data and Deep Learning** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session24/)</v>
       </c>
       <c r="R27" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>[Link]()</v>
+        <f t="shared" si="2"/>
+        <v>[Assignment ]()</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="31.2">
@@ -29905,7 +31392,7 @@
         <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session25/)</v>
       </c>
       <c r="P28" s="72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q28" s="72" t="str">
@@ -29913,8 +31400,8 @@
         <v>**Image Data and Deep Learning** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session25/)</v>
       </c>
       <c r="R28" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>[Link]()</v>
+        <f t="shared" si="2"/>
+        <v>[Assignment ]()</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="31.2">
@@ -29955,7 +31442,7 @@
         <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session26/)</v>
       </c>
       <c r="P29" s="72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q29" s="72" t="str">
@@ -29963,8 +31450,8 @@
         <v>**Automl and Modeling Packages** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session26/)</v>
       </c>
       <c r="R29" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>[Link]()</v>
+        <f t="shared" si="2"/>
+        <v>[Assignment ]()</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -29999,7 +31486,7 @@
         <v/>
       </c>
       <c r="P30" s="72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q30" s="72" t="str">
@@ -30007,8 +31494,8 @@
         <v xml:space="preserve">**Thanksgiving** &lt;br&gt; </v>
       </c>
       <c r="R30" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>[Link]()</v>
+        <f t="shared" si="2"/>
+        <v>[Assignment ]()</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -30048,7 +31535,7 @@
         <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session27/)</v>
       </c>
       <c r="P31" s="72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q31" s="72" t="str">
@@ -30056,8 +31543,8 @@
         <v>**Automl and Model Search** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session27/)</v>
       </c>
       <c r="R31" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>[Link]()</v>
+        <f t="shared" si="2"/>
+        <v>[Assignment ]()</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -30096,7 +31583,7 @@
         <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session28/)</v>
       </c>
       <c r="P32" s="72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q32" s="72" t="str">
@@ -30104,8 +31591,8 @@
         <v>**Final Presentations** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session28/)</v>
       </c>
       <c r="R32" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>[Link]()</v>
+        <f t="shared" si="2"/>
+        <v>[Assignment ]()</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -30143,7 +31630,7 @@
         <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session29/)</v>
       </c>
       <c r="P33" s="72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q33" s="72" t="str">
@@ -30151,8 +31638,8 @@
         <v>**Final Presentations** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session29/)</v>
       </c>
       <c r="R33" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>[Link]()</v>
+        <f t="shared" si="2"/>
+        <v>[Assignment ]()</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -30185,7 +31672,7 @@
         <v/>
       </c>
       <c r="P34" s="72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q34" s="72" t="str">
@@ -30193,8 +31680,8 @@
         <v xml:space="preserve">**Final Exam** &lt;br&gt; </v>
       </c>
       <c r="R34" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>[Link]()</v>
+        <f t="shared" si="2"/>
+        <v>[Assignment ]()</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -30207,7 +31694,7 @@
         <v/>
       </c>
       <c r="P35" s="72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>

--- a/book.xlsx
+++ b/book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjgar\Documents\RPI\clubs and activities\Metallography\course-intro-ml-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16429FD4-3C85-4D66-8D85-21AD94A93178}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A74F280-0C1F-4195-A3D2-1FAA97DBB3F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12504" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,10 @@
     <sheet name="index_md" sheetId="10" state="hidden" r:id="rId7"/>
     <sheet name="contact_md" sheetId="9" state="hidden" r:id="rId8"/>
     <sheet name="schedule_md" sheetId="3" state="hidden" r:id="rId9"/>
-    <sheet name="readings_md" sheetId="20" state="hidden" r:id="rId10"/>
+    <sheet name="readings_md" sheetId="20" r:id="rId10"/>
     <sheet name="notebooks_md" sheetId="12" state="hidden" r:id="rId11"/>
     <sheet name="assignments_md" sheetId="13" r:id="rId12"/>
-    <sheet name="session_md" sheetId="4" state="hidden" r:id="rId13"/>
+    <sheet name="session_md" sheetId="4" r:id="rId13"/>
     <sheet name="assign_md" sheetId="23" r:id="rId14"/>
     <sheet name="grading_md" sheetId="15" state="hidden" r:id="rId15"/>
     <sheet name="AcademicCalendar" sheetId="5" state="hidden" r:id="rId16"/>
@@ -3918,8 +3918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6"/>
@@ -3945,158 +3945,158 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="40" t="str">
-        <f>IF(Readings!F2="","",CONCATENATE("| [",Readings!A2,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Readings!A2,") | ",Readings!F2," |"))</f>
+        <f>IF(Readings!F2="","",CONCATENATE("| [",Readings!A2,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Readings!A2,".html) | ",Readings!F2," |"))</f>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="40" t="str">
-        <f>IF(Readings!F3="","",CONCATENATE("| [",Readings!A3,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Readings!A3,") | ",Readings!F3," |"))</f>
+        <f>IF(Readings!F3="","",CONCATENATE("| [",Readings!A3,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Readings!A3,".html) | ",Readings!F3," |"))</f>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="40" t="str">
-        <f>IF(Readings!F4="","",CONCATENATE("| [",Readings!A4,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Readings!A4,") | ",Readings!F4," |"))</f>
+        <f>IF(Readings!F4="","",CONCATENATE("| [",Readings!A4,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Readings!A4,".html) | ",Readings!F4," |"))</f>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="40" t="str">
-        <f>IF(Readings!F5="","",CONCATENATE("| [",Readings!A5,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Readings!A5,") | ",Readings!F5," |"))</f>
+        <f>IF(Readings!F5="","",CONCATENATE("| [",Readings!A5,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Readings!A5,".html) | ",Readings!F5," |"))</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="40" t="str">
-        <f>IF(Readings!F6="","",CONCATENATE("| [",Readings!A6,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Readings!A6,") | ",Readings!F6," |"))</f>
-        <v>| [2](https://rpi-data.github.io/course-intro-ml-app/sessions/session2) | [Doing Data Science (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/9781449363871)&lt;br&gt;[Data Science for Business (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/business-intelligence/9781449374273)&lt;br&gt;[Command Line Cheat Sheet](https://www.git-tower.com/blog/command-line-cheat-sheet/)&lt;br&gt;[Assignment Process](/assignments)&lt;br&gt;[Running Jupyter locally](http://rpi.analyticsdojo.com/setup/anaconda/) |</v>
+        <f>IF(Readings!F6="","",CONCATENATE("| [",Readings!A6,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Readings!A6,".html) | ",Readings!F6," |"))</f>
+        <v>| [2](https://rpi-data.github.io/course-intro-ml-app/sessions/session2.html) | [Doing Data Science (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/9781449363871)&lt;br&gt;[Data Science for Business (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/business-intelligence/9781449374273)&lt;br&gt;[Command Line Cheat Sheet](https://www.git-tower.com/blog/command-line-cheat-sheet/)&lt;br&gt;[Assignment Process](/assignments)&lt;br&gt;[Running Jupyter locally](http://rpi.analyticsdojo.com/setup/anaconda/) |</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="40" t="str">
-        <f>IF(Readings!F7="","",CONCATENATE("| [",Readings!A7,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Readings!A7,") | ",Readings!F7," |"))</f>
-        <v>| [4](https://rpi-data.github.io/course-intro-ml-app/sessions/session4) | [Principles of Data Wrangling (Chapters 1-3)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/business-intelligence/9781491938911) |</v>
+        <f>IF(Readings!F7="","",CONCATENATE("| [",Readings!A7,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Readings!A7,".html) | ",Readings!F7," |"))</f>
+        <v>| [4](https://rpi-data.github.io/course-intro-ml-app/sessions/session4.html) | [Principles of Data Wrangling (Chapters 1-3)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/business-intelligence/9781491938911) |</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="40" t="str">
-        <f>IF(Readings!F8="","",CONCATENATE("| [",Readings!A8,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Readings!A8,") | ",Readings!F8," |"))</f>
-        <v>| [6](https://rpi-data.github.io/course-intro-ml-app/sessions/session6) | [Introduction to Machine Learning with Python (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/programming/machine-learning/9781449369880) |</v>
+        <f>IF(Readings!F8="","",CONCATENATE("| [",Readings!A8,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Readings!A8,".html) | ",Readings!F8," |"))</f>
+        <v>| [6](https://rpi-data.github.io/course-intro-ml-app/sessions/session6.html) | [Introduction to Machine Learning with Python (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/programming/machine-learning/9781449369880) |</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="40" t="str">
-        <f>IF(Readings!F9="","",CONCATENATE("| [",Readings!A9,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Readings!A9,") | ",Readings!F9," |"))</f>
+        <f>IF(Readings!F9="","",CONCATENATE("| [",Readings!A9,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Readings!A9,".html) | ",Readings!F9," |"))</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="40" t="str">
-        <f>IF(Readings!F10="","",CONCATENATE("| [",Readings!A10,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Readings!A10,") | ",Readings!F10," |"))</f>
+        <f>IF(Readings!F10="","",CONCATENATE("| [",Readings!A10,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Readings!A10,".html) | ",Readings!F10," |"))</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="40" t="str">
-        <f>IF(Readings!F11="","",CONCATENATE("| [",Readings!A11,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Readings!A11,") | ",Readings!F11," |"))</f>
+        <f>IF(Readings!F11="","",CONCATENATE("| [",Readings!A11,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Readings!A11,".html) | ",Readings!F11," |"))</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="40" t="str">
-        <f>IF(Readings!F12="","",CONCATENATE("| [",Readings!A12,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Readings!A12,") | ",Readings!F12," |"))</f>
+        <f>IF(Readings!F12="","",CONCATENATE("| [",Readings!A12,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Readings!A12,".html) | ",Readings!F12," |"))</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="40" t="str">
-        <f>IF(Readings!F13="","",CONCATENATE("| [",Readings!A13,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Readings!A13,") | ",Readings!F13," |"))</f>
-        <v>| [8](https://rpi-data.github.io/course-intro-ml-app/sessions/session8) | [Install Tableau (free for students)](https://www.tableau.com/academic/students)&lt;br&gt;[Tableau - Data analytics for university students guide](https://www.tableau.com/university-students)&lt;br&gt;[Designing Great Visualizations](http://www.tableau.com/sites/default/files/media/designing-great-visualizations.pdf)&lt;br&gt;[Tableau getting Started](http://www.tableau.com/learn/tutorials/on-demand/getting-started)&lt;br&gt;[TED Talk](https://www.ted.com/talks/david_mccandless_the_beauty_of_data_visualization#t-304102) |</v>
+        <f>IF(Readings!F13="","",CONCATENATE("| [",Readings!A13,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Readings!A13,".html) | ",Readings!F13," |"))</f>
+        <v>| [8](https://rpi-data.github.io/course-intro-ml-app/sessions/session8.html) | [Install Tableau (free for students)](https://www.tableau.com/academic/students)&lt;br&gt;[Tableau - Data analytics for university students guide](https://www.tableau.com/university-students)&lt;br&gt;[Designing Great Visualizations](http://www.tableau.com/sites/default/files/media/designing-great-visualizations.pdf)&lt;br&gt;[Tableau getting Started](http://www.tableau.com/learn/tutorials/on-demand/getting-started)&lt;br&gt;[TED Talk](https://www.ted.com/talks/david_mccandless_the_beauty_of_data_visualization#t-304102) |</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="40" t="str">
-        <f>IF(Readings!F14="","",CONCATENATE("| [",Readings!A14,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Readings!A14,") | ",Readings!F14," |"))</f>
+        <f>IF(Readings!F14="","",CONCATENATE("| [",Readings!A14,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Readings!A14,".html) | ",Readings!F14," |"))</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="40" t="str">
-        <f>IF(Readings!F15="","",CONCATENATE("| [",Readings!A15,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Readings!A15,") | ",Readings!F15," |"))</f>
-        <v>| [10](https://rpi-data.github.io/course-intro-ml-app/sessions/session10) | [R for Data Science (Chapters 1-3)](https://r4ds.had.co.nz)&lt;br&gt;[RStudio Cloud](https://rstudio.cloud) |</v>
+        <f>IF(Readings!F15="","",CONCATENATE("| [",Readings!A15,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Readings!A15,".html) | ",Readings!F15," |"))</f>
+        <v>| [10](https://rpi-data.github.io/course-intro-ml-app/sessions/session10.html) | [R for Data Science (Chapters 1-3)](https://r4ds.had.co.nz)&lt;br&gt;[RStudio Cloud](https://rstudio.cloud) |</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="40" t="str">
-        <f>IF(Readings!F16="","",CONCATENATE("| [",Readings!A16,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Readings!A16,") | ",Readings!F16," |"))</f>
+        <f>IF(Readings!F16="","",CONCATENATE("| [",Readings!A16,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Readings!A16,".html) | ",Readings!F16," |"))</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="40" t="str">
-        <f>IF(Readings!F17="","",CONCATENATE("| [",Readings!A17,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Readings!A17,") | ",Readings!F17," |"))</f>
+        <f>IF(Readings!F17="","",CONCATENATE("| [",Readings!A17,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Readings!A17,".html) | ",Readings!F17," |"))</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="40" t="str">
-        <f>IF(Readings!F18="","",CONCATENATE("| [",Readings!A18,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Readings!A18,") | ",Readings!F18," |"))</f>
+        <f>IF(Readings!F18="","",CONCATENATE("| [",Readings!A18,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Readings!A18,".html) | ",Readings!F18," |"))</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="40" t="str">
-        <f>IF(Readings!F19="","",CONCATENATE("| [",Readings!A19,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Readings!A19,") | ",Readings!F19," |"))</f>
+        <f>IF(Readings!F19="","",CONCATENATE("| [",Readings!A19,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Readings!A19,".html) | ",Readings!F19," |"))</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="40" t="str">
-        <f>IF(Readings!F20="","",CONCATENATE("| [",Readings!A20,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Readings!A20,") | ",Readings!F20," |"))</f>
-        <v>| [12](https://rpi-data.github.io/course-intro-ml-app/sessions/session12) | [Cross Validation](https://www.analyticsvidhya.com/blog/2015/11/improve-model-performance-cross-validation-in-python-r/)&lt;br&gt;[The 10 Algorithms Machine Learning Engineers Need to Know](https://gab41.lab41.org/the-10-algorithms-machine-learning-engineers-need-to-know-f4bb63f5b2fa#.4rekzo2o1)&lt;br&gt;[15 Algorithms Machine Learning Engineers Must Need to Know](https://www.favouriteblog.com/15-algorithms-machine-learning-engineers/)&lt;br&gt;[A Tour of Machine Learning Algorithms](http://machinelearningmastery.com/a-tour-of-machine-learning-algorithms/)&lt;br&gt;[An Introduction to Machine Learning with Python (Chapter 2-3)](http://proquestcombo.safaribooksonline.com/book/programming/machine-learning/9781449369880) |</v>
+        <f>IF(Readings!F20="","",CONCATENATE("| [",Readings!A20,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Readings!A20,".html) | ",Readings!F20," |"))</f>
+        <v>| [12](https://rpi-data.github.io/course-intro-ml-app/sessions/session12.html) | [Cross Validation](https://www.analyticsvidhya.com/blog/2015/11/improve-model-performance-cross-validation-in-python-r/)&lt;br&gt;[The 10 Algorithms Machine Learning Engineers Need to Know](https://gab41.lab41.org/the-10-algorithms-machine-learning-engineers-need-to-know-f4bb63f5b2fa#.4rekzo2o1)&lt;br&gt;[15 Algorithms Machine Learning Engineers Must Need to Know](https://www.favouriteblog.com/15-algorithms-machine-learning-engineers/)&lt;br&gt;[A Tour of Machine Learning Algorithms](http://machinelearningmastery.com/a-tour-of-machine-learning-algorithms/)&lt;br&gt;[An Introduction to Machine Learning with Python (Chapter 2-3)](http://proquestcombo.safaribooksonline.com/book/programming/machine-learning/9781449369880) |</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="40" t="str">
-        <f>IF(Readings!F21="","",CONCATENATE("| [",Readings!A21,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Readings!A21,") | ",Readings!F21," |"))</f>
+        <f>IF(Readings!F21="","",CONCATENATE("| [",Readings!A21,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Readings!A21,".html) | ",Readings!F21," |"))</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="40" t="str">
-        <f>IF(Readings!F22="","",CONCATENATE("| [",Readings!A22,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Readings!A22,") | ",Readings!F22," |"))</f>
+        <f>IF(Readings!F22="","",CONCATENATE("| [",Readings!A22,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Readings!A22,".html) | ",Readings!F22," |"))</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="40" t="str">
-        <f>IF(Readings!F23="","",CONCATENATE("| [",Readings!A23,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Readings!A23,") | ",Readings!F23," |"))</f>
+        <f>IF(Readings!F23="","",CONCATENATE("| [",Readings!A23,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Readings!A23,".html) | ",Readings!F23," |"))</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="40" t="str">
-        <f>IF(Readings!F24="","",CONCATENATE("| [",Readings!A24,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Readings!A24,") | ",Readings!F24," |"))</f>
-        <v>| [20](https://rpi-data.github.io/course-intro-ml-app/sessions/session20) | [The Seven Practice Areas of Text Mining](http://cdn2.hubspot.net/hubfs/2176909/Whitepaper_The_Seven_Practice_Areas_of_Text_Analytics_Chapter_2_Excerpt.pdf?t=1469213247687)&lt;br&gt;[The Amazing Power of Word Vectors](https://blog.acolyer.org/2016/04/21/the-amazing-power-of-word-vectors/)&lt;br&gt;[Bag of Words Tutorial](https://www.kaggle.com/c/word2vec-nlp-tutorial/details/part-1-for-beginners-bag-of-words)&lt;br&gt;[Word Vectors](https://www.kaggle.com/c/word2vec-nlp-tutorial/details/part-2-word-vectors) |</v>
+        <f>IF(Readings!F24="","",CONCATENATE("| [",Readings!A24,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Readings!A24,".html) | ",Readings!F24," |"))</f>
+        <v>| [20](https://rpi-data.github.io/course-intro-ml-app/sessions/session20.html) | [The Seven Practice Areas of Text Mining](http://cdn2.hubspot.net/hubfs/2176909/Whitepaper_The_Seven_Practice_Areas_of_Text_Analytics_Chapter_2_Excerpt.pdf?t=1469213247687)&lt;br&gt;[The Amazing Power of Word Vectors](https://blog.acolyer.org/2016/04/21/the-amazing-power-of-word-vectors/)&lt;br&gt;[Bag of Words Tutorial](https://www.kaggle.com/c/word2vec-nlp-tutorial/details/part-1-for-beginners-bag-of-words)&lt;br&gt;[Word Vectors](https://www.kaggle.com/c/word2vec-nlp-tutorial/details/part-2-word-vectors) |</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="40" t="str">
-        <f>IF(Readings!F25="","",CONCATENATE("| [",Readings!A25,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Readings!A25,") | ",Readings!F25," |"))</f>
+        <f>IF(Readings!F25="","",CONCATENATE("| [",Readings!A25,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Readings!A25,".html) | ",Readings!F25," |"))</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="40" t="str">
-        <f>IF(Readings!F26="","",CONCATENATE("| [",Readings!A26,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Readings!A26,") | ",Readings!F26," |"))</f>
+        <f>IF(Readings!F26="","",CONCATENATE("| [",Readings!A26,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Readings!A26,".html) | ",Readings!F26," |"))</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="40" t="str">
-        <f>IF(Readings!F27="","",CONCATENATE("| [",Readings!A27,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Readings!A27,") | ",Readings!F27," |"))</f>
-        <v>| [23](https://rpi-data.github.io/course-intro-ml-app/sessions/session23) | [Introduction to Time Series](https://www.youtube.com/watch?v=d4Sn6ny_5LI)&lt;br&gt;[7 Ways Time Series Forecasting Differs from Machine Learning](https://www.datascience.com/blog/time-series-forecasting-machine-learning-differences)&lt;br&gt;[Aggregation Techniques and Cryptocurrencies](https://medium.com/python-data/time-series-aggregation-techniques-with-python-a-look-at-major-cryptocurrencies-a9eb1dd49c1b) |</v>
+        <f>IF(Readings!F27="","",CONCATENATE("| [",Readings!A27,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Readings!A27,".html) | ",Readings!F27," |"))</f>
+        <v>| [23](https://rpi-data.github.io/course-intro-ml-app/sessions/session23.html) | [Introduction to Time Series](https://www.youtube.com/watch?v=d4Sn6ny_5LI)&lt;br&gt;[7 Ways Time Series Forecasting Differs from Machine Learning](https://www.datascience.com/blog/time-series-forecasting-machine-learning-differences)&lt;br&gt;[Aggregation Techniques and Cryptocurrencies](https://medium.com/python-data/time-series-aggregation-techniques-with-python-a-look-at-major-cryptocurrencies-a9eb1dd49c1b) |</v>
       </c>
     </row>
   </sheetData>
@@ -4456,7 +4456,7 @@
   <dimension ref="A1:A36"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6"/>
@@ -4481,199 +4481,199 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="40" t="str">
-        <f>IF(ISBLANK(Schedule!H3),"",CONCATENATE("| ",Schedule!H3," | [",Schedule!B3,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B3,"/) | ",TEXT(Schedule!D3+Configuration!$B$6, "mm/dd")," | ",Schedule!I3," | ",IF(ISBLANK(Schedule!K3),"*None*",Schedule!R3)," |"))</f>
+        <f>IF(ISBLANK(Schedule!H3),"",CONCATENATE("| ",Schedule!H3," | [",Schedule!B3,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B3,".html) | ",TEXT(Schedule!D3+Configuration!$B$6, "mm/dd")," | ",Schedule!I3," | ",IF(ISBLANK(Schedule!K3),"*None*",Schedule!R3)," |"))</f>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="40" t="str">
-        <f>IF(ISBLANK(Schedule!H4),"",CONCATENATE("| ",Schedule!H4," | [",Schedule!B4,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B4,"/) | ",TEXT(Schedule!D4+Configuration!$B$6, "mm/dd")," | ",Schedule!I4," | ",IF(ISBLANK(Schedule!K4),"*None*",Schedule!R4)," |"))</f>
+        <f>IF(ISBLANK(Schedule!H4),"",CONCATENATE("| ",Schedule!H4," | [",Schedule!B4,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B4,".html) | ",TEXT(Schedule!D4+Configuration!$B$6, "mm/dd")," | ",Schedule!I4," | ",IF(ISBLANK(Schedule!K4),"*None*",Schedule!R4)," |"))</f>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="40" t="str">
-        <f>IF(ISBLANK(Schedule!H5),"",CONCATENATE("| ",Schedule!H5," | [",Schedule!B5,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B5,"/) | ",TEXT(Schedule!D5+Configuration!$B$6, "mm/dd")," | ",Schedule!I5," | ",IF(ISBLANK(Schedule!K5),"*None*",Schedule!R5)," |"))</f>
-        <v>| 1 | [2](https://rpi-data.github.io/course-intro-ml-app/sessions/session2/) | 09/17 | This introductory assignment introduces the basics of loading files from a variety of formats.  | [Assignment 1](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/hm-01/hm01.ipynb) |</v>
+        <f>IF(ISBLANK(Schedule!H5),"",CONCATENATE("| ",Schedule!H5," | [",Schedule!B5,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B5,".html) | ",TEXT(Schedule!D5+Configuration!$B$6, "mm/dd")," | ",Schedule!I5," | ",IF(ISBLANK(Schedule!K5),"*None*",Schedule!R5)," |"))</f>
+        <v>| 1 | [2](https://rpi-data.github.io/course-intro-ml-app/sessions/session2.html) | 09/17 | This introductory assignment introduces the basics of loading files from a variety of formats.  | [Assignment 1](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/hm-01/hm01.ipynb) |</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="40" t="str">
-        <f>IF(ISBLANK(Schedule!H6),"",CONCATENATE("| ",Schedule!H6," | [",Schedule!B6,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B6,"/) | ",TEXT(Schedule!D6+Configuration!$B$6, "mm/dd")," | ",Schedule!I6," | ",IF(ISBLANK(Schedule!K6),"*None*",Schedule!R6)," |"))</f>
+        <f>IF(ISBLANK(Schedule!H6),"",CONCATENATE("| ",Schedule!H6," | [",Schedule!B6,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B6,".html) | ",TEXT(Schedule!D6+Configuration!$B$6, "mm/dd")," | ",Schedule!I6," | ",IF(ISBLANK(Schedule!K6),"*None*",Schedule!R6)," |"))</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="40" t="str">
-        <f>IF(ISBLANK(Schedule!H7),"",CONCATENATE("| ",Schedule!H7," | [",Schedule!B7,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B7,"/) | ",TEXT(Schedule!D7+Configuration!$B$6, "mm/dd")," | ",Schedule!I7," | ",IF(ISBLANK(Schedule!K7),"*None*",Schedule!R7)," |"))</f>
+        <f>IF(ISBLANK(Schedule!H7),"",CONCATENATE("| ",Schedule!H7," | [",Schedule!B7,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B7,".html) | ",TEXT(Schedule!D7+Configuration!$B$6, "mm/dd")," | ",Schedule!I7," | ",IF(ISBLANK(Schedule!K7),"*None*",Schedule!R7)," |"))</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="40" t="str">
-        <f>IF(ISBLANK(Schedule!H8),"",CONCATENATE("| ",Schedule!H8," | [",Schedule!B8,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B8,"/) | ",TEXT(Schedule!D8+Configuration!$B$6, "mm/dd")," | ",Schedule!I8," | ",IF(ISBLANK(Schedule!K8),"*None*",Schedule!R8)," |"))</f>
-        <v>| 2 | [5](https://rpi-data.github.io/course-intro-ml-app/sessions/session5/) | 09/26 |  | [Assignment 2](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/hm-02/hm02.ipynb) |</v>
+        <f>IF(ISBLANK(Schedule!H8),"",CONCATENATE("| ",Schedule!H8," | [",Schedule!B8,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B8,".html) | ",TEXT(Schedule!D8+Configuration!$B$6, "mm/dd")," | ",Schedule!I8," | ",IF(ISBLANK(Schedule!K8),"*None*",Schedule!R8)," |"))</f>
+        <v>| 2 | [5](https://rpi-data.github.io/course-intro-ml-app/sessions/session5.html) | 09/26 |  | [Assignment 2](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/hm-02/hm02.ipynb) |</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="40" t="str">
-        <f>IF(ISBLANK(Schedule!H9),"",CONCATENATE("| ",Schedule!H9," | [",Schedule!B9,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B9,"/) | ",TEXT(Schedule!D9+Configuration!$B$6, "mm/dd")," | ",Schedule!I9," | ",IF(ISBLANK(Schedule!K9),"*None*",Schedule!R9)," |"))</f>
+        <f>IF(ISBLANK(Schedule!H9),"",CONCATENATE("| ",Schedule!H9," | [",Schedule!B9,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B9,".html) | ",TEXT(Schedule!D9+Configuration!$B$6, "mm/dd")," | ",Schedule!I9," | ",IF(ISBLANK(Schedule!K9),"*None*",Schedule!R9)," |"))</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="40" t="str">
-        <f>IF(ISBLANK(Schedule!H10),"",CONCATENATE("| ",Schedule!H10," | [",Schedule!B10,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B10,"/) | ",TEXT(Schedule!D10+Configuration!$B$6, "mm/dd")," | ",Schedule!I10," | ",IF(ISBLANK(Schedule!K10),"*None*",Schedule!R10)," |"))</f>
-        <v>| 3 | [7](https://rpi-data.github.io/course-intro-ml-app/sessions/session7/) | 10/03 |  | [Assignment 3](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/hm-03/hm03.ipynb) |</v>
+        <f>IF(ISBLANK(Schedule!H10),"",CONCATENATE("| ",Schedule!H10," | [",Schedule!B10,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B10,".html) | ",TEXT(Schedule!D10+Configuration!$B$6, "mm/dd")," | ",Schedule!I10," | ",IF(ISBLANK(Schedule!K10),"*None*",Schedule!R10)," |"))</f>
+        <v>| 3 | [7](https://rpi-data.github.io/course-intro-ml-app/sessions/session7.html) | 10/03 |  | [Assignment 3](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/hm-03/hm03.ipynb) |</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="40" t="str">
-        <f>IF(ISBLANK(Schedule!H11),"",CONCATENATE("| ",Schedule!H11," | [",Schedule!B11,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B11,"/) | ",TEXT(Schedule!D11+Configuration!$B$6, "mm/dd")," | ",Schedule!I11," | ",IF(ISBLANK(Schedule!K11),"*None*",Schedule!R11)," |"))</f>
+        <f>IF(ISBLANK(Schedule!H11),"",CONCATENATE("| ",Schedule!H11," | [",Schedule!B11,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B11,".html) | ",TEXT(Schedule!D11+Configuration!$B$6, "mm/dd")," | ",Schedule!I11," | ",IF(ISBLANK(Schedule!K11),"*None*",Schedule!R11)," |"))</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="40" t="str">
-        <f>IF(ISBLANK(Schedule!H12),"",CONCATENATE("| ",Schedule!H12," | [",Schedule!B12,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B12,"/) | ",TEXT(Schedule!D12+Configuration!$B$6, "mm/dd")," | ",Schedule!I12," | ",IF(ISBLANK(Schedule!K12),"*None*",Schedule!R12)," |"))</f>
-        <v>| 4 | [9](https://rpi-data.github.io/course-intro-ml-app/sessions/session9/) | 10/10 |  | *None* |</v>
+        <f>IF(ISBLANK(Schedule!H12),"",CONCATENATE("| ",Schedule!H12," | [",Schedule!B12,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B12,".html) | ",TEXT(Schedule!D12+Configuration!$B$6, "mm/dd")," | ",Schedule!I12," | ",IF(ISBLANK(Schedule!K12),"*None*",Schedule!R12)," |"))</f>
+        <v>| 4 | [9](https://rpi-data.github.io/course-intro-ml-app/sessions/session9.html) | 10/10 |  | *None* |</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="40" t="str">
-        <f>IF(ISBLANK(Schedule!H13),"",CONCATENATE("| ",Schedule!H13," | [",Schedule!B13,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B13,"/) | ",TEXT(Schedule!D13+Configuration!$B$6, "mm/dd")," | ",Schedule!I13," | ",IF(ISBLANK(Schedule!K13),"*None*",Schedule!R13)," |"))</f>
+        <f>IF(ISBLANK(Schedule!H13),"",CONCATENATE("| ",Schedule!H13," | [",Schedule!B13,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B13,".html) | ",TEXT(Schedule!D13+Configuration!$B$6, "mm/dd")," | ",Schedule!I13," | ",IF(ISBLANK(Schedule!K13),"*None*",Schedule!R13)," |"))</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="40" t="str">
-        <f>IF(ISBLANK(Schedule!H14),"",CONCATENATE("| ",Schedule!H14," | [",Schedule!B14,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B14,"/) | ",TEXT(Schedule!D14+Configuration!$B$6, "mm/dd")," | ",Schedule!I14," | ",IF(ISBLANK(Schedule!K14),"*None*",Schedule!R14)," |"))</f>
-        <v>| 5 | [11](https://rpi-data.github.io/course-intro-ml-app/sessions/session11/) | 10/17 |  | *None* |</v>
+        <f>IF(ISBLANK(Schedule!H14),"",CONCATENATE("| ",Schedule!H14," | [",Schedule!B14,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B14,".html) | ",TEXT(Schedule!D14+Configuration!$B$6, "mm/dd")," | ",Schedule!I14," | ",IF(ISBLANK(Schedule!K14),"*None*",Schedule!R14)," |"))</f>
+        <v>| 5 | [11](https://rpi-data.github.io/course-intro-ml-app/sessions/session11.html) | 10/17 |  | *None* |</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="40" t="str">
-        <f>IF(ISBLANK(Schedule!H15),"",CONCATENATE("| ",Schedule!H15," | [",Schedule!B15,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B15,"/) | ",TEXT(Schedule!D15+Configuration!$B$6, "mm/dd")," | ",Schedule!I15," | ",IF(ISBLANK(Schedule!K15),"*None*",Schedule!R15)," |"))</f>
+        <f>IF(ISBLANK(Schedule!H15),"",CONCATENATE("| ",Schedule!H15," | [",Schedule!B15,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B15,".html) | ",TEXT(Schedule!D15+Configuration!$B$6, "mm/dd")," | ",Schedule!I15," | ",IF(ISBLANK(Schedule!K15),"*None*",Schedule!R15)," |"))</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="40" t="str">
-        <f>IF(ISBLANK(Schedule!H16),"",CONCATENATE("| ",Schedule!H16," | [",Schedule!B16,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B16,"/) | ",TEXT(Schedule!D16+Configuration!$B$6, "mm/dd")," | ",Schedule!I16," | ",IF(ISBLANK(Schedule!K16),"*None*",Schedule!R16)," |"))</f>
-        <v>| 6 | [13](https://rpi-data.github.io/course-intro-ml-app/sessions/session13/) | 10/24 |  | *None* |</v>
+        <f>IF(ISBLANK(Schedule!H16),"",CONCATENATE("| ",Schedule!H16," | [",Schedule!B16,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B16,".html) | ",TEXT(Schedule!D16+Configuration!$B$6, "mm/dd")," | ",Schedule!I16," | ",IF(ISBLANK(Schedule!K16),"*None*",Schedule!R16)," |"))</f>
+        <v>| 6 | [13](https://rpi-data.github.io/course-intro-ml-app/sessions/session13.html) | 10/24 |  | *None* |</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="40" t="str">
-        <f>IF(ISBLANK(Schedule!H17),"",CONCATENATE("| ",Schedule!H17," | [",Schedule!B17,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B17,"/) | ",TEXT(Schedule!D17+Configuration!$B$6, "mm/dd")," | ",Schedule!I17," | ",IF(ISBLANK(Schedule!K17),"*None*",Schedule!R17)," |"))</f>
+        <f>IF(ISBLANK(Schedule!H17),"",CONCATENATE("| ",Schedule!H17," | [",Schedule!B17,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B17,".html) | ",TEXT(Schedule!D17+Configuration!$B$6, "mm/dd")," | ",Schedule!I17," | ",IF(ISBLANK(Schedule!K17),"*None*",Schedule!R17)," |"))</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="40" t="str">
-        <f>IF(ISBLANK(Schedule!H18),"",CONCATENATE("| ",Schedule!H18," | [",Schedule!B18,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B18,"/) | ",TEXT(Schedule!D18+Configuration!$B$6, "mm/dd")," | ",Schedule!I18," | ",IF(ISBLANK(Schedule!K18),"*None*",Schedule!R18)," |"))</f>
-        <v>| 7 | [15](https://rpi-data.github.io/course-intro-ml-app/sessions/session15/) | 10/31 |  | *None* |</v>
+        <f>IF(ISBLANK(Schedule!H18),"",CONCATENATE("| ",Schedule!H18," | [",Schedule!B18,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B18,".html) | ",TEXT(Schedule!D18+Configuration!$B$6, "mm/dd")," | ",Schedule!I18," | ",IF(ISBLANK(Schedule!K18),"*None*",Schedule!R18)," |"))</f>
+        <v>| 7 | [15](https://rpi-data.github.io/course-intro-ml-app/sessions/session15.html) | 10/31 |  | *None* |</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="40" t="str">
-        <f>IF(ISBLANK(Schedule!H19),"",CONCATENATE("| ",Schedule!H19," | [",Schedule!B19,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B19,"/) | ",TEXT(Schedule!D19+Configuration!$B$6, "mm/dd")," | ",Schedule!I19," | ",IF(ISBLANK(Schedule!K19),"*None*",Schedule!R19)," |"))</f>
+        <f>IF(ISBLANK(Schedule!H19),"",CONCATENATE("| ",Schedule!H19," | [",Schedule!B19,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B19,".html) | ",TEXT(Schedule!D19+Configuration!$B$6, "mm/dd")," | ",Schedule!I19," | ",IF(ISBLANK(Schedule!K19),"*None*",Schedule!R19)," |"))</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="40" t="str">
-        <f>IF(ISBLANK(Schedule!H20),"",CONCATENATE("| ",Schedule!H20," | [",Schedule!B20,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B20,"/) | ",TEXT(Schedule!D20+Configuration!$B$6, "mm/dd")," | ",Schedule!I20," | ",IF(ISBLANK(Schedule!K20),"*None*",Schedule!R20)," |"))</f>
+        <f>IF(ISBLANK(Schedule!H20),"",CONCATENATE("| ",Schedule!H20," | [",Schedule!B20,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B20,".html) | ",TEXT(Schedule!D20+Configuration!$B$6, "mm/dd")," | ",Schedule!I20," | ",IF(ISBLANK(Schedule!K20),"*None*",Schedule!R20)," |"))</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="40" t="str">
-        <f>IF(ISBLANK(Schedule!H21),"",CONCATENATE("| ",Schedule!H21," | [",Schedule!B21,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B21,"/) | ",TEXT(Schedule!D21+Configuration!$B$6, "mm/dd")," | ",Schedule!I21," | ",IF(ISBLANK(Schedule!K21),"*None*",Schedule!R21)," |"))</f>
+        <f>IF(ISBLANK(Schedule!H21),"",CONCATENATE("| ",Schedule!H21," | [",Schedule!B21,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B21,".html) | ",TEXT(Schedule!D21+Configuration!$B$6, "mm/dd")," | ",Schedule!I21," | ",IF(ISBLANK(Schedule!K21),"*None*",Schedule!R21)," |"))</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="40" t="str">
-        <f>IF(ISBLANK(Schedule!H22),"",CONCATENATE("| ",Schedule!H22," | [",Schedule!B22,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B22,"/) | ",TEXT(Schedule!D22+Configuration!$B$6, "mm/dd")," | ",Schedule!I22," | ",IF(ISBLANK(Schedule!K22),"*None*",Schedule!R22)," |"))</f>
+        <f>IF(ISBLANK(Schedule!H22),"",CONCATENATE("| ",Schedule!H22," | [",Schedule!B22,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B22,".html) | ",TEXT(Schedule!D22+Configuration!$B$6, "mm/dd")," | ",Schedule!I22," | ",IF(ISBLANK(Schedule!K22),"*None*",Schedule!R22)," |"))</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="40" t="str">
-        <f>IF(ISBLANK(Schedule!H23),"",CONCATENATE("| ",Schedule!H23," | [",Schedule!B23,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B23,"/) | ",TEXT(Schedule!D23+Configuration!$B$6, "mm/dd")," | ",Schedule!I23," | ",IF(ISBLANK(Schedule!K23),"*None*",Schedule!R23)," |"))</f>
+        <f>IF(ISBLANK(Schedule!H23),"",CONCATENATE("| ",Schedule!H23," | [",Schedule!B23,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B23,".html) | ",TEXT(Schedule!D23+Configuration!$B$6, "mm/dd")," | ",Schedule!I23," | ",IF(ISBLANK(Schedule!K23),"*None*",Schedule!R23)," |"))</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="40" t="str">
-        <f>IF(ISBLANK(Schedule!H24),"",CONCATENATE("| ",Schedule!H24," | [",Schedule!B24,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B24,"/) | ",TEXT(Schedule!D24+Configuration!$B$6, "mm/dd")," | ",Schedule!I24," | ",IF(ISBLANK(Schedule!K24),"*None*",Schedule!R24)," |"))</f>
+        <f>IF(ISBLANK(Schedule!H24),"",CONCATENATE("| ",Schedule!H24," | [",Schedule!B24,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B24,".html) | ",TEXT(Schedule!D24+Configuration!$B$6, "mm/dd")," | ",Schedule!I24," | ",IF(ISBLANK(Schedule!K24),"*None*",Schedule!R24)," |"))</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="40" t="str">
-        <f>IF(ISBLANK(Schedule!H25),"",CONCATENATE("| ",Schedule!H25," | [",Schedule!B25,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B25,"/) | ",TEXT(Schedule!D25+Configuration!$B$6, "mm/dd")," | ",Schedule!I25," | ",IF(ISBLANK(Schedule!K25),"*None*",Schedule!R25)," |"))</f>
-        <v>| 8 | [22](https://rpi-data.github.io/course-intro-ml-app/sessions/session22/) | 11/25 |  | *None* |</v>
+        <f>IF(ISBLANK(Schedule!H25),"",CONCATENATE("| ",Schedule!H25," | [",Schedule!B25,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B25,".html) | ",TEXT(Schedule!D25+Configuration!$B$6, "mm/dd")," | ",Schedule!I25," | ",IF(ISBLANK(Schedule!K25),"*None*",Schedule!R25)," |"))</f>
+        <v>| 8 | [22](https://rpi-data.github.io/course-intro-ml-app/sessions/session22.html) | 11/25 |  | *None* |</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="40" t="str">
-        <f>IF(ISBLANK(Schedule!H26),"",CONCATENATE("| ",Schedule!H26," | [",Schedule!B26,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B26,"/) | ",TEXT(Schedule!D26+Configuration!$B$6, "mm/dd")," | ",Schedule!I26," | ",IF(ISBLANK(Schedule!K26),"*None*",Schedule!R26)," |"))</f>
+        <f>IF(ISBLANK(Schedule!H26),"",CONCATENATE("| ",Schedule!H26," | [",Schedule!B26,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B26,".html) | ",TEXT(Schedule!D26+Configuration!$B$6, "mm/dd")," | ",Schedule!I26," | ",IF(ISBLANK(Schedule!K26),"*None*",Schedule!R26)," |"))</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="40" t="str">
-        <f>IF(ISBLANK(Schedule!H27),"",CONCATENATE("| ",Schedule!H27," | [",Schedule!B27,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B27,"/) | ",TEXT(Schedule!D27+Configuration!$B$6, "mm/dd")," | ",Schedule!I27," | ",IF(ISBLANK(Schedule!K27),"*None*",Schedule!R27)," |"))</f>
+        <f>IF(ISBLANK(Schedule!H27),"",CONCATENATE("| ",Schedule!H27," | [",Schedule!B27,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B27,".html) | ",TEXT(Schedule!D27+Configuration!$B$6, "mm/dd")," | ",Schedule!I27," | ",IF(ISBLANK(Schedule!K27),"*None*",Schedule!R27)," |"))</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="40" t="str">
-        <f>IF(ISBLANK(Schedule!H28),"",CONCATENATE("| ",Schedule!H28," | [",Schedule!B28,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B28,"/) | ",TEXT(Schedule!D28+Configuration!$B$6, "mm/dd")," | ",Schedule!I28," | ",IF(ISBLANK(Schedule!K28),"*None*",Schedule!R28)," |"))</f>
+        <f>IF(ISBLANK(Schedule!H28),"",CONCATENATE("| ",Schedule!H28," | [",Schedule!B28,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B28,".html) | ",TEXT(Schedule!D28+Configuration!$B$6, "mm/dd")," | ",Schedule!I28," | ",IF(ISBLANK(Schedule!K28),"*None*",Schedule!R28)," |"))</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="40" t="str">
-        <f>IF(ISBLANK(Schedule!H29),"",CONCATENATE("| ",Schedule!H29," | [",Schedule!B29,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B29,"/) | ",TEXT(Schedule!D29+Configuration!$B$6, "mm/dd")," | ",Schedule!I29," | ",IF(ISBLANK(Schedule!K29),"*None*",Schedule!R29)," |"))</f>
+        <f>IF(ISBLANK(Schedule!H29),"",CONCATENATE("| ",Schedule!H29," | [",Schedule!B29,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B29,".html) | ",TEXT(Schedule!D29+Configuration!$B$6, "mm/dd")," | ",Schedule!I29," | ",IF(ISBLANK(Schedule!K29),"*None*",Schedule!R29)," |"))</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="40" t="str">
-        <f>IF(ISBLANK(Schedule!H30),"",CONCATENATE("| ",Schedule!H30," | [",Schedule!B30,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B30,"/) | ",TEXT(Schedule!D30+Configuration!$B$6, "mm/dd")," | ",Schedule!I30," | ",IF(ISBLANK(Schedule!K30),"*None*",Schedule!R30)," |"))</f>
+        <f>IF(ISBLANK(Schedule!H30),"",CONCATENATE("| ",Schedule!H30," | [",Schedule!B30,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B30,".html) | ",TEXT(Schedule!D30+Configuration!$B$6, "mm/dd")," | ",Schedule!I30," | ",IF(ISBLANK(Schedule!K30),"*None*",Schedule!R30)," |"))</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="40" t="str">
-        <f>IF(ISBLANK(Schedule!H31),"",CONCATENATE("| ",Schedule!H31," | [",Schedule!B31,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B31,"/) | ",TEXT(Schedule!D31+Configuration!$B$6, "mm/dd")," | ",Schedule!I31," | ",IF(ISBLANK(Schedule!K31),"*None*",Schedule!R31)," |"))</f>
+        <f>IF(ISBLANK(Schedule!H31),"",CONCATENATE("| ",Schedule!H31," | [",Schedule!B31,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B31,".html) | ",TEXT(Schedule!D31+Configuration!$B$6, "mm/dd")," | ",Schedule!I31," | ",IF(ISBLANK(Schedule!K31),"*None*",Schedule!R31)," |"))</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="40" t="str">
-        <f>IF(ISBLANK(Schedule!H32),"",CONCATENATE("| ",Schedule!H32," | [",Schedule!B32,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B32,"/) | ",TEXT(Schedule!D32+Configuration!$B$6, "mm/dd")," | ",Schedule!I32," | ",IF(ISBLANK(Schedule!K32),"*None*",Schedule!R32)," |"))</f>
+        <f>IF(ISBLANK(Schedule!H32),"",CONCATENATE("| ",Schedule!H32," | [",Schedule!B32,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B32,".html) | ",TEXT(Schedule!D32+Configuration!$B$6, "mm/dd")," | ",Schedule!I32," | ",IF(ISBLANK(Schedule!K32),"*None*",Schedule!R32)," |"))</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="40" t="str">
-        <f>IF(ISBLANK(Schedule!H33),"",CONCATENATE("| ",Schedule!H33," | [",Schedule!B33,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B33,"/) | ",TEXT(Schedule!D33+Configuration!$B$6, "mm/dd")," | ",Schedule!I33," | ",IF(ISBLANK(Schedule!K33),"*None*",Schedule!R33)," |"))</f>
+        <f>IF(ISBLANK(Schedule!H33),"",CONCATENATE("| ",Schedule!H33," | [",Schedule!B33,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B33,".html) | ",TEXT(Schedule!D33+Configuration!$B$6, "mm/dd")," | ",Schedule!I33," | ",IF(ISBLANK(Schedule!K33),"*None*",Schedule!R33)," |"))</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="40" t="str">
-        <f>IF(ISBLANK(Schedule!H34),"",CONCATENATE("| ",Schedule!H34," | [",Schedule!B34,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B34,"/) | ",TEXT(Schedule!D34+Configuration!$B$6, "mm/dd")," | ",Schedule!I34," | ",IF(ISBLANK(Schedule!K34),"*None*",Schedule!R34)," |"))</f>
+        <f>IF(ISBLANK(Schedule!H34),"",CONCATENATE("| ",Schedule!H34," | [",Schedule!B34,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B34,".html) | ",TEXT(Schedule!D34+Configuration!$B$6, "mm/dd")," | ",Schedule!I34," | ",IF(ISBLANK(Schedule!K34),"*None*",Schedule!R34)," |"))</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="40" t="str">
-        <f>IF(ISBLANK(Schedule!H35),"",CONCATENATE("| ",Schedule!H35," | [",Schedule!B35,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B35,"/) | ",TEXT(Schedule!D35+Configuration!$B$6, "mm/dd")," | ",Schedule!I35," | ",IF(ISBLANK(Schedule!K35),"*None*",Schedule!R35)," |"))</f>
+        <f>IF(ISBLANK(Schedule!H35),"",CONCATENATE("| ",Schedule!H35," | [",Schedule!B35,"](",Configuration!B$20,Configuration!B$19,"/sessions/session",Schedule!B35,".html) | ",TEXT(Schedule!D35+Configuration!$B$6, "mm/dd")," | ",Schedule!I35," | ",IF(ISBLANK(Schedule!K35),"*None*",Schedule!R35)," |"))</f>
         <v/>
       </c>
     </row>
@@ -4690,7 +4690,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="15" customHeight="1"/>
@@ -4731,7 +4731,7 @@
 ### Readings
 *None*
 ### Notebooks
-[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/assignments/)</v>
+[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/notebooks.html)</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>19</v>
@@ -4749,9 +4749,9 @@
 ### Learning Objectives
 ",IF(ISBLANK(Schedule!G3),"*None*",Schedule!G3),"
 ### Readings
-",IF(Schedule!L3,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+",IF(Schedule!L3,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/readings.html)"),"*None*"),"
 ### Notebooks
-",IF(Schedule!M3,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+",IF(Schedule!M3,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks.html)"),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 In this class we motivate the overall field of data science, machine learning, and the emerging area of AI.  Explore introduction. 
@@ -4761,7 +4761,7 @@
 ### Readings
 *None*
 ### Notebooks
-[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/assignments/)</v>
+[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/notebooks.html)</v>
       </c>
       <c r="G2" s="41"/>
     </row>
@@ -4799,9 +4799,9 @@
 ### Learning Objectives
 ",IF(ISBLANK(Schedule!G4),"*None*",Schedule!G4),"
 ### Readings
-",IF(Schedule!L4,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+",IF(Schedule!L4,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/readings.html)"),"*None*"),"
 ### Notebooks
-",IF(Schedule!M4,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+",IF(Schedule!M4,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks.html)"),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 *None*
@@ -4829,9 +4829,9 @@
 - Be able to install python packages.
 - Be able to save notebooks as gists and as part of github repositories. 
 ### Readings
-[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/notebooks/)
+[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/readings.html)
 ### Notebooks
-[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/assignments/)</v>
+[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/notebooks.html)</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>19</v>
@@ -4849,9 +4849,9 @@
 ### Learning Objectives
 ",IF(ISBLANK(Schedule!G5),"*None*",Schedule!G5),"
 ### Readings
-",IF(Schedule!L5,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+",IF(Schedule!L5,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/readings.html)"),"*None*"),"
 ### Notebooks
-",IF(Schedule!M5,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+",IF(Schedule!M5,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks.html)"),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 This class introduces some basic computational background the Python computational environment, packages, colab, linux command line, git.  Introduction to coding includes basic data structures (sets, dictionaries, lists) along with packages specific for analytics (Numpy and Pandas). 
@@ -4860,9 +4860,9 @@
 - Be able to install python packages.
 - Be able to save notebooks as gists and as part of github repositories. 
 ### Readings
-[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/notebooks/)
+[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/readings.html)
 ### Notebooks
-[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/assignments/)</v>
+[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/notebooks.html)</v>
       </c>
       <c r="F4" s="42"/>
     </row>
@@ -4900,9 +4900,9 @@
 ### Learning Objectives
 ",IF(ISBLANK(Schedule!G6),"*None*",Schedule!G6),"
 ### Readings
-",IF(Schedule!L6,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+",IF(Schedule!L6,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/readings.html)"),"*None*"),"
 ### Notebooks
-",IF(Schedule!M6,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+",IF(Schedule!M6,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks.html)"),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 Lab/homework
@@ -4928,9 +4928,9 @@
 ### Learning Objectives
 *None*
 ### Readings
-[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/notebooks/)
+[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/readings.html)
 ### Notebooks
-[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/assignments/)</v>
+[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/notebooks.html)</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>19</v>
@@ -4948,18 +4948,18 @@
 ### Learning Objectives
 ",IF(ISBLANK(Schedule!G7),"*None*",Schedule!G7),"
 ### Readings
-",IF(Schedule!L7,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+",IF(Schedule!L7,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/readings.html)"),"*None*"),"
 ### Notebooks
-",IF(Schedule!M7,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+",IF(Schedule!M7,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks.html)"),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 This lecture discusses the general strategic impact of data, open data, data encoding, data provenance, data wrangling, includeing merging, aggregation, filtering. Continued introduction to coding includes conditionals, loops, functions, missing values, filtering, group-by.  We will also introduce a basic Kaggle model for the Titantic dataset. 
 ### Learning Objectives
 *None*
 ### Readings
-[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/notebooks/)
+[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/readings.html)
 ### Notebooks
-[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/assignments/)</v>
+[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/notebooks.html)</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1">
@@ -4996,9 +4996,9 @@
 ### Learning Objectives
 ",IF(ISBLANK(Schedule!G8),"*None*",Schedule!G8),"
 ### Readings
-",IF(Schedule!L8,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+",IF(Schedule!L8,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/readings.html)"),"*None*"),"
 ### Notebooks
-",IF(Schedule!M8,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+",IF(Schedule!M8,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks.html)"),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 Lab/homework
@@ -5024,9 +5024,9 @@
 ### Learning Objectives
 *None*
 ### Readings
-[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/notebooks/)
+[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/readings.html)
 ### Notebooks
-[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/assignments/)</v>
+[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/notebooks.html)</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>19</v>
@@ -5044,18 +5044,18 @@
 ### Learning Objectives
 ",IF(ISBLANK(Schedule!G9),"*None*",Schedule!G9),"
 ### Readings
-",IF(Schedule!L9,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+",IF(Schedule!L9,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/readings.html)"),"*None*"),"
 ### Notebooks
-",IF(Schedule!M9,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+",IF(Schedule!M9,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks.html)"),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 Introduction to APIs, web scraping feature creation, and feature creation/extraction.  The genaral goal is to get students to the point where they are able to start to do some data manipulation and utilize code they haven't created (packages, functions)
 ### Learning Objectives
 *None*
 ### Readings
-[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/notebooks/)
+[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/readings.html)
 ### Notebooks
-[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/assignments/)</v>
+[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/notebooks.html)</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1">
@@ -5092,9 +5092,9 @@
 ### Learning Objectives
 ",IF(ISBLANK(Schedule!G10),"*None*",Schedule!G10),"
 ### Readings
-",IF(Schedule!L10,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+",IF(Schedule!L10,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/readings.html)"),"*None*"),"
 ### Notebooks
-",IF(Schedule!M10,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+",IF(Schedule!M10,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks.html)"),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 Lab/homework
@@ -5120,7 +5120,7 @@
 ### Learning Objectives
 *None*
 ### Readings
-[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/notebooks/)
+[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/readings.html)
 ### Notebooks
 *None*</v>
       </c>
@@ -5140,16 +5140,16 @@
 ### Learning Objectives
 ",IF(ISBLANK(Schedule!G11),"*None*",Schedule!G11),"
 ### Readings
-",IF(Schedule!L11,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+",IF(Schedule!L11,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/readings.html)"),"*None*"),"
 ### Notebooks
-",IF(Schedule!M11,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+",IF(Schedule!M11,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks.html)"),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 Visualization is an important component of data understanding. 
 ### Learning Objectives
 *None*
 ### Readings
-[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/notebooks/)
+[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/readings.html)
 ### Notebooks
 *None*</v>
       </c>
@@ -5170,7 +5170,7 @@
 ### Readings
 *None*
 ### Notebooks
-[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/assignments/)</v>
+[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/notebooks.html)</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>19</v>
@@ -5188,9 +5188,9 @@
 ### Learning Objectives
 ",IF(ISBLANK(Schedule!G12),"*None*",Schedule!G12),"
 ### Readings
-",IF(Schedule!L12,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+",IF(Schedule!L12,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/readings.html)"),"*None*"),"
 ### Notebooks
-",IF(Schedule!M12,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+",IF(Schedule!M12,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks.html)"),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 Lab/homework
@@ -5199,7 +5199,7 @@
 ### Readings
 *None*
 ### Notebooks
-[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/assignments/)</v>
+[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/notebooks.html)</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1">
@@ -5216,7 +5216,7 @@
 ### Learning Objectives
 *None*
 ### Readings
-[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/notebooks/)
+[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/readings.html)
 ### Notebooks
 *None*</v>
       </c>
@@ -5236,16 +5236,16 @@
 ### Learning Objectives
 ",IF(ISBLANK(Schedule!G13),"*None*",Schedule!G13),"
 ### Readings
-",IF(Schedule!L13,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+",IF(Schedule!L13,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/readings.html)"),"*None*"),"
 ### Notebooks
-",IF(Schedule!M13,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+",IF(Schedule!M13,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks.html)"),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 The goal of this class is to get you familiar to using R. While we will be Jupyter notebooks, we will also examine using RStudio. Now that you have already started with Python, many of the concepts will map.
 ### Learning Objectives
 *None*
 ### Readings
-[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/notebooks/)
+[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/readings.html)
 ### Notebooks
 *None*</v>
       </c>
@@ -5284,9 +5284,9 @@
 ### Learning Objectives
 ",IF(ISBLANK(Schedule!G14),"*None*",Schedule!G14),"
 ### Readings
-",IF(Schedule!L14,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+",IF(Schedule!L14,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/readings.html)"),"*None*"),"
 ### Notebooks
-",IF(Schedule!M14,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+",IF(Schedule!M14,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks.html)"),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 Lab/homework
@@ -5312,7 +5312,7 @@
 ### Learning Objectives
 *None*
 ### Readings
-[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/notebooks/)
+[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/readings.html)
 ### Notebooks
 *None*</v>
       </c>
@@ -5332,16 +5332,16 @@
 ### Learning Objectives
 ",IF(ISBLANK(Schedule!G15),"*None*",Schedule!G15),"
 ### Readings
-",IF(Schedule!L15,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+",IF(Schedule!L15,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/readings.html)"),"*None*"),"
 ### Notebooks
-",IF(Schedule!M15,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+",IF(Schedule!M15,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks.html)"),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 We examine the basics of classess of supervised, unsupervised, reenforcement learning. Also examine overfitting and how cross validation is used for overfitting and how hypterparameters are used to optimize models. 
 ### Learning Objectives
 *None*
 ### Readings
-[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/notebooks/)
+[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/readings.html)
 ### Notebooks
 *None*</v>
       </c>
@@ -5362,7 +5362,7 @@
 ### Readings
 *None*
 ### Notebooks
-[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/assignments/)</v>
+[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/notebooks.html)</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>19</v>
@@ -5380,9 +5380,9 @@
 ### Learning Objectives
 ",IF(ISBLANK(Schedule!G16),"*None*",Schedule!G16),"
 ### Readings
-",IF(Schedule!L16,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+",IF(Schedule!L16,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/readings.html)"),"*None*"),"
 ### Notebooks
-",IF(Schedule!M16,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+",IF(Schedule!M16,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks.html)"),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 Lab/homework
@@ -5391,7 +5391,7 @@
 ### Readings
 *None*
 ### Notebooks
-[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/assignments/)</v>
+[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/notebooks.html)</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1">
@@ -5428,9 +5428,9 @@
 ### Learning Objectives
 ",IF(ISBLANK(Schedule!G17),"*None*",Schedule!G17),"
 ### Readings
-",IF(Schedule!L17,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+",IF(Schedule!L17,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/readings.html)"),"*None*"),"
 ### Notebooks
-",IF(Schedule!M17,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+",IF(Schedule!M17,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks.html)"),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 *None*
@@ -5458,7 +5458,7 @@
 ### Readings
 *None*
 ### Notebooks
-[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/assignments/)</v>
+[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/notebooks.html)</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>19</v>
@@ -5476,9 +5476,9 @@
 ### Learning Objectives
 ",IF(ISBLANK(Schedule!G18),"*None*",Schedule!G18),"
 ### Readings
-",IF(Schedule!L18,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+",IF(Schedule!L18,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/readings.html)"),"*None*"),"
 ### Notebooks
-",IF(Schedule!M18,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+",IF(Schedule!M18,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks.html)"),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 *None*
@@ -5487,7 +5487,7 @@
 ### Readings
 *None*
 ### Notebooks
-[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/assignments/)</v>
+[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/notebooks.html)</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1">
@@ -5524,9 +5524,9 @@
 ### Learning Objectives
 ",IF(ISBLANK(Schedule!G19),"*None*",Schedule!G19),"
 ### Readings
-",IF(Schedule!L19,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+",IF(Schedule!L19,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/readings.html)"),"*None*"),"
 ### Notebooks
-",IF(Schedule!M19,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+",IF(Schedule!M19,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks.html)"),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 Classifcation is one of the critical machine learning applications.  In this class we review a variety of different approaches. 
@@ -5572,9 +5572,9 @@
 ### Learning Objectives
 ",IF(ISBLANK(Schedule!G20),"*None*",Schedule!G20),"
 ### Readings
-",IF(Schedule!L20,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+",IF(Schedule!L20,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/readings.html)"),"*None*"),"
 ### Notebooks
-",IF(Schedule!M20,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+",IF(Schedule!M20,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks.html)"),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 Lab/homework
@@ -5620,9 +5620,9 @@
 ### Learning Objectives
 ",IF(ISBLANK(Schedule!G21),"*None*",Schedule!G21),"
 ### Readings
-",IF(Schedule!L21,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+",IF(Schedule!L21,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/readings.html)"),"*None*"),"
 ### Notebooks
-",IF(Schedule!M21,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+",IF(Schedule!M21,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks.html)"),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 Regression models similarly a a major type of machine learning application.  In this 
@@ -5668,9 +5668,9 @@
 ### Learning Objectives
 ",IF(ISBLANK(Schedule!G22),"*None*",Schedule!G22),"
 ### Readings
-",IF(Schedule!L22,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+",IF(Schedule!L22,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/readings.html)"),"*None*"),"
 ### Notebooks
-",IF(Schedule!M22,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+",IF(Schedule!M22,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks.html)"),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 Lab/homework
@@ -5696,7 +5696,7 @@
 ### Learning Objectives
 *None*
 ### Readings
-[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/notebooks/)
+[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/readings.html)
 ### Notebooks
 *None*</v>
       </c>
@@ -5716,16 +5716,16 @@
 ### Learning Objectives
 ",IF(ISBLANK(Schedule!G23),"*None*",Schedule!G23),"
 ### Readings
-",IF(Schedule!L23,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+",IF(Schedule!L23,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/readings.html)"),"*None*"),"
 ### Notebooks
-",IF(Schedule!M23,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+",IF(Schedule!M23,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks.html)"),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 The goal of this class is to investigate basic concepts surrounding text mining.
 ### Learning Objectives
 *None*
 ### Readings
-[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/notebooks/)
+[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/readings.html)
 ### Notebooks
 *None*</v>
       </c>
@@ -5764,9 +5764,9 @@
 ### Learning Objectives
 ",IF(ISBLANK(Schedule!G24),"*None*",Schedule!G24),"
 ### Readings
-",IF(Schedule!L24,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+",IF(Schedule!L24,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/readings.html)"),"*None*"),"
 ### Notebooks
-",IF(Schedule!M24,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+",IF(Schedule!M24,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks.html)"),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 Lab/homework
@@ -5812,9 +5812,9 @@
 ### Learning Objectives
 ",IF(ISBLANK(Schedule!G25),"*None*",Schedule!G25),"
 ### Readings
-",IF(Schedule!L25,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+",IF(Schedule!L25,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/readings.html)"),"*None*"),"
 ### Notebooks
-",IF(Schedule!M25,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+",IF(Schedule!M25,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks.html)"),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 The goal here is to provide an overview of how data processes can be scaled with Spark.
@@ -5840,7 +5840,7 @@
 ### Learning Objectives
 *None*
 ### Readings
-[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/notebooks/)
+[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/readings.html)
 ### Notebooks
 *None*</v>
       </c>
@@ -5860,16 +5860,16 @@
 ### Learning Objectives
 ",IF(ISBLANK(Schedule!G26),"*None*",Schedule!G26),"
 ### Readings
-",IF(Schedule!L26,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+",IF(Schedule!L26,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/readings.html)"),"*None*"),"
 ### Notebooks
-",IF(Schedule!M26,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+",IF(Schedule!M26,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks.html)"),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 Time series and panel data is a bit different and requires a different approach.  Here we cover some of the basics. 
 ### Learning Objectives
 *None*
 ### Readings
-[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/notebooks/)
+[Check here](https://rpi-data.github.io/course-intro-ml-app/sessions/readings.html)
 ### Notebooks
 *None*</v>
       </c>
@@ -5908,9 +5908,9 @@
 ### Learning Objectives
 ",IF(ISBLANK(Schedule!G27),"*None*",Schedule!G27),"
 ### Readings
-",IF(Schedule!L27,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+",IF(Schedule!L27,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/readings.html)"),"*None*"),"
 ### Notebooks
-",IF(Schedule!M27,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+",IF(Schedule!M27,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks.html)"),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 Image data is different and deep learning has transformed the ability of machines to process image data. In this lecture we will get an overview of image processing and deep learning techniques. 
@@ -5956,9 +5956,9 @@
 ### Learning Objectives
 ",IF(ISBLANK(Schedule!G28),"*None*",Schedule!G28),"
 ### Readings
-",IF(Schedule!L28,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+",IF(Schedule!L28,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/readings.html)"),"*None*"),"
 ### Notebooks
-",IF(Schedule!M28,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+",IF(Schedule!M28,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks.html)"),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 Lab/homework
@@ -6004,9 +6004,9 @@
 ### Learning Objectives
 ",IF(ISBLANK(Schedule!G29),"*None*",Schedule!G29),"
 ### Readings
-",IF(Schedule!L29,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+",IF(Schedule!L29,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/readings.html)"),"*None*"),"
 ### Notebooks
-",IF(Schedule!M29,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+",IF(Schedule!M29,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks.html)"),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 Increasingly there are tools to automate the process of selecting models. 
@@ -6052,9 +6052,9 @@
 ### Learning Objectives
 ",IF(ISBLANK(Schedule!G30),"*None*",Schedule!G30),"
 ### Readings
-",IF(Schedule!L30,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+",IF(Schedule!L30,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/readings.html)"),"*None*"),"
 ### Notebooks
-",IF(Schedule!M30,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+",IF(Schedule!M30,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks.html)"),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 *None*
@@ -6100,9 +6100,9 @@
 ### Learning Objectives
 ",IF(ISBLANK(Schedule!G31),"*None*",Schedule!G31),"
 ### Readings
-",IF(Schedule!L31,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+",IF(Schedule!L31,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/readings.html)"),"*None*"),"
 ### Notebooks
-",IF(Schedule!M31,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+",IF(Schedule!M31,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks.html)"),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 Lab/homework
@@ -6148,9 +6148,9 @@
 ### Learning Objectives
 ",IF(ISBLANK(Schedule!G32),"*None*",Schedule!G32),"
 ### Readings
-",IF(Schedule!L32,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+",IF(Schedule!L32,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/readings.html)"),"*None*"),"
 ### Notebooks
-",IF(Schedule!M32,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+",IF(Schedule!M32,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks.html)"),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 *None*
@@ -6196,9 +6196,9 @@
 ### Learning Objectives
 ",IF(ISBLANK(Schedule!G33),"*None*",Schedule!G33),"
 ### Readings
-",IF(Schedule!L33,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+",IF(Schedule!L33,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/readings.html)"),"*None*"),"
 ### Notebooks
-",IF(Schedule!M33,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+",IF(Schedule!M33,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks.html)"),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 *None*
@@ -6244,9 +6244,9 @@
 ### Learning Objectives
 ",IF(ISBLANK(Schedule!G34),"*None*",Schedule!G34),"
 ### Readings
-",IF(Schedule!L34,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks/)"),"*None*"),"
+",IF(Schedule!L34,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/readings.html)"),"*None*"),"
 ### Notebooks
-",IF(Schedule!M34,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/assignments/)"),"*None*"))</f>
+",IF(Schedule!M34,CONCATENATE("[Check here](",Configuration!B$20,Configuration!B$19,"/sessions/notebooks.html)"),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 *None*
@@ -6271,7 +6271,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="15" customHeight="1"/>
@@ -6309,7 +6309,9 @@
 ### Description
 ",IF(ISBLANK(Schedule!I3),"*None*",Schedule!I3),"
 ### Instructions
-",IF(ISBLANK(Schedule!J3),"*None*",Schedule!J3)))</f>
+",IF(ISBLANK(Schedule!J3),"*None*",Schedule!J3),"
+### Link
+",IF(ISBLANK(Schedule!K8),"*None*",Schedule!R8)))</f>
         <v/>
       </c>
       <c r="F2" s="41"/>
@@ -6333,7 +6335,9 @@
 ### Description
 ",IF(ISBLANK(Schedule!I4),"*None*",Schedule!I4),"
 ### Instructions
-",IF(ISBLANK(Schedule!J4),"*None*",Schedule!J4)))</f>
+",IF(ISBLANK(Schedule!J4),"*None*",Schedule!J4),"
+### Link
+",IF(ISBLANK(Schedule!K9),"*None*",Schedule!R9)))</f>
         <v/>
       </c>
     </row>
@@ -29990,11 +29994,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R956"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="G18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T7" sqref="T7"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="15.6"/>
@@ -30009,8 +30013,9 @@
     <col min="11" max="11" width="36" style="51" customWidth="1"/>
     <col min="12" max="12" width="10.6484375" style="51" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.5" style="86" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5" style="82" hidden="1" customWidth="1"/>
-    <col min="15" max="18" width="10.5" style="72" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5" style="82" customWidth="1"/>
+    <col min="15" max="15" width="10" style="72" customWidth="1"/>
+    <col min="16" max="18" width="10.5" style="72" customWidth="1"/>
     <col min="19" max="26" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -30117,8 +30122,8 @@
         <v/>
       </c>
       <c r="O3" s="72" t="str">
-        <f>IF(B3&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B3,"/)"),"")</f>
-        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session1/)</v>
+        <f>IF(B3&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B3,".html)"),"")</f>
+        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session1.html)</v>
       </c>
       <c r="P3" s="72" t="str">
         <f>IF(ISBLANK(H3),"",CONCATENATE(" &lt;br&gt; *",N3,"* &lt;br&gt;"))</f>
@@ -30126,7 +30131,7 @@
       </c>
       <c r="Q3" s="72" t="str">
         <f t="shared" ref="Q3:Q34" si="0">CONCATENATE("**",TRIM(E3),"** &lt;br&gt; ", O3, P3)</f>
-        <v>**Course Overview &amp; Introduction to the Data Science Lifecycle** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session1/)</v>
+        <v>**Course Overview &amp; Introduction to the Data Science Lifecycle** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session1.html)</v>
       </c>
       <c r="R3" s="72" t="str">
         <f>CONCATENATE("[Assignment ",H3,"](",K3,")")</f>
@@ -30160,7 +30165,7 @@
         <v/>
       </c>
       <c r="O4" s="72" t="str">
-        <f>IF(B4&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B4,"/)"),"")</f>
+        <f>IF(B4&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B4,".html)"),"")</f>
         <v/>
       </c>
       <c r="P4" s="72" t="str">
@@ -30220,8 +30225,8 @@
         <v>Assignment 1 due 09/17</v>
       </c>
       <c r="O5" s="72" t="str">
-        <f>IF(B5&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B5,"/)"),"")</f>
-        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session2/)</v>
+        <f>IF(B5&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B5,".html)"),"")</f>
+        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session2.html)</v>
       </c>
       <c r="P5" s="72" t="str">
         <f t="shared" si="1"/>
@@ -30229,7 +30234,7 @@
       </c>
       <c r="Q5" s="72" t="str">
         <f t="shared" si="0"/>
-        <v>**Python Basics** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session2/) &lt;br&gt; *Assignment 1 due 09/17* &lt;br&gt;</v>
+        <v>**Python Basics** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session2.html) &lt;br&gt; *Assignment 1 due 09/17* &lt;br&gt;</v>
       </c>
       <c r="R5" s="72" t="str">
         <f t="shared" si="2"/>
@@ -30269,8 +30274,8 @@
         <v/>
       </c>
       <c r="O6" s="72" t="str">
-        <f>IF(B6&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B6,"/)"),"")</f>
-        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session3/)</v>
+        <f>IF(B6&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B6,".html)"),"")</f>
+        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session3.html)</v>
       </c>
       <c r="P6" s="72" t="str">
         <f t="shared" si="1"/>
@@ -30278,7 +30283,7 @@
       </c>
       <c r="Q6" s="72" t="str">
         <f t="shared" si="0"/>
-        <v>**Python Basics** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session3/)</v>
+        <v>**Python Basics** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session3.html)</v>
       </c>
       <c r="R6" s="72" t="str">
         <f t="shared" si="2"/>
@@ -30319,8 +30324,8 @@
         <v/>
       </c>
       <c r="O7" s="72" t="str">
-        <f>IF(B7&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B7,"/)"),"")</f>
-        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session4/)</v>
+        <f>IF(B7&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B7,".html)"),"")</f>
+        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session4.html)</v>
       </c>
       <c r="P7" s="72" t="str">
         <f t="shared" si="1"/>
@@ -30328,7 +30333,7 @@
       </c>
       <c r="Q7" s="72" t="str">
         <f t="shared" si="0"/>
-        <v>**Python conditionals, loops, functions, aggregating.** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session4/)</v>
+        <v>**Python conditionals, loops, functions, aggregating.** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session4.html)</v>
       </c>
       <c r="R7" s="72" t="str">
         <f t="shared" si="2"/>
@@ -30375,8 +30380,8 @@
         <v>Assignment 2 due 09/26</v>
       </c>
       <c r="O8" s="72" t="str">
-        <f>IF(B8&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B8,"/)"),"")</f>
-        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session5/)</v>
+        <f>IF(B8&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B8,".html)"),"")</f>
+        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session5.html)</v>
       </c>
       <c r="P8" s="72" t="str">
         <f t="shared" si="1"/>
@@ -30384,7 +30389,7 @@
       </c>
       <c r="Q8" s="72" t="str">
         <f t="shared" si="0"/>
-        <v>**Python conditionals, loops, functions, aggregating (continued)** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session5/) &lt;br&gt; *Assignment 2 due 09/26* &lt;br&gt;</v>
+        <v>**Python conditionals, loops, functions, aggregating (continued)** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session5.html) &lt;br&gt; *Assignment 2 due 09/26* &lt;br&gt;</v>
       </c>
       <c r="R8" s="72" t="str">
         <f t="shared" si="2"/>
@@ -30425,8 +30430,8 @@
         <v/>
       </c>
       <c r="O9" s="72" t="str">
-        <f>IF(B9&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B9,"/)"),"")</f>
-        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session6/)</v>
+        <f>IF(B9&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B9,".html)"),"")</f>
+        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session6.html)</v>
       </c>
       <c r="P9" s="72" t="str">
         <f t="shared" si="1"/>
@@ -30434,7 +30439,7 @@
       </c>
       <c r="Q9" s="72" t="str">
         <f t="shared" si="0"/>
-        <v>**Python visualization, data manipulation , and feature creation.** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session6/)</v>
+        <v>**Python visualization, data manipulation , and feature creation.** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session6.html)</v>
       </c>
       <c r="R9" s="72" t="str">
         <f t="shared" si="2"/>
@@ -30481,8 +30486,8 @@
         <v>Assignment 3 due 10/03</v>
       </c>
       <c r="O10" s="72" t="str">
-        <f>IF(B10&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B10,"/)"),"")</f>
-        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session7/)</v>
+        <f>IF(B10&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B10,".html)"),"")</f>
+        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session7.html)</v>
       </c>
       <c r="P10" s="72" t="str">
         <f t="shared" si="1"/>
@@ -30490,7 +30495,7 @@
       </c>
       <c r="Q10" s="72" t="str">
         <f t="shared" si="0"/>
-        <v>**Python visualization, data manipulation , and feature creation (continued)** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session7/) &lt;br&gt; *Assignment 3 due 10/03* &lt;br&gt;</v>
+        <v>**Python visualization, data manipulation , and feature creation (continued)** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session7.html) &lt;br&gt; *Assignment 3 due 10/03* &lt;br&gt;</v>
       </c>
       <c r="R10" s="72" t="str">
         <f t="shared" si="2"/>
@@ -30531,8 +30536,8 @@
         <v/>
       </c>
       <c r="O11" s="72" t="str">
-        <f>IF(B11&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B11,"/)"),"")</f>
-        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session8/)</v>
+        <f>IF(B11&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B11,".html)"),"")</f>
+        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session8.html)</v>
       </c>
       <c r="P11" s="72" t="str">
         <f t="shared" si="1"/>
@@ -30540,7 +30545,7 @@
       </c>
       <c r="Q11" s="72" t="str">
         <f t="shared" si="0"/>
-        <v>**Visualization with Tableau** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session8/)</v>
+        <v>**Visualization with Tableau** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session8.html)</v>
       </c>
       <c r="R11" s="72" t="str">
         <f t="shared" si="2"/>
@@ -30584,8 +30589,8 @@
         <v>Assignment 4 due 10/10</v>
       </c>
       <c r="O12" s="72" t="str">
-        <f>IF(B12&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B12,"/)"),"")</f>
-        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session9/)</v>
+        <f>IF(B12&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B12,".html)"),"")</f>
+        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session9.html)</v>
       </c>
       <c r="P12" s="72" t="str">
         <f t="shared" si="1"/>
@@ -30593,7 +30598,7 @@
       </c>
       <c r="Q12" s="72" t="str">
         <f t="shared" si="0"/>
-        <v>**Visualization with Tableau** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session9/) &lt;br&gt; *Assignment 4 due 10/10* &lt;br&gt;</v>
+        <v>**Visualization with Tableau** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session9.html) &lt;br&gt; *Assignment 4 due 10/10* &lt;br&gt;</v>
       </c>
       <c r="R12" s="72" t="str">
         <f t="shared" si="2"/>
@@ -30634,8 +30639,8 @@
         <v/>
       </c>
       <c r="O13" s="72" t="str">
-        <f>IF(B13&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B13,"/)"),"")</f>
-        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session10/)</v>
+        <f>IF(B13&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B13,".html)"),"")</f>
+        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session10.html)</v>
       </c>
       <c r="P13" s="72" t="str">
         <f t="shared" si="1"/>
@@ -30643,7 +30648,7 @@
       </c>
       <c r="Q13" s="72" t="str">
         <f t="shared" si="0"/>
-        <v>**Introduction to R** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session10/)</v>
+        <v>**Introduction to R** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session10.html)</v>
       </c>
       <c r="R13" s="72" t="str">
         <f t="shared" si="2"/>
@@ -30686,8 +30691,8 @@
         <v>Assignment 5 due 10/17</v>
       </c>
       <c r="O14" s="72" t="str">
-        <f>IF(B14&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B14,"/)"),"")</f>
-        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session11/)</v>
+        <f>IF(B14&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B14,".html)"),"")</f>
+        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session11.html)</v>
       </c>
       <c r="P14" s="72" t="str">
         <f t="shared" si="1"/>
@@ -30695,7 +30700,7 @@
       </c>
       <c r="Q14" s="72" t="str">
         <f t="shared" si="0"/>
-        <v>**Introduction to R** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session11/) &lt;br&gt; *Assignment 5 due 10/17* &lt;br&gt;</v>
+        <v>**Introduction to R** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session11.html) &lt;br&gt; *Assignment 5 due 10/17* &lt;br&gt;</v>
       </c>
       <c r="R14" s="72" t="str">
         <f t="shared" si="2"/>
@@ -30736,8 +30741,8 @@
         <v/>
       </c>
       <c r="O15" s="72" t="str">
-        <f>IF(B15&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B15,"/)"),"")</f>
-        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session12/)</v>
+        <f>IF(B15&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B15,".html)"),"")</f>
+        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session12.html)</v>
       </c>
       <c r="P15" s="72" t="str">
         <f t="shared" si="1"/>
@@ -30745,7 +30750,7 @@
       </c>
       <c r="Q15" s="72" t="str">
         <f t="shared" si="0"/>
-        <v>**Overview of Modeling** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session12/)</v>
+        <v>**Overview of Modeling** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session12.html)</v>
       </c>
       <c r="R15" s="72" t="str">
         <f t="shared" si="2"/>
@@ -30788,8 +30793,8 @@
         <v>Assignment 6 due 10/24</v>
       </c>
       <c r="O16" s="72" t="str">
-        <f>IF(B16&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B16,"/)"),"")</f>
-        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session13/)</v>
+        <f>IF(B16&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B16,".html)"),"")</f>
+        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session13.html)</v>
       </c>
       <c r="P16" s="72" t="str">
         <f t="shared" si="1"/>
@@ -30797,7 +30802,7 @@
       </c>
       <c r="Q16" s="72" t="str">
         <f t="shared" si="0"/>
-        <v>**Overview of Modeling** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session13/) &lt;br&gt; *Assignment 6 due 10/24* &lt;br&gt;</v>
+        <v>**Overview of Modeling** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session13.html) &lt;br&gt; *Assignment 6 due 10/24* &lt;br&gt;</v>
       </c>
       <c r="R16" s="72" t="str">
         <f t="shared" si="2"/>
@@ -30836,8 +30841,8 @@
         <v/>
       </c>
       <c r="O17" s="72" t="str">
-        <f>IF(B17&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B17,"/)"),"")</f>
-        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session14/)</v>
+        <f>IF(B17&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B17,".html)"),"")</f>
+        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session14.html)</v>
       </c>
       <c r="P17" s="72" t="str">
         <f t="shared" si="1"/>
@@ -30845,7 +30850,7 @@
       </c>
       <c r="Q17" s="72" t="str">
         <f t="shared" si="0"/>
-        <v>**Review/Kaggle Project Introduction** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session14/)</v>
+        <v>**Review/Kaggle Project Introduction** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session14.html)</v>
       </c>
       <c r="R17" s="72" t="str">
         <f t="shared" si="2"/>
@@ -30885,8 +30890,8 @@
         <v>Assignment 7 due 10/31</v>
       </c>
       <c r="O18" s="72" t="str">
-        <f>IF(B18&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B18,"/)"),"")</f>
-        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session15/)</v>
+        <f>IF(B18&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B18,".html)"),"")</f>
+        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session15.html)</v>
       </c>
       <c r="P18" s="72" t="str">
         <f t="shared" si="1"/>
@@ -30894,7 +30899,7 @@
       </c>
       <c r="Q18" s="72" t="str">
         <f t="shared" si="0"/>
-        <v>**Midterm** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session15/) &lt;br&gt; *Assignment 7 due 10/31* &lt;br&gt;</v>
+        <v>**Midterm** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session15.html) &lt;br&gt; *Assignment 7 due 10/31* &lt;br&gt;</v>
       </c>
       <c r="R18" s="72" t="str">
         <f t="shared" si="2"/>
@@ -30935,8 +30940,8 @@
         <v/>
       </c>
       <c r="O19" s="72" t="str">
-        <f>IF(B19&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B19,"/)"),"")</f>
-        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session16/)</v>
+        <f>IF(B19&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B19,".html)"),"")</f>
+        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session16.html)</v>
       </c>
       <c r="P19" s="72" t="str">
         <f t="shared" si="1"/>
@@ -30944,7 +30949,7 @@
       </c>
       <c r="Q19" s="72" t="str">
         <f t="shared" si="0"/>
-        <v>**Classification** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session16/)</v>
+        <v>**Classification** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session16.html)</v>
       </c>
       <c r="R19" s="72" t="str">
         <f t="shared" si="2"/>
@@ -30985,8 +30990,8 @@
         <v/>
       </c>
       <c r="O20" s="72" t="str">
-        <f>IF(B20&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B20,"/)"),"")</f>
-        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session17/)</v>
+        <f>IF(B20&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B20,".html)"),"")</f>
+        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session17.html)</v>
       </c>
       <c r="P20" s="72" t="str">
         <f t="shared" si="1"/>
@@ -30994,7 +30999,7 @@
       </c>
       <c r="Q20" s="72" t="str">
         <f t="shared" si="0"/>
-        <v>**Classification** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session17/)</v>
+        <v>**Classification** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session17.html)</v>
       </c>
       <c r="R20" s="72" t="str">
         <f t="shared" si="2"/>
@@ -31035,8 +31040,8 @@
         <v/>
       </c>
       <c r="O21" s="72" t="str">
-        <f>IF(B21&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B21,"/)"),"")</f>
-        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session18/)</v>
+        <f>IF(B21&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B21,".html)"),"")</f>
+        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session18.html)</v>
       </c>
       <c r="P21" s="72" t="str">
         <f t="shared" si="1"/>
@@ -31044,7 +31049,7 @@
       </c>
       <c r="Q21" s="72" t="str">
         <f t="shared" si="0"/>
-        <v>**Regression** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session18/)</v>
+        <v>**Regression** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session18.html)</v>
       </c>
       <c r="R21" s="72" t="str">
         <f t="shared" si="2"/>
@@ -31085,8 +31090,8 @@
         <v/>
       </c>
       <c r="O22" s="72" t="str">
-        <f>IF(B22&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B22,"/)"),"")</f>
-        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session19/)</v>
+        <f>IF(B22&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B22,".html)"),"")</f>
+        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session19.html)</v>
       </c>
       <c r="P22" s="72" t="str">
         <f t="shared" si="1"/>
@@ -31094,7 +31099,7 @@
       </c>
       <c r="Q22" s="72" t="str">
         <f t="shared" si="0"/>
-        <v>**Regression** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session19/)</v>
+        <v>**Regression** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session19.html)</v>
       </c>
       <c r="R22" s="72" t="str">
         <f t="shared" si="2"/>
@@ -31135,8 +31140,8 @@
         <v/>
       </c>
       <c r="O23" s="72" t="str">
-        <f>IF(B23&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B23,"/)"),"")</f>
-        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session20/)</v>
+        <f>IF(B23&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B23,".html)"),"")</f>
+        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session20.html)</v>
       </c>
       <c r="P23" s="72" t="str">
         <f t="shared" si="1"/>
@@ -31144,7 +31149,7 @@
       </c>
       <c r="Q23" s="72" t="str">
         <f t="shared" si="0"/>
-        <v>**Text and NLP** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session20/)</v>
+        <v>**Text and NLP** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session20.html)</v>
       </c>
       <c r="R23" s="72" t="str">
         <f t="shared" si="2"/>
@@ -31185,8 +31190,8 @@
         <v/>
       </c>
       <c r="O24" s="72" t="str">
-        <f>IF(B24&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B24,"/)"),"")</f>
-        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session21/)</v>
+        <f>IF(B24&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B24,".html)"),"")</f>
+        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session21.html)</v>
       </c>
       <c r="P24" s="72" t="str">
         <f t="shared" si="1"/>
@@ -31194,7 +31199,7 @@
       </c>
       <c r="Q24" s="72" t="str">
         <f t="shared" si="0"/>
-        <v>**Text and NLP** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session21/)</v>
+        <v>**Text and NLP** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session21.html)</v>
       </c>
       <c r="R24" s="72" t="str">
         <f t="shared" si="2"/>
@@ -31238,8 +31243,8 @@
         <v>Assignment 8 due 11/25</v>
       </c>
       <c r="O25" s="72" t="str">
-        <f>IF(B25&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B25,"/)"),"")</f>
-        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session22/)</v>
+        <f>IF(B25&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B25,".html)"),"")</f>
+        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session22.html)</v>
       </c>
       <c r="P25" s="72" t="str">
         <f t="shared" si="1"/>
@@ -31247,7 +31252,7 @@
       </c>
       <c r="Q25" s="72" t="str">
         <f t="shared" si="0"/>
-        <v>**Introduction to Big Data** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session22/) &lt;br&gt; *Assignment 8 due 11/25* &lt;br&gt;</v>
+        <v>**Introduction to Big Data** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session22.html) &lt;br&gt; *Assignment 8 due 11/25* &lt;br&gt;</v>
       </c>
       <c r="R25" s="72" t="str">
         <f t="shared" si="2"/>
@@ -31288,8 +31293,8 @@
         <v/>
       </c>
       <c r="O26" s="72" t="str">
-        <f>IF(B26&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B26,"/)"),"")</f>
-        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session23/)</v>
+        <f>IF(B26&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B26,".html)"),"")</f>
+        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session23.html)</v>
       </c>
       <c r="P26" s="72" t="str">
         <f t="shared" si="1"/>
@@ -31297,7 +31302,7 @@
       </c>
       <c r="Q26" s="72" t="str">
         <f t="shared" si="0"/>
-        <v>**Time Series Analysis** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session23/)</v>
+        <v>**Time Series Analysis** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session23.html)</v>
       </c>
       <c r="R26" s="72" t="str">
         <f t="shared" si="2"/>
@@ -31338,8 +31343,8 @@
         <v/>
       </c>
       <c r="O27" s="72" t="str">
-        <f>IF(B27&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B27,"/)"),"")</f>
-        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session24/)</v>
+        <f>IF(B27&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B27,".html)"),"")</f>
+        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session24.html)</v>
       </c>
       <c r="P27" s="72" t="str">
         <f t="shared" si="1"/>
@@ -31347,7 +31352,7 @@
       </c>
       <c r="Q27" s="72" t="str">
         <f t="shared" si="0"/>
-        <v>**Image Data and Deep Learning** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session24/)</v>
+        <v>**Image Data and Deep Learning** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session24.html)</v>
       </c>
       <c r="R27" s="72" t="str">
         <f t="shared" si="2"/>
@@ -31388,8 +31393,8 @@
         <v/>
       </c>
       <c r="O28" s="72" t="str">
-        <f>IF(B28&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B28,"/)"),"")</f>
-        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session25/)</v>
+        <f>IF(B28&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B28,".html)"),"")</f>
+        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session25.html)</v>
       </c>
       <c r="P28" s="72" t="str">
         <f t="shared" si="1"/>
@@ -31397,7 +31402,7 @@
       </c>
       <c r="Q28" s="72" t="str">
         <f t="shared" si="0"/>
-        <v>**Image Data and Deep Learning** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session25/)</v>
+        <v>**Image Data and Deep Learning** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session25.html)</v>
       </c>
       <c r="R28" s="72" t="str">
         <f t="shared" si="2"/>
@@ -31438,8 +31443,8 @@
         <v/>
       </c>
       <c r="O29" s="72" t="str">
-        <f>IF(B29&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B29,"/)"),"")</f>
-        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session26/)</v>
+        <f>IF(B29&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B29,".html)"),"")</f>
+        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session26.html)</v>
       </c>
       <c r="P29" s="72" t="str">
         <f t="shared" si="1"/>
@@ -31447,7 +31452,7 @@
       </c>
       <c r="Q29" s="72" t="str">
         <f t="shared" si="0"/>
-        <v>**Automl and Modeling Packages** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session26/)</v>
+        <v>**Automl and Modeling Packages** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session26.html)</v>
       </c>
       <c r="R29" s="72" t="str">
         <f t="shared" si="2"/>
@@ -31482,7 +31487,7 @@
         <v/>
       </c>
       <c r="O30" s="72" t="str">
-        <f>IF(B30&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B30,"/)"),"")</f>
+        <f>IF(B30&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B30,".html)"),"")</f>
         <v/>
       </c>
       <c r="P30" s="72" t="str">
@@ -31531,8 +31536,8 @@
         <v/>
       </c>
       <c r="O31" s="72" t="str">
-        <f>IF(B31&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B31,"/)"),"")</f>
-        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session27/)</v>
+        <f>IF(B31&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B31,".html)"),"")</f>
+        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session27.html)</v>
       </c>
       <c r="P31" s="72" t="str">
         <f t="shared" si="1"/>
@@ -31540,7 +31545,7 @@
       </c>
       <c r="Q31" s="72" t="str">
         <f t="shared" si="0"/>
-        <v>**Automl and Model Search** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session27/)</v>
+        <v>**Automl and Model Search** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session27.html)</v>
       </c>
       <c r="R31" s="72" t="str">
         <f t="shared" si="2"/>
@@ -31579,8 +31584,8 @@
         <v/>
       </c>
       <c r="O32" s="72" t="str">
-        <f>IF(B32&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B32,"/)"),"")</f>
-        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session28/)</v>
+        <f>IF(B32&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B32,".html)"),"")</f>
+        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session28.html)</v>
       </c>
       <c r="P32" s="72" t="str">
         <f t="shared" si="1"/>
@@ -31588,7 +31593,7 @@
       </c>
       <c r="Q32" s="72" t="str">
         <f t="shared" si="0"/>
-        <v>**Final Presentations** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session28/)</v>
+        <v>**Final Presentations** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session28.html)</v>
       </c>
       <c r="R32" s="72" t="str">
         <f t="shared" si="2"/>
@@ -31626,8 +31631,8 @@
         <v/>
       </c>
       <c r="O33" s="72" t="str">
-        <f>IF(B33&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B33,"/)"),"")</f>
-        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session29/)</v>
+        <f>IF(B33&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B33,".html)"),"")</f>
+        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session29.html)</v>
       </c>
       <c r="P33" s="72" t="str">
         <f t="shared" si="1"/>
@@ -31635,7 +31640,7 @@
       </c>
       <c r="Q33" s="72" t="str">
         <f t="shared" si="0"/>
-        <v>**Final Presentations** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session29/)</v>
+        <v>**Final Presentations** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session29.html)</v>
       </c>
       <c r="R33" s="72" t="str">
         <f t="shared" si="2"/>
@@ -31668,7 +31673,7 @@
         <v/>
       </c>
       <c r="O34" s="72" t="str">
-        <f>IF(B34&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B34,"/)"),"")</f>
+        <f>IF(B34&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B34,".html)"),"")</f>
         <v/>
       </c>
       <c r="P34" s="72" t="str">
@@ -31690,7 +31695,7 @@
       <c r="F35" s="62"/>
       <c r="G35" s="62"/>
       <c r="O35" s="72" t="str">
-        <f>IF(B35&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B35,"/)"),"")</f>
+        <f>IF(B35&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B35,".html)"),"")</f>
         <v/>
       </c>
       <c r="P35" s="72" t="str">
@@ -31711,7 +31716,7 @@
       <c r="M36" s="88"/>
       <c r="N36" s="83"/>
       <c r="O36" s="72" t="str">
-        <f>IF(B36&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B36,"/)"),"")</f>
+        <f>IF(B36&gt;0,CONCATENATE("[more](",Configuration!B$20,Configuration!B$19,"/sessions/session",B36,".html)"),"")</f>
         <v/>
       </c>
     </row>
@@ -47344,7 +47349,7 @@
     <row r="4" spans="1:4" ht="15" customHeight="1">
       <c r="A4" s="4" t="str">
         <f>CONCATENATE("| ",Schedule!A3," | ",Schedule!B3," | ",Schedule!C3," | ",TEXT(Schedule!D3,"mm/dd")," | ",Schedule!Q3," |")</f>
-        <v>| 1 | 1 | Th | 08/29 | **Course Overview &amp; Introduction to the Data Science Lifecycle** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session1/) |</v>
+        <v>| 1 | 1 | Th | 08/29 | **Course Overview &amp; Introduction to the Data Science Lifecycle** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session1.html) |</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -47357,151 +47362,151 @@
     <row r="6" spans="1:4" ht="15" customHeight="1">
       <c r="A6" s="40" t="str">
         <f>CONCATENATE("| ",Schedule!A5," | ",Schedule!B5," | ",Schedule!C5," | ",TEXT(Schedule!D5,"mm/dd")," | ",Schedule!Q5," |")</f>
-        <v>| 2 | 2 | Tu | 09/03 | **Python Basics** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session2/) &lt;br&gt; *Assignment 1 due 09/17* &lt;br&gt; |</v>
+        <v>| 2 | 2 | Tu | 09/03 | **Python Basics** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session2.html) &lt;br&gt; *Assignment 1 due 09/17* &lt;br&gt; |</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1">
       <c r="A7" s="40" t="str">
         <f>CONCATENATE("| ",Schedule!A6," | ",Schedule!B6," | ",Schedule!C6," | ",TEXT(Schedule!D6,"mm/dd")," | ",Schedule!Q6," |")</f>
-        <v>| 2 | 3 | Th | 09/05 | **Python Basics** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session3/) |</v>
+        <v>| 2 | 3 | Th | 09/05 | **Python Basics** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session3.html) |</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1">
       <c r="A8" s="40" t="str">
         <f>CONCATENATE("| ",Schedule!A7," | ",Schedule!B7," | ",Schedule!C7," | ",TEXT(Schedule!D7,"mm/dd")," | ",Schedule!Q7," |")</f>
-        <v>| 3 | 4 | M | 09/09 | **Python conditionals, loops, functions, aggregating.** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session4/) |</v>
+        <v>| 3 | 4 | M | 09/09 | **Python conditionals, loops, functions, aggregating.** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session4.html) |</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1">
       <c r="A9" s="40" t="str">
         <f>CONCATENATE("| ",Schedule!A8," | ",Schedule!B8," | ",Schedule!C8," | ",TEXT(Schedule!D8,"mm/dd")," | ",Schedule!Q8," |")</f>
-        <v>| 3 | 5 | Th | 09/12 | **Python conditionals, loops, functions, aggregating (continued)** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session5/) &lt;br&gt; *Assignment 2 due 09/26* &lt;br&gt; |</v>
+        <v>| 3 | 5 | Th | 09/12 | **Python conditionals, loops, functions, aggregating (continued)** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session5.html) &lt;br&gt; *Assignment 2 due 09/26* &lt;br&gt; |</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1">
       <c r="A10" s="40" t="str">
         <f>CONCATENATE("| ",Schedule!A9," | ",Schedule!B9," | ",Schedule!C9," | ",TEXT(Schedule!D9,"mm/dd")," | ",Schedule!Q9," |")</f>
-        <v>| 4 | 6 | M | 09/16 | **Python visualization, data manipulation , and feature creation.** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session6/) |</v>
+        <v>| 4 | 6 | M | 09/16 | **Python visualization, data manipulation , and feature creation.** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session6.html) |</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1">
       <c r="A11" s="40" t="str">
         <f>CONCATENATE("| ",Schedule!A10," | ",Schedule!B10," | ",Schedule!C10," | ",TEXT(Schedule!D10,"mm/dd")," | ",Schedule!Q10," |")</f>
-        <v>| 4 | 7 | Th | 09/19 | **Python visualization, data manipulation , and feature creation (continued)** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session7/) &lt;br&gt; *Assignment 3 due 10/03* &lt;br&gt; |</v>
+        <v>| 4 | 7 | Th | 09/19 | **Python visualization, data manipulation , and feature creation (continued)** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session7.html) &lt;br&gt; *Assignment 3 due 10/03* &lt;br&gt; |</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1">
       <c r="A12" s="40" t="str">
         <f>CONCATENATE("| ",Schedule!A11," | ",Schedule!B11," | ",Schedule!C11," | ",TEXT(Schedule!D11,"mm/dd")," | ",Schedule!Q11," |")</f>
-        <v>| 5 | 8 | M | 09/23 | **Visualization with Tableau** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session8/) |</v>
+        <v>| 5 | 8 | M | 09/23 | **Visualization with Tableau** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session8.html) |</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1">
       <c r="A13" s="40" t="str">
         <f>CONCATENATE("| ",Schedule!A12," | ",Schedule!B12," | ",Schedule!C12," | ",TEXT(Schedule!D12,"mm/dd")," | ",Schedule!Q12," |")</f>
-        <v>| 5 | 9 | Th | 09/26 | **Visualization with Tableau** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session9/) &lt;br&gt; *Assignment 4 due 10/10* &lt;br&gt; |</v>
+        <v>| 5 | 9 | Th | 09/26 | **Visualization with Tableau** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session9.html) &lt;br&gt; *Assignment 4 due 10/10* &lt;br&gt; |</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1">
       <c r="A14" s="40" t="str">
         <f>CONCATENATE("| ",Schedule!A13," | ",Schedule!B13," | ",Schedule!C13," | ",TEXT(Schedule!D13,"mm/dd")," | ",Schedule!Q13," |")</f>
-        <v>| 6 | 10 | M | 09/30 | **Introduction to R** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session10/) |</v>
+        <v>| 6 | 10 | M | 09/30 | **Introduction to R** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session10.html) |</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1">
       <c r="A15" s="40" t="str">
         <f>CONCATENATE("| ",Schedule!A14," | ",Schedule!B14," | ",Schedule!C14," | ",TEXT(Schedule!D14,"mm/dd")," | ",Schedule!Q14," |")</f>
-        <v>| 6 | 11 | Th | 10/03 | **Introduction to R** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session11/) &lt;br&gt; *Assignment 5 due 10/17* &lt;br&gt; |</v>
+        <v>| 6 | 11 | Th | 10/03 | **Introduction to R** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session11.html) &lt;br&gt; *Assignment 5 due 10/17* &lt;br&gt; |</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1">
       <c r="A16" s="40" t="str">
         <f>CONCATENATE("| ",Schedule!A15," | ",Schedule!B15," | ",Schedule!C15," | ",TEXT(Schedule!D15,"mm/dd")," | ",Schedule!Q15," |")</f>
-        <v>| 7 | 12 | M | 10/07 | **Overview of Modeling** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session12/) |</v>
+        <v>| 7 | 12 | M | 10/07 | **Overview of Modeling** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session12.html) |</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15" customHeight="1">
       <c r="A17" s="40" t="str">
         <f>CONCATENATE("| ",Schedule!A16," | ",Schedule!B16," | ",Schedule!C16," | ",TEXT(Schedule!D16,"mm/dd")," | ",Schedule!Q16," |")</f>
-        <v>| 7 | 13 | Th | 10/10 | **Overview of Modeling** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session13/) &lt;br&gt; *Assignment 6 due 10/24* &lt;br&gt; |</v>
+        <v>| 7 | 13 | Th | 10/10 | **Overview of Modeling** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session13.html) &lt;br&gt; *Assignment 6 due 10/24* &lt;br&gt; |</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15" customHeight="1">
       <c r="A18" s="40" t="str">
         <f>CONCATENATE("| ",Schedule!A17," | ",Schedule!B17," | ",Schedule!C17," | ",TEXT(Schedule!D17,"mm/dd")," | ",Schedule!Q17," |")</f>
-        <v>| 8 | 14 | M | 10/14 | **Review/Kaggle Project Introduction** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session14/) |</v>
+        <v>| 8 | 14 | M | 10/14 | **Review/Kaggle Project Introduction** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session14.html) |</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15" customHeight="1">
       <c r="A19" s="40" t="str">
         <f>CONCATENATE("| ",Schedule!A18," | ",Schedule!B18," | ",Schedule!C18," | ",TEXT(Schedule!D18,"mm/dd")," | ",Schedule!Q18," |")</f>
-        <v>| 8 | 15 | Th | 10/17 | **Midterm** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session15/) &lt;br&gt; *Assignment 7 due 10/31* &lt;br&gt; |</v>
+        <v>| 8 | 15 | Th | 10/17 | **Midterm** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session15.html) &lt;br&gt; *Assignment 7 due 10/31* &lt;br&gt; |</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15" customHeight="1">
       <c r="A20" s="40" t="str">
         <f>CONCATENATE("| ",Schedule!A19," | ",Schedule!B19," | ",Schedule!C19," | ",TEXT(Schedule!D19,"mm/dd")," | ",Schedule!Q19," |")</f>
-        <v>| 9 | 16 | M | 10/21 | **Classification** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session16/) |</v>
+        <v>| 9 | 16 | M | 10/21 | **Classification** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session16.html) |</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15" customHeight="1">
       <c r="A21" s="40" t="str">
         <f>CONCATENATE("| ",Schedule!A20," | ",Schedule!B20," | ",Schedule!C20," | ",TEXT(Schedule!D20,"mm/dd")," | ",Schedule!Q20," |")</f>
-        <v>| 9 | 17 | Th | 10/24 | **Classification** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session17/) |</v>
+        <v>| 9 | 17 | Th | 10/24 | **Classification** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session17.html) |</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15" customHeight="1">
       <c r="A22" s="40" t="str">
         <f>CONCATENATE("| ",Schedule!A21," | ",Schedule!B21," | ",Schedule!C21," | ",TEXT(Schedule!D21,"mm/dd")," | ",Schedule!Q21," |")</f>
-        <v>| 10 | 18 | M | 10/28 | **Regression** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session18/) |</v>
+        <v>| 10 | 18 | M | 10/28 | **Regression** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session18.html) |</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15" customHeight="1">
       <c r="A23" s="40" t="str">
         <f>CONCATENATE("| ",Schedule!A22," | ",Schedule!B22," | ",Schedule!C22," | ",TEXT(Schedule!D22,"mm/dd")," | ",Schedule!Q22," |")</f>
-        <v>| 10 | 19 | Th | 10/31 | **Regression** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session19/) |</v>
+        <v>| 10 | 19 | Th | 10/31 | **Regression** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session19.html) |</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15" customHeight="1">
       <c r="A24" s="40" t="str">
         <f>CONCATENATE("| ",Schedule!A23," | ",Schedule!B23," | ",Schedule!C23," | ",TEXT(Schedule!D23,"mm/dd")," | ",Schedule!Q23," |")</f>
-        <v>| 11 | 20 | M | 11/04 | **Text and NLP** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session20/) |</v>
+        <v>| 11 | 20 | M | 11/04 | **Text and NLP** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session20.html) |</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15" customHeight="1">
       <c r="A25" s="40" t="str">
         <f>CONCATENATE("| ",Schedule!A24," | ",Schedule!B24," | ",Schedule!C24," | ",TEXT(Schedule!D24,"mm/dd")," | ",Schedule!Q24," |")</f>
-        <v>| 11 | 21 | Th | 11/07 | **Text and NLP** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session21/) |</v>
+        <v>| 11 | 21 | Th | 11/07 | **Text and NLP** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session21.html) |</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15" customHeight="1">
       <c r="A26" s="40" t="str">
         <f>CONCATENATE("| ",Schedule!A25," | ",Schedule!B25," | ",Schedule!C25," | ",TEXT(Schedule!D25,"mm/dd")," | ",Schedule!Q25," |")</f>
-        <v>| 12 | 22 | M | 11/11 | **Introduction to Big Data** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session22/) &lt;br&gt; *Assignment 8 due 11/25* &lt;br&gt; |</v>
+        <v>| 12 | 22 | M | 11/11 | **Introduction to Big Data** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session22.html) &lt;br&gt; *Assignment 8 due 11/25* &lt;br&gt; |</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15" customHeight="1">
       <c r="A27" s="40" t="str">
         <f>CONCATENATE("| ",Schedule!A26," | ",Schedule!B26," | ",Schedule!C26," | ",TEXT(Schedule!D26,"mm/dd")," | ",Schedule!Q26," |")</f>
-        <v>| 12 | 23 | Th | 11/14 | **Time Series Analysis** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session23/) |</v>
+        <v>| 12 | 23 | Th | 11/14 | **Time Series Analysis** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session23.html) |</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15" customHeight="1">
       <c r="A28" s="40" t="str">
         <f>CONCATENATE("| ",Schedule!A27," | ",Schedule!B27," | ",Schedule!C27," | ",TEXT(Schedule!D27,"mm/dd")," | ",Schedule!Q27," |")</f>
-        <v>| 13 | 24 | M | 11/18 | **Image Data and Deep Learning** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session24/) |</v>
+        <v>| 13 | 24 | M | 11/18 | **Image Data and Deep Learning** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session24.html) |</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15" customHeight="1">
       <c r="A29" s="40" t="str">
         <f>CONCATENATE("| ",Schedule!A28," | ",Schedule!B28," | ",Schedule!C28," | ",TEXT(Schedule!D28,"mm/dd")," | ",Schedule!Q28," |")</f>
-        <v>| 13 | 25 | Th | 11/21 | **Image Data and Deep Learning** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session25/) |</v>
+        <v>| 13 | 25 | Th | 11/21 | **Image Data and Deep Learning** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session25.html) |</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15.6">
       <c r="A30" s="40" t="str">
         <f>CONCATENATE("| ",Schedule!A29," | ",Schedule!B29," | ",Schedule!C29," | ",TEXT(Schedule!D29,"mm/dd")," | ",Schedule!Q29," |")</f>
-        <v>| 14 | 26 | M | 11/25 | **Automl and Modeling Packages** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session26/) |</v>
+        <v>| 14 | 26 | M | 11/25 | **Automl and Modeling Packages** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session26.html) |</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15.6">
@@ -47513,19 +47518,19 @@
     <row r="32" spans="1:1" ht="15.6">
       <c r="A32" s="40" t="str">
         <f>CONCATENATE("| ",Schedule!A31," | ",Schedule!B31," | ",Schedule!C31," | ",TEXT(Schedule!D31,"mm/dd")," | ",Schedule!Q31," |")</f>
-        <v>| 15 | 27 | M | 12/02 | **Automl and Model Search** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session27/) |</v>
+        <v>| 15 | 27 | M | 12/02 | **Automl and Model Search** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session27.html) |</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15.6">
       <c r="A33" s="40" t="str">
         <f>CONCATENATE("| ",Schedule!A32," | ",Schedule!B32," | ",Schedule!C32," | ",TEXT(Schedule!D32,"mm/dd")," | ",Schedule!Q32," |")</f>
-        <v>| 15 | 28 | Th | 12/05 | **Final Presentations** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session28/) |</v>
+        <v>| 15 | 28 | Th | 12/05 | **Final Presentations** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session28.html) |</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15.6">
       <c r="A34" s="40" t="str">
         <f>CONCATENATE("| ",Schedule!A33," | ",Schedule!B33," | ",Schedule!C33," | ",TEXT(Schedule!D33,"mm/dd")," | ",Schedule!Q33," |")</f>
-        <v>| 16 | 29 | M | 12/09 | **Final Presentations** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session29/) |</v>
+        <v>| 16 | 29 | M | 12/09 | **Final Presentations** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session29.html) |</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15.6">

--- a/book.xlsx
+++ b/book.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjgar\Documents\RPI\clubs and activities\Metallography\course-intro-ml-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FAD0A6-6A31-4DA1-BF92-09B8D70158F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A841CA27-4240-44C2-A92D-163CBEC1AEC8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,18 +17,20 @@
     <sheet name="Schedule" sheetId="2" r:id="rId2"/>
     <sheet name="Readings" sheetId="19" r:id="rId3"/>
     <sheet name="Notebooks" sheetId="17" r:id="rId4"/>
-    <sheet name="_config_yml" sheetId="8" state="hidden" r:id="rId5"/>
+    <sheet name="_config_yml" sheetId="8" r:id="rId5"/>
     <sheet name="toc_yml" sheetId="14" state="hidden" r:id="rId6"/>
-    <sheet name="index_md" sheetId="10" state="hidden" r:id="rId7"/>
-    <sheet name="schedule_md" sheetId="3" state="hidden" r:id="rId8"/>
-    <sheet name="readings_md" sheetId="20" state="hidden" r:id="rId9"/>
-    <sheet name="notebooks_md" sheetId="12" r:id="rId10"/>
-    <sheet name="assignments_md" sheetId="13" r:id="rId11"/>
-    <sheet name="session_md" sheetId="4" state="hidden" r:id="rId12"/>
-    <sheet name="assign_md" sheetId="23" state="hidden" r:id="rId13"/>
-    <sheet name="grading_md" sheetId="15" state="hidden" r:id="rId14"/>
-    <sheet name="AcademicCalendar" sheetId="5" state="hidden" r:id="rId15"/>
-    <sheet name="Sheet1" sheetId="6" state="hidden" r:id="rId16"/>
+    <sheet name="toc_yml2" sheetId="24" r:id="rId7"/>
+    <sheet name="toc_yml3" sheetId="25" state="hidden" r:id="rId8"/>
+    <sheet name="index_md" sheetId="10" state="hidden" r:id="rId9"/>
+    <sheet name="schedule_md" sheetId="3" state="hidden" r:id="rId10"/>
+    <sheet name="readings_md" sheetId="20" state="hidden" r:id="rId11"/>
+    <sheet name="notebooks_md" sheetId="12" state="hidden" r:id="rId12"/>
+    <sheet name="assignments_md" sheetId="13" state="hidden" r:id="rId13"/>
+    <sheet name="session_md" sheetId="4" state="hidden" r:id="rId14"/>
+    <sheet name="assign_md" sheetId="23" r:id="rId15"/>
+    <sheet name="grading_md" sheetId="15" state="hidden" r:id="rId16"/>
+    <sheet name="AcademicCalendar" sheetId="5" state="hidden" r:id="rId17"/>
+    <sheet name="Sheet1" sheetId="6" state="hidden" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4109" uniqueCount="877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4126" uniqueCount="892">
   <si>
     <t>Wk</t>
   </si>
@@ -2067,9 +2069,6 @@
   </si>
   <si>
     <t>(A link for the logo)</t>
-  </si>
-  <si>
-    <t>Number chapters:</t>
   </si>
   <si>
     <t>false</t>
@@ -2254,9 +2253,6 @@
     <t>Running Code</t>
   </si>
   <si>
-    <t>More on Colab</t>
-  </si>
-  <si>
     <t>https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/01-what-is-jupyter.ipynb#scrollTo=mdFTkIqGwgOJ</t>
   </si>
   <si>
@@ -2267,9 +2263,6 @@
   </si>
   <si>
     <t>https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/04-markdown.ipynb</t>
-  </si>
-  <si>
-    <t>https://colab.research.google.com/notebooks/welcome.ipynb</t>
   </si>
   <si>
     <t xml:space="preserve">     Link url:</t>
@@ -2734,6 +2727,137 @@
   </si>
   <si>
     <t xml:space="preserve">   Office hours:</t>
+  </si>
+  <si>
+    <t>File name</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Link </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(for secondary applications like Colab)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"># This file contains the order and numbering for all sections in the book.
+#
+# It is a sample TOC file to help you get started. Fill it out with entries
+# for your own content.
+#
+# Each entry has the following schema:
+#
+# - title: mytitle   # Title of chapter or section
+#   url: /myurl  # URL of section relative to the /content/ folder.
+#   sections:  # Contains a list of more entries that make up the chapter's sections
+#   not_numbered: true  # if the section shouldn't have a number in the sidebar
+#     (e.g. Introduction or appendices)
+#   expand_sections: true  # if you'd like the sections of this chapter to always
+#     be expanded in the sidebar.
+#   external: true  # Whether the URL is an external link or points to content in the book
+#
+# Below are some special values that trigger specific behavior:
+# - search: true  # Will provide a link to a search page
+# - divider: true  # Will insert a divider in the sidebar
+# - header: My Header  # Will insert a header with no link in the sidebar
+#
+# See the links below for an example.
+</t>
+  </si>
+  <si>
+    <t>Number notebooks:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Top-level page
+- title: Home
+  url: /index
+  not_numbered: true
+# Adds a searchbar link
+- title: Search
+  search: true
+# Divider for meta-pages and content page
+- divider: true
+</t>
+  </si>
+  <si>
+    <t># A chapter w/ a collection of sections beneath it
+- title: Grading
+  url: /grading
+  not_numbered: true
+# Divider for meta-pages and content page
+- divider: true
+# External link
+- title: GitHub Repository
+  url: https://github.com/RPI-DATA/course-intro-ml-app
+  external: true
+  not_numbered: true
+# External link
+- title: Colab
+  url: https://colab.research.google.com/notebooks/welcome.ipynb#recent=true
+  external: true
+  not_numbered: true
+# External link
+- title: Slack
+  url: https://rpi-data.slack.com/messages
+  external: true
+  not_numbered: true</t>
+  </si>
+  <si>
+    <t>not_numbered</t>
+  </si>
+  <si>
+    <t>01-what-is-jupyter</t>
+  </si>
+  <si>
+    <t>03-running-code</t>
+  </si>
+  <si>
+    <t>04-markdown</t>
+  </si>
+  <si>
+    <t>02-notebook-basics</t>
+  </si>
+  <si>
+    <t>05-intro-python-overview</t>
+  </si>
+  <si>
+    <t>06-intro-python-datastructures</t>
+  </si>
+  <si>
+    <t>07-intro-python-numpy</t>
+  </si>
+  <si>
+    <t>08-intro-python-pandas</t>
+  </si>
+  <si>
+    <t># A chapter w/ a collection of sections beneath it
+- title: Assignments
+  url: /assignments/index
+  not_numbered: true
+  sections:</t>
+  </si>
+  <si>
+    <t># A chapter w/ a collection of sections beneath it
+- title: Schedule
+  url: /sessions/index
+  not_numbered: true
+  sections:
+  - title: All Readings
+    url: /sessions/readings
+    not_numbered: true</t>
+  </si>
+  <si>
+    <t># A chapter w/ a collection of sections beneath it
+- title: Notebooks
+  url: /notebooks/index
+  not_numbered: true
+  sections:</t>
   </si>
 </sst>
 </file>
@@ -3036,7 +3160,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -3214,8 +3338,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3239,8 +3369,8 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3563,7 +3693,7 @@
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:E20"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="15" customHeight="1"/>
@@ -3583,36 +3713,36 @@
         <v>656</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B6" s="18">
         <v>14</v>
@@ -3620,117 +3750,117 @@
     </row>
     <row r="7" spans="1:2" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="40" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="B10" s="18"/>
     </row>
     <row r="11" spans="1:2" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="40" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="B15" s="18"/>
     </row>
     <row r="16" spans="1:2" s="40" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B16" s="18"/>
     </row>
     <row r="17" spans="1:5" s="4" customFormat="1" ht="99" customHeight="1">
       <c r="A17" s="24" t="s">
+        <v>694</v>
+      </c>
+      <c r="B17" s="94" t="s">
         <v>695</v>
       </c>
-      <c r="B17" s="91" t="s">
-        <v>696</v>
-      </c>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="91"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
     </row>
     <row r="18" spans="1:5" s="4" customFormat="1" ht="99" customHeight="1">
       <c r="A18" s="24" t="s">
-        <v>872</v>
-      </c>
-      <c r="B18" s="91" t="s">
-        <v>704</v>
-      </c>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="91"/>
+        <v>869</v>
+      </c>
+      <c r="B18" s="94" t="s">
+        <v>703</v>
+      </c>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
     </row>
     <row r="19" spans="1:5" s="40" customFormat="1" ht="38.1" customHeight="1">
       <c r="A19" s="24" t="s">
-        <v>873</v>
-      </c>
-      <c r="B19" s="100"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
+        <v>870</v>
+      </c>
+      <c r="B19" s="95"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
     </row>
     <row r="20" spans="1:5" s="40" customFormat="1" ht="38.1" customHeight="1">
       <c r="A20" s="24" t="s">
-        <v>875</v>
-      </c>
-      <c r="B20" s="100"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
+        <v>872</v>
+      </c>
+      <c r="B20" s="95"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
     </row>
     <row r="21" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="1"/>
@@ -3747,7 +3877,7 @@
         <v>665</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1">
@@ -3755,7 +3885,7 @@
         <v>668</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>669</v>
@@ -3766,7 +3896,7 @@
         <v>667</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>670</v>
@@ -3784,7 +3914,7 @@
     </row>
     <row r="28" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B28" s="17" t="s">
         <v>18</v>
@@ -3798,7 +3928,7 @@
         <v>673</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>672</v>
@@ -3806,10 +3936,10 @@
     </row>
     <row r="30" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>674</v>
@@ -3817,13 +3947,13 @@
     </row>
     <row r="31" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="9" t="s">
+        <v>877</v>
+      </c>
+      <c r="B31" s="17" t="s">
         <v>675</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="C31" s="14" t="s">
         <v>676</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1">
@@ -3833,12 +3963,12 @@
     </row>
     <row r="33" spans="1:2" ht="18.3">
       <c r="A33" s="15" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B34" s="18" t="s">
         <v>659</v>
@@ -3846,7 +3976,7 @@
     </row>
     <row r="35" spans="1:2" ht="15" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="B35" s="16" t="s">
         <v>662</v>
@@ -3854,7 +3984,7 @@
     </row>
     <row r="36" spans="1:2" ht="15" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B36" s="17" t="s">
         <v>660</v>
@@ -3862,7 +3992,7 @@
     </row>
     <row r="37" spans="1:2" ht="15" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="B37" s="16" t="s">
         <v>663</v>
@@ -3870,7 +4000,7 @@
     </row>
     <row r="38" spans="1:2" ht="15" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B38" s="17" t="s">
         <v>661</v>
@@ -3878,7 +4008,7 @@
     </row>
     <row r="39" spans="1:2" ht="15" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="B39" s="16" t="s">
         <v>664</v>
@@ -3886,39 +4016,39 @@
     </row>
     <row r="41" spans="1:2" ht="18.3">
       <c r="A41" s="43" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15" customHeight="1">
       <c r="A42" s="32" t="s">
+        <v>720</v>
+      </c>
+      <c r="B42" s="29" t="s">
         <v>721</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15" customHeight="1">
       <c r="A43" s="32" t="s">
+        <v>722</v>
+      </c>
+      <c r="B43" s="29" t="s">
         <v>723</v>
-      </c>
-      <c r="B43" s="29" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15" customHeight="1">
       <c r="A44" s="35" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15" customHeight="1">
       <c r="A45" s="35" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15" customHeight="1">
@@ -3926,7 +4056,7 @@
         <v>31</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15" customHeight="1">
@@ -3959,11 +4089,435 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:D38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="101.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="31.2">
+      <c r="A1" s="10" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1">
+      <c r="A2" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1">
+      <c r="A3" s="9" t="s">
+        <v>758</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1">
+      <c r="A4" s="4" t="str">
+        <f>CONCATENATE("| ",Schedule!A3," | ",Schedule!B3," | ",Schedule!C3," | ",TEXT(Schedule!D3,"mm/dd")," | ",Schedule!Q3," |")</f>
+        <v>| 1 | 1 | Th | 08/29 | **Course Overview &amp; Introduction to the Data Science Lifecycle** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session1.html) |</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1">
+      <c r="A5" s="40" t="str">
+        <f>CONCATENATE("| ",Schedule!A4," | ",Schedule!B4," | ",Schedule!C4," | ",TEXT(Schedule!D4,"mm/dd")," | ",Schedule!Q4," |")</f>
+        <v>| 2 |  | M | 09/02 | **Labor Day - no classes (Tuesday follows Monday schedule)** &lt;br&gt;  |</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1">
+      <c r="A6" s="40" t="str">
+        <f>CONCATENATE("| ",Schedule!A5," | ",Schedule!B5," | ",Schedule!C5," | ",TEXT(Schedule!D5,"mm/dd")," | ",Schedule!Q5," |")</f>
+        <v>| 2 | 2 | Tu | 09/03 | **Python Basics** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session2.html) &lt;br&gt; *Assignment 1 due 09/17* &lt;br&gt; |</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1">
+      <c r="A7" s="40" t="str">
+        <f>CONCATENATE("| ",Schedule!A6," | ",Schedule!B6," | ",Schedule!C6," | ",TEXT(Schedule!D6,"mm/dd")," | ",Schedule!Q6," |")</f>
+        <v>| 2 | 3 | Th | 09/05 | **Python Basics** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session3.html) |</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1">
+      <c r="A8" s="40" t="str">
+        <f>CONCATENATE("| ",Schedule!A7," | ",Schedule!B7," | ",Schedule!C7," | ",TEXT(Schedule!D7,"mm/dd")," | ",Schedule!Q7," |")</f>
+        <v>| 3 | 4 | M | 09/09 | **Python conditionals, loops, functions, aggregating.** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session4.html) |</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1">
+      <c r="A9" s="40" t="str">
+        <f>CONCATENATE("| ",Schedule!A8," | ",Schedule!B8," | ",Schedule!C8," | ",TEXT(Schedule!D8,"mm/dd")," | ",Schedule!Q8," |")</f>
+        <v>| 3 | 5 | Th | 09/12 | **Python conditionals, loops, functions, aggregating (continued)** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session5.html) &lt;br&gt; *Assignment 2 due 09/26* &lt;br&gt; |</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1">
+      <c r="A10" s="40" t="str">
+        <f>CONCATENATE("| ",Schedule!A9," | ",Schedule!B9," | ",Schedule!C9," | ",TEXT(Schedule!D9,"mm/dd")," | ",Schedule!Q9," |")</f>
+        <v>| 4 | 6 | M | 09/16 | **Python visualization, data manipulation , and feature creation.** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session6.html) |</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1">
+      <c r="A11" s="40" t="str">
+        <f>CONCATENATE("| ",Schedule!A10," | ",Schedule!B10," | ",Schedule!C10," | ",TEXT(Schedule!D10,"mm/dd")," | ",Schedule!Q10," |")</f>
+        <v>| 4 | 7 | Th | 09/19 | **Python visualization, data manipulation , and feature creation (continued)** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session7.html) |</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1">
+      <c r="A12" s="40" t="str">
+        <f>CONCATENATE("| ",Schedule!A11," | ",Schedule!B11," | ",Schedule!C11," | ",TEXT(Schedule!D11,"mm/dd")," | ",Schedule!Q11," |")</f>
+        <v>| 5 | 8 | M | 09/23 | **Visualization with Tableau** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session8.html) |</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1">
+      <c r="A13" s="40" t="str">
+        <f>CONCATENATE("| ",Schedule!A12," | ",Schedule!B12," | ",Schedule!C12," | ",TEXT(Schedule!D12,"mm/dd")," | ",Schedule!Q12," |")</f>
+        <v>| 5 | 9 | Th | 09/26 | **Visualization with Tableau** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session9.html) |</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1">
+      <c r="A14" s="40" t="str">
+        <f>CONCATENATE("| ",Schedule!A13," | ",Schedule!B13," | ",Schedule!C13," | ",TEXT(Schedule!D13,"mm/dd")," | ",Schedule!Q13," |")</f>
+        <v>| 6 | 10 | M | 09/30 | **Introduction to R** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session10.html) |</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" customHeight="1">
+      <c r="A15" s="40" t="str">
+        <f>CONCATENATE("| ",Schedule!A14," | ",Schedule!B14," | ",Schedule!C14," | ",TEXT(Schedule!D14,"mm/dd")," | ",Schedule!Q14," |")</f>
+        <v>| 6 | 11 | Th | 10/03 | **Introduction to R** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session11.html) |</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1">
+      <c r="A16" s="40" t="str">
+        <f>CONCATENATE("| ",Schedule!A15," | ",Schedule!B15," | ",Schedule!C15," | ",TEXT(Schedule!D15,"mm/dd")," | ",Schedule!Q15," |")</f>
+        <v>| 7 | 12 | M | 10/07 | **Overview of Modeling** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session12.html) |</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15" customHeight="1">
+      <c r="A17" s="40" t="str">
+        <f>CONCATENATE("| ",Schedule!A16," | ",Schedule!B16," | ",Schedule!C16," | ",TEXT(Schedule!D16,"mm/dd")," | ",Schedule!Q16," |")</f>
+        <v>| 7 | 13 | Th | 10/10 | **Overview of Modeling** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session13.html) |</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15" customHeight="1">
+      <c r="A18" s="40" t="str">
+        <f>CONCATENATE("| ",Schedule!A17," | ",Schedule!B17," | ",Schedule!C17," | ",TEXT(Schedule!D17,"mm/dd")," | ",Schedule!Q17," |")</f>
+        <v>| 8 | 14 | M | 10/14 | **Review/Kaggle Project Introduction** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session14.html) |</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15" customHeight="1">
+      <c r="A19" s="40" t="str">
+        <f>CONCATENATE("| ",Schedule!A18," | ",Schedule!B18," | ",Schedule!C18," | ",TEXT(Schedule!D18,"mm/dd")," | ",Schedule!Q18," |")</f>
+        <v>| 8 | 15 | Th | 10/17 | **Midterm** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session15.html) |</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15" customHeight="1">
+      <c r="A20" s="40" t="str">
+        <f>CONCATENATE("| ",Schedule!A19," | ",Schedule!B19," | ",Schedule!C19," | ",TEXT(Schedule!D19,"mm/dd")," | ",Schedule!Q19," |")</f>
+        <v>| 9 | 16 | M | 10/21 | **Classification** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session16.html) |</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15" customHeight="1">
+      <c r="A21" s="40" t="str">
+        <f>CONCATENATE("| ",Schedule!A20," | ",Schedule!B20," | ",Schedule!C20," | ",TEXT(Schedule!D20,"mm/dd")," | ",Schedule!Q20," |")</f>
+        <v>| 9 | 17 | Th | 10/24 | **Classification** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session17.html) |</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15" customHeight="1">
+      <c r="A22" s="40" t="str">
+        <f>CONCATENATE("| ",Schedule!A21," | ",Schedule!B21," | ",Schedule!C21," | ",TEXT(Schedule!D21,"mm/dd")," | ",Schedule!Q21," |")</f>
+        <v>| 10 | 18 | M | 10/28 | **Regression** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session18.html) |</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15" customHeight="1">
+      <c r="A23" s="40" t="str">
+        <f>CONCATENATE("| ",Schedule!A22," | ",Schedule!B22," | ",Schedule!C22," | ",TEXT(Schedule!D22,"mm/dd")," | ",Schedule!Q22," |")</f>
+        <v>| 10 | 19 | Th | 10/31 | **Regression** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session19.html) |</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15" customHeight="1">
+      <c r="A24" s="40" t="str">
+        <f>CONCATENATE("| ",Schedule!A23," | ",Schedule!B23," | ",Schedule!C23," | ",TEXT(Schedule!D23,"mm/dd")," | ",Schedule!Q23," |")</f>
+        <v>| 11 | 20 | M | 11/04 | **Text and NLP** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session20.html) |</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15" customHeight="1">
+      <c r="A25" s="40" t="str">
+        <f>CONCATENATE("| ",Schedule!A24," | ",Schedule!B24," | ",Schedule!C24," | ",TEXT(Schedule!D24,"mm/dd")," | ",Schedule!Q24," |")</f>
+        <v>| 11 | 21 | Th | 11/07 | **Text and NLP** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session21.html) |</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15" customHeight="1">
+      <c r="A26" s="40" t="str">
+        <f>CONCATENATE("| ",Schedule!A25," | ",Schedule!B25," | ",Schedule!C25," | ",TEXT(Schedule!D25,"mm/dd")," | ",Schedule!Q25," |")</f>
+        <v>| 12 | 22 | M | 11/11 | **Introduction to Big Data** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session22.html) |</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15" customHeight="1">
+      <c r="A27" s="40" t="str">
+        <f>CONCATENATE("| ",Schedule!A26," | ",Schedule!B26," | ",Schedule!C26," | ",TEXT(Schedule!D26,"mm/dd")," | ",Schedule!Q26," |")</f>
+        <v>| 12 | 23 | Th | 11/14 | **Time Series Analysis** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session23.html) |</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15" customHeight="1">
+      <c r="A28" s="40" t="str">
+        <f>CONCATENATE("| ",Schedule!A27," | ",Schedule!B27," | ",Schedule!C27," | ",TEXT(Schedule!D27,"mm/dd")," | ",Schedule!Q27," |")</f>
+        <v>| 13 | 24 | M | 11/18 | **Image Data and Deep Learning** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session24.html) |</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="15" customHeight="1">
+      <c r="A29" s="40" t="str">
+        <f>CONCATENATE("| ",Schedule!A28," | ",Schedule!B28," | ",Schedule!C28," | ",TEXT(Schedule!D28,"mm/dd")," | ",Schedule!Q28," |")</f>
+        <v>| 13 | 25 | Th | 11/21 | **Image Data and Deep Learning** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session25.html) |</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="15.6">
+      <c r="A30" s="40" t="str">
+        <f>CONCATENATE("| ",Schedule!A29," | ",Schedule!B29," | ",Schedule!C29," | ",TEXT(Schedule!D29,"mm/dd")," | ",Schedule!Q29," |")</f>
+        <v>| 14 | 26 | M | 11/25 | **Automl and Modeling Packages** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session26.html) |</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="15.6">
+      <c r="A31" s="40" t="str">
+        <f>CONCATENATE("| ",Schedule!A30," | ",Schedule!B30," | ",Schedule!C30," | ",TEXT(Schedule!D30,"mm/dd")," | ",Schedule!Q30," |")</f>
+        <v>| 14 |  | Th | 11/28 | **Thanksgiving** &lt;br&gt;  |</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="15.6">
+      <c r="A32" s="40" t="str">
+        <f>CONCATENATE("| ",Schedule!A31," | ",Schedule!B31," | ",Schedule!C31," | ",TEXT(Schedule!D31,"mm/dd")," | ",Schedule!Q31," |")</f>
+        <v>| 15 | 27 | M | 12/02 | **Automl and Model Search** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session27.html) |</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15.6">
+      <c r="A33" s="40" t="str">
+        <f>CONCATENATE("| ",Schedule!A32," | ",Schedule!B32," | ",Schedule!C32," | ",TEXT(Schedule!D32,"mm/dd")," | ",Schedule!Q32," |")</f>
+        <v>| 15 | 28 | Th | 12/05 | **Final Presentations** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session28.html) |</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15.6">
+      <c r="A34" s="40" t="str">
+        <f>CONCATENATE("| ",Schedule!A33," | ",Schedule!B33," | ",Schedule!C33," | ",TEXT(Schedule!D33,"mm/dd")," | ",Schedule!Q33," |")</f>
+        <v>| 16 | 29 | M | 12/09 | **Final Presentations** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session29.html) |</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15.6">
+      <c r="A35" s="40" t="str">
+        <f>CONCATENATE("| ",Schedule!A34," | ",Schedule!B34," | ",Schedule!C34," | ",TEXT(Schedule!D34,"mm/dd")," | ",Schedule!Q34," |")</f>
+        <v>| 17 |  | TBD | TBD | **Final Exam** &lt;br&gt;  |</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:A29"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="1" width="79.296875" style="40" customWidth="1"/>
+    <col min="2" max="16384" width="8.796875" style="40"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="46.8">
+      <c r="A1" s="41" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="9" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="9" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="40" t="str">
+        <f>IF(Readings!F2="","",CONCATENATE("| [",Readings!A2,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Readings!A2,".html) | ",Readings!F2," |"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="40" t="str">
+        <f>IF(Readings!F3="","",CONCATENATE("| [",Readings!A3,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Readings!A3,".html) | ",Readings!F3," |"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="40" t="str">
+        <f>IF(Readings!F4="","",CONCATENATE("| [",Readings!A4,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Readings!A4,".html) | ",Readings!F4," |"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="40" t="str">
+        <f>IF(Readings!F5="","",CONCATENATE("| [",Readings!A5,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Readings!A5,".html) | ",Readings!F5," |"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="40" t="str">
+        <f>IF(Readings!F6="","",CONCATENATE("| [",Readings!A6,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Readings!A6,".html) | ",Readings!F6," |"))</f>
+        <v>| [2](https://rpi-data.github.io/course-intro-ml-app/sessions/session2.html) | [Doing Data Science (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/9781449363871)&lt;br&gt;[Data Science for Business (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/business-intelligence/9781449374273)&lt;br&gt;[Command Line Cheat Sheet](https://www.git-tower.com/blog/command-line-cheat-sheet/)&lt;br&gt;[Assignment Process](/assignments)&lt;br&gt;[Running Jupyter locally](http://rpi.analyticsdojo.com/setup/anaconda/) |</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="40" t="str">
+        <f>IF(Readings!F7="","",CONCATENATE("| [",Readings!A7,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Readings!A7,".html) | ",Readings!F7," |"))</f>
+        <v>| [4](https://rpi-data.github.io/course-intro-ml-app/sessions/session4.html) | [Principles of Data Wrangling (Chapters 1-3)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/business-intelligence/9781491938911) |</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="40" t="str">
+        <f>IF(Readings!F8="","",CONCATENATE("| [",Readings!A8,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Readings!A8,".html) | ",Readings!F8," |"))</f>
+        <v>| [6](https://rpi-data.github.io/course-intro-ml-app/sessions/session6.html) | [Introduction to Machine Learning with Python (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/programming/machine-learning/9781449369880) |</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="40" t="str">
+        <f>IF(Readings!F9="","",CONCATENATE("| [",Readings!A9,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Readings!A9,".html) | ",Readings!F9," |"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="40" t="str">
+        <f>IF(Readings!F10="","",CONCATENATE("| [",Readings!A10,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Readings!A10,".html) | ",Readings!F10," |"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="40" t="str">
+        <f>IF(Readings!F11="","",CONCATENATE("| [",Readings!A11,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Readings!A11,".html) | ",Readings!F11," |"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="40" t="str">
+        <f>IF(Readings!F12="","",CONCATENATE("| [",Readings!A12,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Readings!A12,".html) | ",Readings!F12," |"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="40" t="str">
+        <f>IF(Readings!F13="","",CONCATENATE("| [",Readings!A13,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Readings!A13,".html) | ",Readings!F13," |"))</f>
+        <v>| [8](https://rpi-data.github.io/course-intro-ml-app/sessions/session8.html) | [Install Tableau (free for students)](https://www.tableau.com/academic/students)&lt;br&gt;[Tableau - Data analytics for university students guide](https://www.tableau.com/university-students)&lt;br&gt;[Designing Great Visualizations](http://www.tableau.com/sites/default/files/media/designing-great-visualizations.pdf)&lt;br&gt;[Tableau getting Started](http://www.tableau.com/learn/tutorials/on-demand/getting-started)&lt;br&gt;[TED Talk](https://www.ted.com/talks/david_mccandless_the_beauty_of_data_visualization#t-304102) |</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="40" t="str">
+        <f>IF(Readings!F14="","",CONCATENATE("| [",Readings!A14,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Readings!A14,".html) | ",Readings!F14," |"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="40" t="str">
+        <f>IF(Readings!F15="","",CONCATENATE("| [",Readings!A15,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Readings!A15,".html) | ",Readings!F15," |"))</f>
+        <v>| [10](https://rpi-data.github.io/course-intro-ml-app/sessions/session10.html) | [R for Data Science (Chapters 1-3)](https://r4ds.had.co.nz)&lt;br&gt;[RStudio Cloud](https://rstudio.cloud) |</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="40" t="str">
+        <f>IF(Readings!F16="","",CONCATENATE("| [",Readings!A16,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Readings!A16,".html) | ",Readings!F16," |"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="40" t="str">
+        <f>IF(Readings!F17="","",CONCATENATE("| [",Readings!A17,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Readings!A17,".html) | ",Readings!F17," |"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="40" t="str">
+        <f>IF(Readings!F18="","",CONCATENATE("| [",Readings!A18,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Readings!A18,".html) | ",Readings!F18," |"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="40" t="str">
+        <f>IF(Readings!F19="","",CONCATENATE("| [",Readings!A19,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Readings!A19,".html) | ",Readings!F19," |"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="40" t="str">
+        <f>IF(Readings!F20="","",CONCATENATE("| [",Readings!A20,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Readings!A20,".html) | ",Readings!F20," |"))</f>
+        <v>| [12](https://rpi-data.github.io/course-intro-ml-app/sessions/session12.html) | [Cross Validation](https://www.analyticsvidhya.com/blog/2015/11/improve-model-performance-cross-validation-in-python-r/)&lt;br&gt;[The 10 Algorithms Machine Learning Engineers Need to Know](https://gab41.lab41.org/the-10-algorithms-machine-learning-engineers-need-to-know-f4bb63f5b2fa#.4rekzo2o1)&lt;br&gt;[15 Algorithms Machine Learning Engineers Must Need to Know](https://www.favouriteblog.com/15-algorithms-machine-learning-engineers/)&lt;br&gt;[A Tour of Machine Learning Algorithms](http://machinelearningmastery.com/a-tour-of-machine-learning-algorithms/)&lt;br&gt;[An Introduction to Machine Learning with Python (Chapter 2-3)](http://proquestcombo.safaribooksonline.com/book/programming/machine-learning/9781449369880) |</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="40" t="str">
+        <f>IF(Readings!F21="","",CONCATENATE("| [",Readings!A21,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Readings!A21,".html) | ",Readings!F21," |"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="40" t="str">
+        <f>IF(Readings!F22="","",CONCATENATE("| [",Readings!A22,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Readings!A22,".html) | ",Readings!F22," |"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="40" t="str">
+        <f>IF(Readings!F23="","",CONCATENATE("| [",Readings!A23,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Readings!A23,".html) | ",Readings!F23," |"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="40" t="str">
+        <f>IF(Readings!F24="","",CONCATENATE("| [",Readings!A24,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Readings!A24,".html) | ",Readings!F24," |"))</f>
+        <v>| [20](https://rpi-data.github.io/course-intro-ml-app/sessions/session20.html) | [The Seven Practice Areas of Text Mining](http://cdn2.hubspot.net/hubfs/2176909/Whitepaper_The_Seven_Practice_Areas_of_Text_Analytics_Chapter_2_Excerpt.pdf?t=1469213247687)&lt;br&gt;[The Amazing Power of Word Vectors](https://blog.acolyer.org/2016/04/21/the-amazing-power-of-word-vectors/)&lt;br&gt;[Bag of Words Tutorial](https://www.kaggle.com/c/word2vec-nlp-tutorial/details/part-1-for-beginners-bag-of-words)&lt;br&gt;[Word Vectors](https://www.kaggle.com/c/word2vec-nlp-tutorial/details/part-2-word-vectors) |</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="40" t="str">
+        <f>IF(Readings!F25="","",CONCATENATE("| [",Readings!A25,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Readings!A25,".html) | ",Readings!F25," |"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="40" t="str">
+        <f>IF(Readings!F26="","",CONCATENATE("| [",Readings!A26,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Readings!A26,".html) | ",Readings!F26," |"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="40" t="str">
+        <f>IF(Readings!F27="","",CONCATENATE("| [",Readings!A27,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Readings!A27,".html) | ",Readings!F27," |"))</f>
+        <v>| [23](https://rpi-data.github.io/course-intro-ml-app/sessions/session23.html) | [Introduction to Time Series](https://www.youtube.com/watch?v=d4Sn6ny_5LI)&lt;br&gt;[7 Ways Time Series Forecasting Differs from Machine Learning](https://www.datascience.com/blog/time-series-forecasting-machine-learning-differences)&lt;br&gt;[Aggregation Techniques and Cryptocurrencies](https://medium.com/python-data/time-series-aggregation-techniques-with-python-a-look-at-major-cryptocurrencies-a9eb1dd49c1b) |</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:D37"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6"/>
@@ -3973,28 +4527,28 @@
   <sheetData>
     <row r="1" spans="1:4" ht="46.8">
       <c r="A1" s="10" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="9" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="9" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="40" t="str">
-        <f>IF(Notebooks!F2="","",CONCATENATE("| [",Notebooks!A2,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A2,") | ",Notebooks!F2," |"))</f>
+        <f>IF(Notebooks!G2="","",CONCATENATE("| [",Notebooks!A2,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A2,") | ",Notebooks!G2," |"))</f>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="40" t="str">
-        <f>IF(Notebooks!F3="","",CONCATENATE("| [",Notebooks!A3,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A3,") | ",Notebooks!F3," |"))</f>
+        <f>IF(Notebooks!G3="","",CONCATENATE("| [",Notebooks!A3,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A3,") | ",Notebooks!G3," |"))</f>
         <v/>
       </c>
       <c r="B5" s="40"/>
@@ -4003,7 +4557,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="40" t="str">
-        <f>IF(Notebooks!F4="","",CONCATENATE("| [",Notebooks!A4,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A4,") | ",Notebooks!F4," |"))</f>
+        <f>IF(Notebooks!G4="","",CONCATENATE("| [",Notebooks!A4,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A4,") | ",Notebooks!G4," |"))</f>
         <v/>
       </c>
       <c r="B6" s="40"/>
@@ -4012,8 +4566,8 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="40" t="str">
-        <f>IF(Notebooks!F5="","",CONCATENATE("| [",Notebooks!A5,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A5,") | ",Notebooks!F5," |"))</f>
-        <v/>
+        <f>IF(Notebooks!G5="","",CONCATENATE("| [",Notebooks!A5,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A5,") | ",Notebooks!G5," |"))</f>
+        <v>| [1](https://rpi-data.github.io/course-intro-ml-app/sessions/session1) | What is Jupyter? - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/01-what-is-jupyter.ipynb#scrollTo=mdFTkIqGwgOJ)&lt;br&gt;Notebook Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/02-notebook-basics.ipynb)&lt;br&gt;Running Code - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/03-running-code.ipynb)&lt;br&gt;Markdown - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/04-markdown.ipynb) |</v>
       </c>
       <c r="B7" s="40"/>
       <c r="C7" s="40"/>
@@ -4021,8 +4575,8 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="40" t="str">
-        <f>IF(Notebooks!F6="","",CONCATENATE("| [",Notebooks!A6,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A6,") | ",Notebooks!F6," |"))</f>
-        <v>| [1](https://rpi-data.github.io/course-intro-ml-app/sessions/session1) | What is Jupyter? - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/01-what-is-jupyter.ipynb#scrollTo=mdFTkIqGwgOJ)&lt;br&gt;Notebook Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/02-notebook-basics.ipynb)&lt;br&gt;Running Code - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/03-running-code.ipynb)&lt;br&gt;Markdown - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/04-markdown.ipynb)&lt;br&gt;More on Colab - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/notebooks/welcome.ipynb) |</v>
+        <f>IF(Notebooks!G6="","",CONCATENATE("| [",Notebooks!A6,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A6,") | ",Notebooks!G6," |"))</f>
+        <v/>
       </c>
       <c r="B8" s="40"/>
       <c r="C8" s="40"/>
@@ -4030,7 +4584,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="40" t="str">
-        <f>IF(Notebooks!F7="","",CONCATENATE("| [",Notebooks!A7,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A7,") | ",Notebooks!F7," |"))</f>
+        <f>IF(Notebooks!G7="","",CONCATENATE("| [",Notebooks!A7,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A7,") | ",Notebooks!G7," |"))</f>
         <v/>
       </c>
       <c r="B9" s="40"/>
@@ -4039,7 +4593,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="40" t="str">
-        <f>IF(Notebooks!F8="","",CONCATENATE("| [",Notebooks!A8,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A8,") | ",Notebooks!F8," |"))</f>
+        <f>IF(Notebooks!G8="","",CONCATENATE("| [",Notebooks!A8,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A8,") | ",Notebooks!G8," |"))</f>
         <v/>
       </c>
       <c r="B10" s="40"/>
@@ -4048,7 +4602,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="40" t="str">
-        <f>IF(Notebooks!F9="","",CONCATENATE("| [",Notebooks!A9,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A9,") | ",Notebooks!F9," |"))</f>
+        <f>IF(Notebooks!G9="","",CONCATENATE("| [",Notebooks!A9,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A9,") | ",Notebooks!G9," |"))</f>
         <v/>
       </c>
       <c r="B11" s="40"/>
@@ -4057,7 +4611,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="40" t="str">
-        <f>IF(Notebooks!F10="","",CONCATENATE("| [",Notebooks!A10,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A10,") | ",Notebooks!F10," |"))</f>
+        <f>IF(Notebooks!G10="","",CONCATENATE("| [",Notebooks!A10,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A10,") | ",Notebooks!G10," |"))</f>
         <v/>
       </c>
       <c r="B12" s="40"/>
@@ -4066,8 +4620,8 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="40" t="str">
-        <f>IF(Notebooks!F11="","",CONCATENATE("| [",Notebooks!A11,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A11,") | ",Notebooks!F11," |"))</f>
-        <v/>
+        <f>IF(Notebooks!G11="","",CONCATENATE("| [",Notebooks!A11,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A11,") | ",Notebooks!G11," |"))</f>
+        <v>| [2](https://rpi-data.github.io/course-intro-ml-app/sessions/session2) | Python Overview - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/01-intro-python-overview.ipynb)&lt;br&gt;Basic Data Structures - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/02-intro-python-datastructures.ipynbhttps://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/03-intro-python-numpy.ipynb)&lt;br&gt;Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)&lt;br&gt;Pandas - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)&lt;br&gt;Lab - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/lab/lab.ipynb)&lt;br&gt;Assignment 1 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/hm-01/hm01.ipynb) |</v>
       </c>
       <c r="B13" s="40"/>
       <c r="C13" s="40"/>
@@ -4075,8 +4629,8 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="40" t="str">
-        <f>IF(Notebooks!F12="","",CONCATENATE("| [",Notebooks!A12,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A12,") | ",Notebooks!F12," |"))</f>
-        <v>| [2](https://rpi-data.github.io/course-intro-ml-app/sessions/session2) | Python Overview - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/01-intro-python-overview.ipynb)&lt;br&gt;Basic Data Structures - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/02-intro-python-datastructures.ipynbhttps://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/03-intro-python-numpy.ipynb)&lt;br&gt;Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)&lt;br&gt;Pandas - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)&lt;br&gt;Lab - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/lab/lab.ipynb)&lt;br&gt;Assignment 1 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/hm-01/hm01.ipynb) |</v>
+        <f>IF(Notebooks!G12="","",CONCATENATE("| [",Notebooks!A12,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A12,") | ",Notebooks!G12," |"))</f>
+        <v/>
       </c>
       <c r="B14" s="40"/>
       <c r="C14" s="40"/>
@@ -4084,7 +4638,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="40" t="str">
-        <f>IF(Notebooks!F13="","",CONCATENATE("| [",Notebooks!A13,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A13,") | ",Notebooks!F13," |"))</f>
+        <f>IF(Notebooks!G13="","",CONCATENATE("| [",Notebooks!A13,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A13,") | ",Notebooks!G13," |"))</f>
         <v/>
       </c>
       <c r="B15" s="40"/>
@@ -4093,7 +4647,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="40" t="str">
-        <f>IF(Notebooks!F14="","",CONCATENATE("| [",Notebooks!A14,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A14,") | ",Notebooks!F14," |"))</f>
+        <f>IF(Notebooks!G14="","",CONCATENATE("| [",Notebooks!A14,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A14,") | ",Notebooks!G14," |"))</f>
         <v/>
       </c>
       <c r="B16" s="40"/>
@@ -4102,7 +4656,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="40" t="str">
-        <f>IF(Notebooks!F15="","",CONCATENATE("| [",Notebooks!A15,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A15,") | ",Notebooks!F15," |"))</f>
+        <f>IF(Notebooks!G15="","",CONCATENATE("| [",Notebooks!A15,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A15,") | ",Notebooks!G15," |"))</f>
         <v/>
       </c>
       <c r="B17" s="40"/>
@@ -4111,7 +4665,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="40" t="str">
-        <f>IF(Notebooks!F16="","",CONCATENATE("| [",Notebooks!A16,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A16,") | ",Notebooks!F16," |"))</f>
+        <f>IF(Notebooks!G16="","",CONCATENATE("| [",Notebooks!A16,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A16,") | ",Notebooks!G16," |"))</f>
         <v/>
       </c>
       <c r="B18" s="40"/>
@@ -4120,8 +4674,8 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="40" t="str">
-        <f>IF(Notebooks!F17="","",CONCATENATE("| [",Notebooks!A17,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A17,") | ",Notebooks!F17," |"))</f>
-        <v/>
+        <f>IF(Notebooks!G17="","",CONCATENATE("| [",Notebooks!A17,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A17,") | ",Notebooks!G17," |"))</f>
+        <v>| [4](https://rpi-data.github.io/course-intro-ml-app/sessions/session4) | Conditional-Loops - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb)&lt;br&gt;Functions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/02-intro-python-functions.ipynb)&lt;br&gt;Null Values - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/03-intro-python-null-values.ipynb)&lt;br&gt;Groupby - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/04-intro-python-groupby.ipynb)&lt;br&gt;Kaggle Baseline - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/05-intro-kaggle-baseline.ipynb)&lt;br&gt;Assignment 2 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/hm-02/hm02.ipynb) |</v>
       </c>
       <c r="B19" s="40"/>
       <c r="C19" s="40"/>
@@ -4129,8 +4683,8 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="40" t="str">
-        <f>IF(Notebooks!F18="","",CONCATENATE("| [",Notebooks!A18,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A18,") | ",Notebooks!F18," |"))</f>
-        <v>| [4](https://rpi-data.github.io/course-intro-ml-app/sessions/session4) | Conditional-Loops - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb)&lt;br&gt;Functions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/02-intro-python-functions.ipynb)&lt;br&gt;Null Values - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/03-intro-python-null-values.ipynb)&lt;br&gt;Groupby - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/04-intro-python-groupby.ipynb)&lt;br&gt;Kaggle Baseline - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/05-intro-kaggle-baseline.ipynb)&lt;br&gt;Assignment 2 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/hm-02/hm02.ipynb) |</v>
+        <f>IF(Notebooks!G18="","",CONCATENATE("| [",Notebooks!A18,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A18,") | ",Notebooks!G18," |"))</f>
+        <v/>
       </c>
       <c r="B20" s="40"/>
       <c r="C20" s="40"/>
@@ -4138,7 +4692,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="40" t="str">
-        <f>IF(Notebooks!F19="","",CONCATENATE("| [",Notebooks!A19,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A19,") | ",Notebooks!F19," |"))</f>
+        <f>IF(Notebooks!G19="","",CONCATENATE("| [",Notebooks!A19,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A19,") | ",Notebooks!G19," |"))</f>
         <v/>
       </c>
       <c r="B21" s="40"/>
@@ -4147,7 +4701,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="40" t="str">
-        <f>IF(Notebooks!F20="","",CONCATENATE("| [",Notebooks!A20,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A20,") | ",Notebooks!F20," |"))</f>
+        <f>IF(Notebooks!G20="","",CONCATENATE("| [",Notebooks!A20,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A20,") | ",Notebooks!G20," |"))</f>
         <v/>
       </c>
       <c r="B22" s="40"/>
@@ -4156,7 +4710,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="40" t="str">
-        <f>IF(Notebooks!F21="","",CONCATENATE("| [",Notebooks!A21,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A21,") | ",Notebooks!F21," |"))</f>
+        <f>IF(Notebooks!G21="","",CONCATENATE("| [",Notebooks!A21,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A21,") | ",Notebooks!G21," |"))</f>
         <v/>
       </c>
       <c r="B23" s="40"/>
@@ -4165,7 +4719,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="40" t="str">
-        <f>IF(Notebooks!F22="","",CONCATENATE("| [",Notebooks!A22,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A22,") | ",Notebooks!F22," |"))</f>
+        <f>IF(Notebooks!G22="","",CONCATENATE("| [",Notebooks!A22,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A22,") | ",Notebooks!G22," |"))</f>
         <v/>
       </c>
       <c r="B24" s="40"/>
@@ -4174,8 +4728,8 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="40" t="str">
-        <f>IF(Notebooks!F23="","",CONCATENATE("| [",Notebooks!A23,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A23,") | ",Notebooks!F23," |"))</f>
-        <v/>
+        <f>IF(Notebooks!G23="","",CONCATENATE("| [",Notebooks!A23,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A23,") | ",Notebooks!G23," |"))</f>
+        <v>| [6](https://rpi-data.github.io/course-intro-ml-app/sessions/session6) | Twitter - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb)&lt;br&gt;Web Mining - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/02_intro_python_webmining.ipynb)&lt;br&gt;Visualizations - Seaborn - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/03_visualization_python_seaborn.ipynb)&lt;br&gt;Strings - Regular Expressions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/04_strings_and_regular_expressions.ipynb)&lt;br&gt;Feature Dummies - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/05_features_dummies.ipynb)&lt;br&gt;Assignment 3 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/hm-03/hm03.ipynb) |</v>
       </c>
       <c r="B25" s="40"/>
       <c r="C25" s="40"/>
@@ -4183,8 +4737,8 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="40" t="str">
-        <f>IF(Notebooks!F24="","",CONCATENATE("| [",Notebooks!A24,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A24,") | ",Notebooks!F24," |"))</f>
-        <v>| [6](https://rpi-data.github.io/course-intro-ml-app/sessions/session6) | Twitter - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb)&lt;br&gt;Web Mining - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/02_intro_python_webmining.ipynb)&lt;br&gt;Visualizations - Seaborn - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/03_visualization_python_seaborn.ipynb)&lt;br&gt;Strings - Regular Expressions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/04_strings_and_regular_expressions.ipynb)&lt;br&gt;Feature Dummies - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/05_features_dummies.ipynb)&lt;br&gt;Assignment 3 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/hm-03/hm03.ipynb) |</v>
+        <f>IF(Notebooks!G24="","",CONCATENATE("| [",Notebooks!A24,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A24,") | ",Notebooks!G24," |"))</f>
+        <v/>
       </c>
       <c r="B26" s="40"/>
       <c r="C26" s="40"/>
@@ -4192,7 +4746,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="40" t="str">
-        <f>IF(Notebooks!F25="","",CONCATENATE("| [",Notebooks!A25,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A25,") | ",Notebooks!F25," |"))</f>
+        <f>IF(Notebooks!G25="","",CONCATENATE("| [",Notebooks!A25,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A25,") | ",Notebooks!G25," |"))</f>
         <v/>
       </c>
       <c r="B27" s="40"/>
@@ -4201,7 +4755,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="40" t="str">
-        <f>IF(Notebooks!F26="","",CONCATENATE("| [",Notebooks!A26,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A26,") | ",Notebooks!F26," |"))</f>
+        <f>IF(Notebooks!G26="","",CONCATENATE("| [",Notebooks!A26,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A26,") | ",Notebooks!G26," |"))</f>
         <v/>
       </c>
       <c r="B28" s="40"/>
@@ -4210,7 +4764,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="40" t="str">
-        <f>IF(Notebooks!F27="","",CONCATENATE("| [",Notebooks!A27,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A27,") | ",Notebooks!F27," |"))</f>
+        <f>IF(Notebooks!G27="","",CONCATENATE("| [",Notebooks!A27,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A27,") | ",Notebooks!G27," |"))</f>
         <v/>
       </c>
       <c r="B29" s="40"/>
@@ -4219,7 +4773,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="40" t="str">
-        <f>IF(Notebooks!F28="","",CONCATENATE("| [",Notebooks!A28,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A28,") | ",Notebooks!F28," |"))</f>
+        <f>IF(Notebooks!G28="","",CONCATENATE("| [",Notebooks!A28,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A28,") | ",Notebooks!G28," |"))</f>
         <v/>
       </c>
       <c r="B30" s="40"/>
@@ -4228,7 +4782,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="40" t="str">
-        <f>IF(Notebooks!F29="","",CONCATENATE("| [",Notebooks!A29,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A29,") | ",Notebooks!F29," |"))</f>
+        <f>IF(Notebooks!G29="","",CONCATENATE("| [",Notebooks!A29,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A29,") | ",Notebooks!G29," |"))</f>
         <v/>
       </c>
       <c r="B31" s="40"/>
@@ -4237,8 +4791,8 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="40" t="str">
-        <f>IF(Notebooks!F30="","",CONCATENATE("| [",Notebooks!A30,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A30,") | ",Notebooks!F30," |"))</f>
-        <v/>
+        <f>IF(Notebooks!G30="","",CONCATENATE("| [",Notebooks!A30,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A30,") | ",Notebooks!G30," |"))</f>
+        <v>| [9](https://rpi-data.github.io/course-intro-ml-app/sessions/session9) | The Simplest Neural Network with Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)&lt;br&gt;Train Test Split - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb)&lt;br&gt;Introduction to Logistic Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/02-intro-logistic-knn.ipynb)&lt;br&gt;K Nearest Neighbor - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/03-knn.ipynb)&lt;br&gt;ROC and SVM - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/04-svm-roc.ipynb)&lt;br&gt;HM5A Visualization &amp; Screen Scraping - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05A.ipynb)&lt;br&gt;HM5B Intro Modeling - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05B.ipynb) |</v>
       </c>
       <c r="B32" s="40"/>
       <c r="C32" s="40"/>
@@ -4246,8 +4800,8 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="40" t="str">
-        <f>IF(Notebooks!F31="","",CONCATENATE("| [",Notebooks!A31,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A31,") | ",Notebooks!F31," |"))</f>
-        <v>| [9](https://rpi-data.github.io/course-intro-ml-app/sessions/session9) | The Simplest Neural Network with Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)&lt;br&gt;Train Test Split - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb)&lt;br&gt;Introduction to Logistic Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/02-intro-logistic-knn.ipynb)&lt;br&gt;K Nearest Neighbor - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/03-knn.ipynb)&lt;br&gt;ROC and SVM - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/04-svm-roc.ipynb)&lt;br&gt;HM5A Visualization &amp; Screen Scraping - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05A.ipynb)&lt;br&gt;HM5B Intro Modeling - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05B.ipynb) |</v>
+        <f>IF(Notebooks!G31="","",CONCATENATE("| [",Notebooks!A31,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A31,") | ",Notebooks!G31," |"))</f>
+        <v/>
       </c>
       <c r="B33" s="40"/>
       <c r="C33" s="40"/>
@@ -4255,7 +4809,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="40" t="str">
-        <f>IF(Notebooks!F32="","",CONCATENATE("| [",Notebooks!A32,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A32,") | ",Notebooks!F32," |"))</f>
+        <f>IF(Notebooks!G32="","",CONCATENATE("| [",Notebooks!A32,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A32,") | ",Notebooks!G32," |"))</f>
         <v/>
       </c>
       <c r="B34" s="40"/>
@@ -4264,8 +4818,8 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="40" t="str">
-        <f>IF(Notebooks!F33="","",CONCATENATE("| [",Notebooks!A33,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A33,") | ",Notebooks!F33," |"))</f>
-        <v/>
+        <f>IF(Notebooks!G33="","",CONCATENATE("| [",Notebooks!A33,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A33,") | ",Notebooks!G33," |"))</f>
+        <v>| [13](https://rpi-data.github.io/course-intro-ml-app/sessions/session13) | Matrix Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/01-matrix-regression-gradient-decent-python.ipynb)&lt;br&gt;Regression Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/02-regression-boston-housing-python.ipynb)&lt;br&gt;Ridge and Lasso Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb) |</v>
       </c>
       <c r="B35" s="40"/>
       <c r="C35" s="40"/>
@@ -4273,8 +4827,8 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="40" t="str">
-        <f>IF(Notebooks!F34="","",CONCATENATE("| [",Notebooks!A34,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A34,") | ",Notebooks!F34," |"))</f>
-        <v>| [13](https://rpi-data.github.io/course-intro-ml-app/sessions/session13) | Matrix Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/01-matrix-regression-gradient-decent-python.ipynb)&lt;br&gt;Regression Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/02-regression-boston-housing-python.ipynb)&lt;br&gt;Ridge and Lasso Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb) |</v>
+        <f>IF(Notebooks!G34="","",CONCATENATE("| [",Notebooks!A34,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A34,") | ",Notebooks!G34," |"))</f>
+        <v/>
       </c>
       <c r="B36" s="40"/>
       <c r="C36" s="40"/>
@@ -4282,21 +4836,12 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="40" t="str">
-        <f>IF(Notebooks!F35="","",CONCATENATE("| [",Notebooks!A35,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A35,") | ",Notebooks!F35," |"))</f>
-        <v/>
+        <f>IF(Notebooks!G35="","",CONCATENATE("| [",Notebooks!A35,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A35,") | ",Notebooks!G35," |"))</f>
+        <v>| [15](https://rpi-data.github.io/course-intro-ml-app/sessions/session15) | Ridge and Lasso Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb)&lt;br&gt;PCA - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/04_introduction_pca.ipynb) |</v>
       </c>
       <c r="B37" s="40"/>
       <c r="C37" s="40"/>
       <c r="D37" s="40"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="40" t="str">
-        <f>IF(Notebooks!F36="","",CONCATENATE("| [",Notebooks!A36,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Notebooks!A36,") | ",Notebooks!F36," |"))</f>
-        <v>| [15](https://rpi-data.github.io/course-intro-ml-app/sessions/session15) | Ridge and Lasso Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb)&lt;br&gt;PCA - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/04_introduction_pca.ipynb) |</v>
-      </c>
-      <c r="B38" s="40"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4304,12 +4849,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:A36"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6"/>
@@ -4319,17 +4864,17 @@
   <sheetData>
     <row r="1" spans="1:1" ht="46.8">
       <c r="A1" s="37" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="9" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="9" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -4377,7 +4922,7 @@
     <row r="11" spans="1:1">
       <c r="A11" s="40" t="str">
         <f>IF(ISBLANK(Schedule!H10),"",CONCATENATE("| ",Schedule!H10," | [",Schedule!B10,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Schedule!B10,".html) | ",TEXT(Schedule!D10+Configuration!$B$6, "mm/dd")," | ",Schedule!I10," | ",IF(ISBLANK(Schedule!K10),"*None*",Schedule!R10)," |"))</f>
-        <v>| 3 | [7](https://rpi-data.github.io/course-intro-ml-app/sessions/session7.html) | 10/03 |  | [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/hm-03/hm03.ipynb) |</v>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -4389,7 +4934,7 @@
     <row r="13" spans="1:1">
       <c r="A13" s="40" t="str">
         <f>IF(ISBLANK(Schedule!H12),"",CONCATENATE("| ",Schedule!H12," | [",Schedule!B12,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Schedule!B12,".html) | ",TEXT(Schedule!D12+Configuration!$B$6, "mm/dd")," | ",Schedule!I12," | ",IF(ISBLANK(Schedule!K12),"*None*",Schedule!R12)," |"))</f>
-        <v>| 4 | [9](https://rpi-data.github.io/course-intro-ml-app/sessions/session9.html) | 10/10 |  | *None* |</v>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -4401,7 +4946,7 @@
     <row r="15" spans="1:1">
       <c r="A15" s="40" t="str">
         <f>IF(ISBLANK(Schedule!H14),"",CONCATENATE("| ",Schedule!H14," | [",Schedule!B14,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Schedule!B14,".html) | ",TEXT(Schedule!D14+Configuration!$B$6, "mm/dd")," | ",Schedule!I14," | ",IF(ISBLANK(Schedule!K14),"*None*",Schedule!R14)," |"))</f>
-        <v>| 5 | [11](https://rpi-data.github.io/course-intro-ml-app/sessions/session11.html) | 10/17 |  | *None* |</v>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -4413,7 +4958,7 @@
     <row r="17" spans="1:1">
       <c r="A17" s="40" t="str">
         <f>IF(ISBLANK(Schedule!H16),"",CONCATENATE("| ",Schedule!H16," | [",Schedule!B16,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Schedule!B16,".html) | ",TEXT(Schedule!D16+Configuration!$B$6, "mm/dd")," | ",Schedule!I16," | ",IF(ISBLANK(Schedule!K16),"*None*",Schedule!R16)," |"))</f>
-        <v>| 6 | [13](https://rpi-data.github.io/course-intro-ml-app/sessions/session13.html) | 10/24 |  | *None* |</v>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -4425,7 +4970,7 @@
     <row r="19" spans="1:1">
       <c r="A19" s="40" t="str">
         <f>IF(ISBLANK(Schedule!H18),"",CONCATENATE("| ",Schedule!H18," | [",Schedule!B18,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Schedule!B18,".html) | ",TEXT(Schedule!D18+Configuration!$B$6, "mm/dd")," | ",Schedule!I18," | ",IF(ISBLANK(Schedule!K18),"*None*",Schedule!R18)," |"))</f>
-        <v>| 7 | [15](https://rpi-data.github.io/course-intro-ml-app/sessions/session15.html) | 10/31 |  | *None* |</v>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -4467,7 +5012,7 @@
     <row r="26" spans="1:1">
       <c r="A26" s="40" t="str">
         <f>IF(ISBLANK(Schedule!H25),"",CONCATENATE("| ",Schedule!H25," | [",Schedule!B25,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Schedule!B25,".html) | ",TEXT(Schedule!D25+Configuration!$B$6, "mm/dd")," | ",Schedule!I25," | ",IF(ISBLANK(Schedule!K25),"*None*",Schedule!R25)," |"))</f>
-        <v>| 8 | [22](https://rpi-data.github.io/course-intro-ml-app/sessions/session22.html) | 11/25 |  | *None* |</v>
+        <v/>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -4535,7 +5080,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -6116,7 +6661,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{515BB05E-4CB6-4E1D-95DD-C7D7E7D05461}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -6124,7 +6669,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="15" customHeight="1"/>
@@ -6350,24 +6895,16 @@
     <row r="9" spans="1:6" ht="15" customHeight="1">
       <c r="A9" s="41" t="str">
         <f>IF(ISBLANK(Schedule!H10),"",CONCATENATE("assign",Schedule!H10))</f>
-        <v>assign3</v>
+        <v/>
       </c>
       <c r="B9" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Assignment 3&lt;/h1&gt;
----
-### Description
-*None*
-### Instructions
-*None*
-### Link
-*None*</v>
+        <v/>
       </c>
       <c r="C9" s="42" t="str">
         <f>IF(ISBLANK(Schedule!H10),"",CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;Assignment ",Schedule!H10,"&lt;/h1&gt;
 ---"))</f>
-        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Assignment 3&lt;/h1&gt;
----</v>
+        <v/>
       </c>
       <c r="D9" s="11" t="str">
         <f>IF(ISBLANK(Schedule!H10),"",CONCATENATE("
@@ -6377,13 +6914,7 @@
 ",IF(ISBLANK(Schedule!J10),"*None*",Schedule!J10),"
 ### Link
 ",IF(ISBLANK(Schedule!K15),"*None*",Schedule!R15)))</f>
-        <v xml:space="preserve">
-### Description
-*None*
-### Instructions
-*None*
-### Link
-*None*</v>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1">
@@ -6414,24 +6945,16 @@
     <row r="11" spans="1:6" ht="15" customHeight="1">
       <c r="A11" s="41" t="str">
         <f>IF(ISBLANK(Schedule!H12),"",CONCATENATE("assign",Schedule!H12))</f>
-        <v>assign4</v>
+        <v/>
       </c>
       <c r="B11" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Assignment 4&lt;/h1&gt;
----
-### Description
-*None*
-### Instructions
-*None*
-### Link
-*None*</v>
+        <v/>
       </c>
       <c r="C11" s="42" t="str">
         <f>IF(ISBLANK(Schedule!H12),"",CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;Assignment ",Schedule!H12,"&lt;/h1&gt;
 ---"))</f>
-        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Assignment 4&lt;/h1&gt;
----</v>
+        <v/>
       </c>
       <c r="D11" s="11" t="str">
         <f>IF(ISBLANK(Schedule!H12),"",CONCATENATE("
@@ -6441,13 +6964,7 @@
 ",IF(ISBLANK(Schedule!J12),"*None*",Schedule!J12),"
 ### Link
 ",IF(ISBLANK(Schedule!K17),"*None*",Schedule!R17)))</f>
-        <v xml:space="preserve">
-### Description
-*None*
-### Instructions
-*None*
-### Link
-*None*</v>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1">
@@ -6478,24 +6995,16 @@
     <row r="13" spans="1:6" ht="15" customHeight="1">
       <c r="A13" s="41" t="str">
         <f>IF(ISBLANK(Schedule!H14),"",CONCATENATE("assign",Schedule!H14))</f>
-        <v>assign5</v>
+        <v/>
       </c>
       <c r="B13" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Assignment 5&lt;/h1&gt;
----
-### Description
-*None*
-### Instructions
-*None*
-### Link
-*None*</v>
+        <v/>
       </c>
       <c r="C13" s="42" t="str">
         <f>IF(ISBLANK(Schedule!H14),"",CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;Assignment ",Schedule!H14,"&lt;/h1&gt;
 ---"))</f>
-        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Assignment 5&lt;/h1&gt;
----</v>
+        <v/>
       </c>
       <c r="D13" s="11" t="str">
         <f>IF(ISBLANK(Schedule!H14),"",CONCATENATE("
@@ -6505,13 +7014,7 @@
 ",IF(ISBLANK(Schedule!J14),"*None*",Schedule!J14),"
 ### Link
 ",IF(ISBLANK(Schedule!K19),"*None*",Schedule!R19)))</f>
-        <v xml:space="preserve">
-### Description
-*None*
-### Instructions
-*None*
-### Link
-*None*</v>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1">
@@ -6542,24 +7045,16 @@
     <row r="15" spans="1:6" ht="15" customHeight="1">
       <c r="A15" s="41" t="str">
         <f>IF(ISBLANK(Schedule!H16),"",CONCATENATE("assign",Schedule!H16))</f>
-        <v>assign6</v>
+        <v/>
       </c>
       <c r="B15" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Assignment 6&lt;/h1&gt;
----
-### Description
-*None*
-### Instructions
-*None*
-### Link
-*None*</v>
+        <v/>
       </c>
       <c r="C15" s="42" t="str">
         <f>IF(ISBLANK(Schedule!H16),"",CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;Assignment ",Schedule!H16,"&lt;/h1&gt;
 ---"))</f>
-        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Assignment 6&lt;/h1&gt;
----</v>
+        <v/>
       </c>
       <c r="D15" s="11" t="str">
         <f>IF(ISBLANK(Schedule!H16),"",CONCATENATE("
@@ -6569,13 +7064,7 @@
 ",IF(ISBLANK(Schedule!J16),"*None*",Schedule!J16),"
 ### Link
 ",IF(ISBLANK(Schedule!K21),"*None*",Schedule!R21)))</f>
-        <v xml:space="preserve">
-### Description
-*None*
-### Instructions
-*None*
-### Link
-*None*</v>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1">
@@ -6606,24 +7095,16 @@
     <row r="17" spans="1:4" ht="15" customHeight="1">
       <c r="A17" s="41" t="str">
         <f>IF(ISBLANK(Schedule!H18),"",CONCATENATE("assign",Schedule!H18))</f>
-        <v>assign7</v>
+        <v/>
       </c>
       <c r="B17" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Assignment 7&lt;/h1&gt;
----
-### Description
-*None*
-### Instructions
-*None*
-### Link
-*None*</v>
+        <v/>
       </c>
       <c r="C17" s="42" t="str">
         <f>IF(ISBLANK(Schedule!H18),"",CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;Assignment ",Schedule!H18,"&lt;/h1&gt;
 ---"))</f>
-        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Assignment 7&lt;/h1&gt;
----</v>
+        <v/>
       </c>
       <c r="D17" s="11" t="str">
         <f>IF(ISBLANK(Schedule!H18),"",CONCATENATE("
@@ -6633,13 +7114,7 @@
 ",IF(ISBLANK(Schedule!J18),"*None*",Schedule!J18),"
 ### Link
 ",IF(ISBLANK(Schedule!K23),"*None*",Schedule!R23)))</f>
-        <v xml:space="preserve">
-### Description
-*None*
-### Instructions
-*None*
-### Link
-*None*</v>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1">
@@ -6795,24 +7270,16 @@
     <row r="24" spans="1:4" ht="15" customHeight="1">
       <c r="A24" s="41" t="str">
         <f>IF(ISBLANK(Schedule!H25),"",CONCATENATE("assign",Schedule!H25))</f>
-        <v>assign8</v>
+        <v/>
       </c>
       <c r="B24" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Assignment 8&lt;/h1&gt;
----
-### Description
-*None*
-### Instructions
-*None*
-### Link
-*None*</v>
+        <v/>
       </c>
       <c r="C24" s="42" t="str">
         <f>IF(ISBLANK(Schedule!H25),"",CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;Assignment ",Schedule!H25,"&lt;/h1&gt;
 ---"))</f>
-        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Assignment 8&lt;/h1&gt;
----</v>
+        <v/>
       </c>
       <c r="D24" s="11" t="str">
         <f>IF(ISBLANK(Schedule!H25),"",CONCATENATE("
@@ -6822,13 +7289,7 @@
 ",IF(ISBLANK(Schedule!J25),"*None*",Schedule!J25),"
 ### Link
 ",IF(ISBLANK(Schedule!K30),"*None*",Schedule!R30)))</f>
-        <v xml:space="preserve">
-### Description
-*None*
-### Instructions
-*None*
-### Link
-*None*</v>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -6836,7 +7297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:A20"/>
   <sheetViews>
@@ -6851,17 +7312,17 @@
   <sheetData>
     <row r="1" spans="1:1" ht="46.8">
       <c r="A1" s="10" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="9" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="9" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -6971,7 +7432,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
@@ -7018,10 +7479,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A5" s="98">
+      <c r="A5" s="102">
         <v>43709</v>
       </c>
-      <c r="B5" s="99"/>
+      <c r="B5" s="103"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="6">
@@ -7064,10 +7525,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A11" s="98">
+      <c r="A11" s="102">
         <v>43739</v>
       </c>
-      <c r="B11" s="99"/>
+      <c r="B11" s="103"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="6">
@@ -7118,10 +7579,10 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A18" s="98">
+      <c r="A18" s="102">
         <v>43770</v>
       </c>
-      <c r="B18" s="99"/>
+      <c r="B18" s="103"/>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1">
       <c r="A19" s="8" t="s">
@@ -7188,10 +7649,10 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A27" s="98">
+      <c r="A27" s="102">
         <v>43800</v>
       </c>
-      <c r="B27" s="99"/>
+      <c r="B27" s="103"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1">
       <c r="A28" s="6">
@@ -7274,10 +7735,10 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A38" s="98">
+      <c r="A38" s="102">
         <v>43831</v>
       </c>
-      <c r="B38" s="99"/>
+      <c r="B38" s="103"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1">
       <c r="A39" s="8" t="s">
@@ -7328,10 +7789,10 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A45" s="98">
+      <c r="A45" s="102">
         <v>43862</v>
       </c>
-      <c r="B45" s="99"/>
+      <c r="B45" s="103"/>
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1">
       <c r="A46" s="6">
@@ -7358,10 +7819,10 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A49" s="98">
+      <c r="A49" s="102">
         <v>43891</v>
       </c>
-      <c r="B49" s="99"/>
+      <c r="B49" s="103"/>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1">
       <c r="A50" s="6">
@@ -7436,10 +7897,10 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A59" s="98">
+      <c r="A59" s="102">
         <v>43922</v>
       </c>
-      <c r="B59" s="99"/>
+      <c r="B59" s="103"/>
     </row>
     <row r="60" spans="1:2" ht="15.75" customHeight="1">
       <c r="A60" s="6">
@@ -7482,10 +7943,10 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A65" s="98">
+      <c r="A65" s="102">
         <v>43952</v>
       </c>
-      <c r="B65" s="99"/>
+      <c r="B65" s="103"/>
     </row>
     <row r="66" spans="1:2" ht="15.75" customHeight="1">
       <c r="A66" s="8" t="s">
@@ -8569,7 +9030,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A2:L929"/>
   <sheetViews>
@@ -29845,13 +30306,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R956"/>
+  <dimension ref="A1:V956"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R3" sqref="R3"/>
+      <selection pane="bottomRight" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="15.6"/>
@@ -29866,28 +30327,28 @@
     <col min="11" max="11" width="36" style="51" customWidth="1"/>
     <col min="12" max="12" width="10.6484375" style="51" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.5" style="86" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5" style="82" customWidth="1"/>
-    <col min="15" max="15" width="10" style="72" customWidth="1"/>
-    <col min="16" max="18" width="10.5" style="72" customWidth="1"/>
+    <col min="14" max="14" width="10.5" style="82" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="10" style="72" hidden="1" customWidth="1"/>
+    <col min="16" max="18" width="10.5" style="72" hidden="1" customWidth="1"/>
     <col min="19" max="26" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="43" customFormat="1" ht="18.3" customHeight="1">
-      <c r="A1" s="92"/>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="94" t="s">
-        <v>860</v>
-      </c>
-      <c r="G1" s="94"/>
-      <c r="H1" s="95" t="s">
-        <v>870</v>
-      </c>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="97"/>
+    <row r="1" spans="1:22" s="43" customFormat="1" ht="18.3" customHeight="1">
+      <c r="A1" s="96"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="98" t="s">
+        <v>857</v>
+      </c>
+      <c r="G1" s="98"/>
+      <c r="H1" s="99" t="s">
+        <v>867</v>
+      </c>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="101"/>
       <c r="L1" s="49"/>
       <c r="M1" s="84"/>
       <c r="N1" s="80"/>
@@ -29896,12 +30357,12 @@
       <c r="Q1" s="71"/>
       <c r="R1" s="71"/>
     </row>
-    <row r="2" spans="1:18" s="43" customFormat="1" ht="18.3">
+    <row r="2" spans="1:22" s="43" customFormat="1" ht="18.3">
       <c r="A2" s="54" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C2" s="55" t="s">
         <v>1</v>
@@ -29925,16 +30386,16 @@
         <v>7</v>
       </c>
       <c r="J2" s="77" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="K2" s="78" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="L2" s="78" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="M2" s="85" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="N2" s="81"/>
       <c r="O2" s="74"/>
@@ -29942,7 +30403,7 @@
       <c r="Q2" s="71"/>
       <c r="R2" s="71"/>
     </row>
-    <row r="3" spans="1:18" ht="62.4">
+    <row r="3" spans="1:22" ht="62.4">
       <c r="A3" s="58">
         <v>1</v>
       </c>
@@ -29962,7 +30423,7 @@
         <v>101</v>
       </c>
       <c r="G3" s="64" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="L3" s="51" t="b">
         <v>0</v>
@@ -29990,8 +30451,36 @@
         <f>CONCATENATE("[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",K3,")")</f>
         <v>[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)]()</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="15.6" customHeight="1">
+      <c r="S3" t="str">
+        <f>IF(ISBLANK(B3),"",CONCATENATE("  - title: Session ",B3,"
+    url: /sessions/session",B3,"
+    not_numbered: true"))</f>
+        <v xml:space="preserve">  - title: Session 1
+    url: /sessions/session1
+    not_numbered: true</v>
+      </c>
+      <c r="T3" t="str">
+        <f>T2&amp;"
+"&amp;S3</f>
+        <v xml:space="preserve">
+  - title: Session 1
+    url: /sessions/session1
+    not_numbered: true</v>
+      </c>
+      <c r="U3" t="str">
+        <f>IF(ISBLANK(H3),"",CONCATENATE("  - title: Assignment ",H3,"
+    url: /assignments/assign",H3,"
+    not_numbered: true"))</f>
+        <v/>
+      </c>
+      <c r="V3" t="str">
+        <f>V2&amp;"
+"&amp;U3</f>
+        <v xml:space="preserve">
+</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="15.6" customHeight="1">
       <c r="A4" s="58">
         <v>2</v>
       </c>
@@ -30003,7 +30492,7 @@
         <v>43710</v>
       </c>
       <c r="E4" s="65" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F4" s="62"/>
       <c r="G4" s="62"/>
@@ -30033,8 +30522,35 @@
         <f t="shared" ref="R4:R34" si="2">CONCATENATE("[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",K4,")")</f>
         <v>[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)]()</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="124.8">
+      <c r="S4" s="40" t="str">
+        <f t="shared" ref="S4:S36" si="3">IF(ISBLANK(B4),"",CONCATENATE("  - title: Session ",B4,"
+    url: /sessions/session",B4,"
+    not_numbered: true"))</f>
+        <v/>
+      </c>
+      <c r="T4" s="40" t="str">
+        <f t="shared" ref="T4:T36" si="4">T3&amp;"
+"&amp;S4</f>
+        <v xml:space="preserve">
+  - title: Session 1
+    url: /sessions/session1
+    not_numbered: true
+</v>
+      </c>
+      <c r="U4" s="40" t="str">
+        <f t="shared" ref="U4:U36" si="5">IF(ISBLANK(H4),"",CONCATENATE("  - title: Assignment ",H4,"
+    url: /assignments/assign",H4,"
+    not_numbered: true"))</f>
+        <v/>
+      </c>
+      <c r="V4" s="40" t="str">
+        <f t="shared" ref="V4:V36" si="6">V3&amp;"
+"&amp;U4</f>
+        <v xml:space="preserve">
+</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="124.8">
       <c r="A5" s="66">
         <v>2</v>
       </c>
@@ -30055,7 +30571,7 @@
         <v>100</v>
       </c>
       <c r="G5" s="67" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="H5" s="58">
         <v>1</v>
@@ -30065,7 +30581,7 @@
       </c>
       <c r="J5" s="63"/>
       <c r="K5" s="90" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="L5" s="79" t="b">
         <v>1</v>
@@ -30093,13 +30609,42 @@
         <f t="shared" si="2"/>
         <v>[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/hm-01/hm01.ipynb)</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - title: Session 2
+    url: /sessions/session2
+    not_numbered: true</v>
+      </c>
+      <c r="T5" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
+  - title: Session 1
+    url: /sessions/session1
+    not_numbered: true
+  - title: Session 2
+    url: /sessions/session2
+    not_numbered: true</v>
+      </c>
+      <c r="U5" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  - title: Assignment 1
+    url: /assignments/assign1
+    not_numbered: true</v>
+      </c>
+      <c r="V5" s="40" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">
+  - title: Assignment 1
+    url: /assignments/assign1
+    not_numbered: true</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="58">
         <v>2</v>
       </c>
       <c r="B6" s="60">
-        <f t="shared" ref="B6:B29" si="3">B5+1</f>
+        <f t="shared" ref="B6:B29" si="7">B5+1</f>
         <v>3</v>
       </c>
       <c r="C6" s="60" t="s">
@@ -30142,14 +30687,45 @@
         <f t="shared" si="2"/>
         <v>[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)]()</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="140.4">
+      <c r="S6" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - title: Session 3
+    url: /sessions/session3
+    not_numbered: true</v>
+      </c>
+      <c r="T6" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
+  - title: Session 1
+    url: /sessions/session1
+    not_numbered: true
+  - title: Session 2
+    url: /sessions/session2
+    not_numbered: true
+  - title: Session 3
+    url: /sessions/session3
+    not_numbered: true</v>
+      </c>
+      <c r="U6" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V6" s="40" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">
+  - title: Assignment 1
+    url: /assignments/assign1
+    not_numbered: true
+</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="140.4">
       <c r="A7" s="58">
         <f>A4+1</f>
         <v>3</v>
       </c>
       <c r="B7" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="C7" s="60" t="s">
@@ -30192,21 +30768,55 @@
         <f t="shared" si="2"/>
         <v>[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)]()</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="46.8">
+      <c r="S7" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - title: Session 4
+    url: /sessions/session4
+    not_numbered: true</v>
+      </c>
+      <c r="T7" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
+  - title: Session 1
+    url: /sessions/session1
+    not_numbered: true
+  - title: Session 2
+    url: /sessions/session2
+    not_numbered: true
+  - title: Session 3
+    url: /sessions/session3
+    not_numbered: true
+  - title: Session 4
+    url: /sessions/session4
+    not_numbered: true</v>
+      </c>
+      <c r="U7" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V7" s="40" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">
+  - title: Assignment 1
+    url: /assignments/assign1
+    not_numbered: true
+</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="46.8">
       <c r="A8" s="58">
-        <f t="shared" ref="A8:A13" si="4">A6+1</f>
+        <f t="shared" ref="A8:A13" si="8">A6+1</f>
         <v>3</v>
       </c>
       <c r="B8" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="C8" s="60" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="61">
-        <f t="shared" ref="D8:D33" si="5">D6+7</f>
+        <f t="shared" ref="D8:D33" si="9">D6+7</f>
         <v>43720</v>
       </c>
       <c r="E8" s="63" t="s">
@@ -30220,7 +30830,7 @@
         <v>2</v>
       </c>
       <c r="K8" s="90" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="L8" s="51" t="b">
         <v>0</v>
@@ -30248,21 +30858,62 @@
         <f t="shared" si="2"/>
         <v>[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/hm-02/hm02.ipynb)</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="93.6">
+      <c r="S8" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - title: Session 5
+    url: /sessions/session5
+    not_numbered: true</v>
+      </c>
+      <c r="T8" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
+  - title: Session 1
+    url: /sessions/session1
+    not_numbered: true
+  - title: Session 2
+    url: /sessions/session2
+    not_numbered: true
+  - title: Session 3
+    url: /sessions/session3
+    not_numbered: true
+  - title: Session 4
+    url: /sessions/session4
+    not_numbered: true
+  - title: Session 5
+    url: /sessions/session5
+    not_numbered: true</v>
+      </c>
+      <c r="U8" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  - title: Assignment 2
+    url: /assignments/assign2
+    not_numbered: true</v>
+      </c>
+      <c r="V8" s="40" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">
+  - title: Assignment 1
+    url: /assignments/assign1
+    not_numbered: true
+  - title: Assignment 2
+    url: /assignments/assign2
+    not_numbered: true</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="93.6">
       <c r="A9" s="58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="B9" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="C9" s="60" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43724</v>
       </c>
       <c r="E9" s="62" t="s">
@@ -30298,21 +30949,64 @@
         <f t="shared" si="2"/>
         <v>[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)]()</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="46.8">
+      <c r="S9" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - title: Session 6
+    url: /sessions/session6
+    not_numbered: true</v>
+      </c>
+      <c r="T9" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
+  - title: Session 1
+    url: /sessions/session1
+    not_numbered: true
+  - title: Session 2
+    url: /sessions/session2
+    not_numbered: true
+  - title: Session 3
+    url: /sessions/session3
+    not_numbered: true
+  - title: Session 4
+    url: /sessions/session4
+    not_numbered: true
+  - title: Session 5
+    url: /sessions/session5
+    not_numbered: true
+  - title: Session 6
+    url: /sessions/session6
+    not_numbered: true</v>
+      </c>
+      <c r="U9" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V9" s="40" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">
+  - title: Assignment 1
+    url: /assignments/assign1
+    not_numbered: true
+  - title: Assignment 2
+    url: /assignments/assign2
+    not_numbered: true
+</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="46.8">
       <c r="A10" s="58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="B10" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="C10" s="60" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43727</v>
       </c>
       <c r="E10" s="63" t="s">
@@ -30322,11 +31016,8 @@
         <v>99</v>
       </c>
       <c r="G10" s="62"/>
-      <c r="H10" s="58">
-        <v>3</v>
-      </c>
       <c r="K10" s="90" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="L10" s="51" t="b">
         <v>0</v>
@@ -30336,7 +31027,7 @@
       </c>
       <c r="N10" s="82" t="str">
         <f>IF(ISBLANK(H10),"",CONCATENATE("Assignment ",H10," due ", TEXT(D10+Configuration!$B$6, "mm/dd")))</f>
-        <v>Assignment 3 due 10/03</v>
+        <v/>
       </c>
       <c r="O10" s="72" t="str">
         <f>IF(B10&gt;0,CONCATENATE("[more](",Configuration!B$25,Configuration!B$24,"/sessions/session",B10,".html)"),"")</f>
@@ -30344,31 +31035,77 @@
       </c>
       <c r="P10" s="72" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> &lt;br&gt; *Assignment 3 due 10/03* &lt;br&gt;</v>
+        <v/>
       </c>
       <c r="Q10" s="72" t="str">
         <f t="shared" si="0"/>
-        <v>**Python visualization, data manipulation , and feature creation (continued)** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session7.html) &lt;br&gt; *Assignment 3 due 10/03* &lt;br&gt;</v>
+        <v>**Python visualization, data manipulation , and feature creation (continued)** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session7.html)</v>
       </c>
       <c r="R10" s="72" t="str">
         <f t="shared" si="2"/>
         <v>[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/hm-03/hm03.ipynb)</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="31.2">
+      <c r="S10" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - title: Session 7
+    url: /sessions/session7
+    not_numbered: true</v>
+      </c>
+      <c r="T10" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
+  - title: Session 1
+    url: /sessions/session1
+    not_numbered: true
+  - title: Session 2
+    url: /sessions/session2
+    not_numbered: true
+  - title: Session 3
+    url: /sessions/session3
+    not_numbered: true
+  - title: Session 4
+    url: /sessions/session4
+    not_numbered: true
+  - title: Session 5
+    url: /sessions/session5
+    not_numbered: true
+  - title: Session 6
+    url: /sessions/session6
+    not_numbered: true
+  - title: Session 7
+    url: /sessions/session7
+    not_numbered: true</v>
+      </c>
+      <c r="U10" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V10" s="40" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">
+  - title: Assignment 1
+    url: /assignments/assign1
+    not_numbered: true
+  - title: Assignment 2
+    url: /assignments/assign2
+    not_numbered: true
+</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="31.2">
       <c r="A11" s="58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="B11" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="C11" s="60" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43731</v>
       </c>
       <c r="E11" s="63" t="s">
@@ -30404,21 +31141,70 @@
         <f t="shared" si="2"/>
         <v>[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)]()</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - title: Session 8
+    url: /sessions/session8
+    not_numbered: true</v>
+      </c>
+      <c r="T11" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
+  - title: Session 1
+    url: /sessions/session1
+    not_numbered: true
+  - title: Session 2
+    url: /sessions/session2
+    not_numbered: true
+  - title: Session 3
+    url: /sessions/session3
+    not_numbered: true
+  - title: Session 4
+    url: /sessions/session4
+    not_numbered: true
+  - title: Session 5
+    url: /sessions/session5
+    not_numbered: true
+  - title: Session 6
+    url: /sessions/session6
+    not_numbered: true
+  - title: Session 7
+    url: /sessions/session7
+    not_numbered: true
+  - title: Session 8
+    url: /sessions/session8
+    not_numbered: true</v>
+      </c>
+      <c r="U11" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V11" s="40" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">
+  - title: Assignment 1
+    url: /assignments/assign1
+    not_numbered: true
+  - title: Assignment 2
+    url: /assignments/assign2
+    not_numbered: true
+</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="B12" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="C12" s="60" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43734</v>
       </c>
       <c r="E12" s="63" t="s">
@@ -30428,9 +31214,6 @@
         <v>99</v>
       </c>
       <c r="G12" s="62"/>
-      <c r="H12" s="58">
-        <v>4</v>
-      </c>
       <c r="L12" s="51" t="b">
         <v>0</v>
       </c>
@@ -30439,7 +31222,7 @@
       </c>
       <c r="N12" s="82" t="str">
         <f>IF(ISBLANK(H12),"",CONCATENATE("Assignment ",H12," due ", TEXT(D12+Configuration!$B$6, "mm/dd")))</f>
-        <v>Assignment 4 due 10/10</v>
+        <v/>
       </c>
       <c r="O12" s="72" t="str">
         <f>IF(B12&gt;0,CONCATENATE("[more](",Configuration!B$25,Configuration!B$24,"/sessions/session",B12,".html)"),"")</f>
@@ -30447,31 +31230,83 @@
       </c>
       <c r="P12" s="72" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> &lt;br&gt; *Assignment 4 due 10/10* &lt;br&gt;</v>
+        <v/>
       </c>
       <c r="Q12" s="72" t="str">
         <f t="shared" si="0"/>
-        <v>**Visualization with Tableau** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session9.html) &lt;br&gt; *Assignment 4 due 10/10* &lt;br&gt;</v>
+        <v>**Visualization with Tableau** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session9.html)</v>
       </c>
       <c r="R12" s="72" t="str">
         <f t="shared" si="2"/>
         <v>[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)]()</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" ht="93.6">
+      <c r="S12" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - title: Session 9
+    url: /sessions/session9
+    not_numbered: true</v>
+      </c>
+      <c r="T12" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
+  - title: Session 1
+    url: /sessions/session1
+    not_numbered: true
+  - title: Session 2
+    url: /sessions/session2
+    not_numbered: true
+  - title: Session 3
+    url: /sessions/session3
+    not_numbered: true
+  - title: Session 4
+    url: /sessions/session4
+    not_numbered: true
+  - title: Session 5
+    url: /sessions/session5
+    not_numbered: true
+  - title: Session 6
+    url: /sessions/session6
+    not_numbered: true
+  - title: Session 7
+    url: /sessions/session7
+    not_numbered: true
+  - title: Session 8
+    url: /sessions/session8
+    not_numbered: true
+  - title: Session 9
+    url: /sessions/session9
+    not_numbered: true</v>
+      </c>
+      <c r="U12" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V12" s="40" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">
+  - title: Assignment 1
+    url: /assignments/assign1
+    not_numbered: true
+  - title: Assignment 2
+    url: /assignments/assign2
+    not_numbered: true
+</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="93.6">
       <c r="A13" s="58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="B13" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="C13" s="60" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43738</v>
       </c>
       <c r="E13" s="62" t="s">
@@ -30507,20 +31342,75 @@
         <f t="shared" si="2"/>
         <v>[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)]()</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - title: Session 10
+    url: /sessions/session10
+    not_numbered: true</v>
+      </c>
+      <c r="T13" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
+  - title: Session 1
+    url: /sessions/session1
+    not_numbered: true
+  - title: Session 2
+    url: /sessions/session2
+    not_numbered: true
+  - title: Session 3
+    url: /sessions/session3
+    not_numbered: true
+  - title: Session 4
+    url: /sessions/session4
+    not_numbered: true
+  - title: Session 5
+    url: /sessions/session5
+    not_numbered: true
+  - title: Session 6
+    url: /sessions/session6
+    not_numbered: true
+  - title: Session 7
+    url: /sessions/session7
+    not_numbered: true
+  - title: Session 8
+    url: /sessions/session8
+    not_numbered: true
+  - title: Session 9
+    url: /sessions/session9
+    not_numbered: true
+  - title: Session 10
+    url: /sessions/session10
+    not_numbered: true</v>
+      </c>
+      <c r="U13" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V13" s="40" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">
+  - title: Assignment 1
+    url: /assignments/assign1
+    not_numbered: true
+  - title: Assignment 2
+    url: /assignments/assign2
+    not_numbered: true
+</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="58">
         <v>6</v>
       </c>
       <c r="B14" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="C14" s="60" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43741</v>
       </c>
       <c r="E14" s="62" t="s">
@@ -30530,9 +31420,6 @@
         <v>99</v>
       </c>
       <c r="G14" s="62"/>
-      <c r="H14" s="58">
-        <v>5</v>
-      </c>
       <c r="L14" s="51" t="b">
         <v>0</v>
       </c>
@@ -30541,7 +31428,7 @@
       </c>
       <c r="N14" s="82" t="str">
         <f>IF(ISBLANK(H14),"",CONCATENATE("Assignment ",H14," due ", TEXT(D14+Configuration!$B$6, "mm/dd")))</f>
-        <v>Assignment 5 due 10/17</v>
+        <v/>
       </c>
       <c r="O14" s="72" t="str">
         <f>IF(B14&gt;0,CONCATENATE("[more](",Configuration!B$25,Configuration!B$24,"/sessions/session",B14,".html)"),"")</f>
@@ -30549,31 +31436,89 @@
       </c>
       <c r="P14" s="72" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> &lt;br&gt; *Assignment 5 due 10/17* &lt;br&gt;</v>
+        <v/>
       </c>
       <c r="Q14" s="72" t="str">
         <f t="shared" si="0"/>
-        <v>**Introduction to R** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session11.html) &lt;br&gt; *Assignment 5 due 10/17* &lt;br&gt;</v>
+        <v>**Introduction to R** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session11.html)</v>
       </c>
       <c r="R14" s="72" t="str">
         <f t="shared" si="2"/>
         <v>[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)]()</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" ht="93.6">
+      <c r="S14" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - title: Session 11
+    url: /sessions/session11
+    not_numbered: true</v>
+      </c>
+      <c r="T14" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
+  - title: Session 1
+    url: /sessions/session1
+    not_numbered: true
+  - title: Session 2
+    url: /sessions/session2
+    not_numbered: true
+  - title: Session 3
+    url: /sessions/session3
+    not_numbered: true
+  - title: Session 4
+    url: /sessions/session4
+    not_numbered: true
+  - title: Session 5
+    url: /sessions/session5
+    not_numbered: true
+  - title: Session 6
+    url: /sessions/session6
+    not_numbered: true
+  - title: Session 7
+    url: /sessions/session7
+    not_numbered: true
+  - title: Session 8
+    url: /sessions/session8
+    not_numbered: true
+  - title: Session 9
+    url: /sessions/session9
+    not_numbered: true
+  - title: Session 10
+    url: /sessions/session10
+    not_numbered: true
+  - title: Session 11
+    url: /sessions/session11
+    not_numbered: true</v>
+      </c>
+      <c r="U14" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V14" s="40" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">
+  - title: Assignment 1
+    url: /assignments/assign1
+    not_numbered: true
+  - title: Assignment 2
+    url: /assignments/assign2
+    not_numbered: true
+</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="93.6">
       <c r="A15" s="58">
         <f>A13+1</f>
         <v>7</v>
       </c>
       <c r="B15" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="C15" s="60" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43745</v>
       </c>
       <c r="E15" s="63" t="s">
@@ -30609,20 +31554,81 @@
         <f t="shared" si="2"/>
         <v>[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)]()</v>
       </c>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="S15" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - title: Session 12
+    url: /sessions/session12
+    not_numbered: true</v>
+      </c>
+      <c r="T15" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
+  - title: Session 1
+    url: /sessions/session1
+    not_numbered: true
+  - title: Session 2
+    url: /sessions/session2
+    not_numbered: true
+  - title: Session 3
+    url: /sessions/session3
+    not_numbered: true
+  - title: Session 4
+    url: /sessions/session4
+    not_numbered: true
+  - title: Session 5
+    url: /sessions/session5
+    not_numbered: true
+  - title: Session 6
+    url: /sessions/session6
+    not_numbered: true
+  - title: Session 7
+    url: /sessions/session7
+    not_numbered: true
+  - title: Session 8
+    url: /sessions/session8
+    not_numbered: true
+  - title: Session 9
+    url: /sessions/session9
+    not_numbered: true
+  - title: Session 10
+    url: /sessions/session10
+    not_numbered: true
+  - title: Session 11
+    url: /sessions/session11
+    not_numbered: true
+  - title: Session 12
+    url: /sessions/session12
+    not_numbered: true</v>
+      </c>
+      <c r="U15" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V15" s="40" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">
+  - title: Assignment 1
+    url: /assignments/assign1
+    not_numbered: true
+  - title: Assignment 2
+    url: /assignments/assign2
+    not_numbered: true
+</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="58">
         <v>7</v>
       </c>
       <c r="B16" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="C16" s="60" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43748</v>
       </c>
       <c r="E16" s="63" t="s">
@@ -30632,9 +31638,6 @@
         <v>99</v>
       </c>
       <c r="G16" s="62"/>
-      <c r="H16" s="58">
-        <v>6</v>
-      </c>
       <c r="L16" s="51" t="b">
         <v>0</v>
       </c>
@@ -30643,7 +31646,7 @@
       </c>
       <c r="N16" s="82" t="str">
         <f>IF(ISBLANK(H16),"",CONCATENATE("Assignment ",H16," due ", TEXT(D16+Configuration!$B$6, "mm/dd")))</f>
-        <v>Assignment 6 due 10/24</v>
+        <v/>
       </c>
       <c r="O16" s="72" t="str">
         <f>IF(B16&gt;0,CONCATENATE("[more](",Configuration!B$25,Configuration!B$24,"/sessions/session",B16,".html)"),"")</f>
@@ -30651,31 +31654,95 @@
       </c>
       <c r="P16" s="72" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> &lt;br&gt; *Assignment 6 due 10/24* &lt;br&gt;</v>
+        <v/>
       </c>
       <c r="Q16" s="72" t="str">
         <f t="shared" si="0"/>
-        <v>**Overview of Modeling** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session13.html) &lt;br&gt; *Assignment 6 due 10/24* &lt;br&gt;</v>
+        <v>**Overview of Modeling** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session13.html)</v>
       </c>
       <c r="R16" s="72" t="str">
         <f t="shared" si="2"/>
         <v>[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)]()</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" ht="31.2">
+      <c r="S16" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - title: Session 13
+    url: /sessions/session13
+    not_numbered: true</v>
+      </c>
+      <c r="T16" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
+  - title: Session 1
+    url: /sessions/session1
+    not_numbered: true
+  - title: Session 2
+    url: /sessions/session2
+    not_numbered: true
+  - title: Session 3
+    url: /sessions/session3
+    not_numbered: true
+  - title: Session 4
+    url: /sessions/session4
+    not_numbered: true
+  - title: Session 5
+    url: /sessions/session5
+    not_numbered: true
+  - title: Session 6
+    url: /sessions/session6
+    not_numbered: true
+  - title: Session 7
+    url: /sessions/session7
+    not_numbered: true
+  - title: Session 8
+    url: /sessions/session8
+    not_numbered: true
+  - title: Session 9
+    url: /sessions/session9
+    not_numbered: true
+  - title: Session 10
+    url: /sessions/session10
+    not_numbered: true
+  - title: Session 11
+    url: /sessions/session11
+    not_numbered: true
+  - title: Session 12
+    url: /sessions/session12
+    not_numbered: true
+  - title: Session 13
+    url: /sessions/session13
+    not_numbered: true</v>
+      </c>
+      <c r="U16" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V16" s="40" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">
+  - title: Assignment 1
+    url: /assignments/assign1
+    not_numbered: true
+  - title: Assignment 2
+    url: /assignments/assign2
+    not_numbered: true
+</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="31.2">
       <c r="A17" s="58">
         <f>A15+1</f>
         <v>8</v>
       </c>
       <c r="B17" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="C17" s="60" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43752</v>
       </c>
       <c r="E17" s="63" t="s">
@@ -30709,29 +31776,93 @@
         <f t="shared" si="2"/>
         <v>[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)]()</v>
       </c>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="S17" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - title: Session 14
+    url: /sessions/session14
+    not_numbered: true</v>
+      </c>
+      <c r="T17" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
+  - title: Session 1
+    url: /sessions/session1
+    not_numbered: true
+  - title: Session 2
+    url: /sessions/session2
+    not_numbered: true
+  - title: Session 3
+    url: /sessions/session3
+    not_numbered: true
+  - title: Session 4
+    url: /sessions/session4
+    not_numbered: true
+  - title: Session 5
+    url: /sessions/session5
+    not_numbered: true
+  - title: Session 6
+    url: /sessions/session6
+    not_numbered: true
+  - title: Session 7
+    url: /sessions/session7
+    not_numbered: true
+  - title: Session 8
+    url: /sessions/session8
+    not_numbered: true
+  - title: Session 9
+    url: /sessions/session9
+    not_numbered: true
+  - title: Session 10
+    url: /sessions/session10
+    not_numbered: true
+  - title: Session 11
+    url: /sessions/session11
+    not_numbered: true
+  - title: Session 12
+    url: /sessions/session12
+    not_numbered: true
+  - title: Session 13
+    url: /sessions/session13
+    not_numbered: true
+  - title: Session 14
+    url: /sessions/session14
+    not_numbered: true</v>
+      </c>
+      <c r="U17" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V17" s="40" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">
+  - title: Assignment 1
+    url: /assignments/assign1
+    not_numbered: true
+  - title: Assignment 2
+    url: /assignments/assign2
+    not_numbered: true
+</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="66">
         <v>8</v>
       </c>
       <c r="B18" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="C18" s="60" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43755</v>
       </c>
       <c r="E18" s="62" t="s">
         <v>21</v>
       </c>
       <c r="G18" s="62"/>
-      <c r="H18" s="58">
-        <v>7</v>
-      </c>
       <c r="L18" s="51" t="b">
         <v>0</v>
       </c>
@@ -30740,7 +31871,7 @@
       </c>
       <c r="N18" s="82" t="str">
         <f>IF(ISBLANK(H18),"",CONCATENATE("Assignment ",H18," due ", TEXT(D18+Configuration!$B$6, "mm/dd")))</f>
-        <v>Assignment 7 due 10/31</v>
+        <v/>
       </c>
       <c r="O18" s="72" t="str">
         <f>IF(B18&gt;0,CONCATENATE("[more](",Configuration!B$25,Configuration!B$24,"/sessions/session",B18,".html)"),"")</f>
@@ -30748,31 +31879,101 @@
       </c>
       <c r="P18" s="72" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> &lt;br&gt; *Assignment 7 due 10/31* &lt;br&gt;</v>
+        <v/>
       </c>
       <c r="Q18" s="72" t="str">
         <f t="shared" si="0"/>
-        <v>**Midterm** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session15.html) &lt;br&gt; *Assignment 7 due 10/31* &lt;br&gt;</v>
+        <v>**Midterm** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session15.html)</v>
       </c>
       <c r="R18" s="72" t="str">
         <f t="shared" si="2"/>
         <v>[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)]()</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" ht="46.8">
+      <c r="S18" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - title: Session 15
+    url: /sessions/session15
+    not_numbered: true</v>
+      </c>
+      <c r="T18" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
+  - title: Session 1
+    url: /sessions/session1
+    not_numbered: true
+  - title: Session 2
+    url: /sessions/session2
+    not_numbered: true
+  - title: Session 3
+    url: /sessions/session3
+    not_numbered: true
+  - title: Session 4
+    url: /sessions/session4
+    not_numbered: true
+  - title: Session 5
+    url: /sessions/session5
+    not_numbered: true
+  - title: Session 6
+    url: /sessions/session6
+    not_numbered: true
+  - title: Session 7
+    url: /sessions/session7
+    not_numbered: true
+  - title: Session 8
+    url: /sessions/session8
+    not_numbered: true
+  - title: Session 9
+    url: /sessions/session9
+    not_numbered: true
+  - title: Session 10
+    url: /sessions/session10
+    not_numbered: true
+  - title: Session 11
+    url: /sessions/session11
+    not_numbered: true
+  - title: Session 12
+    url: /sessions/session12
+    not_numbered: true
+  - title: Session 13
+    url: /sessions/session13
+    not_numbered: true
+  - title: Session 14
+    url: /sessions/session14
+    not_numbered: true
+  - title: Session 15
+    url: /sessions/session15
+    not_numbered: true</v>
+      </c>
+      <c r="U18" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V18" s="40" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">
+  - title: Assignment 1
+    url: /assignments/assign1
+    not_numbered: true
+  - title: Assignment 2
+    url: /assignments/assign2
+    not_numbered: true
+</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="46.8">
       <c r="A19" s="58">
-        <f t="shared" ref="A19:A32" si="6">A17+1</f>
+        <f t="shared" ref="A19:A32" si="10">A17+1</f>
         <v>9</v>
       </c>
       <c r="B19" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="C19" s="60" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43759</v>
       </c>
       <c r="E19" s="63" t="s">
@@ -30808,21 +32009,94 @@
         <f t="shared" si="2"/>
         <v>[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)]()</v>
       </c>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="S19" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - title: Session 16
+    url: /sessions/session16
+    not_numbered: true</v>
+      </c>
+      <c r="T19" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
+  - title: Session 1
+    url: /sessions/session1
+    not_numbered: true
+  - title: Session 2
+    url: /sessions/session2
+    not_numbered: true
+  - title: Session 3
+    url: /sessions/session3
+    not_numbered: true
+  - title: Session 4
+    url: /sessions/session4
+    not_numbered: true
+  - title: Session 5
+    url: /sessions/session5
+    not_numbered: true
+  - title: Session 6
+    url: /sessions/session6
+    not_numbered: true
+  - title: Session 7
+    url: /sessions/session7
+    not_numbered: true
+  - title: Session 8
+    url: /sessions/session8
+    not_numbered: true
+  - title: Session 9
+    url: /sessions/session9
+    not_numbered: true
+  - title: Session 10
+    url: /sessions/session10
+    not_numbered: true
+  - title: Session 11
+    url: /sessions/session11
+    not_numbered: true
+  - title: Session 12
+    url: /sessions/session12
+    not_numbered: true
+  - title: Session 13
+    url: /sessions/session13
+    not_numbered: true
+  - title: Session 14
+    url: /sessions/session14
+    not_numbered: true
+  - title: Session 15
+    url: /sessions/session15
+    not_numbered: true
+  - title: Session 16
+    url: /sessions/session16
+    not_numbered: true</v>
+      </c>
+      <c r="U19" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V19" s="40" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">
+  - title: Assignment 1
+    url: /assignments/assign1
+    not_numbered: true
+  - title: Assignment 2
+    url: /assignments/assign2
+    not_numbered: true
+</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="B20" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="C20" s="60" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43762</v>
       </c>
       <c r="E20" s="63" t="s">
@@ -30858,21 +32132,97 @@
         <f t="shared" si="2"/>
         <v>[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)]()</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" ht="31.2">
+      <c r="S20" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - title: Session 17
+    url: /sessions/session17
+    not_numbered: true</v>
+      </c>
+      <c r="T20" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
+  - title: Session 1
+    url: /sessions/session1
+    not_numbered: true
+  - title: Session 2
+    url: /sessions/session2
+    not_numbered: true
+  - title: Session 3
+    url: /sessions/session3
+    not_numbered: true
+  - title: Session 4
+    url: /sessions/session4
+    not_numbered: true
+  - title: Session 5
+    url: /sessions/session5
+    not_numbered: true
+  - title: Session 6
+    url: /sessions/session6
+    not_numbered: true
+  - title: Session 7
+    url: /sessions/session7
+    not_numbered: true
+  - title: Session 8
+    url: /sessions/session8
+    not_numbered: true
+  - title: Session 9
+    url: /sessions/session9
+    not_numbered: true
+  - title: Session 10
+    url: /sessions/session10
+    not_numbered: true
+  - title: Session 11
+    url: /sessions/session11
+    not_numbered: true
+  - title: Session 12
+    url: /sessions/session12
+    not_numbered: true
+  - title: Session 13
+    url: /sessions/session13
+    not_numbered: true
+  - title: Session 14
+    url: /sessions/session14
+    not_numbered: true
+  - title: Session 15
+    url: /sessions/session15
+    not_numbered: true
+  - title: Session 16
+    url: /sessions/session16
+    not_numbered: true
+  - title: Session 17
+    url: /sessions/session17
+    not_numbered: true</v>
+      </c>
+      <c r="U20" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V20" s="40" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">
+  - title: Assignment 1
+    url: /assignments/assign1
+    not_numbered: true
+  - title: Assignment 2
+    url: /assignments/assign2
+    not_numbered: true
+</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="31.2">
       <c r="A21" s="58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="B21" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="C21" s="60" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43766</v>
       </c>
       <c r="E21" s="63" t="s">
@@ -30908,21 +32258,100 @@
         <f t="shared" si="2"/>
         <v>[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)]()</v>
       </c>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="S21" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - title: Session 18
+    url: /sessions/session18
+    not_numbered: true</v>
+      </c>
+      <c r="T21" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
+  - title: Session 1
+    url: /sessions/session1
+    not_numbered: true
+  - title: Session 2
+    url: /sessions/session2
+    not_numbered: true
+  - title: Session 3
+    url: /sessions/session3
+    not_numbered: true
+  - title: Session 4
+    url: /sessions/session4
+    not_numbered: true
+  - title: Session 5
+    url: /sessions/session5
+    not_numbered: true
+  - title: Session 6
+    url: /sessions/session6
+    not_numbered: true
+  - title: Session 7
+    url: /sessions/session7
+    not_numbered: true
+  - title: Session 8
+    url: /sessions/session8
+    not_numbered: true
+  - title: Session 9
+    url: /sessions/session9
+    not_numbered: true
+  - title: Session 10
+    url: /sessions/session10
+    not_numbered: true
+  - title: Session 11
+    url: /sessions/session11
+    not_numbered: true
+  - title: Session 12
+    url: /sessions/session12
+    not_numbered: true
+  - title: Session 13
+    url: /sessions/session13
+    not_numbered: true
+  - title: Session 14
+    url: /sessions/session14
+    not_numbered: true
+  - title: Session 15
+    url: /sessions/session15
+    not_numbered: true
+  - title: Session 16
+    url: /sessions/session16
+    not_numbered: true
+  - title: Session 17
+    url: /sessions/session17
+    not_numbered: true
+  - title: Session 18
+    url: /sessions/session18
+    not_numbered: true</v>
+      </c>
+      <c r="U21" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V21" s="40" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">
+  - title: Assignment 1
+    url: /assignments/assign1
+    not_numbered: true
+  - title: Assignment 2
+    url: /assignments/assign2
+    not_numbered: true
+</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" s="58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="B22" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="C22" s="60" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43769</v>
       </c>
       <c r="E22" s="68" t="s">
@@ -30958,21 +32387,103 @@
         <f t="shared" si="2"/>
         <v>[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)]()</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" ht="31.2">
+      <c r="S22" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - title: Session 19
+    url: /sessions/session19
+    not_numbered: true</v>
+      </c>
+      <c r="T22" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
+  - title: Session 1
+    url: /sessions/session1
+    not_numbered: true
+  - title: Session 2
+    url: /sessions/session2
+    not_numbered: true
+  - title: Session 3
+    url: /sessions/session3
+    not_numbered: true
+  - title: Session 4
+    url: /sessions/session4
+    not_numbered: true
+  - title: Session 5
+    url: /sessions/session5
+    not_numbered: true
+  - title: Session 6
+    url: /sessions/session6
+    not_numbered: true
+  - title: Session 7
+    url: /sessions/session7
+    not_numbered: true
+  - title: Session 8
+    url: /sessions/session8
+    not_numbered: true
+  - title: Session 9
+    url: /sessions/session9
+    not_numbered: true
+  - title: Session 10
+    url: /sessions/session10
+    not_numbered: true
+  - title: Session 11
+    url: /sessions/session11
+    not_numbered: true
+  - title: Session 12
+    url: /sessions/session12
+    not_numbered: true
+  - title: Session 13
+    url: /sessions/session13
+    not_numbered: true
+  - title: Session 14
+    url: /sessions/session14
+    not_numbered: true
+  - title: Session 15
+    url: /sessions/session15
+    not_numbered: true
+  - title: Session 16
+    url: /sessions/session16
+    not_numbered: true
+  - title: Session 17
+    url: /sessions/session17
+    not_numbered: true
+  - title: Session 18
+    url: /sessions/session18
+    not_numbered: true
+  - title: Session 19
+    url: /sessions/session19
+    not_numbered: true</v>
+      </c>
+      <c r="U22" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V22" s="40" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">
+  - title: Assignment 1
+    url: /assignments/assign1
+    not_numbered: true
+  - title: Assignment 2
+    url: /assignments/assign2
+    not_numbered: true
+</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="31.2">
       <c r="A23" s="58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="B23" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="C23" s="60" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43773</v>
       </c>
       <c r="E23" s="68" t="s">
@@ -31008,21 +32519,106 @@
         <f t="shared" si="2"/>
         <v>[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)]()</v>
       </c>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="S23" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - title: Session 20
+    url: /sessions/session20
+    not_numbered: true</v>
+      </c>
+      <c r="T23" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
+  - title: Session 1
+    url: /sessions/session1
+    not_numbered: true
+  - title: Session 2
+    url: /sessions/session2
+    not_numbered: true
+  - title: Session 3
+    url: /sessions/session3
+    not_numbered: true
+  - title: Session 4
+    url: /sessions/session4
+    not_numbered: true
+  - title: Session 5
+    url: /sessions/session5
+    not_numbered: true
+  - title: Session 6
+    url: /sessions/session6
+    not_numbered: true
+  - title: Session 7
+    url: /sessions/session7
+    not_numbered: true
+  - title: Session 8
+    url: /sessions/session8
+    not_numbered: true
+  - title: Session 9
+    url: /sessions/session9
+    not_numbered: true
+  - title: Session 10
+    url: /sessions/session10
+    not_numbered: true
+  - title: Session 11
+    url: /sessions/session11
+    not_numbered: true
+  - title: Session 12
+    url: /sessions/session12
+    not_numbered: true
+  - title: Session 13
+    url: /sessions/session13
+    not_numbered: true
+  - title: Session 14
+    url: /sessions/session14
+    not_numbered: true
+  - title: Session 15
+    url: /sessions/session15
+    not_numbered: true
+  - title: Session 16
+    url: /sessions/session16
+    not_numbered: true
+  - title: Session 17
+    url: /sessions/session17
+    not_numbered: true
+  - title: Session 18
+    url: /sessions/session18
+    not_numbered: true
+  - title: Session 19
+    url: /sessions/session19
+    not_numbered: true
+  - title: Session 20
+    url: /sessions/session20
+    not_numbered: true</v>
+      </c>
+      <c r="U23" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V23" s="40" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">
+  - title: Assignment 1
+    url: /assignments/assign1
+    not_numbered: true
+  - title: Assignment 2
+    url: /assignments/assign2
+    not_numbered: true
+</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="B24" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
       <c r="C24" s="60" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43776</v>
       </c>
       <c r="E24" s="68" t="s">
@@ -31058,21 +32654,109 @@
         <f t="shared" si="2"/>
         <v>[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)]()</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" ht="46.8">
+      <c r="S24" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - title: Session 21
+    url: /sessions/session21
+    not_numbered: true</v>
+      </c>
+      <c r="T24" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
+  - title: Session 1
+    url: /sessions/session1
+    not_numbered: true
+  - title: Session 2
+    url: /sessions/session2
+    not_numbered: true
+  - title: Session 3
+    url: /sessions/session3
+    not_numbered: true
+  - title: Session 4
+    url: /sessions/session4
+    not_numbered: true
+  - title: Session 5
+    url: /sessions/session5
+    not_numbered: true
+  - title: Session 6
+    url: /sessions/session6
+    not_numbered: true
+  - title: Session 7
+    url: /sessions/session7
+    not_numbered: true
+  - title: Session 8
+    url: /sessions/session8
+    not_numbered: true
+  - title: Session 9
+    url: /sessions/session9
+    not_numbered: true
+  - title: Session 10
+    url: /sessions/session10
+    not_numbered: true
+  - title: Session 11
+    url: /sessions/session11
+    not_numbered: true
+  - title: Session 12
+    url: /sessions/session12
+    not_numbered: true
+  - title: Session 13
+    url: /sessions/session13
+    not_numbered: true
+  - title: Session 14
+    url: /sessions/session14
+    not_numbered: true
+  - title: Session 15
+    url: /sessions/session15
+    not_numbered: true
+  - title: Session 16
+    url: /sessions/session16
+    not_numbered: true
+  - title: Session 17
+    url: /sessions/session17
+    not_numbered: true
+  - title: Session 18
+    url: /sessions/session18
+    not_numbered: true
+  - title: Session 19
+    url: /sessions/session19
+    not_numbered: true
+  - title: Session 20
+    url: /sessions/session20
+    not_numbered: true
+  - title: Session 21
+    url: /sessions/session21
+    not_numbered: true</v>
+      </c>
+      <c r="U24" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V24" s="40" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">
+  - title: Assignment 1
+    url: /assignments/assign1
+    not_numbered: true
+  - title: Assignment 2
+    url: /assignments/assign2
+    not_numbered: true
+</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="46.8">
       <c r="A25" s="58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="B25" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="C25" s="60" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43780</v>
       </c>
       <c r="E25" s="62" t="s">
@@ -31082,9 +32766,6 @@
         <v>651</v>
       </c>
       <c r="G25" s="69"/>
-      <c r="H25" s="58">
-        <v>8</v>
-      </c>
       <c r="L25" s="51" t="b">
         <v>0</v>
       </c>
@@ -31093,7 +32774,7 @@
       </c>
       <c r="N25" s="82" t="str">
         <f>IF(ISBLANK(H25),"",CONCATENATE("Assignment ",H25," due ", TEXT(D25+Configuration!$B$6, "mm/dd")))</f>
-        <v>Assignment 8 due 11/25</v>
+        <v/>
       </c>
       <c r="O25" s="72" t="str">
         <f>IF(B25&gt;0,CONCATENATE("[more](",Configuration!B$25,Configuration!B$24,"/sessions/session",B25,".html)"),"")</f>
@@ -31101,31 +32782,122 @@
       </c>
       <c r="P25" s="72" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> &lt;br&gt; *Assignment 8 due 11/25* &lt;br&gt;</v>
+        <v/>
       </c>
       <c r="Q25" s="72" t="str">
         <f t="shared" si="0"/>
-        <v>**Introduction to Big Data** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session22.html) &lt;br&gt; *Assignment 8 due 11/25* &lt;br&gt;</v>
+        <v>**Introduction to Big Data** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session22.html)</v>
       </c>
       <c r="R25" s="72" t="str">
         <f t="shared" si="2"/>
         <v>[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)]()</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" ht="46.8">
+      <c r="S25" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - title: Session 22
+    url: /sessions/session22
+    not_numbered: true</v>
+      </c>
+      <c r="T25" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
+  - title: Session 1
+    url: /sessions/session1
+    not_numbered: true
+  - title: Session 2
+    url: /sessions/session2
+    not_numbered: true
+  - title: Session 3
+    url: /sessions/session3
+    not_numbered: true
+  - title: Session 4
+    url: /sessions/session4
+    not_numbered: true
+  - title: Session 5
+    url: /sessions/session5
+    not_numbered: true
+  - title: Session 6
+    url: /sessions/session6
+    not_numbered: true
+  - title: Session 7
+    url: /sessions/session7
+    not_numbered: true
+  - title: Session 8
+    url: /sessions/session8
+    not_numbered: true
+  - title: Session 9
+    url: /sessions/session9
+    not_numbered: true
+  - title: Session 10
+    url: /sessions/session10
+    not_numbered: true
+  - title: Session 11
+    url: /sessions/session11
+    not_numbered: true
+  - title: Session 12
+    url: /sessions/session12
+    not_numbered: true
+  - title: Session 13
+    url: /sessions/session13
+    not_numbered: true
+  - title: Session 14
+    url: /sessions/session14
+    not_numbered: true
+  - title: Session 15
+    url: /sessions/session15
+    not_numbered: true
+  - title: Session 16
+    url: /sessions/session16
+    not_numbered: true
+  - title: Session 17
+    url: /sessions/session17
+    not_numbered: true
+  - title: Session 18
+    url: /sessions/session18
+    not_numbered: true
+  - title: Session 19
+    url: /sessions/session19
+    not_numbered: true
+  - title: Session 20
+    url: /sessions/session20
+    not_numbered: true
+  - title: Session 21
+    url: /sessions/session21
+    not_numbered: true
+  - title: Session 22
+    url: /sessions/session22
+    not_numbered: true</v>
+      </c>
+      <c r="U25" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V25" s="40" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">
+  - title: Assignment 1
+    url: /assignments/assign1
+    not_numbered: true
+  - title: Assignment 2
+    url: /assignments/assign2
+    not_numbered: true
+</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="46.8">
       <c r="A26" s="58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="B26" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="C26" s="60" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43783</v>
       </c>
       <c r="E26" s="63" t="s">
@@ -31161,21 +32933,115 @@
         <f t="shared" si="2"/>
         <v>[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)]()</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" ht="78">
+      <c r="S26" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - title: Session 23
+    url: /sessions/session23
+    not_numbered: true</v>
+      </c>
+      <c r="T26" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
+  - title: Session 1
+    url: /sessions/session1
+    not_numbered: true
+  - title: Session 2
+    url: /sessions/session2
+    not_numbered: true
+  - title: Session 3
+    url: /sessions/session3
+    not_numbered: true
+  - title: Session 4
+    url: /sessions/session4
+    not_numbered: true
+  - title: Session 5
+    url: /sessions/session5
+    not_numbered: true
+  - title: Session 6
+    url: /sessions/session6
+    not_numbered: true
+  - title: Session 7
+    url: /sessions/session7
+    not_numbered: true
+  - title: Session 8
+    url: /sessions/session8
+    not_numbered: true
+  - title: Session 9
+    url: /sessions/session9
+    not_numbered: true
+  - title: Session 10
+    url: /sessions/session10
+    not_numbered: true
+  - title: Session 11
+    url: /sessions/session11
+    not_numbered: true
+  - title: Session 12
+    url: /sessions/session12
+    not_numbered: true
+  - title: Session 13
+    url: /sessions/session13
+    not_numbered: true
+  - title: Session 14
+    url: /sessions/session14
+    not_numbered: true
+  - title: Session 15
+    url: /sessions/session15
+    not_numbered: true
+  - title: Session 16
+    url: /sessions/session16
+    not_numbered: true
+  - title: Session 17
+    url: /sessions/session17
+    not_numbered: true
+  - title: Session 18
+    url: /sessions/session18
+    not_numbered: true
+  - title: Session 19
+    url: /sessions/session19
+    not_numbered: true
+  - title: Session 20
+    url: /sessions/session20
+    not_numbered: true
+  - title: Session 21
+    url: /sessions/session21
+    not_numbered: true
+  - title: Session 22
+    url: /sessions/session22
+    not_numbered: true
+  - title: Session 23
+    url: /sessions/session23
+    not_numbered: true</v>
+      </c>
+      <c r="U26" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V26" s="40" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">
+  - title: Assignment 1
+    url: /assignments/assign1
+    not_numbered: true
+  - title: Assignment 2
+    url: /assignments/assign2
+    not_numbered: true
+</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="78">
       <c r="A27" s="58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="B27" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="C27" s="60" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43787</v>
       </c>
       <c r="E27" s="63" t="s">
@@ -31211,21 +33077,118 @@
         <f t="shared" si="2"/>
         <v>[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)]()</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" ht="31.2">
+      <c r="S27" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - title: Session 24
+    url: /sessions/session24
+    not_numbered: true</v>
+      </c>
+      <c r="T27" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
+  - title: Session 1
+    url: /sessions/session1
+    not_numbered: true
+  - title: Session 2
+    url: /sessions/session2
+    not_numbered: true
+  - title: Session 3
+    url: /sessions/session3
+    not_numbered: true
+  - title: Session 4
+    url: /sessions/session4
+    not_numbered: true
+  - title: Session 5
+    url: /sessions/session5
+    not_numbered: true
+  - title: Session 6
+    url: /sessions/session6
+    not_numbered: true
+  - title: Session 7
+    url: /sessions/session7
+    not_numbered: true
+  - title: Session 8
+    url: /sessions/session8
+    not_numbered: true
+  - title: Session 9
+    url: /sessions/session9
+    not_numbered: true
+  - title: Session 10
+    url: /sessions/session10
+    not_numbered: true
+  - title: Session 11
+    url: /sessions/session11
+    not_numbered: true
+  - title: Session 12
+    url: /sessions/session12
+    not_numbered: true
+  - title: Session 13
+    url: /sessions/session13
+    not_numbered: true
+  - title: Session 14
+    url: /sessions/session14
+    not_numbered: true
+  - title: Session 15
+    url: /sessions/session15
+    not_numbered: true
+  - title: Session 16
+    url: /sessions/session16
+    not_numbered: true
+  - title: Session 17
+    url: /sessions/session17
+    not_numbered: true
+  - title: Session 18
+    url: /sessions/session18
+    not_numbered: true
+  - title: Session 19
+    url: /sessions/session19
+    not_numbered: true
+  - title: Session 20
+    url: /sessions/session20
+    not_numbered: true
+  - title: Session 21
+    url: /sessions/session21
+    not_numbered: true
+  - title: Session 22
+    url: /sessions/session22
+    not_numbered: true
+  - title: Session 23
+    url: /sessions/session23
+    not_numbered: true
+  - title: Session 24
+    url: /sessions/session24
+    not_numbered: true</v>
+      </c>
+      <c r="U27" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V27" s="40" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">
+  - title: Assignment 1
+    url: /assignments/assign1
+    not_numbered: true
+  - title: Assignment 2
+    url: /assignments/assign2
+    not_numbered: true
+</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="31.2">
       <c r="A28" s="58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="B28" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="C28" s="60" t="s">
         <v>10</v>
       </c>
       <c r="D28" s="61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43790</v>
       </c>
       <c r="E28" s="63" t="s">
@@ -31261,21 +33224,121 @@
         <f t="shared" si="2"/>
         <v>[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)]()</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" ht="31.2">
+      <c r="S28" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - title: Session 25
+    url: /sessions/session25
+    not_numbered: true</v>
+      </c>
+      <c r="T28" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
+  - title: Session 1
+    url: /sessions/session1
+    not_numbered: true
+  - title: Session 2
+    url: /sessions/session2
+    not_numbered: true
+  - title: Session 3
+    url: /sessions/session3
+    not_numbered: true
+  - title: Session 4
+    url: /sessions/session4
+    not_numbered: true
+  - title: Session 5
+    url: /sessions/session5
+    not_numbered: true
+  - title: Session 6
+    url: /sessions/session6
+    not_numbered: true
+  - title: Session 7
+    url: /sessions/session7
+    not_numbered: true
+  - title: Session 8
+    url: /sessions/session8
+    not_numbered: true
+  - title: Session 9
+    url: /sessions/session9
+    not_numbered: true
+  - title: Session 10
+    url: /sessions/session10
+    not_numbered: true
+  - title: Session 11
+    url: /sessions/session11
+    not_numbered: true
+  - title: Session 12
+    url: /sessions/session12
+    not_numbered: true
+  - title: Session 13
+    url: /sessions/session13
+    not_numbered: true
+  - title: Session 14
+    url: /sessions/session14
+    not_numbered: true
+  - title: Session 15
+    url: /sessions/session15
+    not_numbered: true
+  - title: Session 16
+    url: /sessions/session16
+    not_numbered: true
+  - title: Session 17
+    url: /sessions/session17
+    not_numbered: true
+  - title: Session 18
+    url: /sessions/session18
+    not_numbered: true
+  - title: Session 19
+    url: /sessions/session19
+    not_numbered: true
+  - title: Session 20
+    url: /sessions/session20
+    not_numbered: true
+  - title: Session 21
+    url: /sessions/session21
+    not_numbered: true
+  - title: Session 22
+    url: /sessions/session22
+    not_numbered: true
+  - title: Session 23
+    url: /sessions/session23
+    not_numbered: true
+  - title: Session 24
+    url: /sessions/session24
+    not_numbered: true
+  - title: Session 25
+    url: /sessions/session25
+    not_numbered: true</v>
+      </c>
+      <c r="U28" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V28" s="40" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">
+  - title: Assignment 1
+    url: /assignments/assign1
+    not_numbered: true
+  - title: Assignment 2
+    url: /assignments/assign2
+    not_numbered: true
+</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="31.2">
       <c r="A29" s="58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="B29" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="C29" s="60" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43794</v>
       </c>
       <c r="E29" s="63" t="s">
@@ -31311,17 +33374,120 @@
         <f t="shared" si="2"/>
         <v>[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)]()</v>
       </c>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="S29" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - title: Session 26
+    url: /sessions/session26
+    not_numbered: true</v>
+      </c>
+      <c r="T29" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
+  - title: Session 1
+    url: /sessions/session1
+    not_numbered: true
+  - title: Session 2
+    url: /sessions/session2
+    not_numbered: true
+  - title: Session 3
+    url: /sessions/session3
+    not_numbered: true
+  - title: Session 4
+    url: /sessions/session4
+    not_numbered: true
+  - title: Session 5
+    url: /sessions/session5
+    not_numbered: true
+  - title: Session 6
+    url: /sessions/session6
+    not_numbered: true
+  - title: Session 7
+    url: /sessions/session7
+    not_numbered: true
+  - title: Session 8
+    url: /sessions/session8
+    not_numbered: true
+  - title: Session 9
+    url: /sessions/session9
+    not_numbered: true
+  - title: Session 10
+    url: /sessions/session10
+    not_numbered: true
+  - title: Session 11
+    url: /sessions/session11
+    not_numbered: true
+  - title: Session 12
+    url: /sessions/session12
+    not_numbered: true
+  - title: Session 13
+    url: /sessions/session13
+    not_numbered: true
+  - title: Session 14
+    url: /sessions/session14
+    not_numbered: true
+  - title: Session 15
+    url: /sessions/session15
+    not_numbered: true
+  - title: Session 16
+    url: /sessions/session16
+    not_numbered: true
+  - title: Session 17
+    url: /sessions/session17
+    not_numbered: true
+  - title: Session 18
+    url: /sessions/session18
+    not_numbered: true
+  - title: Session 19
+    url: /sessions/session19
+    not_numbered: true
+  - title: Session 20
+    url: /sessions/session20
+    not_numbered: true
+  - title: Session 21
+    url: /sessions/session21
+    not_numbered: true
+  - title: Session 22
+    url: /sessions/session22
+    not_numbered: true
+  - title: Session 23
+    url: /sessions/session23
+    not_numbered: true
+  - title: Session 24
+    url: /sessions/session24
+    not_numbered: true
+  - title: Session 25
+    url: /sessions/session25
+    not_numbered: true
+  - title: Session 26
+    url: /sessions/session26
+    not_numbered: true</v>
+      </c>
+      <c r="U29" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V29" s="40" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">
+  - title: Assignment 1
+    url: /assignments/assign1
+    not_numbered: true
+  - title: Assignment 2
+    url: /assignments/assign2
+    not_numbered: true
+</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="C30" s="60" t="s">
         <v>10</v>
       </c>
       <c r="D30" s="61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43797</v>
       </c>
       <c r="E30" s="65" t="s">
@@ -31355,10 +33521,112 @@
         <f t="shared" si="2"/>
         <v>[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)]()</v>
       </c>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="S30" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="T30" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
+  - title: Session 1
+    url: /sessions/session1
+    not_numbered: true
+  - title: Session 2
+    url: /sessions/session2
+    not_numbered: true
+  - title: Session 3
+    url: /sessions/session3
+    not_numbered: true
+  - title: Session 4
+    url: /sessions/session4
+    not_numbered: true
+  - title: Session 5
+    url: /sessions/session5
+    not_numbered: true
+  - title: Session 6
+    url: /sessions/session6
+    not_numbered: true
+  - title: Session 7
+    url: /sessions/session7
+    not_numbered: true
+  - title: Session 8
+    url: /sessions/session8
+    not_numbered: true
+  - title: Session 9
+    url: /sessions/session9
+    not_numbered: true
+  - title: Session 10
+    url: /sessions/session10
+    not_numbered: true
+  - title: Session 11
+    url: /sessions/session11
+    not_numbered: true
+  - title: Session 12
+    url: /sessions/session12
+    not_numbered: true
+  - title: Session 13
+    url: /sessions/session13
+    not_numbered: true
+  - title: Session 14
+    url: /sessions/session14
+    not_numbered: true
+  - title: Session 15
+    url: /sessions/session15
+    not_numbered: true
+  - title: Session 16
+    url: /sessions/session16
+    not_numbered: true
+  - title: Session 17
+    url: /sessions/session17
+    not_numbered: true
+  - title: Session 18
+    url: /sessions/session18
+    not_numbered: true
+  - title: Session 19
+    url: /sessions/session19
+    not_numbered: true
+  - title: Session 20
+    url: /sessions/session20
+    not_numbered: true
+  - title: Session 21
+    url: /sessions/session21
+    not_numbered: true
+  - title: Session 22
+    url: /sessions/session22
+    not_numbered: true
+  - title: Session 23
+    url: /sessions/session23
+    not_numbered: true
+  - title: Session 24
+    url: /sessions/session24
+    not_numbered: true
+  - title: Session 25
+    url: /sessions/session25
+    not_numbered: true
+  - title: Session 26
+    url: /sessions/session26
+    not_numbered: true
+</v>
+      </c>
+      <c r="U30" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V30" s="40" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">
+  - title: Assignment 1
+    url: /assignments/assign1
+    not_numbered: true
+  - title: Assignment 2
+    url: /assignments/assign2
+    not_numbered: true
+</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" s="58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="B31" s="59">
@@ -31368,7 +33636,7 @@
         <v>12</v>
       </c>
       <c r="D31" s="61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43801</v>
       </c>
       <c r="E31" s="63" t="s">
@@ -31404,10 +33672,116 @@
         <f t="shared" si="2"/>
         <v>[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)]()</v>
       </c>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="S31" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - title: Session 27
+    url: /sessions/session27
+    not_numbered: true</v>
+      </c>
+      <c r="T31" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
+  - title: Session 1
+    url: /sessions/session1
+    not_numbered: true
+  - title: Session 2
+    url: /sessions/session2
+    not_numbered: true
+  - title: Session 3
+    url: /sessions/session3
+    not_numbered: true
+  - title: Session 4
+    url: /sessions/session4
+    not_numbered: true
+  - title: Session 5
+    url: /sessions/session5
+    not_numbered: true
+  - title: Session 6
+    url: /sessions/session6
+    not_numbered: true
+  - title: Session 7
+    url: /sessions/session7
+    not_numbered: true
+  - title: Session 8
+    url: /sessions/session8
+    not_numbered: true
+  - title: Session 9
+    url: /sessions/session9
+    not_numbered: true
+  - title: Session 10
+    url: /sessions/session10
+    not_numbered: true
+  - title: Session 11
+    url: /sessions/session11
+    not_numbered: true
+  - title: Session 12
+    url: /sessions/session12
+    not_numbered: true
+  - title: Session 13
+    url: /sessions/session13
+    not_numbered: true
+  - title: Session 14
+    url: /sessions/session14
+    not_numbered: true
+  - title: Session 15
+    url: /sessions/session15
+    not_numbered: true
+  - title: Session 16
+    url: /sessions/session16
+    not_numbered: true
+  - title: Session 17
+    url: /sessions/session17
+    not_numbered: true
+  - title: Session 18
+    url: /sessions/session18
+    not_numbered: true
+  - title: Session 19
+    url: /sessions/session19
+    not_numbered: true
+  - title: Session 20
+    url: /sessions/session20
+    not_numbered: true
+  - title: Session 21
+    url: /sessions/session21
+    not_numbered: true
+  - title: Session 22
+    url: /sessions/session22
+    not_numbered: true
+  - title: Session 23
+    url: /sessions/session23
+    not_numbered: true
+  - title: Session 24
+    url: /sessions/session24
+    not_numbered: true
+  - title: Session 25
+    url: /sessions/session25
+    not_numbered: true
+  - title: Session 26
+    url: /sessions/session26
+    not_numbered: true
+  - title: Session 27
+    url: /sessions/session27
+    not_numbered: true</v>
+      </c>
+      <c r="U31" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V31" s="40" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">
+  - title: Assignment 1
+    url: /assignments/assign1
+    not_numbered: true
+  - title: Assignment 2
+    url: /assignments/assign2
+    not_numbered: true
+</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" s="58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="B32" s="60">
@@ -31418,7 +33792,7 @@
         <v>10</v>
       </c>
       <c r="D32" s="61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43804</v>
       </c>
       <c r="E32" s="62" t="s">
@@ -31452,8 +33826,117 @@
         <f t="shared" si="2"/>
         <v>[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)]()</v>
       </c>
-    </row>
-    <row r="33" spans="1:18">
+      <c r="S32" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - title: Session 28
+    url: /sessions/session28
+    not_numbered: true</v>
+      </c>
+      <c r="T32" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
+  - title: Session 1
+    url: /sessions/session1
+    not_numbered: true
+  - title: Session 2
+    url: /sessions/session2
+    not_numbered: true
+  - title: Session 3
+    url: /sessions/session3
+    not_numbered: true
+  - title: Session 4
+    url: /sessions/session4
+    not_numbered: true
+  - title: Session 5
+    url: /sessions/session5
+    not_numbered: true
+  - title: Session 6
+    url: /sessions/session6
+    not_numbered: true
+  - title: Session 7
+    url: /sessions/session7
+    not_numbered: true
+  - title: Session 8
+    url: /sessions/session8
+    not_numbered: true
+  - title: Session 9
+    url: /sessions/session9
+    not_numbered: true
+  - title: Session 10
+    url: /sessions/session10
+    not_numbered: true
+  - title: Session 11
+    url: /sessions/session11
+    not_numbered: true
+  - title: Session 12
+    url: /sessions/session12
+    not_numbered: true
+  - title: Session 13
+    url: /sessions/session13
+    not_numbered: true
+  - title: Session 14
+    url: /sessions/session14
+    not_numbered: true
+  - title: Session 15
+    url: /sessions/session15
+    not_numbered: true
+  - title: Session 16
+    url: /sessions/session16
+    not_numbered: true
+  - title: Session 17
+    url: /sessions/session17
+    not_numbered: true
+  - title: Session 18
+    url: /sessions/session18
+    not_numbered: true
+  - title: Session 19
+    url: /sessions/session19
+    not_numbered: true
+  - title: Session 20
+    url: /sessions/session20
+    not_numbered: true
+  - title: Session 21
+    url: /sessions/session21
+    not_numbered: true
+  - title: Session 22
+    url: /sessions/session22
+    not_numbered: true
+  - title: Session 23
+    url: /sessions/session23
+    not_numbered: true
+  - title: Session 24
+    url: /sessions/session24
+    not_numbered: true
+  - title: Session 25
+    url: /sessions/session25
+    not_numbered: true
+  - title: Session 26
+    url: /sessions/session26
+    not_numbered: true
+  - title: Session 27
+    url: /sessions/session27
+    not_numbered: true
+  - title: Session 28
+    url: /sessions/session28
+    not_numbered: true</v>
+      </c>
+      <c r="U32" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V32" s="40" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">
+  - title: Assignment 1
+    url: /assignments/assign1
+    not_numbered: true
+  - title: Assignment 2
+    url: /assignments/assign2
+    not_numbered: true
+</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33" s="66">
         <v>16</v>
       </c>
@@ -31465,7 +33948,7 @@
         <v>12</v>
       </c>
       <c r="D33" s="61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43808</v>
       </c>
       <c r="E33" s="62" t="s">
@@ -31499,8 +33982,120 @@
         <f t="shared" si="2"/>
         <v>[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)]()</v>
       </c>
-    </row>
-    <row r="34" spans="1:18">
+      <c r="S33" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - title: Session 29
+    url: /sessions/session29
+    not_numbered: true</v>
+      </c>
+      <c r="T33" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
+  - title: Session 1
+    url: /sessions/session1
+    not_numbered: true
+  - title: Session 2
+    url: /sessions/session2
+    not_numbered: true
+  - title: Session 3
+    url: /sessions/session3
+    not_numbered: true
+  - title: Session 4
+    url: /sessions/session4
+    not_numbered: true
+  - title: Session 5
+    url: /sessions/session5
+    not_numbered: true
+  - title: Session 6
+    url: /sessions/session6
+    not_numbered: true
+  - title: Session 7
+    url: /sessions/session7
+    not_numbered: true
+  - title: Session 8
+    url: /sessions/session8
+    not_numbered: true
+  - title: Session 9
+    url: /sessions/session9
+    not_numbered: true
+  - title: Session 10
+    url: /sessions/session10
+    not_numbered: true
+  - title: Session 11
+    url: /sessions/session11
+    not_numbered: true
+  - title: Session 12
+    url: /sessions/session12
+    not_numbered: true
+  - title: Session 13
+    url: /sessions/session13
+    not_numbered: true
+  - title: Session 14
+    url: /sessions/session14
+    not_numbered: true
+  - title: Session 15
+    url: /sessions/session15
+    not_numbered: true
+  - title: Session 16
+    url: /sessions/session16
+    not_numbered: true
+  - title: Session 17
+    url: /sessions/session17
+    not_numbered: true
+  - title: Session 18
+    url: /sessions/session18
+    not_numbered: true
+  - title: Session 19
+    url: /sessions/session19
+    not_numbered: true
+  - title: Session 20
+    url: /sessions/session20
+    not_numbered: true
+  - title: Session 21
+    url: /sessions/session21
+    not_numbered: true
+  - title: Session 22
+    url: /sessions/session22
+    not_numbered: true
+  - title: Session 23
+    url: /sessions/session23
+    not_numbered: true
+  - title: Session 24
+    url: /sessions/session24
+    not_numbered: true
+  - title: Session 25
+    url: /sessions/session25
+    not_numbered: true
+  - title: Session 26
+    url: /sessions/session26
+    not_numbered: true
+  - title: Session 27
+    url: /sessions/session27
+    not_numbered: true
+  - title: Session 28
+    url: /sessions/session28
+    not_numbered: true
+  - title: Session 29
+    url: /sessions/session29
+    not_numbered: true</v>
+      </c>
+      <c r="U33" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V33" s="40" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">
+  - title: Assignment 1
+    url: /assignments/assign1
+    not_numbered: true
+  - title: Assignment 2
+    url: /assignments/assign2
+    not_numbered: true
+</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34" s="58">
         <v>17</v>
       </c>
@@ -31541,8 +34136,119 @@
         <f t="shared" si="2"/>
         <v>[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)]()</v>
       </c>
-    </row>
-    <row r="35" spans="1:18">
+      <c r="S34" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="T34" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
+  - title: Session 1
+    url: /sessions/session1
+    not_numbered: true
+  - title: Session 2
+    url: /sessions/session2
+    not_numbered: true
+  - title: Session 3
+    url: /sessions/session3
+    not_numbered: true
+  - title: Session 4
+    url: /sessions/session4
+    not_numbered: true
+  - title: Session 5
+    url: /sessions/session5
+    not_numbered: true
+  - title: Session 6
+    url: /sessions/session6
+    not_numbered: true
+  - title: Session 7
+    url: /sessions/session7
+    not_numbered: true
+  - title: Session 8
+    url: /sessions/session8
+    not_numbered: true
+  - title: Session 9
+    url: /sessions/session9
+    not_numbered: true
+  - title: Session 10
+    url: /sessions/session10
+    not_numbered: true
+  - title: Session 11
+    url: /sessions/session11
+    not_numbered: true
+  - title: Session 12
+    url: /sessions/session12
+    not_numbered: true
+  - title: Session 13
+    url: /sessions/session13
+    not_numbered: true
+  - title: Session 14
+    url: /sessions/session14
+    not_numbered: true
+  - title: Session 15
+    url: /sessions/session15
+    not_numbered: true
+  - title: Session 16
+    url: /sessions/session16
+    not_numbered: true
+  - title: Session 17
+    url: /sessions/session17
+    not_numbered: true
+  - title: Session 18
+    url: /sessions/session18
+    not_numbered: true
+  - title: Session 19
+    url: /sessions/session19
+    not_numbered: true
+  - title: Session 20
+    url: /sessions/session20
+    not_numbered: true
+  - title: Session 21
+    url: /sessions/session21
+    not_numbered: true
+  - title: Session 22
+    url: /sessions/session22
+    not_numbered: true
+  - title: Session 23
+    url: /sessions/session23
+    not_numbered: true
+  - title: Session 24
+    url: /sessions/session24
+    not_numbered: true
+  - title: Session 25
+    url: /sessions/session25
+    not_numbered: true
+  - title: Session 26
+    url: /sessions/session26
+    not_numbered: true
+  - title: Session 27
+    url: /sessions/session27
+    not_numbered: true
+  - title: Session 28
+    url: /sessions/session28
+    not_numbered: true
+  - title: Session 29
+    url: /sessions/session29
+    not_numbered: true
+</v>
+      </c>
+      <c r="U34" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V34" s="40" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">
+  - title: Assignment 1
+    url: /assignments/assign1
+    not_numbered: true
+  - title: Assignment 2
+    url: /assignments/assign2
+    not_numbered: true
+</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
       <c r="D35" s="61"/>
       <c r="E35" s="69"/>
       <c r="F35" s="62"/>
@@ -31555,8 +34261,119 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="36" spans="1:18">
+      <c r="S35" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="T35" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
+  - title: Session 1
+    url: /sessions/session1
+    not_numbered: true
+  - title: Session 2
+    url: /sessions/session2
+    not_numbered: true
+  - title: Session 3
+    url: /sessions/session3
+    not_numbered: true
+  - title: Session 4
+    url: /sessions/session4
+    not_numbered: true
+  - title: Session 5
+    url: /sessions/session5
+    not_numbered: true
+  - title: Session 6
+    url: /sessions/session6
+    not_numbered: true
+  - title: Session 7
+    url: /sessions/session7
+    not_numbered: true
+  - title: Session 8
+    url: /sessions/session8
+    not_numbered: true
+  - title: Session 9
+    url: /sessions/session9
+    not_numbered: true
+  - title: Session 10
+    url: /sessions/session10
+    not_numbered: true
+  - title: Session 11
+    url: /sessions/session11
+    not_numbered: true
+  - title: Session 12
+    url: /sessions/session12
+    not_numbered: true
+  - title: Session 13
+    url: /sessions/session13
+    not_numbered: true
+  - title: Session 14
+    url: /sessions/session14
+    not_numbered: true
+  - title: Session 15
+    url: /sessions/session15
+    not_numbered: true
+  - title: Session 16
+    url: /sessions/session16
+    not_numbered: true
+  - title: Session 17
+    url: /sessions/session17
+    not_numbered: true
+  - title: Session 18
+    url: /sessions/session18
+    not_numbered: true
+  - title: Session 19
+    url: /sessions/session19
+    not_numbered: true
+  - title: Session 20
+    url: /sessions/session20
+    not_numbered: true
+  - title: Session 21
+    url: /sessions/session21
+    not_numbered: true
+  - title: Session 22
+    url: /sessions/session22
+    not_numbered: true
+  - title: Session 23
+    url: /sessions/session23
+    not_numbered: true
+  - title: Session 24
+    url: /sessions/session24
+    not_numbered: true
+  - title: Session 25
+    url: /sessions/session25
+    not_numbered: true
+  - title: Session 26
+    url: /sessions/session26
+    not_numbered: true
+  - title: Session 27
+    url: /sessions/session27
+    not_numbered: true
+  - title: Session 28
+    url: /sessions/session28
+    not_numbered: true
+  - title: Session 29
+    url: /sessions/session29
+    not_numbered: true
+</v>
+      </c>
+      <c r="U35" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V35" s="40" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">
+  - title: Assignment 1
+    url: /assignments/assign1
+    not_numbered: true
+  - title: Assignment 2
+    url: /assignments/assign2
+    not_numbered: true
+</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
       <c r="D36" s="61"/>
       <c r="E36" s="69"/>
       <c r="F36" s="62"/>
@@ -31572,8 +34389,119 @@
         <f>IF(B36&gt;0,CONCATENATE("[more](",Configuration!B$25,Configuration!B$24,"/sessions/session",B36,".html)"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="37" spans="1:18">
+      <c r="S36" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="T36" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
+  - title: Session 1
+    url: /sessions/session1
+    not_numbered: true
+  - title: Session 2
+    url: /sessions/session2
+    not_numbered: true
+  - title: Session 3
+    url: /sessions/session3
+    not_numbered: true
+  - title: Session 4
+    url: /sessions/session4
+    not_numbered: true
+  - title: Session 5
+    url: /sessions/session5
+    not_numbered: true
+  - title: Session 6
+    url: /sessions/session6
+    not_numbered: true
+  - title: Session 7
+    url: /sessions/session7
+    not_numbered: true
+  - title: Session 8
+    url: /sessions/session8
+    not_numbered: true
+  - title: Session 9
+    url: /sessions/session9
+    not_numbered: true
+  - title: Session 10
+    url: /sessions/session10
+    not_numbered: true
+  - title: Session 11
+    url: /sessions/session11
+    not_numbered: true
+  - title: Session 12
+    url: /sessions/session12
+    not_numbered: true
+  - title: Session 13
+    url: /sessions/session13
+    not_numbered: true
+  - title: Session 14
+    url: /sessions/session14
+    not_numbered: true
+  - title: Session 15
+    url: /sessions/session15
+    not_numbered: true
+  - title: Session 16
+    url: /sessions/session16
+    not_numbered: true
+  - title: Session 17
+    url: /sessions/session17
+    not_numbered: true
+  - title: Session 18
+    url: /sessions/session18
+    not_numbered: true
+  - title: Session 19
+    url: /sessions/session19
+    not_numbered: true
+  - title: Session 20
+    url: /sessions/session20
+    not_numbered: true
+  - title: Session 21
+    url: /sessions/session21
+    not_numbered: true
+  - title: Session 22
+    url: /sessions/session22
+    not_numbered: true
+  - title: Session 23
+    url: /sessions/session23
+    not_numbered: true
+  - title: Session 24
+    url: /sessions/session24
+    not_numbered: true
+  - title: Session 25
+    url: /sessions/session25
+    not_numbered: true
+  - title: Session 26
+    url: /sessions/session26
+    not_numbered: true
+  - title: Session 27
+    url: /sessions/session27
+    not_numbered: true
+  - title: Session 28
+    url: /sessions/session28
+    not_numbered: true
+  - title: Session 29
+    url: /sessions/session29
+    not_numbered: true
+</v>
+      </c>
+      <c r="U36" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V36" s="40" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">
+  - title: Assignment 1
+    url: /assignments/assign1
+    not_numbered: true
+  - title: Assignment 2
+    url: /assignments/assign2
+    not_numbered: true
+</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
       <c r="D37" s="61"/>
       <c r="E37" s="69"/>
       <c r="F37" s="69"/>
@@ -31588,7 +34516,7 @@
       <c r="O37" s="75"/>
       <c r="P37" s="75"/>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:22">
       <c r="D38" s="61"/>
       <c r="E38" s="69"/>
       <c r="F38" s="69"/>
@@ -31603,7 +34531,7 @@
       <c r="O38" s="75"/>
       <c r="P38" s="75"/>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:22">
       <c r="D39" s="61"/>
       <c r="E39" s="69"/>
       <c r="F39" s="69"/>
@@ -31618,7 +34546,7 @@
       <c r="O39" s="75"/>
       <c r="P39" s="75"/>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:22">
       <c r="D40" s="61"/>
       <c r="E40" s="69"/>
       <c r="F40" s="69"/>
@@ -31633,7 +34561,7 @@
       <c r="O40" s="75"/>
       <c r="P40" s="75"/>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:22">
       <c r="D41" s="61"/>
       <c r="E41" s="69"/>
       <c r="F41" s="69"/>
@@ -31648,7 +34576,7 @@
       <c r="O41" s="75"/>
       <c r="P41" s="75"/>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:22">
       <c r="D42" s="61"/>
       <c r="E42" s="69"/>
       <c r="F42" s="69"/>
@@ -31663,7 +34591,7 @@
       <c r="O42" s="75"/>
       <c r="P42" s="75"/>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:22">
       <c r="D43" s="61"/>
       <c r="E43" s="69"/>
       <c r="F43" s="69"/>
@@ -31678,7 +34606,7 @@
       <c r="O43" s="75"/>
       <c r="P43" s="75"/>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:22">
       <c r="D44" s="61"/>
       <c r="E44" s="69"/>
       <c r="F44" s="69"/>
@@ -31693,7 +34621,7 @@
       <c r="O44" s="75"/>
       <c r="P44" s="75"/>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:22">
       <c r="D45" s="61"/>
       <c r="E45" s="69"/>
       <c r="F45" s="69"/>
@@ -31708,7 +34636,7 @@
       <c r="O45" s="75"/>
       <c r="P45" s="75"/>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:22">
       <c r="D46" s="61"/>
       <c r="E46" s="69"/>
       <c r="F46" s="69"/>
@@ -31723,7 +34651,7 @@
       <c r="O46" s="75"/>
       <c r="P46" s="75"/>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:22">
       <c r="D47" s="61"/>
       <c r="E47" s="69"/>
       <c r="F47" s="69"/>
@@ -31738,7 +34666,7 @@
       <c r="O47" s="75"/>
       <c r="P47" s="75"/>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:22">
       <c r="D48" s="61"/>
       <c r="E48" s="69"/>
       <c r="F48" s="69"/>
@@ -45388,7 +48316,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -45401,7 +48329,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="43" customFormat="1" ht="18.3">
       <c r="A1" s="44" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="B1" s="43" t="s">
         <v>6</v>
@@ -45418,10 +48346,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D2" s="72" t="str">
         <f t="shared" ref="D2:D4" si="0">CONCATENATE("[",B2,"](",C2,")")</f>
@@ -45441,10 +48369,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="D3" s="72" t="str">
         <f t="shared" si="0"/>
@@ -45464,10 +48392,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="23" t="s">
+        <v>762</v>
+      </c>
+      <c r="C4" s="39" t="s">
         <v>765</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>768</v>
       </c>
       <c r="D4" s="72" t="str">
         <f t="shared" si="0"/>
@@ -45487,10 +48415,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="23" t="s">
+        <v>763</v>
+      </c>
+      <c r="C5" s="39" t="s">
         <v>766</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>769</v>
       </c>
       <c r="D5" s="72" t="str">
         <f>CONCATENATE("[",B5,"](",C5,")")</f>
@@ -45510,10 +48438,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="23" t="s">
+        <v>764</v>
+      </c>
+      <c r="C6" s="39" t="s">
         <v>767</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>770</v>
       </c>
       <c r="D6" s="72" t="str">
         <f t="shared" ref="D6:D27" si="3">CONCATENATE("[",B6,"](",C6,")")</f>
@@ -45533,10 +48461,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="D7" s="72" t="str">
         <f t="shared" si="3"/>
@@ -45556,10 +48484,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="D8" s="72" t="str">
         <f t="shared" si="3"/>
@@ -45579,10 +48507,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="46" t="s">
+        <v>770</v>
+      </c>
+      <c r="C9" s="40" t="s">
         <v>773</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>776</v>
       </c>
       <c r="D9" s="72" t="str">
         <f t="shared" si="3"/>
@@ -45602,10 +48530,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="D10" s="72" t="str">
         <f t="shared" si="3"/>
@@ -45625,10 +48553,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="D11" s="72" t="str">
         <f t="shared" si="3"/>
@@ -45648,10 +48576,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="D12" s="72" t="str">
         <f t="shared" si="3"/>
@@ -45671,10 +48599,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="D13" s="72" t="str">
         <f t="shared" si="3"/>
@@ -45694,10 +48622,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="D14" s="72" t="str">
         <f t="shared" si="3"/>
@@ -45717,10 +48645,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="D15" s="72" t="str">
         <f t="shared" si="3"/>
@@ -45740,10 +48668,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="D16" s="72" t="str">
         <f t="shared" si="3"/>
@@ -45763,10 +48691,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="D17" s="72" t="str">
         <f t="shared" si="3"/>
@@ -45786,10 +48714,10 @@
         <v>12</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="D18" s="72" t="str">
         <f t="shared" si="3"/>
@@ -45809,10 +48737,10 @@
         <v>12</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="D19" s="72" t="str">
         <f t="shared" si="3"/>
@@ -45832,10 +48760,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="D20" s="72" t="str">
         <f t="shared" si="3"/>
@@ -45855,10 +48783,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="D21" s="72" t="str">
         <f t="shared" si="3"/>
@@ -45878,10 +48806,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D22" s="72" t="str">
         <f t="shared" si="3"/>
@@ -45901,10 +48829,10 @@
         <v>20</v>
       </c>
       <c r="B23" s="40" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="D23" s="72" t="str">
         <f t="shared" si="3"/>
@@ -45924,10 +48852,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="D24" s="72" t="str">
         <f t="shared" si="3"/>
@@ -45947,10 +48875,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D25" s="72" t="str">
         <f t="shared" si="3"/>
@@ -45970,10 +48898,10 @@
         <v>23</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="D26" s="72" t="str">
         <f t="shared" si="3"/>
@@ -45993,10 +48921,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="D27" s="72" t="str">
         <f t="shared" si="3"/>
@@ -46024,843 +48952,1910 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="8.8984375" style="45" customWidth="1"/>
-    <col min="2" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="10" style="72" customWidth="1"/>
-    <col min="5" max="6" width="8.796875" style="72" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="3" max="3" width="30.3984375" style="40" customWidth="1"/>
+    <col min="4" max="4" width="36" customWidth="1"/>
+    <col min="5" max="5" width="10" style="72" customWidth="1"/>
+    <col min="6" max="7" width="8.796875" style="72" customWidth="1"/>
+    <col min="8" max="8" width="7.546875" style="72" customWidth="1"/>
+    <col min="9" max="9" width="8.796875" style="72"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="43" customFormat="1" ht="18.3">
+    <row r="1" spans="1:9" s="43" customFormat="1" ht="18.3">
       <c r="A1" s="44" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="C1" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="71"/>
+        <v>874</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>875</v>
+      </c>
       <c r="E1" s="71"/>
       <c r="F1" s="71"/>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="45">
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>731</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>735</v>
-      </c>
-      <c r="D2" s="72" t="str">
-        <f>CONCATENATE(B2," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",C2,")")</f>
+        <v>730</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>881</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>733</v>
+      </c>
+      <c r="E2" s="72" t="str">
+        <f>CONCATENATE(B2," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D2,")")</f>
         <v>What is Jupyter? - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/01-what-is-jupyter.ipynb#scrollTo=mdFTkIqGwgOJ)</v>
       </c>
-      <c r="E2" s="72" t="str">
-        <f>IF(A2=A1,E1&amp;"&lt;br&gt;"&amp;D2,D2)</f>
+      <c r="F2" s="72" t="str">
+        <f>IF(A2=A1,F1&amp;"&lt;br&gt;"&amp;E2,E2)</f>
         <v>What is Jupyter? - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/01-what-is-jupyter.ipynb#scrollTo=mdFTkIqGwgOJ)</v>
       </c>
-      <c r="F2" s="72" t="str">
-        <f>IF(A2&lt;&gt;A3,E2,"")</f>
+      <c r="G2" s="72" t="str">
+        <f>IF(A2&lt;&gt;A3,F2,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="H2" s="72" t="str">
+        <f>IF(ISBLANK(C2),"",CONCATENATE("  - title: ",B2,"
+    url: /notebooks/",C2,"
+    not_numbered: true"))</f>
+        <v xml:space="preserve">  - title: What is Jupyter?
+    url: /notebooks/01-what-is-jupyter
+    not_numbered: true</v>
+      </c>
+      <c r="I2" s="72" t="str">
+        <f>I1&amp;"
+"&amp;H2</f>
+        <v xml:space="preserve">
+  - title: What is Jupyter?
+    url: /notebooks/01-what-is-jupyter
+    not_numbered: true</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="45">
         <v>1</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>732</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>736</v>
-      </c>
-      <c r="D3" s="72" t="str">
-        <f t="shared" ref="D3:D36" si="0">CONCATENATE(B3," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",C3,")")</f>
+        <v>731</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>884</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>734</v>
+      </c>
+      <c r="E3" s="72" t="str">
+        <f t="shared" ref="E3:E5" si="0">CONCATENATE(B3," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D3,")")</f>
         <v>Notebook Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/02-notebook-basics.ipynb)</v>
       </c>
-      <c r="E3" s="72" t="str">
-        <f t="shared" ref="E3:E36" si="1">IF(A3=A2,E2&amp;"&lt;br&gt;"&amp;D3,D3)</f>
+      <c r="F3" s="72" t="str">
+        <f t="shared" ref="F3:F11" si="1">IF(A3=A2,F2&amp;"&lt;br&gt;"&amp;E3,E3)</f>
         <v>What is Jupyter? - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/01-what-is-jupyter.ipynb#scrollTo=mdFTkIqGwgOJ)&lt;br&gt;Notebook Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/02-notebook-basics.ipynb)</v>
       </c>
-      <c r="F3" s="72" t="str">
-        <f t="shared" ref="F3:F36" si="2">IF(A3&lt;&gt;A4,E3,"")</f>
+      <c r="G3" s="72" t="str">
+        <f t="shared" ref="G3:G4" si="2">IF(A3&lt;&gt;A4,F3,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="H3" s="72" t="str">
+        <f t="shared" ref="H3:H35" si="3">IF(ISBLANK(C3),"",CONCATENATE("  - title: ",B3,"
+    url: /notebooks/",C3,"
+    not_numbered: true"))</f>
+        <v xml:space="preserve">  - title: Notebook Basics
+    url: /notebooks/02-notebook-basics
+    not_numbered: true</v>
+      </c>
+      <c r="I3" s="72" t="str">
+        <f t="shared" ref="I3:I35" si="4">I2&amp;"
+"&amp;H3</f>
+        <v xml:space="preserve">
+  - title: What is Jupyter?
+    url: /notebooks/01-what-is-jupyter
+    not_numbered: true
+  - title: Notebook Basics
+    url: /notebooks/02-notebook-basics
+    not_numbered: true</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="45">
         <v>1</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>733</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>737</v>
-      </c>
-      <c r="D4" s="72" t="str">
+        <v>732</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>882</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>735</v>
+      </c>
+      <c r="E4" s="72" t="str">
         <f t="shared" si="0"/>
         <v>Running Code - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/03-running-code.ipynb)</v>
       </c>
-      <c r="E4" s="72" t="str">
+      <c r="F4" s="72" t="str">
         <f t="shared" si="1"/>
         <v>What is Jupyter? - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/01-what-is-jupyter.ipynb#scrollTo=mdFTkIqGwgOJ)&lt;br&gt;Notebook Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/02-notebook-basics.ipynb)&lt;br&gt;Running Code - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/03-running-code.ipynb)</v>
       </c>
-      <c r="F4" s="72" t="str">
+      <c r="G4" s="72" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="H4" s="72" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - title: Running Code
+    url: /notebooks/03-running-code
+    not_numbered: true</v>
+      </c>
+      <c r="I4" s="72" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
+  - title: What is Jupyter?
+    url: /notebooks/01-what-is-jupyter
+    not_numbered: true
+  - title: Notebook Basics
+    url: /notebooks/02-notebook-basics
+    not_numbered: true
+  - title: Running Code
+    url: /notebooks/03-running-code
+    not_numbered: true</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="45">
         <v>1</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="39" t="s">
-        <v>738</v>
-      </c>
-      <c r="D5" s="72" t="str">
+      <c r="C5" s="23" t="s">
+        <v>883</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>736</v>
+      </c>
+      <c r="E5" s="72" t="str">
         <f t="shared" si="0"/>
         <v>Markdown - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/04-markdown.ipynb)</v>
       </c>
-      <c r="E5" s="72" t="str">
+      <c r="F5" s="72" t="str">
         <f t="shared" si="1"/>
         <v>What is Jupyter? - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/01-what-is-jupyter.ipynb#scrollTo=mdFTkIqGwgOJ)&lt;br&gt;Notebook Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/02-notebook-basics.ipynb)&lt;br&gt;Running Code - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/03-running-code.ipynb)&lt;br&gt;Markdown - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/04-markdown.ipynb)</v>
       </c>
-      <c r="F5" s="72" t="str">
-        <f t="shared" si="2"/>
+      <c r="G5" s="72" t="str">
+        <f>IF(A5&lt;&gt;A6,F5,"")</f>
+        <v>What is Jupyter? - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/01-what-is-jupyter.ipynb#scrollTo=mdFTkIqGwgOJ)&lt;br&gt;Notebook Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/02-notebook-basics.ipynb)&lt;br&gt;Running Code - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/03-running-code.ipynb)&lt;br&gt;Markdown - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/04-markdown.ipynb)</v>
+      </c>
+      <c r="H5" s="72" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - title: Markdown
+    url: /notebooks/04-markdown
+    not_numbered: true</v>
+      </c>
+      <c r="I5" s="72" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
+  - title: What is Jupyter?
+    url: /notebooks/01-what-is-jupyter
+    not_numbered: true
+  - title: Notebook Basics
+    url: /notebooks/02-notebook-basics
+    not_numbered: true
+  - title: Running Code
+    url: /notebooks/03-running-code
+    not_numbered: true
+  - title: Markdown
+    url: /notebooks/04-markdown
+    not_numbered: true</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="45">
+        <v>2</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>746</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>885</v>
+      </c>
+      <c r="D6" t="s">
+        <v>751</v>
+      </c>
+      <c r="E6" s="72" t="str">
+        <f>CONCATENATE(B6," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D6,")")</f>
+        <v>Python Overview - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/01-intro-python-overview.ipynb)</v>
+      </c>
+      <c r="F6" s="72" t="str">
+        <f t="shared" si="1"/>
+        <v>Python Overview - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/01-intro-python-overview.ipynb)</v>
+      </c>
+      <c r="G6" s="72" t="str">
+        <f>IF(A6&lt;&gt;A7,F6,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="45">
-        <v>1</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>734</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>739</v>
-      </c>
-      <c r="D6" s="72" t="str">
-        <f t="shared" si="0"/>
-        <v>More on Colab - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/notebooks/welcome.ipynb)</v>
-      </c>
-      <c r="E6" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>What is Jupyter? - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/01-what-is-jupyter.ipynb#scrollTo=mdFTkIqGwgOJ)&lt;br&gt;Notebook Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/02-notebook-basics.ipynb)&lt;br&gt;Running Code - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/03-running-code.ipynb)&lt;br&gt;Markdown - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/04-markdown.ipynb)&lt;br&gt;More on Colab - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/notebooks/welcome.ipynb)</v>
-      </c>
-      <c r="F6" s="72" t="str">
-        <f t="shared" si="2"/>
-        <v>What is Jupyter? - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/01-what-is-jupyter.ipynb#scrollTo=mdFTkIqGwgOJ)&lt;br&gt;Notebook Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/02-notebook-basics.ipynb)&lt;br&gt;Running Code - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/03-running-code.ipynb)&lt;br&gt;Markdown - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/04-markdown.ipynb)&lt;br&gt;More on Colab - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/notebooks/welcome.ipynb)</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="H6" s="72" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - title: Python Overview
+    url: /notebooks/05-intro-python-overview
+    not_numbered: true</v>
+      </c>
+      <c r="I6" s="72" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
+  - title: What is Jupyter?
+    url: /notebooks/01-what-is-jupyter
+    not_numbered: true
+  - title: Notebook Basics
+    url: /notebooks/02-notebook-basics
+    not_numbered: true
+  - title: Running Code
+    url: /notebooks/03-running-code
+    not_numbered: true
+  - title: Markdown
+    url: /notebooks/04-markdown
+    not_numbered: true
+  - title: Python Overview
+    url: /notebooks/05-intro-python-overview
+    not_numbered: true</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="45">
         <v>2</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>749</v>
-      </c>
-      <c r="C7" t="s">
-        <v>754</v>
-      </c>
-      <c r="D7" s="72" t="str">
-        <f t="shared" si="0"/>
-        <v>Python Overview - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/01-intro-python-overview.ipynb)</v>
+        <v>747</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>886</v>
+      </c>
+      <c r="D7" t="s">
+        <v>752</v>
       </c>
       <c r="E7" s="72" t="str">
+        <f>CONCATENATE(B7," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D7,")")</f>
+        <v>Basic Data Structures - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/02-intro-python-datastructures.ipynbhttps://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/03-intro-python-numpy.ipynb)</v>
+      </c>
+      <c r="F7" s="72" t="str">
         <f t="shared" si="1"/>
-        <v>Python Overview - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/01-intro-python-overview.ipynb)</v>
-      </c>
-      <c r="F7" s="72" t="str">
-        <f t="shared" si="2"/>
+        <v>Python Overview - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/01-intro-python-overview.ipynb)&lt;br&gt;Basic Data Structures - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/02-intro-python-datastructures.ipynbhttps://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/03-intro-python-numpy.ipynb)</v>
+      </c>
+      <c r="G7" s="72" t="str">
+        <f>IF(A7&lt;&gt;A8,F7,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="H7" s="72" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - title: Basic Data Structures
+    url: /notebooks/06-intro-python-datastructures
+    not_numbered: true</v>
+      </c>
+      <c r="I7" s="72" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
+  - title: What is Jupyter?
+    url: /notebooks/01-what-is-jupyter
+    not_numbered: true
+  - title: Notebook Basics
+    url: /notebooks/02-notebook-basics
+    not_numbered: true
+  - title: Running Code
+    url: /notebooks/03-running-code
+    not_numbered: true
+  - title: Markdown
+    url: /notebooks/04-markdown
+    not_numbered: true
+  - title: Python Overview
+    url: /notebooks/05-intro-python-overview
+    not_numbered: true
+  - title: Basic Data Structures
+    url: /notebooks/06-intro-python-datastructures
+    not_numbered: true</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="45">
         <v>2</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>750</v>
-      </c>
-      <c r="C8" t="s">
-        <v>755</v>
-      </c>
-      <c r="D8" s="72" t="str">
-        <f t="shared" si="0"/>
-        <v>Basic Data Structures - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/02-intro-python-datastructures.ipynbhttps://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/03-intro-python-numpy.ipynb)</v>
+        <v>748</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>887</v>
+      </c>
+      <c r="D8" t="s">
+        <v>753</v>
       </c>
       <c r="E8" s="72" t="str">
+        <f>CONCATENATE(B8," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D8,")")</f>
+        <v>Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)</v>
+      </c>
+      <c r="F8" s="72" t="str">
         <f t="shared" si="1"/>
-        <v>Python Overview - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/01-intro-python-overview.ipynb)&lt;br&gt;Basic Data Structures - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/02-intro-python-datastructures.ipynbhttps://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/03-intro-python-numpy.ipynb)</v>
-      </c>
-      <c r="F8" s="72" t="str">
-        <f t="shared" si="2"/>
+        <v>Python Overview - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/01-intro-python-overview.ipynb)&lt;br&gt;Basic Data Structures - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/02-intro-python-datastructures.ipynbhttps://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/03-intro-python-numpy.ipynb)&lt;br&gt;Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)</v>
+      </c>
+      <c r="G8" s="72" t="str">
+        <f>IF(A8&lt;&gt;A9,F8,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="H8" s="72" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - title: Numpy
+    url: /notebooks/07-intro-python-numpy
+    not_numbered: true</v>
+      </c>
+      <c r="I8" s="72" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
+  - title: What is Jupyter?
+    url: /notebooks/01-what-is-jupyter
+    not_numbered: true
+  - title: Notebook Basics
+    url: /notebooks/02-notebook-basics
+    not_numbered: true
+  - title: Running Code
+    url: /notebooks/03-running-code
+    not_numbered: true
+  - title: Markdown
+    url: /notebooks/04-markdown
+    not_numbered: true
+  - title: Python Overview
+    url: /notebooks/05-intro-python-overview
+    not_numbered: true
+  - title: Basic Data Structures
+    url: /notebooks/06-intro-python-datastructures
+    not_numbered: true
+  - title: Numpy
+    url: /notebooks/07-intro-python-numpy
+    not_numbered: true</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="45">
         <v>2</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>751</v>
-      </c>
-      <c r="C9" t="s">
-        <v>756</v>
-      </c>
-      <c r="D9" s="72" t="str">
-        <f t="shared" si="0"/>
-        <v>Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)</v>
+        <v>749</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>888</v>
+      </c>
+      <c r="D9" t="s">
+        <v>753</v>
       </c>
       <c r="E9" s="72" t="str">
+        <f>CONCATENATE(B9," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D9,")")</f>
+        <v>Pandas - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)</v>
+      </c>
+      <c r="F9" s="72" t="str">
         <f t="shared" si="1"/>
-        <v>Python Overview - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/01-intro-python-overview.ipynb)&lt;br&gt;Basic Data Structures - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/02-intro-python-datastructures.ipynbhttps://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/03-intro-python-numpy.ipynb)&lt;br&gt;Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)</v>
-      </c>
-      <c r="F9" s="72" t="str">
-        <f t="shared" si="2"/>
+        <v>Python Overview - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/01-intro-python-overview.ipynb)&lt;br&gt;Basic Data Structures - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/02-intro-python-datastructures.ipynbhttps://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/03-intro-python-numpy.ipynb)&lt;br&gt;Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)&lt;br&gt;Pandas - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)</v>
+      </c>
+      <c r="G9" s="72" t="str">
+        <f>IF(A9&lt;&gt;A10,F9,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="H9" s="72" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - title: Pandas
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true</v>
+      </c>
+      <c r="I9" s="72" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
+  - title: What is Jupyter?
+    url: /notebooks/01-what-is-jupyter
+    not_numbered: true
+  - title: Notebook Basics
+    url: /notebooks/02-notebook-basics
+    not_numbered: true
+  - title: Running Code
+    url: /notebooks/03-running-code
+    not_numbered: true
+  - title: Markdown
+    url: /notebooks/04-markdown
+    not_numbered: true
+  - title: Python Overview
+    url: /notebooks/05-intro-python-overview
+    not_numbered: true
+  - title: Basic Data Structures
+    url: /notebooks/06-intro-python-datastructures
+    not_numbered: true
+  - title: Numpy
+    url: /notebooks/07-intro-python-numpy
+    not_numbered: true
+  - title: Pandas
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="45">
         <v>2</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>752</v>
-      </c>
-      <c r="C10" t="s">
-        <v>756</v>
-      </c>
-      <c r="D10" s="72" t="str">
-        <f t="shared" si="0"/>
-        <v>Pandas - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)</v>
+        <v>750</v>
+      </c>
+      <c r="C10" s="46"/>
+      <c r="D10" t="s">
+        <v>754</v>
       </c>
       <c r="E10" s="72" t="str">
+        <f>CONCATENATE(B10," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D10,")")</f>
+        <v>Lab - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/lab/lab.ipynb)</v>
+      </c>
+      <c r="F10" s="72" t="str">
         <f t="shared" si="1"/>
-        <v>Python Overview - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/01-intro-python-overview.ipynb)&lt;br&gt;Basic Data Structures - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/02-intro-python-datastructures.ipynbhttps://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/03-intro-python-numpy.ipynb)&lt;br&gt;Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)&lt;br&gt;Pandas - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)</v>
-      </c>
-      <c r="F10" s="72" t="str">
-        <f t="shared" si="2"/>
+        <v>Python Overview - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/01-intro-python-overview.ipynb)&lt;br&gt;Basic Data Structures - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/02-intro-python-datastructures.ipynbhttps://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/03-intro-python-numpy.ipynb)&lt;br&gt;Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)&lt;br&gt;Pandas - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)&lt;br&gt;Lab - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/lab/lab.ipynb)</v>
+      </c>
+      <c r="G10" s="72" t="str">
+        <f>IF(A10&lt;&gt;A11,F10,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="H10" s="72" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I10" s="72" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
+  - title: What is Jupyter?
+    url: /notebooks/01-what-is-jupyter
+    not_numbered: true
+  - title: Notebook Basics
+    url: /notebooks/02-notebook-basics
+    not_numbered: true
+  - title: Running Code
+    url: /notebooks/03-running-code
+    not_numbered: true
+  - title: Markdown
+    url: /notebooks/04-markdown
+    not_numbered: true
+  - title: Python Overview
+    url: /notebooks/05-intro-python-overview
+    not_numbered: true
+  - title: Basic Data Structures
+    url: /notebooks/06-intro-python-datastructures
+    not_numbered: true
+  - title: Numpy
+    url: /notebooks/07-intro-python-numpy
+    not_numbered: true
+  - title: Pandas
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="45">
         <v>2</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>753</v>
-      </c>
-      <c r="C11" t="s">
-        <v>757</v>
-      </c>
-      <c r="D11" s="72" t="str">
-        <f t="shared" si="0"/>
-        <v>Lab - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/lab/lab.ipynb)</v>
+        <v>817</v>
+      </c>
+      <c r="C11" s="46"/>
+      <c r="D11" t="s">
+        <v>755</v>
       </c>
       <c r="E11" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>Python Overview - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/01-intro-python-overview.ipynb)&lt;br&gt;Basic Data Structures - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/02-intro-python-datastructures.ipynbhttps://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/03-intro-python-numpy.ipynb)&lt;br&gt;Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)&lt;br&gt;Pandas - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)&lt;br&gt;Lab - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/lab/lab.ipynb)</v>
+        <f>CONCATENATE(B11," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D11,")")</f>
+        <v>Assignment 1 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/hm-01/hm01.ipynb)</v>
       </c>
       <c r="F11" s="72" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="45">
-        <v>2</v>
-      </c>
-      <c r="B12" s="46" t="s">
-        <v>820</v>
-      </c>
-      <c r="C12" t="s">
-        <v>758</v>
-      </c>
-      <c r="D12" s="72" t="str">
-        <f t="shared" si="0"/>
-        <v>Assignment 1 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/hm-01/hm01.ipynb)</v>
-      </c>
-      <c r="E12" s="72" t="str">
         <f t="shared" si="1"/>
         <v>Python Overview - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/01-intro-python-overview.ipynb)&lt;br&gt;Basic Data Structures - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/02-intro-python-datastructures.ipynbhttps://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/03-intro-python-numpy.ipynb)&lt;br&gt;Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)&lt;br&gt;Pandas - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)&lt;br&gt;Lab - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/lab/lab.ipynb)&lt;br&gt;Assignment 1 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/hm-01/hm01.ipynb)</v>
       </c>
+      <c r="G11" s="72" t="str">
+        <f>IF(A11&lt;&gt;A12,F11,"")</f>
+        <v>Python Overview - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/01-intro-python-overview.ipynb)&lt;br&gt;Basic Data Structures - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/02-intro-python-datastructures.ipynbhttps://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/03-intro-python-numpy.ipynb)&lt;br&gt;Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)&lt;br&gt;Pandas - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)&lt;br&gt;Lab - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/lab/lab.ipynb)&lt;br&gt;Assignment 1 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/hm-01/hm01.ipynb)</v>
+      </c>
+      <c r="H11" s="72" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I11" s="72" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
+  - title: What is Jupyter?
+    url: /notebooks/01-what-is-jupyter
+    not_numbered: true
+  - title: Notebook Basics
+    url: /notebooks/02-notebook-basics
+    not_numbered: true
+  - title: Running Code
+    url: /notebooks/03-running-code
+    not_numbered: true
+  - title: Markdown
+    url: /notebooks/04-markdown
+    not_numbered: true
+  - title: Python Overview
+    url: /notebooks/05-intro-python-overview
+    not_numbered: true
+  - title: Basic Data Structures
+    url: /notebooks/06-intro-python-datastructures
+    not_numbered: true
+  - title: Numpy
+    url: /notebooks/07-intro-python-numpy
+    not_numbered: true
+  - title: Pandas
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="45">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>808</v>
+      </c>
+      <c r="D12" t="s">
+        <v>809</v>
+      </c>
+      <c r="E12" s="72" t="str">
+        <f>CONCATENATE(B12," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D12,")")</f>
+        <v>Conditional-Loops - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb)</v>
+      </c>
       <c r="F12" s="72" t="str">
-        <f t="shared" si="2"/>
-        <v>Python Overview - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/01-intro-python-overview.ipynb)&lt;br&gt;Basic Data Structures - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/02-intro-python-datastructures.ipynbhttps://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/03-intro-python-numpy.ipynb)&lt;br&gt;Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)&lt;br&gt;Pandas - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)&lt;br&gt;Lab - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/lab/lab.ipynb)&lt;br&gt;Assignment 1 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/hm-01/hm01.ipynb)</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <f>IF(A12=A11,F11&amp;"&lt;br&gt;"&amp;E12,E12)</f>
+        <v>Conditional-Loops - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb)</v>
+      </c>
+      <c r="G12" s="72" t="str">
+        <f>IF(A12&lt;&gt;A13,F12,"")</f>
+        <v/>
+      </c>
+      <c r="H12" s="72" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I12" s="72" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
+  - title: What is Jupyter?
+    url: /notebooks/01-what-is-jupyter
+    not_numbered: true
+  - title: Notebook Basics
+    url: /notebooks/02-notebook-basics
+    not_numbered: true
+  - title: Running Code
+    url: /notebooks/03-running-code
+    not_numbered: true
+  - title: Markdown
+    url: /notebooks/04-markdown
+    not_numbered: true
+  - title: Python Overview
+    url: /notebooks/05-intro-python-overview
+    not_numbered: true
+  - title: Basic Data Structures
+    url: /notebooks/06-intro-python-datastructures
+    not_numbered: true
+  - title: Numpy
+    url: /notebooks/07-intro-python-numpy
+    not_numbered: true
+  - title: Pandas
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="45">
         <v>4</v>
       </c>
       <c r="B13" t="s">
+        <v>810</v>
+      </c>
+      <c r="D13" t="s">
         <v>811</v>
       </c>
-      <c r="C13" t="s">
-        <v>812</v>
-      </c>
-      <c r="D13" s="72" t="str">
-        <f t="shared" si="0"/>
-        <v>Conditional-Loops - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb)</v>
-      </c>
       <c r="E13" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>Conditional-Loops - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb)</v>
+        <f>CONCATENATE(B13," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D13,")")</f>
+        <v>Functions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/02-intro-python-functions.ipynb)</v>
       </c>
       <c r="F13" s="72" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(A13=A12,F12&amp;"&lt;br&gt;"&amp;E13,E13)</f>
+        <v>Conditional-Loops - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb)&lt;br&gt;Functions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/02-intro-python-functions.ipynb)</v>
+      </c>
+      <c r="G13" s="72" t="str">
+        <f>IF(A13&lt;&gt;A14,F13,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="H13" s="72" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I13" s="72" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
+  - title: What is Jupyter?
+    url: /notebooks/01-what-is-jupyter
+    not_numbered: true
+  - title: Notebook Basics
+    url: /notebooks/02-notebook-basics
+    not_numbered: true
+  - title: Running Code
+    url: /notebooks/03-running-code
+    not_numbered: true
+  - title: Markdown
+    url: /notebooks/04-markdown
+    not_numbered: true
+  - title: Python Overview
+    url: /notebooks/05-intro-python-overview
+    not_numbered: true
+  - title: Basic Data Structures
+    url: /notebooks/06-intro-python-datastructures
+    not_numbered: true
+  - title: Numpy
+    url: /notebooks/07-intro-python-numpy
+    not_numbered: true
+  - title: Pandas
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="45">
         <v>4</v>
       </c>
       <c r="B14" t="s">
+        <v>812</v>
+      </c>
+      <c r="D14" t="s">
         <v>813</v>
       </c>
-      <c r="C14" t="s">
-        <v>814</v>
-      </c>
-      <c r="D14" s="72" t="str">
-        <f t="shared" si="0"/>
-        <v>Functions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/02-intro-python-functions.ipynb)</v>
-      </c>
       <c r="E14" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>Conditional-Loops - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb)&lt;br&gt;Functions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/02-intro-python-functions.ipynb)</v>
+        <f>CONCATENATE(B14," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D14,")")</f>
+        <v>Null Values - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/03-intro-python-null-values.ipynb)</v>
       </c>
       <c r="F14" s="72" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(A14=A13,F13&amp;"&lt;br&gt;"&amp;E14,E14)</f>
+        <v>Conditional-Loops - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb)&lt;br&gt;Functions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/02-intro-python-functions.ipynb)&lt;br&gt;Null Values - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/03-intro-python-null-values.ipynb)</v>
+      </c>
+      <c r="G14" s="72" t="str">
+        <f>IF(A14&lt;&gt;A15,F14,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="H14" s="72" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I14" s="72" t="str">
+        <f>I13&amp;"
+"&amp;H14</f>
+        <v xml:space="preserve">
+  - title: What is Jupyter?
+    url: /notebooks/01-what-is-jupyter
+    not_numbered: true
+  - title: Notebook Basics
+    url: /notebooks/02-notebook-basics
+    not_numbered: true
+  - title: Running Code
+    url: /notebooks/03-running-code
+    not_numbered: true
+  - title: Markdown
+    url: /notebooks/04-markdown
+    not_numbered: true
+  - title: Python Overview
+    url: /notebooks/05-intro-python-overview
+    not_numbered: true
+  - title: Basic Data Structures
+    url: /notebooks/06-intro-python-datastructures
+    not_numbered: true
+  - title: Numpy
+    url: /notebooks/07-intro-python-numpy
+    not_numbered: true
+  - title: Pandas
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="45">
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>815</v>
-      </c>
-      <c r="C15" t="s">
-        <v>816</v>
-      </c>
-      <c r="D15" s="72" t="str">
-        <f t="shared" si="0"/>
-        <v>Null Values - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/03-intro-python-null-values.ipynb)</v>
+        <v>814</v>
+      </c>
+      <c r="D15" t="s">
+        <v>818</v>
       </c>
       <c r="E15" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>Conditional-Loops - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb)&lt;br&gt;Functions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/02-intro-python-functions.ipynb)&lt;br&gt;Null Values - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/03-intro-python-null-values.ipynb)</v>
+        <f>CONCATENATE(B15," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D15,")")</f>
+        <v>Groupby - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/04-intro-python-groupby.ipynb)</v>
       </c>
       <c r="F15" s="72" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(A15=A14,F14&amp;"&lt;br&gt;"&amp;E15,E15)</f>
+        <v>Conditional-Loops - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb)&lt;br&gt;Functions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/02-intro-python-functions.ipynb)&lt;br&gt;Null Values - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/03-intro-python-null-values.ipynb)&lt;br&gt;Groupby - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/04-intro-python-groupby.ipynb)</v>
+      </c>
+      <c r="G15" s="72" t="str">
+        <f>IF(A15&lt;&gt;A16,F15,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="H15" s="72" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I15" s="72" t="str">
+        <f t="shared" ref="I15:I35" si="5">I14&amp;"
+"&amp;H15</f>
+        <v xml:space="preserve">
+  - title: What is Jupyter?
+    url: /notebooks/01-what-is-jupyter
+    not_numbered: true
+  - title: Notebook Basics
+    url: /notebooks/02-notebook-basics
+    not_numbered: true
+  - title: Running Code
+    url: /notebooks/03-running-code
+    not_numbered: true
+  - title: Markdown
+    url: /notebooks/04-markdown
+    not_numbered: true
+  - title: Python Overview
+    url: /notebooks/05-intro-python-overview
+    not_numbered: true
+  - title: Basic Data Structures
+    url: /notebooks/06-intro-python-datastructures
+    not_numbered: true
+  - title: Numpy
+    url: /notebooks/07-intro-python-numpy
+    not_numbered: true
+  - title: Pandas
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="45">
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>817</v>
-      </c>
-      <c r="C16" t="s">
-        <v>821</v>
-      </c>
-      <c r="D16" s="72" t="str">
-        <f t="shared" si="0"/>
-        <v>Groupby - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/04-intro-python-groupby.ipynb)</v>
+        <v>815</v>
+      </c>
+      <c r="D16" t="s">
+        <v>819</v>
       </c>
       <c r="E16" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>Conditional-Loops - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb)&lt;br&gt;Functions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/02-intro-python-functions.ipynb)&lt;br&gt;Null Values - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/03-intro-python-null-values.ipynb)&lt;br&gt;Groupby - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/04-intro-python-groupby.ipynb)</v>
+        <f>CONCATENATE(B16," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D16,")")</f>
+        <v>Kaggle Baseline - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/05-intro-kaggle-baseline.ipynb)</v>
       </c>
       <c r="F16" s="72" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(A16=A15,F15&amp;"&lt;br&gt;"&amp;E16,E16)</f>
+        <v>Conditional-Loops - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb)&lt;br&gt;Functions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/02-intro-python-functions.ipynb)&lt;br&gt;Null Values - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/03-intro-python-null-values.ipynb)&lt;br&gt;Groupby - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/04-intro-python-groupby.ipynb)&lt;br&gt;Kaggle Baseline - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/05-intro-kaggle-baseline.ipynb)</v>
+      </c>
+      <c r="G16" s="72" t="str">
+        <f>IF(A16&lt;&gt;A17,F16,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="H16" s="72" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I16" s="72" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">
+  - title: What is Jupyter?
+    url: /notebooks/01-what-is-jupyter
+    not_numbered: true
+  - title: Notebook Basics
+    url: /notebooks/02-notebook-basics
+    not_numbered: true
+  - title: Running Code
+    url: /notebooks/03-running-code
+    not_numbered: true
+  - title: Markdown
+    url: /notebooks/04-markdown
+    not_numbered: true
+  - title: Python Overview
+    url: /notebooks/05-intro-python-overview
+    not_numbered: true
+  - title: Basic Data Structures
+    url: /notebooks/06-intro-python-datastructures
+    not_numbered: true
+  - title: Numpy
+    url: /notebooks/07-intro-python-numpy
+    not_numbered: true
+  - title: Pandas
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="45">
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>818</v>
-      </c>
-      <c r="C17" t="s">
-        <v>822</v>
-      </c>
-      <c r="D17" s="72" t="str">
-        <f t="shared" si="0"/>
-        <v>Kaggle Baseline - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/05-intro-kaggle-baseline.ipynb)</v>
+        <v>816</v>
+      </c>
+      <c r="D17" t="s">
+        <v>820</v>
       </c>
       <c r="E17" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>Conditional-Loops - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb)&lt;br&gt;Functions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/02-intro-python-functions.ipynb)&lt;br&gt;Null Values - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/03-intro-python-null-values.ipynb)&lt;br&gt;Groupby - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/04-intro-python-groupby.ipynb)&lt;br&gt;Kaggle Baseline - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/05-intro-kaggle-baseline.ipynb)</v>
+        <f>CONCATENATE(B17," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D17,")")</f>
+        <v>Assignment 2 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/hm-02/hm02.ipynb)</v>
       </c>
       <c r="F17" s="72" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(A17=A16,F16&amp;"&lt;br&gt;"&amp;E17,E17)</f>
+        <v>Conditional-Loops - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb)&lt;br&gt;Functions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/02-intro-python-functions.ipynb)&lt;br&gt;Null Values - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/03-intro-python-null-values.ipynb)&lt;br&gt;Groupby - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/04-intro-python-groupby.ipynb)&lt;br&gt;Kaggle Baseline - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/05-intro-kaggle-baseline.ipynb)&lt;br&gt;Assignment 2 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/hm-02/hm02.ipynb)</v>
+      </c>
+      <c r="G17" s="72" t="str">
+        <f>IF(A17&lt;&gt;A18,F17,"")</f>
+        <v>Conditional-Loops - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb)&lt;br&gt;Functions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/02-intro-python-functions.ipynb)&lt;br&gt;Null Values - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/03-intro-python-null-values.ipynb)&lt;br&gt;Groupby - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/04-intro-python-groupby.ipynb)&lt;br&gt;Kaggle Baseline - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/05-intro-kaggle-baseline.ipynb)&lt;br&gt;Assignment 2 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/hm-02/hm02.ipynb)</v>
+      </c>
+      <c r="H17" s="72" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="I17" s="72" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">
+  - title: What is Jupyter?
+    url: /notebooks/01-what-is-jupyter
+    not_numbered: true
+  - title: Notebook Basics
+    url: /notebooks/02-notebook-basics
+    not_numbered: true
+  - title: Running Code
+    url: /notebooks/03-running-code
+    not_numbered: true
+  - title: Markdown
+    url: /notebooks/04-markdown
+    not_numbered: true
+  - title: Python Overview
+    url: /notebooks/05-intro-python-overview
+    not_numbered: true
+  - title: Basic Data Structures
+    url: /notebooks/06-intro-python-datastructures
+    not_numbered: true
+  - title: Numpy
+    url: /notebooks/07-intro-python-numpy
+    not_numbered: true
+  - title: Pandas
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="45">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>819</v>
-      </c>
-      <c r="C18" t="s">
-        <v>823</v>
-      </c>
-      <c r="D18" s="72" t="str">
-        <f t="shared" si="0"/>
-        <v>Assignment 2 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/hm-02/hm02.ipynb)</v>
+        <v>821</v>
+      </c>
+      <c r="D18" t="s">
+        <v>827</v>
       </c>
       <c r="E18" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>Conditional-Loops - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb)&lt;br&gt;Functions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/02-intro-python-functions.ipynb)&lt;br&gt;Null Values - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/03-intro-python-null-values.ipynb)&lt;br&gt;Groupby - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/04-intro-python-groupby.ipynb)&lt;br&gt;Kaggle Baseline - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/05-intro-kaggle-baseline.ipynb)&lt;br&gt;Assignment 2 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/hm-02/hm02.ipynb)</v>
+        <f>CONCATENATE(B18," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D18,")")</f>
+        <v>Twitter - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb)</v>
       </c>
       <c r="F18" s="72" t="str">
-        <f t="shared" si="2"/>
-        <v>Conditional-Loops - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb)&lt;br&gt;Functions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/02-intro-python-functions.ipynb)&lt;br&gt;Null Values - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/03-intro-python-null-values.ipynb)&lt;br&gt;Groupby - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/04-intro-python-groupby.ipynb)&lt;br&gt;Kaggle Baseline - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/05-intro-kaggle-baseline.ipynb)&lt;br&gt;Assignment 2 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/hm-02/hm02.ipynb)</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <f>IF(A18=A17,F17&amp;"&lt;br&gt;"&amp;E18,E18)</f>
+        <v>Twitter - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb)</v>
+      </c>
+      <c r="G18" s="72" t="str">
+        <f>IF(A18&lt;&gt;A19,F18,"")</f>
+        <v/>
+      </c>
+      <c r="H18" s="72" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I18" s="72" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">
+  - title: What is Jupyter?
+    url: /notebooks/01-what-is-jupyter
+    not_numbered: true
+  - title: Notebook Basics
+    url: /notebooks/02-notebook-basics
+    not_numbered: true
+  - title: Running Code
+    url: /notebooks/03-running-code
+    not_numbered: true
+  - title: Markdown
+    url: /notebooks/04-markdown
+    not_numbered: true
+  - title: Python Overview
+    url: /notebooks/05-intro-python-overview
+    not_numbered: true
+  - title: Basic Data Structures
+    url: /notebooks/06-intro-python-datastructures
+    not_numbered: true
+  - title: Numpy
+    url: /notebooks/07-intro-python-numpy
+    not_numbered: true
+  - title: Pandas
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="45">
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>824</v>
-      </c>
-      <c r="C19" t="s">
-        <v>830</v>
-      </c>
-      <c r="D19" s="72" t="str">
-        <f t="shared" si="0"/>
-        <v>Twitter - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb)</v>
+        <v>822</v>
+      </c>
+      <c r="D19" t="s">
+        <v>828</v>
       </c>
       <c r="E19" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>Twitter - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb)</v>
+        <f>CONCATENATE(B19," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D19,")")</f>
+        <v>Web Mining - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/02_intro_python_webmining.ipynb)</v>
       </c>
       <c r="F19" s="72" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(A19=A18,F18&amp;"&lt;br&gt;"&amp;E19,E19)</f>
+        <v>Twitter - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb)&lt;br&gt;Web Mining - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/02_intro_python_webmining.ipynb)</v>
+      </c>
+      <c r="G19" s="72" t="str">
+        <f>IF(A19&lt;&gt;A20,F19,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="H19" s="72" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I19" s="72" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">
+  - title: What is Jupyter?
+    url: /notebooks/01-what-is-jupyter
+    not_numbered: true
+  - title: Notebook Basics
+    url: /notebooks/02-notebook-basics
+    not_numbered: true
+  - title: Running Code
+    url: /notebooks/03-running-code
+    not_numbered: true
+  - title: Markdown
+    url: /notebooks/04-markdown
+    not_numbered: true
+  - title: Python Overview
+    url: /notebooks/05-intro-python-overview
+    not_numbered: true
+  - title: Basic Data Structures
+    url: /notebooks/06-intro-python-datastructures
+    not_numbered: true
+  - title: Numpy
+    url: /notebooks/07-intro-python-numpy
+    not_numbered: true
+  - title: Pandas
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="45">
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>825</v>
-      </c>
-      <c r="C20" t="s">
-        <v>831</v>
-      </c>
-      <c r="D20" s="72" t="str">
-        <f t="shared" si="0"/>
-        <v>Web Mining - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/02_intro_python_webmining.ipynb)</v>
+        <v>823</v>
+      </c>
+      <c r="D20" t="s">
+        <v>829</v>
       </c>
       <c r="E20" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>Twitter - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb)&lt;br&gt;Web Mining - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/02_intro_python_webmining.ipynb)</v>
+        <f>CONCATENATE(B20," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D20,")")</f>
+        <v>Visualizations - Seaborn - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/03_visualization_python_seaborn.ipynb)</v>
       </c>
       <c r="F20" s="72" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(A20=A19,F19&amp;"&lt;br&gt;"&amp;E20,E20)</f>
+        <v>Twitter - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb)&lt;br&gt;Web Mining - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/02_intro_python_webmining.ipynb)&lt;br&gt;Visualizations - Seaborn - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/03_visualization_python_seaborn.ipynb)</v>
+      </c>
+      <c r="G20" s="72" t="str">
+        <f>IF(A20&lt;&gt;A21,F20,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="H20" s="72" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I20" s="72" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">
+  - title: What is Jupyter?
+    url: /notebooks/01-what-is-jupyter
+    not_numbered: true
+  - title: Notebook Basics
+    url: /notebooks/02-notebook-basics
+    not_numbered: true
+  - title: Running Code
+    url: /notebooks/03-running-code
+    not_numbered: true
+  - title: Markdown
+    url: /notebooks/04-markdown
+    not_numbered: true
+  - title: Python Overview
+    url: /notebooks/05-intro-python-overview
+    not_numbered: true
+  - title: Basic Data Structures
+    url: /notebooks/06-intro-python-datastructures
+    not_numbered: true
+  - title: Numpy
+    url: /notebooks/07-intro-python-numpy
+    not_numbered: true
+  - title: Pandas
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="45">
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>826</v>
-      </c>
-      <c r="C21" t="s">
-        <v>832</v>
-      </c>
-      <c r="D21" s="72" t="str">
-        <f t="shared" si="0"/>
-        <v>Visualizations - Seaborn - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/03_visualization_python_seaborn.ipynb)</v>
+        <v>824</v>
+      </c>
+      <c r="D21" t="s">
+        <v>830</v>
       </c>
       <c r="E21" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>Twitter - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb)&lt;br&gt;Web Mining - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/02_intro_python_webmining.ipynb)&lt;br&gt;Visualizations - Seaborn - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/03_visualization_python_seaborn.ipynb)</v>
+        <f>CONCATENATE(B21," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D21,")")</f>
+        <v>Strings - Regular Expressions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/04_strings_and_regular_expressions.ipynb)</v>
       </c>
       <c r="F21" s="72" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(A21=A20,F20&amp;"&lt;br&gt;"&amp;E21,E21)</f>
+        <v>Twitter - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb)&lt;br&gt;Web Mining - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/02_intro_python_webmining.ipynb)&lt;br&gt;Visualizations - Seaborn - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/03_visualization_python_seaborn.ipynb)&lt;br&gt;Strings - Regular Expressions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/04_strings_and_regular_expressions.ipynb)</v>
+      </c>
+      <c r="G21" s="72" t="str">
+        <f>IF(A21&lt;&gt;A22,F21,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="H21" s="72" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I21" s="72" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">
+  - title: What is Jupyter?
+    url: /notebooks/01-what-is-jupyter
+    not_numbered: true
+  - title: Notebook Basics
+    url: /notebooks/02-notebook-basics
+    not_numbered: true
+  - title: Running Code
+    url: /notebooks/03-running-code
+    not_numbered: true
+  - title: Markdown
+    url: /notebooks/04-markdown
+    not_numbered: true
+  - title: Python Overview
+    url: /notebooks/05-intro-python-overview
+    not_numbered: true
+  - title: Basic Data Structures
+    url: /notebooks/06-intro-python-datastructures
+    not_numbered: true
+  - title: Numpy
+    url: /notebooks/07-intro-python-numpy
+    not_numbered: true
+  - title: Pandas
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="45">
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>827</v>
-      </c>
-      <c r="C22" t="s">
-        <v>833</v>
-      </c>
-      <c r="D22" s="72" t="str">
-        <f t="shared" si="0"/>
-        <v>Strings - Regular Expressions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/04_strings_and_regular_expressions.ipynb)</v>
+        <v>825</v>
+      </c>
+      <c r="D22" t="s">
+        <v>831</v>
       </c>
       <c r="E22" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>Twitter - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb)&lt;br&gt;Web Mining - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/02_intro_python_webmining.ipynb)&lt;br&gt;Visualizations - Seaborn - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/03_visualization_python_seaborn.ipynb)&lt;br&gt;Strings - Regular Expressions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/04_strings_and_regular_expressions.ipynb)</v>
+        <f>CONCATENATE(B22," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D22,")")</f>
+        <v>Feature Dummies - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/05_features_dummies.ipynb)</v>
       </c>
       <c r="F22" s="72" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(A22=A21,F21&amp;"&lt;br&gt;"&amp;E22,E22)</f>
+        <v>Twitter - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb)&lt;br&gt;Web Mining - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/02_intro_python_webmining.ipynb)&lt;br&gt;Visualizations - Seaborn - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/03_visualization_python_seaborn.ipynb)&lt;br&gt;Strings - Regular Expressions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/04_strings_and_regular_expressions.ipynb)&lt;br&gt;Feature Dummies - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/05_features_dummies.ipynb)</v>
+      </c>
+      <c r="G22" s="72" t="str">
+        <f>IF(A22&lt;&gt;A23,F22,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="H22" s="72" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I22" s="72" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">
+  - title: What is Jupyter?
+    url: /notebooks/01-what-is-jupyter
+    not_numbered: true
+  - title: Notebook Basics
+    url: /notebooks/02-notebook-basics
+    not_numbered: true
+  - title: Running Code
+    url: /notebooks/03-running-code
+    not_numbered: true
+  - title: Markdown
+    url: /notebooks/04-markdown
+    not_numbered: true
+  - title: Python Overview
+    url: /notebooks/05-intro-python-overview
+    not_numbered: true
+  - title: Basic Data Structures
+    url: /notebooks/06-intro-python-datastructures
+    not_numbered: true
+  - title: Numpy
+    url: /notebooks/07-intro-python-numpy
+    not_numbered: true
+  - title: Pandas
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="45">
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>828</v>
-      </c>
-      <c r="C23" t="s">
-        <v>834</v>
-      </c>
-      <c r="D23" s="72" t="str">
-        <f t="shared" si="0"/>
-        <v>Feature Dummies - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/05_features_dummies.ipynb)</v>
+        <v>826</v>
+      </c>
+      <c r="D23" t="s">
+        <v>832</v>
       </c>
       <c r="E23" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>Twitter - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb)&lt;br&gt;Web Mining - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/02_intro_python_webmining.ipynb)&lt;br&gt;Visualizations - Seaborn - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/03_visualization_python_seaborn.ipynb)&lt;br&gt;Strings - Regular Expressions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/04_strings_and_regular_expressions.ipynb)&lt;br&gt;Feature Dummies - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/05_features_dummies.ipynb)</v>
+        <f>CONCATENATE(B23," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D23,")")</f>
+        <v>Assignment 3 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/hm-03/hm03.ipynb)</v>
       </c>
       <c r="F23" s="72" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(A23=A22,F22&amp;"&lt;br&gt;"&amp;E23,E23)</f>
+        <v>Twitter - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb)&lt;br&gt;Web Mining - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/02_intro_python_webmining.ipynb)&lt;br&gt;Visualizations - Seaborn - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/03_visualization_python_seaborn.ipynb)&lt;br&gt;Strings - Regular Expressions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/04_strings_and_regular_expressions.ipynb)&lt;br&gt;Feature Dummies - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/05_features_dummies.ipynb)&lt;br&gt;Assignment 3 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/hm-03/hm03.ipynb)</v>
+      </c>
+      <c r="G23" s="72" t="str">
+        <f>IF(A23&lt;&gt;A24,F23,"")</f>
+        <v>Twitter - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb)&lt;br&gt;Web Mining - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/02_intro_python_webmining.ipynb)&lt;br&gt;Visualizations - Seaborn - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/03_visualization_python_seaborn.ipynb)&lt;br&gt;Strings - Regular Expressions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/04_strings_and_regular_expressions.ipynb)&lt;br&gt;Feature Dummies - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/05_features_dummies.ipynb)&lt;br&gt;Assignment 3 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/hm-03/hm03.ipynb)</v>
+      </c>
+      <c r="H23" s="72" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="I23" s="72" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">
+  - title: What is Jupyter?
+    url: /notebooks/01-what-is-jupyter
+    not_numbered: true
+  - title: Notebook Basics
+    url: /notebooks/02-notebook-basics
+    not_numbered: true
+  - title: Running Code
+    url: /notebooks/03-running-code
+    not_numbered: true
+  - title: Markdown
+    url: /notebooks/04-markdown
+    not_numbered: true
+  - title: Python Overview
+    url: /notebooks/05-intro-python-overview
+    not_numbered: true
+  - title: Basic Data Structures
+    url: /notebooks/06-intro-python-datastructures
+    not_numbered: true
+  - title: Numpy
+    url: /notebooks/07-intro-python-numpy
+    not_numbered: true
+  - title: Pandas
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="45">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>829</v>
-      </c>
-      <c r="C24" t="s">
-        <v>835</v>
-      </c>
-      <c r="D24" s="72" t="str">
-        <f t="shared" si="0"/>
-        <v>Assignment 3 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/hm-03/hm03.ipynb)</v>
+        <v>833</v>
+      </c>
+      <c r="D24" t="s">
+        <v>846</v>
       </c>
       <c r="E24" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>Twitter - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb)&lt;br&gt;Web Mining - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/02_intro_python_webmining.ipynb)&lt;br&gt;Visualizations - Seaborn - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/03_visualization_python_seaborn.ipynb)&lt;br&gt;Strings - Regular Expressions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/04_strings_and_regular_expressions.ipynb)&lt;br&gt;Feature Dummies - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/05_features_dummies.ipynb)&lt;br&gt;Assignment 3 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/hm-03/hm03.ipynb)</v>
+        <f>CONCATENATE(B24," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D24,")")</f>
+        <v>The Simplest Neural Network with Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)</v>
       </c>
       <c r="F24" s="72" t="str">
-        <f t="shared" si="2"/>
-        <v>Twitter - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb)&lt;br&gt;Web Mining - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/02_intro_python_webmining.ipynb)&lt;br&gt;Visualizations - Seaborn - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/03_visualization_python_seaborn.ipynb)&lt;br&gt;Strings - Regular Expressions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/04_strings_and_regular_expressions.ipynb)&lt;br&gt;Feature Dummies - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/05_features_dummies.ipynb)&lt;br&gt;Assignment 3 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/hm-03/hm03.ipynb)</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <f>IF(A24=A23,F23&amp;"&lt;br&gt;"&amp;E24,E24)</f>
+        <v>The Simplest Neural Network with Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)</v>
+      </c>
+      <c r="G24" s="72" t="str">
+        <f>IF(A24&lt;&gt;A25,F24,"")</f>
+        <v/>
+      </c>
+      <c r="H24" s="72" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I24" s="72" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">
+  - title: What is Jupyter?
+    url: /notebooks/01-what-is-jupyter
+    not_numbered: true
+  - title: Notebook Basics
+    url: /notebooks/02-notebook-basics
+    not_numbered: true
+  - title: Running Code
+    url: /notebooks/03-running-code
+    not_numbered: true
+  - title: Markdown
+    url: /notebooks/04-markdown
+    not_numbered: true
+  - title: Python Overview
+    url: /notebooks/05-intro-python-overview
+    not_numbered: true
+  - title: Basic Data Structures
+    url: /notebooks/06-intro-python-datastructures
+    not_numbered: true
+  - title: Numpy
+    url: /notebooks/07-intro-python-numpy
+    not_numbered: true
+  - title: Pandas
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="45">
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>836</v>
-      </c>
-      <c r="C25" t="s">
-        <v>849</v>
-      </c>
-      <c r="D25" s="72" t="str">
-        <f t="shared" si="0"/>
-        <v>The Simplest Neural Network with Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)</v>
+        <v>834</v>
+      </c>
+      <c r="D25" t="s">
+        <v>845</v>
       </c>
       <c r="E25" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>The Simplest Neural Network with Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)</v>
+        <f>CONCATENATE(B25," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D25,")")</f>
+        <v>Train Test Split - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb)</v>
       </c>
       <c r="F25" s="72" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(A25=A24,F24&amp;"&lt;br&gt;"&amp;E25,E25)</f>
+        <v>The Simplest Neural Network with Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)&lt;br&gt;Train Test Split - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb)</v>
+      </c>
+      <c r="G25" s="72" t="str">
+        <f>IF(A25&lt;&gt;A26,F25,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="H25" s="72" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I25" s="72" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">
+  - title: What is Jupyter?
+    url: /notebooks/01-what-is-jupyter
+    not_numbered: true
+  - title: Notebook Basics
+    url: /notebooks/02-notebook-basics
+    not_numbered: true
+  - title: Running Code
+    url: /notebooks/03-running-code
+    not_numbered: true
+  - title: Markdown
+    url: /notebooks/04-markdown
+    not_numbered: true
+  - title: Python Overview
+    url: /notebooks/05-intro-python-overview
+    not_numbered: true
+  - title: Basic Data Structures
+    url: /notebooks/06-intro-python-datastructures
+    not_numbered: true
+  - title: Numpy
+    url: /notebooks/07-intro-python-numpy
+    not_numbered: true
+  - title: Pandas
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="45">
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>837</v>
-      </c>
-      <c r="C26" t="s">
-        <v>848</v>
-      </c>
-      <c r="D26" s="72" t="str">
-        <f t="shared" si="0"/>
-        <v>Train Test Split - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb)</v>
+        <v>835</v>
+      </c>
+      <c r="D26" t="s">
+        <v>844</v>
       </c>
       <c r="E26" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>The Simplest Neural Network with Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)&lt;br&gt;Train Test Split - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb)</v>
+        <f>CONCATENATE(B26," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D26,")")</f>
+        <v>Introduction to Logistic Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/02-intro-logistic-knn.ipynb)</v>
       </c>
       <c r="F26" s="72" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(A26=A25,F25&amp;"&lt;br&gt;"&amp;E26,E26)</f>
+        <v>The Simplest Neural Network with Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)&lt;br&gt;Train Test Split - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb)&lt;br&gt;Introduction to Logistic Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/02-intro-logistic-knn.ipynb)</v>
+      </c>
+      <c r="G26" s="72" t="str">
+        <f>IF(A26&lt;&gt;A27,F26,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="H26" s="72" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I26" s="72" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">
+  - title: What is Jupyter?
+    url: /notebooks/01-what-is-jupyter
+    not_numbered: true
+  - title: Notebook Basics
+    url: /notebooks/02-notebook-basics
+    not_numbered: true
+  - title: Running Code
+    url: /notebooks/03-running-code
+    not_numbered: true
+  - title: Markdown
+    url: /notebooks/04-markdown
+    not_numbered: true
+  - title: Python Overview
+    url: /notebooks/05-intro-python-overview
+    not_numbered: true
+  - title: Basic Data Structures
+    url: /notebooks/06-intro-python-datastructures
+    not_numbered: true
+  - title: Numpy
+    url: /notebooks/07-intro-python-numpy
+    not_numbered: true
+  - title: Pandas
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="45">
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>838</v>
-      </c>
-      <c r="C27" t="s">
-        <v>847</v>
-      </c>
-      <c r="D27" s="72" t="str">
-        <f t="shared" si="0"/>
-        <v>Introduction to Logistic Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/02-intro-logistic-knn.ipynb)</v>
+        <v>836</v>
+      </c>
+      <c r="D27" t="s">
+        <v>843</v>
       </c>
       <c r="E27" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>The Simplest Neural Network with Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)&lt;br&gt;Train Test Split - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb)&lt;br&gt;Introduction to Logistic Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/02-intro-logistic-knn.ipynb)</v>
+        <f>CONCATENATE(B27," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D27,")")</f>
+        <v>K Nearest Neighbor - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/03-knn.ipynb)</v>
       </c>
       <c r="F27" s="72" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(A27=A26,F26&amp;"&lt;br&gt;"&amp;E27,E27)</f>
+        <v>The Simplest Neural Network with Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)&lt;br&gt;Train Test Split - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb)&lt;br&gt;Introduction to Logistic Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/02-intro-logistic-knn.ipynb)&lt;br&gt;K Nearest Neighbor - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/03-knn.ipynb)</v>
+      </c>
+      <c r="G27" s="72" t="str">
+        <f>IF(A27&lt;&gt;A28,F27,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="H27" s="72" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I27" s="72" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">
+  - title: What is Jupyter?
+    url: /notebooks/01-what-is-jupyter
+    not_numbered: true
+  - title: Notebook Basics
+    url: /notebooks/02-notebook-basics
+    not_numbered: true
+  - title: Running Code
+    url: /notebooks/03-running-code
+    not_numbered: true
+  - title: Markdown
+    url: /notebooks/04-markdown
+    not_numbered: true
+  - title: Python Overview
+    url: /notebooks/05-intro-python-overview
+    not_numbered: true
+  - title: Basic Data Structures
+    url: /notebooks/06-intro-python-datastructures
+    not_numbered: true
+  - title: Numpy
+    url: /notebooks/07-intro-python-numpy
+    not_numbered: true
+  - title: Pandas
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="45">
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>839</v>
-      </c>
-      <c r="C28" t="s">
-        <v>846</v>
-      </c>
-      <c r="D28" s="72" t="str">
-        <f t="shared" si="0"/>
-        <v>K Nearest Neighbor - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/03-knn.ipynb)</v>
+        <v>837</v>
+      </c>
+      <c r="D28" t="s">
+        <v>842</v>
       </c>
       <c r="E28" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>The Simplest Neural Network with Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)&lt;br&gt;Train Test Split - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb)&lt;br&gt;Introduction to Logistic Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/02-intro-logistic-knn.ipynb)&lt;br&gt;K Nearest Neighbor - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/03-knn.ipynb)</v>
+        <f>CONCATENATE(B28," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D28,")")</f>
+        <v>ROC and SVM - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/04-svm-roc.ipynb)</v>
       </c>
       <c r="F28" s="72" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(A28=A27,F27&amp;"&lt;br&gt;"&amp;E28,E28)</f>
+        <v>The Simplest Neural Network with Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)&lt;br&gt;Train Test Split - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb)&lt;br&gt;Introduction to Logistic Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/02-intro-logistic-knn.ipynb)&lt;br&gt;K Nearest Neighbor - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/03-knn.ipynb)&lt;br&gt;ROC and SVM - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/04-svm-roc.ipynb)</v>
+      </c>
+      <c r="G28" s="72" t="str">
+        <f>IF(A28&lt;&gt;A29,F28,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="H28" s="72" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I28" s="72" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">
+  - title: What is Jupyter?
+    url: /notebooks/01-what-is-jupyter
+    not_numbered: true
+  - title: Notebook Basics
+    url: /notebooks/02-notebook-basics
+    not_numbered: true
+  - title: Running Code
+    url: /notebooks/03-running-code
+    not_numbered: true
+  - title: Markdown
+    url: /notebooks/04-markdown
+    not_numbered: true
+  - title: Python Overview
+    url: /notebooks/05-intro-python-overview
+    not_numbered: true
+  - title: Basic Data Structures
+    url: /notebooks/06-intro-python-datastructures
+    not_numbered: true
+  - title: Numpy
+    url: /notebooks/07-intro-python-numpy
+    not_numbered: true
+  - title: Pandas
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="45">
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>840</v>
-      </c>
-      <c r="C29" t="s">
-        <v>845</v>
-      </c>
-      <c r="D29" s="72" t="str">
-        <f t="shared" si="0"/>
-        <v>ROC and SVM - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/04-svm-roc.ipynb)</v>
+        <v>838</v>
+      </c>
+      <c r="D29" t="s">
+        <v>841</v>
       </c>
       <c r="E29" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>The Simplest Neural Network with Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)&lt;br&gt;Train Test Split - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb)&lt;br&gt;Introduction to Logistic Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/02-intro-logistic-knn.ipynb)&lt;br&gt;K Nearest Neighbor - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/03-knn.ipynb)&lt;br&gt;ROC and SVM - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/04-svm-roc.ipynb)</v>
+        <f>CONCATENATE(B29," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D29,")")</f>
+        <v>HM5A Visualization &amp; Screen Scraping - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05A.ipynb)</v>
       </c>
       <c r="F29" s="72" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(A29=A28,F28&amp;"&lt;br&gt;"&amp;E29,E29)</f>
+        <v>The Simplest Neural Network with Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)&lt;br&gt;Train Test Split - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb)&lt;br&gt;Introduction to Logistic Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/02-intro-logistic-knn.ipynb)&lt;br&gt;K Nearest Neighbor - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/03-knn.ipynb)&lt;br&gt;ROC and SVM - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/04-svm-roc.ipynb)&lt;br&gt;HM5A Visualization &amp; Screen Scraping - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05A.ipynb)</v>
+      </c>
+      <c r="G29" s="72" t="str">
+        <f>IF(A29&lt;&gt;A30,F29,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="H29" s="72" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I29" s="72" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">
+  - title: What is Jupyter?
+    url: /notebooks/01-what-is-jupyter
+    not_numbered: true
+  - title: Notebook Basics
+    url: /notebooks/02-notebook-basics
+    not_numbered: true
+  - title: Running Code
+    url: /notebooks/03-running-code
+    not_numbered: true
+  - title: Markdown
+    url: /notebooks/04-markdown
+    not_numbered: true
+  - title: Python Overview
+    url: /notebooks/05-intro-python-overview
+    not_numbered: true
+  - title: Basic Data Structures
+    url: /notebooks/06-intro-python-datastructures
+    not_numbered: true
+  - title: Numpy
+    url: /notebooks/07-intro-python-numpy
+    not_numbered: true
+  - title: Pandas
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="45">
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>841</v>
-      </c>
-      <c r="C30" t="s">
-        <v>844</v>
-      </c>
-      <c r="D30" s="72" t="str">
-        <f t="shared" si="0"/>
-        <v>HM5A Visualization &amp; Screen Scraping - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05A.ipynb)</v>
+        <v>839</v>
+      </c>
+      <c r="D30" t="s">
+        <v>840</v>
       </c>
       <c r="E30" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>The Simplest Neural Network with Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)&lt;br&gt;Train Test Split - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb)&lt;br&gt;Introduction to Logistic Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/02-intro-logistic-knn.ipynb)&lt;br&gt;K Nearest Neighbor - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/03-knn.ipynb)&lt;br&gt;ROC and SVM - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/04-svm-roc.ipynb)&lt;br&gt;HM5A Visualization &amp; Screen Scraping - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05A.ipynb)</v>
+        <f>CONCATENATE(B30," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D30,")")</f>
+        <v>HM5B Intro Modeling - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05B.ipynb)</v>
       </c>
       <c r="F30" s="72" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(A30=A29,F29&amp;"&lt;br&gt;"&amp;E30,E30)</f>
+        <v>The Simplest Neural Network with Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)&lt;br&gt;Train Test Split - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb)&lt;br&gt;Introduction to Logistic Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/02-intro-logistic-knn.ipynb)&lt;br&gt;K Nearest Neighbor - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/03-knn.ipynb)&lt;br&gt;ROC and SVM - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/04-svm-roc.ipynb)&lt;br&gt;HM5A Visualization &amp; Screen Scraping - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05A.ipynb)&lt;br&gt;HM5B Intro Modeling - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05B.ipynb)</v>
+      </c>
+      <c r="G30" s="72" t="str">
+        <f>IF(A30&lt;&gt;A31,F30,"")</f>
+        <v>The Simplest Neural Network with Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)&lt;br&gt;Train Test Split - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb)&lt;br&gt;Introduction to Logistic Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/02-intro-logistic-knn.ipynb)&lt;br&gt;K Nearest Neighbor - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/03-knn.ipynb)&lt;br&gt;ROC and SVM - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/04-svm-roc.ipynb)&lt;br&gt;HM5A Visualization &amp; Screen Scraping - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05A.ipynb)&lt;br&gt;HM5B Intro Modeling - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05B.ipynb)</v>
+      </c>
+      <c r="H30" s="72" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="I30" s="72" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">
+  - title: What is Jupyter?
+    url: /notebooks/01-what-is-jupyter
+    not_numbered: true
+  - title: Notebook Basics
+    url: /notebooks/02-notebook-basics
+    not_numbered: true
+  - title: Running Code
+    url: /notebooks/03-running-code
+    not_numbered: true
+  - title: Markdown
+    url: /notebooks/04-markdown
+    not_numbered: true
+  - title: Python Overview
+    url: /notebooks/05-intro-python-overview
+    not_numbered: true
+  - title: Basic Data Structures
+    url: /notebooks/06-intro-python-datastructures
+    not_numbered: true
+  - title: Numpy
+    url: /notebooks/07-intro-python-numpy
+    not_numbered: true
+  - title: Pandas
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="45">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>842</v>
-      </c>
-      <c r="C31" t="s">
-        <v>843</v>
-      </c>
-      <c r="D31" s="72" t="str">
-        <f t="shared" si="0"/>
-        <v>HM5B Intro Modeling - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05B.ipynb)</v>
+        <v>847</v>
+      </c>
+      <c r="D31" t="s">
+        <v>850</v>
       </c>
       <c r="E31" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>The Simplest Neural Network with Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)&lt;br&gt;Train Test Split - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb)&lt;br&gt;Introduction to Logistic Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/02-intro-logistic-knn.ipynb)&lt;br&gt;K Nearest Neighbor - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/03-knn.ipynb)&lt;br&gt;ROC and SVM - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/04-svm-roc.ipynb)&lt;br&gt;HM5A Visualization &amp; Screen Scraping - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05A.ipynb)&lt;br&gt;HM5B Intro Modeling - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05B.ipynb)</v>
+        <f>CONCATENATE(B31," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D31,")")</f>
+        <v>Matrix Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/01-matrix-regression-gradient-decent-python.ipynb)</v>
       </c>
       <c r="F31" s="72" t="str">
-        <f t="shared" si="2"/>
-        <v>The Simplest Neural Network with Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)&lt;br&gt;Train Test Split - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb)&lt;br&gt;Introduction to Logistic Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/02-intro-logistic-knn.ipynb)&lt;br&gt;K Nearest Neighbor - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/03-knn.ipynb)&lt;br&gt;ROC and SVM - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/04-svm-roc.ipynb)&lt;br&gt;HM5A Visualization &amp; Screen Scraping - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05A.ipynb)&lt;br&gt;HM5B Intro Modeling - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05B.ipynb)</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <f>IF(A31=A30,F30&amp;"&lt;br&gt;"&amp;E31,E31)</f>
+        <v>Matrix Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/01-matrix-regression-gradient-decent-python.ipynb)</v>
+      </c>
+      <c r="G31" s="72" t="str">
+        <f>IF(A31&lt;&gt;A32,F31,"")</f>
+        <v/>
+      </c>
+      <c r="H31" s="72" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I31" s="72" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">
+  - title: What is Jupyter?
+    url: /notebooks/01-what-is-jupyter
+    not_numbered: true
+  - title: Notebook Basics
+    url: /notebooks/02-notebook-basics
+    not_numbered: true
+  - title: Running Code
+    url: /notebooks/03-running-code
+    not_numbered: true
+  - title: Markdown
+    url: /notebooks/04-markdown
+    not_numbered: true
+  - title: Python Overview
+    url: /notebooks/05-intro-python-overview
+    not_numbered: true
+  - title: Basic Data Structures
+    url: /notebooks/06-intro-python-datastructures
+    not_numbered: true
+  - title: Numpy
+    url: /notebooks/07-intro-python-numpy
+    not_numbered: true
+  - title: Pandas
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="45">
         <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>850</v>
-      </c>
-      <c r="C32" t="s">
-        <v>853</v>
-      </c>
-      <c r="D32" s="72" t="str">
-        <f t="shared" si="0"/>
-        <v>Matrix Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/01-matrix-regression-gradient-decent-python.ipynb)</v>
+        <v>848</v>
+      </c>
+      <c r="D32" t="s">
+        <v>851</v>
       </c>
       <c r="E32" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>Matrix Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/01-matrix-regression-gradient-decent-python.ipynb)</v>
+        <f>CONCATENATE(B32," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D32,")")</f>
+        <v>Regression Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/02-regression-boston-housing-python.ipynb)</v>
       </c>
       <c r="F32" s="72" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(A32=A31,F31&amp;"&lt;br&gt;"&amp;E32,E32)</f>
+        <v>Matrix Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/01-matrix-regression-gradient-decent-python.ipynb)&lt;br&gt;Regression Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/02-regression-boston-housing-python.ipynb)</v>
+      </c>
+      <c r="G32" s="72" t="str">
+        <f>IF(A32&lt;&gt;A33,F32,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="H32" s="72" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I32" s="72" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">
+  - title: What is Jupyter?
+    url: /notebooks/01-what-is-jupyter
+    not_numbered: true
+  - title: Notebook Basics
+    url: /notebooks/02-notebook-basics
+    not_numbered: true
+  - title: Running Code
+    url: /notebooks/03-running-code
+    not_numbered: true
+  - title: Markdown
+    url: /notebooks/04-markdown
+    not_numbered: true
+  - title: Python Overview
+    url: /notebooks/05-intro-python-overview
+    not_numbered: true
+  - title: Basic Data Structures
+    url: /notebooks/06-intro-python-datastructures
+    not_numbered: true
+  - title: Numpy
+    url: /notebooks/07-intro-python-numpy
+    not_numbered: true
+  - title: Pandas
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="45">
         <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>851</v>
-      </c>
-      <c r="C33" t="s">
-        <v>854</v>
-      </c>
-      <c r="D33" s="72" t="str">
-        <f t="shared" si="0"/>
-        <v>Regression Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/02-regression-boston-housing-python.ipynb)</v>
+        <v>849</v>
+      </c>
+      <c r="D33" t="s">
+        <v>852</v>
       </c>
       <c r="E33" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>Matrix Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/01-matrix-regression-gradient-decent-python.ipynb)&lt;br&gt;Regression Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/02-regression-boston-housing-python.ipynb)</v>
+        <f>CONCATENATE(B33," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D33,")")</f>
+        <v>Ridge and Lasso Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb)</v>
       </c>
       <c r="F33" s="72" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(A33=A32,F32&amp;"&lt;br&gt;"&amp;E33,E33)</f>
+        <v>Matrix Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/01-matrix-regression-gradient-decent-python.ipynb)&lt;br&gt;Regression Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/02-regression-boston-housing-python.ipynb)&lt;br&gt;Ridge and Lasso Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb)</v>
+      </c>
+      <c r="G33" s="72" t="str">
+        <f>IF(A33&lt;&gt;A34,F33,"")</f>
+        <v>Matrix Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/01-matrix-regression-gradient-decent-python.ipynb)&lt;br&gt;Regression Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/02-regression-boston-housing-python.ipynb)&lt;br&gt;Ridge and Lasso Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb)</v>
+      </c>
+      <c r="H33" s="72" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="I33" s="72" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">
+  - title: What is Jupyter?
+    url: /notebooks/01-what-is-jupyter
+    not_numbered: true
+  - title: Notebook Basics
+    url: /notebooks/02-notebook-basics
+    not_numbered: true
+  - title: Running Code
+    url: /notebooks/03-running-code
+    not_numbered: true
+  - title: Markdown
+    url: /notebooks/04-markdown
+    not_numbered: true
+  - title: Python Overview
+    url: /notebooks/05-intro-python-overview
+    not_numbered: true
+  - title: Basic Data Structures
+    url: /notebooks/06-intro-python-datastructures
+    not_numbered: true
+  - title: Numpy
+    url: /notebooks/07-intro-python-numpy
+    not_numbered: true
+  - title: Pandas
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="45">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B34" t="s">
+        <v>849</v>
+      </c>
+      <c r="D34" t="s">
         <v>852</v>
       </c>
-      <c r="C34" t="s">
-        <v>855</v>
-      </c>
-      <c r="D34" s="72" t="str">
-        <f t="shared" si="0"/>
+      <c r="E34" s="72" t="str">
+        <f>CONCATENATE(B34," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D34,")")</f>
         <v>Ridge and Lasso Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb)</v>
       </c>
-      <c r="E34" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>Matrix Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/01-matrix-regression-gradient-decent-python.ipynb)&lt;br&gt;Regression Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/02-regression-boston-housing-python.ipynb)&lt;br&gt;Ridge and Lasso Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb)</v>
-      </c>
       <c r="F34" s="72" t="str">
-        <f t="shared" si="2"/>
-        <v>Matrix Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/01-matrix-regression-gradient-decent-python.ipynb)&lt;br&gt;Regression Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/02-regression-boston-housing-python.ipynb)&lt;br&gt;Ridge and Lasso Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb)</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <f>IF(A34=A33,F33&amp;"&lt;br&gt;"&amp;E34,E34)</f>
+        <v>Ridge and Lasso Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb)</v>
+      </c>
+      <c r="G34" s="72" t="str">
+        <f>IF(A34&lt;&gt;A35,F34,"")</f>
+        <v/>
+      </c>
+      <c r="H34" s="72" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I34" s="72" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">
+  - title: What is Jupyter?
+    url: /notebooks/01-what-is-jupyter
+    not_numbered: true
+  - title: Notebook Basics
+    url: /notebooks/02-notebook-basics
+    not_numbered: true
+  - title: Running Code
+    url: /notebooks/03-running-code
+    not_numbered: true
+  - title: Markdown
+    url: /notebooks/04-markdown
+    not_numbered: true
+  - title: Python Overview
+    url: /notebooks/05-intro-python-overview
+    not_numbered: true
+  - title: Basic Data Structures
+    url: /notebooks/06-intro-python-datastructures
+    not_numbered: true
+  - title: Numpy
+    url: /notebooks/07-intro-python-numpy
+    not_numbered: true
+  - title: Pandas
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="45">
         <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>852</v>
-      </c>
-      <c r="C35" t="s">
-        <v>855</v>
-      </c>
-      <c r="D35" s="72" t="str">
-        <f t="shared" si="0"/>
-        <v>Ridge and Lasso Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb)</v>
+        <v>853</v>
+      </c>
+      <c r="D35" t="s">
+        <v>854</v>
       </c>
       <c r="E35" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>Ridge and Lasso Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb)</v>
+        <f>CONCATENATE(B35," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D35,")")</f>
+        <v>PCA - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/04_introduction_pca.ipynb)</v>
       </c>
       <c r="F35" s="72" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(A35=A34,F34&amp;"&lt;br&gt;"&amp;E35,E35)</f>
+        <v>Ridge and Lasso Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb)&lt;br&gt;PCA - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/04_introduction_pca.ipynb)</v>
+      </c>
+      <c r="G35" s="72" t="str">
+        <f>IF(A35&lt;&gt;A37,F35,"")</f>
+        <v>Ridge and Lasso Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb)&lt;br&gt;PCA - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/04_introduction_pca.ipynb)</v>
+      </c>
+      <c r="H35" s="72" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="45">
-        <v>15</v>
-      </c>
-      <c r="B36" t="s">
-        <v>856</v>
-      </c>
-      <c r="C36" t="s">
-        <v>857</v>
-      </c>
-      <c r="D36" s="72" t="str">
-        <f t="shared" si="0"/>
-        <v>PCA - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/04_introduction_pca.ipynb)</v>
-      </c>
-      <c r="E36" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>Ridge and Lasso Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb)&lt;br&gt;PCA - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/04_introduction_pca.ipynb)</v>
-      </c>
-      <c r="F36" s="72" t="str">
-        <f t="shared" si="2"/>
-        <v>Ridge and Lasso Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb)&lt;br&gt;PCA - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/04_introduction_pca.ipynb)</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="I35" s="72" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">
+  - title: What is Jupyter?
+    url: /notebooks/01-what-is-jupyter
+    not_numbered: true
+  - title: Notebook Basics
+    url: /notebooks/02-notebook-basics
+    not_numbered: true
+  - title: Running Code
+    url: /notebooks/03-running-code
+    not_numbered: true
+  - title: Markdown
+    url: /notebooks/04-markdown
+    not_numbered: true
+  - title: Python Overview
+    url: /notebooks/05-intro-python-overview
+    not_numbered: true
+  - title: Basic Data Structures
+    url: /notebooks/06-intro-python-datastructures
+    not_numbered: true
+  - title: Numpy
+    url: /notebooks/07-intro-python-numpy
+    not_numbered: true
+  - title: Pandas
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -46873,7 +50868,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6"/>
@@ -46885,7 +50880,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B1" s="26" t="str">
         <f>Configuration!B2</f>
@@ -46894,7 +50889,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B2" s="18" t="str">
         <f>Configuration!B7</f>
@@ -46903,7 +50898,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B3" s="18" t="str">
         <f>Configuration!B8</f>
@@ -46912,7 +50907,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B4" s="18" t="str">
         <f>Configuration!B23</f>
@@ -46921,7 +50916,7 @@
     </row>
     <row r="5" spans="1:2" s="4" customFormat="1">
       <c r="A5" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B5" s="18" t="str">
         <f>Configuration!B24</f>
@@ -46930,7 +50925,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B6" s="18" t="str">
         <f>Configuration!B25</f>
@@ -46947,7 +50942,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6"/>
@@ -46960,13 +50955,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="28" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -47040,6 +51035,720 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007AC99D-86EC-4CD6-A46C-75C33977840D}">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="1" width="74.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="358.8">
+      <c r="A1" s="41" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="187.2">
+      <c r="A2" s="41" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="124.8">
+      <c r="A3" s="37" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" s="40" customFormat="1" ht="409.5">
+      <c r="A4" s="22" t="str">
+        <f>LOOKUP(2,1/(Schedule!T:T&lt;&gt;""),Schedule!T:T)</f>
+        <v xml:space="preserve">
+  - title: Session 1
+    url: /sessions/session1
+    not_numbered: true
+  - title: Session 2
+    url: /sessions/session2
+    not_numbered: true
+  - title: Session 3
+    url: /sessions/session3
+    not_numbered: true
+  - title: Session 4
+    url: /sessions/session4
+    not_numbered: true
+  - title: Session 5
+    url: /sessions/session5
+    not_numbered: true
+  - title: Session 6
+    url: /sessions/session6
+    not_numbered: true
+  - title: Session 7
+    url: /sessions/session7
+    not_numbered: true
+  - title: Session 8
+    url: /sessions/session8
+    not_numbered: true
+  - title: Session 9
+    url: /sessions/session9
+    not_numbered: true
+  - title: Session 10
+    url: /sessions/session10
+    not_numbered: true
+  - title: Session 11
+    url: /sessions/session11
+    not_numbered: true
+  - title: Session 12
+    url: /sessions/session12
+    not_numbered: true
+  - title: Session 13
+    url: /sessions/session13
+    not_numbered: true
+  - title: Session 14
+    url: /sessions/session14
+    not_numbered: true
+  - title: Session 15
+    url: /sessions/session15
+    not_numbered: true
+  - title: Session 16
+    url: /sessions/session16
+    not_numbered: true
+  - title: Session 17
+    url: /sessions/session17
+    not_numbered: true
+  - title: Session 18
+    url: /sessions/session18
+    not_numbered: true
+  - title: Session 19
+    url: /sessions/session19
+    not_numbered: true
+  - title: Session 20
+    url: /sessions/session20
+    not_numbered: true
+  - title: Session 21
+    url: /sessions/session21
+    not_numbered: true
+  - title: Session 22
+    url: /sessions/session22
+    not_numbered: true
+  - title: Session 23
+    url: /sessions/session23
+    not_numbered: true
+  - title: Session 24
+    url: /sessions/session24
+    not_numbered: true
+  - title: Session 25
+    url: /sessions/session25
+    not_numbered: true
+  - title: Session 26
+    url: /sessions/session26
+    not_numbered: true
+  - title: Session 27
+    url: /sessions/session27
+    not_numbered: true
+  - title: Session 28
+    url: /sessions/session28
+    not_numbered: true
+  - title: Session 29
+    url: /sessions/session29
+    not_numbered: true
+</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="78">
+      <c r="A5" s="41" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" s="40" customFormat="1" ht="392.7" customHeight="1">
+      <c r="A6" s="104" t="str">
+        <f>LOOKUP(2,1/(Notebooks!I:I&lt;&gt;""),Notebooks!I:I)</f>
+        <v xml:space="preserve">
+  - title: What is Jupyter?
+    url: /notebooks/01-what-is-jupyter
+    not_numbered: true
+  - title: Notebook Basics
+    url: /notebooks/02-notebook-basics
+    not_numbered: true
+  - title: Running Code
+    url: /notebooks/03-running-code
+    not_numbered: true
+  - title: Markdown
+    url: /notebooks/04-markdown
+    not_numbered: true
+  - title: Python Overview
+    url: /notebooks/05-intro-python-overview
+    not_numbered: true
+  - title: Basic Data Structures
+    url: /notebooks/06-intro-python-datastructures
+    not_numbered: true
+  - title: Numpy
+    url: /notebooks/07-intro-python-numpy
+    not_numbered: true
+  - title: Pandas
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="78">
+      <c r="A7" s="41" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" s="40" customFormat="1" ht="409.5">
+      <c r="A8" s="41" t="str">
+        <f>LOOKUP(2,1/(Schedule!V:V&lt;&gt;""),Schedule!V:V)</f>
+        <v xml:space="preserve">
+  - title: Assignment 1
+    url: /assignments/assign1
+    not_numbered: true
+  - title: Assignment 2
+    url: /assignments/assign2
+    not_numbered: true
+</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="390">
+      <c r="A9" s="42" t="s">
+        <v>879</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD723F0-1090-4CC1-B222-F1481869347B}">
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="1" width="6.19921875" style="26" customWidth="1"/>
+    <col min="2" max="2" width="10.296875" style="26" customWidth="1"/>
+    <col min="3" max="3" width="18.34765625" style="26" customWidth="1"/>
+    <col min="4" max="16384" width="8.796875" style="40"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="91" t="s">
+        <v>713</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>705</v>
+      </c>
+      <c r="C1" s="92" t="s">
+        <v>710</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="93">
+        <v>1</v>
+      </c>
+      <c r="B2" s="26" t="str">
+        <f>IF(A2="","",CONCATENATE("Session ",A2))</f>
+        <v>Session 1</v>
+      </c>
+      <c r="C2" s="26" t="str">
+        <f>IF(A2="","",CONCATENATE("/sessions/session",A2))</f>
+        <v>/sessions/session1</v>
+      </c>
+      <c r="D2" s="40" t="str">
+        <f>IF(A2="","","true")</f>
+        <v>true</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="93">
+        <v>2</v>
+      </c>
+      <c r="B3" s="26" t="str">
+        <f t="shared" ref="B3:B30" si="0">IF(A3="","",CONCATENATE("Session ",A3))</f>
+        <v>Session 2</v>
+      </c>
+      <c r="C3" s="26" t="str">
+        <f t="shared" ref="C3:C30" si="1">IF(A3="","",CONCATENATE("/sessions/session",A3))</f>
+        <v>/sessions/session2</v>
+      </c>
+      <c r="D3" s="40" t="str">
+        <f t="shared" ref="D3:D30" si="2">IF(A3="","","true")</f>
+        <v>true</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="93">
+        <v>3</v>
+      </c>
+      <c r="B4" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Session 3</v>
+      </c>
+      <c r="C4" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>/sessions/session3</v>
+      </c>
+      <c r="D4" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="93">
+        <v>4</v>
+      </c>
+      <c r="B5" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Session 4</v>
+      </c>
+      <c r="C5" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>/sessions/session4</v>
+      </c>
+      <c r="D5" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="93">
+        <v>5</v>
+      </c>
+      <c r="B6" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Session 5</v>
+      </c>
+      <c r="C6" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>/sessions/session5</v>
+      </c>
+      <c r="D6" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="93">
+        <v>6</v>
+      </c>
+      <c r="B7" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Session 6</v>
+      </c>
+      <c r="C7" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>/sessions/session6</v>
+      </c>
+      <c r="D7" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="93">
+        <v>7</v>
+      </c>
+      <c r="B8" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Session 7</v>
+      </c>
+      <c r="C8" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>/sessions/session7</v>
+      </c>
+      <c r="D8" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="93">
+        <v>8</v>
+      </c>
+      <c r="B9" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Session 8</v>
+      </c>
+      <c r="C9" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>/sessions/session8</v>
+      </c>
+      <c r="D9" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="93">
+        <v>9</v>
+      </c>
+      <c r="B10" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Session 9</v>
+      </c>
+      <c r="C10" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>/sessions/session9</v>
+      </c>
+      <c r="D10" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="93">
+        <v>10</v>
+      </c>
+      <c r="B11" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Session 10</v>
+      </c>
+      <c r="C11" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>/sessions/session10</v>
+      </c>
+      <c r="D11" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="93">
+        <v>11</v>
+      </c>
+      <c r="B12" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Session 11</v>
+      </c>
+      <c r="C12" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>/sessions/session11</v>
+      </c>
+      <c r="D12" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="93">
+        <v>12</v>
+      </c>
+      <c r="B13" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Session 12</v>
+      </c>
+      <c r="C13" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>/sessions/session12</v>
+      </c>
+      <c r="D13" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="93">
+        <v>13</v>
+      </c>
+      <c r="B14" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Session 13</v>
+      </c>
+      <c r="C14" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>/sessions/session13</v>
+      </c>
+      <c r="D14" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="93">
+        <v>14</v>
+      </c>
+      <c r="B15" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Session 14</v>
+      </c>
+      <c r="C15" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>/sessions/session14</v>
+      </c>
+      <c r="D15" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="93">
+        <v>15</v>
+      </c>
+      <c r="B16" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Session 15</v>
+      </c>
+      <c r="C16" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>/sessions/session15</v>
+      </c>
+      <c r="D16" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="93">
+        <v>16</v>
+      </c>
+      <c r="B17" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Session 16</v>
+      </c>
+      <c r="C17" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>/sessions/session16</v>
+      </c>
+      <c r="D17" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="93">
+        <v>17</v>
+      </c>
+      <c r="B18" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Session 17</v>
+      </c>
+      <c r="C18" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>/sessions/session17</v>
+      </c>
+      <c r="D18" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="93">
+        <v>18</v>
+      </c>
+      <c r="B19" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Session 18</v>
+      </c>
+      <c r="C19" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>/sessions/session18</v>
+      </c>
+      <c r="D19" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="93">
+        <v>19</v>
+      </c>
+      <c r="B20" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Session 19</v>
+      </c>
+      <c r="C20" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>/sessions/session19</v>
+      </c>
+      <c r="D20" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="93">
+        <v>20</v>
+      </c>
+      <c r="B21" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Session 20</v>
+      </c>
+      <c r="C21" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>/sessions/session20</v>
+      </c>
+      <c r="D21" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="93">
+        <v>21</v>
+      </c>
+      <c r="B22" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Session 21</v>
+      </c>
+      <c r="C22" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>/sessions/session21</v>
+      </c>
+      <c r="D22" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="93">
+        <v>22</v>
+      </c>
+      <c r="B23" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Session 22</v>
+      </c>
+      <c r="C23" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>/sessions/session22</v>
+      </c>
+      <c r="D23" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="93">
+        <v>23</v>
+      </c>
+      <c r="B24" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Session 23</v>
+      </c>
+      <c r="C24" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>/sessions/session23</v>
+      </c>
+      <c r="D24" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="93">
+        <v>24</v>
+      </c>
+      <c r="B25" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Session 24</v>
+      </c>
+      <c r="C25" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>/sessions/session24</v>
+      </c>
+      <c r="D25" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="93">
+        <v>25</v>
+      </c>
+      <c r="B26" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Session 25</v>
+      </c>
+      <c r="C26" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>/sessions/session25</v>
+      </c>
+      <c r="D26" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="93">
+        <v>26</v>
+      </c>
+      <c r="B27" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Session 26</v>
+      </c>
+      <c r="C27" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>/sessions/session26</v>
+      </c>
+      <c r="D27" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="93">
+        <v>27</v>
+      </c>
+      <c r="B28" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Session 27</v>
+      </c>
+      <c r="C28" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>/sessions/session27</v>
+      </c>
+      <c r="D28" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="93">
+        <v>28</v>
+      </c>
+      <c r="B29" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Session 28</v>
+      </c>
+      <c r="C29" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>/sessions/session28</v>
+      </c>
+      <c r="D29" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="93">
+        <v>29</v>
+      </c>
+      <c r="B30" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Session 29</v>
+      </c>
+      <c r="C30" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>/sessions/session29</v>
+      </c>
+      <c r="D30" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -47054,7 +51763,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="62.4">
       <c r="A1" s="22" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="409.5">
@@ -47115,428 +51824,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:D35"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="101.796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="31.2">
-      <c r="A1" s="10" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1">
-      <c r="A2" s="9" t="s">
-        <v>760</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1">
-      <c r="A3" s="9" t="s">
-        <v>761</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1">
-      <c r="A4" s="4" t="str">
-        <f>CONCATENATE("| ",Schedule!A3," | ",Schedule!B3," | ",Schedule!C3," | ",TEXT(Schedule!D3,"mm/dd")," | ",Schedule!Q3," |")</f>
-        <v>| 1 | 1 | Th | 08/29 | **Course Overview &amp; Introduction to the Data Science Lifecycle** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session1.html) |</v>
-      </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1">
-      <c r="A5" s="40" t="str">
-        <f>CONCATENATE("| ",Schedule!A4," | ",Schedule!B4," | ",Schedule!C4," | ",TEXT(Schedule!D4,"mm/dd")," | ",Schedule!Q4," |")</f>
-        <v>| 2 |  | M | 09/02 | **Labor Day - no classes (Tuesday follows Monday schedule)** &lt;br&gt;  |</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1">
-      <c r="A6" s="40" t="str">
-        <f>CONCATENATE("| ",Schedule!A5," | ",Schedule!B5," | ",Schedule!C5," | ",TEXT(Schedule!D5,"mm/dd")," | ",Schedule!Q5," |")</f>
-        <v>| 2 | 2 | Tu | 09/03 | **Python Basics** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session2.html) &lt;br&gt; *Assignment 1 due 09/17* &lt;br&gt; |</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1">
-      <c r="A7" s="40" t="str">
-        <f>CONCATENATE("| ",Schedule!A6," | ",Schedule!B6," | ",Schedule!C6," | ",TEXT(Schedule!D6,"mm/dd")," | ",Schedule!Q6," |")</f>
-        <v>| 2 | 3 | Th | 09/05 | **Python Basics** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session3.html) |</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1">
-      <c r="A8" s="40" t="str">
-        <f>CONCATENATE("| ",Schedule!A7," | ",Schedule!B7," | ",Schedule!C7," | ",TEXT(Schedule!D7,"mm/dd")," | ",Schedule!Q7," |")</f>
-        <v>| 3 | 4 | M | 09/09 | **Python conditionals, loops, functions, aggregating.** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session4.html) |</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1">
-      <c r="A9" s="40" t="str">
-        <f>CONCATENATE("| ",Schedule!A8," | ",Schedule!B8," | ",Schedule!C8," | ",TEXT(Schedule!D8,"mm/dd")," | ",Schedule!Q8," |")</f>
-        <v>| 3 | 5 | Th | 09/12 | **Python conditionals, loops, functions, aggregating (continued)** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session5.html) &lt;br&gt; *Assignment 2 due 09/26* &lt;br&gt; |</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1">
-      <c r="A10" s="40" t="str">
-        <f>CONCATENATE("| ",Schedule!A9," | ",Schedule!B9," | ",Schedule!C9," | ",TEXT(Schedule!D9,"mm/dd")," | ",Schedule!Q9," |")</f>
-        <v>| 4 | 6 | M | 09/16 | **Python visualization, data manipulation , and feature creation.** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session6.html) |</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1">
-      <c r="A11" s="40" t="str">
-        <f>CONCATENATE("| ",Schedule!A10," | ",Schedule!B10," | ",Schedule!C10," | ",TEXT(Schedule!D10,"mm/dd")," | ",Schedule!Q10," |")</f>
-        <v>| 4 | 7 | Th | 09/19 | **Python visualization, data manipulation , and feature creation (continued)** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session7.html) &lt;br&gt; *Assignment 3 due 10/03* &lt;br&gt; |</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1">
-      <c r="A12" s="40" t="str">
-        <f>CONCATENATE("| ",Schedule!A11," | ",Schedule!B11," | ",Schedule!C11," | ",TEXT(Schedule!D11,"mm/dd")," | ",Schedule!Q11," |")</f>
-        <v>| 5 | 8 | M | 09/23 | **Visualization with Tableau** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session8.html) |</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1">
-      <c r="A13" s="40" t="str">
-        <f>CONCATENATE("| ",Schedule!A12," | ",Schedule!B12," | ",Schedule!C12," | ",TEXT(Schedule!D12,"mm/dd")," | ",Schedule!Q12," |")</f>
-        <v>| 5 | 9 | Th | 09/26 | **Visualization with Tableau** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session9.html) &lt;br&gt; *Assignment 4 due 10/10* &lt;br&gt; |</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1">
-      <c r="A14" s="40" t="str">
-        <f>CONCATENATE("| ",Schedule!A13," | ",Schedule!B13," | ",Schedule!C13," | ",TEXT(Schedule!D13,"mm/dd")," | ",Schedule!Q13," |")</f>
-        <v>| 6 | 10 | M | 09/30 | **Introduction to R** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session10.html) |</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1">
-      <c r="A15" s="40" t="str">
-        <f>CONCATENATE("| ",Schedule!A14," | ",Schedule!B14," | ",Schedule!C14," | ",TEXT(Schedule!D14,"mm/dd")," | ",Schedule!Q14," |")</f>
-        <v>| 6 | 11 | Th | 10/03 | **Introduction to R** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session11.html) &lt;br&gt; *Assignment 5 due 10/17* &lt;br&gt; |</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1">
-      <c r="A16" s="40" t="str">
-        <f>CONCATENATE("| ",Schedule!A15," | ",Schedule!B15," | ",Schedule!C15," | ",TEXT(Schedule!D15,"mm/dd")," | ",Schedule!Q15," |")</f>
-        <v>| 7 | 12 | M | 10/07 | **Overview of Modeling** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session12.html) |</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="15" customHeight="1">
-      <c r="A17" s="40" t="str">
-        <f>CONCATENATE("| ",Schedule!A16," | ",Schedule!B16," | ",Schedule!C16," | ",TEXT(Schedule!D16,"mm/dd")," | ",Schedule!Q16," |")</f>
-        <v>| 7 | 13 | Th | 10/10 | **Overview of Modeling** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session13.html) &lt;br&gt; *Assignment 6 due 10/24* &lt;br&gt; |</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="15" customHeight="1">
-      <c r="A18" s="40" t="str">
-        <f>CONCATENATE("| ",Schedule!A17," | ",Schedule!B17," | ",Schedule!C17," | ",TEXT(Schedule!D17,"mm/dd")," | ",Schedule!Q17," |")</f>
-        <v>| 8 | 14 | M | 10/14 | **Review/Kaggle Project Introduction** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session14.html) |</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="15" customHeight="1">
-      <c r="A19" s="40" t="str">
-        <f>CONCATENATE("| ",Schedule!A18," | ",Schedule!B18," | ",Schedule!C18," | ",TEXT(Schedule!D18,"mm/dd")," | ",Schedule!Q18," |")</f>
-        <v>| 8 | 15 | Th | 10/17 | **Midterm** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session15.html) &lt;br&gt; *Assignment 7 due 10/31* &lt;br&gt; |</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="15" customHeight="1">
-      <c r="A20" s="40" t="str">
-        <f>CONCATENATE("| ",Schedule!A19," | ",Schedule!B19," | ",Schedule!C19," | ",TEXT(Schedule!D19,"mm/dd")," | ",Schedule!Q19," |")</f>
-        <v>| 9 | 16 | M | 10/21 | **Classification** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session16.html) |</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="15" customHeight="1">
-      <c r="A21" s="40" t="str">
-        <f>CONCATENATE("| ",Schedule!A20," | ",Schedule!B20," | ",Schedule!C20," | ",TEXT(Schedule!D20,"mm/dd")," | ",Schedule!Q20," |")</f>
-        <v>| 9 | 17 | Th | 10/24 | **Classification** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session17.html) |</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="15" customHeight="1">
-      <c r="A22" s="40" t="str">
-        <f>CONCATENATE("| ",Schedule!A21," | ",Schedule!B21," | ",Schedule!C21," | ",TEXT(Schedule!D21,"mm/dd")," | ",Schedule!Q21," |")</f>
-        <v>| 10 | 18 | M | 10/28 | **Regression** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session18.html) |</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="15" customHeight="1">
-      <c r="A23" s="40" t="str">
-        <f>CONCATENATE("| ",Schedule!A22," | ",Schedule!B22," | ",Schedule!C22," | ",TEXT(Schedule!D22,"mm/dd")," | ",Schedule!Q22," |")</f>
-        <v>| 10 | 19 | Th | 10/31 | **Regression** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session19.html) |</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="15" customHeight="1">
-      <c r="A24" s="40" t="str">
-        <f>CONCATENATE("| ",Schedule!A23," | ",Schedule!B23," | ",Schedule!C23," | ",TEXT(Schedule!D23,"mm/dd")," | ",Schedule!Q23," |")</f>
-        <v>| 11 | 20 | M | 11/04 | **Text and NLP** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session20.html) |</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="15" customHeight="1">
-      <c r="A25" s="40" t="str">
-        <f>CONCATENATE("| ",Schedule!A24," | ",Schedule!B24," | ",Schedule!C24," | ",TEXT(Schedule!D24,"mm/dd")," | ",Schedule!Q24," |")</f>
-        <v>| 11 | 21 | Th | 11/07 | **Text and NLP** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session21.html) |</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="15" customHeight="1">
-      <c r="A26" s="40" t="str">
-        <f>CONCATENATE("| ",Schedule!A25," | ",Schedule!B25," | ",Schedule!C25," | ",TEXT(Schedule!D25,"mm/dd")," | ",Schedule!Q25," |")</f>
-        <v>| 12 | 22 | M | 11/11 | **Introduction to Big Data** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session22.html) &lt;br&gt; *Assignment 8 due 11/25* &lt;br&gt; |</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="15" customHeight="1">
-      <c r="A27" s="40" t="str">
-        <f>CONCATENATE("| ",Schedule!A26," | ",Schedule!B26," | ",Schedule!C26," | ",TEXT(Schedule!D26,"mm/dd")," | ",Schedule!Q26," |")</f>
-        <v>| 12 | 23 | Th | 11/14 | **Time Series Analysis** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session23.html) |</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="15" customHeight="1">
-      <c r="A28" s="40" t="str">
-        <f>CONCATENATE("| ",Schedule!A27," | ",Schedule!B27," | ",Schedule!C27," | ",TEXT(Schedule!D27,"mm/dd")," | ",Schedule!Q27," |")</f>
-        <v>| 13 | 24 | M | 11/18 | **Image Data and Deep Learning** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session24.html) |</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="15" customHeight="1">
-      <c r="A29" s="40" t="str">
-        <f>CONCATENATE("| ",Schedule!A28," | ",Schedule!B28," | ",Schedule!C28," | ",TEXT(Schedule!D28,"mm/dd")," | ",Schedule!Q28," |")</f>
-        <v>| 13 | 25 | Th | 11/21 | **Image Data and Deep Learning** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session25.html) |</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="15.6">
-      <c r="A30" s="40" t="str">
-        <f>CONCATENATE("| ",Schedule!A29," | ",Schedule!B29," | ",Schedule!C29," | ",TEXT(Schedule!D29,"mm/dd")," | ",Schedule!Q29," |")</f>
-        <v>| 14 | 26 | M | 11/25 | **Automl and Modeling Packages** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session26.html) |</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="15.6">
-      <c r="A31" s="40" t="str">
-        <f>CONCATENATE("| ",Schedule!A30," | ",Schedule!B30," | ",Schedule!C30," | ",TEXT(Schedule!D30,"mm/dd")," | ",Schedule!Q30," |")</f>
-        <v>| 14 |  | Th | 11/28 | **Thanksgiving** &lt;br&gt;  |</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="15.6">
-      <c r="A32" s="40" t="str">
-        <f>CONCATENATE("| ",Schedule!A31," | ",Schedule!B31," | ",Schedule!C31," | ",TEXT(Schedule!D31,"mm/dd")," | ",Schedule!Q31," |")</f>
-        <v>| 15 | 27 | M | 12/02 | **Automl and Model Search** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session27.html) |</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="15.6">
-      <c r="A33" s="40" t="str">
-        <f>CONCATENATE("| ",Schedule!A32," | ",Schedule!B32," | ",Schedule!C32," | ",TEXT(Schedule!D32,"mm/dd")," | ",Schedule!Q32," |")</f>
-        <v>| 15 | 28 | Th | 12/05 | **Final Presentations** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session28.html) |</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="15.6">
-      <c r="A34" s="40" t="str">
-        <f>CONCATENATE("| ",Schedule!A33," | ",Schedule!B33," | ",Schedule!C33," | ",TEXT(Schedule!D33,"mm/dd")," | ",Schedule!Q33," |")</f>
-        <v>| 16 | 29 | M | 12/09 | **Final Presentations** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session29.html) |</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="15.6">
-      <c r="A35" s="40" t="str">
-        <f>CONCATENATE("| ",Schedule!A34," | ",Schedule!B34," | ",Schedule!C34," | ",TEXT(Schedule!D34,"mm/dd")," | ",Schedule!Q34," |")</f>
-        <v>| 17 |  | TBD | TBD | **Final Exam** &lt;br&gt;  |</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:A29"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6"/>
-  <cols>
-    <col min="1" max="1" width="79.296875" style="40" customWidth="1"/>
-    <col min="2" max="16384" width="8.796875" style="40"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="46.8">
-      <c r="A1" s="41" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="9" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="9" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="40" t="str">
-        <f>IF(Readings!F2="","",CONCATENATE("| [",Readings!A2,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Readings!A2,".html) | ",Readings!F2," |"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="40" t="str">
-        <f>IF(Readings!F3="","",CONCATENATE("| [",Readings!A3,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Readings!A3,".html) | ",Readings!F3," |"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="40" t="str">
-        <f>IF(Readings!F4="","",CONCATENATE("| [",Readings!A4,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Readings!A4,".html) | ",Readings!F4," |"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="40" t="str">
-        <f>IF(Readings!F5="","",CONCATENATE("| [",Readings!A5,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Readings!A5,".html) | ",Readings!F5," |"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="40" t="str">
-        <f>IF(Readings!F6="","",CONCATENATE("| [",Readings!A6,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Readings!A6,".html) | ",Readings!F6," |"))</f>
-        <v>| [2](https://rpi-data.github.io/course-intro-ml-app/sessions/session2.html) | [Doing Data Science (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/9781449363871)&lt;br&gt;[Data Science for Business (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/business-intelligence/9781449374273)&lt;br&gt;[Command Line Cheat Sheet](https://www.git-tower.com/blog/command-line-cheat-sheet/)&lt;br&gt;[Assignment Process](/assignments)&lt;br&gt;[Running Jupyter locally](http://rpi.analyticsdojo.com/setup/anaconda/) |</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="40" t="str">
-        <f>IF(Readings!F7="","",CONCATENATE("| [",Readings!A7,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Readings!A7,".html) | ",Readings!F7," |"))</f>
-        <v>| [4](https://rpi-data.github.io/course-intro-ml-app/sessions/session4.html) | [Principles of Data Wrangling (Chapters 1-3)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/business-intelligence/9781491938911) |</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="40" t="str">
-        <f>IF(Readings!F8="","",CONCATENATE("| [",Readings!A8,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Readings!A8,".html) | ",Readings!F8," |"))</f>
-        <v>| [6](https://rpi-data.github.io/course-intro-ml-app/sessions/session6.html) | [Introduction to Machine Learning with Python (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/programming/machine-learning/9781449369880) |</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="40" t="str">
-        <f>IF(Readings!F9="","",CONCATENATE("| [",Readings!A9,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Readings!A9,".html) | ",Readings!F9," |"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="40" t="str">
-        <f>IF(Readings!F10="","",CONCATENATE("| [",Readings!A10,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Readings!A10,".html) | ",Readings!F10," |"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="40" t="str">
-        <f>IF(Readings!F11="","",CONCATENATE("| [",Readings!A11,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Readings!A11,".html) | ",Readings!F11," |"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="40" t="str">
-        <f>IF(Readings!F12="","",CONCATENATE("| [",Readings!A12,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Readings!A12,".html) | ",Readings!F12," |"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="40" t="str">
-        <f>IF(Readings!F13="","",CONCATENATE("| [",Readings!A13,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Readings!A13,".html) | ",Readings!F13," |"))</f>
-        <v>| [8](https://rpi-data.github.io/course-intro-ml-app/sessions/session8.html) | [Install Tableau (free for students)](https://www.tableau.com/academic/students)&lt;br&gt;[Tableau - Data analytics for university students guide](https://www.tableau.com/university-students)&lt;br&gt;[Designing Great Visualizations](http://www.tableau.com/sites/default/files/media/designing-great-visualizations.pdf)&lt;br&gt;[Tableau getting Started](http://www.tableau.com/learn/tutorials/on-demand/getting-started)&lt;br&gt;[TED Talk](https://www.ted.com/talks/david_mccandless_the_beauty_of_data_visualization#t-304102) |</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="40" t="str">
-        <f>IF(Readings!F14="","",CONCATENATE("| [",Readings!A14,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Readings!A14,".html) | ",Readings!F14," |"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="40" t="str">
-        <f>IF(Readings!F15="","",CONCATENATE("| [",Readings!A15,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Readings!A15,".html) | ",Readings!F15," |"))</f>
-        <v>| [10](https://rpi-data.github.io/course-intro-ml-app/sessions/session10.html) | [R for Data Science (Chapters 1-3)](https://r4ds.had.co.nz)&lt;br&gt;[RStudio Cloud](https://rstudio.cloud) |</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="40" t="str">
-        <f>IF(Readings!F16="","",CONCATENATE("| [",Readings!A16,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Readings!A16,".html) | ",Readings!F16," |"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="40" t="str">
-        <f>IF(Readings!F17="","",CONCATENATE("| [",Readings!A17,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Readings!A17,".html) | ",Readings!F17," |"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="40" t="str">
-        <f>IF(Readings!F18="","",CONCATENATE("| [",Readings!A18,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Readings!A18,".html) | ",Readings!F18," |"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="40" t="str">
-        <f>IF(Readings!F19="","",CONCATENATE("| [",Readings!A19,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Readings!A19,".html) | ",Readings!F19," |"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="40" t="str">
-        <f>IF(Readings!F20="","",CONCATENATE("| [",Readings!A20,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Readings!A20,".html) | ",Readings!F20," |"))</f>
-        <v>| [12](https://rpi-data.github.io/course-intro-ml-app/sessions/session12.html) | [Cross Validation](https://www.analyticsvidhya.com/blog/2015/11/improve-model-performance-cross-validation-in-python-r/)&lt;br&gt;[The 10 Algorithms Machine Learning Engineers Need to Know](https://gab41.lab41.org/the-10-algorithms-machine-learning-engineers-need-to-know-f4bb63f5b2fa#.4rekzo2o1)&lt;br&gt;[15 Algorithms Machine Learning Engineers Must Need to Know](https://www.favouriteblog.com/15-algorithms-machine-learning-engineers/)&lt;br&gt;[A Tour of Machine Learning Algorithms](http://machinelearningmastery.com/a-tour-of-machine-learning-algorithms/)&lt;br&gt;[An Introduction to Machine Learning with Python (Chapter 2-3)](http://proquestcombo.safaribooksonline.com/book/programming/machine-learning/9781449369880) |</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="40" t="str">
-        <f>IF(Readings!F21="","",CONCATENATE("| [",Readings!A21,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Readings!A21,".html) | ",Readings!F21," |"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="40" t="str">
-        <f>IF(Readings!F22="","",CONCATENATE("| [",Readings!A22,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Readings!A22,".html) | ",Readings!F22," |"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="40" t="str">
-        <f>IF(Readings!F23="","",CONCATENATE("| [",Readings!A23,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Readings!A23,".html) | ",Readings!F23," |"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="40" t="str">
-        <f>IF(Readings!F24="","",CONCATENATE("| [",Readings!A24,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Readings!A24,".html) | ",Readings!F24," |"))</f>
-        <v>| [20](https://rpi-data.github.io/course-intro-ml-app/sessions/session20.html) | [The Seven Practice Areas of Text Mining](http://cdn2.hubspot.net/hubfs/2176909/Whitepaper_The_Seven_Practice_Areas_of_Text_Analytics_Chapter_2_Excerpt.pdf?t=1469213247687)&lt;br&gt;[The Amazing Power of Word Vectors](https://blog.acolyer.org/2016/04/21/the-amazing-power-of-word-vectors/)&lt;br&gt;[Bag of Words Tutorial](https://www.kaggle.com/c/word2vec-nlp-tutorial/details/part-1-for-beginners-bag-of-words)&lt;br&gt;[Word Vectors](https://www.kaggle.com/c/word2vec-nlp-tutorial/details/part-2-word-vectors) |</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="40" t="str">
-        <f>IF(Readings!F25="","",CONCATENATE("| [",Readings!A25,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Readings!A25,".html) | ",Readings!F25," |"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="40" t="str">
-        <f>IF(Readings!F26="","",CONCATENATE("| [",Readings!A26,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Readings!A26,".html) | ",Readings!F26," |"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="40" t="str">
-        <f>IF(Readings!F27="","",CONCATENATE("| [",Readings!A27,"](",Configuration!B$25,Configuration!B$24,"/sessions/session",Readings!A27,".html) | ",Readings!F27," |"))</f>
-        <v>| [23](https://rpi-data.github.io/course-intro-ml-app/sessions/session23.html) | [Introduction to Time Series](https://www.youtube.com/watch?v=d4Sn6ny_5LI)&lt;br&gt;[7 Ways Time Series Forecasting Differs from Machine Learning](https://www.datascience.com/blog/time-series-forecasting-machine-learning-differences)&lt;br&gt;[Aggregation Techniques and Cryptocurrencies](https://medium.com/python-data/time-series-aggregation-techniques-with-python-a-look-at-major-cryptocurrencies-a9eb1dd49c1b) |</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/book.xlsx
+++ b/book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjgar\Documents\RPI\clubs and activities\Metallography\course-intro-ml-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85125C19-88D6-4997-924F-BDD3969BFEA3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519CAE54-D4E6-43A1-9D72-CA8FBB9AA40D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="_config_yml" sheetId="8" state="hidden" r:id="rId5"/>
     <sheet name="toc_yml" sheetId="14" state="hidden" r:id="rId6"/>
     <sheet name="toc_yml2" sheetId="24" state="hidden" r:id="rId7"/>
-    <sheet name="toc_yml3" sheetId="25" state="hidden" r:id="rId8"/>
+    <sheet name="toc_yml3" sheetId="25" r:id="rId8"/>
     <sheet name="index_md" sheetId="10" state="hidden" r:id="rId9"/>
     <sheet name="schedule_md" sheetId="3" state="hidden" r:id="rId10"/>
     <sheet name="readings_md" sheetId="20" state="hidden" r:id="rId11"/>
@@ -3471,70 +3471,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -3554,6 +3492,68 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3874,7 +3874,7 @@
   </sheetPr>
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -4008,41 +4008,41 @@
       <c r="A17" s="24" t="s">
         <v>694</v>
       </c>
-      <c r="B17" s="82" t="s">
+      <c r="B17" s="89" t="s">
         <v>695</v>
       </c>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
     </row>
     <row r="18" spans="1:5" s="4" customFormat="1" ht="99" customHeight="1">
       <c r="A18" s="24" t="s">
         <v>869</v>
       </c>
-      <c r="B18" s="82" t="s">
+      <c r="B18" s="89" t="s">
         <v>703</v>
       </c>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
     </row>
     <row r="19" spans="1:5" s="40" customFormat="1" ht="38.1" customHeight="1">
       <c r="A19" s="24" t="s">
         <v>870</v>
       </c>
-      <c r="B19" s="83"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
     </row>
     <row r="20" spans="1:5" s="40" customFormat="1" ht="38.1" customHeight="1">
       <c r="A20" s="24" t="s">
         <v>872</v>
       </c>
-      <c r="B20" s="83"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
     </row>
     <row r="21" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="1"/>
@@ -7661,10 +7661,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A5" s="84">
+      <c r="A5" s="109">
         <v>43709</v>
       </c>
-      <c r="B5" s="85"/>
+      <c r="B5" s="110"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="6">
@@ -7707,10 +7707,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A11" s="84">
+      <c r="A11" s="109">
         <v>43739</v>
       </c>
-      <c r="B11" s="85"/>
+      <c r="B11" s="110"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="6">
@@ -7761,10 +7761,10 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A18" s="84">
+      <c r="A18" s="109">
         <v>43770</v>
       </c>
-      <c r="B18" s="85"/>
+      <c r="B18" s="110"/>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1">
       <c r="A19" s="8" t="s">
@@ -7831,10 +7831,10 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A27" s="84">
+      <c r="A27" s="109">
         <v>43800</v>
       </c>
-      <c r="B27" s="85"/>
+      <c r="B27" s="110"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1">
       <c r="A28" s="6">
@@ -7917,10 +7917,10 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A38" s="84">
+      <c r="A38" s="109">
         <v>43831</v>
       </c>
-      <c r="B38" s="85"/>
+      <c r="B38" s="110"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1">
       <c r="A39" s="8" t="s">
@@ -7971,10 +7971,10 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A45" s="84">
+      <c r="A45" s="109">
         <v>43862</v>
       </c>
-      <c r="B45" s="85"/>
+      <c r="B45" s="110"/>
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1">
       <c r="A46" s="6">
@@ -8001,10 +8001,10 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A49" s="84">
+      <c r="A49" s="109">
         <v>43891</v>
       </c>
-      <c r="B49" s="85"/>
+      <c r="B49" s="110"/>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1">
       <c r="A50" s="6">
@@ -8079,10 +8079,10 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A59" s="84">
+      <c r="A59" s="109">
         <v>43922</v>
       </c>
-      <c r="B59" s="85"/>
+      <c r="B59" s="110"/>
     </row>
     <row r="60" spans="1:2" ht="15.75" customHeight="1">
       <c r="A60" s="6">
@@ -8125,10 +8125,10 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A65" s="84">
+      <c r="A65" s="109">
         <v>43952</v>
       </c>
-      <c r="B65" s="85"/>
+      <c r="B65" s="110"/>
     </row>
     <row r="66" spans="1:2" ht="15.75" customHeight="1">
       <c r="A66" s="8" t="s">
@@ -30523,100 +30523,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="43" customFormat="1" ht="18.3" customHeight="1" thickBot="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="105" t="s">
         <v>714</v>
       </c>
-      <c r="C1" s="93" t="s">
+      <c r="C1" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="94" t="s">
+      <c r="D1" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="95" t="s">
+      <c r="E1" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="96" t="s">
+      <c r="F1" s="98" t="s">
         <v>857</v>
       </c>
-      <c r="G1" s="97"/>
-      <c r="H1" s="98" t="s">
+      <c r="G1" s="99"/>
+      <c r="H1" s="100" t="s">
         <v>867</v>
       </c>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="90" t="s">
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="103" t="s">
         <v>865</v>
       </c>
-      <c r="M1" s="90" t="s">
+      <c r="M1" s="103" t="s">
         <v>866</v>
       </c>
-      <c r="N1" s="87" t="s">
+      <c r="N1" s="92" t="s">
         <v>897</v>
       </c>
-      <c r="O1" s="88" t="s">
+      <c r="O1" s="93" t="s">
         <v>898</v>
       </c>
-      <c r="P1" s="89" t="s">
+      <c r="P1" s="91" t="s">
         <v>899</v>
       </c>
-      <c r="Q1" s="89" t="s">
+      <c r="Q1" s="91" t="s">
         <v>900</v>
       </c>
-      <c r="R1" s="89" t="s">
+      <c r="R1" s="91" t="s">
         <v>901</v>
       </c>
-      <c r="S1" s="89" t="s">
+      <c r="S1" s="91" t="s">
         <v>895</v>
       </c>
-      <c r="T1" s="89" t="s">
+      <c r="T1" s="91" t="s">
         <v>896</v>
       </c>
-      <c r="U1" s="89" t="s">
+      <c r="U1" s="91" t="s">
         <v>902</v>
       </c>
-      <c r="V1" s="89" t="s">
+      <c r="V1" s="91" t="s">
         <v>903</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="43" customFormat="1" ht="18.899999999999999" thickTop="1" thickBot="1">
-      <c r="A2" s="101"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="105" t="s">
+      <c r="A2" s="108"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="106" t="s">
+      <c r="G2" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="107" t="s">
+      <c r="H2" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="108" t="s">
+      <c r="I2" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="109" t="s">
+      <c r="J2" s="87" t="s">
         <v>864</v>
       </c>
-      <c r="K2" s="110" t="s">
+      <c r="K2" s="88" t="s">
         <v>868</v>
       </c>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="89"/>
-      <c r="T2" s="89"/>
-      <c r="U2" s="89"/>
-      <c r="V2" s="89"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
+      <c r="V2" s="91"/>
     </row>
     <row r="3" spans="1:22" ht="62.4">
       <c r="A3" s="53">
@@ -30934,7 +30934,7 @@
 </v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="156">
+    <row r="7" spans="1:22" ht="140.4">
       <c r="A7" s="53">
         <f>A4+1</f>
         <v>3</v>
@@ -48516,12 +48516,9 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="P1:P2"/>
@@ -48531,9 +48528,12 @@
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -49315,7 +49315,7 @@
     not_numbered: true</v>
       </c>
       <c r="I3" s="67" t="str">
-        <f t="shared" ref="I3:I35" si="4">I2&amp;"
+        <f t="shared" ref="I3:I13" si="4">I2&amp;"
 "&amp;H3</f>
         <v>TOC entries (grouped)
   - title: What is Jupyter?
@@ -49393,7 +49393,7 @@
         <v>What is Jupyter? - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/01-what-is-jupyter.ipynb#scrollTo=mdFTkIqGwgOJ)&lt;br&gt;Notebook Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/02-notebook-basics.ipynb)&lt;br&gt;Running Code - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/03-running-code.ipynb)&lt;br&gt;Markdown - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/04-markdown.ipynb)</v>
       </c>
       <c r="G5" s="67" t="str">
-        <f>IF(A5&lt;&gt;A6,F5,"")</f>
+        <f t="shared" ref="G5:G34" si="5">IF(A5&lt;&gt;A6,F5,"")</f>
         <v>What is Jupyter? - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/01-what-is-jupyter.ipynb#scrollTo=mdFTkIqGwgOJ)&lt;br&gt;Notebook Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/02-notebook-basics.ipynb)&lt;br&gt;Running Code - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/03-running-code.ipynb)&lt;br&gt;Markdown - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/04-markdown.ipynb)</v>
       </c>
       <c r="H5" s="67" t="str">
@@ -49433,7 +49433,7 @@
         <v>751</v>
       </c>
       <c r="E6" s="67" t="str">
-        <f>CONCATENATE(B6," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D6,")")</f>
+        <f t="shared" ref="E6:E35" si="6">CONCATENATE(B6," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D6,")")</f>
         <v>Python Overview - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/01-intro-python-overview.ipynb)</v>
       </c>
       <c r="F6" s="67" t="str">
@@ -49441,7 +49441,7 @@
         <v>Python Overview - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/01-intro-python-overview.ipynb)</v>
       </c>
       <c r="G6" s="67" t="str">
-        <f>IF(A6&lt;&gt;A7,F6,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H6" s="67" t="str">
@@ -49484,7 +49484,7 @@
         <v>752</v>
       </c>
       <c r="E7" s="67" t="str">
-        <f>CONCATENATE(B7," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D7,")")</f>
+        <f t="shared" si="6"/>
         <v>Basic Data Structures - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/02-intro-python-datastructures.ipynbhttps://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/03-intro-python-numpy.ipynb)</v>
       </c>
       <c r="F7" s="67" t="str">
@@ -49492,7 +49492,7 @@
         <v>Python Overview - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/01-intro-python-overview.ipynb)&lt;br&gt;Basic Data Structures - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/02-intro-python-datastructures.ipynbhttps://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/03-intro-python-numpy.ipynb)</v>
       </c>
       <c r="G7" s="67" t="str">
-        <f>IF(A7&lt;&gt;A8,F7,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H7" s="67" t="str">
@@ -49538,7 +49538,7 @@
         <v>753</v>
       </c>
       <c r="E8" s="67" t="str">
-        <f>CONCATENATE(B8," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D8,")")</f>
+        <f t="shared" si="6"/>
         <v>Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)</v>
       </c>
       <c r="F8" s="67" t="str">
@@ -49546,7 +49546,7 @@
         <v>Python Overview - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/01-intro-python-overview.ipynb)&lt;br&gt;Basic Data Structures - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/02-intro-python-datastructures.ipynbhttps://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/03-intro-python-numpy.ipynb)&lt;br&gt;Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)</v>
       </c>
       <c r="G8" s="67" t="str">
-        <f>IF(A8&lt;&gt;A9,F8,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H8" s="67" t="str">
@@ -49595,7 +49595,7 @@
         <v>753</v>
       </c>
       <c r="E9" s="67" t="str">
-        <f>CONCATENATE(B9," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D9,")")</f>
+        <f t="shared" si="6"/>
         <v>Pandas - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)</v>
       </c>
       <c r="F9" s="67" t="str">
@@ -49603,7 +49603,7 @@
         <v>Python Overview - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/01-intro-python-overview.ipynb)&lt;br&gt;Basic Data Structures - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/02-intro-python-datastructures.ipynbhttps://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/03-intro-python-numpy.ipynb)&lt;br&gt;Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)&lt;br&gt;Pandas - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)</v>
       </c>
       <c r="G9" s="67" t="str">
-        <f>IF(A9&lt;&gt;A10,F9,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H9" s="67" t="str">
@@ -49653,7 +49653,7 @@
         <v>754</v>
       </c>
       <c r="E10" s="67" t="str">
-        <f>CONCATENATE(B10," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D10,")")</f>
+        <f t="shared" si="6"/>
         <v>Lab - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/lab/lab.ipynb)</v>
       </c>
       <c r="F10" s="67" t="str">
@@ -49661,7 +49661,7 @@
         <v>Python Overview - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/01-intro-python-overview.ipynb)&lt;br&gt;Basic Data Structures - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/02-intro-python-datastructures.ipynbhttps://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/03-intro-python-numpy.ipynb)&lt;br&gt;Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)&lt;br&gt;Pandas - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)&lt;br&gt;Lab - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/lab/lab.ipynb)</v>
       </c>
       <c r="G10" s="67" t="str">
-        <f>IF(A10&lt;&gt;A11,F10,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H10" s="67" t="str">
@@ -49710,7 +49710,7 @@
         <v>755</v>
       </c>
       <c r="E11" s="67" t="str">
-        <f>CONCATENATE(B11," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D11,")")</f>
+        <f t="shared" si="6"/>
         <v>Assignment 1 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/hm-01/hm01.ipynb)</v>
       </c>
       <c r="F11" s="67" t="str">
@@ -49718,7 +49718,7 @@
         <v>Python Overview - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/01-intro-python-overview.ipynb)&lt;br&gt;Basic Data Structures - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/02-intro-python-datastructures.ipynbhttps://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/03-intro-python-numpy.ipynb)&lt;br&gt;Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)&lt;br&gt;Pandas - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)&lt;br&gt;Lab - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/lab/lab.ipynb)&lt;br&gt;Assignment 1 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/hm-01/hm01.ipynb)</v>
       </c>
       <c r="G11" s="67" t="str">
-        <f>IF(A11&lt;&gt;A12,F11,"")</f>
+        <f t="shared" si="5"/>
         <v>Python Overview - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/01-intro-python-overview.ipynb)&lt;br&gt;Basic Data Structures - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/02-intro-python-datastructures.ipynbhttps://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/03-intro-python-numpy.ipynb)&lt;br&gt;Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)&lt;br&gt;Pandas - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)&lt;br&gt;Lab - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/lab/lab.ipynb)&lt;br&gt;Assignment 1 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/hm-01/hm01.ipynb)</v>
       </c>
       <c r="H11" s="67" t="str">
@@ -49766,15 +49766,15 @@
         <v>809</v>
       </c>
       <c r="E12" s="67" t="str">
-        <f>CONCATENATE(B12," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D12,")")</f>
+        <f t="shared" si="6"/>
         <v>Conditional-Loops - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb)</v>
       </c>
       <c r="F12" s="67" t="str">
-        <f>IF(A12=A11,F11&amp;"&lt;br&gt;"&amp;E12,E12)</f>
+        <f t="shared" ref="F12:F35" si="7">IF(A12=A11,F11&amp;"&lt;br&gt;"&amp;E12,E12)</f>
         <v>Conditional-Loops - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb)</v>
       </c>
       <c r="G12" s="67" t="str">
-        <f>IF(A12&lt;&gt;A13,F12,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H12" s="67" t="str">
@@ -49822,15 +49822,15 @@
         <v>811</v>
       </c>
       <c r="E13" s="67" t="str">
-        <f>CONCATENATE(B13," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D13,")")</f>
+        <f t="shared" si="6"/>
         <v>Functions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/02-intro-python-functions.ipynb)</v>
       </c>
       <c r="F13" s="67" t="str">
-        <f>IF(A13=A12,F12&amp;"&lt;br&gt;"&amp;E13,E13)</f>
+        <f t="shared" si="7"/>
         <v>Conditional-Loops - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb)&lt;br&gt;Functions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/02-intro-python-functions.ipynb)</v>
       </c>
       <c r="G13" s="67" t="str">
-        <f>IF(A13&lt;&gt;A14,F13,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H13" s="67" t="str">
@@ -49878,15 +49878,15 @@
         <v>813</v>
       </c>
       <c r="E14" s="67" t="str">
-        <f>CONCATENATE(B14," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D14,")")</f>
+        <f t="shared" si="6"/>
         <v>Null Values - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/03-intro-python-null-values.ipynb)</v>
       </c>
       <c r="F14" s="67" t="str">
-        <f>IF(A14=A13,F13&amp;"&lt;br&gt;"&amp;E14,E14)</f>
+        <f t="shared" si="7"/>
         <v>Conditional-Loops - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb)&lt;br&gt;Functions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/02-intro-python-functions.ipynb)&lt;br&gt;Null Values - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/03-intro-python-null-values.ipynb)</v>
       </c>
       <c r="G14" s="67" t="str">
-        <f>IF(A14&lt;&gt;A15,F14,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H14" s="67" t="str">
@@ -49935,15 +49935,15 @@
         <v>818</v>
       </c>
       <c r="E15" s="67" t="str">
-        <f>CONCATENATE(B15," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D15,")")</f>
+        <f t="shared" si="6"/>
         <v>Groupby - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/04-intro-python-groupby.ipynb)</v>
       </c>
       <c r="F15" s="67" t="str">
-        <f>IF(A15=A14,F14&amp;"&lt;br&gt;"&amp;E15,E15)</f>
+        <f t="shared" si="7"/>
         <v>Conditional-Loops - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb)&lt;br&gt;Functions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/02-intro-python-functions.ipynb)&lt;br&gt;Null Values - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/03-intro-python-null-values.ipynb)&lt;br&gt;Groupby - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/04-intro-python-groupby.ipynb)</v>
       </c>
       <c r="G15" s="67" t="str">
-        <f>IF(A15&lt;&gt;A16,F15,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H15" s="67" t="str">
@@ -49951,7 +49951,7 @@
         <v/>
       </c>
       <c r="I15" s="67" t="str">
-        <f t="shared" ref="I15:I35" si="5">I14&amp;"
+        <f t="shared" ref="I15:I35" si="8">I14&amp;"
 "&amp;H15</f>
         <v xml:space="preserve">TOC entries (grouped)
   - title: What is Jupyter?
@@ -49992,15 +49992,15 @@
         <v>819</v>
       </c>
       <c r="E16" s="67" t="str">
-        <f>CONCATENATE(B16," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D16,")")</f>
+        <f t="shared" si="6"/>
         <v>Kaggle Baseline - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/05-intro-kaggle-baseline.ipynb)</v>
       </c>
       <c r="F16" s="67" t="str">
-        <f>IF(A16=A15,F15&amp;"&lt;br&gt;"&amp;E16,E16)</f>
+        <f t="shared" si="7"/>
         <v>Conditional-Loops - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb)&lt;br&gt;Functions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/02-intro-python-functions.ipynb)&lt;br&gt;Null Values - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/03-intro-python-null-values.ipynb)&lt;br&gt;Groupby - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/04-intro-python-groupby.ipynb)&lt;br&gt;Kaggle Baseline - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/05-intro-kaggle-baseline.ipynb)</v>
       </c>
       <c r="G16" s="67" t="str">
-        <f>IF(A16&lt;&gt;A17,F16,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H16" s="67" t="str">
@@ -50008,7 +50008,7 @@
         <v/>
       </c>
       <c r="I16" s="67" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">TOC entries (grouped)
   - title: What is Jupyter?
     url: /notebooks/01-what-is-jupyter
@@ -50048,15 +50048,15 @@
         <v>820</v>
       </c>
       <c r="E17" s="67" t="str">
-        <f>CONCATENATE(B17," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D17,")")</f>
+        <f t="shared" si="6"/>
         <v>Assignment 2 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/hm-02/hm02.ipynb)</v>
       </c>
       <c r="F17" s="67" t="str">
-        <f>IF(A17=A16,F16&amp;"&lt;br&gt;"&amp;E17,E17)</f>
+        <f t="shared" si="7"/>
         <v>Conditional-Loops - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb)&lt;br&gt;Functions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/02-intro-python-functions.ipynb)&lt;br&gt;Null Values - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/03-intro-python-null-values.ipynb)&lt;br&gt;Groupby - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/04-intro-python-groupby.ipynb)&lt;br&gt;Kaggle Baseline - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/05-intro-kaggle-baseline.ipynb)&lt;br&gt;Assignment 2 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/hm-02/hm02.ipynb)</v>
       </c>
       <c r="G17" s="67" t="str">
-        <f>IF(A17&lt;&gt;A18,F17,"")</f>
+        <f t="shared" si="5"/>
         <v>Conditional-Loops - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb)&lt;br&gt;Functions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/02-intro-python-functions.ipynb)&lt;br&gt;Null Values - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/03-intro-python-null-values.ipynb)&lt;br&gt;Groupby - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/04-intro-python-groupby.ipynb)&lt;br&gt;Kaggle Baseline - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/05-intro-kaggle-baseline.ipynb)&lt;br&gt;Assignment 2 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/hm-02/hm02.ipynb)</v>
       </c>
       <c r="H17" s="67" t="str">
@@ -50064,7 +50064,7 @@
         <v/>
       </c>
       <c r="I17" s="67" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">TOC entries (grouped)
   - title: What is Jupyter?
     url: /notebooks/01-what-is-jupyter
@@ -50104,15 +50104,15 @@
         <v>827</v>
       </c>
       <c r="E18" s="67" t="str">
-        <f>CONCATENATE(B18," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D18,")")</f>
+        <f t="shared" si="6"/>
         <v>Twitter - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb)</v>
       </c>
       <c r="F18" s="67" t="str">
-        <f>IF(A18=A17,F17&amp;"&lt;br&gt;"&amp;E18,E18)</f>
+        <f t="shared" si="7"/>
         <v>Twitter - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb)</v>
       </c>
       <c r="G18" s="67" t="str">
-        <f>IF(A18&lt;&gt;A19,F18,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H18" s="67" t="str">
@@ -50120,7 +50120,7 @@
         <v/>
       </c>
       <c r="I18" s="67" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">TOC entries (grouped)
   - title: What is Jupyter?
     url: /notebooks/01-what-is-jupyter
@@ -50160,15 +50160,15 @@
         <v>828</v>
       </c>
       <c r="E19" s="67" t="str">
-        <f>CONCATENATE(B19," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D19,")")</f>
+        <f t="shared" si="6"/>
         <v>Web Mining - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/02_intro_python_webmining.ipynb)</v>
       </c>
       <c r="F19" s="67" t="str">
-        <f>IF(A19=A18,F18&amp;"&lt;br&gt;"&amp;E19,E19)</f>
+        <f t="shared" si="7"/>
         <v>Twitter - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb)&lt;br&gt;Web Mining - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/02_intro_python_webmining.ipynb)</v>
       </c>
       <c r="G19" s="67" t="str">
-        <f>IF(A19&lt;&gt;A20,F19,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H19" s="67" t="str">
@@ -50176,7 +50176,7 @@
         <v/>
       </c>
       <c r="I19" s="67" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">TOC entries (grouped)
   - title: What is Jupyter?
     url: /notebooks/01-what-is-jupyter
@@ -50216,15 +50216,15 @@
         <v>829</v>
       </c>
       <c r="E20" s="67" t="str">
-        <f>CONCATENATE(B20," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D20,")")</f>
+        <f t="shared" si="6"/>
         <v>Visualizations - Seaborn - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/03_visualization_python_seaborn.ipynb)</v>
       </c>
       <c r="F20" s="67" t="str">
-        <f>IF(A20=A19,F19&amp;"&lt;br&gt;"&amp;E20,E20)</f>
+        <f t="shared" si="7"/>
         <v>Twitter - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb)&lt;br&gt;Web Mining - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/02_intro_python_webmining.ipynb)&lt;br&gt;Visualizations - Seaborn - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/03_visualization_python_seaborn.ipynb)</v>
       </c>
       <c r="G20" s="67" t="str">
-        <f>IF(A20&lt;&gt;A21,F20,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H20" s="67" t="str">
@@ -50232,7 +50232,7 @@
         <v/>
       </c>
       <c r="I20" s="67" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">TOC entries (grouped)
   - title: What is Jupyter?
     url: /notebooks/01-what-is-jupyter
@@ -50272,15 +50272,15 @@
         <v>830</v>
       </c>
       <c r="E21" s="67" t="str">
-        <f>CONCATENATE(B21," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D21,")")</f>
+        <f t="shared" si="6"/>
         <v>Strings - Regular Expressions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/04_strings_and_regular_expressions.ipynb)</v>
       </c>
       <c r="F21" s="67" t="str">
-        <f>IF(A21=A20,F20&amp;"&lt;br&gt;"&amp;E21,E21)</f>
+        <f t="shared" si="7"/>
         <v>Twitter - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb)&lt;br&gt;Web Mining - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/02_intro_python_webmining.ipynb)&lt;br&gt;Visualizations - Seaborn - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/03_visualization_python_seaborn.ipynb)&lt;br&gt;Strings - Regular Expressions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/04_strings_and_regular_expressions.ipynb)</v>
       </c>
       <c r="G21" s="67" t="str">
-        <f>IF(A21&lt;&gt;A22,F21,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H21" s="67" t="str">
@@ -50288,7 +50288,7 @@
         <v/>
       </c>
       <c r="I21" s="67" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">TOC entries (grouped)
   - title: What is Jupyter?
     url: /notebooks/01-what-is-jupyter
@@ -50328,15 +50328,15 @@
         <v>831</v>
       </c>
       <c r="E22" s="67" t="str">
-        <f>CONCATENATE(B22," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D22,")")</f>
+        <f t="shared" si="6"/>
         <v>Feature Dummies - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/05_features_dummies.ipynb)</v>
       </c>
       <c r="F22" s="67" t="str">
-        <f>IF(A22=A21,F21&amp;"&lt;br&gt;"&amp;E22,E22)</f>
+        <f t="shared" si="7"/>
         <v>Twitter - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb)&lt;br&gt;Web Mining - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/02_intro_python_webmining.ipynb)&lt;br&gt;Visualizations - Seaborn - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/03_visualization_python_seaborn.ipynb)&lt;br&gt;Strings - Regular Expressions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/04_strings_and_regular_expressions.ipynb)&lt;br&gt;Feature Dummies - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/05_features_dummies.ipynb)</v>
       </c>
       <c r="G22" s="67" t="str">
-        <f>IF(A22&lt;&gt;A23,F22,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H22" s="67" t="str">
@@ -50344,7 +50344,7 @@
         <v/>
       </c>
       <c r="I22" s="67" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">TOC entries (grouped)
   - title: What is Jupyter?
     url: /notebooks/01-what-is-jupyter
@@ -50384,15 +50384,15 @@
         <v>832</v>
       </c>
       <c r="E23" s="67" t="str">
-        <f>CONCATENATE(B23," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D23,")")</f>
+        <f t="shared" si="6"/>
         <v>Assignment 3 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/hm-03/hm03.ipynb)</v>
       </c>
       <c r="F23" s="67" t="str">
-        <f>IF(A23=A22,F22&amp;"&lt;br&gt;"&amp;E23,E23)</f>
+        <f t="shared" si="7"/>
         <v>Twitter - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb)&lt;br&gt;Web Mining - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/02_intro_python_webmining.ipynb)&lt;br&gt;Visualizations - Seaborn - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/03_visualization_python_seaborn.ipynb)&lt;br&gt;Strings - Regular Expressions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/04_strings_and_regular_expressions.ipynb)&lt;br&gt;Feature Dummies - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/05_features_dummies.ipynb)&lt;br&gt;Assignment 3 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/hm-03/hm03.ipynb)</v>
       </c>
       <c r="G23" s="67" t="str">
-        <f>IF(A23&lt;&gt;A24,F23,"")</f>
+        <f t="shared" si="5"/>
         <v>Twitter - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb)&lt;br&gt;Web Mining - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/02_intro_python_webmining.ipynb)&lt;br&gt;Visualizations - Seaborn - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/03_visualization_python_seaborn.ipynb)&lt;br&gt;Strings - Regular Expressions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/04_strings_and_regular_expressions.ipynb)&lt;br&gt;Feature Dummies - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/05_features_dummies.ipynb)&lt;br&gt;Assignment 3 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/hm-03/hm03.ipynb)</v>
       </c>
       <c r="H23" s="67" t="str">
@@ -50400,7 +50400,7 @@
         <v/>
       </c>
       <c r="I23" s="67" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">TOC entries (grouped)
   - title: What is Jupyter?
     url: /notebooks/01-what-is-jupyter
@@ -50440,15 +50440,15 @@
         <v>846</v>
       </c>
       <c r="E24" s="67" t="str">
-        <f>CONCATENATE(B24," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D24,")")</f>
+        <f t="shared" si="6"/>
         <v>The Simplest Neural Network with Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)</v>
       </c>
       <c r="F24" s="67" t="str">
-        <f>IF(A24=A23,F23&amp;"&lt;br&gt;"&amp;E24,E24)</f>
+        <f t="shared" si="7"/>
         <v>The Simplest Neural Network with Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)</v>
       </c>
       <c r="G24" s="67" t="str">
-        <f>IF(A24&lt;&gt;A25,F24,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H24" s="67" t="str">
@@ -50456,7 +50456,7 @@
         <v/>
       </c>
       <c r="I24" s="67" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">TOC entries (grouped)
   - title: What is Jupyter?
     url: /notebooks/01-what-is-jupyter
@@ -50496,15 +50496,15 @@
         <v>845</v>
       </c>
       <c r="E25" s="67" t="str">
-        <f>CONCATENATE(B25," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D25,")")</f>
+        <f t="shared" si="6"/>
         <v>Train Test Split - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb)</v>
       </c>
       <c r="F25" s="67" t="str">
-        <f>IF(A25=A24,F24&amp;"&lt;br&gt;"&amp;E25,E25)</f>
+        <f t="shared" si="7"/>
         <v>The Simplest Neural Network with Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)&lt;br&gt;Train Test Split - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb)</v>
       </c>
       <c r="G25" s="67" t="str">
-        <f>IF(A25&lt;&gt;A26,F25,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H25" s="67" t="str">
@@ -50512,7 +50512,7 @@
         <v/>
       </c>
       <c r="I25" s="67" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">TOC entries (grouped)
   - title: What is Jupyter?
     url: /notebooks/01-what-is-jupyter
@@ -50552,15 +50552,15 @@
         <v>844</v>
       </c>
       <c r="E26" s="67" t="str">
-        <f>CONCATENATE(B26," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D26,")")</f>
+        <f t="shared" si="6"/>
         <v>Introduction to Logistic Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/02-intro-logistic-knn.ipynb)</v>
       </c>
       <c r="F26" s="67" t="str">
-        <f>IF(A26=A25,F25&amp;"&lt;br&gt;"&amp;E26,E26)</f>
+        <f t="shared" si="7"/>
         <v>The Simplest Neural Network with Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)&lt;br&gt;Train Test Split - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb)&lt;br&gt;Introduction to Logistic Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/02-intro-logistic-knn.ipynb)</v>
       </c>
       <c r="G26" s="67" t="str">
-        <f>IF(A26&lt;&gt;A27,F26,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H26" s="67" t="str">
@@ -50568,7 +50568,7 @@
         <v/>
       </c>
       <c r="I26" s="67" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">TOC entries (grouped)
   - title: What is Jupyter?
     url: /notebooks/01-what-is-jupyter
@@ -50608,15 +50608,15 @@
         <v>843</v>
       </c>
       <c r="E27" s="67" t="str">
-        <f>CONCATENATE(B27," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D27,")")</f>
+        <f t="shared" si="6"/>
         <v>K Nearest Neighbor - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/03-knn.ipynb)</v>
       </c>
       <c r="F27" s="67" t="str">
-        <f>IF(A27=A26,F26&amp;"&lt;br&gt;"&amp;E27,E27)</f>
+        <f t="shared" si="7"/>
         <v>The Simplest Neural Network with Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)&lt;br&gt;Train Test Split - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb)&lt;br&gt;Introduction to Logistic Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/02-intro-logistic-knn.ipynb)&lt;br&gt;K Nearest Neighbor - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/03-knn.ipynb)</v>
       </c>
       <c r="G27" s="67" t="str">
-        <f>IF(A27&lt;&gt;A28,F27,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H27" s="67" t="str">
@@ -50624,7 +50624,7 @@
         <v/>
       </c>
       <c r="I27" s="67" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">TOC entries (grouped)
   - title: What is Jupyter?
     url: /notebooks/01-what-is-jupyter
@@ -50664,15 +50664,15 @@
         <v>842</v>
       </c>
       <c r="E28" s="67" t="str">
-        <f>CONCATENATE(B28," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D28,")")</f>
+        <f t="shared" si="6"/>
         <v>ROC and SVM - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/04-svm-roc.ipynb)</v>
       </c>
       <c r="F28" s="67" t="str">
-        <f>IF(A28=A27,F27&amp;"&lt;br&gt;"&amp;E28,E28)</f>
+        <f t="shared" si="7"/>
         <v>The Simplest Neural Network with Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)&lt;br&gt;Train Test Split - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb)&lt;br&gt;Introduction to Logistic Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/02-intro-logistic-knn.ipynb)&lt;br&gt;K Nearest Neighbor - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/03-knn.ipynb)&lt;br&gt;ROC and SVM - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/04-svm-roc.ipynb)</v>
       </c>
       <c r="G28" s="67" t="str">
-        <f>IF(A28&lt;&gt;A29,F28,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H28" s="67" t="str">
@@ -50680,7 +50680,7 @@
         <v/>
       </c>
       <c r="I28" s="67" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">TOC entries (grouped)
   - title: What is Jupyter?
     url: /notebooks/01-what-is-jupyter
@@ -50720,15 +50720,15 @@
         <v>841</v>
       </c>
       <c r="E29" s="67" t="str">
-        <f>CONCATENATE(B29," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D29,")")</f>
+        <f t="shared" si="6"/>
         <v>HM5A Visualization &amp; Screen Scraping - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05A.ipynb)</v>
       </c>
       <c r="F29" s="67" t="str">
-        <f>IF(A29=A28,F28&amp;"&lt;br&gt;"&amp;E29,E29)</f>
+        <f t="shared" si="7"/>
         <v>The Simplest Neural Network with Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)&lt;br&gt;Train Test Split - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb)&lt;br&gt;Introduction to Logistic Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/02-intro-logistic-knn.ipynb)&lt;br&gt;K Nearest Neighbor - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/03-knn.ipynb)&lt;br&gt;ROC and SVM - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/04-svm-roc.ipynb)&lt;br&gt;HM5A Visualization &amp; Screen Scraping - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05A.ipynb)</v>
       </c>
       <c r="G29" s="67" t="str">
-        <f>IF(A29&lt;&gt;A30,F29,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H29" s="67" t="str">
@@ -50736,7 +50736,7 @@
         <v/>
       </c>
       <c r="I29" s="67" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">TOC entries (grouped)
   - title: What is Jupyter?
     url: /notebooks/01-what-is-jupyter
@@ -50776,15 +50776,15 @@
         <v>840</v>
       </c>
       <c r="E30" s="67" t="str">
-        <f>CONCATENATE(B30," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D30,")")</f>
+        <f t="shared" si="6"/>
         <v>HM5B Intro Modeling - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05B.ipynb)</v>
       </c>
       <c r="F30" s="67" t="str">
-        <f>IF(A30=A29,F29&amp;"&lt;br&gt;"&amp;E30,E30)</f>
+        <f t="shared" si="7"/>
         <v>The Simplest Neural Network with Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)&lt;br&gt;Train Test Split - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb)&lt;br&gt;Introduction to Logistic Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/02-intro-logistic-knn.ipynb)&lt;br&gt;K Nearest Neighbor - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/03-knn.ipynb)&lt;br&gt;ROC and SVM - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/04-svm-roc.ipynb)&lt;br&gt;HM5A Visualization &amp; Screen Scraping - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05A.ipynb)&lt;br&gt;HM5B Intro Modeling - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05B.ipynb)</v>
       </c>
       <c r="G30" s="67" t="str">
-        <f>IF(A30&lt;&gt;A31,F30,"")</f>
+        <f t="shared" si="5"/>
         <v>The Simplest Neural Network with Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)&lt;br&gt;Train Test Split - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb)&lt;br&gt;Introduction to Logistic Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/02-intro-logistic-knn.ipynb)&lt;br&gt;K Nearest Neighbor - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/03-knn.ipynb)&lt;br&gt;ROC and SVM - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/04-svm-roc.ipynb)&lt;br&gt;HM5A Visualization &amp; Screen Scraping - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05A.ipynb)&lt;br&gt;HM5B Intro Modeling - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05B.ipynb)</v>
       </c>
       <c r="H30" s="67" t="str">
@@ -50792,7 +50792,7 @@
         <v/>
       </c>
       <c r="I30" s="67" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">TOC entries (grouped)
   - title: What is Jupyter?
     url: /notebooks/01-what-is-jupyter
@@ -50832,15 +50832,15 @@
         <v>850</v>
       </c>
       <c r="E31" s="67" t="str">
-        <f>CONCATENATE(B31," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D31,")")</f>
+        <f t="shared" si="6"/>
         <v>Matrix Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/01-matrix-regression-gradient-decent-python.ipynb)</v>
       </c>
       <c r="F31" s="67" t="str">
-        <f>IF(A31=A30,F30&amp;"&lt;br&gt;"&amp;E31,E31)</f>
+        <f t="shared" si="7"/>
         <v>Matrix Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/01-matrix-regression-gradient-decent-python.ipynb)</v>
       </c>
       <c r="G31" s="67" t="str">
-        <f>IF(A31&lt;&gt;A32,F31,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H31" s="67" t="str">
@@ -50848,7 +50848,7 @@
         <v/>
       </c>
       <c r="I31" s="67" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">TOC entries (grouped)
   - title: What is Jupyter?
     url: /notebooks/01-what-is-jupyter
@@ -50888,15 +50888,15 @@
         <v>851</v>
       </c>
       <c r="E32" s="67" t="str">
-        <f>CONCATENATE(B32," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D32,")")</f>
+        <f t="shared" si="6"/>
         <v>Regression Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/02-regression-boston-housing-python.ipynb)</v>
       </c>
       <c r="F32" s="67" t="str">
-        <f>IF(A32=A31,F31&amp;"&lt;br&gt;"&amp;E32,E32)</f>
+        <f t="shared" si="7"/>
         <v>Matrix Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/01-matrix-regression-gradient-decent-python.ipynb)&lt;br&gt;Regression Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/02-regression-boston-housing-python.ipynb)</v>
       </c>
       <c r="G32" s="67" t="str">
-        <f>IF(A32&lt;&gt;A33,F32,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H32" s="67" t="str">
@@ -50904,7 +50904,7 @@
         <v/>
       </c>
       <c r="I32" s="67" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">TOC entries (grouped)
   - title: What is Jupyter?
     url: /notebooks/01-what-is-jupyter
@@ -50944,15 +50944,15 @@
         <v>852</v>
       </c>
       <c r="E33" s="67" t="str">
-        <f>CONCATENATE(B33," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D33,")")</f>
+        <f t="shared" si="6"/>
         <v>Ridge and Lasso Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb)</v>
       </c>
       <c r="F33" s="67" t="str">
-        <f>IF(A33=A32,F32&amp;"&lt;br&gt;"&amp;E33,E33)</f>
+        <f t="shared" si="7"/>
         <v>Matrix Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/01-matrix-regression-gradient-decent-python.ipynb)&lt;br&gt;Regression Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/02-regression-boston-housing-python.ipynb)&lt;br&gt;Ridge and Lasso Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb)</v>
       </c>
       <c r="G33" s="67" t="str">
-        <f>IF(A33&lt;&gt;A34,F33,"")</f>
+        <f t="shared" si="5"/>
         <v>Matrix Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/01-matrix-regression-gradient-decent-python.ipynb)&lt;br&gt;Regression Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/02-regression-boston-housing-python.ipynb)&lt;br&gt;Ridge and Lasso Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb)</v>
       </c>
       <c r="H33" s="67" t="str">
@@ -50960,7 +50960,7 @@
         <v/>
       </c>
       <c r="I33" s="67" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">TOC entries (grouped)
   - title: What is Jupyter?
     url: /notebooks/01-what-is-jupyter
@@ -51000,15 +51000,15 @@
         <v>852</v>
       </c>
       <c r="E34" s="67" t="str">
-        <f>CONCATENATE(B34," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D34,")")</f>
+        <f t="shared" si="6"/>
         <v>Ridge and Lasso Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb)</v>
       </c>
       <c r="F34" s="67" t="str">
-        <f>IF(A34=A33,F33&amp;"&lt;br&gt;"&amp;E34,E34)</f>
+        <f t="shared" si="7"/>
         <v>Ridge and Lasso Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb)</v>
       </c>
       <c r="G34" s="67" t="str">
-        <f>IF(A34&lt;&gt;A35,F34,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H34" s="67" t="str">
@@ -51016,7 +51016,7 @@
         <v/>
       </c>
       <c r="I34" s="67" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">TOC entries (grouped)
   - title: What is Jupyter?
     url: /notebooks/01-what-is-jupyter
@@ -51056,11 +51056,11 @@
         <v>854</v>
       </c>
       <c r="E35" s="67" t="str">
-        <f>CONCATENATE(B35," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D35,")")</f>
+        <f t="shared" si="6"/>
         <v>PCA - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/04_introduction_pca.ipynb)</v>
       </c>
       <c r="F35" s="67" t="str">
-        <f>IF(A35=A34,F34&amp;"&lt;br&gt;"&amp;E35,E35)</f>
+        <f t="shared" si="7"/>
         <v>Ridge and Lasso Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb)&lt;br&gt;PCA - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/04_introduction_pca.ipynb)</v>
       </c>
       <c r="G35" s="67" t="str">
@@ -51072,7 +51072,7 @@
         <v/>
       </c>
       <c r="I35" s="67" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">TOC entries (grouped)
   - title: What is Jupyter?
     url: /notebooks/01-what-is-jupyter
@@ -51411,7 +51411,7 @@
       </c>
     </row>
     <row r="6" spans="1:1" s="40" customFormat="1" ht="392.7" customHeight="1">
-      <c r="A6" s="86" t="str">
+      <c r="A6" s="82" t="str">
         <f>LOOKUP(2,1/(Notebooks!I:I&lt;&gt;""),Notebooks!I:I)</f>
         <v xml:space="preserve">TOC entries (grouped)
   - title: What is Jupyter?
@@ -51474,7 +51474,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6"/>

--- a/book.xlsx
+++ b/book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjgar\Documents\RPI\clubs and activities\Metallography\course-intro-ml-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9EC060-39BD-4461-AF4C-BBAF3BC87228}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316026B9-A2A9-4063-8514-EDEE3DCBB162}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,13 @@
     <sheet name="toc_yml" sheetId="14" state="hidden" r:id="rId6"/>
     <sheet name="toc_yml2" sheetId="24" state="hidden" r:id="rId7"/>
     <sheet name="Academic calendar" sheetId="5" state="hidden" r:id="rId8"/>
-    <sheet name="toc_yml3" sheetId="25" state="hidden" r:id="rId9"/>
+    <sheet name="toc_yml3" sheetId="25" r:id="rId9"/>
     <sheet name="index_md" sheetId="10" state="hidden" r:id="rId10"/>
     <sheet name="schedule_md" sheetId="3" state="hidden" r:id="rId11"/>
     <sheet name="readings_md" sheetId="20" state="hidden" r:id="rId12"/>
     <sheet name="notebooks_md" sheetId="12" state="hidden" r:id="rId13"/>
     <sheet name="assignments_md" sheetId="13" state="hidden" r:id="rId14"/>
-    <sheet name="session_md" sheetId="4" r:id="rId15"/>
+    <sheet name="session_md" sheetId="4" state="hidden" r:id="rId15"/>
     <sheet name="assign_md" sheetId="23" state="hidden" r:id="rId16"/>
     <sheet name="grading_md" sheetId="15" state="hidden" r:id="rId17"/>
     <sheet name="Sheet1" sheetId="6" state="hidden" r:id="rId18"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4143" uniqueCount="904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4145" uniqueCount="906">
   <si>
     <t>Wk</t>
   </si>
@@ -2162,11 +2162,6 @@
 [Github](https://github.com/rpi-techfundamentals/spring2019-materials) will be used for programming assignment collection. See assignments for more detailed procedures.
 [Slack](https://app.slack.com/client/TCYU5RCRK/CCZQHCNKH) will be the primary method of communication. Please download the Slack App for your mobile and desktop.
 This [Dropbox Share](https://www.dropbox.com/sh/bnxl5hiyb4fsjbw/AABJuu_Cf207LC8CSf23Sr4ha?dl=0) will include all presentations.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center;"&gt;Introduction to Machine Learning Applications&lt;/h1&gt;
----
-</t>
   </si>
   <si>
     <t>title</t>
@@ -2895,6 +2890,16 @@
     <t xml:space="preserve">&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center;"&gt;Schedule&lt;/h1&gt;
 ---
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center;"&gt;Introduction to Machine Learning Applications&lt;/h1&gt;
+</t>
+  </si>
+  <si>
+    <t>All Readings</t>
+  </si>
+  <si>
+    <t>/sessions/readings</t>
   </si>
 </sst>
 </file>
@@ -3325,7 +3330,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -3555,6 +3560,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3875,7 +3881,7 @@
   </sheetPr>
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -3896,7 +3902,7 @@
         <v>656</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="4" customFormat="1" ht="15" customHeight="1">
@@ -3957,7 +3963,7 @@
     </row>
     <row r="10" spans="1:2" s="40" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B10" s="18"/>
     </row>
@@ -3995,7 +4001,7 @@
     </row>
     <row r="15" spans="1:2" s="40" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B15" s="18"/>
     </row>
@@ -4018,7 +4024,7 @@
     </row>
     <row r="18" spans="1:5" s="4" customFormat="1" ht="99" customHeight="1">
       <c r="A18" s="24" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B18" s="89" t="s">
         <v>703</v>
@@ -4029,7 +4035,7 @@
     </row>
     <row r="19" spans="1:5" s="40" customFormat="1" ht="38.1" customHeight="1">
       <c r="A19" s="24" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B19" s="90"/>
       <c r="C19" s="90"/>
@@ -4038,7 +4044,7 @@
     </row>
     <row r="20" spans="1:5" s="40" customFormat="1" ht="38.1" customHeight="1">
       <c r="A20" s="24" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B20" s="90"/>
       <c r="C20" s="90"/>
@@ -4068,7 +4074,7 @@
         <v>668</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>669</v>
@@ -4079,7 +4085,7 @@
         <v>667</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>670</v>
@@ -4097,7 +4103,7 @@
     </row>
     <row r="28" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B28" s="17" t="s">
         <v>18</v>
@@ -4130,7 +4136,7 @@
     </row>
     <row r="31" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B31" s="17" t="s">
         <v>675</v>
@@ -4146,12 +4152,12 @@
     </row>
     <row r="33" spans="1:2" ht="18.3">
       <c r="A33" s="15" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B34" s="18" t="s">
         <v>659</v>
@@ -4159,7 +4165,7 @@
     </row>
     <row r="35" spans="1:2" ht="15" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B35" s="16" t="s">
         <v>662</v>
@@ -4167,7 +4173,7 @@
     </row>
     <row r="36" spans="1:2" ht="15" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B36" s="17" t="s">
         <v>660</v>
@@ -4175,7 +4181,7 @@
     </row>
     <row r="37" spans="1:2" ht="15" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B37" s="16" t="s">
         <v>663</v>
@@ -4183,7 +4189,7 @@
     </row>
     <row r="38" spans="1:2" ht="15" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B38" s="17" t="s">
         <v>661</v>
@@ -4191,7 +4197,7 @@
     </row>
     <row r="39" spans="1:2" ht="15" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B39" s="16" t="s">
         <v>664</v>
@@ -4199,39 +4205,39 @@
     </row>
     <row r="41" spans="1:2" ht="18.3">
       <c r="A41" s="43" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15" customHeight="1">
       <c r="A42" s="32" t="s">
+        <v>719</v>
+      </c>
+      <c r="B42" s="29" t="s">
         <v>720</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15" customHeight="1">
       <c r="A43" s="32" t="s">
+        <v>721</v>
+      </c>
+      <c r="B43" s="29" t="s">
         <v>722</v>
-      </c>
-      <c r="B43" s="29" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15" customHeight="1">
       <c r="A44" s="35" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15" customHeight="1">
       <c r="A45" s="35" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15" customHeight="1">
@@ -4239,7 +4245,7 @@
         <v>31</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15" customHeight="1">
@@ -4275,7 +4281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4284,17 +4290,19 @@
     <col min="1" max="1" width="81.546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="62.4">
+    <row r="1" spans="1:1" ht="46.8">
       <c r="A1" s="22" t="s">
-        <v>704</v>
+        <v>903</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="409.5">
-      <c r="A2" s="42" t="str">
+      <c r="A2" s="22" t="str">
         <f>CONCATENATE("## General Info
+---
 - When: ",Configuration!B4,"
 - Where: ",Configuration!B5,"
 ## Contact Info
+---
 ### ",Configuration!B7," (Instructor)
 - Email: ",Configuration!B8,"
 - Office location: ",Configuration!B9,"
@@ -4307,15 +4315,18 @@
 ",CONCATENATE("- Phone: ",IF(ISBLANK(Configuration!B16),"*N/A*",Configuration!B16),"
 ",IF(ISBLANK(Configuration!B17),"",Configuration!B17),"
 ## Course Description
+---
 ",Configuration!B18,"
-## Prerequisites
+### Prerequisites
 ",IF(ISBLANK(Configuration!B19),"*None*",Configuration!B19),"
-## Textbook
+### Textbook
 ",IF(ISBLANK(Configuration!B20),"*None*",Configuration!B20))))))</f>
         <v>## General Info
+---
 - When: Monday/Thursday 12:00 PM - 2:50 PM
 - Where: DCC 308
 ## Contact Info
+---
 ### Jason Kuruzovich (Instructor)
 - Email: kuruzj@rpi.edu
 - Office location: Pittsburgh 4108
@@ -4329,15 +4340,16 @@
 Ask technical questions related to to class to an appropriate slack channel (#homework/#lab). This will ensure that everyone can jump in and help.
 I'd prefer that you address other messages to me also through Slack (rather than email). This will enable me to turn off my email while continuing to give priority support to this class.
 ## Course Description
+---
 The [Schedule](https://rpi-data.github.io/course-intro-ml-app/schedule.html) for the course.
 The [Course Materials](https://github.com/rpi-techfundamentals/spring2019-materials), including all data and Jupyter notebooks.
 The [LMS](https://lms.rpi.edu/) will be used for submissions of projects.
 [Github](https://github.com/rpi-techfundamentals/spring2019-materials) will be used for programming assignment collection. See assignments for more detailed procedures.
 [Slack](https://app.slack.com/client/TCYU5RCRK/CCZQHCNKH) will be the primary method of communication. Please download the Slack App for your mobile and desktop.
 This [Dropbox Share](https://www.dropbox.com/sh/bnxl5hiyb4fsjbw/AABJuu_Cf207LC8CSf23Sr4ha?dl=0) will include all presentations.
-## Prerequisites
+### Prerequisites
 *None*
-## Textbook
+### Textbook
 *None*</v>
       </c>
     </row>
@@ -4367,12 +4379,12 @@
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="46.8">
       <c r="A1" s="10" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -4380,7 +4392,7 @@
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -4598,17 +4610,17 @@
   <sheetData>
     <row r="1" spans="1:1" ht="46.8">
       <c r="A1" s="41" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="9" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="9" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -4788,17 +4800,17 @@
   <sheetData>
     <row r="1" spans="1:4" ht="46.8">
       <c r="A1" s="10" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="9" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="9" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5125,17 +5137,17 @@
   <sheetData>
     <row r="1" spans="1:1" ht="46.8">
       <c r="A1" s="37" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="9" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="9" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -7573,17 +7585,17 @@
   <sheetData>
     <row r="1" spans="1:1" ht="46.8">
       <c r="A1" s="10" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="9" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="9" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -28971,11 +28983,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V956"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="15.6"/>
@@ -29008,7 +29020,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="103" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C1" s="103" t="s">
         <v>1</v>
@@ -29020,47 +29032,47 @@
         <v>3</v>
       </c>
       <c r="F1" s="96" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G1" s="97"/>
       <c r="H1" s="98" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="I1" s="99"/>
       <c r="J1" s="99"/>
       <c r="K1" s="100"/>
       <c r="L1" s="101" t="s">
+        <v>863</v>
+      </c>
+      <c r="M1" s="101" t="s">
         <v>864</v>
       </c>
-      <c r="M1" s="101" t="s">
-        <v>865</v>
-      </c>
       <c r="N1" s="107" t="s">
+        <v>895</v>
+      </c>
+      <c r="O1" s="108" t="s">
         <v>896</v>
       </c>
-      <c r="O1" s="108" t="s">
+      <c r="P1" s="91" t="s">
         <v>897</v>
       </c>
-      <c r="P1" s="91" t="s">
+      <c r="Q1" s="91" t="s">
         <v>898</v>
       </c>
-      <c r="Q1" s="91" t="s">
+      <c r="R1" s="91" t="s">
         <v>899</v>
       </c>
-      <c r="R1" s="91" t="s">
+      <c r="S1" s="91" t="s">
+        <v>893</v>
+      </c>
+      <c r="T1" s="91" t="s">
+        <v>894</v>
+      </c>
+      <c r="U1" s="91" t="s">
         <v>900</v>
       </c>
-      <c r="S1" s="91" t="s">
-        <v>894</v>
-      </c>
-      <c r="T1" s="91" t="s">
-        <v>895</v>
-      </c>
-      <c r="U1" s="91" t="s">
+      <c r="V1" s="91" t="s">
         <v>901</v>
-      </c>
-      <c r="V1" s="91" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="43" customFormat="1" ht="18.899999999999999" thickTop="1" thickBot="1">
@@ -29082,10 +29094,10 @@
         <v>7</v>
       </c>
       <c r="J2" s="87" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="K2" s="88" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="L2" s="102"/>
       <c r="M2" s="102"/>
@@ -29119,7 +29131,7 @@
         <v>101</v>
       </c>
       <c r="G3" s="59" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="L3" s="50" t="b">
         <v>0</v>
@@ -29267,7 +29279,7 @@
         <v>100</v>
       </c>
       <c r="G5" s="62" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H5" s="53">
         <v>1</v>
@@ -29277,7 +29289,7 @@
       </c>
       <c r="J5" s="58"/>
       <c r="K5" s="78" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="L5" s="71" t="b">
         <v>1</v>
@@ -29526,7 +29538,7 @@
         <v>2</v>
       </c>
       <c r="K8" s="78" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="L8" s="50" t="b">
         <v>0</v>
@@ -29713,7 +29725,7 @@
       </c>
       <c r="G10" s="57"/>
       <c r="K10" s="78" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L10" s="50" t="b">
         <v>0</v>
@@ -47042,7 +47054,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="43" customFormat="1" ht="18.3">
       <c r="A1" s="44" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B1" s="43" t="s">
         <v>6</v>
@@ -47051,13 +47063,13 @@
         <v>9</v>
       </c>
       <c r="D1" s="66" t="s">
+        <v>890</v>
+      </c>
+      <c r="E1" s="66" t="s">
         <v>891</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="F1" s="66" t="s">
         <v>892</v>
-      </c>
-      <c r="F1" s="66" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -47065,10 +47077,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D2" s="67" t="str">
         <f t="shared" ref="D2:D4" si="0">CONCATENATE("[",B2,"](",C2,")")</f>
@@ -47092,10 +47104,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D3" s="67" t="str">
         <f t="shared" si="0"/>
@@ -47119,10 +47131,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D4" s="67" t="str">
         <f t="shared" si="0"/>
@@ -47146,10 +47158,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D5" s="67" t="str">
         <f>CONCATENATE("[",B5,"](",C5,")")</f>
@@ -47169,10 +47181,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D6" s="67" t="str">
         <f t="shared" ref="D6:D27" si="3">CONCATENATE("[",B6,"](",C6,")")</f>
@@ -47192,10 +47204,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D7" s="67" t="str">
         <f t="shared" si="3"/>
@@ -47215,10 +47227,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D8" s="67" t="str">
         <f t="shared" si="3"/>
@@ -47238,10 +47250,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D9" s="67" t="str">
         <f t="shared" si="3"/>
@@ -47261,10 +47273,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="46" t="s">
+        <v>769</v>
+      </c>
+      <c r="C10" s="40" t="s">
         <v>770</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>771</v>
       </c>
       <c r="D10" s="67" t="str">
         <f t="shared" si="3"/>
@@ -47284,10 +47296,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="46" t="s">
+        <v>772</v>
+      </c>
+      <c r="C11" s="40" t="s">
         <v>773</v>
-      </c>
-      <c r="C11" s="40" t="s">
-        <v>774</v>
       </c>
       <c r="D11" s="67" t="str">
         <f t="shared" si="3"/>
@@ -47307,10 +47319,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D12" s="67" t="str">
         <f t="shared" si="3"/>
@@ -47330,10 +47342,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="46" t="s">
+        <v>776</v>
+      </c>
+      <c r="C13" s="40" t="s">
         <v>777</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>778</v>
       </c>
       <c r="D13" s="67" t="str">
         <f t="shared" si="3"/>
@@ -47353,10 +47365,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D14" s="67" t="str">
         <f t="shared" si="3"/>
@@ -47376,10 +47388,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D15" s="67" t="str">
         <f t="shared" si="3"/>
@@ -47399,10 +47411,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D16" s="67" t="str">
         <f t="shared" si="3"/>
@@ -47422,10 +47434,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D17" s="67" t="str">
         <f t="shared" si="3"/>
@@ -47445,10 +47457,10 @@
         <v>12</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D18" s="67" t="str">
         <f t="shared" si="3"/>
@@ -47468,10 +47480,10 @@
         <v>12</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D19" s="67" t="str">
         <f t="shared" si="3"/>
@@ -47491,10 +47503,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D20" s="67" t="str">
         <f t="shared" si="3"/>
@@ -47514,10 +47526,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D21" s="67" t="str">
         <f t="shared" si="3"/>
@@ -47537,10 +47549,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D22" s="67" t="str">
         <f t="shared" si="3"/>
@@ -47560,10 +47572,10 @@
         <v>20</v>
       </c>
       <c r="B23" s="40" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D23" s="67" t="str">
         <f t="shared" si="3"/>
@@ -47583,10 +47595,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D24" s="67" t="str">
         <f t="shared" si="3"/>
@@ -47606,10 +47618,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D25" s="67" t="str">
         <f t="shared" si="3"/>
@@ -47629,10 +47641,10 @@
         <v>23</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D26" s="67" t="str">
         <f t="shared" si="3"/>
@@ -47652,10 +47664,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D27" s="67" t="str">
         <f t="shared" si="3"/>
@@ -47705,31 +47717,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="43" customFormat="1" ht="18.3">
       <c r="A1" s="44" t="s">
+        <v>737</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>738</v>
       </c>
-      <c r="B1" s="43" t="s">
-        <v>739</v>
-      </c>
       <c r="C1" s="43" t="s">
+        <v>872</v>
+      </c>
+      <c r="D1" s="43" t="s">
         <v>873</v>
       </c>
-      <c r="D1" s="43" t="s">
-        <v>874</v>
-      </c>
       <c r="E1" s="66" t="s">
+        <v>890</v>
+      </c>
+      <c r="F1" s="66" t="s">
         <v>891</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="G1" s="66" t="s">
         <v>892</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="H1" s="66" t="s">
         <v>893</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="I1" s="66" t="s">
         <v>894</v>
-      </c>
-      <c r="I1" s="66" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -47737,13 +47749,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E2" s="67" t="str">
         <f>CONCATENATE(B2," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D2,")")</f>
@@ -47779,13 +47791,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E3" s="67" t="str">
         <f t="shared" ref="E3:E5" si="0">CONCATENATE(B3," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D3,")")</f>
@@ -47824,13 +47836,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E4" s="67" t="str">
         <f t="shared" si="0"/>
@@ -47872,10 +47884,10 @@
         <v>13</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E5" s="67" t="str">
         <f t="shared" si="0"/>
@@ -47917,13 +47929,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D6" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E6" s="67" t="str">
         <f t="shared" ref="E6:E35" si="6">CONCATENATE(B6," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D6,")")</f>
@@ -47968,13 +47980,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D7" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E7" s="67" t="str">
         <f t="shared" si="6"/>
@@ -48022,13 +48034,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D8" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E8" s="67" t="str">
         <f t="shared" si="6"/>
@@ -48079,13 +48091,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D9" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E9" s="67" t="str">
         <f t="shared" si="6"/>
@@ -48139,11 +48151,11 @@
         <v>2</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C10" s="46"/>
       <c r="D10" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E10" s="67" t="str">
         <f t="shared" si="6"/>
@@ -48196,11 +48208,11 @@
         <v>2</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C11" s="46"/>
       <c r="D11" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E11" s="67" t="str">
         <f t="shared" si="6"/>
@@ -48253,10 +48265,10 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
+        <v>806</v>
+      </c>
+      <c r="D12" t="s">
         <v>807</v>
-      </c>
-      <c r="D12" t="s">
-        <v>808</v>
       </c>
       <c r="E12" s="67" t="str">
         <f t="shared" si="6"/>
@@ -48309,10 +48321,10 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
+        <v>808</v>
+      </c>
+      <c r="D13" t="s">
         <v>809</v>
-      </c>
-      <c r="D13" t="s">
-        <v>810</v>
       </c>
       <c r="E13" s="67" t="str">
         <f t="shared" si="6"/>
@@ -48365,10 +48377,10 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
+        <v>810</v>
+      </c>
+      <c r="D14" t="s">
         <v>811</v>
-      </c>
-      <c r="D14" t="s">
-        <v>812</v>
       </c>
       <c r="E14" s="67" t="str">
         <f t="shared" si="6"/>
@@ -48422,10 +48434,10 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D15" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E15" s="67" t="str">
         <f t="shared" si="6"/>
@@ -48479,10 +48491,10 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D16" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E16" s="67" t="str">
         <f t="shared" si="6"/>
@@ -48535,10 +48547,10 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D17" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E17" s="67" t="str">
         <f t="shared" si="6"/>
@@ -48591,10 +48603,10 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D18" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E18" s="67" t="str">
         <f t="shared" si="6"/>
@@ -48647,10 +48659,10 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D19" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E19" s="67" t="str">
         <f t="shared" si="6"/>
@@ -48703,10 +48715,10 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D20" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E20" s="67" t="str">
         <f t="shared" si="6"/>
@@ -48759,10 +48771,10 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D21" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E21" s="67" t="str">
         <f t="shared" si="6"/>
@@ -48815,10 +48827,10 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D22" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E22" s="67" t="str">
         <f t="shared" si="6"/>
@@ -48871,10 +48883,10 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D23" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E23" s="67" t="str">
         <f t="shared" si="6"/>
@@ -48927,10 +48939,10 @@
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D24" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E24" s="67" t="str">
         <f t="shared" si="6"/>
@@ -48983,10 +48995,10 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D25" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E25" s="67" t="str">
         <f t="shared" si="6"/>
@@ -49039,10 +49051,10 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D26" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E26" s="67" t="str">
         <f t="shared" si="6"/>
@@ -49095,10 +49107,10 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D27" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E27" s="67" t="str">
         <f t="shared" si="6"/>
@@ -49151,10 +49163,10 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D28" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E28" s="67" t="str">
         <f t="shared" si="6"/>
@@ -49207,10 +49219,10 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D29" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E29" s="67" t="str">
         <f t="shared" si="6"/>
@@ -49263,10 +49275,10 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
+        <v>837</v>
+      </c>
+      <c r="D30" t="s">
         <v>838</v>
-      </c>
-      <c r="D30" t="s">
-        <v>839</v>
       </c>
       <c r="E30" s="67" t="str">
         <f t="shared" si="6"/>
@@ -49319,10 +49331,10 @@
         <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D31" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E31" s="67" t="str">
         <f t="shared" si="6"/>
@@ -49375,10 +49387,10 @@
         <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D32" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E32" s="67" t="str">
         <f t="shared" si="6"/>
@@ -49431,10 +49443,10 @@
         <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D33" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E33" s="67" t="str">
         <f t="shared" si="6"/>
@@ -49487,10 +49499,10 @@
         <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D34" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E34" s="67" t="str">
         <f t="shared" si="6"/>
@@ -49543,10 +49555,10 @@
         <v>15</v>
       </c>
       <c r="B35" t="s">
+        <v>851</v>
+      </c>
+      <c r="D35" t="s">
         <v>852</v>
-      </c>
-      <c r="D35" t="s">
-        <v>853</v>
       </c>
       <c r="E35" s="67" t="str">
         <f t="shared" si="6"/>
@@ -49622,7 +49634,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B1" s="26" t="str">
         <f>Configuration!B2</f>
@@ -49631,7 +49643,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B2" s="18" t="str">
         <f>Configuration!B7</f>
@@ -49640,7 +49652,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B3" s="18" t="str">
         <f>Configuration!B8</f>
@@ -49649,7 +49661,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B4" s="18" t="str">
         <f>Configuration!B23</f>
@@ -49658,7 +49670,7 @@
     </row>
     <row r="5" spans="1:2" s="4" customFormat="1">
       <c r="A5" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B5" s="18" t="str">
         <f>Configuration!B24</f>
@@ -49667,7 +49679,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B6" s="18" t="str">
         <f>Configuration!B25</f>
@@ -49697,13 +49709,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="28" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -49791,17 +49803,17 @@
   <sheetData>
     <row r="1" spans="1:1" ht="358.8">
       <c r="A1" s="41" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="187.2">
       <c r="A2" s="41" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="124.8">
       <c r="A3" s="37" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="4" spans="1:1" s="40" customFormat="1" ht="409.5">
@@ -49900,7 +49912,7 @@
     </row>
     <row r="5" spans="1:1" ht="78">
       <c r="A5" s="41" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="6" spans="1:1" s="40" customFormat="1" ht="392.7" customHeight="1">
@@ -49936,7 +49948,7 @@
     </row>
     <row r="7" spans="1:1" ht="78">
       <c r="A7" s="41" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="8" spans="1:1" s="40" customFormat="1" ht="409.5">
@@ -49954,7 +49966,7 @@
     </row>
     <row r="9" spans="1:1" ht="390">
       <c r="A9" s="42" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
   </sheetData>
@@ -51562,10 +51574,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD723F0-1090-4CC1-B222-F1481869347B}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6"/>
@@ -51578,80 +51590,75 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="79" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B1" s="79" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C1" s="80" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="81">
+      <c r="A2" s="79"/>
+      <c r="B2" s="79" t="s">
+        <v>904</v>
+      </c>
+      <c r="C2" s="111" t="s">
+        <v>905</v>
+      </c>
+      <c r="D2" s="40" t="b">
         <v>1</v>
-      </c>
-      <c r="B2" s="26" t="str">
-        <f>IF(A2="","",CONCATENATE("Session ",A2))</f>
-        <v>Session 1</v>
-      </c>
-      <c r="C2" s="26" t="str">
-        <f>IF(A2="","",CONCATENATE("/sessions/session",A2))</f>
-        <v>/sessions/session1</v>
-      </c>
-      <c r="D2" s="40" t="str">
-        <f>IF(A2="","","true")</f>
-        <v>true</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="26" t="str">
-        <f t="shared" ref="B3:B30" si="0">IF(A3="","",CONCATENATE("Session ",A3))</f>
-        <v>Session 2</v>
+        <f>IF(A3="","",CONCATENATE("Session ",A3))</f>
+        <v>Session 1</v>
       </c>
       <c r="C3" s="26" t="str">
-        <f t="shared" ref="C3:C30" si="1">IF(A3="","",CONCATENATE("/sessions/session",A3))</f>
-        <v>/sessions/session2</v>
+        <f>IF(A3="","",CONCATENATE("/sessions/session",A3))</f>
+        <v>/sessions/session1</v>
       </c>
       <c r="D3" s="40" t="str">
-        <f t="shared" ref="D3:D30" si="2">IF(A3="","","true")</f>
+        <f>IF(A3="","","true")</f>
         <v>true</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="81">
+        <v>2</v>
+      </c>
+      <c r="B4" s="26" t="str">
+        <f t="shared" ref="B4:B31" si="0">IF(A4="","",CONCATENATE("Session ",A4))</f>
+        <v>Session 2</v>
+      </c>
+      <c r="C4" s="26" t="str">
+        <f t="shared" ref="C4:C31" si="1">IF(A4="","",CONCATENATE("/sessions/session",A4))</f>
+        <v>/sessions/session2</v>
+      </c>
+      <c r="D4" s="40" t="str">
+        <f t="shared" ref="D4:D31" si="2">IF(A4="","","true")</f>
+        <v>true</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="81">
         <v>3</v>
       </c>
-      <c r="B4" s="26" t="str">
+      <c r="B5" s="26" t="str">
         <f t="shared" si="0"/>
         <v>Session 3</v>
       </c>
-      <c r="C4" s="26" t="str">
+      <c r="C5" s="26" t="str">
         <f t="shared" si="1"/>
         <v>/sessions/session3</v>
-      </c>
-      <c r="D4" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v>true</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="81">
-        <v>4</v>
-      </c>
-      <c r="B5" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>Session 4</v>
-      </c>
-      <c r="C5" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v>/sessions/session4</v>
       </c>
       <c r="D5" s="40" t="str">
         <f t="shared" si="2"/>
@@ -51660,15 +51667,15 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="81">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>Session 5</v>
+        <v>Session 4</v>
       </c>
       <c r="C6" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>/sessions/session5</v>
+        <v>/sessions/session4</v>
       </c>
       <c r="D6" s="40" t="str">
         <f t="shared" si="2"/>
@@ -51677,15 +51684,15 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="81">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>Session 6</v>
+        <v>Session 5</v>
       </c>
       <c r="C7" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>/sessions/session6</v>
+        <v>/sessions/session5</v>
       </c>
       <c r="D7" s="40" t="str">
         <f t="shared" si="2"/>
@@ -51694,15 +51701,15 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="81">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>Session 7</v>
+        <v>Session 6</v>
       </c>
       <c r="C8" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>/sessions/session7</v>
+        <v>/sessions/session6</v>
       </c>
       <c r="D8" s="40" t="str">
         <f t="shared" si="2"/>
@@ -51711,15 +51718,15 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="81">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>Session 8</v>
+        <v>Session 7</v>
       </c>
       <c r="C9" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>/sessions/session8</v>
+        <v>/sessions/session7</v>
       </c>
       <c r="D9" s="40" t="str">
         <f t="shared" si="2"/>
@@ -51728,15 +51735,15 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="81">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>Session 9</v>
+        <v>Session 8</v>
       </c>
       <c r="C10" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>/sessions/session9</v>
+        <v>/sessions/session8</v>
       </c>
       <c r="D10" s="40" t="str">
         <f t="shared" si="2"/>
@@ -51745,15 +51752,15 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="81">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>Session 10</v>
+        <v>Session 9</v>
       </c>
       <c r="C11" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>/sessions/session10</v>
+        <v>/sessions/session9</v>
       </c>
       <c r="D11" s="40" t="str">
         <f t="shared" si="2"/>
@@ -51762,15 +51769,15 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="81">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>Session 11</v>
+        <v>Session 10</v>
       </c>
       <c r="C12" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>/sessions/session11</v>
+        <v>/sessions/session10</v>
       </c>
       <c r="D12" s="40" t="str">
         <f t="shared" si="2"/>
@@ -51779,15 +51786,15 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="81">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>Session 12</v>
+        <v>Session 11</v>
       </c>
       <c r="C13" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>/sessions/session12</v>
+        <v>/sessions/session11</v>
       </c>
       <c r="D13" s="40" t="str">
         <f t="shared" si="2"/>
@@ -51796,15 +51803,15 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="81">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>Session 13</v>
+        <v>Session 12</v>
       </c>
       <c r="C14" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>/sessions/session13</v>
+        <v>/sessions/session12</v>
       </c>
       <c r="D14" s="40" t="str">
         <f t="shared" si="2"/>
@@ -51813,15 +51820,15 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="81">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>Session 14</v>
+        <v>Session 13</v>
       </c>
       <c r="C15" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>/sessions/session14</v>
+        <v>/sessions/session13</v>
       </c>
       <c r="D15" s="40" t="str">
         <f t="shared" si="2"/>
@@ -51830,15 +51837,15 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="81">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>Session 15</v>
+        <v>Session 14</v>
       </c>
       <c r="C16" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>/sessions/session15</v>
+        <v>/sessions/session14</v>
       </c>
       <c r="D16" s="40" t="str">
         <f t="shared" si="2"/>
@@ -51847,15 +51854,15 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="81">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>Session 16</v>
+        <v>Session 15</v>
       </c>
       <c r="C17" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>/sessions/session16</v>
+        <v>/sessions/session15</v>
       </c>
       <c r="D17" s="40" t="str">
         <f t="shared" si="2"/>
@@ -51864,15 +51871,15 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="81">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>Session 17</v>
+        <v>Session 16</v>
       </c>
       <c r="C18" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>/sessions/session17</v>
+        <v>/sessions/session16</v>
       </c>
       <c r="D18" s="40" t="str">
         <f t="shared" si="2"/>
@@ -51881,15 +51888,15 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="81">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>Session 18</v>
+        <v>Session 17</v>
       </c>
       <c r="C19" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>/sessions/session18</v>
+        <v>/sessions/session17</v>
       </c>
       <c r="D19" s="40" t="str">
         <f t="shared" si="2"/>
@@ -51898,15 +51905,15 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="81">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>Session 19</v>
+        <v>Session 18</v>
       </c>
       <c r="C20" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>/sessions/session19</v>
+        <v>/sessions/session18</v>
       </c>
       <c r="D20" s="40" t="str">
         <f t="shared" si="2"/>
@@ -51915,15 +51922,15 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="81">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>Session 20</v>
+        <v>Session 19</v>
       </c>
       <c r="C21" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>/sessions/session20</v>
+        <v>/sessions/session19</v>
       </c>
       <c r="D21" s="40" t="str">
         <f t="shared" si="2"/>
@@ -51932,15 +51939,15 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="81">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>Session 21</v>
+        <v>Session 20</v>
       </c>
       <c r="C22" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>/sessions/session21</v>
+        <v>/sessions/session20</v>
       </c>
       <c r="D22" s="40" t="str">
         <f t="shared" si="2"/>
@@ -51949,15 +51956,15 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="81">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>Session 22</v>
+        <v>Session 21</v>
       </c>
       <c r="C23" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>/sessions/session22</v>
+        <v>/sessions/session21</v>
       </c>
       <c r="D23" s="40" t="str">
         <f t="shared" si="2"/>
@@ -51966,15 +51973,15 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="81">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>Session 23</v>
+        <v>Session 22</v>
       </c>
       <c r="C24" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>/sessions/session23</v>
+        <v>/sessions/session22</v>
       </c>
       <c r="D24" s="40" t="str">
         <f t="shared" si="2"/>
@@ -51983,15 +51990,15 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="81">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>Session 24</v>
+        <v>Session 23</v>
       </c>
       <c r="C25" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>/sessions/session24</v>
+        <v>/sessions/session23</v>
       </c>
       <c r="D25" s="40" t="str">
         <f t="shared" si="2"/>
@@ -52000,15 +52007,15 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="81">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>Session 25</v>
+        <v>Session 24</v>
       </c>
       <c r="C26" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>/sessions/session25</v>
+        <v>/sessions/session24</v>
       </c>
       <c r="D26" s="40" t="str">
         <f t="shared" si="2"/>
@@ -52017,15 +52024,15 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="81">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>Session 26</v>
+        <v>Session 25</v>
       </c>
       <c r="C27" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>/sessions/session26</v>
+        <v>/sessions/session25</v>
       </c>
       <c r="D27" s="40" t="str">
         <f t="shared" si="2"/>
@@ -52034,15 +52041,15 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="81">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>Session 27</v>
+        <v>Session 26</v>
       </c>
       <c r="C28" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>/sessions/session27</v>
+        <v>/sessions/session26</v>
       </c>
       <c r="D28" s="40" t="str">
         <f t="shared" si="2"/>
@@ -52051,15 +52058,15 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="81">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>Session 28</v>
+        <v>Session 27</v>
       </c>
       <c r="C29" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>/sessions/session28</v>
+        <v>/sessions/session27</v>
       </c>
       <c r="D29" s="40" t="str">
         <f t="shared" si="2"/>
@@ -52068,17 +52075,34 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="81">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>Session 29</v>
+        <v>Session 28</v>
       </c>
       <c r="C30" s="26" t="str">
         <f t="shared" si="1"/>
+        <v>/sessions/session28</v>
+      </c>
+      <c r="D30" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="81">
+        <v>29</v>
+      </c>
+      <c r="B31" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Session 29</v>
+      </c>
+      <c r="C31" s="26" t="str">
+        <f t="shared" si="1"/>
         <v>/sessions/session29</v>
       </c>
-      <c r="D30" s="40" t="str">
+      <c r="D31" s="40" t="str">
         <f t="shared" si="2"/>
         <v>true</v>
       </c>

--- a/book.xlsx
+++ b/book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjgar\Documents\GitHub\course-intro-ml-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132D947C-7146-44DE-889D-FE4D5A3FFEE4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3F436B-A0BC-41F4-ABE9-55730686E879}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12504" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,9 +27,8 @@
     <sheet name="notebooks_md" sheetId="12" state="hidden" r:id="rId12"/>
     <sheet name="assignments_md" sheetId="13" state="hidden" r:id="rId13"/>
     <sheet name="session_md" sheetId="4" state="hidden" r:id="rId14"/>
-    <sheet name="assign_md" sheetId="23" state="hidden" r:id="rId15"/>
-    <sheet name="grading_md" sheetId="15" state="hidden" r:id="rId16"/>
-    <sheet name="Sheet1" sheetId="6" state="hidden" r:id="rId17"/>
+    <sheet name="grading_md" sheetId="15" state="hidden" r:id="rId15"/>
+    <sheet name="Sheet1" sheetId="6" state="hidden" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4141" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4137" uniqueCount="906">
   <si>
     <t>Wk</t>
   </si>
@@ -2286,9 +2285,6 @@
     <t>Pandas</t>
   </si>
   <si>
-    <t>Lab</t>
-  </si>
-  <si>
     <t>https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/01-intro-python-overview.ipynb</t>
   </si>
   <si>
@@ -2298,9 +2294,6 @@
     <t>https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb</t>
   </si>
   <si>
-    <t>https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/lab/lab.ipynb</t>
-  </si>
-  <si>
     <t>https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/hm-01/hm01.ipynb</t>
   </si>
   <si>
@@ -2485,9 +2478,6 @@
   </si>
   <si>
     <t>Assignment 2</t>
-  </si>
-  <si>
-    <t>Assignment 1</t>
   </si>
   <si>
     <t>https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/04-intro-python-groupby.ipynb</t>
@@ -2899,6 +2889,15 @@
   </si>
   <si>
     <t xml:space="preserve"> (Whether to add numbers to chapters in your Table of Contents. If true, you can control this at the Chapter level below)</t>
+  </si>
+  <si>
+    <t>Session entries</t>
+  </si>
+  <si>
+    <t>Session entries (grouped)</t>
+  </si>
+  <si>
+    <t>Session entries (per section)</t>
   </si>
 </sst>
 </file>
@@ -3344,7 +3343,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -3533,6 +3532,13 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3935,7 +3941,7 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="B42" sqref="B42:E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="15" customHeight="1"/>
@@ -3955,56 +3961,56 @@
       <c r="A2" s="29" t="s">
         <v>656</v>
       </c>
-      <c r="B2" s="94" t="s">
-        <v>863</v>
-      </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
+      <c r="B2" s="97" t="s">
+        <v>860</v>
+      </c>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
     </row>
     <row r="3" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>691</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="95" t="s">
         <v>672</v>
       </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>694</v>
       </c>
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="95" t="s">
         <v>692</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
     </row>
     <row r="5" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>693</v>
       </c>
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="95" t="s">
         <v>695</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="B6" s="93">
+      <c r="B6" s="96">
         <v>14</v>
       </c>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
     </row>
     <row r="7" spans="1:5" s="29" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="1"/>
@@ -4014,54 +4020,54 @@
       <c r="A8" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="B8" s="92" t="s">
+      <c r="B8" s="95" t="s">
         <v>673</v>
       </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
     </row>
     <row r="9" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="B9" s="91" t="s">
+      <c r="B9" s="94" t="s">
         <v>675</v>
       </c>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
     </row>
     <row r="10" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="B10" s="93" t="s">
+      <c r="B10" s="96" t="s">
         <v>683</v>
       </c>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
     </row>
     <row r="11" spans="1:5" s="29" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>865</v>
-      </c>
-      <c r="B11" s="93"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
+        <v>862</v>
+      </c>
+      <c r="B11" s="96"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
     </row>
     <row r="12" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="B12" s="93" t="s">
+      <c r="B12" s="96" t="s">
         <v>684</v>
       </c>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
     </row>
     <row r="13" spans="1:5" s="29" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="1"/>
@@ -4071,52 +4077,52 @@
       <c r="A14" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="B14" s="93" t="s">
+      <c r="B14" s="96" t="s">
         <v>685</v>
       </c>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
     </row>
     <row r="15" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="94" t="s">
         <v>686</v>
       </c>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
     </row>
     <row r="16" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="B16" s="93" t="s">
+      <c r="B16" s="96" t="s">
         <v>687</v>
       </c>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
     </row>
     <row r="17" spans="1:6" s="29" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>865</v>
-      </c>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
+        <v>862</v>
+      </c>
+      <c r="B17" s="96"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
     </row>
     <row r="18" spans="1:6" s="29" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
     </row>
     <row r="19" spans="1:6" s="29" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="1"/>
@@ -4126,12 +4132,12 @@
       <c r="A20" s="22" t="s">
         <v>688</v>
       </c>
-      <c r="B20" s="95" t="s">
+      <c r="B20" s="98" t="s">
         <v>689</v>
       </c>
-      <c r="C20" s="95"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="95"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
     </row>
     <row r="21" spans="1:6" s="29" customFormat="1" ht="14.7" customHeight="1">
       <c r="A21" s="22"/>
@@ -4142,32 +4148,32 @@
     </row>
     <row r="22" spans="1:6" s="4" customFormat="1" ht="99" customHeight="1">
       <c r="A22" s="22" t="s">
-        <v>861</v>
-      </c>
-      <c r="B22" s="95" t="s">
+        <v>858</v>
+      </c>
+      <c r="B22" s="98" t="s">
         <v>697</v>
       </c>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
     </row>
     <row r="23" spans="1:6" s="29" customFormat="1" ht="38.1" customHeight="1">
       <c r="A23" s="22" t="s">
-        <v>862</v>
-      </c>
-      <c r="B23" s="96"/>
-      <c r="C23" s="96"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
+        <v>859</v>
+      </c>
+      <c r="B23" s="99"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
     </row>
     <row r="24" spans="1:6" s="29" customFormat="1" ht="38.1" customHeight="1">
       <c r="A24" s="22" t="s">
-        <v>864</v>
-      </c>
-      <c r="B24" s="96"/>
-      <c r="C24" s="96"/>
-      <c r="D24" s="96"/>
-      <c r="E24" s="96"/>
+        <v>861</v>
+      </c>
+      <c r="B24" s="99"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
     </row>
     <row r="25" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="1"/>
@@ -4183,39 +4189,39 @@
       <c r="A27" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="B27" s="92" t="s">
+      <c r="B27" s="95" t="s">
         <v>674</v>
       </c>
-      <c r="C27" s="92"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="95"/>
     </row>
     <row r="28" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="B28" s="92" t="s">
+      <c r="B28" s="95" t="s">
         <v>705</v>
       </c>
-      <c r="C28" s="92"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="95"/>
       <c r="F28" s="14" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="B29" s="91" t="s">
+      <c r="B29" s="94" t="s">
         <v>704</v>
       </c>
-      <c r="C29" s="91"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="91"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="94"/>
       <c r="F29" s="14" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1">
@@ -4232,56 +4238,56 @@
       <c r="A32" s="9" t="s">
         <v>722</v>
       </c>
-      <c r="B32" s="90" t="s">
+      <c r="B32" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="90"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="90"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
       <c r="F32" s="14" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="9" t="s">
         <v>669</v>
       </c>
-      <c r="B33" s="90" t="s">
+      <c r="B33" s="93" t="s">
         <v>676</v>
       </c>
-      <c r="C33" s="90"/>
-      <c r="D33" s="90"/>
-      <c r="E33" s="90"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
       <c r="F33" s="14" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A34" s="9" t="s">
         <v>671</v>
       </c>
-      <c r="B34" s="91" t="s">
+      <c r="B34" s="94" t="s">
         <v>677</v>
       </c>
-      <c r="C34" s="91"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="91"/>
+      <c r="C34" s="94"/>
+      <c r="D34" s="94"/>
+      <c r="E34" s="94"/>
       <c r="F34" s="14" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>869</v>
-      </c>
-      <c r="B35" s="90" t="s">
+        <v>866</v>
+      </c>
+      <c r="B35" s="93" t="s">
         <v>670</v>
       </c>
-      <c r="C35" s="90"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="90"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="93"/>
       <c r="F35" s="14" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1">
@@ -4291,74 +4297,74 @@
     </row>
     <row r="37" spans="1:6" ht="18.3">
       <c r="A37" s="15" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1">
       <c r="A38" s="9" t="s">
         <v>709</v>
       </c>
-      <c r="B38" s="93" t="s">
+      <c r="B38" s="96" t="s">
         <v>659</v>
       </c>
-      <c r="C38" s="93"/>
-      <c r="D38" s="93"/>
-      <c r="E38" s="93"/>
+      <c r="C38" s="96"/>
+      <c r="D38" s="96"/>
+      <c r="E38" s="96"/>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1">
       <c r="A39" s="9" t="s">
         <v>730</v>
       </c>
-      <c r="B39" s="91" t="s">
+      <c r="B39" s="94" t="s">
         <v>662</v>
       </c>
-      <c r="C39" s="91"/>
-      <c r="D39" s="91"/>
-      <c r="E39" s="91"/>
+      <c r="C39" s="94"/>
+      <c r="D39" s="94"/>
+      <c r="E39" s="94"/>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1">
       <c r="A40" s="9" t="s">
         <v>710</v>
       </c>
-      <c r="B40" s="90" t="s">
+      <c r="B40" s="93" t="s">
         <v>660</v>
       </c>
-      <c r="C40" s="90"/>
-      <c r="D40" s="90"/>
-      <c r="E40" s="90"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="93"/>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1">
       <c r="A41" s="9" t="s">
         <v>730</v>
       </c>
-      <c r="B41" s="91" t="s">
+      <c r="B41" s="94" t="s">
         <v>663</v>
       </c>
-      <c r="C41" s="91"/>
-      <c r="D41" s="91"/>
-      <c r="E41" s="91"/>
+      <c r="C41" s="94"/>
+      <c r="D41" s="94"/>
+      <c r="E41" s="94"/>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1">
       <c r="A42" s="9" t="s">
         <v>711</v>
       </c>
-      <c r="B42" s="90" t="s">
+      <c r="B42" s="93" t="s">
         <v>661</v>
       </c>
-      <c r="C42" s="90"/>
-      <c r="D42" s="90"/>
-      <c r="E42" s="90"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="93"/>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1">
       <c r="A43" s="9" t="s">
         <v>730</v>
       </c>
-      <c r="B43" s="91" t="s">
+      <c r="B43" s="94" t="s">
         <v>664</v>
       </c>
-      <c r="C43" s="91"/>
-      <c r="D43" s="91"/>
-      <c r="E43" s="91"/>
+      <c r="C43" s="94"/>
+      <c r="D43" s="94"/>
+      <c r="E43" s="94"/>
     </row>
     <row r="45" spans="1:6" ht="18.3">
       <c r="A45" s="32" t="s">
@@ -4401,7 +4407,7 @@
       <c r="A50" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="B50" s="81" t="s">
+      <c r="B50" s="91" t="s">
         <v>716</v>
       </c>
     </row>
@@ -4410,16 +4416,16 @@
       <c r="B51" s="82"/>
     </row>
     <row r="52" spans="1:2" ht="15" customHeight="1">
-      <c r="A52" s="88"/>
-      <c r="B52" s="83"/>
+      <c r="A52" s="87"/>
+      <c r="B52" s="92"/>
     </row>
     <row r="53" spans="1:2" ht="15" customHeight="1">
-      <c r="A53" s="89"/>
-      <c r="B53" s="84"/>
+      <c r="A53" s="87"/>
+      <c r="B53" s="92"/>
     </row>
     <row r="54" spans="1:2" ht="15" customHeight="1">
-      <c r="A54" s="89"/>
-      <c r="B54" s="84"/>
+      <c r="A54" s="88"/>
+      <c r="B54" s="83"/>
     </row>
     <row r="55" spans="1:2" ht="15" customHeight="1">
       <c r="A55" s="89"/>
@@ -4493,12 +4499,12 @@
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="46.8">
       <c r="A1" s="10" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -4506,7 +4512,7 @@
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -4724,17 +4730,17 @@
   <sheetData>
     <row r="1" spans="1:1" ht="46.8">
       <c r="A1" s="30" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="9" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="9" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -4990,25 +4996,25 @@
     <row r="11" spans="1:4">
       <c r="A11" s="29" t="str">
         <f>IF(Notebooks!G9="","",CONCATENATE("| [",Notebooks!A9,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A9,") | ",Notebooks!G9," |"))</f>
-        <v/>
+        <v>| [2](https://rpi-data.github.io/course-intro-ml-app/sessions/session2) | Python Overview - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/01-intro-python-overview.ipynb)&lt;br&gt;Basic Data Structures - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/02-intro-python-datastructures.ipynbhttps://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/03-intro-python-numpy.ipynb)&lt;br&gt;Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)&lt;br&gt;Pandas - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb) |</v>
       </c>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="29" t="str">
-        <f>IF(Notebooks!G10="","",CONCATENATE("| [",Notebooks!A10,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A10,") | ",Notebooks!G10," |"))</f>
-        <v/>
+      <c r="A12" s="29" t="e">
+        <f>IF(Notebooks!#REF!="","",CONCATENATE("| [",Notebooks!#REF!,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!#REF!,") | ",Notebooks!#REF!," |"))</f>
+        <v>#REF!</v>
       </c>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="29" t="str">
-        <f>IF(Notebooks!G11="","",CONCATENATE("| [",Notebooks!A11,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A11,") | ",Notebooks!G11," |"))</f>
-        <v>| [2](https://rpi-data.github.io/course-intro-ml-app/sessions/session2) | Python Overview - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/01-intro-python-overview.ipynb)&lt;br&gt;Basic Data Structures - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/02-intro-python-datastructures.ipynbhttps://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/03-intro-python-numpy.ipynb)&lt;br&gt;Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)&lt;br&gt;Pandas - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)&lt;br&gt;Lab - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/lab/lab.ipynb)&lt;br&gt;Assignment 1 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/hm-01/hm01.ipynb) |</v>
+      <c r="A13" s="29" t="e">
+        <f>IF(Notebooks!#REF!="","",CONCATENATE("| [",Notebooks!#REF!,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!#REF!,") | ",Notebooks!#REF!," |"))</f>
+        <v>#REF!</v>
       </c>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
@@ -5016,7 +5022,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="29" t="str">
-        <f>IF(Notebooks!G12="","",CONCATENATE("| [",Notebooks!A12,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A12,") | ",Notebooks!G12," |"))</f>
+        <f>IF(Notebooks!G10="","",CONCATENATE("| [",Notebooks!A10,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A10,") | ",Notebooks!G10," |"))</f>
         <v/>
       </c>
       <c r="B14" s="29"/>
@@ -5025,7 +5031,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="29" t="str">
-        <f>IF(Notebooks!G13="","",CONCATENATE("| [",Notebooks!A13,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A13,") | ",Notebooks!G13," |"))</f>
+        <f>IF(Notebooks!G11="","",CONCATENATE("| [",Notebooks!A11,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A11,") | ",Notebooks!G11," |"))</f>
         <v/>
       </c>
       <c r="B15" s="29"/>
@@ -5034,7 +5040,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="29" t="str">
-        <f>IF(Notebooks!G14="","",CONCATENATE("| [",Notebooks!A14,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A14,") | ",Notebooks!G14," |"))</f>
+        <f>IF(Notebooks!G12="","",CONCATENATE("| [",Notebooks!A12,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A12,") | ",Notebooks!G12," |"))</f>
         <v/>
       </c>
       <c r="B16" s="29"/>
@@ -5043,7 +5049,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="29" t="str">
-        <f>IF(Notebooks!G15="","",CONCATENATE("| [",Notebooks!A15,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A15,") | ",Notebooks!G15," |"))</f>
+        <f>IF(Notebooks!G13="","",CONCATENATE("| [",Notebooks!A13,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A13,") | ",Notebooks!G13," |"))</f>
         <v/>
       </c>
       <c r="B17" s="29"/>
@@ -5052,7 +5058,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="29" t="str">
-        <f>IF(Notebooks!G16="","",CONCATENATE("| [",Notebooks!A16,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A16,") | ",Notebooks!G16," |"))</f>
+        <f>IF(Notebooks!G14="","",CONCATENATE("| [",Notebooks!A14,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A14,") | ",Notebooks!G14," |"))</f>
         <v/>
       </c>
       <c r="B18" s="29"/>
@@ -5061,7 +5067,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="29" t="str">
-        <f>IF(Notebooks!G17="","",CONCATENATE("| [",Notebooks!A17,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A17,") | ",Notebooks!G17," |"))</f>
+        <f>IF(Notebooks!G15="","",CONCATENATE("| [",Notebooks!A15,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A15,") | ",Notebooks!G15," |"))</f>
         <v>| [4](https://rpi-data.github.io/course-intro-ml-app/sessions/session4) | Conditional-Loops - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb)&lt;br&gt;Functions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/02-intro-python-functions.ipynb)&lt;br&gt;Null Values - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/03-intro-python-null-values.ipynb)&lt;br&gt;Groupby - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/04-intro-python-groupby.ipynb)&lt;br&gt;Kaggle Baseline - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/05-intro-kaggle-baseline.ipynb)&lt;br&gt;Assignment 2 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/hm-02/hm02.ipynb) |</v>
       </c>
       <c r="B19" s="29"/>
@@ -5070,7 +5076,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="29" t="str">
-        <f>IF(Notebooks!G18="","",CONCATENATE("| [",Notebooks!A18,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A18,") | ",Notebooks!G18," |"))</f>
+        <f>IF(Notebooks!G16="","",CONCATENATE("| [",Notebooks!A16,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A16,") | ",Notebooks!G16," |"))</f>
         <v/>
       </c>
       <c r="B20" s="29"/>
@@ -5079,7 +5085,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="29" t="str">
-        <f>IF(Notebooks!G19="","",CONCATENATE("| [",Notebooks!A19,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A19,") | ",Notebooks!G19," |"))</f>
+        <f>IF(Notebooks!G17="","",CONCATENATE("| [",Notebooks!A17,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A17,") | ",Notebooks!G17," |"))</f>
         <v/>
       </c>
       <c r="B21" s="29"/>
@@ -5088,7 +5094,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="29" t="str">
-        <f>IF(Notebooks!G20="","",CONCATENATE("| [",Notebooks!A20,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A20,") | ",Notebooks!G20," |"))</f>
+        <f>IF(Notebooks!G18="","",CONCATENATE("| [",Notebooks!A18,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A18,") | ",Notebooks!G18," |"))</f>
         <v/>
       </c>
       <c r="B22" s="29"/>
@@ -5097,7 +5103,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="29" t="str">
-        <f>IF(Notebooks!G21="","",CONCATENATE("| [",Notebooks!A21,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A21,") | ",Notebooks!G21," |"))</f>
+        <f>IF(Notebooks!G19="","",CONCATENATE("| [",Notebooks!A19,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A19,") | ",Notebooks!G19," |"))</f>
         <v/>
       </c>
       <c r="B23" s="29"/>
@@ -5106,7 +5112,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="29" t="str">
-        <f>IF(Notebooks!G22="","",CONCATENATE("| [",Notebooks!A22,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A22,") | ",Notebooks!G22," |"))</f>
+        <f>IF(Notebooks!G20="","",CONCATENATE("| [",Notebooks!A20,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A20,") | ",Notebooks!G20," |"))</f>
         <v/>
       </c>
       <c r="B24" s="29"/>
@@ -5115,7 +5121,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="29" t="str">
-        <f>IF(Notebooks!G23="","",CONCATENATE("| [",Notebooks!A23,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A23,") | ",Notebooks!G23," |"))</f>
+        <f>IF(Notebooks!G21="","",CONCATENATE("| [",Notebooks!A21,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A21,") | ",Notebooks!G21," |"))</f>
         <v>| [6](https://rpi-data.github.io/course-intro-ml-app/sessions/session6) | Twitter - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb)&lt;br&gt;Web Mining - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/02_intro_python_webmining.ipynb)&lt;br&gt;Visualizations - Seaborn - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/03_visualization_python_seaborn.ipynb)&lt;br&gt;Strings - Regular Expressions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/04_strings_and_regular_expressions.ipynb)&lt;br&gt;Feature Dummies - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/05_features_dummies.ipynb)&lt;br&gt;Assignment 3 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/hm-03/hm03.ipynb) |</v>
       </c>
       <c r="B25" s="29"/>
@@ -5124,7 +5130,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="29" t="str">
-        <f>IF(Notebooks!G24="","",CONCATENATE("| [",Notebooks!A24,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A24,") | ",Notebooks!G24," |"))</f>
+        <f>IF(Notebooks!G22="","",CONCATENATE("| [",Notebooks!A22,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A22,") | ",Notebooks!G22," |"))</f>
         <v/>
       </c>
       <c r="B26" s="29"/>
@@ -5133,7 +5139,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="29" t="str">
-        <f>IF(Notebooks!G25="","",CONCATENATE("| [",Notebooks!A25,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A25,") | ",Notebooks!G25," |"))</f>
+        <f>IF(Notebooks!G23="","",CONCATENATE("| [",Notebooks!A23,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A23,") | ",Notebooks!G23," |"))</f>
         <v/>
       </c>
       <c r="B27" s="29"/>
@@ -5142,7 +5148,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="29" t="str">
-        <f>IF(Notebooks!G26="","",CONCATENATE("| [",Notebooks!A26,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A26,") | ",Notebooks!G26," |"))</f>
+        <f>IF(Notebooks!G24="","",CONCATENATE("| [",Notebooks!A24,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A24,") | ",Notebooks!G24," |"))</f>
         <v/>
       </c>
       <c r="B28" s="29"/>
@@ -5151,7 +5157,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="29" t="str">
-        <f>IF(Notebooks!G27="","",CONCATENATE("| [",Notebooks!A27,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A27,") | ",Notebooks!G27," |"))</f>
+        <f>IF(Notebooks!G25="","",CONCATENATE("| [",Notebooks!A25,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A25,") | ",Notebooks!G25," |"))</f>
         <v/>
       </c>
       <c r="B29" s="29"/>
@@ -5160,7 +5166,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="29" t="str">
-        <f>IF(Notebooks!G28="","",CONCATENATE("| [",Notebooks!A28,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A28,") | ",Notebooks!G28," |"))</f>
+        <f>IF(Notebooks!G26="","",CONCATENATE("| [",Notebooks!A26,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A26,") | ",Notebooks!G26," |"))</f>
         <v/>
       </c>
       <c r="B30" s="29"/>
@@ -5169,7 +5175,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="29" t="str">
-        <f>IF(Notebooks!G29="","",CONCATENATE("| [",Notebooks!A29,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A29,") | ",Notebooks!G29," |"))</f>
+        <f>IF(Notebooks!G27="","",CONCATENATE("| [",Notebooks!A27,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A27,") | ",Notebooks!G27," |"))</f>
         <v/>
       </c>
       <c r="B31" s="29"/>
@@ -5178,7 +5184,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="29" t="str">
-        <f>IF(Notebooks!G30="","",CONCATENATE("| [",Notebooks!A30,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A30,") | ",Notebooks!G30," |"))</f>
+        <f>IF(Notebooks!G28="","",CONCATENATE("| [",Notebooks!A28,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A28,") | ",Notebooks!G28," |"))</f>
         <v>| [9](https://rpi-data.github.io/course-intro-ml-app/sessions/session9) | The Simplest Neural Network with Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)&lt;br&gt;Train Test Split - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb)&lt;br&gt;Introduction to Logistic Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/02-intro-logistic-knn.ipynb)&lt;br&gt;K Nearest Neighbor - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/03-knn.ipynb)&lt;br&gt;ROC and SVM - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/04-svm-roc.ipynb)&lt;br&gt;HM5A Visualization &amp; Screen Scraping - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05A.ipynb)&lt;br&gt;HM5B Intro Modeling - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05B.ipynb) |</v>
       </c>
       <c r="B32" s="29"/>
@@ -5187,7 +5193,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="29" t="str">
-        <f>IF(Notebooks!G31="","",CONCATENATE("| [",Notebooks!A31,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A31,") | ",Notebooks!G31," |"))</f>
+        <f>IF(Notebooks!G29="","",CONCATENATE("| [",Notebooks!A29,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A29,") | ",Notebooks!G29," |"))</f>
         <v/>
       </c>
       <c r="B33" s="29"/>
@@ -5196,7 +5202,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="29" t="str">
-        <f>IF(Notebooks!G32="","",CONCATENATE("| [",Notebooks!A32,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A32,") | ",Notebooks!G32," |"))</f>
+        <f>IF(Notebooks!G30="","",CONCATENATE("| [",Notebooks!A30,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A30,") | ",Notebooks!G30," |"))</f>
         <v/>
       </c>
       <c r="B34" s="29"/>
@@ -5205,7 +5211,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="29" t="str">
-        <f>IF(Notebooks!G33="","",CONCATENATE("| [",Notebooks!A33,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A33,") | ",Notebooks!G33," |"))</f>
+        <f>IF(Notebooks!G31="","",CONCATENATE("| [",Notebooks!A31,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A31,") | ",Notebooks!G31," |"))</f>
         <v>| [13](https://rpi-data.github.io/course-intro-ml-app/sessions/session13) | Matrix Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/01-matrix-regression-gradient-decent-python.ipynb)&lt;br&gt;Regression Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/02-regression-boston-housing-python.ipynb)&lt;br&gt;Ridge and Lasso Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb) |</v>
       </c>
       <c r="B35" s="29"/>
@@ -5214,7 +5220,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="29" t="str">
-        <f>IF(Notebooks!G34="","",CONCATENATE("| [",Notebooks!A34,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A34,") | ",Notebooks!G34," |"))</f>
+        <f>IF(Notebooks!G32="","",CONCATENATE("| [",Notebooks!A32,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A32,") | ",Notebooks!G32," |"))</f>
         <v/>
       </c>
       <c r="B36" s="29"/>
@@ -5223,7 +5229,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="29" t="str">
-        <f>IF(Notebooks!G35="","",CONCATENATE("| [",Notebooks!A35,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A35,") | ",Notebooks!G35," |"))</f>
+        <f>IF(Notebooks!G33="","",CONCATENATE("| [",Notebooks!A33,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A33,") | ",Notebooks!G33," |"))</f>
         <v>| [15](https://rpi-data.github.io/course-intro-ml-app/sessions/session15) | Ridge and Lasso Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb)&lt;br&gt;PCA - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/04_introduction_pca.ipynb) |</v>
       </c>
       <c r="B37" s="29"/>
@@ -5256,12 +5262,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="9" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="9" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -5475,7 +5481,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="15" customHeight="1"/>
@@ -5499,7 +5505,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1">
+    <row r="2" spans="1:7" ht="14.7" customHeight="1">
       <c r="A2" s="31" t="str">
         <f>IF(ISBLANK(Schedule!B3),"",CONCATENATE("session",Schedule!B3))</f>
         <v>session1</v>
@@ -5516,7 +5522,7 @@
 ### Readings
 *None*
 ### Notebooks
-What is Jupyter? - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/01-what-is-jupyter.ipynb#scrollTo=mdFTkIqGwgOJ)&lt;br&gt;Notebook Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/02-notebook-basics.ipynb)&lt;br&gt;Running Code - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/03-running-code.ipynb)&lt;br&gt;Markdown - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/04-markdown.ipynb)</v>
+[What is Jupyter?](https://rpi-data.github.io/course-intro-ml-app/notebooks/01-what-is-jupyter.html)&lt;br&gt;[Notebook Basics](https://rpi-data.github.io/course-intro-ml-app/notebooks/02-notebook-basics.html)&lt;br&gt;[Running Code](https://rpi-data.github.io/course-intro-ml-app/notebooks/03-running-code.html)&lt;br&gt;[Markdown](https://rpi-data.github.io/course-intro-ml-app/notebooks/04-markdown.html)</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>18</v>
@@ -5536,7 +5542,7 @@
 ### Readings
 ",IF(Schedule!L3,LOOKUP(Schedule!B3,Readings!A:A,Readings!F:F),"*None*"),"
 ### Notebooks
-",IF(Schedule!M3,LOOKUP(Schedule!B3,Notebooks!A:A,Notebooks!G:G),"*None*"))</f>
+",IF(Schedule!M3,LOOKUP(Schedule!B3,Notebooks!A:A,Notebooks!L:L),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 In this class we motivate the overall field of data science, machine learning, and the emerging area of AI.  Explore introduction. 
@@ -5546,7 +5552,7 @@
 ### Readings
 *None*
 ### Notebooks
-What is Jupyter? - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/01-what-is-jupyter.ipynb#scrollTo=mdFTkIqGwgOJ)&lt;br&gt;Notebook Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/02-notebook-basics.ipynb)&lt;br&gt;Running Code - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/03-running-code.ipynb)&lt;br&gt;Markdown - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/04-markdown.ipynb)</v>
+[What is Jupyter?](https://rpi-data.github.io/course-intro-ml-app/notebooks/01-what-is-jupyter.html)&lt;br&gt;[Notebook Basics](https://rpi-data.github.io/course-intro-ml-app/notebooks/02-notebook-basics.html)&lt;br&gt;[Running Code](https://rpi-data.github.io/course-intro-ml-app/notebooks/03-running-code.html)&lt;br&gt;[Markdown](https://rpi-data.github.io/course-intro-ml-app/notebooks/04-markdown.html)</v>
       </c>
       <c r="G2" s="26"/>
     </row>
@@ -5586,7 +5592,7 @@
 ### Readings
 ",IF(Schedule!L4,LOOKUP(Schedule!B4,Readings!A:A,Readings!F:F),"*None*"),"
 ### Notebooks
-",IF(Schedule!M4,LOOKUP(Schedule!B4,Notebooks!A:A,Notebooks!G:G),"*None*"))</f>
+",IF(Schedule!M4,LOOKUP(Schedule!B4,Notebooks!A:A,Notebooks!L:L),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 *None*
@@ -5616,7 +5622,7 @@
 ### Readings
 [Doing Data Science (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/9781449363871)&lt;br&gt;[Data Science for Business (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/business-intelligence/9781449374273)&lt;br&gt;[Command Line Cheat Sheet](https://www.git-tower.com/blog/command-line-cheat-sheet/)&lt;br&gt;[Assignment Process](/assignments)&lt;br&gt;[Running Jupyter locally](http://rpi.analyticsdojo.com/setup/anaconda/)
 ### Notebooks
-Python Overview - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/01-intro-python-overview.ipynb)&lt;br&gt;Basic Data Structures - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/02-intro-python-datastructures.ipynbhttps://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/03-intro-python-numpy.ipynb)&lt;br&gt;Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)&lt;br&gt;Pandas - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)&lt;br&gt;Lab - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/lab/lab.ipynb)&lt;br&gt;Assignment 1 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/hm-01/hm01.ipynb)</v>
+[Python Overview](https://rpi-data.github.io/course-intro-ml-app/notebooks/05-intro-python-overview.html)&lt;br&gt;[Basic Data Structures](https://rpi-data.github.io/course-intro-ml-app/notebooks/06-intro-python-datastructures.html)&lt;br&gt;[Numpy](https://rpi-data.github.io/course-intro-ml-app/notebooks/07-intro-python-numpy.html)&lt;br&gt;[Pandas](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>18</v>
@@ -5636,7 +5642,7 @@
 ### Readings
 ",IF(Schedule!L5,LOOKUP(Schedule!B5,Readings!A:A,Readings!F:F),"*None*"),"
 ### Notebooks
-",IF(Schedule!M5,LOOKUP(Schedule!B5,Notebooks!A:A,Notebooks!G:G),"*None*"))</f>
+",IF(Schedule!M5,LOOKUP(Schedule!B5,Notebooks!A:A,Notebooks!L:L),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 This class introduces some basic computational background the Python computational environment, packages, colab, linux command line, git.  Introduction to coding includes basic data structures (sets, dictionaries, lists) along with packages specific for analytics (Numpy and Pandas). 
@@ -5647,7 +5653,7 @@
 ### Readings
 [Doing Data Science (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/9781449363871)&lt;br&gt;[Data Science for Business (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/business-intelligence/9781449374273)&lt;br&gt;[Command Line Cheat Sheet](https://www.git-tower.com/blog/command-line-cheat-sheet/)&lt;br&gt;[Assignment Process](/assignments)&lt;br&gt;[Running Jupyter locally](http://rpi.analyticsdojo.com/setup/anaconda/)
 ### Notebooks
-Python Overview - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/01-intro-python-overview.ipynb)&lt;br&gt;Basic Data Structures - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/02-intro-python-datastructures.ipynbhttps://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/03-intro-python-numpy.ipynb)&lt;br&gt;Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)&lt;br&gt;Pandas - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)&lt;br&gt;Lab - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/lab/lab.ipynb)&lt;br&gt;Assignment 1 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/hm-01/hm01.ipynb)</v>
+[Python Overview](https://rpi-data.github.io/course-intro-ml-app/notebooks/05-intro-python-overview.html)&lt;br&gt;[Basic Data Structures](https://rpi-data.github.io/course-intro-ml-app/notebooks/06-intro-python-datastructures.html)&lt;br&gt;[Numpy](https://rpi-data.github.io/course-intro-ml-app/notebooks/07-intro-python-numpy.html)&lt;br&gt;[Pandas](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="F4" s="31"/>
     </row>
@@ -5687,7 +5693,7 @@
 ### Readings
 ",IF(Schedule!L6,LOOKUP(Schedule!B6,Readings!A:A,Readings!F:F),"*None*"),"
 ### Notebooks
-",IF(Schedule!M6,LOOKUP(Schedule!B6,Notebooks!A:A,Notebooks!G:G),"*None*"))</f>
+",IF(Schedule!M6,LOOKUP(Schedule!B6,Notebooks!A:A,Notebooks!L:L),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 Lab/homework
@@ -5715,7 +5721,7 @@
 ### Readings
 [Principles of Data Wrangling (Chapters 1-3)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/business-intelligence/9781491938911)
 ### Notebooks
-Conditional-Loops - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb)&lt;br&gt;Functions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/02-intro-python-functions.ipynb)&lt;br&gt;Null Values - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/03-intro-python-null-values.ipynb)&lt;br&gt;Groupby - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/04-intro-python-groupby.ipynb)&lt;br&gt;Kaggle Baseline - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/05-intro-kaggle-baseline.ipynb)&lt;br&gt;Assignment 2 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/hm-02/hm02.ipynb)</v>
+&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>18</v>
@@ -5735,7 +5741,7 @@
 ### Readings
 ",IF(Schedule!L7,LOOKUP(Schedule!B7,Readings!A:A,Readings!F:F),"*None*"),"
 ### Notebooks
-",IF(Schedule!M7,LOOKUP(Schedule!B7,Notebooks!A:A,Notebooks!G:G),"*None*"))</f>
+",IF(Schedule!M7,LOOKUP(Schedule!B7,Notebooks!A:A,Notebooks!L:L),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 This lecture discusses the general strategic impact of data, open data, data encoding, data provenance, data wrangling, includeing merging, aggregation, filtering. Continued introduction to coding includes conditionals, loops, functions, missing values, filtering, group-by.  We will also introduce a basic Kaggle model for the Titantic dataset. 
@@ -5744,7 +5750,7 @@
 ### Readings
 [Principles of Data Wrangling (Chapters 1-3)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/business-intelligence/9781491938911)
 ### Notebooks
-Conditional-Loops - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb)&lt;br&gt;Functions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/02-intro-python-functions.ipynb)&lt;br&gt;Null Values - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/03-intro-python-null-values.ipynb)&lt;br&gt;Groupby - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/04-intro-python-groupby.ipynb)&lt;br&gt;Kaggle Baseline - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/05-intro-kaggle-baseline.ipynb)&lt;br&gt;Assignment 2 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/hm-02/hm02.ipynb)</v>
+&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1">
@@ -5783,7 +5789,7 @@
 ### Readings
 ",IF(Schedule!L8,LOOKUP(Schedule!B8,Readings!A:A,Readings!F:F),"*None*"),"
 ### Notebooks
-",IF(Schedule!M8,LOOKUP(Schedule!B8,Notebooks!A:A,Notebooks!G:G),"*None*"))</f>
+",IF(Schedule!M8,LOOKUP(Schedule!B8,Notebooks!A:A,Notebooks!L:L),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 Lab/homework
@@ -5811,7 +5817,7 @@
 ### Readings
 [Introduction to Machine Learning with Python (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/programming/machine-learning/9781449369880)
 ### Notebooks
-Twitter - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb)&lt;br&gt;Web Mining - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/02_intro_python_webmining.ipynb)&lt;br&gt;Visualizations - Seaborn - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/03_visualization_python_seaborn.ipynb)&lt;br&gt;Strings - Regular Expressions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/04_strings_and_regular_expressions.ipynb)&lt;br&gt;Feature Dummies - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/05_features_dummies.ipynb)&lt;br&gt;Assignment 3 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/hm-03/hm03.ipynb)</v>
+&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>18</v>
@@ -5831,7 +5837,7 @@
 ### Readings
 ",IF(Schedule!L9,LOOKUP(Schedule!B9,Readings!A:A,Readings!F:F),"*None*"),"
 ### Notebooks
-",IF(Schedule!M9,LOOKUP(Schedule!B9,Notebooks!A:A,Notebooks!G:G),"*None*"))</f>
+",IF(Schedule!M9,LOOKUP(Schedule!B9,Notebooks!A:A,Notebooks!L:L),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 Introduction to APIs, web scraping feature creation, and feature creation/extraction.  The genaral goal is to get students to the point where they are able to start to do some data manipulation and utilize code they haven't created (packages, functions)
@@ -5840,7 +5846,7 @@
 ### Readings
 [Introduction to Machine Learning with Python (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/programming/machine-learning/9781449369880)
 ### Notebooks
-Twitter - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb)&lt;br&gt;Web Mining - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/02_intro_python_webmining.ipynb)&lt;br&gt;Visualizations - Seaborn - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/03_visualization_python_seaborn.ipynb)&lt;br&gt;Strings - Regular Expressions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/04_strings_and_regular_expressions.ipynb)&lt;br&gt;Feature Dummies - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/05_features_dummies.ipynb)&lt;br&gt;Assignment 3 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/hm-03/hm03.ipynb)</v>
+&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1">
@@ -5879,7 +5885,7 @@
 ### Readings
 ",IF(Schedule!L10,LOOKUP(Schedule!B10,Readings!A:A,Readings!F:F),"*None*"),"
 ### Notebooks
-",IF(Schedule!M10,LOOKUP(Schedule!B10,Notebooks!A:A,Notebooks!G:G),"*None*"))</f>
+",IF(Schedule!M10,LOOKUP(Schedule!B10,Notebooks!A:A,Notebooks!L:L),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 Lab/homework
@@ -5927,7 +5933,7 @@
 ### Readings
 ",IF(Schedule!L11,LOOKUP(Schedule!B11,Readings!A:A,Readings!F:F),"*None*"),"
 ### Notebooks
-",IF(Schedule!M11,LOOKUP(Schedule!B11,Notebooks!A:A,Notebooks!G:G),"*None*"))</f>
+",IF(Schedule!M11,LOOKUP(Schedule!B11,Notebooks!A:A,Notebooks!L:L),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 Visualization is an important component of data understanding. 
@@ -5955,7 +5961,7 @@
 ### Readings
 *None*
 ### Notebooks
-The Simplest Neural Network with Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)&lt;br&gt;Train Test Split - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb)&lt;br&gt;Introduction to Logistic Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/02-intro-logistic-knn.ipynb)&lt;br&gt;K Nearest Neighbor - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/03-knn.ipynb)&lt;br&gt;ROC and SVM - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/04-svm-roc.ipynb)&lt;br&gt;HM5A Visualization &amp; Screen Scraping - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05A.ipynb)&lt;br&gt;HM5B Intro Modeling - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05B.ipynb)</v>
+&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>18</v>
@@ -5975,7 +5981,7 @@
 ### Readings
 ",IF(Schedule!L12,LOOKUP(Schedule!B12,Readings!A:A,Readings!F:F),"*None*"),"
 ### Notebooks
-",IF(Schedule!M12,LOOKUP(Schedule!B12,Notebooks!A:A,Notebooks!G:G),"*None*"))</f>
+",IF(Schedule!M12,LOOKUP(Schedule!B12,Notebooks!A:A,Notebooks!L:L),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 Lab/homework
@@ -5984,7 +5990,7 @@
 ### Readings
 *None*
 ### Notebooks
-The Simplest Neural Network with Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)&lt;br&gt;Train Test Split - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb)&lt;br&gt;Introduction to Logistic Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/02-intro-logistic-knn.ipynb)&lt;br&gt;K Nearest Neighbor - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/03-knn.ipynb)&lt;br&gt;ROC and SVM - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/04-svm-roc.ipynb)&lt;br&gt;HM5A Visualization &amp; Screen Scraping - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05A.ipynb)&lt;br&gt;HM5B Intro Modeling - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05B.ipynb)</v>
+&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1">
@@ -6023,7 +6029,7 @@
 ### Readings
 ",IF(Schedule!L13,LOOKUP(Schedule!B13,Readings!A:A,Readings!F:F),"*None*"),"
 ### Notebooks
-",IF(Schedule!M13,LOOKUP(Schedule!B13,Notebooks!A:A,Notebooks!G:G),"*None*"))</f>
+",IF(Schedule!M13,LOOKUP(Schedule!B13,Notebooks!A:A,Notebooks!L:L),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 The goal of this class is to get you familiar to using R. While we will be Jupyter notebooks, we will also examine using RStudio. Now that you have already started with Python, many of the concepts will map.
@@ -6071,7 +6077,7 @@
 ### Readings
 ",IF(Schedule!L14,LOOKUP(Schedule!B14,Readings!A:A,Readings!F:F),"*None*"),"
 ### Notebooks
-",IF(Schedule!M14,LOOKUP(Schedule!B14,Notebooks!A:A,Notebooks!G:G),"*None*"))</f>
+",IF(Schedule!M14,LOOKUP(Schedule!B14,Notebooks!A:A,Notebooks!L:L),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 Lab/homework
@@ -6119,7 +6125,7 @@
 ### Readings
 ",IF(Schedule!L15,LOOKUP(Schedule!B15,Readings!A:A,Readings!F:F),"*None*"),"
 ### Notebooks
-",IF(Schedule!M15,LOOKUP(Schedule!B15,Notebooks!A:A,Notebooks!G:G),"*None*"))</f>
+",IF(Schedule!M15,LOOKUP(Schedule!B15,Notebooks!A:A,Notebooks!L:L),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 We examine the basics of classess of supervised, unsupervised, reenforcement learning. Also examine overfitting and how cross validation is used for overfitting and how hypterparameters are used to optimize models. 
@@ -6147,7 +6153,7 @@
 ### Readings
 *None*
 ### Notebooks
-Matrix Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/01-matrix-regression-gradient-decent-python.ipynb)&lt;br&gt;Regression Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/02-regression-boston-housing-python.ipynb)&lt;br&gt;Ridge and Lasso Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb)</v>
+&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>18</v>
@@ -6167,7 +6173,7 @@
 ### Readings
 ",IF(Schedule!L16,LOOKUP(Schedule!B16,Readings!A:A,Readings!F:F),"*None*"),"
 ### Notebooks
-",IF(Schedule!M16,LOOKUP(Schedule!B16,Notebooks!A:A,Notebooks!G:G),"*None*"))</f>
+",IF(Schedule!M16,LOOKUP(Schedule!B16,Notebooks!A:A,Notebooks!L:L),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 Lab/homework
@@ -6176,7 +6182,7 @@
 ### Readings
 *None*
 ### Notebooks
-Matrix Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/01-matrix-regression-gradient-decent-python.ipynb)&lt;br&gt;Regression Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/02-regression-boston-housing-python.ipynb)&lt;br&gt;Ridge and Lasso Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb)</v>
+&lt;br&gt;&lt;br&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1">
@@ -6215,7 +6221,7 @@
 ### Readings
 ",IF(Schedule!L17,LOOKUP(Schedule!B17,Readings!A:A,Readings!F:F),"*None*"),"
 ### Notebooks
-",IF(Schedule!M17,LOOKUP(Schedule!B17,Notebooks!A:A,Notebooks!G:G),"*None*"))</f>
+",IF(Schedule!M17,LOOKUP(Schedule!B17,Notebooks!A:A,Notebooks!L:L),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 *None*
@@ -6243,7 +6249,7 @@
 ### Readings
 *None*
 ### Notebooks
-Ridge and Lasso Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb)&lt;br&gt;PCA - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/04_introduction_pca.ipynb)</v>
+&lt;br&gt;</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>18</v>
@@ -6263,7 +6269,7 @@
 ### Readings
 ",IF(Schedule!L18,LOOKUP(Schedule!B18,Readings!A:A,Readings!F:F),"*None*"),"
 ### Notebooks
-",IF(Schedule!M18,LOOKUP(Schedule!B18,Notebooks!A:A,Notebooks!G:G),"*None*"))</f>
+",IF(Schedule!M18,LOOKUP(Schedule!B18,Notebooks!A:A,Notebooks!L:L),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 *None*
@@ -6272,7 +6278,7 @@
 ### Readings
 *None*
 ### Notebooks
-Ridge and Lasso Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb)&lt;br&gt;PCA - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/04_introduction_pca.ipynb)</v>
+&lt;br&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1">
@@ -6311,7 +6317,7 @@
 ### Readings
 ",IF(Schedule!L19,LOOKUP(Schedule!B19,Readings!A:A,Readings!F:F),"*None*"),"
 ### Notebooks
-",IF(Schedule!M19,LOOKUP(Schedule!B19,Notebooks!A:A,Notebooks!G:G),"*None*"))</f>
+",IF(Schedule!M19,LOOKUP(Schedule!B19,Notebooks!A:A,Notebooks!L:L),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 Classifcation is one of the critical machine learning applications.  In this class we review a variety of different approaches. 
@@ -6359,7 +6365,7 @@
 ### Readings
 ",IF(Schedule!L20,LOOKUP(Schedule!B20,Readings!A:A,Readings!F:F),"*None*"),"
 ### Notebooks
-",IF(Schedule!M20,LOOKUP(Schedule!B20,Notebooks!A:A,Notebooks!G:G),"*None*"))</f>
+",IF(Schedule!M20,LOOKUP(Schedule!B20,Notebooks!A:A,Notebooks!L:L),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 Lab/homework
@@ -6407,7 +6413,7 @@
 ### Readings
 ",IF(Schedule!L21,LOOKUP(Schedule!B21,Readings!A:A,Readings!F:F),"*None*"),"
 ### Notebooks
-",IF(Schedule!M21,LOOKUP(Schedule!B21,Notebooks!A:A,Notebooks!G:G),"*None*"))</f>
+",IF(Schedule!M21,LOOKUP(Schedule!B21,Notebooks!A:A,Notebooks!L:L),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 Regression models similarly a a major type of machine learning application.  In this 
@@ -6455,7 +6461,7 @@
 ### Readings
 ",IF(Schedule!L22,LOOKUP(Schedule!B22,Readings!A:A,Readings!F:F),"*None*"),"
 ### Notebooks
-",IF(Schedule!M22,LOOKUP(Schedule!B22,Notebooks!A:A,Notebooks!G:G),"*None*"))</f>
+",IF(Schedule!M22,LOOKUP(Schedule!B22,Notebooks!A:A,Notebooks!L:L),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 Lab/homework
@@ -6503,7 +6509,7 @@
 ### Readings
 ",IF(Schedule!L23,LOOKUP(Schedule!B23,Readings!A:A,Readings!F:F),"*None*"),"
 ### Notebooks
-",IF(Schedule!M23,LOOKUP(Schedule!B23,Notebooks!A:A,Notebooks!G:G),"*None*"))</f>
+",IF(Schedule!M23,LOOKUP(Schedule!B23,Notebooks!A:A,Notebooks!L:L),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 The goal of this class is to investigate basic concepts surrounding text mining.
@@ -6551,7 +6557,7 @@
 ### Readings
 ",IF(Schedule!L24,LOOKUP(Schedule!B24,Readings!A:A,Readings!F:F),"*None*"),"
 ### Notebooks
-",IF(Schedule!M24,LOOKUP(Schedule!B24,Notebooks!A:A,Notebooks!G:G),"*None*"))</f>
+",IF(Schedule!M24,LOOKUP(Schedule!B24,Notebooks!A:A,Notebooks!L:L),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 Lab/homework
@@ -6599,7 +6605,7 @@
 ### Readings
 ",IF(Schedule!L25,LOOKUP(Schedule!B25,Readings!A:A,Readings!F:F),"*None*"),"
 ### Notebooks
-",IF(Schedule!M25,LOOKUP(Schedule!B25,Notebooks!A:A,Notebooks!G:G),"*None*"))</f>
+",IF(Schedule!M25,LOOKUP(Schedule!B25,Notebooks!A:A,Notebooks!L:L),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 The goal here is to provide an overview of how data processes can be scaled with Spark.
@@ -6647,7 +6653,7 @@
 ### Readings
 ",IF(Schedule!L26,LOOKUP(Schedule!B26,Readings!A:A,Readings!F:F),"*None*"),"
 ### Notebooks
-",IF(Schedule!M26,LOOKUP(Schedule!B26,Notebooks!A:A,Notebooks!G:G),"*None*"))</f>
+",IF(Schedule!M26,LOOKUP(Schedule!B26,Notebooks!A:A,Notebooks!L:L),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 Time series and panel data is a bit different and requires a different approach.  Here we cover some of the basics. 
@@ -6695,7 +6701,7 @@
 ### Readings
 ",IF(Schedule!L27,LOOKUP(Schedule!B27,Readings!A:A,Readings!F:F),"*None*"),"
 ### Notebooks
-",IF(Schedule!M27,LOOKUP(Schedule!B27,Notebooks!A:A,Notebooks!G:G),"*None*"))</f>
+",IF(Schedule!M27,LOOKUP(Schedule!B27,Notebooks!A:A,Notebooks!L:L),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 Image data is different and deep learning has transformed the ability of machines to process image data. In this lecture we will get an overview of image processing and deep learning techniques. 
@@ -6743,7 +6749,7 @@
 ### Readings
 ",IF(Schedule!L28,LOOKUP(Schedule!B28,Readings!A:A,Readings!F:F),"*None*"),"
 ### Notebooks
-",IF(Schedule!M28,LOOKUP(Schedule!B28,Notebooks!A:A,Notebooks!G:G),"*None*"))</f>
+",IF(Schedule!M28,LOOKUP(Schedule!B28,Notebooks!A:A,Notebooks!L:L),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 Lab/homework
@@ -6791,7 +6797,7 @@
 ### Readings
 ",IF(Schedule!L29,LOOKUP(Schedule!B29,Readings!A:A,Readings!F:F),"*None*"),"
 ### Notebooks
-",IF(Schedule!M29,LOOKUP(Schedule!B29,Notebooks!A:A,Notebooks!G:G),"*None*"))</f>
+",IF(Schedule!M29,LOOKUP(Schedule!B29,Notebooks!A:A,Notebooks!L:L),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 Increasingly there are tools to automate the process of selecting models. 
@@ -6839,7 +6845,7 @@
 ### Readings
 ",IF(Schedule!L30,LOOKUP(Schedule!B30,Readings!A:A,Readings!F:F),"*None*"),"
 ### Notebooks
-",IF(Schedule!M30,LOOKUP(Schedule!B30,Notebooks!A:A,Notebooks!G:G),"*None*"))</f>
+",IF(Schedule!M30,LOOKUP(Schedule!B30,Notebooks!A:A,Notebooks!L:L),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 *None*
@@ -6887,7 +6893,7 @@
 ### Readings
 ",IF(Schedule!L31,LOOKUP(Schedule!B31,Readings!A:A,Readings!F:F),"*None*"),"
 ### Notebooks
-",IF(Schedule!M31,LOOKUP(Schedule!B31,Notebooks!A:A,Notebooks!G:G),"*None*"))</f>
+",IF(Schedule!M31,LOOKUP(Schedule!B31,Notebooks!A:A,Notebooks!L:L),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 Lab/homework
@@ -6935,7 +6941,7 @@
 ### Readings
 ",IF(Schedule!L32,LOOKUP(Schedule!B32,Readings!A:A,Readings!F:F),"*None*"),"
 ### Notebooks
-",IF(Schedule!M32,LOOKUP(Schedule!B32,Notebooks!A:A,Notebooks!G:G),"*None*"))</f>
+",IF(Schedule!M32,LOOKUP(Schedule!B32,Notebooks!A:A,Notebooks!L:L),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 *None*
@@ -6983,7 +6989,7 @@
 ### Readings
 ",IF(Schedule!L33,LOOKUP(Schedule!B33,Readings!A:A,Readings!F:F),"*None*"),"
 ### Notebooks
-",IF(Schedule!M33,LOOKUP(Schedule!B33,Notebooks!A:A,Notebooks!G:G),"*None*"))</f>
+",IF(Schedule!M33,LOOKUP(Schedule!B33,Notebooks!A:A,Notebooks!L:L),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 *None*
@@ -7031,7 +7037,7 @@
 ### Readings
 ",IF(Schedule!L34,LOOKUP(Schedule!B34,Readings!A:A,Readings!F:F),"*None*"),"
 ### Notebooks
-",IF(Schedule!M34,LOOKUP(Schedule!B34,Notebooks!A:A,Notebooks!G:G),"*None*"))</f>
+",IF(Schedule!M34,LOOKUP(Schedule!B34,Notebooks!A:A,Notebooks!L:L),"*None*"))</f>
         <v xml:space="preserve">
 ### Description
 *None*
@@ -7049,642 +7055,6 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{515BB05E-4CB6-4E1D-95DD-C7D7E7D05461}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:F24"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="11.09765625" style="31"/>
-    <col min="2" max="4" width="45" style="31" customWidth="1"/>
-    <col min="5" max="16384" width="11.09765625" style="31"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.6">
-      <c r="B1" s="11"/>
-      <c r="C1" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1">
-      <c r="A2" s="30" t="str">
-        <f>IF(ISBLANK(Schedule!H3),"",CONCATENATE("assign",Schedule!H3))</f>
-        <v/>
-      </c>
-      <c r="B2" s="19" t="str">
-        <f>CONCATENATE(C2,D2)</f>
-        <v/>
-      </c>
-      <c r="C2" s="31" t="str">
-        <f>IF(ISBLANK(Schedule!H3),"",CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center;"&amp;CHAR(34)&amp;"&gt;Assignment ",Schedule!H3,"&lt;/h1&gt;
----"))</f>
-        <v/>
-      </c>
-      <c r="D2" s="11" t="str">
-        <f>IF(ISBLANK(Schedule!H3),"",CONCATENATE("
-### Description
-",IF(ISBLANK(Schedule!I3),"*None*",Schedule!I3),"
-### Instructions
-",IF(ISBLANK(Schedule!J3),"*None*",Schedule!J3),"
-### Link
-",IF(ISBLANK(Schedule!K8),"*None*",Schedule!R8)))</f>
-        <v/>
-      </c>
-      <c r="F2" s="30"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1">
-      <c r="A3" s="30" t="str">
-        <f>IF(ISBLANK(Schedule!H4),"",CONCATENATE("assign",Schedule!H4))</f>
-        <v/>
-      </c>
-      <c r="B3" s="19" t="str">
-        <f>CONCATENATE(C3,D3)</f>
-        <v/>
-      </c>
-      <c r="C3" s="31" t="str">
-        <f>IF(ISBLANK(Schedule!H4),"",CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center;"&amp;CHAR(34)&amp;"&gt;Assignment ",Schedule!H4,"&lt;/h1&gt;
----"))</f>
-        <v/>
-      </c>
-      <c r="D3" s="11" t="str">
-        <f>IF(ISBLANK(Schedule!H4),"",CONCATENATE("
-### Description
-",IF(ISBLANK(Schedule!I4),"*None*",Schedule!I4),"
-### Instructions
-",IF(ISBLANK(Schedule!J4),"*None*",Schedule!J4),"
-### Link
-",IF(ISBLANK(Schedule!K9),"*None*",Schedule!R9)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1">
-      <c r="A4" s="30" t="str">
-        <f>IF(ISBLANK(Schedule!H5),"",CONCATENATE("assign",Schedule!H5))</f>
-        <v>assign1</v>
-      </c>
-      <c r="B4" s="19" t="str">
-        <f>CONCATENATE(C4,D4)</f>
-        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Assignment 1&lt;/h1&gt;
----
-### Description
-This introductory assignment introduces the basics of loading files from a variety of formats. 
-### Instructions
-*None*
-### Link
-[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/hm-03/hm03.ipynb)</v>
-      </c>
-      <c r="C4" s="31" t="str">
-        <f>IF(ISBLANK(Schedule!H5),"",CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;Assignment ",Schedule!H5,"&lt;/h1&gt;
----"))</f>
-        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Assignment 1&lt;/h1&gt;
----</v>
-      </c>
-      <c r="D4" s="11" t="str">
-        <f>IF(ISBLANK(Schedule!H5),"",CONCATENATE("
-### Description
-",IF(ISBLANK(Schedule!I5),"*None*",Schedule!I5),"
-### Instructions
-",IF(ISBLANK(Schedule!J5),"*None*",Schedule!J5),"
-### Link
-",IF(ISBLANK(Schedule!K10),"*None*",Schedule!R10)))</f>
-        <v xml:space="preserve">
-### Description
-This introductory assignment introduces the basics of loading files from a variety of formats. 
-### Instructions
-*None*
-### Link
-[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/hm-03/hm03.ipynb)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1">
-      <c r="A5" s="30" t="str">
-        <f>IF(ISBLANK(Schedule!H6),"",CONCATENATE("assign",Schedule!H6))</f>
-        <v/>
-      </c>
-      <c r="B5" s="19" t="str">
-        <f t="shared" ref="B5:B24" si="0">CONCATENATE(C5,D5)</f>
-        <v/>
-      </c>
-      <c r="C5" s="31" t="str">
-        <f>IF(ISBLANK(Schedule!H6),"",CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;Assignment ",Schedule!H6,"&lt;/h1&gt;
----"))</f>
-        <v/>
-      </c>
-      <c r="D5" s="11" t="str">
-        <f>IF(ISBLANK(Schedule!H6),"",CONCATENATE("
-### Description
-",IF(ISBLANK(Schedule!I6),"*None*",Schedule!I6),"
-### Instructions
-",IF(ISBLANK(Schedule!J6),"*None*",Schedule!J6),"
-### Link
-",IF(ISBLANK(Schedule!K11),"*None*",Schedule!R11)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1">
-      <c r="A6" s="30" t="str">
-        <f>IF(ISBLANK(Schedule!H7),"",CONCATENATE("assign",Schedule!H7))</f>
-        <v/>
-      </c>
-      <c r="B6" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C6" s="31" t="str">
-        <f>IF(ISBLANK(Schedule!H7),"",CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;Assignment ",Schedule!H7,"&lt;/h1&gt;
----"))</f>
-        <v/>
-      </c>
-      <c r="D6" s="11" t="str">
-        <f>IF(ISBLANK(Schedule!H7),"",CONCATENATE("
-### Description
-",IF(ISBLANK(Schedule!I7),"*None*",Schedule!I7),"
-### Instructions
-",IF(ISBLANK(Schedule!J7),"*None*",Schedule!J7),"
-### Link
-",IF(ISBLANK(Schedule!K12),"*None*",Schedule!R12)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1">
-      <c r="A7" s="30" t="str">
-        <f>IF(ISBLANK(Schedule!H8),"",CONCATENATE("assign",Schedule!H8))</f>
-        <v>assign2</v>
-      </c>
-      <c r="B7" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Assignment 2&lt;/h1&gt;
----
-### Description
-*None*
-### Instructions
-*None*
-### Link
-*None*</v>
-      </c>
-      <c r="C7" s="31" t="str">
-        <f>IF(ISBLANK(Schedule!H8),"",CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;Assignment ",Schedule!H8,"&lt;/h1&gt;
----"))</f>
-        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Assignment 2&lt;/h1&gt;
----</v>
-      </c>
-      <c r="D7" s="11" t="str">
-        <f>IF(ISBLANK(Schedule!H8),"",CONCATENATE("
-### Description
-",IF(ISBLANK(Schedule!I8),"*None*",Schedule!I8),"
-### Instructions
-",IF(ISBLANK(Schedule!J8),"*None*",Schedule!J8),"
-### Link
-",IF(ISBLANK(Schedule!K13),"*None*",Schedule!R13)))</f>
-        <v xml:space="preserve">
-### Description
-*None*
-### Instructions
-*None*
-### Link
-*None*</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1">
-      <c r="A8" s="30" t="str">
-        <f>IF(ISBLANK(Schedule!H9),"",CONCATENATE("assign",Schedule!H9))</f>
-        <v/>
-      </c>
-      <c r="B8" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C8" s="31" t="str">
-        <f>IF(ISBLANK(Schedule!H9),"",CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;Assignment ",Schedule!H9,"&lt;/h1&gt;
----"))</f>
-        <v/>
-      </c>
-      <c r="D8" s="11" t="str">
-        <f>IF(ISBLANK(Schedule!H9),"",CONCATENATE("
-### Description
-",IF(ISBLANK(Schedule!I9),"*None*",Schedule!I9),"
-### Instructions
-",IF(ISBLANK(Schedule!J9),"*None*",Schedule!J9),"
-### Link
-",IF(ISBLANK(Schedule!K14),"*None*",Schedule!R14)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1">
-      <c r="A9" s="30" t="str">
-        <f>IF(ISBLANK(Schedule!H10),"",CONCATENATE("assign",Schedule!H10))</f>
-        <v/>
-      </c>
-      <c r="B9" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C9" s="31" t="str">
-        <f>IF(ISBLANK(Schedule!H10),"",CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;Assignment ",Schedule!H10,"&lt;/h1&gt;
----"))</f>
-        <v/>
-      </c>
-      <c r="D9" s="11" t="str">
-        <f>IF(ISBLANK(Schedule!H10),"",CONCATENATE("
-### Description
-",IF(ISBLANK(Schedule!I10),"*None*",Schedule!I10),"
-### Instructions
-",IF(ISBLANK(Schedule!J10),"*None*",Schedule!J10),"
-### Link
-",IF(ISBLANK(Schedule!K15),"*None*",Schedule!R15)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1">
-      <c r="A10" s="30" t="str">
-        <f>IF(ISBLANK(Schedule!H11),"",CONCATENATE("assign",Schedule!H11))</f>
-        <v/>
-      </c>
-      <c r="B10" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C10" s="31" t="str">
-        <f>IF(ISBLANK(Schedule!H11),"",CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;Assignment ",Schedule!H11,"&lt;/h1&gt;
----"))</f>
-        <v/>
-      </c>
-      <c r="D10" s="11" t="str">
-        <f>IF(ISBLANK(Schedule!H11),"",CONCATENATE("
-### Description
-",IF(ISBLANK(Schedule!I11),"*None*",Schedule!I11),"
-### Instructions
-",IF(ISBLANK(Schedule!J11),"*None*",Schedule!J11),"
-### Link
-",IF(ISBLANK(Schedule!K16),"*None*",Schedule!R16)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1">
-      <c r="A11" s="30" t="str">
-        <f>IF(ISBLANK(Schedule!H12),"",CONCATENATE("assign",Schedule!H12))</f>
-        <v/>
-      </c>
-      <c r="B11" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C11" s="31" t="str">
-        <f>IF(ISBLANK(Schedule!H12),"",CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;Assignment ",Schedule!H12,"&lt;/h1&gt;
----"))</f>
-        <v/>
-      </c>
-      <c r="D11" s="11" t="str">
-        <f>IF(ISBLANK(Schedule!H12),"",CONCATENATE("
-### Description
-",IF(ISBLANK(Schedule!I12),"*None*",Schedule!I12),"
-### Instructions
-",IF(ISBLANK(Schedule!J12),"*None*",Schedule!J12),"
-### Link
-",IF(ISBLANK(Schedule!K17),"*None*",Schedule!R17)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1">
-      <c r="A12" s="30" t="str">
-        <f>IF(ISBLANK(Schedule!H13),"",CONCATENATE("assign",Schedule!H13))</f>
-        <v/>
-      </c>
-      <c r="B12" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C12" s="31" t="str">
-        <f>IF(ISBLANK(Schedule!H13),"",CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;Assignment ",Schedule!H13,"&lt;/h1&gt;
----"))</f>
-        <v/>
-      </c>
-      <c r="D12" s="11" t="str">
-        <f>IF(ISBLANK(Schedule!H13),"",CONCATENATE("
-### Description
-",IF(ISBLANK(Schedule!I13),"*None*",Schedule!I13),"
-### Instructions
-",IF(ISBLANK(Schedule!J13),"*None*",Schedule!J13),"
-### Link
-",IF(ISBLANK(Schedule!K18),"*None*",Schedule!R18)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1">
-      <c r="A13" s="30" t="str">
-        <f>IF(ISBLANK(Schedule!H14),"",CONCATENATE("assign",Schedule!H14))</f>
-        <v/>
-      </c>
-      <c r="B13" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C13" s="31" t="str">
-        <f>IF(ISBLANK(Schedule!H14),"",CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;Assignment ",Schedule!H14,"&lt;/h1&gt;
----"))</f>
-        <v/>
-      </c>
-      <c r="D13" s="11" t="str">
-        <f>IF(ISBLANK(Schedule!H14),"",CONCATENATE("
-### Description
-",IF(ISBLANK(Schedule!I14),"*None*",Schedule!I14),"
-### Instructions
-",IF(ISBLANK(Schedule!J14),"*None*",Schedule!J14),"
-### Link
-",IF(ISBLANK(Schedule!K19),"*None*",Schedule!R19)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1">
-      <c r="A14" s="30" t="str">
-        <f>IF(ISBLANK(Schedule!H15),"",CONCATENATE("assign",Schedule!H15))</f>
-        <v/>
-      </c>
-      <c r="B14" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C14" s="31" t="str">
-        <f>IF(ISBLANK(Schedule!H15),"",CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;Assignment ",Schedule!H15,"&lt;/h1&gt;
----"))</f>
-        <v/>
-      </c>
-      <c r="D14" s="11" t="str">
-        <f>IF(ISBLANK(Schedule!H15),"",CONCATENATE("
-### Description
-",IF(ISBLANK(Schedule!I15),"*None*",Schedule!I15),"
-### Instructions
-",IF(ISBLANK(Schedule!J15),"*None*",Schedule!J15),"
-### Link
-",IF(ISBLANK(Schedule!K20),"*None*",Schedule!R20)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1">
-      <c r="A15" s="30" t="str">
-        <f>IF(ISBLANK(Schedule!H16),"",CONCATENATE("assign",Schedule!H16))</f>
-        <v/>
-      </c>
-      <c r="B15" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C15" s="31" t="str">
-        <f>IF(ISBLANK(Schedule!H16),"",CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;Assignment ",Schedule!H16,"&lt;/h1&gt;
----"))</f>
-        <v/>
-      </c>
-      <c r="D15" s="11" t="str">
-        <f>IF(ISBLANK(Schedule!H16),"",CONCATENATE("
-### Description
-",IF(ISBLANK(Schedule!I16),"*None*",Schedule!I16),"
-### Instructions
-",IF(ISBLANK(Schedule!J16),"*None*",Schedule!J16),"
-### Link
-",IF(ISBLANK(Schedule!K21),"*None*",Schedule!R21)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1">
-      <c r="A16" s="30" t="str">
-        <f>IF(ISBLANK(Schedule!H17),"",CONCATENATE("assign",Schedule!H17))</f>
-        <v/>
-      </c>
-      <c r="B16" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C16" s="31" t="str">
-        <f>IF(ISBLANK(Schedule!H17),"",CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;Assignment ",Schedule!H17,"&lt;/h1&gt;
----"))</f>
-        <v/>
-      </c>
-      <c r="D16" s="11" t="str">
-        <f>IF(ISBLANK(Schedule!H17),"",CONCATENATE("
-### Description
-",IF(ISBLANK(Schedule!I17),"*None*",Schedule!I17),"
-### Instructions
-",IF(ISBLANK(Schedule!J17),"*None*",Schedule!J17),"
-### Link
-",IF(ISBLANK(Schedule!K22),"*None*",Schedule!R22)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1">
-      <c r="A17" s="30" t="str">
-        <f>IF(ISBLANK(Schedule!H18),"",CONCATENATE("assign",Schedule!H18))</f>
-        <v/>
-      </c>
-      <c r="B17" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C17" s="31" t="str">
-        <f>IF(ISBLANK(Schedule!H18),"",CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;Assignment ",Schedule!H18,"&lt;/h1&gt;
----"))</f>
-        <v/>
-      </c>
-      <c r="D17" s="11" t="str">
-        <f>IF(ISBLANK(Schedule!H18),"",CONCATENATE("
-### Description
-",IF(ISBLANK(Schedule!I18),"*None*",Schedule!I18),"
-### Instructions
-",IF(ISBLANK(Schedule!J18),"*None*",Schedule!J18),"
-### Link
-",IF(ISBLANK(Schedule!K23),"*None*",Schedule!R23)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1">
-      <c r="A18" s="30" t="str">
-        <f>IF(ISBLANK(Schedule!H19),"",CONCATENATE("assign",Schedule!H19))</f>
-        <v/>
-      </c>
-      <c r="B18" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C18" s="31" t="str">
-        <f>IF(ISBLANK(Schedule!H19),"",CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;Assignment ",Schedule!H19,"&lt;/h1&gt;
----"))</f>
-        <v/>
-      </c>
-      <c r="D18" s="11" t="str">
-        <f>IF(ISBLANK(Schedule!H19),"",CONCATENATE("
-### Description
-",IF(ISBLANK(Schedule!I19),"*None*",Schedule!I19),"
-### Instructions
-",IF(ISBLANK(Schedule!J19),"*None*",Schedule!J19),"
-### Link
-",IF(ISBLANK(Schedule!K24),"*None*",Schedule!R24)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1">
-      <c r="A19" s="30" t="str">
-        <f>IF(ISBLANK(Schedule!H20),"",CONCATENATE("assign",Schedule!H20))</f>
-        <v/>
-      </c>
-      <c r="B19" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C19" s="31" t="str">
-        <f>IF(ISBLANK(Schedule!H20),"",CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;Assignment ",Schedule!H20,"&lt;/h1&gt;
----"))</f>
-        <v/>
-      </c>
-      <c r="D19" s="11" t="str">
-        <f>IF(ISBLANK(Schedule!H20),"",CONCATENATE("
-### Description
-",IF(ISBLANK(Schedule!I20),"*None*",Schedule!I20),"
-### Instructions
-",IF(ISBLANK(Schedule!J20),"*None*",Schedule!J20),"
-### Link
-",IF(ISBLANK(Schedule!K25),"*None*",Schedule!R25)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1">
-      <c r="A20" s="30" t="str">
-        <f>IF(ISBLANK(Schedule!H21),"",CONCATENATE("assign",Schedule!H21))</f>
-        <v/>
-      </c>
-      <c r="B20" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C20" s="31" t="str">
-        <f>IF(ISBLANK(Schedule!H21),"",CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;Assignment ",Schedule!H21,"&lt;/h1&gt;
----"))</f>
-        <v/>
-      </c>
-      <c r="D20" s="11" t="str">
-        <f>IF(ISBLANK(Schedule!H21),"",CONCATENATE("
-### Description
-",IF(ISBLANK(Schedule!I21),"*None*",Schedule!I21),"
-### Instructions
-",IF(ISBLANK(Schedule!J21),"*None*",Schedule!J21),"
-### Link
-",IF(ISBLANK(Schedule!K26),"*None*",Schedule!R26)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1">
-      <c r="A21" s="30" t="str">
-        <f>IF(ISBLANK(Schedule!H22),"",CONCATENATE("assign",Schedule!H22))</f>
-        <v/>
-      </c>
-      <c r="B21" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C21" s="31" t="str">
-        <f>IF(ISBLANK(Schedule!H22),"",CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;Assignment ",Schedule!H22,"&lt;/h1&gt;
----"))</f>
-        <v/>
-      </c>
-      <c r="D21" s="11" t="str">
-        <f>IF(ISBLANK(Schedule!H22),"",CONCATENATE("
-### Description
-",IF(ISBLANK(Schedule!I22),"*None*",Schedule!I22),"
-### Instructions
-",IF(ISBLANK(Schedule!J22),"*None*",Schedule!J22),"
-### Link
-",IF(ISBLANK(Schedule!K27),"*None*",Schedule!R27)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1">
-      <c r="A22" s="30" t="str">
-        <f>IF(ISBLANK(Schedule!H23),"",CONCATENATE("assign",Schedule!H23))</f>
-        <v/>
-      </c>
-      <c r="B22" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C22" s="31" t="str">
-        <f>IF(ISBLANK(Schedule!H23),"",CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;Assignment ",Schedule!H23,"&lt;/h1&gt;
----"))</f>
-        <v/>
-      </c>
-      <c r="D22" s="11" t="str">
-        <f>IF(ISBLANK(Schedule!H23),"",CONCATENATE("
-### Description
-",IF(ISBLANK(Schedule!I23),"*None*",Schedule!I23),"
-### Instructions
-",IF(ISBLANK(Schedule!J23),"*None*",Schedule!J23),"
-### Link
-",IF(ISBLANK(Schedule!K28),"*None*",Schedule!R28)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1">
-      <c r="A23" s="30" t="str">
-        <f>IF(ISBLANK(Schedule!H24),"",CONCATENATE("assign",Schedule!H24))</f>
-        <v/>
-      </c>
-      <c r="B23" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C23" s="31" t="str">
-        <f>IF(ISBLANK(Schedule!H24),"",CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;Assignment ",Schedule!H24,"&lt;/h1&gt;
----"))</f>
-        <v/>
-      </c>
-      <c r="D23" s="11" t="str">
-        <f>IF(ISBLANK(Schedule!H24),"",CONCATENATE("
-### Description
-",IF(ISBLANK(Schedule!I24),"*None*",Schedule!I24),"
-### Instructions
-",IF(ISBLANK(Schedule!J24),"*None*",Schedule!J24),"
-### Link
-",IF(ISBLANK(Schedule!K29),"*None*",Schedule!R29)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1">
-      <c r="A24" s="30" t="str">
-        <f>IF(ISBLANK(Schedule!H25),"",CONCATENATE("assign",Schedule!H25))</f>
-        <v/>
-      </c>
-      <c r="B24" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C24" s="31" t="str">
-        <f>IF(ISBLANK(Schedule!H25),"",CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;Assignment ",Schedule!H25,"&lt;/h1&gt;
----"))</f>
-        <v/>
-      </c>
-      <c r="D24" s="11" t="str">
-        <f>IF(ISBLANK(Schedule!H25),"",CONCATENATE("
-### Description
-",IF(ISBLANK(Schedule!I25),"*None*",Schedule!I25),"
-### Instructions
-",IF(ISBLANK(Schedule!J25),"*None*",Schedule!J25),"
-### Link
-",IF(ISBLANK(Schedule!K30),"*None*",Schedule!R30)))</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:A20"/>
   <sheetViews>
@@ -7819,7 +7189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A2:L929"/>
   <sheetViews>
@@ -29130,71 +28500,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="32" customFormat="1" ht="18.3" customHeight="1" thickBot="1">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="112" t="s">
         <v>707</v>
       </c>
-      <c r="C1" s="109" t="s">
+      <c r="C1" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="100" t="s">
+      <c r="D1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="98" t="s">
+      <c r="E1" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="102" t="s">
-        <v>849</v>
-      </c>
-      <c r="G1" s="103"/>
-      <c r="H1" s="104" t="s">
-        <v>859</v>
-      </c>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="107" t="s">
-        <v>857</v>
-      </c>
-      <c r="M1" s="107" t="s">
-        <v>858</v>
-      </c>
-      <c r="N1" s="113" t="s">
+      <c r="F1" s="105" t="s">
+        <v>846</v>
+      </c>
+      <c r="G1" s="106"/>
+      <c r="H1" s="107" t="s">
+        <v>856</v>
+      </c>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="110" t="s">
+        <v>854</v>
+      </c>
+      <c r="M1" s="110" t="s">
+        <v>855</v>
+      </c>
+      <c r="N1" s="116" t="s">
+        <v>886</v>
+      </c>
+      <c r="O1" s="117" t="s">
+        <v>887</v>
+      </c>
+      <c r="P1" s="100" t="s">
+        <v>888</v>
+      </c>
+      <c r="Q1" s="100" t="s">
         <v>889</v>
       </c>
-      <c r="O1" s="114" t="s">
+      <c r="R1" s="100" t="s">
         <v>890</v>
       </c>
-      <c r="P1" s="97" t="s">
+      <c r="S1" s="100" t="s">
+        <v>884</v>
+      </c>
+      <c r="T1" s="100" t="s">
+        <v>885</v>
+      </c>
+      <c r="U1" s="100" t="s">
         <v>891</v>
       </c>
-      <c r="Q1" s="97" t="s">
+      <c r="V1" s="100" t="s">
         <v>892</v>
       </c>
-      <c r="R1" s="97" t="s">
-        <v>893</v>
-      </c>
-      <c r="S1" s="97" t="s">
-        <v>887</v>
-      </c>
-      <c r="T1" s="97" t="s">
-        <v>888</v>
-      </c>
-      <c r="U1" s="97" t="s">
-        <v>894</v>
-      </c>
-      <c r="V1" s="97" t="s">
-        <v>895</v>
-      </c>
     </row>
     <row r="2" spans="1:22" s="32" customFormat="1" ht="18.899999999999999" thickTop="1" thickBot="1">
-      <c r="A2" s="112"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="99"/>
+      <c r="A2" s="115"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="102"/>
       <c r="F2" s="72" t="s">
         <v>4</v>
       </c>
@@ -29208,22 +28578,22 @@
         <v>7</v>
       </c>
       <c r="J2" s="76" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="K2" s="77" t="s">
-        <v>860</v>
-      </c>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
-      <c r="U2" s="97"/>
-      <c r="V2" s="97"/>
+        <v>857</v>
+      </c>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="100"/>
+      <c r="V2" s="100"/>
     </row>
     <row r="3" spans="1:22" ht="62.4">
       <c r="A3" s="42">
@@ -29403,7 +28773,7 @@
       </c>
       <c r="J5" s="47"/>
       <c r="K5" s="67" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="L5" s="60" t="b">
         <v>1</v>
@@ -29652,7 +29022,7 @@
         <v>2</v>
       </c>
       <c r="K8" s="67" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="L8" s="39" t="b">
         <v>0</v>
@@ -29839,7 +29209,7 @@
       </c>
       <c r="G10" s="46"/>
       <c r="K10" s="67" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="L10" s="39" t="b">
         <v>0</v>
@@ -47177,13 +46547,13 @@
         <v>9</v>
       </c>
       <c r="D1" s="55" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="E1" s="55" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="F1" s="55" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -47191,10 +46561,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D2" s="56" t="str">
         <f t="shared" ref="D2:D4" si="0">CONCATENATE("[",B2,"](",C2,")")</f>
@@ -47218,10 +46588,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D3" s="56" t="str">
         <f t="shared" si="0"/>
@@ -47245,10 +46615,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D4" s="56" t="str">
         <f t="shared" si="0"/>
@@ -47272,10 +46642,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D5" s="56" t="str">
         <f>CONCATENATE("[",B5,"](",C5,")")</f>
@@ -47295,10 +46665,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D6" s="56" t="str">
         <f t="shared" ref="D6:D27" si="3">CONCATENATE("[",B6,"](",C6,")")</f>
@@ -47318,10 +46688,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D7" s="56" t="str">
         <f t="shared" si="3"/>
@@ -47341,10 +46711,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D8" s="56" t="str">
         <f t="shared" si="3"/>
@@ -47364,10 +46734,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D9" s="56" t="str">
         <f t="shared" si="3"/>
@@ -47387,10 +46757,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D10" s="56" t="str">
         <f t="shared" si="3"/>
@@ -47410,10 +46780,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D11" s="56" t="str">
         <f t="shared" si="3"/>
@@ -47433,10 +46803,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D12" s="56" t="str">
         <f t="shared" si="3"/>
@@ -47456,10 +46826,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D13" s="56" t="str">
         <f t="shared" si="3"/>
@@ -47479,10 +46849,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D14" s="56" t="str">
         <f t="shared" si="3"/>
@@ -47502,10 +46872,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D15" s="56" t="str">
         <f t="shared" si="3"/>
@@ -47525,10 +46895,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D16" s="56" t="str">
         <f t="shared" si="3"/>
@@ -47548,10 +46918,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D17" s="56" t="str">
         <f t="shared" si="3"/>
@@ -47571,10 +46941,10 @@
         <v>12</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D18" s="56" t="str">
         <f t="shared" si="3"/>
@@ -47594,10 +46964,10 @@
         <v>12</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D19" s="56" t="str">
         <f t="shared" si="3"/>
@@ -47617,10 +46987,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D20" s="56" t="str">
         <f t="shared" si="3"/>
@@ -47640,10 +47010,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D21" s="56" t="str">
         <f t="shared" si="3"/>
@@ -47663,10 +47033,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D22" s="56" t="str">
         <f t="shared" si="3"/>
@@ -47686,10 +47056,10 @@
         <v>20</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D23" s="56" t="str">
         <f t="shared" si="3"/>
@@ -47709,10 +47079,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D24" s="56" t="str">
         <f t="shared" si="3"/>
@@ -47732,10 +47102,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D25" s="56" t="str">
         <f t="shared" si="3"/>
@@ -47755,10 +47125,10 @@
         <v>23</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D26" s="56" t="str">
         <f t="shared" si="3"/>
@@ -47778,10 +47148,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D27" s="56" t="str">
         <f t="shared" si="3"/>
@@ -47809,11 +47179,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -47822,14 +47192,17 @@
     <col min="2" max="2" width="36" customWidth="1"/>
     <col min="3" max="3" width="30.3984375" style="29" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
-    <col min="5" max="5" width="17.046875" style="56" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="27.25" style="56" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="30.84765625" style="56" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="13.1484375" style="56" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="22.796875" style="56" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="17.046875" style="56" customWidth="1"/>
+    <col min="6" max="6" width="27.25" style="56" customWidth="1"/>
+    <col min="7" max="7" width="30.84765625" style="56" customWidth="1"/>
+    <col min="8" max="8" width="13.1484375" style="56" customWidth="1"/>
+    <col min="9" max="9" width="17.046875" style="56" customWidth="1"/>
+    <col min="10" max="10" width="15.8984375" customWidth="1"/>
+    <col min="11" max="11" width="25.69921875" style="56" customWidth="1"/>
+    <col min="12" max="12" width="28.19921875" style="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="32" customFormat="1" ht="18.3">
+    <row r="1" spans="1:12" s="32" customFormat="1" ht="18.3">
       <c r="A1" s="33" t="s">
         <v>731</v>
       </c>
@@ -47837,28 +47210,35 @@
         <v>732</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E1" s="55" t="s">
+        <v>881</v>
+      </c>
+      <c r="F1" s="55" t="s">
+        <v>882</v>
+      </c>
+      <c r="G1" s="55" t="s">
+        <v>883</v>
+      </c>
+      <c r="H1" s="55" t="s">
         <v>884</v>
       </c>
-      <c r="F1" s="55" t="s">
-        <v>885</v>
-      </c>
-      <c r="G1" s="55" t="s">
-        <v>886</v>
-      </c>
-      <c r="H1" s="55" t="s">
-        <v>887</v>
-      </c>
-      <c r="I1" s="55" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="I1" s="55"/>
+      <c r="J1" s="90" t="s">
+        <v>903</v>
+      </c>
+      <c r="K1" s="90" t="s">
+        <v>904</v>
+      </c>
+      <c r="L1" s="90" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="34">
         <v>1</v>
       </c>
@@ -47866,7 +47246,7 @@
         <v>723</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="D2" s="27" t="s">
         <v>726</v>
@@ -47894,13 +47274,25 @@
       <c r="I2" s="56" t="str">
         <f>I1&amp;"
 "&amp;H2</f>
-        <v>TOC entries (grouped)
+        <v xml:space="preserve">
   - title: What is Jupyter?
     url: /notebooks/01-what-is-jupyter
     not_numbered: true</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="56" t="str">
+        <f>IF(ISBLANK(C2),"",CONCATENATE("[",B2,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C2,".html)"))</f>
+        <v>[What is Jupyter?](https://rpi-data.github.io/course-intro-ml-app/notebooks/01-what-is-jupyter.html)</v>
+      </c>
+      <c r="K2" s="56" t="str">
+        <f>IF(A2=A1,K1&amp;"&lt;br&gt;"&amp;J2,J2)</f>
+        <v>[What is Jupyter?](https://rpi-data.github.io/course-intro-ml-app/notebooks/01-what-is-jupyter.html)</v>
+      </c>
+      <c r="L2" s="56" t="str">
+        <f>IF(A2&lt;&gt;A3,K2,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="34">
         <v>1</v>
       </c>
@@ -47908,7 +47300,7 @@
         <v>724</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="D3" s="28" t="s">
         <v>727</v>
@@ -47918,7 +47310,7 @@
         <v>Notebook Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/02-notebook-basics.ipynb)</v>
       </c>
       <c r="F3" s="56" t="str">
-        <f t="shared" ref="F3:F11" si="1">IF(A3=A2,F2&amp;"&lt;br&gt;"&amp;E3,E3)</f>
+        <f t="shared" ref="F3:F33" si="1">IF(A3=A2,F2&amp;"&lt;br&gt;"&amp;E3,E3)</f>
         <v>What is Jupyter? - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/01-what-is-jupyter.ipynb#scrollTo=mdFTkIqGwgOJ)&lt;br&gt;Notebook Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/02-notebook-basics.ipynb)</v>
       </c>
       <c r="G3" s="56" t="str">
@@ -47926,7 +47318,7 @@
         <v/>
       </c>
       <c r="H3" s="56" t="str">
-        <f t="shared" ref="H3:H35" si="3">IF(ISBLANK(C3),"",CONCATENATE("  - title: ",B3,"
+        <f t="shared" ref="H3:H33" si="3">IF(ISBLANK(C3),"",CONCATENATE("  - title: ",B3,"
     url: /notebooks/",C3,"
     not_numbered: true"))</f>
         <v xml:space="preserve">  - title: Notebook Basics
@@ -47934,9 +47326,9 @@
     not_numbered: true</v>
       </c>
       <c r="I3" s="56" t="str">
-        <f t="shared" ref="I3:I13" si="4">I2&amp;"
+        <f t="shared" ref="I3:I33" si="4">I2&amp;"
 "&amp;H3</f>
-        <v>TOC entries (grouped)
+        <v xml:space="preserve">
   - title: What is Jupyter?
     url: /notebooks/01-what-is-jupyter
     not_numbered: true
@@ -47944,8 +47336,20 @@
     url: /notebooks/02-notebook-basics
     not_numbered: true</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="56" t="str">
+        <f>IF(ISBLANK(C3),"",CONCATENATE("[",B3,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C3,".html)"))</f>
+        <v>[Notebook Basics](https://rpi-data.github.io/course-intro-ml-app/notebooks/02-notebook-basics.html)</v>
+      </c>
+      <c r="K3" s="56" t="str">
+        <f t="shared" ref="K3:K33" si="5">IF(A3=A2,K2&amp;"&lt;br&gt;"&amp;J3,J3)</f>
+        <v>[What is Jupyter?](https://rpi-data.github.io/course-intro-ml-app/notebooks/01-what-is-jupyter.html)&lt;br&gt;[Notebook Basics](https://rpi-data.github.io/course-intro-ml-app/notebooks/02-notebook-basics.html)</v>
+      </c>
+      <c r="L3" s="56" t="str">
+        <f t="shared" ref="L3:L33" si="6">IF(A3&lt;&gt;A4,K3,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="34">
         <v>1</v>
       </c>
@@ -47953,7 +47357,7 @@
         <v>725</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>728</v>
@@ -47978,7 +47382,7 @@
       </c>
       <c r="I4" s="56" t="str">
         <f t="shared" si="4"/>
-        <v>TOC entries (grouped)
+        <v xml:space="preserve">
   - title: What is Jupyter?
     url: /notebooks/01-what-is-jupyter
     not_numbered: true
@@ -47989,8 +47393,20 @@
     url: /notebooks/03-running-code
     not_numbered: true</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="56" t="str">
+        <f>IF(ISBLANK(C4),"",CONCATENATE("[",B4,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C4,".html)"))</f>
+        <v>[Running Code](https://rpi-data.github.io/course-intro-ml-app/notebooks/03-running-code.html)</v>
+      </c>
+      <c r="K4" s="56" t="str">
+        <f t="shared" si="5"/>
+        <v>[What is Jupyter?](https://rpi-data.github.io/course-intro-ml-app/notebooks/01-what-is-jupyter.html)&lt;br&gt;[Notebook Basics](https://rpi-data.github.io/course-intro-ml-app/notebooks/02-notebook-basics.html)&lt;br&gt;[Running Code](https://rpi-data.github.io/course-intro-ml-app/notebooks/03-running-code.html)</v>
+      </c>
+      <c r="L4" s="56" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="34">
         <v>1</v>
       </c>
@@ -47998,7 +47414,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>729</v>
@@ -48012,7 +47428,7 @@
         <v>What is Jupyter? - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/01-what-is-jupyter.ipynb#scrollTo=mdFTkIqGwgOJ)&lt;br&gt;Notebook Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/02-notebook-basics.ipynb)&lt;br&gt;Running Code - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/03-running-code.ipynb)&lt;br&gt;Markdown - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/04-markdown.ipynb)</v>
       </c>
       <c r="G5" s="56" t="str">
-        <f t="shared" ref="G5:G34" si="5">IF(A5&lt;&gt;A6,F5,"")</f>
+        <f t="shared" ref="G5:G33" si="7">IF(A5&lt;&gt;A6,F5,"")</f>
         <v>What is Jupyter? - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/01-what-is-jupyter.ipynb#scrollTo=mdFTkIqGwgOJ)&lt;br&gt;Notebook Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/02-notebook-basics.ipynb)&lt;br&gt;Running Code - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/03-running-code.ipynb)&lt;br&gt;Markdown - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/04-markdown.ipynb)</v>
       </c>
       <c r="H5" s="56" t="str">
@@ -48023,7 +47439,7 @@
       </c>
       <c r="I5" s="56" t="str">
         <f t="shared" si="4"/>
-        <v>TOC entries (grouped)
+        <v xml:space="preserve">
   - title: What is Jupyter?
     url: /notebooks/01-what-is-jupyter
     not_numbered: true
@@ -48037,8 +47453,20 @@
     url: /notebooks/04-markdown
     not_numbered: true</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="56" t="str">
+        <f>IF(ISBLANK(C5),"",CONCATENATE("[",B5,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C5,".html)"))</f>
+        <v>[Markdown](https://rpi-data.github.io/course-intro-ml-app/notebooks/04-markdown.html)</v>
+      </c>
+      <c r="K5" s="56" t="str">
+        <f t="shared" si="5"/>
+        <v>[What is Jupyter?](https://rpi-data.github.io/course-intro-ml-app/notebooks/01-what-is-jupyter.html)&lt;br&gt;[Notebook Basics](https://rpi-data.github.io/course-intro-ml-app/notebooks/02-notebook-basics.html)&lt;br&gt;[Running Code](https://rpi-data.github.io/course-intro-ml-app/notebooks/03-running-code.html)&lt;br&gt;[Markdown](https://rpi-data.github.io/course-intro-ml-app/notebooks/04-markdown.html)</v>
+      </c>
+      <c r="L5" s="56" t="str">
+        <f t="shared" si="6"/>
+        <v>[What is Jupyter?](https://rpi-data.github.io/course-intro-ml-app/notebooks/01-what-is-jupyter.html)&lt;br&gt;[Notebook Basics](https://rpi-data.github.io/course-intro-ml-app/notebooks/02-notebook-basics.html)&lt;br&gt;[Running Code](https://rpi-data.github.io/course-intro-ml-app/notebooks/03-running-code.html)&lt;br&gt;[Markdown](https://rpi-data.github.io/course-intro-ml-app/notebooks/04-markdown.html)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="34">
         <v>2</v>
       </c>
@@ -48046,13 +47474,13 @@
         <v>738</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="D6" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E6" s="56" t="str">
-        <f t="shared" ref="E6:E35" si="6">CONCATENATE(B6," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D6,")")</f>
+        <f t="shared" ref="E6:E33" si="8">CONCATENATE(B6," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D6,")")</f>
         <v>Python Overview - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/01-intro-python-overview.ipynb)</v>
       </c>
       <c r="F6" s="56" t="str">
@@ -48060,7 +47488,7 @@
         <v>Python Overview - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/01-intro-python-overview.ipynb)</v>
       </c>
       <c r="G6" s="56" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H6" s="56" t="str">
@@ -48071,7 +47499,7 @@
       </c>
       <c r="I6" s="56" t="str">
         <f t="shared" si="4"/>
-        <v>TOC entries (grouped)
+        <v xml:space="preserve">
   - title: What is Jupyter?
     url: /notebooks/01-what-is-jupyter
     not_numbered: true
@@ -48088,8 +47516,20 @@
     url: /notebooks/05-intro-python-overview
     not_numbered: true</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="56" t="str">
+        <f>IF(ISBLANK(C6),"",CONCATENATE("[",B6,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C6,".html)"))</f>
+        <v>[Python Overview](https://rpi-data.github.io/course-intro-ml-app/notebooks/05-intro-python-overview.html)</v>
+      </c>
+      <c r="K6" s="56" t="str">
+        <f t="shared" si="5"/>
+        <v>[Python Overview](https://rpi-data.github.io/course-intro-ml-app/notebooks/05-intro-python-overview.html)</v>
+      </c>
+      <c r="L6" s="56" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="34">
         <v>2</v>
       </c>
@@ -48097,13 +47537,13 @@
         <v>739</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="D7" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E7" s="56" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Basic Data Structures - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/02-intro-python-datastructures.ipynbhttps://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/03-intro-python-numpy.ipynb)</v>
       </c>
       <c r="F7" s="56" t="str">
@@ -48111,7 +47551,7 @@
         <v>Python Overview - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/01-intro-python-overview.ipynb)&lt;br&gt;Basic Data Structures - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/02-intro-python-datastructures.ipynbhttps://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/03-intro-python-numpy.ipynb)</v>
       </c>
       <c r="G7" s="56" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H7" s="56" t="str">
@@ -48122,7 +47562,7 @@
       </c>
       <c r="I7" s="56" t="str">
         <f t="shared" si="4"/>
-        <v>TOC entries (grouped)
+        <v xml:space="preserve">
   - title: What is Jupyter?
     url: /notebooks/01-what-is-jupyter
     not_numbered: true
@@ -48142,8 +47582,20 @@
     url: /notebooks/06-intro-python-datastructures
     not_numbered: true</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="56" t="str">
+        <f>IF(ISBLANK(C7),"",CONCATENATE("[",B7,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C7,".html)"))</f>
+        <v>[Basic Data Structures](https://rpi-data.github.io/course-intro-ml-app/notebooks/06-intro-python-datastructures.html)</v>
+      </c>
+      <c r="K7" s="56" t="str">
+        <f t="shared" si="5"/>
+        <v>[Python Overview](https://rpi-data.github.io/course-intro-ml-app/notebooks/05-intro-python-overview.html)&lt;br&gt;[Basic Data Structures](https://rpi-data.github.io/course-intro-ml-app/notebooks/06-intro-python-datastructures.html)</v>
+      </c>
+      <c r="L7" s="56" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="34">
         <v>2</v>
       </c>
@@ -48151,13 +47603,13 @@
         <v>740</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D8" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E8" s="56" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)</v>
       </c>
       <c r="F8" s="56" t="str">
@@ -48165,7 +47617,7 @@
         <v>Python Overview - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/01-intro-python-overview.ipynb)&lt;br&gt;Basic Data Structures - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/02-intro-python-datastructures.ipynbhttps://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/03-intro-python-numpy.ipynb)&lt;br&gt;Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)</v>
       </c>
       <c r="G8" s="56" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H8" s="56" t="str">
@@ -48176,7 +47628,7 @@
       </c>
       <c r="I8" s="56" t="str">
         <f t="shared" si="4"/>
-        <v>TOC entries (grouped)
+        <v xml:space="preserve">
   - title: What is Jupyter?
     url: /notebooks/01-what-is-jupyter
     not_numbered: true
@@ -48199,8 +47651,20 @@
     url: /notebooks/07-intro-python-numpy
     not_numbered: true</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="56" t="str">
+        <f>IF(ISBLANK(C8),"",CONCATENATE("[",B8,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C8,".html)"))</f>
+        <v>[Numpy](https://rpi-data.github.io/course-intro-ml-app/notebooks/07-intro-python-numpy.html)</v>
+      </c>
+      <c r="K8" s="56" t="str">
+        <f t="shared" si="5"/>
+        <v>[Python Overview](https://rpi-data.github.io/course-intro-ml-app/notebooks/05-intro-python-overview.html)&lt;br&gt;[Basic Data Structures](https://rpi-data.github.io/course-intro-ml-app/notebooks/06-intro-python-datastructures.html)&lt;br&gt;[Numpy](https://rpi-data.github.io/course-intro-ml-app/notebooks/07-intro-python-numpy.html)</v>
+      </c>
+      <c r="L8" s="56" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="34">
         <v>2</v>
       </c>
@@ -48208,13 +47672,13 @@
         <v>741</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="D9" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E9" s="56" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Pandas - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)</v>
       </c>
       <c r="F9" s="56" t="str">
@@ -48222,8 +47686,8 @@
         <v>Python Overview - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/01-intro-python-overview.ipynb)&lt;br&gt;Basic Data Structures - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/02-intro-python-datastructures.ipynbhttps://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/03-intro-python-numpy.ipynb)&lt;br&gt;Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)&lt;br&gt;Pandas - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)</v>
       </c>
       <c r="G9" s="56" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>Python Overview - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/01-intro-python-overview.ipynb)&lt;br&gt;Basic Data Structures - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/02-intro-python-datastructures.ipynbhttps://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/03-intro-python-numpy.ipynb)&lt;br&gt;Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)&lt;br&gt;Pandas - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)</v>
       </c>
       <c r="H9" s="56" t="str">
         <f t="shared" si="3"/>
@@ -48233,7 +47697,7 @@
       </c>
       <c r="I9" s="56" t="str">
         <f t="shared" si="4"/>
-        <v>TOC entries (grouped)
+        <v xml:space="preserve">
   - title: What is Jupyter?
     url: /notebooks/01-what-is-jupyter
     not_numbered: true
@@ -48259,28 +47723,39 @@
     url: /notebooks/08-intro-python-pandas
     not_numbered: true</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="56" t="str">
+        <f>IF(ISBLANK(C9),"",CONCATENATE("[",B9,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C9,".html)"))</f>
+        <v>[Pandas](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+      </c>
+      <c r="K9" s="56" t="str">
+        <f t="shared" si="5"/>
+        <v>[Python Overview](https://rpi-data.github.io/course-intro-ml-app/notebooks/05-intro-python-overview.html)&lt;br&gt;[Basic Data Structures](https://rpi-data.github.io/course-intro-ml-app/notebooks/06-intro-python-datastructures.html)&lt;br&gt;[Numpy](https://rpi-data.github.io/course-intro-ml-app/notebooks/07-intro-python-numpy.html)&lt;br&gt;[Pandas](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+      </c>
+      <c r="L9" s="56" t="str">
+        <f t="shared" si="6"/>
+        <v>[Python Overview](https://rpi-data.github.io/course-intro-ml-app/notebooks/05-intro-python-overview.html)&lt;br&gt;[Basic Data Structures](https://rpi-data.github.io/course-intro-ml-app/notebooks/06-intro-python-datastructures.html)&lt;br&gt;[Numpy](https://rpi-data.github.io/course-intro-ml-app/notebooks/07-intro-python-numpy.html)&lt;br&gt;[Pandas](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="34">
-        <v>2</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>742</v>
-      </c>
-      <c r="C10" s="35"/>
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>798</v>
+      </c>
       <c r="D10" t="s">
-        <v>746</v>
+        <v>799</v>
       </c>
       <c r="E10" s="56" t="str">
-        <f t="shared" si="6"/>
-        <v>Lab - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/lab/lab.ipynb)</v>
+        <f t="shared" si="8"/>
+        <v>Conditional-Loops - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb)</v>
       </c>
       <c r="F10" s="56" t="str">
         <f t="shared" si="1"/>
-        <v>Python Overview - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/01-intro-python-overview.ipynb)&lt;br&gt;Basic Data Structures - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/02-intro-python-datastructures.ipynbhttps://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/03-intro-python-numpy.ipynb)&lt;br&gt;Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)&lt;br&gt;Pandas - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)&lt;br&gt;Lab - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/lab/lab.ipynb)</v>
+        <v>Conditional-Loops - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb)</v>
       </c>
       <c r="G10" s="56" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H10" s="56" t="str">
@@ -48289,7 +47764,7 @@
       </c>
       <c r="I10" s="56" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">TOC entries (grouped)
+        <v xml:space="preserve">
   - title: What is Jupyter?
     url: /notebooks/01-what-is-jupyter
     not_numbered: true
@@ -48316,29 +47791,40 @@
     not_numbered: true
 </v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="56" t="str">
+        <f>IF(ISBLANK(C10),"",CONCATENATE("[",B10,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C10,".html)"))</f>
+        <v/>
+      </c>
+      <c r="K10" s="56" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L10" s="56" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="34">
-        <v>2</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>809</v>
-      </c>
-      <c r="C11" s="35"/>
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>800</v>
+      </c>
       <c r="D11" t="s">
-        <v>747</v>
+        <v>801</v>
       </c>
       <c r="E11" s="56" t="str">
-        <f t="shared" si="6"/>
-        <v>Assignment 1 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/hm-01/hm01.ipynb)</v>
+        <f t="shared" si="8"/>
+        <v>Functions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/02-intro-python-functions.ipynb)</v>
       </c>
       <c r="F11" s="56" t="str">
         <f t="shared" si="1"/>
-        <v>Python Overview - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/01-intro-python-overview.ipynb)&lt;br&gt;Basic Data Structures - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/02-intro-python-datastructures.ipynbhttps://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/03-intro-python-numpy.ipynb)&lt;br&gt;Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)&lt;br&gt;Pandas - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)&lt;br&gt;Lab - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/lab/lab.ipynb)&lt;br&gt;Assignment 1 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/hm-01/hm01.ipynb)</v>
+        <v>Conditional-Loops - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb)&lt;br&gt;Functions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/02-intro-python-functions.ipynb)</v>
       </c>
       <c r="G11" s="56" t="str">
-        <f t="shared" si="5"/>
-        <v>Python Overview - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/01-intro-python-overview.ipynb)&lt;br&gt;Basic Data Structures - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/02-intro-python-datastructures.ipynbhttps://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/03-intro-python-numpy.ipynb)&lt;br&gt;Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)&lt;br&gt;Pandas - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)&lt;br&gt;Lab - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/lab/lab.ipynb)&lt;br&gt;Assignment 1 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/hm-01/hm01.ipynb)</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="H11" s="56" t="str">
         <f t="shared" si="3"/>
@@ -48346,7 +47832,7 @@
       </c>
       <c r="I11" s="56" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">TOC entries (grouped)
+        <v xml:space="preserve">
   - title: What is Jupyter?
     url: /notebooks/01-what-is-jupyter
     not_numbered: true
@@ -48373,27 +47859,39 @@
     not_numbered: true
 </v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="56" t="str">
+        <f>IF(ISBLANK(C11),"",CONCATENATE("[",B11,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C11,".html)"))</f>
+        <v/>
+      </c>
+      <c r="K11" s="56" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;br&gt;</v>
+      </c>
+      <c r="L11" s="56" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="34">
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="D12" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="E12" s="56" t="str">
-        <f t="shared" si="6"/>
-        <v>Conditional-Loops - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb)</v>
+        <f t="shared" si="8"/>
+        <v>Null Values - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/03-intro-python-null-values.ipynb)</v>
       </c>
       <c r="F12" s="56" t="str">
-        <f t="shared" ref="F12:F35" si="7">IF(A12=A11,F11&amp;"&lt;br&gt;"&amp;E12,E12)</f>
-        <v>Conditional-Loops - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb)</v>
+        <f t="shared" si="1"/>
+        <v>Conditional-Loops - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb)&lt;br&gt;Functions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/02-intro-python-functions.ipynb)&lt;br&gt;Null Values - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/03-intro-python-null-values.ipynb)</v>
       </c>
       <c r="G12" s="56" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H12" s="56" t="str">
@@ -48402,7 +47900,7 @@
       </c>
       <c r="I12" s="56" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">TOC entries (grouped)
+        <v xml:space="preserve">
   - title: What is Jupyter?
     url: /notebooks/01-what-is-jupyter
     not_numbered: true
@@ -48429,27 +47927,39 @@
     not_numbered: true
 </v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="56" t="str">
+        <f>IF(ISBLANK(C12),"",CONCATENATE("[",B12,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C12,".html)"))</f>
+        <v/>
+      </c>
+      <c r="K12" s="56" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;br&gt;&lt;br&gt;</v>
+      </c>
+      <c r="L12" s="56" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="34">
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="D13" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="E13" s="56" t="str">
-        <f t="shared" si="6"/>
-        <v>Functions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/02-intro-python-functions.ipynb)</v>
+        <f t="shared" si="8"/>
+        <v>Groupby - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/04-intro-python-groupby.ipynb)</v>
       </c>
       <c r="F13" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>Conditional-Loops - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb)&lt;br&gt;Functions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/02-intro-python-functions.ipynb)&lt;br&gt;Null Values - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/03-intro-python-null-values.ipynb)&lt;br&gt;Groupby - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/04-intro-python-groupby.ipynb)</v>
+      </c>
+      <c r="G13" s="56" t="str">
         <f t="shared" si="7"/>
-        <v>Conditional-Loops - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb)&lt;br&gt;Functions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/02-intro-python-functions.ipynb)</v>
-      </c>
-      <c r="G13" s="56" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H13" s="56" t="str">
@@ -48458,7 +47968,7 @@
       </c>
       <c r="I13" s="56" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">TOC entries (grouped)
+        <v xml:space="preserve">
   - title: What is Jupyter?
     url: /notebooks/01-what-is-jupyter
     not_numbered: true
@@ -48485,27 +47995,39 @@
     not_numbered: true
 </v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" s="56" t="str">
+        <f>IF(ISBLANK(C13),"",CONCATENATE("[",B13,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C13,".html)"))</f>
+        <v/>
+      </c>
+      <c r="K13" s="56" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;br&gt;&lt;br&gt;&lt;br&gt;</v>
+      </c>
+      <c r="L13" s="56" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="34">
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D14" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="E14" s="56" t="str">
-        <f t="shared" si="6"/>
-        <v>Null Values - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/03-intro-python-null-values.ipynb)</v>
+        <f t="shared" si="8"/>
+        <v>Kaggle Baseline - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/05-intro-kaggle-baseline.ipynb)</v>
       </c>
       <c r="F14" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>Conditional-Loops - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb)&lt;br&gt;Functions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/02-intro-python-functions.ipynb)&lt;br&gt;Null Values - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/03-intro-python-null-values.ipynb)&lt;br&gt;Groupby - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/04-intro-python-groupby.ipynb)&lt;br&gt;Kaggle Baseline - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/05-intro-kaggle-baseline.ipynb)</v>
+      </c>
+      <c r="G14" s="56" t="str">
         <f t="shared" si="7"/>
-        <v>Conditional-Loops - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb)&lt;br&gt;Functions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/02-intro-python-functions.ipynb)&lt;br&gt;Null Values - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/03-intro-python-null-values.ipynb)</v>
-      </c>
-      <c r="G14" s="56" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H14" s="56" t="str">
@@ -48513,9 +48035,8 @@
         <v/>
       </c>
       <c r="I14" s="56" t="str">
-        <f>I13&amp;"
-"&amp;H14</f>
-        <v xml:space="preserve">TOC entries (grouped)
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
   - title: What is Jupyter?
     url: /notebooks/01-what-is-jupyter
     not_numbered: true
@@ -48542,8 +48063,20 @@
     not_numbered: true
 </v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="56" t="str">
+        <f>IF(ISBLANK(C14),"",CONCATENATE("[",B14,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C14,".html)"))</f>
+        <v/>
+      </c>
+      <c r="K14" s="56" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;</v>
+      </c>
+      <c r="L14" s="56" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="34">
         <v>4</v>
       </c>
@@ -48551,28 +48084,27 @@
         <v>806</v>
       </c>
       <c r="D15" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E15" s="56" t="str">
-        <f t="shared" si="6"/>
-        <v>Groupby - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/04-intro-python-groupby.ipynb)</v>
+        <f t="shared" si="8"/>
+        <v>Assignment 2 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/hm-02/hm02.ipynb)</v>
       </c>
       <c r="F15" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>Conditional-Loops - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb)&lt;br&gt;Functions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/02-intro-python-functions.ipynb)&lt;br&gt;Null Values - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/03-intro-python-null-values.ipynb)&lt;br&gt;Groupby - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/04-intro-python-groupby.ipynb)&lt;br&gt;Kaggle Baseline - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/05-intro-kaggle-baseline.ipynb)&lt;br&gt;Assignment 2 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/hm-02/hm02.ipynb)</v>
+      </c>
+      <c r="G15" s="56" t="str">
         <f t="shared" si="7"/>
-        <v>Conditional-Loops - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb)&lt;br&gt;Functions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/02-intro-python-functions.ipynb)&lt;br&gt;Null Values - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/03-intro-python-null-values.ipynb)&lt;br&gt;Groupby - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/04-intro-python-groupby.ipynb)</v>
-      </c>
-      <c r="G15" s="56" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <v>Conditional-Loops - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb)&lt;br&gt;Functions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/02-intro-python-functions.ipynb)&lt;br&gt;Null Values - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/03-intro-python-null-values.ipynb)&lt;br&gt;Groupby - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/04-intro-python-groupby.ipynb)&lt;br&gt;Kaggle Baseline - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/05-intro-kaggle-baseline.ipynb)&lt;br&gt;Assignment 2 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/hm-02/hm02.ipynb)</v>
       </c>
       <c r="H15" s="56" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I15" s="56" t="str">
-        <f t="shared" ref="I15:I35" si="8">I14&amp;"
-"&amp;H15</f>
-        <v xml:space="preserve">TOC entries (grouped)
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
   - title: What is Jupyter?
     url: /notebooks/01-what-is-jupyter
     not_numbered: true
@@ -48599,27 +48131,39 @@
     not_numbered: true
 </v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" s="56" t="str">
+        <f>IF(ISBLANK(C15),"",CONCATENATE("[",B15,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C15,".html)"))</f>
+        <v/>
+      </c>
+      <c r="K15" s="56" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;</v>
+      </c>
+      <c r="L15" s="56" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="34">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="D16" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="E16" s="56" t="str">
-        <f t="shared" si="6"/>
-        <v>Kaggle Baseline - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/05-intro-kaggle-baseline.ipynb)</v>
+        <f t="shared" si="8"/>
+        <v>Twitter - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb)</v>
       </c>
       <c r="F16" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>Twitter - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb)</v>
+      </c>
+      <c r="G16" s="56" t="str">
         <f t="shared" si="7"/>
-        <v>Conditional-Loops - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb)&lt;br&gt;Functions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/02-intro-python-functions.ipynb)&lt;br&gt;Null Values - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/03-intro-python-null-values.ipynb)&lt;br&gt;Groupby - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/04-intro-python-groupby.ipynb)&lt;br&gt;Kaggle Baseline - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/05-intro-kaggle-baseline.ipynb)</v>
-      </c>
-      <c r="G16" s="56" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H16" s="56" t="str">
@@ -48627,8 +48171,8 @@
         <v/>
       </c>
       <c r="I16" s="56" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">TOC entries (grouped)
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
   - title: What is Jupyter?
     url: /notebooks/01-what-is-jupyter
     not_numbered: true
@@ -48655,36 +48199,48 @@
     not_numbered: true
 </v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" s="56" t="str">
+        <f>IF(ISBLANK(C16),"",CONCATENATE("[",B16,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C16,".html)"))</f>
+        <v/>
+      </c>
+      <c r="K16" s="56" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L16" s="56" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="34">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="D17" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="E17" s="56" t="str">
-        <f t="shared" si="6"/>
-        <v>Assignment 2 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/hm-02/hm02.ipynb)</v>
+        <f t="shared" si="8"/>
+        <v>Web Mining - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/02_intro_python_webmining.ipynb)</v>
       </c>
       <c r="F17" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>Twitter - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb)&lt;br&gt;Web Mining - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/02_intro_python_webmining.ipynb)</v>
+      </c>
+      <c r="G17" s="56" t="str">
         <f t="shared" si="7"/>
-        <v>Conditional-Loops - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb)&lt;br&gt;Functions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/02-intro-python-functions.ipynb)&lt;br&gt;Null Values - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/03-intro-python-null-values.ipynb)&lt;br&gt;Groupby - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/04-intro-python-groupby.ipynb)&lt;br&gt;Kaggle Baseline - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/05-intro-kaggle-baseline.ipynb)&lt;br&gt;Assignment 2 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/hm-02/hm02.ipynb)</v>
-      </c>
-      <c r="G17" s="56" t="str">
-        <f t="shared" si="5"/>
-        <v>Conditional-Loops - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb)&lt;br&gt;Functions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/02-intro-python-functions.ipynb)&lt;br&gt;Null Values - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/03-intro-python-null-values.ipynb)&lt;br&gt;Groupby - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/04-intro-python-groupby.ipynb)&lt;br&gt;Kaggle Baseline - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/05-intro-kaggle-baseline.ipynb)&lt;br&gt;Assignment 2 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/hm-02/hm02.ipynb)</v>
+        <v/>
       </c>
       <c r="H17" s="56" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I17" s="56" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">TOC entries (grouped)
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
   - title: What is Jupyter?
     url: /notebooks/01-what-is-jupyter
     not_numbered: true
@@ -48711,27 +48267,39 @@
     not_numbered: true
 </v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" s="56" t="str">
+        <f>IF(ISBLANK(C17),"",CONCATENATE("[",B17,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C17,".html)"))</f>
+        <v/>
+      </c>
+      <c r="K17" s="56" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;br&gt;</v>
+      </c>
+      <c r="L17" s="56" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="34">
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D18" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E18" s="56" t="str">
-        <f t="shared" si="6"/>
-        <v>Twitter - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb)</v>
+        <f t="shared" si="8"/>
+        <v>Visualizations - Seaborn - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/03_visualization_python_seaborn.ipynb)</v>
       </c>
       <c r="F18" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>Twitter - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb)&lt;br&gt;Web Mining - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/02_intro_python_webmining.ipynb)&lt;br&gt;Visualizations - Seaborn - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/03_visualization_python_seaborn.ipynb)</v>
+      </c>
+      <c r="G18" s="56" t="str">
         <f t="shared" si="7"/>
-        <v>Twitter - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb)</v>
-      </c>
-      <c r="G18" s="56" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H18" s="56" t="str">
@@ -48739,8 +48307,8 @@
         <v/>
       </c>
       <c r="I18" s="56" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">TOC entries (grouped)
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
   - title: What is Jupyter?
     url: /notebooks/01-what-is-jupyter
     not_numbered: true
@@ -48767,27 +48335,39 @@
     not_numbered: true
 </v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="56" t="str">
+        <f>IF(ISBLANK(C18),"",CONCATENATE("[",B18,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C18,".html)"))</f>
+        <v/>
+      </c>
+      <c r="K18" s="56" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;br&gt;&lt;br&gt;</v>
+      </c>
+      <c r="L18" s="56" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="34">
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D19" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E19" s="56" t="str">
-        <f t="shared" si="6"/>
-        <v>Web Mining - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/02_intro_python_webmining.ipynb)</v>
+        <f t="shared" si="8"/>
+        <v>Strings - Regular Expressions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/04_strings_and_regular_expressions.ipynb)</v>
       </c>
       <c r="F19" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>Twitter - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb)&lt;br&gt;Web Mining - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/02_intro_python_webmining.ipynb)&lt;br&gt;Visualizations - Seaborn - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/03_visualization_python_seaborn.ipynb)&lt;br&gt;Strings - Regular Expressions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/04_strings_and_regular_expressions.ipynb)</v>
+      </c>
+      <c r="G19" s="56" t="str">
         <f t="shared" si="7"/>
-        <v>Twitter - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb)&lt;br&gt;Web Mining - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/02_intro_python_webmining.ipynb)</v>
-      </c>
-      <c r="G19" s="56" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H19" s="56" t="str">
@@ -48795,8 +48375,8 @@
         <v/>
       </c>
       <c r="I19" s="56" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">TOC entries (grouped)
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
   - title: What is Jupyter?
     url: /notebooks/01-what-is-jupyter
     not_numbered: true
@@ -48823,27 +48403,39 @@
     not_numbered: true
 </v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" s="56" t="str">
+        <f>IF(ISBLANK(C19),"",CONCATENATE("[",B19,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C19,".html)"))</f>
+        <v/>
+      </c>
+      <c r="K19" s="56" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;br&gt;&lt;br&gt;&lt;br&gt;</v>
+      </c>
+      <c r="L19" s="56" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="34">
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D20" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E20" s="56" t="str">
-        <f t="shared" si="6"/>
-        <v>Visualizations - Seaborn - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/03_visualization_python_seaborn.ipynb)</v>
+        <f t="shared" si="8"/>
+        <v>Feature Dummies - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/05_features_dummies.ipynb)</v>
       </c>
       <c r="F20" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>Twitter - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb)&lt;br&gt;Web Mining - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/02_intro_python_webmining.ipynb)&lt;br&gt;Visualizations - Seaborn - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/03_visualization_python_seaborn.ipynb)&lt;br&gt;Strings - Regular Expressions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/04_strings_and_regular_expressions.ipynb)&lt;br&gt;Feature Dummies - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/05_features_dummies.ipynb)</v>
+      </c>
+      <c r="G20" s="56" t="str">
         <f t="shared" si="7"/>
-        <v>Twitter - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb)&lt;br&gt;Web Mining - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/02_intro_python_webmining.ipynb)&lt;br&gt;Visualizations - Seaborn - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/03_visualization_python_seaborn.ipynb)</v>
-      </c>
-      <c r="G20" s="56" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H20" s="56" t="str">
@@ -48851,8 +48443,8 @@
         <v/>
       </c>
       <c r="I20" s="56" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">TOC entries (grouped)
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
   - title: What is Jupyter?
     url: /notebooks/01-what-is-jupyter
     not_numbered: true
@@ -48879,36 +48471,48 @@
     not_numbered: true
 </v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" s="56" t="str">
+        <f>IF(ISBLANK(C20),"",CONCATENATE("[",B20,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C20,".html)"))</f>
+        <v/>
+      </c>
+      <c r="K20" s="56" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;</v>
+      </c>
+      <c r="L20" s="56" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="34">
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E21" s="56" t="str">
-        <f t="shared" si="6"/>
-        <v>Strings - Regular Expressions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/04_strings_and_regular_expressions.ipynb)</v>
+        <f t="shared" si="8"/>
+        <v>Assignment 3 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/hm-03/hm03.ipynb)</v>
       </c>
       <c r="F21" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>Twitter - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb)&lt;br&gt;Web Mining - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/02_intro_python_webmining.ipynb)&lt;br&gt;Visualizations - Seaborn - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/03_visualization_python_seaborn.ipynb)&lt;br&gt;Strings - Regular Expressions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/04_strings_and_regular_expressions.ipynb)&lt;br&gt;Feature Dummies - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/05_features_dummies.ipynb)&lt;br&gt;Assignment 3 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/hm-03/hm03.ipynb)</v>
+      </c>
+      <c r="G21" s="56" t="str">
         <f t="shared" si="7"/>
-        <v>Twitter - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb)&lt;br&gt;Web Mining - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/02_intro_python_webmining.ipynb)&lt;br&gt;Visualizations - Seaborn - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/03_visualization_python_seaborn.ipynb)&lt;br&gt;Strings - Regular Expressions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/04_strings_and_regular_expressions.ipynb)</v>
-      </c>
-      <c r="G21" s="56" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <v>Twitter - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb)&lt;br&gt;Web Mining - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/02_intro_python_webmining.ipynb)&lt;br&gt;Visualizations - Seaborn - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/03_visualization_python_seaborn.ipynb)&lt;br&gt;Strings - Regular Expressions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/04_strings_and_regular_expressions.ipynb)&lt;br&gt;Feature Dummies - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/05_features_dummies.ipynb)&lt;br&gt;Assignment 3 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/hm-03/hm03.ipynb)</v>
       </c>
       <c r="H21" s="56" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I21" s="56" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">TOC entries (grouped)
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
   - title: What is Jupyter?
     url: /notebooks/01-what-is-jupyter
     not_numbered: true
@@ -48935,27 +48539,39 @@
     not_numbered: true
 </v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" s="56" t="str">
+        <f>IF(ISBLANK(C21),"",CONCATENATE("[",B21,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C21,".html)"))</f>
+        <v/>
+      </c>
+      <c r="K21" s="56" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;</v>
+      </c>
+      <c r="L21" s="56" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="34">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="D22" t="s">
-        <v>823</v>
+        <v>835</v>
       </c>
       <c r="E22" s="56" t="str">
-        <f t="shared" si="6"/>
-        <v>Feature Dummies - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/05_features_dummies.ipynb)</v>
+        <f t="shared" si="8"/>
+        <v>The Simplest Neural Network with Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)</v>
       </c>
       <c r="F22" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>The Simplest Neural Network with Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)</v>
+      </c>
+      <c r="G22" s="56" t="str">
         <f t="shared" si="7"/>
-        <v>Twitter - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb)&lt;br&gt;Web Mining - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/02_intro_python_webmining.ipynb)&lt;br&gt;Visualizations - Seaborn - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/03_visualization_python_seaborn.ipynb)&lt;br&gt;Strings - Regular Expressions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/04_strings_and_regular_expressions.ipynb)&lt;br&gt;Feature Dummies - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/05_features_dummies.ipynb)</v>
-      </c>
-      <c r="G22" s="56" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H22" s="56" t="str">
@@ -48963,8 +48579,8 @@
         <v/>
       </c>
       <c r="I22" s="56" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">TOC entries (grouped)
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
   - title: What is Jupyter?
     url: /notebooks/01-what-is-jupyter
     not_numbered: true
@@ -48991,36 +48607,48 @@
     not_numbered: true
 </v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" s="56" t="str">
+        <f>IF(ISBLANK(C22),"",CONCATENATE("[",B22,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C22,".html)"))</f>
+        <v/>
+      </c>
+      <c r="K22" s="56" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L22" s="56" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="34">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="D23" t="s">
-        <v>824</v>
+        <v>834</v>
       </c>
       <c r="E23" s="56" t="str">
-        <f t="shared" si="6"/>
-        <v>Assignment 3 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/hm-03/hm03.ipynb)</v>
+        <f t="shared" si="8"/>
+        <v>Train Test Split - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb)</v>
       </c>
       <c r="F23" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>The Simplest Neural Network with Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)&lt;br&gt;Train Test Split - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb)</v>
+      </c>
+      <c r="G23" s="56" t="str">
         <f t="shared" si="7"/>
-        <v>Twitter - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb)&lt;br&gt;Web Mining - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/02_intro_python_webmining.ipynb)&lt;br&gt;Visualizations - Seaborn - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/03_visualization_python_seaborn.ipynb)&lt;br&gt;Strings - Regular Expressions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/04_strings_and_regular_expressions.ipynb)&lt;br&gt;Feature Dummies - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/05_features_dummies.ipynb)&lt;br&gt;Assignment 3 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/hm-03/hm03.ipynb)</v>
-      </c>
-      <c r="G23" s="56" t="str">
-        <f t="shared" si="5"/>
-        <v>Twitter - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb)&lt;br&gt;Web Mining - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/02_intro_python_webmining.ipynb)&lt;br&gt;Visualizations - Seaborn - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/03_visualization_python_seaborn.ipynb)&lt;br&gt;Strings - Regular Expressions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/04_strings_and_regular_expressions.ipynb)&lt;br&gt;Feature Dummies - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/05_features_dummies.ipynb)&lt;br&gt;Assignment 3 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/hm-03/hm03.ipynb)</v>
+        <v/>
       </c>
       <c r="H23" s="56" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I23" s="56" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">TOC entries (grouped)
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
   - title: What is Jupyter?
     url: /notebooks/01-what-is-jupyter
     not_numbered: true
@@ -49047,27 +48675,39 @@
     not_numbered: true
 </v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" s="56" t="str">
+        <f>IF(ISBLANK(C23),"",CONCATENATE("[",B23,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C23,".html)"))</f>
+        <v/>
+      </c>
+      <c r="K23" s="56" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;br&gt;</v>
+      </c>
+      <c r="L23" s="56" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="34">
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D24" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="E24" s="56" t="str">
-        <f t="shared" si="6"/>
-        <v>The Simplest Neural Network with Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)</v>
+        <f t="shared" si="8"/>
+        <v>Introduction to Logistic Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/02-intro-logistic-knn.ipynb)</v>
       </c>
       <c r="F24" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>The Simplest Neural Network with Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)&lt;br&gt;Train Test Split - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb)&lt;br&gt;Introduction to Logistic Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/02-intro-logistic-knn.ipynb)</v>
+      </c>
+      <c r="G24" s="56" t="str">
         <f t="shared" si="7"/>
-        <v>The Simplest Neural Network with Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)</v>
-      </c>
-      <c r="G24" s="56" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H24" s="56" t="str">
@@ -49075,8 +48715,8 @@
         <v/>
       </c>
       <c r="I24" s="56" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">TOC entries (grouped)
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
   - title: What is Jupyter?
     url: /notebooks/01-what-is-jupyter
     not_numbered: true
@@ -49103,27 +48743,39 @@
     not_numbered: true
 </v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" s="56" t="str">
+        <f>IF(ISBLANK(C24),"",CONCATENATE("[",B24,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C24,".html)"))</f>
+        <v/>
+      </c>
+      <c r="K24" s="56" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;br&gt;&lt;br&gt;</v>
+      </c>
+      <c r="L24" s="56" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="34">
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D25" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="E25" s="56" t="str">
-        <f t="shared" si="6"/>
-        <v>Train Test Split - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb)</v>
+        <f t="shared" si="8"/>
+        <v>K Nearest Neighbor - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/03-knn.ipynb)</v>
       </c>
       <c r="F25" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>The Simplest Neural Network with Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)&lt;br&gt;Train Test Split - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb)&lt;br&gt;Introduction to Logistic Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/02-intro-logistic-knn.ipynb)&lt;br&gt;K Nearest Neighbor - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/03-knn.ipynb)</v>
+      </c>
+      <c r="G25" s="56" t="str">
         <f t="shared" si="7"/>
-        <v>The Simplest Neural Network with Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)&lt;br&gt;Train Test Split - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb)</v>
-      </c>
-      <c r="G25" s="56" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H25" s="56" t="str">
@@ -49131,8 +48783,8 @@
         <v/>
       </c>
       <c r="I25" s="56" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">TOC entries (grouped)
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
   - title: What is Jupyter?
     url: /notebooks/01-what-is-jupyter
     not_numbered: true
@@ -49159,27 +48811,39 @@
     not_numbered: true
 </v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" s="56" t="str">
+        <f>IF(ISBLANK(C25),"",CONCATENATE("[",B25,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C25,".html)"))</f>
+        <v/>
+      </c>
+      <c r="K25" s="56" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;br&gt;&lt;br&gt;&lt;br&gt;</v>
+      </c>
+      <c r="L25" s="56" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="34">
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D26" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="E26" s="56" t="str">
-        <f t="shared" si="6"/>
-        <v>Introduction to Logistic Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/02-intro-logistic-knn.ipynb)</v>
+        <f t="shared" si="8"/>
+        <v>ROC and SVM - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/04-svm-roc.ipynb)</v>
       </c>
       <c r="F26" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>The Simplest Neural Network with Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)&lt;br&gt;Train Test Split - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb)&lt;br&gt;Introduction to Logistic Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/02-intro-logistic-knn.ipynb)&lt;br&gt;K Nearest Neighbor - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/03-knn.ipynb)&lt;br&gt;ROC and SVM - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/04-svm-roc.ipynb)</v>
+      </c>
+      <c r="G26" s="56" t="str">
         <f t="shared" si="7"/>
-        <v>The Simplest Neural Network with Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)&lt;br&gt;Train Test Split - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb)&lt;br&gt;Introduction to Logistic Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/02-intro-logistic-knn.ipynb)</v>
-      </c>
-      <c r="G26" s="56" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H26" s="56" t="str">
@@ -49187,8 +48851,8 @@
         <v/>
       </c>
       <c r="I26" s="56" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">TOC entries (grouped)
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
   - title: What is Jupyter?
     url: /notebooks/01-what-is-jupyter
     not_numbered: true
@@ -49215,27 +48879,39 @@
     not_numbered: true
 </v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" s="56" t="str">
+        <f>IF(ISBLANK(C26),"",CONCATENATE("[",B26,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C26,".html)"))</f>
+        <v/>
+      </c>
+      <c r="K26" s="56" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;</v>
+      </c>
+      <c r="L26" s="56" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="34">
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D27" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="E27" s="56" t="str">
-        <f t="shared" si="6"/>
-        <v>K Nearest Neighbor - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/03-knn.ipynb)</v>
+        <f t="shared" si="8"/>
+        <v>HM5A Visualization &amp; Screen Scraping - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05A.ipynb)</v>
       </c>
       <c r="F27" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>The Simplest Neural Network with Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)&lt;br&gt;Train Test Split - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb)&lt;br&gt;Introduction to Logistic Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/02-intro-logistic-knn.ipynb)&lt;br&gt;K Nearest Neighbor - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/03-knn.ipynb)&lt;br&gt;ROC and SVM - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/04-svm-roc.ipynb)&lt;br&gt;HM5A Visualization &amp; Screen Scraping - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05A.ipynb)</v>
+      </c>
+      <c r="G27" s="56" t="str">
         <f t="shared" si="7"/>
-        <v>The Simplest Neural Network with Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)&lt;br&gt;Train Test Split - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb)&lt;br&gt;Introduction to Logistic Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/02-intro-logistic-knn.ipynb)&lt;br&gt;K Nearest Neighbor - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/03-knn.ipynb)</v>
-      </c>
-      <c r="G27" s="56" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H27" s="56" t="str">
@@ -49243,8 +48919,8 @@
         <v/>
       </c>
       <c r="I27" s="56" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">TOC entries (grouped)
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
   - title: What is Jupyter?
     url: /notebooks/01-what-is-jupyter
     not_numbered: true
@@ -49271,36 +48947,48 @@
     not_numbered: true
 </v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27" s="56" t="str">
+        <f>IF(ISBLANK(C27),"",CONCATENATE("[",B27,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C27,".html)"))</f>
+        <v/>
+      </c>
+      <c r="K27" s="56" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;</v>
+      </c>
+      <c r="L27" s="56" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="34">
         <v>9</v>
       </c>
       <c r="B28" t="s">
+        <v>828</v>
+      </c>
+      <c r="D28" t="s">
         <v>829</v>
       </c>
-      <c r="D28" t="s">
-        <v>834</v>
-      </c>
       <c r="E28" s="56" t="str">
-        <f t="shared" si="6"/>
-        <v>ROC and SVM - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/04-svm-roc.ipynb)</v>
+        <f t="shared" si="8"/>
+        <v>HM5B Intro Modeling - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05B.ipynb)</v>
       </c>
       <c r="F28" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>The Simplest Neural Network with Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)&lt;br&gt;Train Test Split - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb)&lt;br&gt;Introduction to Logistic Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/02-intro-logistic-knn.ipynb)&lt;br&gt;K Nearest Neighbor - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/03-knn.ipynb)&lt;br&gt;ROC and SVM - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/04-svm-roc.ipynb)&lt;br&gt;HM5A Visualization &amp; Screen Scraping - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05A.ipynb)&lt;br&gt;HM5B Intro Modeling - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05B.ipynb)</v>
+      </c>
+      <c r="G28" s="56" t="str">
         <f t="shared" si="7"/>
-        <v>The Simplest Neural Network with Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)&lt;br&gt;Train Test Split - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb)&lt;br&gt;Introduction to Logistic Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/02-intro-logistic-knn.ipynb)&lt;br&gt;K Nearest Neighbor - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/03-knn.ipynb)&lt;br&gt;ROC and SVM - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/04-svm-roc.ipynb)</v>
-      </c>
-      <c r="G28" s="56" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <v>The Simplest Neural Network with Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)&lt;br&gt;Train Test Split - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb)&lt;br&gt;Introduction to Logistic Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/02-intro-logistic-knn.ipynb)&lt;br&gt;K Nearest Neighbor - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/03-knn.ipynb)&lt;br&gt;ROC and SVM - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/04-svm-roc.ipynb)&lt;br&gt;HM5A Visualization &amp; Screen Scraping - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05A.ipynb)&lt;br&gt;HM5B Intro Modeling - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05B.ipynb)</v>
       </c>
       <c r="H28" s="56" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I28" s="56" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">TOC entries (grouped)
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
   - title: What is Jupyter?
     url: /notebooks/01-what-is-jupyter
     not_numbered: true
@@ -49327,27 +49015,39 @@
     not_numbered: true
 </v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28" s="56" t="str">
+        <f>IF(ISBLANK(C28),"",CONCATENATE("[",B28,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C28,".html)"))</f>
+        <v/>
+      </c>
+      <c r="K28" s="56" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;</v>
+      </c>
+      <c r="L28" s="56" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="34">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="D29" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="E29" s="56" t="str">
-        <f t="shared" si="6"/>
-        <v>HM5A Visualization &amp; Screen Scraping - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05A.ipynb)</v>
+        <f t="shared" si="8"/>
+        <v>Matrix Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/01-matrix-regression-gradient-decent-python.ipynb)</v>
       </c>
       <c r="F29" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>Matrix Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/01-matrix-regression-gradient-decent-python.ipynb)</v>
+      </c>
+      <c r="G29" s="56" t="str">
         <f t="shared" si="7"/>
-        <v>The Simplest Neural Network with Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)&lt;br&gt;Train Test Split - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb)&lt;br&gt;Introduction to Logistic Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/02-intro-logistic-knn.ipynb)&lt;br&gt;K Nearest Neighbor - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/03-knn.ipynb)&lt;br&gt;ROC and SVM - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/04-svm-roc.ipynb)&lt;br&gt;HM5A Visualization &amp; Screen Scraping - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05A.ipynb)</v>
-      </c>
-      <c r="G29" s="56" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H29" s="56" t="str">
@@ -49355,8 +49055,8 @@
         <v/>
       </c>
       <c r="I29" s="56" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">TOC entries (grouped)
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
   - title: What is Jupyter?
     url: /notebooks/01-what-is-jupyter
     not_numbered: true
@@ -49383,36 +49083,48 @@
     not_numbered: true
 </v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29" s="56" t="str">
+        <f>IF(ISBLANK(C29),"",CONCATENATE("[",B29,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C29,".html)"))</f>
+        <v/>
+      </c>
+      <c r="K29" s="56" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L29" s="56" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="34">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="D30" t="s">
-        <v>832</v>
+        <v>840</v>
       </c>
       <c r="E30" s="56" t="str">
-        <f t="shared" si="6"/>
-        <v>HM5B Intro Modeling - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05B.ipynb)</v>
+        <f t="shared" si="8"/>
+        <v>Regression Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/02-regression-boston-housing-python.ipynb)</v>
       </c>
       <c r="F30" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>Matrix Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/01-matrix-regression-gradient-decent-python.ipynb)&lt;br&gt;Regression Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/02-regression-boston-housing-python.ipynb)</v>
+      </c>
+      <c r="G30" s="56" t="str">
         <f t="shared" si="7"/>
-        <v>The Simplest Neural Network with Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)&lt;br&gt;Train Test Split - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb)&lt;br&gt;Introduction to Logistic Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/02-intro-logistic-knn.ipynb)&lt;br&gt;K Nearest Neighbor - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/03-knn.ipynb)&lt;br&gt;ROC and SVM - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/04-svm-roc.ipynb)&lt;br&gt;HM5A Visualization &amp; Screen Scraping - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05A.ipynb)&lt;br&gt;HM5B Intro Modeling - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05B.ipynb)</v>
-      </c>
-      <c r="G30" s="56" t="str">
-        <f t="shared" si="5"/>
-        <v>The Simplest Neural Network with Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)&lt;br&gt;Train Test Split - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb)&lt;br&gt;Introduction to Logistic Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/02-intro-logistic-knn.ipynb)&lt;br&gt;K Nearest Neighbor - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/03-knn.ipynb)&lt;br&gt;ROC and SVM - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/04-svm-roc.ipynb)&lt;br&gt;HM5A Visualization &amp; Screen Scraping - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05A.ipynb)&lt;br&gt;HM5B Intro Modeling - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05B.ipynb)</v>
+        <v/>
       </c>
       <c r="H30" s="56" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I30" s="56" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">TOC entries (grouped)
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
   - title: What is Jupyter?
     url: /notebooks/01-what-is-jupyter
     not_numbered: true
@@ -49439,36 +49151,48 @@
     not_numbered: true
 </v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30" s="56" t="str">
+        <f>IF(ISBLANK(C30),"",CONCATENATE("[",B30,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C30,".html)"))</f>
+        <v/>
+      </c>
+      <c r="K30" s="56" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;br&gt;</v>
+      </c>
+      <c r="L30" s="56" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="34">
         <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D31" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E31" s="56" t="str">
-        <f t="shared" si="6"/>
-        <v>Matrix Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/01-matrix-regression-gradient-decent-python.ipynb)</v>
+        <f t="shared" si="8"/>
+        <v>Ridge and Lasso Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb)</v>
       </c>
       <c r="F31" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>Matrix Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/01-matrix-regression-gradient-decent-python.ipynb)&lt;br&gt;Regression Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/02-regression-boston-housing-python.ipynb)&lt;br&gt;Ridge and Lasso Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb)</v>
+      </c>
+      <c r="G31" s="56" t="str">
         <f t="shared" si="7"/>
-        <v>Matrix Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/01-matrix-regression-gradient-decent-python.ipynb)</v>
-      </c>
-      <c r="G31" s="56" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <v>Matrix Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/01-matrix-regression-gradient-decent-python.ipynb)&lt;br&gt;Regression Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/02-regression-boston-housing-python.ipynb)&lt;br&gt;Ridge and Lasso Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb)</v>
       </c>
       <c r="H31" s="56" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I31" s="56" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">TOC entries (grouped)
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
   - title: What is Jupyter?
     url: /notebooks/01-what-is-jupyter
     not_numbered: true
@@ -49495,27 +49219,39 @@
     not_numbered: true
 </v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31" s="56" t="str">
+        <f>IF(ISBLANK(C31),"",CONCATENATE("[",B31,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C31,".html)"))</f>
+        <v/>
+      </c>
+      <c r="K31" s="56" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;br&gt;&lt;br&gt;</v>
+      </c>
+      <c r="L31" s="56" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;br&gt;&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="34">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D32" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E32" s="56" t="str">
-        <f t="shared" si="6"/>
-        <v>Regression Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/02-regression-boston-housing-python.ipynb)</v>
+        <f t="shared" si="8"/>
+        <v>Ridge and Lasso Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb)</v>
       </c>
       <c r="F32" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>Ridge and Lasso Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb)</v>
+      </c>
+      <c r="G32" s="56" t="str">
         <f t="shared" si="7"/>
-        <v>Matrix Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/01-matrix-regression-gradient-decent-python.ipynb)&lt;br&gt;Regression Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/02-regression-boston-housing-python.ipynb)</v>
-      </c>
-      <c r="G32" s="56" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H32" s="56" t="str">
@@ -49523,8 +49259,8 @@
         <v/>
       </c>
       <c r="I32" s="56" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">TOC entries (grouped)
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
   - title: What is Jupyter?
     url: /notebooks/01-what-is-jupyter
     not_numbered: true
@@ -49551,36 +49287,48 @@
     not_numbered: true
 </v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32" s="56" t="str">
+        <f>IF(ISBLANK(C32),"",CONCATENATE("[",B32,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C32,".html)"))</f>
+        <v/>
+      </c>
+      <c r="K32" s="56" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L32" s="56" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="34">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D33" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E33" s="56" t="str">
-        <f t="shared" si="6"/>
-        <v>Ridge and Lasso Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb)</v>
+        <f t="shared" si="8"/>
+        <v>PCA - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/04_introduction_pca.ipynb)</v>
       </c>
       <c r="F33" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>Ridge and Lasso Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb)&lt;br&gt;PCA - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/04_introduction_pca.ipynb)</v>
+      </c>
+      <c r="G33" s="56" t="str">
         <f t="shared" si="7"/>
-        <v>Matrix Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/01-matrix-regression-gradient-decent-python.ipynb)&lt;br&gt;Regression Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/02-regression-boston-housing-python.ipynb)&lt;br&gt;Ridge and Lasso Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb)</v>
-      </c>
-      <c r="G33" s="56" t="str">
-        <f t="shared" si="5"/>
-        <v>Matrix Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/01-matrix-regression-gradient-decent-python.ipynb)&lt;br&gt;Regression Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/02-regression-boston-housing-python.ipynb)&lt;br&gt;Ridge and Lasso Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb)</v>
+        <v>Ridge and Lasso Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb)&lt;br&gt;PCA - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/04_introduction_pca.ipynb)</v>
       </c>
       <c r="H33" s="56" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I33" s="56" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">TOC entries (grouped)
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">
   - title: What is Jupyter?
     url: /notebooks/01-what-is-jupyter
     not_numbered: true
@@ -49607,123 +49355,23 @@
     not_numbered: true
 </v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="34">
-        <v>15</v>
-      </c>
-      <c r="B34" t="s">
-        <v>841</v>
-      </c>
-      <c r="D34" t="s">
-        <v>844</v>
-      </c>
-      <c r="E34" s="56" t="str">
+      <c r="J33" s="56" t="str">
+        <f>IF(ISBLANK(C33),"",CONCATENATE("[",B33,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C33,".html)"))</f>
+        <v/>
+      </c>
+      <c r="K33" s="56" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;br&gt;</v>
+      </c>
+      <c r="L33" s="56" t="str">
         <f t="shared" si="6"/>
-        <v>Ridge and Lasso Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb)</v>
-      </c>
-      <c r="F34" s="56" t="str">
-        <f t="shared" si="7"/>
-        <v>Ridge and Lasso Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb)</v>
-      </c>
-      <c r="G34" s="56" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H34" s="56" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I34" s="56" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">TOC entries (grouped)
-  - title: What is Jupyter?
-    url: /notebooks/01-what-is-jupyter
-    not_numbered: true
-  - title: Notebook Basics
-    url: /notebooks/02-notebook-basics
-    not_numbered: true
-  - title: Running Code
-    url: /notebooks/03-running-code
-    not_numbered: true
-  - title: Markdown
-    url: /notebooks/04-markdown
-    not_numbered: true
-  - title: Python Overview
-    url: /notebooks/05-intro-python-overview
-    not_numbered: true
-  - title: Basic Data Structures
-    url: /notebooks/06-intro-python-datastructures
-    not_numbered: true
-  - title: Numpy
-    url: /notebooks/07-intro-python-numpy
-    not_numbered: true
-  - title: Pandas
-    url: /notebooks/08-intro-python-pandas
-    not_numbered: true
-</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="34">
-        <v>15</v>
-      </c>
-      <c r="B35" t="s">
-        <v>845</v>
-      </c>
-      <c r="D35" t="s">
-        <v>846</v>
-      </c>
-      <c r="E35" s="56" t="str">
-        <f t="shared" si="6"/>
-        <v>PCA - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/04_introduction_pca.ipynb)</v>
-      </c>
-      <c r="F35" s="56" t="str">
-        <f t="shared" si="7"/>
-        <v>Ridge and Lasso Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb)&lt;br&gt;PCA - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/04_introduction_pca.ipynb)</v>
-      </c>
-      <c r="G35" s="56" t="str">
-        <f>IF(A35&lt;&gt;A37,F35,"")</f>
-        <v>Ridge and Lasso Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb)&lt;br&gt;PCA - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/04_introduction_pca.ipynb)</v>
-      </c>
-      <c r="H35" s="56" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I35" s="56" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">TOC entries (grouped)
-  - title: What is Jupyter?
-    url: /notebooks/01-what-is-jupyter
-    not_numbered: true
-  - title: Notebook Basics
-    url: /notebooks/02-notebook-basics
-    not_numbered: true
-  - title: Running Code
-    url: /notebooks/03-running-code
-    not_numbered: true
-  - title: Markdown
-    url: /notebooks/04-markdown
-    not_numbered: true
-  - title: Python Overview
-    url: /notebooks/05-intro-python-overview
-    not_numbered: true
-  - title: Basic Data Structures
-    url: /notebooks/06-intro-python-datastructures
-    not_numbered: true
-  - title: Numpy
-    url: /notebooks/07-intro-python-numpy
-    not_numbered: true
-  - title: Pandas
-    url: /notebooks/08-intro-python-pandas
-    not_numbered: true
-</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
+        <v>&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -49852,10 +49500,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A5" s="115">
+      <c r="A5" s="118">
         <v>43709</v>
       </c>
-      <c r="B5" s="116"/>
+      <c r="B5" s="119"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="6">
@@ -49898,10 +49546,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A11" s="115">
+      <c r="A11" s="118">
         <v>43739</v>
       </c>
-      <c r="B11" s="116"/>
+      <c r="B11" s="119"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="6">
@@ -49952,10 +49600,10 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A18" s="115">
+      <c r="A18" s="118">
         <v>43770</v>
       </c>
-      <c r="B18" s="116"/>
+      <c r="B18" s="119"/>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1">
       <c r="A19" s="8" t="s">
@@ -50022,10 +49670,10 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A27" s="115">
+      <c r="A27" s="118">
         <v>43800</v>
       </c>
-      <c r="B27" s="116"/>
+      <c r="B27" s="119"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1">
       <c r="A28" s="6">
@@ -50108,10 +49756,10 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A38" s="115">
+      <c r="A38" s="118">
         <v>43831</v>
       </c>
-      <c r="B38" s="116"/>
+      <c r="B38" s="119"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1">
       <c r="A39" s="8" t="s">
@@ -50162,10 +49810,10 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A45" s="115">
+      <c r="A45" s="118">
         <v>43862</v>
       </c>
-      <c r="B45" s="116"/>
+      <c r="B45" s="119"/>
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1">
       <c r="A46" s="6">
@@ -50192,10 +49840,10 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A49" s="115">
+      <c r="A49" s="118">
         <v>43891</v>
       </c>
-      <c r="B49" s="116"/>
+      <c r="B49" s="119"/>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1">
       <c r="A50" s="6">
@@ -50270,10 +49918,10 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A59" s="115">
+      <c r="A59" s="118">
         <v>43922</v>
       </c>
-      <c r="B59" s="116"/>
+      <c r="B59" s="119"/>
     </row>
     <row r="60" spans="1:2" ht="15.75" customHeight="1">
       <c r="A60" s="6">
@@ -50316,10 +49964,10 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A65" s="115">
+      <c r="A65" s="118">
         <v>43952</v>
       </c>
-      <c r="B65" s="116"/>
+      <c r="B65" s="119"/>
     </row>
     <row r="66" spans="1:2" ht="15.75" customHeight="1">
       <c r="A66" s="8" t="s">
@@ -51408,7 +51056,7 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -51418,17 +51066,17 @@
   <sheetData>
     <row r="1" spans="1:1" ht="358.8">
       <c r="A1" s="30" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="187.2">
       <c r="A2" s="30" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="124.8">
       <c r="A3" s="26" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
     </row>
     <row r="4" spans="1:1" s="29" customFormat="1" ht="409.5">
@@ -51527,13 +51175,13 @@
     </row>
     <row r="5" spans="1:1" ht="78">
       <c r="A5" s="30" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
     </row>
     <row r="6" spans="1:1" s="29" customFormat="1" ht="392.7" customHeight="1">
       <c r="A6" s="71" t="str">
         <f>LOOKUP(2,1/(Notebooks!I:I&lt;&gt;""),Notebooks!I:I)</f>
-        <v xml:space="preserve">TOC entries (grouped)
+        <v xml:space="preserve">
   - title: What is Jupyter?
     url: /notebooks/01-what-is-jupyter
     not_numbered: true
@@ -51563,7 +51211,7 @@
     </row>
     <row r="7" spans="1:1" ht="78">
       <c r="A7" s="30" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
     </row>
     <row r="8" spans="1:1" s="29" customFormat="1" ht="409.5">
@@ -51581,7 +51229,7 @@
     </row>
     <row r="9" spans="1:1" ht="390">
       <c r="A9" s="31" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
     </row>
   </sheetData>
@@ -51616,16 +51264,16 @@
         <v>703</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="68"/>
       <c r="B2" s="68" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="C2" s="79" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="D2" s="29" t="b">
         <v>1</v>
@@ -52144,7 +51792,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="46.8">
       <c r="A1" s="20" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="409.5">

--- a/book.xlsx
+++ b/book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjgar\Documents\GitHub\course-intro-ml-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3F436B-A0BC-41F4-ABE9-55730686E879}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A3EA53-1230-4E43-9B35-DD6EC137D560}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12504" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4137" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4136" uniqueCount="906">
   <si>
     <t>Wk</t>
   </si>
@@ -3516,9 +3516,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -3531,29 +3528,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3564,6 +3543,37 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -3600,26 +3610,12 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3941,7 +3937,7 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:E42"/>
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="15" customHeight="1"/>
@@ -3961,12 +3957,12 @@
       <c r="A2" s="29" t="s">
         <v>656</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="96" t="s">
         <v>860</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
     </row>
     <row r="3" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="9" t="s">
@@ -4005,12 +4001,12 @@
       <c r="A6" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="B6" s="96">
+      <c r="B6" s="93">
         <v>14</v>
       </c>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
     </row>
     <row r="7" spans="1:5" s="29" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="1"/>
@@ -4042,32 +4038,32 @@
       <c r="A10" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="B10" s="96" t="s">
+      <c r="B10" s="93" t="s">
         <v>683</v>
       </c>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
     </row>
     <row r="11" spans="1:5" s="29" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="B11" s="96"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="96"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
     </row>
     <row r="12" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="B12" s="96" t="s">
+      <c r="B12" s="93" t="s">
         <v>684</v>
       </c>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
     </row>
     <row r="13" spans="1:5" s="29" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="1"/>
@@ -4077,12 +4073,12 @@
       <c r="A14" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="B14" s="96" t="s">
+      <c r="B14" s="93" t="s">
         <v>685</v>
       </c>
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
     </row>
     <row r="15" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="1" t="s">
@@ -4099,30 +4095,30 @@
       <c r="A16" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="B16" s="96" t="s">
+      <c r="B16" s="93" t="s">
         <v>687</v>
       </c>
-      <c r="C16" s="96"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
     </row>
     <row r="17" spans="1:6" s="29" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="B17" s="96"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
     </row>
     <row r="18" spans="1:6" s="29" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="B18" s="96"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
     </row>
     <row r="19" spans="1:6" s="29" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="1"/>
@@ -4132,12 +4128,12 @@
       <c r="A20" s="22" t="s">
         <v>688</v>
       </c>
-      <c r="B20" s="98" t="s">
+      <c r="B20" s="91" t="s">
         <v>689</v>
       </c>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="98"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="91"/>
     </row>
     <row r="21" spans="1:6" s="29" customFormat="1" ht="14.7" customHeight="1">
       <c r="A21" s="22"/>
@@ -4150,30 +4146,30 @@
       <c r="A22" s="22" t="s">
         <v>858</v>
       </c>
-      <c r="B22" s="98" t="s">
+      <c r="B22" s="91" t="s">
         <v>697</v>
       </c>
-      <c r="C22" s="98"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="98"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="91"/>
     </row>
     <row r="23" spans="1:6" s="29" customFormat="1" ht="38.1" customHeight="1">
       <c r="A23" s="22" t="s">
         <v>859</v>
       </c>
-      <c r="B23" s="99"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
     </row>
     <row r="24" spans="1:6" s="29" customFormat="1" ht="38.1" customHeight="1">
       <c r="A24" s="22" t="s">
         <v>861</v>
       </c>
-      <c r="B24" s="99"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
     </row>
     <row r="25" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="1"/>
@@ -4238,12 +4234,12 @@
       <c r="A32" s="9" t="s">
         <v>722</v>
       </c>
-      <c r="B32" s="93" t="s">
+      <c r="B32" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="93"/>
-      <c r="D32" s="93"/>
-      <c r="E32" s="93"/>
+      <c r="C32" s="97"/>
+      <c r="D32" s="97"/>
+      <c r="E32" s="97"/>
       <c r="F32" s="14" t="s">
         <v>899</v>
       </c>
@@ -4252,12 +4248,12 @@
       <c r="A33" s="9" t="s">
         <v>669</v>
       </c>
-      <c r="B33" s="93" t="s">
+      <c r="B33" s="97" t="s">
         <v>676</v>
       </c>
-      <c r="C33" s="93"/>
-      <c r="D33" s="93"/>
-      <c r="E33" s="93"/>
+      <c r="C33" s="97"/>
+      <c r="D33" s="97"/>
+      <c r="E33" s="97"/>
       <c r="F33" s="14" t="s">
         <v>900</v>
       </c>
@@ -4280,12 +4276,12 @@
       <c r="A35" s="9" t="s">
         <v>866</v>
       </c>
-      <c r="B35" s="93" t="s">
+      <c r="B35" s="97" t="s">
         <v>670</v>
       </c>
-      <c r="C35" s="93"/>
-      <c r="D35" s="93"/>
-      <c r="E35" s="93"/>
+      <c r="C35" s="97"/>
+      <c r="D35" s="97"/>
+      <c r="E35" s="97"/>
       <c r="F35" s="14" t="s">
         <v>902</v>
       </c>
@@ -4304,12 +4300,12 @@
       <c r="A38" s="9" t="s">
         <v>709</v>
       </c>
-      <c r="B38" s="96" t="s">
+      <c r="B38" s="93" t="s">
         <v>659</v>
       </c>
-      <c r="C38" s="96"/>
-      <c r="D38" s="96"/>
-      <c r="E38" s="96"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="93"/>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1">
       <c r="A39" s="9" t="s">
@@ -4326,12 +4322,12 @@
       <c r="A40" s="9" t="s">
         <v>710</v>
       </c>
-      <c r="B40" s="93" t="s">
+      <c r="B40" s="97" t="s">
         <v>660</v>
       </c>
-      <c r="C40" s="93"/>
-      <c r="D40" s="93"/>
-      <c r="E40" s="93"/>
+      <c r="C40" s="97"/>
+      <c r="D40" s="97"/>
+      <c r="E40" s="97"/>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1">
       <c r="A41" s="9" t="s">
@@ -4348,12 +4344,12 @@
       <c r="A42" s="9" t="s">
         <v>711</v>
       </c>
-      <c r="B42" s="93" t="s">
+      <c r="B42" s="97" t="s">
         <v>661</v>
       </c>
-      <c r="C42" s="93"/>
-      <c r="D42" s="93"/>
-      <c r="E42" s="93"/>
+      <c r="C42" s="97"/>
+      <c r="D42" s="97"/>
+      <c r="E42" s="97"/>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1">
       <c r="A43" s="9" t="s">
@@ -4380,7 +4376,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1">
-      <c r="A47" s="85" t="s">
+      <c r="A47" s="84" t="s">
         <v>715</v>
       </c>
       <c r="B47" s="80" t="s">
@@ -4388,7 +4384,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1">
-      <c r="A48" s="86" t="s">
+      <c r="A48" s="85" t="s">
         <v>717</v>
       </c>
       <c r="B48" s="81" t="s">
@@ -4396,7 +4392,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="15" customHeight="1">
-      <c r="A49" s="86" t="s">
+      <c r="A49" s="85" t="s">
         <v>718</v>
       </c>
       <c r="B49" s="81" t="s">
@@ -4404,36 +4400,59 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="15" customHeight="1">
-      <c r="A50" s="86" t="s">
+      <c r="A50" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="B50" s="91" t="s">
+      <c r="B50" s="89" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15" customHeight="1">
-      <c r="A51" s="87"/>
+      <c r="A51" s="86"/>
       <c r="B51" s="82"/>
     </row>
     <row r="52" spans="1:2" ht="15" customHeight="1">
-      <c r="A52" s="87"/>
-      <c r="B52" s="92"/>
+      <c r="A52" s="86"/>
+      <c r="B52" s="90"/>
     </row>
     <row r="53" spans="1:2" ht="15" customHeight="1">
-      <c r="A53" s="87"/>
-      <c r="B53" s="92"/>
+      <c r="A53" s="86"/>
+      <c r="B53" s="90"/>
     </row>
     <row r="54" spans="1:2" ht="15" customHeight="1">
-      <c r="A54" s="88"/>
+      <c r="A54" s="87"/>
       <c r="B54" s="83"/>
     </row>
     <row r="55" spans="1:2" ht="15" customHeight="1">
-      <c r="A55" s="89"/>
-      <c r="B55" s="84"/>
+      <c r="A55" s="118"/>
+      <c r="B55" s="119"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertHyperlinks="0" selectLockedCells="1"/>
   <mergeCells count="32">
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B8:E8"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B23:E23"/>
@@ -4443,29 +4462,6 @@
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -28500,71 +28496,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="32" customFormat="1" ht="18.3" customHeight="1" thickBot="1">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="98" t="s">
         <v>707</v>
       </c>
-      <c r="C1" s="112" t="s">
+      <c r="C1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="103" t="s">
+      <c r="D1" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="101" t="s">
+      <c r="E1" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="105" t="s">
+      <c r="F1" s="109" t="s">
         <v>846</v>
       </c>
-      <c r="G1" s="106"/>
-      <c r="H1" s="107" t="s">
+      <c r="G1" s="110"/>
+      <c r="H1" s="111" t="s">
         <v>856</v>
       </c>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="110" t="s">
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="114" t="s">
         <v>854</v>
       </c>
-      <c r="M1" s="110" t="s">
+      <c r="M1" s="114" t="s">
         <v>855</v>
       </c>
-      <c r="N1" s="116" t="s">
+      <c r="N1" s="102" t="s">
         <v>886</v>
       </c>
-      <c r="O1" s="117" t="s">
+      <c r="O1" s="103" t="s">
         <v>887</v>
       </c>
-      <c r="P1" s="100" t="s">
+      <c r="P1" s="104" t="s">
         <v>888</v>
       </c>
-      <c r="Q1" s="100" t="s">
+      <c r="Q1" s="104" t="s">
         <v>889</v>
       </c>
-      <c r="R1" s="100" t="s">
+      <c r="R1" s="104" t="s">
         <v>890</v>
       </c>
-      <c r="S1" s="100" t="s">
+      <c r="S1" s="104" t="s">
         <v>884</v>
       </c>
-      <c r="T1" s="100" t="s">
+      <c r="T1" s="104" t="s">
         <v>885</v>
       </c>
-      <c r="U1" s="100" t="s">
+      <c r="U1" s="104" t="s">
         <v>891</v>
       </c>
-      <c r="V1" s="100" t="s">
+      <c r="V1" s="104" t="s">
         <v>892</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="32" customFormat="1" ht="18.899999999999999" thickTop="1" thickBot="1">
-      <c r="A2" s="115"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="102"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="106"/>
       <c r="F2" s="72" t="s">
         <v>4</v>
       </c>
@@ -28583,17 +28579,17 @@
       <c r="K2" s="77" t="s">
         <v>857</v>
       </c>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="100"/>
-      <c r="S2" s="100"/>
-      <c r="T2" s="100"/>
-      <c r="U2" s="100"/>
-      <c r="V2" s="100"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="104"/>
+      <c r="R2" s="104"/>
+      <c r="S2" s="104"/>
+      <c r="T2" s="104"/>
+      <c r="U2" s="104"/>
+      <c r="V2" s="104"/>
     </row>
     <row r="3" spans="1:22" ht="62.4">
       <c r="A3" s="42">
@@ -46493,11 +46489,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
@@ -46505,12 +46502,11 @@
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -47183,7 +47179,7 @@
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomLeft" activeCell="AA21" sqref="AA21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -47192,14 +47188,14 @@
     <col min="2" max="2" width="36" customWidth="1"/>
     <col min="3" max="3" width="30.3984375" style="29" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
-    <col min="5" max="5" width="17.046875" style="56" customWidth="1"/>
-    <col min="6" max="6" width="27.25" style="56" customWidth="1"/>
-    <col min="7" max="7" width="30.84765625" style="56" customWidth="1"/>
-    <col min="8" max="8" width="13.1484375" style="56" customWidth="1"/>
-    <col min="9" max="9" width="17.046875" style="56" customWidth="1"/>
-    <col min="10" max="10" width="15.8984375" customWidth="1"/>
-    <col min="11" max="11" width="25.69921875" style="56" customWidth="1"/>
-    <col min="12" max="12" width="28.19921875" style="56" customWidth="1"/>
+    <col min="5" max="5" width="17.046875" style="56" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="27.25" style="56" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="30.84765625" style="56" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1484375" style="56" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.046875" style="56" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="15.8984375" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="25.69921875" style="56" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="28.19921875" style="56" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="32" customFormat="1" ht="18.3">
@@ -47224,17 +47220,15 @@
       <c r="G1" s="55" t="s">
         <v>883</v>
       </c>
-      <c r="H1" s="55" t="s">
-        <v>884</v>
-      </c>
+      <c r="H1" s="55"/>
       <c r="I1" s="55"/>
-      <c r="J1" s="90" t="s">
+      <c r="J1" s="88" t="s">
         <v>903</v>
       </c>
-      <c r="K1" s="90" t="s">
+      <c r="K1" s="88" t="s">
         <v>904</v>
       </c>
-      <c r="L1" s="90" t="s">
+      <c r="L1" s="88" t="s">
         <v>905</v>
       </c>
     </row>
@@ -49500,10 +49494,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A5" s="118">
+      <c r="A5" s="116">
         <v>43709</v>
       </c>
-      <c r="B5" s="119"/>
+      <c r="B5" s="117"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="6">
@@ -49546,10 +49540,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A11" s="118">
+      <c r="A11" s="116">
         <v>43739</v>
       </c>
-      <c r="B11" s="119"/>
+      <c r="B11" s="117"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="6">
@@ -49600,10 +49594,10 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A18" s="118">
+      <c r="A18" s="116">
         <v>43770</v>
       </c>
-      <c r="B18" s="119"/>
+      <c r="B18" s="117"/>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1">
       <c r="A19" s="8" t="s">
@@ -49670,10 +49664,10 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A27" s="118">
+      <c r="A27" s="116">
         <v>43800</v>
       </c>
-      <c r="B27" s="119"/>
+      <c r="B27" s="117"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1">
       <c r="A28" s="6">
@@ -49756,10 +49750,10 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A38" s="118">
+      <c r="A38" s="116">
         <v>43831</v>
       </c>
-      <c r="B38" s="119"/>
+      <c r="B38" s="117"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1">
       <c r="A39" s="8" t="s">
@@ -49810,10 +49804,10 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A45" s="118">
+      <c r="A45" s="116">
         <v>43862</v>
       </c>
-      <c r="B45" s="119"/>
+      <c r="B45" s="117"/>
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1">
       <c r="A46" s="6">
@@ -49840,10 +49834,10 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A49" s="118">
+      <c r="A49" s="116">
         <v>43891</v>
       </c>
-      <c r="B49" s="119"/>
+      <c r="B49" s="117"/>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1">
       <c r="A50" s="6">
@@ -49918,10 +49912,10 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A59" s="118">
+      <c r="A59" s="116">
         <v>43922</v>
       </c>
-      <c r="B59" s="119"/>
+      <c r="B59" s="117"/>
     </row>
     <row r="60" spans="1:2" ht="15.75" customHeight="1">
       <c r="A60" s="6">
@@ -49964,10 +49958,10 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A65" s="118">
+      <c r="A65" s="116">
         <v>43952</v>
       </c>
-      <c r="B65" s="119"/>
+      <c r="B65" s="117"/>
     </row>
     <row r="66" spans="1:2" ht="15.75" customHeight="1">
       <c r="A66" s="8" t="s">

--- a/book.xlsx
+++ b/book.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjgar\Documents\GitHub\course-intro-ml-app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/course-intro-ml-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A3EA53-1230-4E43-9B35-DD6EC137D560}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032204D4-DBF5-8042-BC66-55AB6EAA56B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23240" windowHeight="12700" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="1" r:id="rId1"/>
@@ -24,25 +24,18 @@
     <sheet name="index_md" sheetId="10" state="hidden" r:id="rId9"/>
     <sheet name="schedule_md" sheetId="3" state="hidden" r:id="rId10"/>
     <sheet name="readings_md" sheetId="20" state="hidden" r:id="rId11"/>
-    <sheet name="notebooks_md" sheetId="12" state="hidden" r:id="rId12"/>
+    <sheet name="notebooks_md" sheetId="12" r:id="rId12"/>
     <sheet name="assignments_md" sheetId="13" state="hidden" r:id="rId13"/>
     <sheet name="session_md" sheetId="4" state="hidden" r:id="rId14"/>
     <sheet name="grading_md" sheetId="15" state="hidden" r:id="rId15"/>
     <sheet name="Sheet1" sheetId="6" state="hidden" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4136" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4160" uniqueCount="906">
   <si>
     <t>Wk</t>
   </si>
@@ -3535,6 +3528,23 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -3543,37 +3553,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -3610,12 +3589,26 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3936,18 +3929,18 @@
   </sheetPr>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.3984375" customWidth="1"/>
-    <col min="2" max="2" width="11.09765625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="11.09765625" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="18.3">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="19">
       <c r="A1" s="32" t="s">
         <v>657</v>
       </c>
@@ -3957,12 +3950,12 @@
       <c r="A2" s="29" t="s">
         <v>656</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="97" t="s">
         <v>860</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
     </row>
     <row r="3" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="9" t="s">
@@ -4001,12 +3994,12 @@
       <c r="A6" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="B6" s="93">
+      <c r="B6" s="96">
         <v>14</v>
       </c>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
     </row>
     <row r="7" spans="1:5" s="29" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="1"/>
@@ -4038,32 +4031,32 @@
       <c r="A10" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="B10" s="93" t="s">
+      <c r="B10" s="96" t="s">
         <v>683</v>
       </c>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
     </row>
     <row r="11" spans="1:5" s="29" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="B11" s="93"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
     </row>
     <row r="12" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="B12" s="93" t="s">
+      <c r="B12" s="96" t="s">
         <v>684</v>
       </c>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
     </row>
     <row r="13" spans="1:5" s="29" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="1"/>
@@ -4073,12 +4066,12 @@
       <c r="A14" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="B14" s="93" t="s">
+      <c r="B14" s="96" t="s">
         <v>685</v>
       </c>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
     </row>
     <row r="15" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="1" t="s">
@@ -4095,30 +4088,30 @@
       <c r="A16" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="B16" s="93" t="s">
+      <c r="B16" s="96" t="s">
         <v>687</v>
       </c>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
     </row>
     <row r="17" spans="1:6" s="29" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
     </row>
     <row r="18" spans="1:6" s="29" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
     </row>
     <row r="19" spans="1:6" s="29" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="1"/>
@@ -4128,14 +4121,14 @@
       <c r="A20" s="22" t="s">
         <v>688</v>
       </c>
-      <c r="B20" s="91" t="s">
+      <c r="B20" s="98" t="s">
         <v>689</v>
       </c>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="91"/>
-    </row>
-    <row r="21" spans="1:6" s="29" customFormat="1" ht="14.7" customHeight="1">
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
+    </row>
+    <row r="21" spans="1:6" s="29" customFormat="1" ht="14.75" customHeight="1">
       <c r="A21" s="22"/>
       <c r="B21" s="78"/>
       <c r="C21" s="78"/>
@@ -4146,36 +4139,36 @@
       <c r="A22" s="22" t="s">
         <v>858</v>
       </c>
-      <c r="B22" s="91" t="s">
+      <c r="B22" s="98" t="s">
         <v>697</v>
       </c>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="91"/>
-    </row>
-    <row r="23" spans="1:6" s="29" customFormat="1" ht="38.1" customHeight="1">
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+    </row>
+    <row r="23" spans="1:6" s="29" customFormat="1" ht="38" customHeight="1">
       <c r="A23" s="22" t="s">
         <v>859</v>
       </c>
-      <c r="B23" s="92"/>
-      <c r="C23" s="92"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="92"/>
-    </row>
-    <row r="24" spans="1:6" s="29" customFormat="1" ht="38.1" customHeight="1">
+      <c r="B23" s="99"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+    </row>
+    <row r="24" spans="1:6" s="29" customFormat="1" ht="38" customHeight="1">
       <c r="A24" s="22" t="s">
         <v>861</v>
       </c>
-      <c r="B24" s="92"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
+      <c r="B24" s="99"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
     </row>
     <row r="25" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="18"/>
     </row>
-    <row r="26" spans="1:6" s="4" customFormat="1" ht="18.3">
+    <row r="26" spans="1:6" s="4" customFormat="1" ht="19">
       <c r="A26" s="59" t="s">
         <v>658</v>
       </c>
@@ -4224,7 +4217,7 @@
       <c r="A30" s="1"/>
       <c r="B30" s="16"/>
     </row>
-    <row r="31" spans="1:6" s="4" customFormat="1" ht="18.3">
+    <row r="31" spans="1:6" s="4" customFormat="1" ht="19">
       <c r="A31" s="59" t="s">
         <v>666</v>
       </c>
@@ -4234,12 +4227,12 @@
       <c r="A32" s="9" t="s">
         <v>722</v>
       </c>
-      <c r="B32" s="97" t="s">
+      <c r="B32" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="97"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="97"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
       <c r="F32" s="14" t="s">
         <v>899</v>
       </c>
@@ -4248,12 +4241,12 @@
       <c r="A33" s="9" t="s">
         <v>669</v>
       </c>
-      <c r="B33" s="97" t="s">
+      <c r="B33" s="93" t="s">
         <v>676</v>
       </c>
-      <c r="C33" s="97"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="97"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
       <c r="F33" s="14" t="s">
         <v>900</v>
       </c>
@@ -4276,12 +4269,12 @@
       <c r="A35" s="9" t="s">
         <v>866</v>
       </c>
-      <c r="B35" s="97" t="s">
+      <c r="B35" s="93" t="s">
         <v>670</v>
       </c>
-      <c r="C35" s="97"/>
-      <c r="D35" s="97"/>
-      <c r="E35" s="97"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="93"/>
       <c r="F35" s="14" t="s">
         <v>902</v>
       </c>
@@ -4291,7 +4284,7 @@
       <c r="B36" s="17"/>
       <c r="C36" s="14"/>
     </row>
-    <row r="37" spans="1:6" ht="18.3">
+    <row r="37" spans="1:6" ht="19">
       <c r="A37" s="15" t="s">
         <v>852</v>
       </c>
@@ -4300,12 +4293,12 @@
       <c r="A38" s="9" t="s">
         <v>709</v>
       </c>
-      <c r="B38" s="93" t="s">
+      <c r="B38" s="96" t="s">
         <v>659</v>
       </c>
-      <c r="C38" s="93"/>
-      <c r="D38" s="93"/>
-      <c r="E38" s="93"/>
+      <c r="C38" s="96"/>
+      <c r="D38" s="96"/>
+      <c r="E38" s="96"/>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1">
       <c r="A39" s="9" t="s">
@@ -4322,12 +4315,12 @@
       <c r="A40" s="9" t="s">
         <v>710</v>
       </c>
-      <c r="B40" s="97" t="s">
+      <c r="B40" s="93" t="s">
         <v>660</v>
       </c>
-      <c r="C40" s="97"/>
-      <c r="D40" s="97"/>
-      <c r="E40" s="97"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="93"/>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1">
       <c r="A41" s="9" t="s">
@@ -4344,12 +4337,12 @@
       <c r="A42" s="9" t="s">
         <v>711</v>
       </c>
-      <c r="B42" s="97" t="s">
+      <c r="B42" s="93" t="s">
         <v>661</v>
       </c>
-      <c r="C42" s="97"/>
-      <c r="D42" s="97"/>
-      <c r="E42" s="97"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="93"/>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1">
       <c r="A43" s="9" t="s">
@@ -4362,7 +4355,7 @@
       <c r="D43" s="94"/>
       <c r="E43" s="94"/>
     </row>
-    <row r="45" spans="1:6" ht="18.3">
+    <row r="45" spans="1:6" ht="19">
       <c r="A45" s="32" t="s">
         <v>712</v>
       </c>
@@ -4424,35 +4417,12 @@
       <c r="B54" s="83"/>
     </row>
     <row r="55" spans="1:2" ht="15" customHeight="1">
-      <c r="A55" s="118"/>
-      <c r="B55" s="119"/>
+      <c r="A55" s="91"/>
+      <c r="B55" s="92"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertHyperlinks="0" selectLockedCells="1"/>
   <mergeCells count="32">
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B8:E8"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B23:E23"/>
@@ -4462,6 +4432,29 @@
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -4488,12 +4481,12 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="101.796875" customWidth="1"/>
+    <col min="1" max="1" width="101.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="46.8">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="51">
       <c r="A1" s="10" t="s">
         <v>893</v>
       </c>
@@ -4669,37 +4662,37 @@
         <v>| 13 | 25 | Th | 11/21 | **Image Data and Deep Learning** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session25.html) |</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="15.6">
+    <row r="30" spans="1:1" ht="16">
       <c r="A30" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A29," | ",Schedule!B29," | ",Schedule!C29," | ",TEXT(Schedule!D29,"mm/dd")," | ",Schedule!Q29," |")</f>
         <v>| 14 | 26 | M | 11/25 | **Automl and Modeling Packages** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session26.html) |</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="15.6">
+    <row r="31" spans="1:1" ht="16">
       <c r="A31" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A30," | ",Schedule!B30," | ",Schedule!C30," | ",TEXT(Schedule!D30,"mm/dd")," | ",Schedule!Q30," |")</f>
         <v>| 14 |  | Th | 11/28 | **Thanksgiving** &lt;br&gt;  |</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="15.6">
+    <row r="32" spans="1:1" ht="16">
       <c r="A32" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A31," | ",Schedule!B31," | ",Schedule!C31," | ",TEXT(Schedule!D31,"mm/dd")," | ",Schedule!Q31," |")</f>
         <v>| 15 | 27 | M | 12/02 | **Automl and Model Search** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session27.html) |</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="15.6">
+    <row r="33" spans="1:1" ht="16">
       <c r="A33" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A32," | ",Schedule!B32," | ",Schedule!C32," | ",TEXT(Schedule!D32,"mm/dd")," | ",Schedule!Q32," |")</f>
         <v>| 15 | 28 | Th | 12/05 | **Final Presentations** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session28.html) |</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="15.6">
+    <row r="34" spans="1:1" ht="16">
       <c r="A34" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A33," | ",Schedule!B33," | ",Schedule!C33," | ",TEXT(Schedule!D33,"mm/dd")," | ",Schedule!Q33," |")</f>
         <v>| 16 | 29 | M | 12/09 | **Final Presentations** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session29.html) |</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="15.6">
+    <row r="35" spans="1:1" ht="16">
       <c r="A35" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A34," | ",Schedule!B34," | ",Schedule!C34," | ",TEXT(Schedule!D34,"mm/dd")," | ",Schedule!Q34," |")</f>
         <v>| 17 |  | TBD | TBD | **Final Exam** &lt;br&gt;  |</v>
@@ -4718,13 +4711,13 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="79.296875" style="29" customWidth="1"/>
-    <col min="2" max="16384" width="8.796875" style="29"/>
+    <col min="1" max="1" width="79.33203125" style="29" customWidth="1"/>
+    <col min="2" max="16384" width="8.83203125" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="46.8">
+    <row r="1" spans="1:1" ht="51">
       <c r="A1" s="30" t="s">
         <v>845</v>
       </c>
@@ -4903,18 +4896,18 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="79.296875" customWidth="1"/>
+    <col min="1" max="1" width="79.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="46.8">
+    <row r="1" spans="1:4" ht="51">
       <c r="A1" s="10" t="s">
         <v>737</v>
       </c>
@@ -4999,18 +4992,18 @@
       <c r="D11" s="29"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="29" t="e">
-        <f>IF(Notebooks!#REF!="","",CONCATENATE("| [",Notebooks!#REF!,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!#REF!,") | ",Notebooks!#REF!," |"))</f>
-        <v>#REF!</v>
+      <c r="A12" s="29" t="str">
+        <f>IF(Notebooks!G10="","",CONCATENATE("| [",Notebooks!A10,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A10,") | ",Notebooks!G10," |"))</f>
+        <v/>
       </c>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="29" t="e">
-        <f>IF(Notebooks!#REF!="","",CONCATENATE("| [",Notebooks!#REF!,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!#REF!,") | ",Notebooks!#REF!," |"))</f>
-        <v>#REF!</v>
+      <c r="A13" s="29" t="str">
+        <f>IF(Notebooks!G11="","",CONCATENATE("| [",Notebooks!A11,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A11,") | ",Notebooks!G11," |"))</f>
+        <v/>
       </c>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
@@ -5018,7 +5011,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="29" t="str">
-        <f>IF(Notebooks!G10="","",CONCATENATE("| [",Notebooks!A10,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A10,") | ",Notebooks!G10," |"))</f>
+        <f>IF(Notebooks!G12="","",CONCATENATE("| [",Notebooks!A12,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A12,") | ",Notebooks!G12," |"))</f>
         <v/>
       </c>
       <c r="B14" s="29"/>
@@ -5027,7 +5020,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="29" t="str">
-        <f>IF(Notebooks!G11="","",CONCATENATE("| [",Notebooks!A11,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A11,") | ",Notebooks!G11," |"))</f>
+        <f>IF(Notebooks!G13="","",CONCATENATE("| [",Notebooks!A13,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A13,") | ",Notebooks!G13," |"))</f>
         <v/>
       </c>
       <c r="B15" s="29"/>
@@ -5036,7 +5029,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="29" t="str">
-        <f>IF(Notebooks!G12="","",CONCATENATE("| [",Notebooks!A12,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A12,") | ",Notebooks!G12," |"))</f>
+        <f>IF(Notebooks!G14="","",CONCATENATE("| [",Notebooks!A14,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A14,") | ",Notebooks!G14," |"))</f>
         <v/>
       </c>
       <c r="B16" s="29"/>
@@ -5045,8 +5038,8 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="29" t="str">
-        <f>IF(Notebooks!G13="","",CONCATENATE("| [",Notebooks!A13,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A13,") | ",Notebooks!G13," |"))</f>
-        <v/>
+        <f>IF(Notebooks!G15="","",CONCATENATE("| [",Notebooks!A15,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A15,") | ",Notebooks!G15," |"))</f>
+        <v>| [4](https://rpi-data.github.io/course-intro-ml-app/sessions/session4) | Conditional-Loops - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb)&lt;br&gt;Functions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/02-intro-python-functions.ipynb)&lt;br&gt;Null Values - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/03-intro-python-null-values.ipynb)&lt;br&gt;Groupby - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/04-intro-python-groupby.ipynb)&lt;br&gt;Kaggle Baseline - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/05-intro-kaggle-baseline.ipynb)&lt;br&gt;Assignment 2 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/hm-02/hm02.ipynb) |</v>
       </c>
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
@@ -5054,7 +5047,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="29" t="str">
-        <f>IF(Notebooks!G14="","",CONCATENATE("| [",Notebooks!A14,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A14,") | ",Notebooks!G14," |"))</f>
+        <f>IF(Notebooks!G16="","",CONCATENATE("| [",Notebooks!A16,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A16,") | ",Notebooks!G16," |"))</f>
         <v/>
       </c>
       <c r="B18" s="29"/>
@@ -5063,8 +5056,8 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="29" t="str">
-        <f>IF(Notebooks!G15="","",CONCATENATE("| [",Notebooks!A15,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A15,") | ",Notebooks!G15," |"))</f>
-        <v>| [4](https://rpi-data.github.io/course-intro-ml-app/sessions/session4) | Conditional-Loops - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb)&lt;br&gt;Functions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/02-intro-python-functions.ipynb)&lt;br&gt;Null Values - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/03-intro-python-null-values.ipynb)&lt;br&gt;Groupby - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/04-intro-python-groupby.ipynb)&lt;br&gt;Kaggle Baseline - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/05-intro-kaggle-baseline.ipynb)&lt;br&gt;Assignment 2 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/hm-02/hm02.ipynb) |</v>
+        <f>IF(Notebooks!G17="","",CONCATENATE("| [",Notebooks!A17,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A17,") | ",Notebooks!G17," |"))</f>
+        <v/>
       </c>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
@@ -5072,7 +5065,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="29" t="str">
-        <f>IF(Notebooks!G16="","",CONCATENATE("| [",Notebooks!A16,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A16,") | ",Notebooks!G16," |"))</f>
+        <f>IF(Notebooks!G18="","",CONCATENATE("| [",Notebooks!A18,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A18,") | ",Notebooks!G18," |"))</f>
         <v/>
       </c>
       <c r="B20" s="29"/>
@@ -5081,7 +5074,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="29" t="str">
-        <f>IF(Notebooks!G17="","",CONCATENATE("| [",Notebooks!A17,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A17,") | ",Notebooks!G17," |"))</f>
+        <f>IF(Notebooks!G19="","",CONCATENATE("| [",Notebooks!A19,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A19,") | ",Notebooks!G19," |"))</f>
         <v/>
       </c>
       <c r="B21" s="29"/>
@@ -5090,7 +5083,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="29" t="str">
-        <f>IF(Notebooks!G18="","",CONCATENATE("| [",Notebooks!A18,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A18,") | ",Notebooks!G18," |"))</f>
+        <f>IF(Notebooks!G20="","",CONCATENATE("| [",Notebooks!A20,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A20,") | ",Notebooks!G20," |"))</f>
         <v/>
       </c>
       <c r="B22" s="29"/>
@@ -5099,8 +5092,8 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="29" t="str">
-        <f>IF(Notebooks!G19="","",CONCATENATE("| [",Notebooks!A19,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A19,") | ",Notebooks!G19," |"))</f>
-        <v/>
+        <f>IF(Notebooks!G21="","",CONCATENATE("| [",Notebooks!A21,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A21,") | ",Notebooks!G21," |"))</f>
+        <v>| [6](https://rpi-data.github.io/course-intro-ml-app/sessions/session6) | Twitter - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb)&lt;br&gt;Web Mining - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/02_intro_python_webmining.ipynb)&lt;br&gt;Visualizations - Seaborn - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/03_visualization_python_seaborn.ipynb)&lt;br&gt;Strings - Regular Expressions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/04_strings_and_regular_expressions.ipynb)&lt;br&gt;Feature Dummies - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/05_features_dummies.ipynb)&lt;br&gt;Assignment 3 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/hm-03/hm03.ipynb) |</v>
       </c>
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
@@ -5108,7 +5101,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="29" t="str">
-        <f>IF(Notebooks!G20="","",CONCATENATE("| [",Notebooks!A20,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A20,") | ",Notebooks!G20," |"))</f>
+        <f>IF(Notebooks!G22="","",CONCATENATE("| [",Notebooks!A22,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A22,") | ",Notebooks!G22," |"))</f>
         <v/>
       </c>
       <c r="B24" s="29"/>
@@ -5117,8 +5110,8 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="29" t="str">
-        <f>IF(Notebooks!G21="","",CONCATENATE("| [",Notebooks!A21,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A21,") | ",Notebooks!G21," |"))</f>
-        <v>| [6](https://rpi-data.github.io/course-intro-ml-app/sessions/session6) | Twitter - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb)&lt;br&gt;Web Mining - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/02_intro_python_webmining.ipynb)&lt;br&gt;Visualizations - Seaborn - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/03_visualization_python_seaborn.ipynb)&lt;br&gt;Strings - Regular Expressions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/04_strings_and_regular_expressions.ipynb)&lt;br&gt;Feature Dummies - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/05_features_dummies.ipynb)&lt;br&gt;Assignment 3 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/hm-03/hm03.ipynb) |</v>
+        <f>IF(Notebooks!G23="","",CONCATENATE("| [",Notebooks!A23,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A23,") | ",Notebooks!G23," |"))</f>
+        <v/>
       </c>
       <c r="B25" s="29"/>
       <c r="C25" s="29"/>
@@ -5126,7 +5119,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="29" t="str">
-        <f>IF(Notebooks!G22="","",CONCATENATE("| [",Notebooks!A22,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A22,") | ",Notebooks!G22," |"))</f>
+        <f>IF(Notebooks!G24="","",CONCATENATE("| [",Notebooks!A24,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A24,") | ",Notebooks!G24," |"))</f>
         <v/>
       </c>
       <c r="B26" s="29"/>
@@ -5135,7 +5128,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="29" t="str">
-        <f>IF(Notebooks!G23="","",CONCATENATE("| [",Notebooks!A23,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A23,") | ",Notebooks!G23," |"))</f>
+        <f>IF(Notebooks!G25="","",CONCATENATE("| [",Notebooks!A25,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A25,") | ",Notebooks!G25," |"))</f>
         <v/>
       </c>
       <c r="B27" s="29"/>
@@ -5144,7 +5137,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="29" t="str">
-        <f>IF(Notebooks!G24="","",CONCATENATE("| [",Notebooks!A24,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A24,") | ",Notebooks!G24," |"))</f>
+        <f>IF(Notebooks!G26="","",CONCATENATE("| [",Notebooks!A26,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A26,") | ",Notebooks!G26," |"))</f>
         <v/>
       </c>
       <c r="B28" s="29"/>
@@ -5153,7 +5146,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="29" t="str">
-        <f>IF(Notebooks!G25="","",CONCATENATE("| [",Notebooks!A25,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A25,") | ",Notebooks!G25," |"))</f>
+        <f>IF(Notebooks!G27="","",CONCATENATE("| [",Notebooks!A27,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A27,") | ",Notebooks!G27," |"))</f>
         <v/>
       </c>
       <c r="B29" s="29"/>
@@ -5162,8 +5155,8 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="29" t="str">
-        <f>IF(Notebooks!G26="","",CONCATENATE("| [",Notebooks!A26,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A26,") | ",Notebooks!G26," |"))</f>
-        <v/>
+        <f>IF(Notebooks!G28="","",CONCATENATE("| [",Notebooks!A28,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A28,") | ",Notebooks!G28," |"))</f>
+        <v>| [9](https://rpi-data.github.io/course-intro-ml-app/sessions/session9) | The Simplest Neural Network with Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)&lt;br&gt;Train Test Split - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb)&lt;br&gt;Introduction to Logistic Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/02-intro-logistic-knn.ipynb)&lt;br&gt;K Nearest Neighbor - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/03-knn.ipynb)&lt;br&gt;ROC and SVM - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/04-svm-roc.ipynb)&lt;br&gt;HM5A Visualization &amp; Screen Scraping - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05A.ipynb)&lt;br&gt;HM5B Intro Modeling - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05B.ipynb) |</v>
       </c>
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
@@ -5171,7 +5164,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="29" t="str">
-        <f>IF(Notebooks!G27="","",CONCATENATE("| [",Notebooks!A27,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A27,") | ",Notebooks!G27," |"))</f>
+        <f>IF(Notebooks!G29="","",CONCATENATE("| [",Notebooks!A29,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A29,") | ",Notebooks!G29," |"))</f>
         <v/>
       </c>
       <c r="B31" s="29"/>
@@ -5180,8 +5173,8 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="29" t="str">
-        <f>IF(Notebooks!G28="","",CONCATENATE("| [",Notebooks!A28,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A28,") | ",Notebooks!G28," |"))</f>
-        <v>| [9](https://rpi-data.github.io/course-intro-ml-app/sessions/session9) | The Simplest Neural Network with Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)&lt;br&gt;Train Test Split - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb)&lt;br&gt;Introduction to Logistic Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/02-intro-logistic-knn.ipynb)&lt;br&gt;K Nearest Neighbor - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/03-knn.ipynb)&lt;br&gt;ROC and SVM - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/04-svm-roc.ipynb)&lt;br&gt;HM5A Visualization &amp; Screen Scraping - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05A.ipynb)&lt;br&gt;HM5B Intro Modeling - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05B.ipynb) |</v>
+        <f>IF(Notebooks!G30="","",CONCATENATE("| [",Notebooks!A30,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A30,") | ",Notebooks!G30," |"))</f>
+        <v/>
       </c>
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
@@ -5189,8 +5182,8 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="29" t="str">
-        <f>IF(Notebooks!G29="","",CONCATENATE("| [",Notebooks!A29,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A29,") | ",Notebooks!G29," |"))</f>
-        <v/>
+        <f>IF(Notebooks!G31="","",CONCATENATE("| [",Notebooks!A31,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A31,") | ",Notebooks!G31," |"))</f>
+        <v>| [13](https://rpi-data.github.io/course-intro-ml-app/sessions/session13) | Matrix Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/01-matrix-regression-gradient-decent-python.ipynb)&lt;br&gt;Regression Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/02-regression-boston-housing-python.ipynb)&lt;br&gt;Ridge and Lasso Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb) |</v>
       </c>
       <c r="B33" s="29"/>
       <c r="C33" s="29"/>
@@ -5198,7 +5191,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="29" t="str">
-        <f>IF(Notebooks!G30="","",CONCATENATE("| [",Notebooks!A30,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A30,") | ",Notebooks!G30," |"))</f>
+        <f>IF(Notebooks!G34="","",CONCATENATE("| [",Notebooks!A34,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A34,") | ",Notebooks!G34," |"))</f>
         <v/>
       </c>
       <c r="B34" s="29"/>
@@ -5207,8 +5200,8 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="29" t="str">
-        <f>IF(Notebooks!G31="","",CONCATENATE("| [",Notebooks!A31,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A31,") | ",Notebooks!G31," |"))</f>
-        <v>| [13](https://rpi-data.github.io/course-intro-ml-app/sessions/session13) | Matrix Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/01-matrix-regression-gradient-decent-python.ipynb)&lt;br&gt;Regression Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/02-regression-boston-housing-python.ipynb)&lt;br&gt;Ridge and Lasso Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb) |</v>
+        <f>IF(Notebooks!G35="","",CONCATENATE("| [",Notebooks!A35,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A35,") | ",Notebooks!G35," |"))</f>
+        <v/>
       </c>
       <c r="B35" s="29"/>
       <c r="C35" s="29"/>
@@ -5216,7 +5209,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="29" t="str">
-        <f>IF(Notebooks!G32="","",CONCATENATE("| [",Notebooks!A32,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A32,") | ",Notebooks!G32," |"))</f>
+        <f>IF(Notebooks!G36="","",CONCATENATE("| [",Notebooks!A36,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A36,") | ",Notebooks!G36," |"))</f>
         <v/>
       </c>
       <c r="B36" s="29"/>
@@ -5225,12 +5218,54 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="29" t="str">
-        <f>IF(Notebooks!G33="","",CONCATENATE("| [",Notebooks!A33,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A33,") | ",Notebooks!G33," |"))</f>
-        <v>| [15](https://rpi-data.github.io/course-intro-ml-app/sessions/session15) | Ridge and Lasso Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb)&lt;br&gt;PCA - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/04_introduction_pca.ipynb) |</v>
+        <f>IF(Notebooks!G37="","",CONCATENATE("| [",Notebooks!A37,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A37,") | ",Notebooks!G37," |"))</f>
+        <v/>
       </c>
       <c r="B37" s="29"/>
       <c r="C37" s="29"/>
       <c r="D37" s="29"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="29" t="str">
+        <f>IF(Notebooks!G38="","",CONCATENATE("| [",Notebooks!A38,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A38,") | ",Notebooks!G38," |"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="29" t="str">
+        <f>IF(Notebooks!G39="","",CONCATENATE("| [",Notebooks!A39,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A39,") | ",Notebooks!G39," |"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="29" t="str">
+        <f>IF(Notebooks!G40="","",CONCATENATE("| [",Notebooks!A40,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A40,") | ",Notebooks!G40," |"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="29" t="str">
+        <f>IF(Notebooks!G41="","",CONCATENATE("| [",Notebooks!A41,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A41,") | ",Notebooks!G41," |"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="29" t="str">
+        <f>IF(Notebooks!G42="","",CONCATENATE("| [",Notebooks!A42,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A42,") | ",Notebooks!G42," |"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="29" t="str">
+        <f>IF(Notebooks!G43="","",CONCATENATE("| [",Notebooks!A43,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A43,") | ",Notebooks!G43," |"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="29" t="str">
+        <f>IF(Notebooks!G44="","",CONCATENATE("| [",Notebooks!A44,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A44,") | ",Notebooks!G44," |"))</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5246,12 +5281,12 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="81.296875" customWidth="1"/>
+    <col min="1" max="1" width="81.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="46.8">
+    <row r="1" spans="1:1" ht="51">
       <c r="A1" s="26" t="s">
         <v>735</v>
       </c>
@@ -5480,16 +5515,16 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.09765625" style="31"/>
+    <col min="1" max="1" width="11.1640625" style="31"/>
     <col min="2" max="2" width="45" style="3" customWidth="1"/>
     <col min="3" max="3" width="8" style="3" customWidth="1"/>
     <col min="4" max="5" width="45" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="11.09765625" style="3"/>
+    <col min="6" max="16384" width="11.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6">
+    <row r="1" spans="1:7" ht="17">
       <c r="B1" s="11"/>
       <c r="C1" s="11" t="s">
         <v>14</v>
@@ -5501,7 +5536,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.7" customHeight="1">
+    <row r="2" spans="1:7" ht="14.75" customHeight="1">
       <c r="A2" s="31" t="str">
         <f>IF(ISBLANK(Schedule!B3),"",CONCATENATE("session",Schedule!B3))</f>
         <v>session1</v>
@@ -5600,7 +5635,7 @@
 *None*</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.7" customHeight="1">
+    <row r="4" spans="1:7" ht="14.75" customHeight="1">
       <c r="A4" s="31" t="str">
         <f>IF(ISBLANK(Schedule!B5),"",CONCATENATE("session",Schedule!B5))</f>
         <v>session2</v>
@@ -5717,7 +5752,7 @@
 ### Readings
 [Principles of Data Wrangling (Chapters 1-3)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/business-intelligence/9781491938911)
 ### Notebooks
-&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;</v>
+[Conditional-Loops](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Groupby](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Kaggle Baseline](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 2](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>18</v>
@@ -5746,7 +5781,7 @@
 ### Readings
 [Principles of Data Wrangling (Chapters 1-3)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/business-intelligence/9781491938911)
 ### Notebooks
-&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;</v>
+[Conditional-Loops](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Groupby](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Kaggle Baseline](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 2](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1">
@@ -5813,7 +5848,7 @@
 ### Readings
 [Introduction to Machine Learning with Python (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/programming/machine-learning/9781449369880)
 ### Notebooks
-&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;</v>
+[Twitter](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Strings - Regular Expressions](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Feature Dummies](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 3](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>18</v>
@@ -5842,7 +5877,7 @@
 ### Readings
 [Introduction to Machine Learning with Python (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/programming/machine-learning/9781449369880)
 ### Notebooks
-&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;</v>
+[Twitter](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Strings - Regular Expressions](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Feature Dummies](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 3](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1">
@@ -5957,7 +5992,7 @@
 ### Readings
 *None*
 ### Notebooks
-&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;</v>
+[The Simplest Neural Network with Numpy](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[ROC and SVM](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5A Visualization &amp; Screen Scraping](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5B Intro Modeling](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>18</v>
@@ -5986,7 +6021,7 @@
 ### Readings
 *None*
 ### Notebooks
-&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;</v>
+[The Simplest Neural Network with Numpy](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[ROC and SVM](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5A Visualization &amp; Screen Scraping](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5B Intro Modeling](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1">
@@ -6149,7 +6184,7 @@
 ### Readings
 *None*
 ### Notebooks
-&lt;br&gt;&lt;br&gt;</v>
+[Matrix Regression](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Regression Basics](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Ridge and Lasso Regression](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>18</v>
@@ -6178,7 +6213,7 @@
 ### Readings
 *None*
 ### Notebooks
-&lt;br&gt;&lt;br&gt;</v>
+[Matrix Regression](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Regression Basics](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Ridge and Lasso Regression](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1">
@@ -6234,18 +6269,9 @@
         <f>IF(ISBLANK(Schedule!B18),"",CONCATENATE("session",Schedule!B18))</f>
         <v>session15</v>
       </c>
-      <c r="B17" s="19" t="str">
+      <c r="B17" s="19" t="e">
         <f t="shared" si="1"/>
-        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Midterm &lt;/h1&gt;
----
-### Description
-*None*
-### Learning Objectives
-*None*
-### Readings
-*None*
-### Notebooks
-&lt;br&gt;</v>
+        <v>#REF!</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>18</v>
@@ -6256,7 +6282,7 @@
         <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Midterm &lt;/h1&gt;
 ---</v>
       </c>
-      <c r="E17" s="11" t="str">
+      <c r="E17" s="11" t="e">
         <f>CONCATENATE("
 ### Description
 ",IF(ISBLANK(Schedule!F18),"*None*",Schedule!F18),"
@@ -6266,15 +6292,7 @@
 ",IF(Schedule!L18,LOOKUP(Schedule!B18,Readings!A:A,Readings!F:F),"*None*"),"
 ### Notebooks
 ",IF(Schedule!M18,LOOKUP(Schedule!B18,Notebooks!A:A,Notebooks!L:L),"*None*"))</f>
-        <v xml:space="preserve">
-### Description
-*None*
-### Learning Objectives
-*None*
-### Readings
-*None*
-### Notebooks
-&lt;br&gt;</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1">
@@ -7058,12 +7076,12 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="96.19921875" customWidth="1"/>
+    <col min="1" max="1" width="96.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="46.8">
+    <row r="1" spans="1:1" ht="51">
       <c r="A1" s="10" t="s">
         <v>736</v>
       </c>
@@ -7193,9 +7211,9 @@
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="42.796875" customWidth="1"/>
+    <col min="3" max="3" width="42.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9">
@@ -28470,97 +28488,96 @@
       <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="4.34765625" style="42" customWidth="1"/>
-    <col min="2" max="2" width="3.84765625" style="44" customWidth="1"/>
-    <col min="3" max="3" width="4.69921875" style="44" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" style="42" customWidth="1"/>
+    <col min="2" max="2" width="3.83203125" style="44" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" style="44" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="44" customWidth="1"/>
-    <col min="5" max="5" width="24.09765625" style="46" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" style="46" customWidth="1"/>
     <col min="6" max="7" width="36" style="38" customWidth="1"/>
     <col min="8" max="8" width="6" style="42" customWidth="1"/>
     <col min="9" max="10" width="36" style="38" customWidth="1"/>
     <col min="11" max="11" width="36" style="39" customWidth="1"/>
-    <col min="12" max="12" width="11.34765625" style="39" customWidth="1"/>
-    <col min="13" max="13" width="13.44921875" style="63" customWidth="1"/>
-    <col min="14" max="14" width="15.44921875" style="61" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="13.19921875" style="56" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="27.046875" style="56" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="15.296875" style="56" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="12.296875" style="56" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="12.34765625" style="56" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="23.69921875" style="56" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="19.296875" style="56" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="23.44921875" style="56" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="13.5" style="63" customWidth="1"/>
+    <col min="14" max="14" width="15.5" style="61" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="13.1640625" style="56" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="27" style="56" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="15.33203125" style="56" hidden="1" customWidth="1"/>
+    <col min="18" max="19" width="12.33203125" style="56" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="23.6640625" style="56" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="19.33203125" style="56" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="23.5" style="56" hidden="1" customWidth="1"/>
     <col min="23" max="26" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="32" customFormat="1" ht="18.3" customHeight="1" thickBot="1">
-      <c r="A1" s="100" t="s">
+    <row r="1" spans="1:22" s="32" customFormat="1" ht="18.25" customHeight="1" thickBot="1">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="112" t="s">
         <v>707</v>
       </c>
-      <c r="C1" s="98" t="s">
+      <c r="C1" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="105" t="s">
+      <c r="E1" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="109" t="s">
+      <c r="F1" s="105" t="s">
         <v>846</v>
       </c>
-      <c r="G1" s="110"/>
-      <c r="H1" s="111" t="s">
+      <c r="G1" s="106"/>
+      <c r="H1" s="107" t="s">
         <v>856</v>
       </c>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="114" t="s">
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="110" t="s">
         <v>854</v>
       </c>
-      <c r="M1" s="114" t="s">
+      <c r="M1" s="110" t="s">
         <v>855</v>
       </c>
-      <c r="N1" s="102" t="s">
+      <c r="N1" s="116" t="s">
         <v>886</v>
       </c>
-      <c r="O1" s="103" t="s">
+      <c r="O1" s="117" t="s">
         <v>887</v>
       </c>
-      <c r="P1" s="104" t="s">
+      <c r="P1" s="100" t="s">
         <v>888</v>
       </c>
-      <c r="Q1" s="104" t="s">
+      <c r="Q1" s="100" t="s">
         <v>889</v>
       </c>
-      <c r="R1" s="104" t="s">
+      <c r="R1" s="100" t="s">
         <v>890</v>
       </c>
-      <c r="S1" s="104" t="s">
+      <c r="S1" s="100" t="s">
         <v>884</v>
       </c>
-      <c r="T1" s="104" t="s">
+      <c r="T1" s="100" t="s">
         <v>885</v>
       </c>
-      <c r="U1" s="104" t="s">
+      <c r="U1" s="100" t="s">
         <v>891</v>
       </c>
-      <c r="V1" s="104" t="s">
+      <c r="V1" s="100" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="32" customFormat="1" ht="18.899999999999999" thickTop="1" thickBot="1">
-      <c r="A2" s="101"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="106"/>
+    <row r="2" spans="1:22" s="32" customFormat="1" ht="22" thickTop="1" thickBot="1">
+      <c r="A2" s="115"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="102"/>
       <c r="F2" s="72" t="s">
         <v>4</v>
       </c>
@@ -28579,19 +28596,19 @@
       <c r="K2" s="77" t="s">
         <v>857</v>
       </c>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="104"/>
-      <c r="T2" s="104"/>
-      <c r="U2" s="104"/>
-      <c r="V2" s="104"/>
-    </row>
-    <row r="3" spans="1:22" ht="62.4">
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="100"/>
+      <c r="V2" s="100"/>
+    </row>
+    <row r="3" spans="1:22" ht="68">
       <c r="A3" s="42">
         <v>1</v>
       </c>
@@ -28668,7 +28685,7 @@
 </v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15.6" customHeight="1">
+    <row r="4" spans="1:22" ht="15.5" customHeight="1">
       <c r="A4" s="42">
         <v>2</v>
       </c>
@@ -28738,7 +28755,7 @@
 </v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="124.8">
+    <row r="5" spans="1:22" ht="136">
       <c r="A5" s="50">
         <v>2</v>
       </c>
@@ -28827,7 +28844,7 @@
     not_numbered: true</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" ht="17">
       <c r="A6" s="42">
         <v>2</v>
       </c>
@@ -28907,7 +28924,7 @@
 </v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="140.4">
+    <row r="7" spans="1:22" ht="170">
       <c r="A7" s="42">
         <f>A4+1</f>
         <v>3</v>
@@ -28991,7 +29008,7 @@
 </v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="46.8">
+    <row r="8" spans="1:22" ht="51">
       <c r="A8" s="42">
         <f t="shared" ref="A8:A13" si="8">A6+1</f>
         <v>3</v>
@@ -29088,7 +29105,7 @@
     not_numbered: true</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="93.6">
+    <row r="9" spans="1:22" ht="119">
       <c r="A9" s="42">
         <f t="shared" si="8"/>
         <v>4</v>
@@ -29181,7 +29198,7 @@
 </v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="46.8">
+    <row r="10" spans="1:22" ht="51">
       <c r="A10" s="42">
         <f t="shared" si="8"/>
         <v>4</v>
@@ -29280,7 +29297,7 @@
 </v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="31.2">
+    <row r="11" spans="1:22" ht="34">
       <c r="A11" s="42">
         <f t="shared" si="8"/>
         <v>5</v>
@@ -29379,7 +29396,7 @@
 </v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" ht="17">
       <c r="A12" s="42">
         <f t="shared" si="8"/>
         <v>5</v>
@@ -29481,7 +29498,7 @@
 </v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="93.6">
+    <row r="13" spans="1:22" ht="102">
       <c r="A13" s="42">
         <f t="shared" si="8"/>
         <v>6</v>
@@ -29586,7 +29603,7 @@
 </v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" ht="17">
       <c r="A14" s="42">
         <v>6</v>
       </c>
@@ -29693,7 +29710,7 @@
 </v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="93.6">
+    <row r="15" spans="1:22" ht="102">
       <c r="A15" s="42">
         <f>A13+1</f>
         <v>7</v>
@@ -29804,7 +29821,7 @@
 </v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" ht="17">
       <c r="A16" s="42">
         <v>7</v>
       </c>
@@ -29917,7 +29934,7 @@
 </v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="31.2">
+    <row r="17" spans="1:22" ht="34">
       <c r="A17" s="42">
         <f>A15+1</f>
         <v>8</v>
@@ -30032,7 +30049,7 @@
 </v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" ht="17">
       <c r="A18" s="50">
         <v>8</v>
       </c>
@@ -30148,7 +30165,7 @@
 </v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="46.8">
+    <row r="19" spans="1:22" ht="68">
       <c r="A19" s="42">
         <f t="shared" ref="A19:A32" si="10">A17+1</f>
         <v>9</v>
@@ -30271,7 +30288,7 @@
 </v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" ht="17">
       <c r="A20" s="42">
         <f t="shared" si="10"/>
         <v>9</v>
@@ -30397,7 +30414,7 @@
 </v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="31.2">
+    <row r="21" spans="1:22" ht="51">
       <c r="A21" s="42">
         <f t="shared" si="10"/>
         <v>10</v>
@@ -30526,7 +30543,7 @@
 </v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" ht="17">
       <c r="A22" s="42">
         <f t="shared" si="10"/>
         <v>10</v>
@@ -30658,7 +30675,7 @@
 </v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="31.2">
+    <row r="23" spans="1:22" ht="34">
       <c r="A23" s="42">
         <f t="shared" si="10"/>
         <v>11</v>
@@ -30793,7 +30810,7 @@
 </v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" ht="17">
       <c r="A24" s="42">
         <f t="shared" si="10"/>
         <v>11</v>
@@ -30931,7 +30948,7 @@
 </v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="46.8">
+    <row r="25" spans="1:22" ht="51">
       <c r="A25" s="42">
         <f t="shared" si="10"/>
         <v>12</v>
@@ -31072,7 +31089,7 @@
 </v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="46.8">
+    <row r="26" spans="1:22" ht="68">
       <c r="A26" s="42">
         <f t="shared" si="10"/>
         <v>12</v>
@@ -31216,7 +31233,7 @@
 </v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="78">
+    <row r="27" spans="1:22" ht="85">
       <c r="A27" s="42">
         <f t="shared" si="10"/>
         <v>13</v>
@@ -31363,7 +31380,7 @@
 </v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="31.2">
+    <row r="28" spans="1:22" ht="34">
       <c r="A28" s="42">
         <f t="shared" si="10"/>
         <v>13</v>
@@ -31513,7 +31530,7 @@
 </v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="31.2">
+    <row r="29" spans="1:22" ht="34">
       <c r="A29" s="42">
         <f t="shared" si="10"/>
         <v>14</v>
@@ -31666,7 +31683,7 @@
 </v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" ht="17">
       <c r="A30" s="42">
         <f t="shared" si="10"/>
         <v>14</v>
@@ -31812,7 +31829,7 @@
 </v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" ht="17">
       <c r="A31" s="42">
         <f t="shared" si="10"/>
         <v>15</v>
@@ -31967,7 +31984,7 @@
 </v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" ht="17">
       <c r="A32" s="42">
         <f t="shared" si="10"/>
         <v>15</v>
@@ -32124,7 +32141,7 @@
 </v>
       </c>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:22" ht="17">
       <c r="A33" s="50">
         <v>16</v>
       </c>
@@ -32283,7 +32300,7 @@
 </v>
       </c>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:22" ht="17">
       <c r="A34" s="42">
         <v>17</v>
       </c>
@@ -46489,12 +46506,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
@@ -46502,11 +46518,12 @@
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -46522,17 +46539,17 @@
       <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="8.8984375" style="34" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="34" customWidth="1"/>
     <col min="2" max="3" width="36" style="29" customWidth="1"/>
-    <col min="4" max="4" width="17.1484375" style="56" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="27.1484375" style="56" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="30.046875" style="56" hidden="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.796875" style="29"/>
+    <col min="4" max="4" width="17.1640625" style="56" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="27.1640625" style="56" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="30" style="56" hidden="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="32" customFormat="1" ht="18.3">
+    <row r="1" spans="1:7" s="32" customFormat="1" ht="19">
       <c r="A1" s="33" t="s">
         <v>731</v>
       </c>
@@ -46552,7 +46569,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="17">
       <c r="A2" s="34">
         <v>2</v>
       </c>
@@ -46579,7 +46596,7 @@
         <v>[Introduction to Time Series](https://www.youtube.com/watch?v=d4Sn6ny_5LI)&lt;br&gt;[7 Ways Time Series Forecasting Differs from Machine Learning](https://www.datascience.com/blog/time-series-forecasting-machine-learning-differences)&lt;br&gt;[Aggregation Techniques and Cryptocurrencies](https://medium.com/python-data/time-series-aggregation-techniques-with-python-a-look-at-major-cryptocurrencies-a9eb1dd49c1b)</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="17">
       <c r="A3" s="34">
         <v>2</v>
       </c>
@@ -46606,7 +46623,7 @@
         <v>[Doing Data Science (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/9781449363871)&lt;br&gt;[Data Science for Business (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/business-intelligence/9781449374273)&lt;br&gt;[Command Line Cheat Sheet](https://www.git-tower.com/blog/command-line-cheat-sheet/)&lt;br&gt;[Assignment Process](/assignments)&lt;br&gt;[Running Jupyter locally](http://rpi.analyticsdojo.com/setup/anaconda/)</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="17">
       <c r="A4" s="34">
         <v>2</v>
       </c>
@@ -46633,7 +46650,7 @@
         <v>[Doing Data Science (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/9781449363871)&lt;br&gt;[Data Science for Business (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/business-intelligence/9781449374273)&lt;br&gt;[Command Line Cheat Sheet](https://www.git-tower.com/blog/command-line-cheat-sheet/)&lt;br&gt;[Assignment Process](/assignments)&lt;br&gt;[Running Jupyter locally](http://rpi.analyticsdojo.com/setup/anaconda/)</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="17">
       <c r="A5" s="34">
         <v>2</v>
       </c>
@@ -46656,7 +46673,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="17">
       <c r="A6" s="34">
         <v>2</v>
       </c>
@@ -46679,7 +46696,7 @@
         <v>[Doing Data Science (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/9781449363871)&lt;br&gt;[Data Science for Business (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/business-intelligence/9781449374273)&lt;br&gt;[Command Line Cheat Sheet](https://www.git-tower.com/blog/command-line-cheat-sheet/)&lt;br&gt;[Assignment Process](/assignments)&lt;br&gt;[Running Jupyter locally](http://rpi.analyticsdojo.com/setup/anaconda/)</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="34">
       <c r="A7" s="34">
         <v>4</v>
       </c>
@@ -46702,7 +46719,7 @@
         <v>[Principles of Data Wrangling (Chapters 1-3)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/business-intelligence/9781491938911)</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="31.2">
+    <row r="8" spans="1:7" ht="34">
       <c r="A8" s="34">
         <v>6</v>
       </c>
@@ -46725,7 +46742,7 @@
         <v>[Introduction to Machine Learning with Python (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/programming/machine-learning/9781449369880)</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="17">
       <c r="A9" s="34">
         <v>8</v>
       </c>
@@ -46748,7 +46765,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="31.2">
+    <row r="10" spans="1:7" ht="34">
       <c r="A10" s="34">
         <v>8</v>
       </c>
@@ -46771,7 +46788,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="17">
       <c r="A11" s="34">
         <v>8</v>
       </c>
@@ -46794,7 +46811,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="17">
       <c r="A12" s="34">
         <v>8</v>
       </c>
@@ -46817,7 +46834,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="17">
       <c r="A13" s="34">
         <v>8</v>
       </c>
@@ -46886,7 +46903,7 @@
         <v>[R for Data Science (Chapters 1-3)](https://r4ds.had.co.nz)&lt;br&gt;[RStudio Cloud](https://rstudio.cloud)</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="17">
       <c r="A16" s="34">
         <v>12</v>
       </c>
@@ -46909,7 +46926,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="31.2">
+    <row r="17" spans="1:6" ht="34">
       <c r="A17" s="34">
         <v>12</v>
       </c>
@@ -47175,30 +47192,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA21" sqref="AA21"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="8.8984375" style="34" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="34" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="30.3984375" style="29" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="29" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
-    <col min="5" max="5" width="17.046875" style="56" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="27.25" style="56" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="30.84765625" style="56" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="13.1484375" style="56" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="17.046875" style="56" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="15.8984375" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="25.69921875" style="56" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="28.19921875" style="56" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="56" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="27.1640625" style="56" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="30.83203125" style="56" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" style="56" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="56" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="15.83203125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="25.6640625" style="56" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="28.1640625" style="56" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="32" customFormat="1" ht="18.3">
+    <row r="1" spans="1:12" s="32" customFormat="1" ht="19">
       <c r="A1" s="33" t="s">
         <v>731</v>
       </c>
@@ -47232,7 +47249,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" ht="17">
       <c r="A2" s="34">
         <v>1</v>
       </c>
@@ -47286,7 +47303,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" ht="17">
       <c r="A3" s="34">
         <v>1</v>
       </c>
@@ -47339,11 +47356,11 @@
         <v>[What is Jupyter?](https://rpi-data.github.io/course-intro-ml-app/notebooks/01-what-is-jupyter.html)&lt;br&gt;[Notebook Basics](https://rpi-data.github.io/course-intro-ml-app/notebooks/02-notebook-basics.html)</v>
       </c>
       <c r="L3" s="56" t="str">
-        <f t="shared" ref="L3:L33" si="6">IF(A3&lt;&gt;A4,K3,"")</f>
+        <f t="shared" ref="L3:L32" si="6">IF(A3&lt;&gt;A4,K3,"")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" ht="17">
       <c r="A4" s="34">
         <v>1</v>
       </c>
@@ -47400,7 +47417,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" ht="17">
       <c r="A5" s="34">
         <v>1</v>
       </c>
@@ -47422,7 +47439,7 @@
         <v>What is Jupyter? - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/01-what-is-jupyter.ipynb#scrollTo=mdFTkIqGwgOJ)&lt;br&gt;Notebook Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/02-notebook-basics.ipynb)&lt;br&gt;Running Code - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/03-running-code.ipynb)&lt;br&gt;Markdown - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/04-markdown.ipynb)</v>
       </c>
       <c r="G5" s="56" t="str">
-        <f t="shared" ref="G5:G33" si="7">IF(A5&lt;&gt;A6,F5,"")</f>
+        <f t="shared" ref="G5:G32" si="7">IF(A5&lt;&gt;A6,F5,"")</f>
         <v>What is Jupyter? - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/01-what-is-jupyter.ipynb#scrollTo=mdFTkIqGwgOJ)&lt;br&gt;Notebook Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/02-notebook-basics.ipynb)&lt;br&gt;Running Code - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/03-running-code.ipynb)&lt;br&gt;Markdown - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/04-markdown.ipynb)</v>
       </c>
       <c r="H5" s="56" t="str">
@@ -47460,7 +47477,7 @@
         <v>[What is Jupyter?](https://rpi-data.github.io/course-intro-ml-app/notebooks/01-what-is-jupyter.html)&lt;br&gt;[Notebook Basics](https://rpi-data.github.io/course-intro-ml-app/notebooks/02-notebook-basics.html)&lt;br&gt;[Running Code](https://rpi-data.github.io/course-intro-ml-app/notebooks/03-running-code.html)&lt;br&gt;[Markdown](https://rpi-data.github.io/course-intro-ml-app/notebooks/04-markdown.html)</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" ht="17">
       <c r="A6" s="34">
         <v>2</v>
       </c>
@@ -47523,7 +47540,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" ht="17">
       <c r="A7" s="34">
         <v>2</v>
       </c>
@@ -47589,7 +47606,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" ht="17">
       <c r="A8" s="34">
         <v>2</v>
       </c>
@@ -47658,7 +47675,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" ht="17">
       <c r="A9" s="34">
         <v>2</v>
       </c>
@@ -47730,12 +47747,15 @@
         <v>[Python Overview](https://rpi-data.github.io/course-intro-ml-app/notebooks/05-intro-python-overview.html)&lt;br&gt;[Basic Data Structures](https://rpi-data.github.io/course-intro-ml-app/notebooks/06-intro-python-datastructures.html)&lt;br&gt;[Numpy](https://rpi-data.github.io/course-intro-ml-app/notebooks/07-intro-python-numpy.html)&lt;br&gt;[Pandas](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" ht="17">
       <c r="A10" s="34">
         <v>4</v>
       </c>
       <c r="B10" t="s">
         <v>798</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>877</v>
       </c>
       <c r="D10" t="s">
         <v>799</v>
@@ -47754,7 +47774,9 @@
       </c>
       <c r="H10" s="56" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">  - title: Conditional-Loops
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true</v>
       </c>
       <c r="I10" s="56" t="str">
         <f t="shared" si="4"/>
@@ -47783,27 +47805,32 @@
   - title: Pandas
     url: /notebooks/08-intro-python-pandas
     not_numbered: true
-</v>
+  - title: Conditional-Loops
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true</v>
       </c>
       <c r="J10" s="56" t="str">
         <f>IF(ISBLANK(C10),"",CONCATENATE("[",B10,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C10,".html)"))</f>
-        <v/>
+        <v>[Conditional-Loops](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K10" s="56" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>[Conditional-Loops](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L10" s="56" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" ht="17">
       <c r="A11" s="34">
         <v>4</v>
       </c>
       <c r="B11" t="s">
         <v>800</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>877</v>
       </c>
       <c r="D11" t="s">
         <v>801</v>
@@ -47822,7 +47849,9 @@
       </c>
       <c r="H11" s="56" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">  - title: Functions
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true</v>
       </c>
       <c r="I11" s="56" t="str">
         <f t="shared" si="4"/>
@@ -47851,27 +47880,35 @@
   - title: Pandas
     url: /notebooks/08-intro-python-pandas
     not_numbered: true
-</v>
+  - title: Conditional-Loops
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Functions
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true</v>
       </c>
       <c r="J11" s="56" t="str">
         <f>IF(ISBLANK(C11),"",CONCATENATE("[",B11,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C11,".html)"))</f>
-        <v/>
+        <v>[Functions](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K11" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;br&gt;</v>
+        <v>[Conditional-Loops](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L11" s="56" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" ht="17">
       <c r="A12" s="34">
         <v>4</v>
       </c>
       <c r="B12" t="s">
         <v>802</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>877</v>
       </c>
       <c r="D12" t="s">
         <v>803</v>
@@ -47890,7 +47927,9 @@
       </c>
       <c r="H12" s="56" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">  - title: Null Values
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true</v>
       </c>
       <c r="I12" s="56" t="str">
         <f t="shared" si="4"/>
@@ -47919,27 +47958,38 @@
   - title: Pandas
     url: /notebooks/08-intro-python-pandas
     not_numbered: true
-</v>
+  - title: Conditional-Loops
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Functions
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Null Values
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true</v>
       </c>
       <c r="J12" s="56" t="str">
         <f>IF(ISBLANK(C12),"",CONCATENATE("[",B12,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C12,".html)"))</f>
-        <v/>
+        <v>[Null Values](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K12" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;br&gt;&lt;br&gt;</v>
+        <v>[Conditional-Loops](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L12" s="56" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" ht="17">
       <c r="A13" s="34">
         <v>4</v>
       </c>
       <c r="B13" t="s">
         <v>804</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>877</v>
       </c>
       <c r="D13" t="s">
         <v>807</v>
@@ -47958,7 +48008,9 @@
       </c>
       <c r="H13" s="56" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">  - title: Groupby
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true</v>
       </c>
       <c r="I13" s="56" t="str">
         <f t="shared" si="4"/>
@@ -47987,27 +48039,41 @@
   - title: Pandas
     url: /notebooks/08-intro-python-pandas
     not_numbered: true
-</v>
+  - title: Conditional-Loops
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Functions
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Null Values
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Groupby
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true</v>
       </c>
       <c r="J13" s="56" t="str">
         <f>IF(ISBLANK(C13),"",CONCATENATE("[",B13,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C13,".html)"))</f>
-        <v/>
+        <v>[Groupby](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K13" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;br&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>[Conditional-Loops](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Groupby](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L13" s="56" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" ht="17">
       <c r="A14" s="34">
         <v>4</v>
       </c>
       <c r="B14" t="s">
         <v>805</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>877</v>
       </c>
       <c r="D14" t="s">
         <v>808</v>
@@ -48026,7 +48092,9 @@
       </c>
       <c r="H14" s="56" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">  - title: Kaggle Baseline
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true</v>
       </c>
       <c r="I14" s="56" t="str">
         <f t="shared" si="4"/>
@@ -48055,27 +48123,44 @@
   - title: Pandas
     url: /notebooks/08-intro-python-pandas
     not_numbered: true
-</v>
+  - title: Conditional-Loops
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Functions
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Null Values
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Groupby
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Kaggle Baseline
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true</v>
       </c>
       <c r="J14" s="56" t="str">
         <f>IF(ISBLANK(C14),"",CONCATENATE("[",B14,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C14,".html)"))</f>
-        <v/>
+        <v>[Kaggle Baseline](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K14" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>[Conditional-Loops](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Groupby](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Kaggle Baseline](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L14" s="56" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" ht="17">
       <c r="A15" s="34">
         <v>4</v>
       </c>
       <c r="B15" t="s">
         <v>806</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>877</v>
       </c>
       <c r="D15" t="s">
         <v>809</v>
@@ -48094,7 +48179,9 @@
       </c>
       <c r="H15" s="56" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">  - title: Assignment 2
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true</v>
       </c>
       <c r="I15" s="56" t="str">
         <f t="shared" si="4"/>
@@ -48123,27 +48210,47 @@
   - title: Pandas
     url: /notebooks/08-intro-python-pandas
     not_numbered: true
-</v>
+  - title: Conditional-Loops
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Functions
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Null Values
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Groupby
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Kaggle Baseline
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Assignment 2
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true</v>
       </c>
       <c r="J15" s="56" t="str">
         <f>IF(ISBLANK(C15),"",CONCATENATE("[",B15,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C15,".html)"))</f>
-        <v/>
+        <v>[Assignment 2](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K15" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>[Conditional-Loops](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Groupby](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Kaggle Baseline](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 2](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L15" s="56" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>[Conditional-Loops](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Groupby](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Kaggle Baseline](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 2](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="17">
       <c r="A16" s="34">
         <v>6</v>
       </c>
       <c r="B16" t="s">
         <v>810</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>877</v>
       </c>
       <c r="D16" t="s">
         <v>816</v>
@@ -48162,7 +48269,9 @@
       </c>
       <c r="H16" s="56" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">  - title: Twitter
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true</v>
       </c>
       <c r="I16" s="56" t="str">
         <f t="shared" si="4"/>
@@ -48191,27 +48300,50 @@
   - title: Pandas
     url: /notebooks/08-intro-python-pandas
     not_numbered: true
-</v>
+  - title: Conditional-Loops
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Functions
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Null Values
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Groupby
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Kaggle Baseline
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Assignment 2
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Twitter
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true</v>
       </c>
       <c r="J16" s="56" t="str">
         <f>IF(ISBLANK(C16),"",CONCATENATE("[",B16,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C16,".html)"))</f>
-        <v/>
+        <v>[Twitter](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K16" s="56" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>[Twitter](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L16" s="56" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" ht="17">
       <c r="A17" s="34">
         <v>6</v>
       </c>
       <c r="B17" t="s">
         <v>811</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>877</v>
       </c>
       <c r="D17" t="s">
         <v>817</v>
@@ -48230,7 +48362,9 @@
       </c>
       <c r="H17" s="56" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">  - title: Web Mining
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true</v>
       </c>
       <c r="I17" s="56" t="str">
         <f t="shared" si="4"/>
@@ -48259,27 +48393,53 @@
   - title: Pandas
     url: /notebooks/08-intro-python-pandas
     not_numbered: true
-</v>
+  - title: Conditional-Loops
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Functions
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Null Values
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Groupby
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Kaggle Baseline
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Assignment 2
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Twitter
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Web Mining
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true</v>
       </c>
       <c r="J17" s="56" t="str">
         <f>IF(ISBLANK(C17),"",CONCATENATE("[",B17,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C17,".html)"))</f>
-        <v/>
+        <v>[Web Mining](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K17" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;br&gt;</v>
+        <v>[Twitter](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L17" s="56" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" ht="17">
       <c r="A18" s="34">
         <v>6</v>
       </c>
       <c r="B18" t="s">
         <v>812</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>877</v>
       </c>
       <c r="D18" t="s">
         <v>818</v>
@@ -48298,7 +48458,9 @@
       </c>
       <c r="H18" s="56" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">  - title: Visualizations - Seaborn
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true</v>
       </c>
       <c r="I18" s="56" t="str">
         <f t="shared" si="4"/>
@@ -48327,27 +48489,56 @@
   - title: Pandas
     url: /notebooks/08-intro-python-pandas
     not_numbered: true
-</v>
+  - title: Conditional-Loops
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Functions
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Null Values
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Groupby
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Kaggle Baseline
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Assignment 2
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Twitter
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Web Mining
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Visualizations - Seaborn
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true</v>
       </c>
       <c r="J18" s="56" t="str">
         <f>IF(ISBLANK(C18),"",CONCATENATE("[",B18,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C18,".html)"))</f>
-        <v/>
+        <v>[Visualizations - Seaborn](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K18" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;br&gt;&lt;br&gt;</v>
+        <v>[Twitter](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L18" s="56" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" ht="17">
       <c r="A19" s="34">
         <v>6</v>
       </c>
       <c r="B19" t="s">
         <v>813</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>877</v>
       </c>
       <c r="D19" t="s">
         <v>819</v>
@@ -48366,7 +48557,9 @@
       </c>
       <c r="H19" s="56" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">  - title: Strings - Regular Expressions
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true</v>
       </c>
       <c r="I19" s="56" t="str">
         <f t="shared" si="4"/>
@@ -48395,27 +48588,59 @@
   - title: Pandas
     url: /notebooks/08-intro-python-pandas
     not_numbered: true
-</v>
+  - title: Conditional-Loops
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Functions
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Null Values
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Groupby
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Kaggle Baseline
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Assignment 2
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Twitter
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Web Mining
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Visualizations - Seaborn
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Strings - Regular Expressions
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true</v>
       </c>
       <c r="J19" s="56" t="str">
         <f>IF(ISBLANK(C19),"",CONCATENATE("[",B19,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C19,".html)"))</f>
-        <v/>
+        <v>[Strings - Regular Expressions](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K19" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;br&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>[Twitter](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Strings - Regular Expressions](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L19" s="56" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" ht="17">
       <c r="A20" s="34">
         <v>6</v>
       </c>
       <c r="B20" t="s">
         <v>814</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>877</v>
       </c>
       <c r="D20" t="s">
         <v>820</v>
@@ -48434,7 +48659,9 @@
       </c>
       <c r="H20" s="56" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">  - title: Feature Dummies
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true</v>
       </c>
       <c r="I20" s="56" t="str">
         <f t="shared" si="4"/>
@@ -48463,27 +48690,62 @@
   - title: Pandas
     url: /notebooks/08-intro-python-pandas
     not_numbered: true
-</v>
+  - title: Conditional-Loops
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Functions
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Null Values
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Groupby
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Kaggle Baseline
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Assignment 2
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Twitter
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Web Mining
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Visualizations - Seaborn
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Strings - Regular Expressions
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Feature Dummies
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true</v>
       </c>
       <c r="J20" s="56" t="str">
         <f>IF(ISBLANK(C20),"",CONCATENATE("[",B20,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C20,".html)"))</f>
-        <v/>
+        <v>[Feature Dummies](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K20" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>[Twitter](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Strings - Regular Expressions](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Feature Dummies](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L20" s="56" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" ht="17">
       <c r="A21" s="34">
         <v>6</v>
       </c>
       <c r="B21" t="s">
         <v>815</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>877</v>
       </c>
       <c r="D21" t="s">
         <v>821</v>
@@ -48502,7 +48764,9 @@
       </c>
       <c r="H21" s="56" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">  - title: Assignment 3
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true</v>
       </c>
       <c r="I21" s="56" t="str">
         <f t="shared" si="4"/>
@@ -48531,27 +48795,65 @@
   - title: Pandas
     url: /notebooks/08-intro-python-pandas
     not_numbered: true
-</v>
+  - title: Conditional-Loops
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Functions
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Null Values
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Groupby
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Kaggle Baseline
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Assignment 2
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Twitter
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Web Mining
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Visualizations - Seaborn
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Strings - Regular Expressions
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Feature Dummies
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Assignment 3
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true</v>
       </c>
       <c r="J21" s="56" t="str">
         <f>IF(ISBLANK(C21),"",CONCATENATE("[",B21,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C21,".html)"))</f>
-        <v/>
+        <v>[Assignment 3](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K21" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>[Twitter](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Strings - Regular Expressions](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Feature Dummies](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 3](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L21" s="56" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>[Twitter](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Strings - Regular Expressions](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Feature Dummies](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 3](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="17">
       <c r="A22" s="34">
         <v>9</v>
       </c>
       <c r="B22" t="s">
         <v>822</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>877</v>
       </c>
       <c r="D22" t="s">
         <v>835</v>
@@ -48570,7 +48872,9 @@
       </c>
       <c r="H22" s="56" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">  - title: The Simplest Neural Network with Numpy
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true</v>
       </c>
       <c r="I22" s="56" t="str">
         <f t="shared" si="4"/>
@@ -48599,27 +48903,68 @@
   - title: Pandas
     url: /notebooks/08-intro-python-pandas
     not_numbered: true
-</v>
+  - title: Conditional-Loops
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Functions
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Null Values
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Groupby
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Kaggle Baseline
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Assignment 2
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Twitter
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Web Mining
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Visualizations - Seaborn
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Strings - Regular Expressions
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Feature Dummies
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Assignment 3
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: The Simplest Neural Network with Numpy
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true</v>
       </c>
       <c r="J22" s="56" t="str">
         <f>IF(ISBLANK(C22),"",CONCATENATE("[",B22,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C22,".html)"))</f>
-        <v/>
+        <v>[The Simplest Neural Network with Numpy](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K22" s="56" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>[The Simplest Neural Network with Numpy](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L22" s="56" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" ht="17">
       <c r="A23" s="34">
         <v>9</v>
       </c>
       <c r="B23" t="s">
         <v>823</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>877</v>
       </c>
       <c r="D23" t="s">
         <v>834</v>
@@ -48638,7 +48983,9 @@
       </c>
       <c r="H23" s="56" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">  - title: Train Test Split
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true</v>
       </c>
       <c r="I23" s="56" t="str">
         <f t="shared" si="4"/>
@@ -48667,27 +49014,71 @@
   - title: Pandas
     url: /notebooks/08-intro-python-pandas
     not_numbered: true
-</v>
+  - title: Conditional-Loops
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Functions
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Null Values
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Groupby
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Kaggle Baseline
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Assignment 2
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Twitter
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Web Mining
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Visualizations - Seaborn
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Strings - Regular Expressions
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Feature Dummies
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Assignment 3
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: The Simplest Neural Network with Numpy
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Train Test Split
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true</v>
       </c>
       <c r="J23" s="56" t="str">
         <f>IF(ISBLANK(C23),"",CONCATENATE("[",B23,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C23,".html)"))</f>
-        <v/>
+        <v>[Train Test Split](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K23" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;br&gt;</v>
+        <v>[The Simplest Neural Network with Numpy](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L23" s="56" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" ht="17">
       <c r="A24" s="34">
         <v>9</v>
       </c>
       <c r="B24" t="s">
         <v>824</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>877</v>
       </c>
       <c r="D24" t="s">
         <v>833</v>
@@ -48706,7 +49097,9 @@
       </c>
       <c r="H24" s="56" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">  - title: Introduction to Logistic Regression
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true</v>
       </c>
       <c r="I24" s="56" t="str">
         <f t="shared" si="4"/>
@@ -48735,27 +49128,74 @@
   - title: Pandas
     url: /notebooks/08-intro-python-pandas
     not_numbered: true
-</v>
+  - title: Conditional-Loops
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Functions
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Null Values
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Groupby
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Kaggle Baseline
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Assignment 2
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Twitter
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Web Mining
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Visualizations - Seaborn
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Strings - Regular Expressions
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Feature Dummies
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Assignment 3
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: The Simplest Neural Network with Numpy
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Train Test Split
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Introduction to Logistic Regression
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true</v>
       </c>
       <c r="J24" s="56" t="str">
         <f>IF(ISBLANK(C24),"",CONCATENATE("[",B24,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C24,".html)"))</f>
-        <v/>
+        <v>[Introduction to Logistic Regression](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K24" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;br&gt;&lt;br&gt;</v>
+        <v>[The Simplest Neural Network with Numpy](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L24" s="56" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" ht="17">
       <c r="A25" s="34">
         <v>9</v>
       </c>
       <c r="B25" t="s">
         <v>825</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>877</v>
       </c>
       <c r="D25" t="s">
         <v>832</v>
@@ -48774,7 +49214,9 @@
       </c>
       <c r="H25" s="56" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">  - title: K Nearest Neighbor
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true</v>
       </c>
       <c r="I25" s="56" t="str">
         <f t="shared" si="4"/>
@@ -48803,27 +49245,77 @@
   - title: Pandas
     url: /notebooks/08-intro-python-pandas
     not_numbered: true
-</v>
+  - title: Conditional-Loops
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Functions
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Null Values
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Groupby
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Kaggle Baseline
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Assignment 2
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Twitter
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Web Mining
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Visualizations - Seaborn
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Strings - Regular Expressions
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Feature Dummies
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Assignment 3
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: The Simplest Neural Network with Numpy
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Train Test Split
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Introduction to Logistic Regression
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: K Nearest Neighbor
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true</v>
       </c>
       <c r="J25" s="56" t="str">
         <f>IF(ISBLANK(C25),"",CONCATENATE("[",B25,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C25,".html)"))</f>
-        <v/>
+        <v>[K Nearest Neighbor](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K25" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;br&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>[The Simplest Neural Network with Numpy](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L25" s="56" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" ht="17">
       <c r="A26" s="34">
         <v>9</v>
       </c>
       <c r="B26" t="s">
         <v>826</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>877</v>
       </c>
       <c r="D26" t="s">
         <v>831</v>
@@ -48842,7 +49334,9 @@
       </c>
       <c r="H26" s="56" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">  - title: ROC and SVM
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true</v>
       </c>
       <c r="I26" s="56" t="str">
         <f t="shared" si="4"/>
@@ -48871,27 +49365,80 @@
   - title: Pandas
     url: /notebooks/08-intro-python-pandas
     not_numbered: true
-</v>
+  - title: Conditional-Loops
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Functions
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Null Values
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Groupby
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Kaggle Baseline
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Assignment 2
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Twitter
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Web Mining
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Visualizations - Seaborn
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Strings - Regular Expressions
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Feature Dummies
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Assignment 3
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: The Simplest Neural Network with Numpy
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Train Test Split
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Introduction to Logistic Regression
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: K Nearest Neighbor
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: ROC and SVM
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true</v>
       </c>
       <c r="J26" s="56" t="str">
         <f>IF(ISBLANK(C26),"",CONCATENATE("[",B26,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C26,".html)"))</f>
-        <v/>
+        <v>[ROC and SVM](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K26" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>[The Simplest Neural Network with Numpy](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[ROC and SVM](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L26" s="56" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" ht="17">
       <c r="A27" s="34">
         <v>9</v>
       </c>
       <c r="B27" t="s">
         <v>827</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>877</v>
       </c>
       <c r="D27" t="s">
         <v>830</v>
@@ -48910,7 +49457,9 @@
       </c>
       <c r="H27" s="56" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">  - title: HM5A Visualization &amp; Screen Scraping
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true</v>
       </c>
       <c r="I27" s="56" t="str">
         <f t="shared" si="4"/>
@@ -48939,27 +49488,83 @@
   - title: Pandas
     url: /notebooks/08-intro-python-pandas
     not_numbered: true
-</v>
+  - title: Conditional-Loops
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Functions
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Null Values
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Groupby
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Kaggle Baseline
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Assignment 2
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Twitter
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Web Mining
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Visualizations - Seaborn
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Strings - Regular Expressions
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Feature Dummies
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Assignment 3
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: The Simplest Neural Network with Numpy
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Train Test Split
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Introduction to Logistic Regression
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: K Nearest Neighbor
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: ROC and SVM
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: HM5A Visualization &amp; Screen Scraping
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true</v>
       </c>
       <c r="J27" s="56" t="str">
         <f>IF(ISBLANK(C27),"",CONCATENATE("[",B27,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C27,".html)"))</f>
-        <v/>
+        <v>[HM5A Visualization &amp; Screen Scraping](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K27" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>[The Simplest Neural Network with Numpy](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[ROC and SVM](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5A Visualization &amp; Screen Scraping](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L27" s="56" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" ht="17">
       <c r="A28" s="34">
         <v>9</v>
       </c>
       <c r="B28" t="s">
         <v>828</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>877</v>
       </c>
       <c r="D28" t="s">
         <v>829</v>
@@ -48978,7 +49583,9 @@
       </c>
       <c r="H28" s="56" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">  - title: HM5B Intro Modeling
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true</v>
       </c>
       <c r="I28" s="56" t="str">
         <f t="shared" si="4"/>
@@ -49007,27 +49614,86 @@
   - title: Pandas
     url: /notebooks/08-intro-python-pandas
     not_numbered: true
-</v>
+  - title: Conditional-Loops
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Functions
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Null Values
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Groupby
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Kaggle Baseline
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Assignment 2
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Twitter
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Web Mining
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Visualizations - Seaborn
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Strings - Regular Expressions
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Feature Dummies
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Assignment 3
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: The Simplest Neural Network with Numpy
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Train Test Split
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Introduction to Logistic Regression
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: K Nearest Neighbor
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: ROC and SVM
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: HM5A Visualization &amp; Screen Scraping
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: HM5B Intro Modeling
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true</v>
       </c>
       <c r="J28" s="56" t="str">
         <f>IF(ISBLANK(C28),"",CONCATENATE("[",B28,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C28,".html)"))</f>
-        <v/>
+        <v>[HM5B Intro Modeling](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K28" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>[The Simplest Neural Network with Numpy](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[ROC and SVM](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5A Visualization &amp; Screen Scraping](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5B Intro Modeling](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L28" s="56" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>[The Simplest Neural Network with Numpy](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[ROC and SVM](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5A Visualization &amp; Screen Scraping](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5B Intro Modeling](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="17">
       <c r="A29" s="34">
         <v>13</v>
       </c>
       <c r="B29" t="s">
         <v>836</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>877</v>
       </c>
       <c r="D29" t="s">
         <v>839</v>
@@ -49046,7 +49712,9 @@
       </c>
       <c r="H29" s="56" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">  - title: Matrix Regression
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true</v>
       </c>
       <c r="I29" s="56" t="str">
         <f t="shared" si="4"/>
@@ -49075,27 +49743,89 @@
   - title: Pandas
     url: /notebooks/08-intro-python-pandas
     not_numbered: true
-</v>
+  - title: Conditional-Loops
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Functions
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Null Values
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Groupby
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Kaggle Baseline
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Assignment 2
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Twitter
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Web Mining
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Visualizations - Seaborn
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Strings - Regular Expressions
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Feature Dummies
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Assignment 3
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: The Simplest Neural Network with Numpy
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Train Test Split
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Introduction to Logistic Regression
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: K Nearest Neighbor
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: ROC and SVM
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: HM5A Visualization &amp; Screen Scraping
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: HM5B Intro Modeling
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Matrix Regression
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true</v>
       </c>
       <c r="J29" s="56" t="str">
         <f>IF(ISBLANK(C29),"",CONCATENATE("[",B29,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C29,".html)"))</f>
-        <v/>
+        <v>[Matrix Regression](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K29" s="56" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>[Matrix Regression](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L29" s="56" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" ht="17">
       <c r="A30" s="34">
         <v>13</v>
       </c>
       <c r="B30" t="s">
         <v>837</v>
+      </c>
+      <c r="C30" s="35" t="s">
+        <v>877</v>
       </c>
       <c r="D30" t="s">
         <v>840</v>
@@ -49114,7 +49844,9 @@
       </c>
       <c r="H30" s="56" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">  - title: Regression Basics
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true</v>
       </c>
       <c r="I30" s="56" t="str">
         <f t="shared" si="4"/>
@@ -49143,27 +49875,92 @@
   - title: Pandas
     url: /notebooks/08-intro-python-pandas
     not_numbered: true
-</v>
+  - title: Conditional-Loops
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Functions
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Null Values
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Groupby
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Kaggle Baseline
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Assignment 2
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Twitter
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Web Mining
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Visualizations - Seaborn
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Strings - Regular Expressions
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Feature Dummies
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Assignment 3
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: The Simplest Neural Network with Numpy
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Train Test Split
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Introduction to Logistic Regression
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: K Nearest Neighbor
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: ROC and SVM
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: HM5A Visualization &amp; Screen Scraping
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: HM5B Intro Modeling
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Matrix Regression
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Regression Basics
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true</v>
       </c>
       <c r="J30" s="56" t="str">
         <f>IF(ISBLANK(C30),"",CONCATENATE("[",B30,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C30,".html)"))</f>
-        <v/>
+        <v>[Regression Basics](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K30" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;br&gt;</v>
+        <v>[Matrix Regression](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Regression Basics](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L30" s="56" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" ht="17">
       <c r="A31" s="34">
         <v>13</v>
       </c>
       <c r="B31" t="s">
         <v>838</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>877</v>
       </c>
       <c r="D31" t="s">
         <v>841</v>
@@ -49182,7 +49979,9 @@
       </c>
       <c r="H31" s="56" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">  - title: Ridge and Lasso Regression
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true</v>
       </c>
       <c r="I31" s="56" t="str">
         <f t="shared" si="4"/>
@@ -49211,27 +50010,95 @@
   - title: Pandas
     url: /notebooks/08-intro-python-pandas
     not_numbered: true
-</v>
+  - title: Conditional-Loops
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Functions
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Null Values
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Groupby
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Kaggle Baseline
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Assignment 2
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Twitter
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Web Mining
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Visualizations - Seaborn
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Strings - Regular Expressions
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Feature Dummies
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Assignment 3
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: The Simplest Neural Network with Numpy
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Train Test Split
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Introduction to Logistic Regression
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: K Nearest Neighbor
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: ROC and SVM
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: HM5A Visualization &amp; Screen Scraping
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: HM5B Intro Modeling
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Matrix Regression
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Regression Basics
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Ridge and Lasso Regression
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true</v>
       </c>
       <c r="J31" s="56" t="str">
         <f>IF(ISBLANK(C31),"",CONCATENATE("[",B31,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C31,".html)"))</f>
-        <v/>
+        <v>[Ridge and Lasso Regression](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K31" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;br&gt;&lt;br&gt;</v>
+        <v>[Matrix Regression](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Regression Basics](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Ridge and Lasso Regression](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L31" s="56" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;br&gt;&lt;br&gt;</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>[Matrix Regression](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Regression Basics](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Ridge and Lasso Regression](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="17">
       <c r="A32" s="34">
         <v>15</v>
       </c>
       <c r="B32" t="s">
         <v>838</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>877</v>
       </c>
       <c r="D32" t="s">
         <v>841</v>
@@ -49250,7 +50117,9 @@
       </c>
       <c r="H32" s="56" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">  - title: Ridge and Lasso Regression
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true</v>
       </c>
       <c r="I32" s="56" t="str">
         <f t="shared" si="4"/>
@@ -49279,27 +50148,98 @@
   - title: Pandas
     url: /notebooks/08-intro-python-pandas
     not_numbered: true
-</v>
+  - title: Conditional-Loops
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Functions
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Null Values
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Groupby
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Kaggle Baseline
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Assignment 2
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Twitter
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Web Mining
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Visualizations - Seaborn
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Strings - Regular Expressions
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Feature Dummies
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Assignment 3
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: The Simplest Neural Network with Numpy
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Train Test Split
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Introduction to Logistic Regression
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: K Nearest Neighbor
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: ROC and SVM
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: HM5A Visualization &amp; Screen Scraping
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: HM5B Intro Modeling
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Matrix Regression
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Regression Basics
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Ridge and Lasso Regression
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Ridge and Lasso Regression
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true</v>
       </c>
       <c r="J32" s="56" t="str">
         <f>IF(ISBLANK(C32),"",CONCATENATE("[",B32,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C32,".html)"))</f>
-        <v/>
+        <v>[Ridge and Lasso Regression](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K32" s="56" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>[Ridge and Lasso Regression](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L32" s="56" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" ht="17">
       <c r="A33" s="34">
         <v>15</v>
       </c>
       <c r="B33" t="s">
         <v>842</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>877</v>
       </c>
       <c r="D33" t="s">
         <v>843</v>
@@ -49312,13 +50252,15 @@
         <f t="shared" si="1"/>
         <v>Ridge and Lasso Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb)&lt;br&gt;PCA - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/04_introduction_pca.ipynb)</v>
       </c>
-      <c r="G33" s="56" t="str">
-        <f t="shared" si="7"/>
-        <v>Ridge and Lasso Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb)&lt;br&gt;PCA - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/04_introduction_pca.ipynb)</v>
+      <c r="G33" s="56" t="e">
+        <f>IF(A33&lt;&gt;#REF!,F33,"")</f>
+        <v>#REF!</v>
       </c>
       <c r="H33" s="56" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">  - title: PCA
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true</v>
       </c>
       <c r="I33" s="56" t="str">
         <f t="shared" si="4"/>
@@ -49347,25 +50289,91 @@
   - title: Pandas
     url: /notebooks/08-intro-python-pandas
     not_numbered: true
-</v>
+  - title: Conditional-Loops
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Functions
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Null Values
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Groupby
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Kaggle Baseline
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Assignment 2
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Twitter
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Web Mining
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Visualizations - Seaborn
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Strings - Regular Expressions
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Feature Dummies
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Assignment 3
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: The Simplest Neural Network with Numpy
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Train Test Split
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Introduction to Logistic Regression
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: K Nearest Neighbor
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: ROC and SVM
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: HM5A Visualization &amp; Screen Scraping
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: HM5B Intro Modeling
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Matrix Regression
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Regression Basics
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Ridge and Lasso Regression
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Ridge and Lasso Regression
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: PCA
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true</v>
       </c>
       <c r="J33" s="56" t="str">
         <f>IF(ISBLANK(C33),"",CONCATENATE("[",B33,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C33,".html)"))</f>
-        <v/>
+        <v>[PCA](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K33" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;br&gt;</v>
-      </c>
-      <c r="L33" s="56" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;br&gt;</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
+        <v>[Ridge and Lasso Regression](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[PCA](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+      </c>
+      <c r="L33" s="56" t="e">
+        <f>IF(A33&lt;&gt;#REF!,K33,"")</f>
+        <v>#REF!</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -49381,11 +50389,11 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.796875" customWidth="1"/>
-    <col min="2" max="2" width="21.796875" style="23" customWidth="1"/>
-    <col min="3" max="3" width="8.796875" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -49455,7 +50463,7 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="26" width="10.5" customWidth="1"/>
@@ -49494,10 +50502,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A5" s="116">
+      <c r="A5" s="118">
         <v>43709</v>
       </c>
-      <c r="B5" s="117"/>
+      <c r="B5" s="119"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="6">
@@ -49540,10 +50548,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A11" s="116">
+      <c r="A11" s="118">
         <v>43739</v>
       </c>
-      <c r="B11" s="117"/>
+      <c r="B11" s="119"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="6">
@@ -49594,10 +50602,10 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A18" s="116">
+      <c r="A18" s="118">
         <v>43770</v>
       </c>
-      <c r="B18" s="117"/>
+      <c r="B18" s="119"/>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1">
       <c r="A19" s="8" t="s">
@@ -49664,10 +50672,10 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A27" s="116">
+      <c r="A27" s="118">
         <v>43800</v>
       </c>
-      <c r="B27" s="117"/>
+      <c r="B27" s="119"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1">
       <c r="A28" s="6">
@@ -49750,10 +50758,10 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A38" s="116">
+      <c r="A38" s="118">
         <v>43831</v>
       </c>
-      <c r="B38" s="117"/>
+      <c r="B38" s="119"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1">
       <c r="A39" s="8" t="s">
@@ -49804,10 +50812,10 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A45" s="116">
+      <c r="A45" s="118">
         <v>43862</v>
       </c>
-      <c r="B45" s="117"/>
+      <c r="B45" s="119"/>
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1">
       <c r="A46" s="6">
@@ -49834,10 +50842,10 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A49" s="116">
+      <c r="A49" s="118">
         <v>43891</v>
       </c>
-      <c r="B49" s="117"/>
+      <c r="B49" s="119"/>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1">
       <c r="A50" s="6">
@@ -49912,10 +50920,10 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A59" s="116">
+      <c r="A59" s="118">
         <v>43922</v>
       </c>
-      <c r="B59" s="117"/>
+      <c r="B59" s="119"/>
     </row>
     <row r="60" spans="1:2" ht="15.75" customHeight="1">
       <c r="A60" s="6">
@@ -49958,10 +50966,10 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A65" s="116">
+      <c r="A65" s="118">
         <v>43952</v>
       </c>
-      <c r="B65" s="117"/>
+      <c r="B65" s="119"/>
     </row>
     <row r="66" spans="1:2" ht="15.75" customHeight="1">
       <c r="A66" s="8" t="s">
@@ -51053,27 +52061,27 @@
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="74.75" customWidth="1"/>
+    <col min="1" max="1" width="74.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="358.8">
+    <row r="1" spans="1:1" ht="404">
       <c r="A1" s="30" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="187.2">
+    <row r="2" spans="1:1" ht="204">
       <c r="A2" s="30" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="124.8">
+    <row r="3" spans="1:1" ht="136">
       <c r="A3" s="26" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="29" customFormat="1" ht="409.5">
+    <row r="4" spans="1:1" s="29" customFormat="1" ht="409.6">
       <c r="A4" s="20" t="str">
         <f>LOOKUP(2,1/(Schedule!T:T&lt;&gt;""),Schedule!T:T)</f>
         <v xml:space="preserve">
@@ -51167,12 +52175,12 @@
 </v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="78">
+    <row r="5" spans="1:1" ht="85">
       <c r="A5" s="30" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="29" customFormat="1" ht="392.7" customHeight="1">
+    <row r="6" spans="1:1" s="29" customFormat="1" ht="392.75" customHeight="1">
       <c r="A6" s="71" t="str">
         <f>LOOKUP(2,1/(Notebooks!I:I&lt;&gt;""),Notebooks!I:I)</f>
         <v xml:space="preserve">
@@ -51200,15 +52208,86 @@
   - title: Pandas
     url: /notebooks/08-intro-python-pandas
     not_numbered: true
-</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="78">
+  - title: Conditional-Loops
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Functions
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Null Values
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Groupby
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Kaggle Baseline
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Assignment 2
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Twitter
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Web Mining
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Visualizations - Seaborn
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Strings - Regular Expressions
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Feature Dummies
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Assignment 3
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: The Simplest Neural Network with Numpy
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Train Test Split
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Introduction to Logistic Regression
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: K Nearest Neighbor
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: ROC and SVM
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: HM5A Visualization &amp; Screen Scraping
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: HM5B Intro Modeling
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Matrix Regression
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Regression Basics
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Ridge and Lasso Regression
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: Ridge and Lasso Regression
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true
+  - title: PCA
+    url: /notebooks/08-intro-python-pandas
+    not_numbered: true</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="85">
       <c r="A7" s="30" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="29" customFormat="1" ht="409.5">
+    <row r="8" spans="1:1" s="29" customFormat="1" ht="409.6">
       <c r="A8" s="30" t="str">
         <f>LOOKUP(2,1/(Schedule!V:V&lt;&gt;""),Schedule!V:V)</f>
         <v xml:space="preserve">
@@ -51221,7 +52300,7 @@
 </v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="390">
+    <row r="9" spans="1:1" ht="409.6">
       <c r="A9" s="31" t="s">
         <v>868</v>
       </c>
@@ -51239,12 +52318,12 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="6.19921875" style="23" customWidth="1"/>
-    <col min="2" max="2" width="10.296875" style="23" customWidth="1"/>
-    <col min="3" max="3" width="18.34765625" style="23" customWidth="1"/>
-    <col min="4" max="16384" width="8.796875" style="29"/>
+    <col min="1" max="1" width="6.1640625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="23" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -51779,17 +52858,17 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="81.546875" customWidth="1"/>
+    <col min="1" max="1" width="81.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="46.8">
+    <row r="1" spans="1:1" ht="51">
       <c r="A1" s="20" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="409.5">
+    <row r="2" spans="1:1" ht="409.6">
       <c r="A2" s="20" t="str">
         <f>CONCATENATE("## General Info
 ---

--- a/book.xlsx
+++ b/book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/course-intro-ml-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032204D4-DBF5-8042-BC66-55AB6EAA56B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5034DECD-D8B9-7D4A-810E-4060EC57732F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23240" windowHeight="12700" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9180" yWindow="2660" windowWidth="23240" windowHeight="12700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="index_md" sheetId="10" state="hidden" r:id="rId9"/>
     <sheet name="schedule_md" sheetId="3" state="hidden" r:id="rId10"/>
     <sheet name="readings_md" sheetId="20" state="hidden" r:id="rId11"/>
-    <sheet name="notebooks_md" sheetId="12" r:id="rId12"/>
+    <sheet name="notebooks_md" sheetId="12" state="hidden" r:id="rId12"/>
     <sheet name="assignments_md" sheetId="13" state="hidden" r:id="rId13"/>
     <sheet name="session_md" sheetId="4" state="hidden" r:id="rId14"/>
     <sheet name="grading_md" sheetId="15" state="hidden" r:id="rId15"/>
@@ -1943,9 +1943,6 @@
   </si>
   <si>
     <t>Introduction to APIs, web scraping feature creation, and feature creation/extraction.  The genaral goal is to get students to the point where they are able to start to do some data manipulation and utilize code they haven't created (packages, functions)</t>
-  </si>
-  <si>
-    <t>Visualization with Tableau</t>
   </si>
   <si>
     <t xml:space="preserve">Visualization is an important component of data understanding. </t>
@@ -2891,6 +2888,9 @@
   </si>
   <si>
     <t>Session entries (per section)</t>
+  </si>
+  <si>
+    <t>Python and Unsupervised Learning</t>
   </si>
 </sst>
 </file>
@@ -3942,16 +3942,16 @@
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" ht="19">
       <c r="A1" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B1" s="18"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="29" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B2" s="97" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C2" s="97"/>
       <c r="D2" s="97"/>
@@ -3959,10 +3959,10 @@
     </row>
     <row r="3" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B3" s="95" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C3" s="95"/>
       <c r="D3" s="95"/>
@@ -3970,10 +3970,10 @@
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B4" s="95" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C4" s="95"/>
       <c r="D4" s="95"/>
@@ -3981,10 +3981,10 @@
     </row>
     <row r="5" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B5" s="95" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C5" s="95"/>
       <c r="D5" s="95"/>
@@ -3992,7 +3992,7 @@
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B6" s="96">
         <v>14</v>
@@ -4007,10 +4007,10 @@
     </row>
     <row r="8" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B8" s="95" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C8" s="95"/>
       <c r="D8" s="95"/>
@@ -4018,10 +4018,10 @@
     </row>
     <row r="9" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B9" s="94" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C9" s="94"/>
       <c r="D9" s="94"/>
@@ -4029,10 +4029,10 @@
     </row>
     <row r="10" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B10" s="96" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C10" s="96"/>
       <c r="D10" s="96"/>
@@ -4040,7 +4040,7 @@
     </row>
     <row r="11" spans="1:5" s="29" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B11" s="96"/>
       <c r="C11" s="96"/>
@@ -4049,10 +4049,10 @@
     </row>
     <row r="12" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B12" s="96" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C12" s="96"/>
       <c r="D12" s="96"/>
@@ -4064,10 +4064,10 @@
     </row>
     <row r="14" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B14" s="96" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C14" s="96"/>
       <c r="D14" s="96"/>
@@ -4075,10 +4075,10 @@
     </row>
     <row r="15" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B15" s="94" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C15" s="94"/>
       <c r="D15" s="94"/>
@@ -4086,10 +4086,10 @@
     </row>
     <row r="16" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B16" s="96" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C16" s="96"/>
       <c r="D16" s="96"/>
@@ -4097,7 +4097,7 @@
     </row>
     <row r="17" spans="1:6" s="29" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B17" s="96"/>
       <c r="C17" s="96"/>
@@ -4106,7 +4106,7 @@
     </row>
     <row r="18" spans="1:6" s="29" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B18" s="96"/>
       <c r="C18" s="96"/>
@@ -4119,10 +4119,10 @@
     </row>
     <row r="20" spans="1:6" s="4" customFormat="1" ht="99" customHeight="1">
       <c r="A20" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="B20" s="98" t="s">
         <v>688</v>
-      </c>
-      <c r="B20" s="98" t="s">
-        <v>689</v>
       </c>
       <c r="C20" s="98"/>
       <c r="D20" s="98"/>
@@ -4137,10 +4137,10 @@
     </row>
     <row r="22" spans="1:6" s="4" customFormat="1" ht="99" customHeight="1">
       <c r="A22" s="22" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B22" s="98" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C22" s="98"/>
       <c r="D22" s="98"/>
@@ -4148,7 +4148,7 @@
     </row>
     <row r="23" spans="1:6" s="29" customFormat="1" ht="38" customHeight="1">
       <c r="A23" s="22" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B23" s="99"/>
       <c r="C23" s="99"/>
@@ -4157,7 +4157,7 @@
     </row>
     <row r="24" spans="1:6" s="29" customFormat="1" ht="38" customHeight="1">
       <c r="A24" s="22" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B24" s="99"/>
       <c r="C24" s="99"/>
@@ -4170,16 +4170,16 @@
     </row>
     <row r="26" spans="1:6" s="4" customFormat="1" ht="19">
       <c r="A26" s="59" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B26" s="18"/>
     </row>
     <row r="27" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B27" s="95" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C27" s="95"/>
       <c r="D27" s="95"/>
@@ -4187,30 +4187,30 @@
     </row>
     <row r="28" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B28" s="95" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C28" s="95"/>
       <c r="D28" s="95"/>
       <c r="E28" s="95"/>
       <c r="F28" s="14" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B29" s="94" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C29" s="94"/>
       <c r="D29" s="94"/>
       <c r="E29" s="94"/>
       <c r="F29" s="14" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1">
@@ -4219,13 +4219,13 @@
     </row>
     <row r="31" spans="1:6" s="4" customFormat="1" ht="19">
       <c r="A31" s="59" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B31" s="16"/>
     </row>
     <row r="32" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B32" s="93" t="s">
         <v>18</v>
@@ -4234,49 +4234,49 @@
       <c r="D32" s="93"/>
       <c r="E32" s="93"/>
       <c r="F32" s="14" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B33" s="93" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C33" s="93"/>
       <c r="D33" s="93"/>
       <c r="E33" s="93"/>
       <c r="F33" s="14" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B34" s="94" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C34" s="94"/>
       <c r="D34" s="94"/>
       <c r="E34" s="94"/>
       <c r="F34" s="14" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B35" s="93" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C35" s="93"/>
       <c r="D35" s="93"/>
       <c r="E35" s="93"/>
       <c r="F35" s="14" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1">
@@ -4286,15 +4286,15 @@
     </row>
     <row r="37" spans="1:6" ht="19">
       <c r="A37" s="15" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B38" s="96" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C38" s="96"/>
       <c r="D38" s="96"/>
@@ -4302,10 +4302,10 @@
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B39" s="94" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C39" s="94"/>
       <c r="D39" s="94"/>
@@ -4313,10 +4313,10 @@
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B40" s="93" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C40" s="93"/>
       <c r="D40" s="93"/>
@@ -4324,10 +4324,10 @@
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B41" s="94" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C41" s="94"/>
       <c r="D41" s="94"/>
@@ -4335,10 +4335,10 @@
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B42" s="93" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C42" s="93"/>
       <c r="D42" s="93"/>
@@ -4346,10 +4346,10 @@
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B43" s="94" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C43" s="94"/>
       <c r="D43" s="94"/>
@@ -4357,39 +4357,39 @@
     </row>
     <row r="45" spans="1:6" ht="19">
       <c r="A45" s="32" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1">
       <c r="A46" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="B46" s="24" t="s">
         <v>713</v>
-      </c>
-      <c r="B46" s="24" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1">
       <c r="A47" s="84" t="s">
+        <v>714</v>
+      </c>
+      <c r="B47" s="80" t="s">
         <v>715</v>
-      </c>
-      <c r="B47" s="80" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1">
       <c r="A48" s="85" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B48" s="81" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15" customHeight="1">
       <c r="A49" s="85" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B49" s="81" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15" customHeight="1">
@@ -4397,7 +4397,7 @@
         <v>31</v>
       </c>
       <c r="B50" s="89" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15" customHeight="1">
@@ -4488,12 +4488,12 @@
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="51">
       <c r="A1" s="10" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -4501,7 +4501,7 @@
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -4557,13 +4557,13 @@
     <row r="12" spans="1:4" ht="15" customHeight="1">
       <c r="A12" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A11," | ",Schedule!B11," | ",Schedule!C11," | ",TEXT(Schedule!D11,"mm/dd")," | ",Schedule!Q11," |")</f>
-        <v>| 5 | 8 | M | 09/23 | **Visualization with Tableau** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session8.html) |</v>
+        <v>| 5 | 8 | M | 09/23 | **Python and Unsupervised Learning** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session8.html) |</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1">
       <c r="A13" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A12," | ",Schedule!B12," | ",Schedule!C12," | ",TEXT(Schedule!D12,"mm/dd")," | ",Schedule!Q12," |")</f>
-        <v>| 5 | 9 | Th | 09/26 | **Visualization with Tableau** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session9.html) |</v>
+        <v>| 5 | 9 | Th | 09/26 | **Python and Unsupervised Learning** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session9.html) |</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1">
@@ -4719,17 +4719,17 @@
   <sheetData>
     <row r="1" spans="1:1" ht="51">
       <c r="A1" s="30" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="9" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="9" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -4898,7 +4898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -4909,17 +4909,17 @@
   <sheetData>
     <row r="1" spans="1:4" ht="51">
       <c r="A1" s="10" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="9" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="9" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5288,17 +5288,17 @@
   <sheetData>
     <row r="1" spans="1:1" ht="51">
       <c r="A1" s="26" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="9" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="9" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -5935,7 +5935,7 @@
       </c>
       <c r="B10" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Visualization with Tableau&lt;/h1&gt;
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Python and Unsupervised Learning&lt;/h1&gt;
 ---
 ### Description
 Visualization is an important component of data understanding. 
@@ -5952,7 +5952,7 @@
       <c r="D10" s="31" t="str">
         <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E11,"&lt;/h1&gt;
 ---")</f>
-        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Visualization with Tableau&lt;/h1&gt;
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Python and Unsupervised Learning&lt;/h1&gt;
 ---</v>
       </c>
       <c r="E10" s="11" t="str">
@@ -5983,7 +5983,7 @@
       </c>
       <c r="B11" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Visualization with Tableau&lt;/h1&gt;
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Python and Unsupervised Learning&lt;/h1&gt;
 ---
 ### Description
 Lab/homework
@@ -6000,7 +6000,7 @@
       <c r="D11" s="31" t="str">
         <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E12,"&lt;/h1&gt;
 ---")</f>
-        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Visualization with Tableau&lt;/h1&gt;
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Python and Unsupervised Learning&lt;/h1&gt;
 ---</v>
       </c>
       <c r="E11" s="11" t="str">
@@ -7083,17 +7083,17 @@
   <sheetData>
     <row r="1" spans="1:1" ht="51">
       <c r="A1" s="10" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="9" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="9" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -28481,11 +28481,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V956"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -28494,7 +28494,7 @@
     <col min="2" max="2" width="3.83203125" style="44" customWidth="1"/>
     <col min="3" max="3" width="4.6640625" style="44" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="44" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" style="46" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" style="46" customWidth="1"/>
     <col min="6" max="7" width="36" style="38" customWidth="1"/>
     <col min="8" max="8" width="6" style="42" customWidth="1"/>
     <col min="9" max="10" width="36" style="38" customWidth="1"/>
@@ -28517,7 +28517,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="112" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C1" s="112" t="s">
         <v>1</v>
@@ -28529,47 +28529,47 @@
         <v>3</v>
       </c>
       <c r="F1" s="105" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G1" s="106"/>
       <c r="H1" s="107" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I1" s="108"/>
       <c r="J1" s="108"/>
       <c r="K1" s="109"/>
       <c r="L1" s="110" t="s">
+        <v>853</v>
+      </c>
+      <c r="M1" s="110" t="s">
         <v>854</v>
       </c>
-      <c r="M1" s="110" t="s">
-        <v>855</v>
-      </c>
       <c r="N1" s="116" t="s">
+        <v>885</v>
+      </c>
+      <c r="O1" s="117" t="s">
         <v>886</v>
       </c>
-      <c r="O1" s="117" t="s">
+      <c r="P1" s="100" t="s">
         <v>887</v>
       </c>
-      <c r="P1" s="100" t="s">
+      <c r="Q1" s="100" t="s">
         <v>888</v>
       </c>
-      <c r="Q1" s="100" t="s">
+      <c r="R1" s="100" t="s">
         <v>889</v>
       </c>
-      <c r="R1" s="100" t="s">
+      <c r="S1" s="100" t="s">
+        <v>883</v>
+      </c>
+      <c r="T1" s="100" t="s">
+        <v>884</v>
+      </c>
+      <c r="U1" s="100" t="s">
         <v>890</v>
       </c>
-      <c r="S1" s="100" t="s">
-        <v>884</v>
-      </c>
-      <c r="T1" s="100" t="s">
-        <v>885</v>
-      </c>
-      <c r="U1" s="100" t="s">
+      <c r="V1" s="100" t="s">
         <v>891</v>
-      </c>
-      <c r="V1" s="100" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="32" customFormat="1" ht="22" thickTop="1" thickBot="1">
@@ -28591,10 +28591,10 @@
         <v>7</v>
       </c>
       <c r="J2" s="76" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="K2" s="77" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="L2" s="111"/>
       <c r="M2" s="111"/>
@@ -28628,7 +28628,7 @@
         <v>101</v>
       </c>
       <c r="G3" s="48" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="L3" s="39" t="b">
         <v>0</v>
@@ -28697,7 +28697,7 @@
         <v>43710</v>
       </c>
       <c r="E4" s="49" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F4" s="46"/>
       <c r="G4" s="46"/>
@@ -28776,7 +28776,7 @@
         <v>100</v>
       </c>
       <c r="G5" s="51" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H5" s="42">
         <v>1</v>
@@ -28786,7 +28786,7 @@
       </c>
       <c r="J5" s="47"/>
       <c r="K5" s="67" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="L5" s="60" t="b">
         <v>1</v>
@@ -29035,7 +29035,7 @@
         <v>2</v>
       </c>
       <c r="K8" s="67" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="L8" s="39" t="b">
         <v>0</v>
@@ -29222,7 +29222,7 @@
       </c>
       <c r="G10" s="46"/>
       <c r="K10" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="L10" s="39" t="b">
         <v>0</v>
@@ -29313,11 +29313,11 @@
         <f t="shared" si="9"/>
         <v>43731</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="9" t="s">
+        <v>905</v>
+      </c>
+      <c r="F11" s="47" t="s">
         <v>636</v>
-      </c>
-      <c r="F11" s="47" t="s">
-        <v>637</v>
       </c>
       <c r="G11" s="46"/>
       <c r="L11" s="39" t="b">
@@ -29340,7 +29340,7 @@
       </c>
       <c r="Q11" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Visualization with Tableau** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session8.html)</v>
+        <v>**Python and Unsupervised Learning** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session8.html)</v>
       </c>
       <c r="R11" s="56" t="str">
         <f t="shared" si="2"/>
@@ -29412,8 +29412,8 @@
         <f t="shared" si="9"/>
         <v>43734</v>
       </c>
-      <c r="E12" s="47" t="s">
-        <v>636</v>
+      <c r="E12" s="9" t="s">
+        <v>905</v>
       </c>
       <c r="F12" s="47" t="s">
         <v>99</v>
@@ -29439,7 +29439,7 @@
       </c>
       <c r="Q12" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Visualization with Tableau** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session9.html)</v>
+        <v>**Python and Unsupervised Learning** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session9.html)</v>
       </c>
       <c r="R12" s="56" t="str">
         <f t="shared" si="2"/>
@@ -29518,7 +29518,7 @@
         <v>19</v>
       </c>
       <c r="F13" s="47" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G13" s="46"/>
       <c r="L13" s="39" t="b">
@@ -29727,10 +29727,10 @@
         <v>43745</v>
       </c>
       <c r="E15" s="47" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F15" s="52" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G15" s="53"/>
       <c r="L15" s="66" t="b">
@@ -29837,7 +29837,7 @@
         <v>43748</v>
       </c>
       <c r="E16" s="47" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F16" s="47" t="s">
         <v>99</v>
@@ -29951,7 +29951,7 @@
         <v>43752</v>
       </c>
       <c r="E17" s="47" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F17" s="46"/>
       <c r="G17" s="46"/>
@@ -30182,10 +30182,10 @@
         <v>43759</v>
       </c>
       <c r="E19" s="47" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F19" s="47" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G19" s="46"/>
       <c r="L19" s="39" t="b">
@@ -30305,7 +30305,7 @@
         <v>43762</v>
       </c>
       <c r="E20" s="47" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F20" s="47" t="s">
         <v>99</v>
@@ -30431,10 +30431,10 @@
         <v>43766</v>
       </c>
       <c r="E21" s="47" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F21" s="52" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G21" s="53"/>
       <c r="L21" s="39" t="b">
@@ -30560,7 +30560,7 @@
         <v>43769</v>
       </c>
       <c r="E22" s="52" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F22" s="47" t="s">
         <v>99</v>
@@ -30692,10 +30692,10 @@
         <v>43773</v>
       </c>
       <c r="E23" s="52" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F23" s="47" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G23" s="46"/>
       <c r="L23" s="39" t="b">
@@ -30827,7 +30827,7 @@
         <v>43776</v>
       </c>
       <c r="E24" s="52" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F24" s="47" t="s">
         <v>99</v>
@@ -30968,7 +30968,7 @@
         <v>24</v>
       </c>
       <c r="F25" s="52" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G25" s="53"/>
       <c r="L25" s="39" t="b">
@@ -31106,10 +31106,10 @@
         <v>43783</v>
       </c>
       <c r="E26" s="47" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F26" s="52" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G26" s="54"/>
       <c r="L26" s="39" t="b">
@@ -31250,10 +31250,10 @@
         <v>43787</v>
       </c>
       <c r="E27" s="47" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F27" s="52" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G27" s="53"/>
       <c r="L27" s="39" t="b">
@@ -31397,7 +31397,7 @@
         <v>43790</v>
       </c>
       <c r="E28" s="47" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F28" s="47" t="s">
         <v>99</v>
@@ -31547,10 +31547,10 @@
         <v>43794</v>
       </c>
       <c r="E29" s="47" t="s">
+        <v>646</v>
+      </c>
+      <c r="F29" s="47" t="s">
         <v>647</v>
-      </c>
-      <c r="F29" s="47" t="s">
-        <v>648</v>
       </c>
       <c r="G29" s="46"/>
       <c r="L29" s="39" t="b">
@@ -31845,7 +31845,7 @@
         <v>43801</v>
       </c>
       <c r="E31" s="47" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F31" s="47" t="s">
         <v>99</v>
@@ -46551,7 +46551,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="32" customFormat="1" ht="19">
       <c r="A1" s="33" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B1" s="32" t="s">
         <v>6</v>
@@ -46560,13 +46560,13 @@
         <v>9</v>
       </c>
       <c r="D1" s="55" t="s">
+        <v>880</v>
+      </c>
+      <c r="E1" s="55" t="s">
         <v>881</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="F1" s="55" t="s">
         <v>882</v>
-      </c>
-      <c r="F1" s="55" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17">
@@ -46574,10 +46574,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D2" s="56" t="str">
         <f t="shared" ref="D2:D4" si="0">CONCATENATE("[",B2,"](",C2,")")</f>
@@ -46601,10 +46601,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D3" s="56" t="str">
         <f t="shared" si="0"/>
@@ -46628,10 +46628,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D4" s="56" t="str">
         <f t="shared" si="0"/>
@@ -46655,10 +46655,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D5" s="56" t="str">
         <f>CONCATENATE("[",B5,"](",C5,")")</f>
@@ -46678,10 +46678,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D6" s="56" t="str">
         <f t="shared" ref="D6:D27" si="3">CONCATENATE("[",B6,"](",C6,")")</f>
@@ -46701,10 +46701,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D7" s="56" t="str">
         <f t="shared" si="3"/>
@@ -46724,10 +46724,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D8" s="56" t="str">
         <f t="shared" si="3"/>
@@ -46747,10 +46747,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D9" s="56" t="str">
         <f t="shared" si="3"/>
@@ -46770,10 +46770,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="35" t="s">
+        <v>760</v>
+      </c>
+      <c r="C10" s="29" t="s">
         <v>761</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>762</v>
       </c>
       <c r="D10" s="56" t="str">
         <f t="shared" si="3"/>
@@ -46793,10 +46793,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="35" t="s">
+        <v>763</v>
+      </c>
+      <c r="C11" s="29" t="s">
         <v>764</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>765</v>
       </c>
       <c r="D11" s="56" t="str">
         <f t="shared" si="3"/>
@@ -46816,10 +46816,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D12" s="56" t="str">
         <f t="shared" si="3"/>
@@ -46839,10 +46839,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="35" t="s">
+        <v>767</v>
+      </c>
+      <c r="C13" s="29" t="s">
         <v>768</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>769</v>
       </c>
       <c r="D13" s="56" t="str">
         <f t="shared" si="3"/>
@@ -46862,10 +46862,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D14" s="56" t="str">
         <f t="shared" si="3"/>
@@ -46885,10 +46885,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D15" s="56" t="str">
         <f t="shared" si="3"/>
@@ -46908,10 +46908,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D16" s="56" t="str">
         <f t="shared" si="3"/>
@@ -46931,10 +46931,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D17" s="56" t="str">
         <f t="shared" si="3"/>
@@ -46954,10 +46954,10 @@
         <v>12</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D18" s="56" t="str">
         <f t="shared" si="3"/>
@@ -46977,10 +46977,10 @@
         <v>12</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D19" s="56" t="str">
         <f t="shared" si="3"/>
@@ -47000,10 +47000,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D20" s="56" t="str">
         <f t="shared" si="3"/>
@@ -47023,10 +47023,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D21" s="56" t="str">
         <f t="shared" si="3"/>
@@ -47046,10 +47046,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D22" s="56" t="str">
         <f t="shared" si="3"/>
@@ -47069,10 +47069,10 @@
         <v>20</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D23" s="56" t="str">
         <f t="shared" si="3"/>
@@ -47092,10 +47092,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D24" s="56" t="str">
         <f t="shared" si="3"/>
@@ -47115,10 +47115,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D25" s="56" t="str">
         <f t="shared" si="3"/>
@@ -47138,10 +47138,10 @@
         <v>23</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D26" s="56" t="str">
         <f t="shared" si="3"/>
@@ -47161,10 +47161,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D27" s="56" t="str">
         <f t="shared" si="3"/>
@@ -47217,36 +47217,36 @@
   <sheetData>
     <row r="1" spans="1:12" s="32" customFormat="1" ht="19">
       <c r="A1" s="33" t="s">
+        <v>730</v>
+      </c>
+      <c r="B1" s="32" t="s">
         <v>731</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>732</v>
-      </c>
       <c r="C1" s="32" t="s">
+        <v>862</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>863</v>
       </c>
-      <c r="D1" s="32" t="s">
-        <v>864</v>
-      </c>
       <c r="E1" s="55" t="s">
+        <v>880</v>
+      </c>
+      <c r="F1" s="55" t="s">
         <v>881</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="G1" s="55" t="s">
         <v>882</v>
-      </c>
-      <c r="G1" s="55" t="s">
-        <v>883</v>
       </c>
       <c r="H1" s="55"/>
       <c r="I1" s="55"/>
       <c r="J1" s="88" t="s">
+        <v>902</v>
+      </c>
+      <c r="K1" s="88" t="s">
         <v>903</v>
       </c>
-      <c r="K1" s="88" t="s">
+      <c r="L1" s="88" t="s">
         <v>904</v>
-      </c>
-      <c r="L1" s="88" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="17">
@@ -47254,13 +47254,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E2" s="56" t="str">
         <f>CONCATENATE(B2," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D2,")")</f>
@@ -47308,13 +47308,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E3" s="56" t="str">
         <f t="shared" ref="E3:E5" si="0">CONCATENATE(B3," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D3,")")</f>
@@ -47365,13 +47365,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E4" s="56" t="str">
         <f t="shared" si="0"/>
@@ -47425,10 +47425,10 @@
         <v>13</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E5" s="56" t="str">
         <f t="shared" si="0"/>
@@ -47482,13 +47482,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E6" s="56" t="str">
         <f t="shared" ref="E6:E33" si="8">CONCATENATE(B6," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D6,")")</f>
@@ -47545,13 +47545,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D7" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E7" s="56" t="str">
         <f t="shared" si="8"/>
@@ -47611,13 +47611,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D8" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E8" s="56" t="str">
         <f t="shared" si="8"/>
@@ -47680,13 +47680,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D9" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E9" s="56" t="str">
         <f t="shared" si="8"/>
@@ -47752,13 +47752,13 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
+        <v>797</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>876</v>
+      </c>
+      <c r="D10" t="s">
         <v>798</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>877</v>
-      </c>
-      <c r="D10" t="s">
-        <v>799</v>
       </c>
       <c r="E10" s="56" t="str">
         <f t="shared" si="8"/>
@@ -47827,13 +47827,13 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
+        <v>799</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>876</v>
+      </c>
+      <c r="D11" t="s">
         <v>800</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>877</v>
-      </c>
-      <c r="D11" t="s">
-        <v>801</v>
       </c>
       <c r="E11" s="56" t="str">
         <f t="shared" si="8"/>
@@ -47905,13 +47905,13 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
+        <v>801</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>876</v>
+      </c>
+      <c r="D12" t="s">
         <v>802</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>877</v>
-      </c>
-      <c r="D12" t="s">
-        <v>803</v>
       </c>
       <c r="E12" s="56" t="str">
         <f t="shared" si="8"/>
@@ -47986,13 +47986,13 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D13" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E13" s="56" t="str">
         <f t="shared" si="8"/>
@@ -48070,13 +48070,13 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D14" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E14" s="56" t="str">
         <f t="shared" si="8"/>
@@ -48157,13 +48157,13 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D15" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E15" s="56" t="str">
         <f t="shared" si="8"/>
@@ -48247,13 +48247,13 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D16" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E16" s="56" t="str">
         <f t="shared" si="8"/>
@@ -48340,13 +48340,13 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D17" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E17" s="56" t="str">
         <f t="shared" si="8"/>
@@ -48436,13 +48436,13 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D18" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E18" s="56" t="str">
         <f t="shared" si="8"/>
@@ -48535,13 +48535,13 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D19" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E19" s="56" t="str">
         <f t="shared" si="8"/>
@@ -48637,13 +48637,13 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D20" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E20" s="56" t="str">
         <f t="shared" si="8"/>
@@ -48742,13 +48742,13 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D21" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E21" s="56" t="str">
         <f t="shared" si="8"/>
@@ -48850,13 +48850,13 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D22" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E22" s="56" t="str">
         <f t="shared" si="8"/>
@@ -48961,13 +48961,13 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D23" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E23" s="56" t="str">
         <f t="shared" si="8"/>
@@ -49075,13 +49075,13 @@
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D24" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E24" s="56" t="str">
         <f t="shared" si="8"/>
@@ -49192,13 +49192,13 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D25" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E25" s="56" t="str">
         <f t="shared" si="8"/>
@@ -49312,13 +49312,13 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D26" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E26" s="56" t="str">
         <f t="shared" si="8"/>
@@ -49435,13 +49435,13 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D27" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E27" s="56" t="str">
         <f t="shared" si="8"/>
@@ -49561,13 +49561,13 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
+        <v>827</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>876</v>
+      </c>
+      <c r="D28" t="s">
         <v>828</v>
-      </c>
-      <c r="C28" s="35" t="s">
-        <v>877</v>
-      </c>
-      <c r="D28" t="s">
-        <v>829</v>
       </c>
       <c r="E28" s="56" t="str">
         <f t="shared" si="8"/>
@@ -49690,13 +49690,13 @@
         <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D29" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E29" s="56" t="str">
         <f t="shared" si="8"/>
@@ -49822,13 +49822,13 @@
         <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D30" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E30" s="56" t="str">
         <f t="shared" si="8"/>
@@ -49957,13 +49957,13 @@
         <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D31" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E31" s="56" t="str">
         <f t="shared" si="8"/>
@@ -50095,13 +50095,13 @@
         <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D32" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E32" s="56" t="str">
         <f t="shared" si="8"/>
@@ -50236,13 +50236,13 @@
         <v>15</v>
       </c>
       <c r="B33" t="s">
+        <v>841</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>876</v>
+      </c>
+      <c r="D33" t="s">
         <v>842</v>
-      </c>
-      <c r="C33" s="35" t="s">
-        <v>877</v>
-      </c>
-      <c r="D33" t="s">
-        <v>843</v>
       </c>
       <c r="E33" s="56" t="str">
         <f t="shared" si="8"/>
@@ -50398,7 +50398,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B1" s="23" t="str">
         <f>Configuration!B2</f>
@@ -50407,7 +50407,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B2" s="18" t="str">
         <f>Configuration!B8</f>
@@ -50416,7 +50416,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B3" s="18" t="str">
         <f>Configuration!B9</f>
@@ -50425,7 +50425,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B4" s="18" t="str">
         <f>Configuration!B27</f>
@@ -50434,7 +50434,7 @@
     </row>
     <row r="5" spans="1:2" s="4" customFormat="1">
       <c r="A5" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B5" s="18" t="str">
         <f>Configuration!B28</f>
@@ -50443,7 +50443,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B6" s="18" t="str">
         <f>Configuration!B29</f>
@@ -52068,17 +52068,17 @@
   <sheetData>
     <row r="1" spans="1:1" ht="404">
       <c r="A1" s="30" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="204">
       <c r="A2" s="30" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="136">
       <c r="A3" s="26" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="4" spans="1:1" s="29" customFormat="1" ht="409.6">
@@ -52177,7 +52177,7 @@
     </row>
     <row r="5" spans="1:1" ht="85">
       <c r="A5" s="30" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="6" spans="1:1" s="29" customFormat="1" ht="392.75" customHeight="1">
@@ -52284,7 +52284,7 @@
     </row>
     <row r="7" spans="1:1" ht="85">
       <c r="A7" s="30" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="8" spans="1:1" s="29" customFormat="1" ht="409.6">
@@ -52302,7 +52302,7 @@
     </row>
     <row r="9" spans="1:1" ht="409.6">
       <c r="A9" s="31" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
   </sheetData>
@@ -52328,25 +52328,25 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="68" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B1" s="68" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C1" s="69" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="68"/>
       <c r="B2" s="68" t="s">
+        <v>894</v>
+      </c>
+      <c r="C2" s="79" t="s">
         <v>895</v>
-      </c>
-      <c r="C2" s="79" t="s">
-        <v>896</v>
       </c>
       <c r="D2" s="29" t="b">
         <v>1</v>
@@ -52865,7 +52865,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="51">
       <c r="A1" s="20" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="409.6">

--- a/book.xlsx
+++ b/book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/course-intro-ml-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5034DECD-D8B9-7D4A-810E-4060EC57732F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3450129A-971A-CF48-B2EA-3FB50480E571}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9180" yWindow="2660" windowWidth="23240" windowHeight="12700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5560" yWindow="2660" windowWidth="23240" windowHeight="12700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4160" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4160" uniqueCount="905">
   <si>
     <t>Wk</t>
   </si>
@@ -2063,9 +2063,6 @@
   </si>
   <si>
     <t>images/logo/rpi.png</t>
-  </si>
-  <si>
-    <t>https://rpi-data.github.io/course-intro-ml-app/</t>
   </si>
   <si>
     <t>Instructor:</t>
@@ -2150,9 +2147,6 @@
   </si>
   <si>
     <t>url</t>
-  </si>
-  <si>
-    <t>https://rpi-data.github.io</t>
   </si>
   <si>
     <t>/course-intro-ml-app</t>
@@ -2891,6 +2885,9 @@
   </si>
   <si>
     <t>Python and Unsupervised Learning</t>
+  </si>
+  <si>
+    <t>https://rpi.analyticsdojo.com</t>
   </si>
 </sst>
 </file>
@@ -3531,6 +3528,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3539,20 +3544,28 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -3589,22 +3602,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3929,8 +3926,8 @@
   </sheetPr>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -3950,56 +3947,56 @@
       <c r="A2" s="29" t="s">
         <v>655</v>
       </c>
-      <c r="B2" s="97" t="s">
-        <v>859</v>
-      </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
+      <c r="B2" s="98" t="s">
+        <v>857</v>
+      </c>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
     </row>
     <row r="3" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>690</v>
-      </c>
-      <c r="B3" s="95" t="s">
+        <v>689</v>
+      </c>
+      <c r="B3" s="97" t="s">
         <v>671</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="B4" s="95" t="s">
-        <v>691</v>
-      </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
+        <v>692</v>
+      </c>
+      <c r="B4" s="97" t="s">
+        <v>690</v>
+      </c>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
     </row>
     <row r="5" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>692</v>
-      </c>
-      <c r="B5" s="95" t="s">
-        <v>694</v>
-      </c>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
+        <v>691</v>
+      </c>
+      <c r="B5" s="97" t="s">
+        <v>693</v>
+      </c>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="B6" s="96">
+        <v>694</v>
+      </c>
+      <c r="B6" s="95">
         <v>14</v>
       </c>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
     </row>
     <row r="7" spans="1:5" s="29" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="1"/>
@@ -4007,56 +4004,56 @@
     </row>
     <row r="8" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="B8" s="95" t="s">
+        <v>676</v>
+      </c>
+      <c r="B8" s="97" t="s">
         <v>672</v>
       </c>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
     </row>
     <row r="9" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="B9" s="94" t="s">
+        <v>677</v>
+      </c>
+      <c r="B9" s="96" t="s">
         <v>674</v>
       </c>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
     </row>
     <row r="10" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="B10" s="96" t="s">
-        <v>682</v>
-      </c>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
+        <v>678</v>
+      </c>
+      <c r="B10" s="95" t="s">
+        <v>681</v>
+      </c>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
     </row>
     <row r="11" spans="1:5" s="29" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="B11" s="96"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="96"/>
+        <v>859</v>
+      </c>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
     </row>
     <row r="12" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="B12" s="96" t="s">
-        <v>683</v>
-      </c>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
+        <v>679</v>
+      </c>
+      <c r="B12" s="95" t="s">
+        <v>682</v>
+      </c>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
     </row>
     <row r="13" spans="1:5" s="29" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="1"/>
@@ -4064,54 +4061,54 @@
     </row>
     <row r="14" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="B14" s="96" t="s">
-        <v>684</v>
-      </c>
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
+        <v>680</v>
+      </c>
+      <c r="B14" s="95" t="s">
+        <v>683</v>
+      </c>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
     </row>
     <row r="15" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="B15" s="94" t="s">
-        <v>685</v>
-      </c>
-      <c r="C15" s="94"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="94"/>
+        <v>677</v>
+      </c>
+      <c r="B15" s="96" t="s">
+        <v>684</v>
+      </c>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
     </row>
     <row r="16" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="B16" s="96" t="s">
-        <v>686</v>
-      </c>
-      <c r="C16" s="96"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96"/>
+        <v>678</v>
+      </c>
+      <c r="B16" s="95" t="s">
+        <v>685</v>
+      </c>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
     </row>
     <row r="17" spans="1:6" s="29" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="B17" s="96"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
+        <v>859</v>
+      </c>
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
     </row>
     <row r="18" spans="1:6" s="29" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="B18" s="96"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
+        <v>679</v>
+      </c>
+      <c r="B18" s="95"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
     </row>
     <row r="19" spans="1:6" s="29" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="1"/>
@@ -4119,14 +4116,14 @@
     </row>
     <row r="20" spans="1:6" s="4" customFormat="1" ht="99" customHeight="1">
       <c r="A20" s="22" t="s">
+        <v>686</v>
+      </c>
+      <c r="B20" s="93" t="s">
         <v>687</v>
       </c>
-      <c r="B20" s="98" t="s">
-        <v>688</v>
-      </c>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="98"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
     </row>
     <row r="21" spans="1:6" s="29" customFormat="1" ht="14.75" customHeight="1">
       <c r="A21" s="22"/>
@@ -4137,32 +4134,32 @@
     </row>
     <row r="22" spans="1:6" s="4" customFormat="1" ht="99" customHeight="1">
       <c r="A22" s="22" t="s">
-        <v>857</v>
-      </c>
-      <c r="B22" s="98" t="s">
-        <v>696</v>
-      </c>
-      <c r="C22" s="98"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="98"/>
+        <v>855</v>
+      </c>
+      <c r="B22" s="93" t="s">
+        <v>695</v>
+      </c>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
     </row>
     <row r="23" spans="1:6" s="29" customFormat="1" ht="38" customHeight="1">
       <c r="A23" s="22" t="s">
-        <v>858</v>
-      </c>
-      <c r="B23" s="99"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
+        <v>856</v>
+      </c>
+      <c r="B23" s="94"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="94"/>
     </row>
     <row r="24" spans="1:6" s="29" customFormat="1" ht="38" customHeight="1">
       <c r="A24" s="22" t="s">
-        <v>860</v>
-      </c>
-      <c r="B24" s="99"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
+        <v>858</v>
+      </c>
+      <c r="B24" s="94"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
     </row>
     <row r="25" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="1"/>
@@ -4178,39 +4175,39 @@
       <c r="A27" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="B27" s="95" t="s">
+      <c r="B27" s="97" t="s">
         <v>673</v>
       </c>
-      <c r="C27" s="95"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="95"/>
+      <c r="C27" s="97"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="97"/>
     </row>
     <row r="28" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="B28" s="95" t="s">
-        <v>704</v>
-      </c>
-      <c r="C28" s="95"/>
-      <c r="D28" s="95"/>
-      <c r="E28" s="95"/>
+      <c r="B28" s="97" t="s">
+        <v>702</v>
+      </c>
+      <c r="C28" s="97"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="97"/>
       <c r="F28" s="14" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="B29" s="94" t="s">
-        <v>703</v>
-      </c>
-      <c r="C29" s="94"/>
-      <c r="D29" s="94"/>
-      <c r="E29" s="94"/>
+      <c r="B29" s="96" t="s">
+        <v>904</v>
+      </c>
+      <c r="C29" s="96"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="96"/>
       <c r="F29" s="14" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1">
@@ -4225,58 +4222,58 @@
     </row>
     <row r="32" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>721</v>
-      </c>
-      <c r="B32" s="93" t="s">
+        <v>719</v>
+      </c>
+      <c r="B32" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="93"/>
-      <c r="D32" s="93"/>
-      <c r="E32" s="93"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="99"/>
       <c r="F32" s="14" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="9" t="s">
         <v>668</v>
       </c>
-      <c r="B33" s="93" t="s">
+      <c r="B33" s="99" t="s">
         <v>675</v>
       </c>
-      <c r="C33" s="93"/>
-      <c r="D33" s="93"/>
-      <c r="E33" s="93"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="99"/>
+      <c r="E33" s="99"/>
       <c r="F33" s="14" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A34" s="9" t="s">
         <v>670</v>
       </c>
-      <c r="B34" s="94" t="s">
-        <v>676</v>
-      </c>
-      <c r="C34" s="94"/>
-      <c r="D34" s="94"/>
-      <c r="E34" s="94"/>
+      <c r="B34" s="96" t="s">
+        <v>904</v>
+      </c>
+      <c r="C34" s="96"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="96"/>
       <c r="F34" s="14" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>865</v>
-      </c>
-      <c r="B35" s="93" t="s">
+        <v>863</v>
+      </c>
+      <c r="B35" s="99" t="s">
         <v>669</v>
       </c>
-      <c r="C35" s="93"/>
-      <c r="D35" s="93"/>
-      <c r="E35" s="93"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="99"/>
       <c r="F35" s="14" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1">
@@ -4286,110 +4283,110 @@
     </row>
     <row r="37" spans="1:6" ht="19">
       <c r="A37" s="15" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>708</v>
-      </c>
-      <c r="B38" s="96" t="s">
+        <v>706</v>
+      </c>
+      <c r="B38" s="95" t="s">
         <v>658</v>
       </c>
-      <c r="C38" s="96"/>
-      <c r="D38" s="96"/>
-      <c r="E38" s="96"/>
+      <c r="C38" s="95"/>
+      <c r="D38" s="95"/>
+      <c r="E38" s="95"/>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>729</v>
-      </c>
-      <c r="B39" s="94" t="s">
+        <v>727</v>
+      </c>
+      <c r="B39" s="96" t="s">
         <v>661</v>
       </c>
-      <c r="C39" s="94"/>
-      <c r="D39" s="94"/>
-      <c r="E39" s="94"/>
+      <c r="C39" s="96"/>
+      <c r="D39" s="96"/>
+      <c r="E39" s="96"/>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>709</v>
-      </c>
-      <c r="B40" s="93" t="s">
+        <v>707</v>
+      </c>
+      <c r="B40" s="99" t="s">
         <v>659</v>
       </c>
-      <c r="C40" s="93"/>
-      <c r="D40" s="93"/>
-      <c r="E40" s="93"/>
+      <c r="C40" s="99"/>
+      <c r="D40" s="99"/>
+      <c r="E40" s="99"/>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>729</v>
-      </c>
-      <c r="B41" s="94" t="s">
+        <v>727</v>
+      </c>
+      <c r="B41" s="96" t="s">
         <v>662</v>
       </c>
-      <c r="C41" s="94"/>
-      <c r="D41" s="94"/>
-      <c r="E41" s="94"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="96"/>
+      <c r="E41" s="96"/>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>710</v>
-      </c>
-      <c r="B42" s="93" t="s">
+        <v>708</v>
+      </c>
+      <c r="B42" s="99" t="s">
         <v>660</v>
       </c>
-      <c r="C42" s="93"/>
-      <c r="D42" s="93"/>
-      <c r="E42" s="93"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="99"/>
+      <c r="E42" s="99"/>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>729</v>
-      </c>
-      <c r="B43" s="94" t="s">
+        <v>727</v>
+      </c>
+      <c r="B43" s="96" t="s">
         <v>663</v>
       </c>
-      <c r="C43" s="94"/>
-      <c r="D43" s="94"/>
-      <c r="E43" s="94"/>
+      <c r="C43" s="96"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="96"/>
     </row>
     <row r="45" spans="1:6" ht="19">
       <c r="A45" s="32" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1">
       <c r="A46" s="25" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1">
       <c r="A47" s="84" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B47" s="80" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1">
       <c r="A48" s="85" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B48" s="81" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15" customHeight="1">
       <c r="A49" s="85" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B49" s="81" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15" customHeight="1">
@@ -4397,7 +4394,7 @@
         <v>31</v>
       </c>
       <c r="B50" s="89" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15" customHeight="1">
@@ -4423,6 +4420,29 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertHyperlinks="0" selectLockedCells="1"/>
   <mergeCells count="32">
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B8:E8"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B23:E23"/>
@@ -4432,29 +4452,6 @@
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -4488,12 +4485,12 @@
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="51">
       <c r="A1" s="10" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -4501,14 +4498,14 @@
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1">
       <c r="A4" s="4" t="str">
         <f>CONCATENATE("| ",Schedule!A3," | ",Schedule!B3," | ",Schedule!C3," | ",TEXT(Schedule!D3,"mm/dd")," | ",Schedule!Q3," |")</f>
-        <v>| 1 | 1 | Th | 08/29 | **Course Overview &amp; Introduction to the Data Science Lifecycle** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session1.html) |</v>
+        <v>| 1 | 1 | Th | 08/29 | **Course Overview &amp; Introduction to the Data Science Lifecycle** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session1.html) |</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -4521,151 +4518,151 @@
     <row r="6" spans="1:4" ht="15" customHeight="1">
       <c r="A6" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A5," | ",Schedule!B5," | ",Schedule!C5," | ",TEXT(Schedule!D5,"mm/dd")," | ",Schedule!Q5," |")</f>
-        <v>| 2 | 2 | Tu | 09/03 | **Python Basics** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session2.html) &lt;br&gt; *Assignment 1 due 09/17* &lt;br&gt; |</v>
+        <v>| 2 | 2 | Tu | 09/03 | **Python Basics** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session2.html) &lt;br&gt; *Assignment 1 due 09/17* &lt;br&gt; |</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1">
       <c r="A7" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A6," | ",Schedule!B6," | ",Schedule!C6," | ",TEXT(Schedule!D6,"mm/dd")," | ",Schedule!Q6," |")</f>
-        <v>| 2 | 3 | Th | 09/05 | **Python Basics** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session3.html) |</v>
+        <v>| 2 | 3 | Th | 09/05 | **Python Basics** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session3.html) |</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1">
       <c r="A8" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A7," | ",Schedule!B7," | ",Schedule!C7," | ",TEXT(Schedule!D7,"mm/dd")," | ",Schedule!Q7," |")</f>
-        <v>| 3 | 4 | M | 09/09 | **Python conditionals, loops, functions, aggregating.** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session4.html) |</v>
+        <v>| 3 | 4 | M | 09/09 | **Python conditionals, loops, functions, aggregating.** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session4.html) |</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1">
       <c r="A9" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A8," | ",Schedule!B8," | ",Schedule!C8," | ",TEXT(Schedule!D8,"mm/dd")," | ",Schedule!Q8," |")</f>
-        <v>| 3 | 5 | Th | 09/12 | **Python conditionals, loops, functions, aggregating (continued)** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session5.html) &lt;br&gt; *Assignment 2 due 09/26* &lt;br&gt; |</v>
+        <v>| 3 | 5 | Th | 09/12 | **Python conditionals, loops, functions, aggregating (continued)** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session5.html) &lt;br&gt; *Assignment 2 due 09/26* &lt;br&gt; |</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1">
       <c r="A10" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A9," | ",Schedule!B9," | ",Schedule!C9," | ",TEXT(Schedule!D9,"mm/dd")," | ",Schedule!Q9," |")</f>
-        <v>| 4 | 6 | M | 09/16 | **Python visualization, data manipulation , and feature creation.** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session6.html) |</v>
+        <v>| 4 | 6 | M | 09/16 | **Python visualization, data manipulation , and feature creation.** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session6.html) |</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1">
       <c r="A11" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A10," | ",Schedule!B10," | ",Schedule!C10," | ",TEXT(Schedule!D10,"mm/dd")," | ",Schedule!Q10," |")</f>
-        <v>| 4 | 7 | Th | 09/19 | **Python visualization, data manipulation , and feature creation (continued)** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session7.html) |</v>
+        <v>| 4 | 7 | Th | 09/19 | **Python visualization, data manipulation , and feature creation (continued)** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session7.html) |</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1">
       <c r="A12" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A11," | ",Schedule!B11," | ",Schedule!C11," | ",TEXT(Schedule!D11,"mm/dd")," | ",Schedule!Q11," |")</f>
-        <v>| 5 | 8 | M | 09/23 | **Python and Unsupervised Learning** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session8.html) |</v>
+        <v>| 5 | 8 | M | 09/23 | **Python and Unsupervised Learning** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session8.html) |</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1">
       <c r="A13" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A12," | ",Schedule!B12," | ",Schedule!C12," | ",TEXT(Schedule!D12,"mm/dd")," | ",Schedule!Q12," |")</f>
-        <v>| 5 | 9 | Th | 09/26 | **Python and Unsupervised Learning** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session9.html) |</v>
+        <v>| 5 | 9 | Th | 09/26 | **Python and Unsupervised Learning** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session9.html) |</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1">
       <c r="A14" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A13," | ",Schedule!B13," | ",Schedule!C13," | ",TEXT(Schedule!D13,"mm/dd")," | ",Schedule!Q13," |")</f>
-        <v>| 6 | 10 | M | 09/30 | **Introduction to R** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session10.html) |</v>
+        <v>| 6 | 10 | M | 09/30 | **Introduction to R** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session10.html) |</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1">
       <c r="A15" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A14," | ",Schedule!B14," | ",Schedule!C14," | ",TEXT(Schedule!D14,"mm/dd")," | ",Schedule!Q14," |")</f>
-        <v>| 6 | 11 | Th | 10/03 | **Introduction to R** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session11.html) |</v>
+        <v>| 6 | 11 | Th | 10/03 | **Introduction to R** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session11.html) |</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1">
       <c r="A16" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A15," | ",Schedule!B15," | ",Schedule!C15," | ",TEXT(Schedule!D15,"mm/dd")," | ",Schedule!Q15," |")</f>
-        <v>| 7 | 12 | M | 10/07 | **Overview of Modeling** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session12.html) |</v>
+        <v>| 7 | 12 | M | 10/07 | **Overview of Modeling** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session12.html) |</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15" customHeight="1">
       <c r="A17" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A16," | ",Schedule!B16," | ",Schedule!C16," | ",TEXT(Schedule!D16,"mm/dd")," | ",Schedule!Q16," |")</f>
-        <v>| 7 | 13 | Th | 10/10 | **Overview of Modeling** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session13.html) |</v>
+        <v>| 7 | 13 | Th | 10/10 | **Overview of Modeling** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session13.html) |</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15" customHeight="1">
       <c r="A18" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A17," | ",Schedule!B17," | ",Schedule!C17," | ",TEXT(Schedule!D17,"mm/dd")," | ",Schedule!Q17," |")</f>
-        <v>| 8 | 14 | M | 10/14 | **Review/Kaggle Project Introduction** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session14.html) |</v>
+        <v>| 8 | 14 | M | 10/14 | **Review/Kaggle Project Introduction** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session14.html) |</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15" customHeight="1">
       <c r="A19" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A18," | ",Schedule!B18," | ",Schedule!C18," | ",TEXT(Schedule!D18,"mm/dd")," | ",Schedule!Q18," |")</f>
-        <v>| 8 | 15 | Th | 10/17 | **Midterm** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session15.html) |</v>
+        <v>| 8 | 15 | Th | 10/17 | **Midterm** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session15.html) |</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15" customHeight="1">
       <c r="A20" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A19," | ",Schedule!B19," | ",Schedule!C19," | ",TEXT(Schedule!D19,"mm/dd")," | ",Schedule!Q19," |")</f>
-        <v>| 9 | 16 | M | 10/21 | **Classification** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session16.html) |</v>
+        <v>| 9 | 16 | M | 10/21 | **Classification** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session16.html) |</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15" customHeight="1">
       <c r="A21" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A20," | ",Schedule!B20," | ",Schedule!C20," | ",TEXT(Schedule!D20,"mm/dd")," | ",Schedule!Q20," |")</f>
-        <v>| 9 | 17 | Th | 10/24 | **Classification** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session17.html) |</v>
+        <v>| 9 | 17 | Th | 10/24 | **Classification** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session17.html) |</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15" customHeight="1">
       <c r="A22" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A21," | ",Schedule!B21," | ",Schedule!C21," | ",TEXT(Schedule!D21,"mm/dd")," | ",Schedule!Q21," |")</f>
-        <v>| 10 | 18 | M | 10/28 | **Regression** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session18.html) |</v>
+        <v>| 10 | 18 | M | 10/28 | **Regression** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session18.html) |</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15" customHeight="1">
       <c r="A23" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A22," | ",Schedule!B22," | ",Schedule!C22," | ",TEXT(Schedule!D22,"mm/dd")," | ",Schedule!Q22," |")</f>
-        <v>| 10 | 19 | Th | 10/31 | **Regression** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session19.html) |</v>
+        <v>| 10 | 19 | Th | 10/31 | **Regression** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session19.html) |</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15" customHeight="1">
       <c r="A24" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A23," | ",Schedule!B23," | ",Schedule!C23," | ",TEXT(Schedule!D23,"mm/dd")," | ",Schedule!Q23," |")</f>
-        <v>| 11 | 20 | M | 11/04 | **Text and NLP** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session20.html) |</v>
+        <v>| 11 | 20 | M | 11/04 | **Text and NLP** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session20.html) |</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15" customHeight="1">
       <c r="A25" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A24," | ",Schedule!B24," | ",Schedule!C24," | ",TEXT(Schedule!D24,"mm/dd")," | ",Schedule!Q24," |")</f>
-        <v>| 11 | 21 | Th | 11/07 | **Text and NLP** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session21.html) |</v>
+        <v>| 11 | 21 | Th | 11/07 | **Text and NLP** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session21.html) |</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15" customHeight="1">
       <c r="A26" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A25," | ",Schedule!B25," | ",Schedule!C25," | ",TEXT(Schedule!D25,"mm/dd")," | ",Schedule!Q25," |")</f>
-        <v>| 12 | 22 | M | 11/11 | **Introduction to Big Data** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session22.html) |</v>
+        <v>| 12 | 22 | M | 11/11 | **Introduction to Big Data** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session22.html) |</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15" customHeight="1">
       <c r="A27" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A26," | ",Schedule!B26," | ",Schedule!C26," | ",TEXT(Schedule!D26,"mm/dd")," | ",Schedule!Q26," |")</f>
-        <v>| 12 | 23 | Th | 11/14 | **Time Series Analysis** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session23.html) |</v>
+        <v>| 12 | 23 | Th | 11/14 | **Time Series Analysis** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session23.html) |</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15" customHeight="1">
       <c r="A28" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A27," | ",Schedule!B27," | ",Schedule!C27," | ",TEXT(Schedule!D27,"mm/dd")," | ",Schedule!Q27," |")</f>
-        <v>| 13 | 24 | M | 11/18 | **Image Data and Deep Learning** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session24.html) |</v>
+        <v>| 13 | 24 | M | 11/18 | **Image Data and Deep Learning** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session24.html) |</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15" customHeight="1">
       <c r="A29" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A28," | ",Schedule!B28," | ",Schedule!C28," | ",TEXT(Schedule!D28,"mm/dd")," | ",Schedule!Q28," |")</f>
-        <v>| 13 | 25 | Th | 11/21 | **Image Data and Deep Learning** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session25.html) |</v>
+        <v>| 13 | 25 | Th | 11/21 | **Image Data and Deep Learning** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session25.html) |</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="16">
       <c r="A30" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A29," | ",Schedule!B29," | ",Schedule!C29," | ",TEXT(Schedule!D29,"mm/dd")," | ",Schedule!Q29," |")</f>
-        <v>| 14 | 26 | M | 11/25 | **Automl and Modeling Packages** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session26.html) |</v>
+        <v>| 14 | 26 | M | 11/25 | **Automl and Modeling Packages** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session26.html) |</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="16">
@@ -4677,19 +4674,19 @@
     <row r="32" spans="1:1" ht="16">
       <c r="A32" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A31," | ",Schedule!B31," | ",Schedule!C31," | ",TEXT(Schedule!D31,"mm/dd")," | ",Schedule!Q31," |")</f>
-        <v>| 15 | 27 | M | 12/02 | **Automl and Model Search** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session27.html) |</v>
+        <v>| 15 | 27 | M | 12/02 | **Automl and Model Search** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session27.html) |</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="16">
       <c r="A33" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A32," | ",Schedule!B32," | ",Schedule!C32," | ",TEXT(Schedule!D32,"mm/dd")," | ",Schedule!Q32," |")</f>
-        <v>| 15 | 28 | Th | 12/05 | **Final Presentations** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session28.html) |</v>
+        <v>| 15 | 28 | Th | 12/05 | **Final Presentations** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session28.html) |</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="16">
       <c r="A34" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A33," | ",Schedule!B33," | ",Schedule!C33," | ",TEXT(Schedule!D33,"mm/dd")," | ",Schedule!Q33," |")</f>
-        <v>| 16 | 29 | M | 12/09 | **Final Presentations** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session29.html) |</v>
+        <v>| 16 | 29 | M | 12/09 | **Final Presentations** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session29.html) |</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="16">
@@ -4719,17 +4716,17 @@
   <sheetData>
     <row r="1" spans="1:1" ht="51">
       <c r="A1" s="30" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="9" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="9" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -4759,19 +4756,19 @@
     <row r="8" spans="1:1">
       <c r="A8" s="29" t="str">
         <f>IF(Readings!F6="","",CONCATENATE("| [",Readings!A6,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Readings!A6,".html) | ",Readings!F6," |"))</f>
-        <v>| [2](https://rpi-data.github.io/course-intro-ml-app/sessions/session2.html) | [Doing Data Science (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/9781449363871)&lt;br&gt;[Data Science for Business (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/business-intelligence/9781449374273)&lt;br&gt;[Command Line Cheat Sheet](https://www.git-tower.com/blog/command-line-cheat-sheet/)&lt;br&gt;[Assignment Process](/assignments)&lt;br&gt;[Running Jupyter locally](http://rpi.analyticsdojo.com/setup/anaconda/) |</v>
+        <v>| [2](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session2.html) | [Doing Data Science (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/9781449363871)&lt;br&gt;[Data Science for Business (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/business-intelligence/9781449374273)&lt;br&gt;[Command Line Cheat Sheet](https://www.git-tower.com/blog/command-line-cheat-sheet/)&lt;br&gt;[Assignment Process](/assignments)&lt;br&gt;[Running Jupyter locally](http://rpi.analyticsdojo.com/setup/anaconda/) |</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="29" t="str">
         <f>IF(Readings!F7="","",CONCATENATE("| [",Readings!A7,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Readings!A7,".html) | ",Readings!F7," |"))</f>
-        <v>| [4](https://rpi-data.github.io/course-intro-ml-app/sessions/session4.html) | [Principles of Data Wrangling (Chapters 1-3)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/business-intelligence/9781491938911) |</v>
+        <v>| [4](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session4.html) | [Principles of Data Wrangling (Chapters 1-3)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/business-intelligence/9781491938911) |</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="29" t="str">
         <f>IF(Readings!F8="","",CONCATENATE("| [",Readings!A8,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Readings!A8,".html) | ",Readings!F8," |"))</f>
-        <v>| [6](https://rpi-data.github.io/course-intro-ml-app/sessions/session6.html) | [Introduction to Machine Learning with Python (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/programming/machine-learning/9781449369880) |</v>
+        <v>| [6](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session6.html) | [Introduction to Machine Learning with Python (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/programming/machine-learning/9781449369880) |</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -4801,7 +4798,7 @@
     <row r="15" spans="1:1">
       <c r="A15" s="29" t="str">
         <f>IF(Readings!F13="","",CONCATENATE("| [",Readings!A13,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Readings!A13,".html) | ",Readings!F13," |"))</f>
-        <v>| [8](https://rpi-data.github.io/course-intro-ml-app/sessions/session8.html) | [Install Tableau (free for students)](https://www.tableau.com/academic/students)&lt;br&gt;[Tableau - Data analytics for university students guide](https://www.tableau.com/university-students)&lt;br&gt;[Designing Great Visualizations](http://www.tableau.com/sites/default/files/media/designing-great-visualizations.pdf)&lt;br&gt;[Tableau getting Started](http://www.tableau.com/learn/tutorials/on-demand/getting-started)&lt;br&gt;[TED Talk](https://www.ted.com/talks/david_mccandless_the_beauty_of_data_visualization#t-304102) |</v>
+        <v>| [8](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session8.html) | [Install Tableau (free for students)](https://www.tableau.com/academic/students)&lt;br&gt;[Tableau - Data analytics for university students guide](https://www.tableau.com/university-students)&lt;br&gt;[Designing Great Visualizations](http://www.tableau.com/sites/default/files/media/designing-great-visualizations.pdf)&lt;br&gt;[Tableau getting Started](http://www.tableau.com/learn/tutorials/on-demand/getting-started)&lt;br&gt;[TED Talk](https://www.ted.com/talks/david_mccandless_the_beauty_of_data_visualization#t-304102) |</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -4813,7 +4810,7 @@
     <row r="17" spans="1:1">
       <c r="A17" s="29" t="str">
         <f>IF(Readings!F15="","",CONCATENATE("| [",Readings!A15,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Readings!A15,".html) | ",Readings!F15," |"))</f>
-        <v>| [10](https://rpi-data.github.io/course-intro-ml-app/sessions/session10.html) | [R for Data Science (Chapters 1-3)](https://r4ds.had.co.nz)&lt;br&gt;[RStudio Cloud](https://rstudio.cloud) |</v>
+        <v>| [10](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session10.html) | [R for Data Science (Chapters 1-3)](https://r4ds.had.co.nz)&lt;br&gt;[RStudio Cloud](https://rstudio.cloud) |</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -4843,7 +4840,7 @@
     <row r="22" spans="1:1">
       <c r="A22" s="29" t="str">
         <f>IF(Readings!F20="","",CONCATENATE("| [",Readings!A20,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Readings!A20,".html) | ",Readings!F20," |"))</f>
-        <v>| [12](https://rpi-data.github.io/course-intro-ml-app/sessions/session12.html) | [Cross Validation](https://www.analyticsvidhya.com/blog/2015/11/improve-model-performance-cross-validation-in-python-r/)&lt;br&gt;[The 10 Algorithms Machine Learning Engineers Need to Know](https://gab41.lab41.org/the-10-algorithms-machine-learning-engineers-need-to-know-f4bb63f5b2fa#.4rekzo2o1)&lt;br&gt;[15 Algorithms Machine Learning Engineers Must Need to Know](https://www.favouriteblog.com/15-algorithms-machine-learning-engineers/)&lt;br&gt;[A Tour of Machine Learning Algorithms](http://machinelearningmastery.com/a-tour-of-machine-learning-algorithms/)&lt;br&gt;[An Introduction to Machine Learning with Python (Chapter 2-3)](http://proquestcombo.safaribooksonline.com/book/programming/machine-learning/9781449369880) |</v>
+        <v>| [12](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session12.html) | [Cross Validation](https://www.analyticsvidhya.com/blog/2015/11/improve-model-performance-cross-validation-in-python-r/)&lt;br&gt;[The 10 Algorithms Machine Learning Engineers Need to Know](https://gab41.lab41.org/the-10-algorithms-machine-learning-engineers-need-to-know-f4bb63f5b2fa#.4rekzo2o1)&lt;br&gt;[15 Algorithms Machine Learning Engineers Must Need to Know](https://www.favouriteblog.com/15-algorithms-machine-learning-engineers/)&lt;br&gt;[A Tour of Machine Learning Algorithms](http://machinelearningmastery.com/a-tour-of-machine-learning-algorithms/)&lt;br&gt;[An Introduction to Machine Learning with Python (Chapter 2-3)](http://proquestcombo.safaribooksonline.com/book/programming/machine-learning/9781449369880) |</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -4867,7 +4864,7 @@
     <row r="26" spans="1:1">
       <c r="A26" s="29" t="str">
         <f>IF(Readings!F24="","",CONCATENATE("| [",Readings!A24,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Readings!A24,".html) | ",Readings!F24," |"))</f>
-        <v>| [20](https://rpi-data.github.io/course-intro-ml-app/sessions/session20.html) | [The Seven Practice Areas of Text Mining](http://cdn2.hubspot.net/hubfs/2176909/Whitepaper_The_Seven_Practice_Areas_of_Text_Analytics_Chapter_2_Excerpt.pdf?t=1469213247687)&lt;br&gt;[The Amazing Power of Word Vectors](https://blog.acolyer.org/2016/04/21/the-amazing-power-of-word-vectors/)&lt;br&gt;[Bag of Words Tutorial](https://www.kaggle.com/c/word2vec-nlp-tutorial/details/part-1-for-beginners-bag-of-words)&lt;br&gt;[Word Vectors](https://www.kaggle.com/c/word2vec-nlp-tutorial/details/part-2-word-vectors) |</v>
+        <v>| [20](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session20.html) | [The Seven Practice Areas of Text Mining](http://cdn2.hubspot.net/hubfs/2176909/Whitepaper_The_Seven_Practice_Areas_of_Text_Analytics_Chapter_2_Excerpt.pdf?t=1469213247687)&lt;br&gt;[The Amazing Power of Word Vectors](https://blog.acolyer.org/2016/04/21/the-amazing-power-of-word-vectors/)&lt;br&gt;[Bag of Words Tutorial](https://www.kaggle.com/c/word2vec-nlp-tutorial/details/part-1-for-beginners-bag-of-words)&lt;br&gt;[Word Vectors](https://www.kaggle.com/c/word2vec-nlp-tutorial/details/part-2-word-vectors) |</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -4885,7 +4882,7 @@
     <row r="29" spans="1:1">
       <c r="A29" s="29" t="str">
         <f>IF(Readings!F27="","",CONCATENATE("| [",Readings!A27,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Readings!A27,".html) | ",Readings!F27," |"))</f>
-        <v>| [23](https://rpi-data.github.io/course-intro-ml-app/sessions/session23.html) | [Introduction to Time Series](https://www.youtube.com/watch?v=d4Sn6ny_5LI)&lt;br&gt;[7 Ways Time Series Forecasting Differs from Machine Learning](https://www.datascience.com/blog/time-series-forecasting-machine-learning-differences)&lt;br&gt;[Aggregation Techniques and Cryptocurrencies](https://medium.com/python-data/time-series-aggregation-techniques-with-python-a-look-at-major-cryptocurrencies-a9eb1dd49c1b) |</v>
+        <v>| [23](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session23.html) | [Introduction to Time Series](https://www.youtube.com/watch?v=d4Sn6ny_5LI)&lt;br&gt;[7 Ways Time Series Forecasting Differs from Machine Learning](https://www.datascience.com/blog/time-series-forecasting-machine-learning-differences)&lt;br&gt;[Aggregation Techniques and Cryptocurrencies](https://medium.com/python-data/time-series-aggregation-techniques-with-python-a-look-at-major-cryptocurrencies-a9eb1dd49c1b) |</v>
       </c>
     </row>
   </sheetData>
@@ -4909,17 +4906,17 @@
   <sheetData>
     <row r="1" spans="1:4" ht="51">
       <c r="A1" s="10" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="9" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="9" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4949,7 +4946,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="29" t="str">
         <f>IF(Notebooks!G5="","",CONCATENATE("| [",Notebooks!A5,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A5,") | ",Notebooks!G5," |"))</f>
-        <v>| [1](https://rpi-data.github.io/course-intro-ml-app/sessions/session1) | What is Jupyter? - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/01-what-is-jupyter.ipynb#scrollTo=mdFTkIqGwgOJ)&lt;br&gt;Notebook Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/02-notebook-basics.ipynb)&lt;br&gt;Running Code - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/03-running-code.ipynb)&lt;br&gt;Markdown - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/04-markdown.ipynb) |</v>
+        <v>| [1](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session1) | What is Jupyter? - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/01-what-is-jupyter.ipynb#scrollTo=mdFTkIqGwgOJ)&lt;br&gt;Notebook Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/02-notebook-basics.ipynb)&lt;br&gt;Running Code - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/03-running-code.ipynb)&lt;br&gt;Markdown - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/04-markdown.ipynb) |</v>
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
@@ -4985,7 +4982,7 @@
     <row r="11" spans="1:4">
       <c r="A11" s="29" t="str">
         <f>IF(Notebooks!G9="","",CONCATENATE("| [",Notebooks!A9,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A9,") | ",Notebooks!G9," |"))</f>
-        <v>| [2](https://rpi-data.github.io/course-intro-ml-app/sessions/session2) | Python Overview - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/01-intro-python-overview.ipynb)&lt;br&gt;Basic Data Structures - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/02-intro-python-datastructures.ipynbhttps://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/03-intro-python-numpy.ipynb)&lt;br&gt;Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)&lt;br&gt;Pandas - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb) |</v>
+        <v>| [2](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session2) | Python Overview - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/01-intro-python-overview.ipynb)&lt;br&gt;Basic Data Structures - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/02-intro-python-datastructures.ipynbhttps://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/03-intro-python-numpy.ipynb)&lt;br&gt;Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)&lt;br&gt;Pandas - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb) |</v>
       </c>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
@@ -5039,7 +5036,7 @@
     <row r="17" spans="1:4">
       <c r="A17" s="29" t="str">
         <f>IF(Notebooks!G15="","",CONCATENATE("| [",Notebooks!A15,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A15,") | ",Notebooks!G15," |"))</f>
-        <v>| [4](https://rpi-data.github.io/course-intro-ml-app/sessions/session4) | Conditional-Loops - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb)&lt;br&gt;Functions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/02-intro-python-functions.ipynb)&lt;br&gt;Null Values - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/03-intro-python-null-values.ipynb)&lt;br&gt;Groupby - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/04-intro-python-groupby.ipynb)&lt;br&gt;Kaggle Baseline - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/05-intro-kaggle-baseline.ipynb)&lt;br&gt;Assignment 2 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/hm-02/hm02.ipynb) |</v>
+        <v>| [4](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session4) | Conditional-Loops - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb)&lt;br&gt;Functions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/02-intro-python-functions.ipynb)&lt;br&gt;Null Values - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/03-intro-python-null-values.ipynb)&lt;br&gt;Groupby - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/04-intro-python-groupby.ipynb)&lt;br&gt;Kaggle Baseline - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/05-intro-kaggle-baseline.ipynb)&lt;br&gt;Assignment 2 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/hm-02/hm02.ipynb) |</v>
       </c>
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
@@ -5093,7 +5090,7 @@
     <row r="23" spans="1:4">
       <c r="A23" s="29" t="str">
         <f>IF(Notebooks!G21="","",CONCATENATE("| [",Notebooks!A21,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A21,") | ",Notebooks!G21," |"))</f>
-        <v>| [6](https://rpi-data.github.io/course-intro-ml-app/sessions/session6) | Twitter - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb)&lt;br&gt;Web Mining - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/02_intro_python_webmining.ipynb)&lt;br&gt;Visualizations - Seaborn - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/03_visualization_python_seaborn.ipynb)&lt;br&gt;Strings - Regular Expressions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/04_strings_and_regular_expressions.ipynb)&lt;br&gt;Feature Dummies - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/05_features_dummies.ipynb)&lt;br&gt;Assignment 3 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/hm-03/hm03.ipynb) |</v>
+        <v>| [6](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session6) | Twitter - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb)&lt;br&gt;Web Mining - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/02_intro_python_webmining.ipynb)&lt;br&gt;Visualizations - Seaborn - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/03_visualization_python_seaborn.ipynb)&lt;br&gt;Strings - Regular Expressions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/04_strings_and_regular_expressions.ipynb)&lt;br&gt;Feature Dummies - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/05_features_dummies.ipynb)&lt;br&gt;Assignment 3 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/hm-03/hm03.ipynb) |</v>
       </c>
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
@@ -5156,7 +5153,7 @@
     <row r="30" spans="1:4">
       <c r="A30" s="29" t="str">
         <f>IF(Notebooks!G28="","",CONCATENATE("| [",Notebooks!A28,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A28,") | ",Notebooks!G28," |"))</f>
-        <v>| [9](https://rpi-data.github.io/course-intro-ml-app/sessions/session9) | The Simplest Neural Network with Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)&lt;br&gt;Train Test Split - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb)&lt;br&gt;Introduction to Logistic Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/02-intro-logistic-knn.ipynb)&lt;br&gt;K Nearest Neighbor - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/03-knn.ipynb)&lt;br&gt;ROC and SVM - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/04-svm-roc.ipynb)&lt;br&gt;HM5A Visualization &amp; Screen Scraping - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05A.ipynb)&lt;br&gt;HM5B Intro Modeling - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05B.ipynb) |</v>
+        <v>| [9](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session9) | The Simplest Neural Network with Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)&lt;br&gt;Train Test Split - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb)&lt;br&gt;Introduction to Logistic Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/02-intro-logistic-knn.ipynb)&lt;br&gt;K Nearest Neighbor - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/03-knn.ipynb)&lt;br&gt;ROC and SVM - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/04-svm-roc.ipynb)&lt;br&gt;HM5A Visualization &amp; Screen Scraping - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05A.ipynb)&lt;br&gt;HM5B Intro Modeling - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05B.ipynb) |</v>
       </c>
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
@@ -5183,7 +5180,7 @@
     <row r="33" spans="1:4">
       <c r="A33" s="29" t="str">
         <f>IF(Notebooks!G31="","",CONCATENATE("| [",Notebooks!A31,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A31,") | ",Notebooks!G31," |"))</f>
-        <v>| [13](https://rpi-data.github.io/course-intro-ml-app/sessions/session13) | Matrix Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/01-matrix-regression-gradient-decent-python.ipynb)&lt;br&gt;Regression Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/02-regression-boston-housing-python.ipynb)&lt;br&gt;Ridge and Lasso Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb) |</v>
+        <v>| [13](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session13) | Matrix Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/01-matrix-regression-gradient-decent-python.ipynb)&lt;br&gt;Regression Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/02-regression-boston-housing-python.ipynb)&lt;br&gt;Ridge and Lasso Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb) |</v>
       </c>
       <c r="B33" s="29"/>
       <c r="C33" s="29"/>
@@ -5288,17 +5285,17 @@
   <sheetData>
     <row r="1" spans="1:1" ht="51">
       <c r="A1" s="26" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="9" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="9" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -5316,7 +5313,7 @@
     <row r="6" spans="1:1">
       <c r="A6" s="29" t="str">
         <f>IF(ISBLANK(Schedule!H5),"",CONCATENATE("| ",Schedule!H5," | [",Schedule!B5,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Schedule!B5,".html) | ",TEXT(Schedule!D5+Configuration!$B$6, "mm/dd")," | ",Schedule!I5," | ",IF(ISBLANK(Schedule!K5),"*None*",Schedule!R5)," |"))</f>
-        <v>| 1 | [2](https://rpi-data.github.io/course-intro-ml-app/sessions/session2.html) | 09/17 | This introductory assignment introduces the basics of loading files from a variety of formats.  | [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/hm-01/hm01.ipynb) |</v>
+        <v>| 1 | [2](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session2.html) | 09/17 | This introductory assignment introduces the basics of loading files from a variety of formats.  | [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/hm-01/hm01.ipynb) |</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -5334,7 +5331,7 @@
     <row r="9" spans="1:1">
       <c r="A9" s="29" t="str">
         <f>IF(ISBLANK(Schedule!H8),"",CONCATENATE("| ",Schedule!H8," | [",Schedule!B8,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Schedule!B8,".html) | ",TEXT(Schedule!D8+Configuration!$B$6, "mm/dd")," | ",Schedule!I8," | ",IF(ISBLANK(Schedule!K8),"*None*",Schedule!R8)," |"))</f>
-        <v>| 2 | [5](https://rpi-data.github.io/course-intro-ml-app/sessions/session5.html) | 09/26 |  | [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/hm-02/hm02.ipynb) |</v>
+        <v>| 2 | [5](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session5.html) | 09/26 |  | [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/hm-02/hm02.ipynb) |</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -5553,7 +5550,7 @@
 ### Readings
 *None*
 ### Notebooks
-[What is Jupyter?](https://rpi-data.github.io/course-intro-ml-app/notebooks/01-what-is-jupyter.html)&lt;br&gt;[Notebook Basics](https://rpi-data.github.io/course-intro-ml-app/notebooks/02-notebook-basics.html)&lt;br&gt;[Running Code](https://rpi-data.github.io/course-intro-ml-app/notebooks/03-running-code.html)&lt;br&gt;[Markdown](https://rpi-data.github.io/course-intro-ml-app/notebooks/04-markdown.html)</v>
+[What is Jupyter?](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/01-what-is-jupyter.html)&lt;br&gt;[Notebook Basics](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/02-notebook-basics.html)&lt;br&gt;[Running Code](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/03-running-code.html)&lt;br&gt;[Markdown](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/04-markdown.html)</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>18</v>
@@ -5583,7 +5580,7 @@
 ### Readings
 *None*
 ### Notebooks
-[What is Jupyter?](https://rpi-data.github.io/course-intro-ml-app/notebooks/01-what-is-jupyter.html)&lt;br&gt;[Notebook Basics](https://rpi-data.github.io/course-intro-ml-app/notebooks/02-notebook-basics.html)&lt;br&gt;[Running Code](https://rpi-data.github.io/course-intro-ml-app/notebooks/03-running-code.html)&lt;br&gt;[Markdown](https://rpi-data.github.io/course-intro-ml-app/notebooks/04-markdown.html)</v>
+[What is Jupyter?](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/01-what-is-jupyter.html)&lt;br&gt;[Notebook Basics](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/02-notebook-basics.html)&lt;br&gt;[Running Code](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/03-running-code.html)&lt;br&gt;[Markdown](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/04-markdown.html)</v>
       </c>
       <c r="G2" s="26"/>
     </row>
@@ -5653,7 +5650,7 @@
 ### Readings
 [Doing Data Science (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/9781449363871)&lt;br&gt;[Data Science for Business (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/business-intelligence/9781449374273)&lt;br&gt;[Command Line Cheat Sheet](https://www.git-tower.com/blog/command-line-cheat-sheet/)&lt;br&gt;[Assignment Process](/assignments)&lt;br&gt;[Running Jupyter locally](http://rpi.analyticsdojo.com/setup/anaconda/)
 ### Notebooks
-[Python Overview](https://rpi-data.github.io/course-intro-ml-app/notebooks/05-intro-python-overview.html)&lt;br&gt;[Basic Data Structures](https://rpi-data.github.io/course-intro-ml-app/notebooks/06-intro-python-datastructures.html)&lt;br&gt;[Numpy](https://rpi-data.github.io/course-intro-ml-app/notebooks/07-intro-python-numpy.html)&lt;br&gt;[Pandas](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+[Python Overview](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/05-intro-python-overview.html)&lt;br&gt;[Basic Data Structures](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/06-intro-python-datastructures.html)&lt;br&gt;[Numpy](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/07-intro-python-numpy.html)&lt;br&gt;[Pandas](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>18</v>
@@ -5684,7 +5681,7 @@
 ### Readings
 [Doing Data Science (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/9781449363871)&lt;br&gt;[Data Science for Business (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/business-intelligence/9781449374273)&lt;br&gt;[Command Line Cheat Sheet](https://www.git-tower.com/blog/command-line-cheat-sheet/)&lt;br&gt;[Assignment Process](/assignments)&lt;br&gt;[Running Jupyter locally](http://rpi.analyticsdojo.com/setup/anaconda/)
 ### Notebooks
-[Python Overview](https://rpi-data.github.io/course-intro-ml-app/notebooks/05-intro-python-overview.html)&lt;br&gt;[Basic Data Structures](https://rpi-data.github.io/course-intro-ml-app/notebooks/06-intro-python-datastructures.html)&lt;br&gt;[Numpy](https://rpi-data.github.io/course-intro-ml-app/notebooks/07-intro-python-numpy.html)&lt;br&gt;[Pandas](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+[Python Overview](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/05-intro-python-overview.html)&lt;br&gt;[Basic Data Structures](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/06-intro-python-datastructures.html)&lt;br&gt;[Numpy](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/07-intro-python-numpy.html)&lt;br&gt;[Pandas](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="F4" s="31"/>
     </row>
@@ -5752,7 +5749,7 @@
 ### Readings
 [Principles of Data Wrangling (Chapters 1-3)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/business-intelligence/9781491938911)
 ### Notebooks
-[Conditional-Loops](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Groupby](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Kaggle Baseline](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 2](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+[Conditional-Loops](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Groupby](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Kaggle Baseline](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 2](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>18</v>
@@ -5781,7 +5778,7 @@
 ### Readings
 [Principles of Data Wrangling (Chapters 1-3)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/business-intelligence/9781491938911)
 ### Notebooks
-[Conditional-Loops](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Groupby](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Kaggle Baseline](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 2](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+[Conditional-Loops](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Groupby](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Kaggle Baseline](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 2](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1">
@@ -5848,7 +5845,7 @@
 ### Readings
 [Introduction to Machine Learning with Python (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/programming/machine-learning/9781449369880)
 ### Notebooks
-[Twitter](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Strings - Regular Expressions](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Feature Dummies](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 3](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+[Twitter](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Strings - Regular Expressions](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Feature Dummies](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 3](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>18</v>
@@ -5877,7 +5874,7 @@
 ### Readings
 [Introduction to Machine Learning with Python (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/programming/machine-learning/9781449369880)
 ### Notebooks
-[Twitter](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Strings - Regular Expressions](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Feature Dummies](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 3](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+[Twitter](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Strings - Regular Expressions](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Feature Dummies](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 3](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1">
@@ -5992,7 +5989,7 @@
 ### Readings
 *None*
 ### Notebooks
-[The Simplest Neural Network with Numpy](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[ROC and SVM](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5A Visualization &amp; Screen Scraping](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5B Intro Modeling](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[ROC and SVM](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5A Visualization &amp; Screen Scraping](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5B Intro Modeling](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>18</v>
@@ -6021,7 +6018,7 @@
 ### Readings
 *None*
 ### Notebooks
-[The Simplest Neural Network with Numpy](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[ROC and SVM](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5A Visualization &amp; Screen Scraping](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5B Intro Modeling](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[ROC and SVM](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5A Visualization &amp; Screen Scraping](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5B Intro Modeling](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1">
@@ -6184,7 +6181,7 @@
 ### Readings
 *None*
 ### Notebooks
-[Matrix Regression](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Regression Basics](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Ridge and Lasso Regression](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+[Matrix Regression](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Regression Basics](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Ridge and Lasso Regression](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>18</v>
@@ -6213,7 +6210,7 @@
 ### Readings
 *None*
 ### Notebooks
-[Matrix Regression](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Regression Basics](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Ridge and Lasso Regression](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+[Matrix Regression](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Regression Basics](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Ridge and Lasso Regression](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1">
@@ -7083,17 +7080,17 @@
   <sheetData>
     <row r="1" spans="1:1" ht="51">
       <c r="A1" s="10" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="9" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="9" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -28481,7 +28478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V956"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -28513,71 +28510,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="32" customFormat="1" ht="18.25" customHeight="1" thickBot="1">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="112" t="s">
-        <v>706</v>
-      </c>
-      <c r="C1" s="112" t="s">
+      <c r="B1" s="100" t="s">
+        <v>704</v>
+      </c>
+      <c r="C1" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="103" t="s">
+      <c r="D1" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="101" t="s">
+      <c r="E1" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="105" t="s">
-        <v>845</v>
-      </c>
-      <c r="G1" s="106"/>
-      <c r="H1" s="107" t="s">
-        <v>855</v>
-      </c>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="110" t="s">
+      <c r="F1" s="111" t="s">
+        <v>843</v>
+      </c>
+      <c r="G1" s="112"/>
+      <c r="H1" s="113" t="s">
         <v>853</v>
       </c>
-      <c r="M1" s="110" t="s">
-        <v>854</v>
-      </c>
-      <c r="N1" s="116" t="s">
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="116" t="s">
+        <v>851</v>
+      </c>
+      <c r="M1" s="116" t="s">
+        <v>852</v>
+      </c>
+      <c r="N1" s="104" t="s">
+        <v>883</v>
+      </c>
+      <c r="O1" s="105" t="s">
+        <v>884</v>
+      </c>
+      <c r="P1" s="106" t="s">
         <v>885</v>
       </c>
-      <c r="O1" s="117" t="s">
+      <c r="Q1" s="106" t="s">
         <v>886</v>
       </c>
-      <c r="P1" s="100" t="s">
+      <c r="R1" s="106" t="s">
         <v>887</v>
       </c>
-      <c r="Q1" s="100" t="s">
+      <c r="S1" s="106" t="s">
+        <v>881</v>
+      </c>
+      <c r="T1" s="106" t="s">
+        <v>882</v>
+      </c>
+      <c r="U1" s="106" t="s">
         <v>888</v>
       </c>
-      <c r="R1" s="100" t="s">
+      <c r="V1" s="106" t="s">
         <v>889</v>
       </c>
-      <c r="S1" s="100" t="s">
-        <v>883</v>
-      </c>
-      <c r="T1" s="100" t="s">
-        <v>884</v>
-      </c>
-      <c r="U1" s="100" t="s">
-        <v>890</v>
-      </c>
-      <c r="V1" s="100" t="s">
-        <v>891</v>
-      </c>
     </row>
     <row r="2" spans="1:22" s="32" customFormat="1" ht="22" thickTop="1" thickBot="1">
-      <c r="A2" s="115"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="102"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="108"/>
       <c r="F2" s="72" t="s">
         <v>4</v>
       </c>
@@ -28591,22 +28588,22 @@
         <v>7</v>
       </c>
       <c r="J2" s="76" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="K2" s="77" t="s">
-        <v>856</v>
-      </c>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="100"/>
-      <c r="S2" s="100"/>
-      <c r="T2" s="100"/>
-      <c r="U2" s="100"/>
-      <c r="V2" s="100"/>
+        <v>854</v>
+      </c>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="106"/>
+      <c r="T2" s="106"/>
+      <c r="U2" s="106"/>
+      <c r="V2" s="106"/>
     </row>
     <row r="3" spans="1:22" ht="68">
       <c r="A3" s="42">
@@ -28628,7 +28625,7 @@
         <v>101</v>
       </c>
       <c r="G3" s="48" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="L3" s="39" t="b">
         <v>0</v>
@@ -28642,7 +28639,7 @@
       </c>
       <c r="O3" s="56" t="str">
         <f>IF(B3&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B3,".html)"),"")</f>
-        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session1.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session1.html)</v>
       </c>
       <c r="P3" s="56" t="str">
         <f>IF(ISBLANK(H3),"",CONCATENATE(" &lt;br&gt; *",N3,"* &lt;br&gt;"))</f>
@@ -28650,7 +28647,7 @@
       </c>
       <c r="Q3" s="56" t="str">
         <f t="shared" ref="Q3:Q34" si="0">CONCATENATE("**",TRIM(E3),"** &lt;br&gt; ", O3, P3)</f>
-        <v>**Course Overview &amp; Introduction to the Data Science Lifecycle** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session1.html)</v>
+        <v>**Course Overview &amp; Introduction to the Data Science Lifecycle** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session1.html)</v>
       </c>
       <c r="R3" s="56" t="str">
         <f>CONCATENATE("[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",K3,")")</f>
@@ -28697,7 +28694,7 @@
         <v>43710</v>
       </c>
       <c r="E4" s="49" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F4" s="46"/>
       <c r="G4" s="46"/>
@@ -28776,7 +28773,7 @@
         <v>100</v>
       </c>
       <c r="G5" s="51" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="H5" s="42">
         <v>1</v>
@@ -28786,7 +28783,7 @@
       </c>
       <c r="J5" s="47"/>
       <c r="K5" s="67" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="L5" s="60" t="b">
         <v>1</v>
@@ -28800,7 +28797,7 @@
       </c>
       <c r="O5" s="56" t="str">
         <f>IF(B5&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B5,".html)"),"")</f>
-        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session2.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session2.html)</v>
       </c>
       <c r="P5" s="56" t="str">
         <f t="shared" si="1"/>
@@ -28808,7 +28805,7 @@
       </c>
       <c r="Q5" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Python Basics** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session2.html) &lt;br&gt; *Assignment 1 due 09/17* &lt;br&gt;</v>
+        <v>**Python Basics** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session2.html) &lt;br&gt; *Assignment 1 due 09/17* &lt;br&gt;</v>
       </c>
       <c r="R5" s="56" t="str">
         <f t="shared" si="2"/>
@@ -28878,7 +28875,7 @@
       </c>
       <c r="O6" s="56" t="str">
         <f>IF(B6&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B6,".html)"),"")</f>
-        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session3.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session3.html)</v>
       </c>
       <c r="P6" s="56" t="str">
         <f t="shared" si="1"/>
@@ -28886,7 +28883,7 @@
       </c>
       <c r="Q6" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Python Basics** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session3.html)</v>
+        <v>**Python Basics** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session3.html)</v>
       </c>
       <c r="R6" s="56" t="str">
         <f t="shared" si="2"/>
@@ -28959,7 +28956,7 @@
       </c>
       <c r="O7" s="56" t="str">
         <f>IF(B7&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B7,".html)"),"")</f>
-        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session4.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session4.html)</v>
       </c>
       <c r="P7" s="56" t="str">
         <f t="shared" si="1"/>
@@ -28967,7 +28964,7 @@
       </c>
       <c r="Q7" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Python conditionals, loops, functions, aggregating.** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session4.html)</v>
+        <v>**Python conditionals, loops, functions, aggregating.** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session4.html)</v>
       </c>
       <c r="R7" s="56" t="str">
         <f t="shared" si="2"/>
@@ -29008,7 +29005,7 @@
 </v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="51">
+    <row r="8" spans="1:22" ht="34">
       <c r="A8" s="42">
         <f t="shared" ref="A8:A13" si="8">A6+1</f>
         <v>3</v>
@@ -29035,7 +29032,7 @@
         <v>2</v>
       </c>
       <c r="K8" s="67" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="L8" s="39" t="b">
         <v>0</v>
@@ -29049,7 +29046,7 @@
       </c>
       <c r="O8" s="56" t="str">
         <f>IF(B8&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B8,".html)"),"")</f>
-        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session5.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session5.html)</v>
       </c>
       <c r="P8" s="56" t="str">
         <f t="shared" si="1"/>
@@ -29057,7 +29054,7 @@
       </c>
       <c r="Q8" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Python conditionals, loops, functions, aggregating (continued)** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session5.html) &lt;br&gt; *Assignment 2 due 09/26* &lt;br&gt;</v>
+        <v>**Python conditionals, loops, functions, aggregating (continued)** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session5.html) &lt;br&gt; *Assignment 2 due 09/26* &lt;br&gt;</v>
       </c>
       <c r="R8" s="56" t="str">
         <f t="shared" si="2"/>
@@ -29140,7 +29137,7 @@
       </c>
       <c r="O9" s="56" t="str">
         <f>IF(B9&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B9,".html)"),"")</f>
-        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session6.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session6.html)</v>
       </c>
       <c r="P9" s="56" t="str">
         <f t="shared" si="1"/>
@@ -29148,7 +29145,7 @@
       </c>
       <c r="Q9" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Python visualization, data manipulation , and feature creation.** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session6.html)</v>
+        <v>**Python visualization, data manipulation , and feature creation.** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session6.html)</v>
       </c>
       <c r="R9" s="56" t="str">
         <f t="shared" si="2"/>
@@ -29222,7 +29219,7 @@
       </c>
       <c r="G10" s="46"/>
       <c r="K10" s="67" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="L10" s="39" t="b">
         <v>0</v>
@@ -29236,7 +29233,7 @@
       </c>
       <c r="O10" s="56" t="str">
         <f>IF(B10&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B10,".html)"),"")</f>
-        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session7.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session7.html)</v>
       </c>
       <c r="P10" s="56" t="str">
         <f t="shared" si="1"/>
@@ -29244,7 +29241,7 @@
       </c>
       <c r="Q10" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Python visualization, data manipulation , and feature creation (continued)** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session7.html)</v>
+        <v>**Python visualization, data manipulation , and feature creation (continued)** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session7.html)</v>
       </c>
       <c r="R10" s="56" t="str">
         <f t="shared" si="2"/>
@@ -29314,7 +29311,7 @@
         <v>43731</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F11" s="47" t="s">
         <v>636</v>
@@ -29332,7 +29329,7 @@
       </c>
       <c r="O11" s="56" t="str">
         <f>IF(B11&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B11,".html)"),"")</f>
-        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session8.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session8.html)</v>
       </c>
       <c r="P11" s="56" t="str">
         <f t="shared" si="1"/>
@@ -29340,7 +29337,7 @@
       </c>
       <c r="Q11" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Python and Unsupervised Learning** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session8.html)</v>
+        <v>**Python and Unsupervised Learning** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session8.html)</v>
       </c>
       <c r="R11" s="56" t="str">
         <f t="shared" si="2"/>
@@ -29413,7 +29410,7 @@
         <v>43734</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F12" s="47" t="s">
         <v>99</v>
@@ -29431,7 +29428,7 @@
       </c>
       <c r="O12" s="56" t="str">
         <f>IF(B12&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B12,".html)"),"")</f>
-        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session9.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session9.html)</v>
       </c>
       <c r="P12" s="56" t="str">
         <f t="shared" si="1"/>
@@ -29439,7 +29436,7 @@
       </c>
       <c r="Q12" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Python and Unsupervised Learning** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session9.html)</v>
+        <v>**Python and Unsupervised Learning** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session9.html)</v>
       </c>
       <c r="R12" s="56" t="str">
         <f t="shared" si="2"/>
@@ -29533,7 +29530,7 @@
       </c>
       <c r="O13" s="56" t="str">
         <f>IF(B13&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B13,".html)"),"")</f>
-        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session10.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session10.html)</v>
       </c>
       <c r="P13" s="56" t="str">
         <f t="shared" si="1"/>
@@ -29541,7 +29538,7 @@
       </c>
       <c r="Q13" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Introduction to R** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session10.html)</v>
+        <v>**Introduction to R** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session10.html)</v>
       </c>
       <c r="R13" s="56" t="str">
         <f t="shared" si="2"/>
@@ -29637,7 +29634,7 @@
       </c>
       <c r="O14" s="56" t="str">
         <f>IF(B14&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B14,".html)"),"")</f>
-        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session11.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session11.html)</v>
       </c>
       <c r="P14" s="56" t="str">
         <f t="shared" si="1"/>
@@ -29645,7 +29642,7 @@
       </c>
       <c r="Q14" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Introduction to R** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session11.html)</v>
+        <v>**Introduction to R** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session11.html)</v>
       </c>
       <c r="R14" s="56" t="str">
         <f t="shared" si="2"/>
@@ -29745,7 +29742,7 @@
       </c>
       <c r="O15" s="56" t="str">
         <f>IF(B15&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B15,".html)"),"")</f>
-        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session12.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session12.html)</v>
       </c>
       <c r="P15" s="56" t="str">
         <f t="shared" si="1"/>
@@ -29753,7 +29750,7 @@
       </c>
       <c r="Q15" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Overview of Modeling** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session12.html)</v>
+        <v>**Overview of Modeling** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session12.html)</v>
       </c>
       <c r="R15" s="56" t="str">
         <f t="shared" si="2"/>
@@ -29855,7 +29852,7 @@
       </c>
       <c r="O16" s="56" t="str">
         <f>IF(B16&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B16,".html)"),"")</f>
-        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session13.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session13.html)</v>
       </c>
       <c r="P16" s="56" t="str">
         <f t="shared" si="1"/>
@@ -29863,7 +29860,7 @@
       </c>
       <c r="Q16" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Overview of Modeling** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session13.html)</v>
+        <v>**Overview of Modeling** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session13.html)</v>
       </c>
       <c r="R16" s="56" t="str">
         <f t="shared" si="2"/>
@@ -29934,7 +29931,7 @@
 </v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="34">
+    <row r="17" spans="1:22" ht="17">
       <c r="A17" s="42">
         <f>A15+1</f>
         <v>8</v>
@@ -29967,7 +29964,7 @@
       </c>
       <c r="O17" s="56" t="str">
         <f>IF(B17&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B17,".html)"),"")</f>
-        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session14.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session14.html)</v>
       </c>
       <c r="P17" s="56" t="str">
         <f t="shared" si="1"/>
@@ -29975,7 +29972,7 @@
       </c>
       <c r="Q17" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Review/Kaggle Project Introduction** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session14.html)</v>
+        <v>**Review/Kaggle Project Introduction** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session14.html)</v>
       </c>
       <c r="R17" s="56" t="str">
         <f t="shared" si="2"/>
@@ -30080,7 +30077,7 @@
       </c>
       <c r="O18" s="56" t="str">
         <f>IF(B18&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B18,".html)"),"")</f>
-        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session15.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session15.html)</v>
       </c>
       <c r="P18" s="56" t="str">
         <f t="shared" si="1"/>
@@ -30088,7 +30085,7 @@
       </c>
       <c r="Q18" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Midterm** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session15.html)</v>
+        <v>**Midterm** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session15.html)</v>
       </c>
       <c r="R18" s="56" t="str">
         <f t="shared" si="2"/>
@@ -30200,7 +30197,7 @@
       </c>
       <c r="O19" s="56" t="str">
         <f>IF(B19&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B19,".html)"),"")</f>
-        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session16.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session16.html)</v>
       </c>
       <c r="P19" s="56" t="str">
         <f t="shared" si="1"/>
@@ -30208,7 +30205,7 @@
       </c>
       <c r="Q19" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Classification** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session16.html)</v>
+        <v>**Classification** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session16.html)</v>
       </c>
       <c r="R19" s="56" t="str">
         <f t="shared" si="2"/>
@@ -30323,7 +30320,7 @@
       </c>
       <c r="O20" s="56" t="str">
         <f>IF(B20&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B20,".html)"),"")</f>
-        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session17.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session17.html)</v>
       </c>
       <c r="P20" s="56" t="str">
         <f t="shared" si="1"/>
@@ -30331,7 +30328,7 @@
       </c>
       <c r="Q20" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Classification** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session17.html)</v>
+        <v>**Classification** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session17.html)</v>
       </c>
       <c r="R20" s="56" t="str">
         <f t="shared" si="2"/>
@@ -30449,7 +30446,7 @@
       </c>
       <c r="O21" s="56" t="str">
         <f>IF(B21&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B21,".html)"),"")</f>
-        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session18.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session18.html)</v>
       </c>
       <c r="P21" s="56" t="str">
         <f t="shared" si="1"/>
@@ -30457,7 +30454,7 @@
       </c>
       <c r="Q21" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Regression** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session18.html)</v>
+        <v>**Regression** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session18.html)</v>
       </c>
       <c r="R21" s="56" t="str">
         <f t="shared" si="2"/>
@@ -30578,7 +30575,7 @@
       </c>
       <c r="O22" s="56" t="str">
         <f>IF(B22&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B22,".html)"),"")</f>
-        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session19.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session19.html)</v>
       </c>
       <c r="P22" s="56" t="str">
         <f t="shared" si="1"/>
@@ -30586,7 +30583,7 @@
       </c>
       <c r="Q22" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Regression** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session19.html)</v>
+        <v>**Regression** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session19.html)</v>
       </c>
       <c r="R22" s="56" t="str">
         <f t="shared" si="2"/>
@@ -30710,7 +30707,7 @@
       </c>
       <c r="O23" s="56" t="str">
         <f>IF(B23&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B23,".html)"),"")</f>
-        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session20.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session20.html)</v>
       </c>
       <c r="P23" s="56" t="str">
         <f t="shared" si="1"/>
@@ -30718,7 +30715,7 @@
       </c>
       <c r="Q23" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Text and NLP** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session20.html)</v>
+        <v>**Text and NLP** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session20.html)</v>
       </c>
       <c r="R23" s="56" t="str">
         <f t="shared" si="2"/>
@@ -30845,7 +30842,7 @@
       </c>
       <c r="O24" s="56" t="str">
         <f>IF(B24&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B24,".html)"),"")</f>
-        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session21.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session21.html)</v>
       </c>
       <c r="P24" s="56" t="str">
         <f t="shared" si="1"/>
@@ -30853,7 +30850,7 @@
       </c>
       <c r="Q24" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Text and NLP** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session21.html)</v>
+        <v>**Text and NLP** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session21.html)</v>
       </c>
       <c r="R24" s="56" t="str">
         <f t="shared" si="2"/>
@@ -30983,7 +30980,7 @@
       </c>
       <c r="O25" s="56" t="str">
         <f>IF(B25&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B25,".html)"),"")</f>
-        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session22.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session22.html)</v>
       </c>
       <c r="P25" s="56" t="str">
         <f t="shared" si="1"/>
@@ -30991,7 +30988,7 @@
       </c>
       <c r="Q25" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Introduction to Big Data** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session22.html)</v>
+        <v>**Introduction to Big Data** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session22.html)</v>
       </c>
       <c r="R25" s="56" t="str">
         <f t="shared" si="2"/>
@@ -31124,7 +31121,7 @@
       </c>
       <c r="O26" s="56" t="str">
         <f>IF(B26&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B26,".html)"),"")</f>
-        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session23.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session23.html)</v>
       </c>
       <c r="P26" s="56" t="str">
         <f t="shared" si="1"/>
@@ -31132,7 +31129,7 @@
       </c>
       <c r="Q26" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Time Series Analysis** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session23.html)</v>
+        <v>**Time Series Analysis** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session23.html)</v>
       </c>
       <c r="R26" s="56" t="str">
         <f t="shared" si="2"/>
@@ -31268,7 +31265,7 @@
       </c>
       <c r="O27" s="56" t="str">
         <f>IF(B27&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B27,".html)"),"")</f>
-        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session24.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session24.html)</v>
       </c>
       <c r="P27" s="56" t="str">
         <f t="shared" si="1"/>
@@ -31276,7 +31273,7 @@
       </c>
       <c r="Q27" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Image Data and Deep Learning** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session24.html)</v>
+        <v>**Image Data and Deep Learning** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session24.html)</v>
       </c>
       <c r="R27" s="56" t="str">
         <f t="shared" si="2"/>
@@ -31380,7 +31377,7 @@
 </v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="34">
+    <row r="28" spans="1:22" ht="17">
       <c r="A28" s="42">
         <f t="shared" si="10"/>
         <v>13</v>
@@ -31415,7 +31412,7 @@
       </c>
       <c r="O28" s="56" t="str">
         <f>IF(B28&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B28,".html)"),"")</f>
-        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session25.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session25.html)</v>
       </c>
       <c r="P28" s="56" t="str">
         <f t="shared" si="1"/>
@@ -31423,7 +31420,7 @@
       </c>
       <c r="Q28" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Image Data and Deep Learning** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session25.html)</v>
+        <v>**Image Data and Deep Learning** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session25.html)</v>
       </c>
       <c r="R28" s="56" t="str">
         <f t="shared" si="2"/>
@@ -31565,7 +31562,7 @@
       </c>
       <c r="O29" s="56" t="str">
         <f>IF(B29&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B29,".html)"),"")</f>
-        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session26.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session26.html)</v>
       </c>
       <c r="P29" s="56" t="str">
         <f t="shared" si="1"/>
@@ -31573,7 +31570,7 @@
       </c>
       <c r="Q29" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Automl and Modeling Packages** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session26.html)</v>
+        <v>**Automl and Modeling Packages** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session26.html)</v>
       </c>
       <c r="R29" s="56" t="str">
         <f t="shared" si="2"/>
@@ -31863,7 +31860,7 @@
       </c>
       <c r="O31" s="56" t="str">
         <f>IF(B31&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B31,".html)"),"")</f>
-        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session27.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session27.html)</v>
       </c>
       <c r="P31" s="56" t="str">
         <f t="shared" si="1"/>
@@ -31871,7 +31868,7 @@
       </c>
       <c r="Q31" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Automl and Model Search** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session27.html)</v>
+        <v>**Automl and Model Search** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session27.html)</v>
       </c>
       <c r="R31" s="56" t="str">
         <f t="shared" si="2"/>
@@ -32017,7 +32014,7 @@
       </c>
       <c r="O32" s="56" t="str">
         <f>IF(B32&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B32,".html)"),"")</f>
-        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session28.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session28.html)</v>
       </c>
       <c r="P32" s="56" t="str">
         <f t="shared" si="1"/>
@@ -32025,7 +32022,7 @@
       </c>
       <c r="Q32" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Final Presentations** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session28.html)</v>
+        <v>**Final Presentations** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session28.html)</v>
       </c>
       <c r="R32" s="56" t="str">
         <f t="shared" si="2"/>
@@ -32173,7 +32170,7 @@
       </c>
       <c r="O33" s="56" t="str">
         <f>IF(B33&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B33,".html)"),"")</f>
-        <v>[more](https://rpi-data.github.io/course-intro-ml-app/sessions/session29.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session29.html)</v>
       </c>
       <c r="P33" s="56" t="str">
         <f t="shared" si="1"/>
@@ -32181,7 +32178,7 @@
       </c>
       <c r="Q33" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Final Presentations** &lt;br&gt; [more](https://rpi-data.github.io/course-intro-ml-app/sessions/session29.html)</v>
+        <v>**Final Presentations** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session29.html)</v>
       </c>
       <c r="R33" s="56" t="str">
         <f t="shared" si="2"/>
@@ -46506,11 +46503,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
@@ -46518,12 +46516,11 @@
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -46551,7 +46548,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="32" customFormat="1" ht="19">
       <c r="A1" s="33" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B1" s="32" t="s">
         <v>6</v>
@@ -46560,13 +46557,13 @@
         <v>9</v>
       </c>
       <c r="D1" s="55" t="s">
+        <v>878</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>879</v>
+      </c>
+      <c r="F1" s="55" t="s">
         <v>880</v>
-      </c>
-      <c r="E1" s="55" t="s">
-        <v>881</v>
-      </c>
-      <c r="F1" s="55" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17">
@@ -46574,10 +46571,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D2" s="56" t="str">
         <f t="shared" ref="D2:D4" si="0">CONCATENATE("[",B2,"](",C2,")")</f>
@@ -46601,10 +46598,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D3" s="56" t="str">
         <f t="shared" si="0"/>
@@ -46628,10 +46625,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D4" s="56" t="str">
         <f t="shared" si="0"/>
@@ -46655,10 +46652,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D5" s="56" t="str">
         <f>CONCATENATE("[",B5,"](",C5,")")</f>
@@ -46678,10 +46675,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="D6" s="56" t="str">
         <f t="shared" ref="D6:D27" si="3">CONCATENATE("[",B6,"](",C6,")")</f>
@@ -46701,10 +46698,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D7" s="56" t="str">
         <f t="shared" si="3"/>
@@ -46724,10 +46721,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D8" s="56" t="str">
         <f t="shared" si="3"/>
@@ -46747,10 +46744,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D9" s="56" t="str">
         <f t="shared" si="3"/>
@@ -46770,10 +46767,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D10" s="56" t="str">
         <f t="shared" si="3"/>
@@ -46793,10 +46790,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D11" s="56" t="str">
         <f t="shared" si="3"/>
@@ -46816,10 +46813,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D12" s="56" t="str">
         <f t="shared" si="3"/>
@@ -46839,10 +46836,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D13" s="56" t="str">
         <f t="shared" si="3"/>
@@ -46862,10 +46859,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D14" s="56" t="str">
         <f t="shared" si="3"/>
@@ -46885,10 +46882,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D15" s="56" t="str">
         <f t="shared" si="3"/>
@@ -46908,10 +46905,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D16" s="56" t="str">
         <f t="shared" si="3"/>
@@ -46931,10 +46928,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D17" s="56" t="str">
         <f t="shared" si="3"/>
@@ -46954,10 +46951,10 @@
         <v>12</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D18" s="56" t="str">
         <f t="shared" si="3"/>
@@ -46977,10 +46974,10 @@
         <v>12</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D19" s="56" t="str">
         <f t="shared" si="3"/>
@@ -47000,10 +46997,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D20" s="56" t="str">
         <f t="shared" si="3"/>
@@ -47023,10 +47020,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D21" s="56" t="str">
         <f t="shared" si="3"/>
@@ -47046,10 +47043,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D22" s="56" t="str">
         <f t="shared" si="3"/>
@@ -47069,10 +47066,10 @@
         <v>20</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D23" s="56" t="str">
         <f t="shared" si="3"/>
@@ -47092,10 +47089,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D24" s="56" t="str">
         <f t="shared" si="3"/>
@@ -47115,10 +47112,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D25" s="56" t="str">
         <f t="shared" si="3"/>
@@ -47138,10 +47135,10 @@
         <v>23</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D26" s="56" t="str">
         <f t="shared" si="3"/>
@@ -47161,10 +47158,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D27" s="56" t="str">
         <f t="shared" si="3"/>
@@ -47217,36 +47214,36 @@
   <sheetData>
     <row r="1" spans="1:12" s="32" customFormat="1" ht="19">
       <c r="A1" s="33" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E1" s="55" t="s">
+        <v>878</v>
+      </c>
+      <c r="F1" s="55" t="s">
+        <v>879</v>
+      </c>
+      <c r="G1" s="55" t="s">
         <v>880</v>
-      </c>
-      <c r="F1" s="55" t="s">
-        <v>881</v>
-      </c>
-      <c r="G1" s="55" t="s">
-        <v>882</v>
       </c>
       <c r="H1" s="55"/>
       <c r="I1" s="55"/>
       <c r="J1" s="88" t="s">
+        <v>900</v>
+      </c>
+      <c r="K1" s="88" t="s">
+        <v>901</v>
+      </c>
+      <c r="L1" s="88" t="s">
         <v>902</v>
-      </c>
-      <c r="K1" s="88" t="s">
-        <v>903</v>
-      </c>
-      <c r="L1" s="88" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="17">
@@ -47254,13 +47251,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="E2" s="56" t="str">
         <f>CONCATENATE(B2," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D2,")")</f>
@@ -47292,11 +47289,11 @@
       </c>
       <c r="J2" s="56" t="str">
         <f>IF(ISBLANK(C2),"",CONCATENATE("[",B2,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C2,".html)"))</f>
-        <v>[What is Jupyter?](https://rpi-data.github.io/course-intro-ml-app/notebooks/01-what-is-jupyter.html)</v>
+        <v>[What is Jupyter?](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/01-what-is-jupyter.html)</v>
       </c>
       <c r="K2" s="56" t="str">
         <f>IF(A2=A1,K1&amp;"&lt;br&gt;"&amp;J2,J2)</f>
-        <v>[What is Jupyter?](https://rpi-data.github.io/course-intro-ml-app/notebooks/01-what-is-jupyter.html)</v>
+        <v>[What is Jupyter?](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/01-what-is-jupyter.html)</v>
       </c>
       <c r="L2" s="56" t="str">
         <f>IF(A2&lt;&gt;A3,K2,"")</f>
@@ -47308,13 +47305,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E3" s="56" t="str">
         <f t="shared" ref="E3:E5" si="0">CONCATENATE(B3," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D3,")")</f>
@@ -47349,11 +47346,11 @@
       </c>
       <c r="J3" s="56" t="str">
         <f>IF(ISBLANK(C3),"",CONCATENATE("[",B3,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C3,".html)"))</f>
-        <v>[Notebook Basics](https://rpi-data.github.io/course-intro-ml-app/notebooks/02-notebook-basics.html)</v>
+        <v>[Notebook Basics](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/02-notebook-basics.html)</v>
       </c>
       <c r="K3" s="56" t="str">
         <f t="shared" ref="K3:K33" si="5">IF(A3=A2,K2&amp;"&lt;br&gt;"&amp;J3,J3)</f>
-        <v>[What is Jupyter?](https://rpi-data.github.io/course-intro-ml-app/notebooks/01-what-is-jupyter.html)&lt;br&gt;[Notebook Basics](https://rpi-data.github.io/course-intro-ml-app/notebooks/02-notebook-basics.html)</v>
+        <v>[What is Jupyter?](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/01-what-is-jupyter.html)&lt;br&gt;[Notebook Basics](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/02-notebook-basics.html)</v>
       </c>
       <c r="L3" s="56" t="str">
         <f t="shared" ref="L3:L32" si="6">IF(A3&lt;&gt;A4,K3,"")</f>
@@ -47365,13 +47362,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E4" s="56" t="str">
         <f t="shared" si="0"/>
@@ -47406,11 +47403,11 @@
       </c>
       <c r="J4" s="56" t="str">
         <f>IF(ISBLANK(C4),"",CONCATENATE("[",B4,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C4,".html)"))</f>
-        <v>[Running Code](https://rpi-data.github.io/course-intro-ml-app/notebooks/03-running-code.html)</v>
+        <v>[Running Code](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/03-running-code.html)</v>
       </c>
       <c r="K4" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[What is Jupyter?](https://rpi-data.github.io/course-intro-ml-app/notebooks/01-what-is-jupyter.html)&lt;br&gt;[Notebook Basics](https://rpi-data.github.io/course-intro-ml-app/notebooks/02-notebook-basics.html)&lt;br&gt;[Running Code](https://rpi-data.github.io/course-intro-ml-app/notebooks/03-running-code.html)</v>
+        <v>[What is Jupyter?](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/01-what-is-jupyter.html)&lt;br&gt;[Notebook Basics](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/02-notebook-basics.html)&lt;br&gt;[Running Code](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/03-running-code.html)</v>
       </c>
       <c r="L4" s="56" t="str">
         <f t="shared" si="6"/>
@@ -47425,10 +47422,10 @@
         <v>13</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E5" s="56" t="str">
         <f t="shared" si="0"/>
@@ -47466,15 +47463,15 @@
       </c>
       <c r="J5" s="56" t="str">
         <f>IF(ISBLANK(C5),"",CONCATENATE("[",B5,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C5,".html)"))</f>
-        <v>[Markdown](https://rpi-data.github.io/course-intro-ml-app/notebooks/04-markdown.html)</v>
+        <v>[Markdown](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/04-markdown.html)</v>
       </c>
       <c r="K5" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[What is Jupyter?](https://rpi-data.github.io/course-intro-ml-app/notebooks/01-what-is-jupyter.html)&lt;br&gt;[Notebook Basics](https://rpi-data.github.io/course-intro-ml-app/notebooks/02-notebook-basics.html)&lt;br&gt;[Running Code](https://rpi-data.github.io/course-intro-ml-app/notebooks/03-running-code.html)&lt;br&gt;[Markdown](https://rpi-data.github.io/course-intro-ml-app/notebooks/04-markdown.html)</v>
+        <v>[What is Jupyter?](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/01-what-is-jupyter.html)&lt;br&gt;[Notebook Basics](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/02-notebook-basics.html)&lt;br&gt;[Running Code](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/03-running-code.html)&lt;br&gt;[Markdown](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/04-markdown.html)</v>
       </c>
       <c r="L5" s="56" t="str">
         <f t="shared" si="6"/>
-        <v>[What is Jupyter?](https://rpi-data.github.io/course-intro-ml-app/notebooks/01-what-is-jupyter.html)&lt;br&gt;[Notebook Basics](https://rpi-data.github.io/course-intro-ml-app/notebooks/02-notebook-basics.html)&lt;br&gt;[Running Code](https://rpi-data.github.io/course-intro-ml-app/notebooks/03-running-code.html)&lt;br&gt;[Markdown](https://rpi-data.github.io/course-intro-ml-app/notebooks/04-markdown.html)</v>
+        <v>[What is Jupyter?](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/01-what-is-jupyter.html)&lt;br&gt;[Notebook Basics](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/02-notebook-basics.html)&lt;br&gt;[Running Code](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/03-running-code.html)&lt;br&gt;[Markdown](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/04-markdown.html)</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="17">
@@ -47482,13 +47479,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="D6" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E6" s="56" t="str">
         <f t="shared" ref="E6:E33" si="8">CONCATENATE(B6," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D6,")")</f>
@@ -47529,11 +47526,11 @@
       </c>
       <c r="J6" s="56" t="str">
         <f>IF(ISBLANK(C6),"",CONCATENATE("[",B6,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C6,".html)"))</f>
-        <v>[Python Overview](https://rpi-data.github.io/course-intro-ml-app/notebooks/05-intro-python-overview.html)</v>
+        <v>[Python Overview](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/05-intro-python-overview.html)</v>
       </c>
       <c r="K6" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Python Overview](https://rpi-data.github.io/course-intro-ml-app/notebooks/05-intro-python-overview.html)</v>
+        <v>[Python Overview](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/05-intro-python-overview.html)</v>
       </c>
       <c r="L6" s="56" t="str">
         <f t="shared" si="6"/>
@@ -47545,13 +47542,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="D7" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E7" s="56" t="str">
         <f t="shared" si="8"/>
@@ -47595,11 +47592,11 @@
       </c>
       <c r="J7" s="56" t="str">
         <f>IF(ISBLANK(C7),"",CONCATENATE("[",B7,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C7,".html)"))</f>
-        <v>[Basic Data Structures](https://rpi-data.github.io/course-intro-ml-app/notebooks/06-intro-python-datastructures.html)</v>
+        <v>[Basic Data Structures](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/06-intro-python-datastructures.html)</v>
       </c>
       <c r="K7" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Python Overview](https://rpi-data.github.io/course-intro-ml-app/notebooks/05-intro-python-overview.html)&lt;br&gt;[Basic Data Structures](https://rpi-data.github.io/course-intro-ml-app/notebooks/06-intro-python-datastructures.html)</v>
+        <v>[Python Overview](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/05-intro-python-overview.html)&lt;br&gt;[Basic Data Structures](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/06-intro-python-datastructures.html)</v>
       </c>
       <c r="L7" s="56" t="str">
         <f t="shared" si="6"/>
@@ -47611,13 +47608,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="D8" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E8" s="56" t="str">
         <f t="shared" si="8"/>
@@ -47664,11 +47661,11 @@
       </c>
       <c r="J8" s="56" t="str">
         <f>IF(ISBLANK(C8),"",CONCATENATE("[",B8,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C8,".html)"))</f>
-        <v>[Numpy](https://rpi-data.github.io/course-intro-ml-app/notebooks/07-intro-python-numpy.html)</v>
+        <v>[Numpy](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/07-intro-python-numpy.html)</v>
       </c>
       <c r="K8" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Python Overview](https://rpi-data.github.io/course-intro-ml-app/notebooks/05-intro-python-overview.html)&lt;br&gt;[Basic Data Structures](https://rpi-data.github.io/course-intro-ml-app/notebooks/06-intro-python-datastructures.html)&lt;br&gt;[Numpy](https://rpi-data.github.io/course-intro-ml-app/notebooks/07-intro-python-numpy.html)</v>
+        <v>[Python Overview](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/05-intro-python-overview.html)&lt;br&gt;[Basic Data Structures](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/06-intro-python-datastructures.html)&lt;br&gt;[Numpy](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/07-intro-python-numpy.html)</v>
       </c>
       <c r="L8" s="56" t="str">
         <f t="shared" si="6"/>
@@ -47680,13 +47677,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D9" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E9" s="56" t="str">
         <f t="shared" si="8"/>
@@ -47736,15 +47733,15 @@
       </c>
       <c r="J9" s="56" t="str">
         <f>IF(ISBLANK(C9),"",CONCATENATE("[",B9,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C9,".html)"))</f>
-        <v>[Pandas](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Pandas](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K9" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Python Overview](https://rpi-data.github.io/course-intro-ml-app/notebooks/05-intro-python-overview.html)&lt;br&gt;[Basic Data Structures](https://rpi-data.github.io/course-intro-ml-app/notebooks/06-intro-python-datastructures.html)&lt;br&gt;[Numpy](https://rpi-data.github.io/course-intro-ml-app/notebooks/07-intro-python-numpy.html)&lt;br&gt;[Pandas](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Python Overview](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/05-intro-python-overview.html)&lt;br&gt;[Basic Data Structures](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/06-intro-python-datastructures.html)&lt;br&gt;[Numpy](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/07-intro-python-numpy.html)&lt;br&gt;[Pandas](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L9" s="56" t="str">
         <f t="shared" si="6"/>
-        <v>[Python Overview](https://rpi-data.github.io/course-intro-ml-app/notebooks/05-intro-python-overview.html)&lt;br&gt;[Basic Data Structures](https://rpi-data.github.io/course-intro-ml-app/notebooks/06-intro-python-datastructures.html)&lt;br&gt;[Numpy](https://rpi-data.github.io/course-intro-ml-app/notebooks/07-intro-python-numpy.html)&lt;br&gt;[Pandas](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Python Overview](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/05-intro-python-overview.html)&lt;br&gt;[Basic Data Structures](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/06-intro-python-datastructures.html)&lt;br&gt;[Numpy](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/07-intro-python-numpy.html)&lt;br&gt;[Pandas](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="17">
@@ -47752,13 +47749,13 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D10" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="E10" s="56" t="str">
         <f t="shared" si="8"/>
@@ -47811,11 +47808,11 @@
       </c>
       <c r="J10" s="56" t="str">
         <f>IF(ISBLANK(C10),"",CONCATENATE("[",B10,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C10,".html)"))</f>
-        <v>[Conditional-Loops](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Conditional-Loops](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K10" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Conditional-Loops](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Conditional-Loops](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L10" s="56" t="str">
         <f t="shared" si="6"/>
@@ -47827,13 +47824,13 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D11" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E11" s="56" t="str">
         <f t="shared" si="8"/>
@@ -47889,11 +47886,11 @@
       </c>
       <c r="J11" s="56" t="str">
         <f>IF(ISBLANK(C11),"",CONCATENATE("[",B11,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C11,".html)"))</f>
-        <v>[Functions](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Functions](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K11" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Conditional-Loops](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Conditional-Loops](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L11" s="56" t="str">
         <f t="shared" si="6"/>
@@ -47905,13 +47902,13 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D12" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="E12" s="56" t="str">
         <f t="shared" si="8"/>
@@ -47970,11 +47967,11 @@
       </c>
       <c r="J12" s="56" t="str">
         <f>IF(ISBLANK(C12),"",CONCATENATE("[",B12,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C12,".html)"))</f>
-        <v>[Null Values](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Null Values](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K12" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Conditional-Loops](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Conditional-Loops](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L12" s="56" t="str">
         <f t="shared" si="6"/>
@@ -47986,13 +47983,13 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D13" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E13" s="56" t="str">
         <f t="shared" si="8"/>
@@ -48054,11 +48051,11 @@
       </c>
       <c r="J13" s="56" t="str">
         <f>IF(ISBLANK(C13),"",CONCATENATE("[",B13,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C13,".html)"))</f>
-        <v>[Groupby](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Groupby](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K13" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Conditional-Loops](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Groupby](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Conditional-Loops](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Groupby](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L13" s="56" t="str">
         <f t="shared" si="6"/>
@@ -48070,13 +48067,13 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D14" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E14" s="56" t="str">
         <f t="shared" si="8"/>
@@ -48141,11 +48138,11 @@
       </c>
       <c r="J14" s="56" t="str">
         <f>IF(ISBLANK(C14),"",CONCATENATE("[",B14,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C14,".html)"))</f>
-        <v>[Kaggle Baseline](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Kaggle Baseline](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K14" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Conditional-Loops](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Groupby](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Kaggle Baseline](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Conditional-Loops](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Groupby](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Kaggle Baseline](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L14" s="56" t="str">
         <f t="shared" si="6"/>
@@ -48157,13 +48154,13 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D15" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E15" s="56" t="str">
         <f t="shared" si="8"/>
@@ -48231,15 +48228,15 @@
       </c>
       <c r="J15" s="56" t="str">
         <f>IF(ISBLANK(C15),"",CONCATENATE("[",B15,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C15,".html)"))</f>
-        <v>[Assignment 2](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Assignment 2](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K15" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Conditional-Loops](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Groupby](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Kaggle Baseline](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 2](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Conditional-Loops](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Groupby](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Kaggle Baseline](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 2](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L15" s="56" t="str">
         <f t="shared" si="6"/>
-        <v>[Conditional-Loops](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Groupby](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Kaggle Baseline](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 2](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Conditional-Loops](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Groupby](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Kaggle Baseline](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 2](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="17">
@@ -48247,13 +48244,13 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D16" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E16" s="56" t="str">
         <f t="shared" si="8"/>
@@ -48324,11 +48321,11 @@
       </c>
       <c r="J16" s="56" t="str">
         <f>IF(ISBLANK(C16),"",CONCATENATE("[",B16,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C16,".html)"))</f>
-        <v>[Twitter](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Twitter](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K16" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Twitter](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Twitter](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L16" s="56" t="str">
         <f t="shared" si="6"/>
@@ -48340,13 +48337,13 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D17" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E17" s="56" t="str">
         <f t="shared" si="8"/>
@@ -48420,11 +48417,11 @@
       </c>
       <c r="J17" s="56" t="str">
         <f>IF(ISBLANK(C17),"",CONCATENATE("[",B17,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C17,".html)"))</f>
-        <v>[Web Mining](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Web Mining](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K17" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Twitter](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Twitter](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L17" s="56" t="str">
         <f t="shared" si="6"/>
@@ -48436,13 +48433,13 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D18" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E18" s="56" t="str">
         <f t="shared" si="8"/>
@@ -48519,11 +48516,11 @@
       </c>
       <c r="J18" s="56" t="str">
         <f>IF(ISBLANK(C18),"",CONCATENATE("[",B18,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C18,".html)"))</f>
-        <v>[Visualizations - Seaborn](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Visualizations - Seaborn](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K18" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Twitter](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Twitter](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L18" s="56" t="str">
         <f t="shared" si="6"/>
@@ -48535,13 +48532,13 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D19" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E19" s="56" t="str">
         <f t="shared" si="8"/>
@@ -48621,11 +48618,11 @@
       </c>
       <c r="J19" s="56" t="str">
         <f>IF(ISBLANK(C19),"",CONCATENATE("[",B19,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C19,".html)"))</f>
-        <v>[Strings - Regular Expressions](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Strings - Regular Expressions](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K19" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Twitter](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Strings - Regular Expressions](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Twitter](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Strings - Regular Expressions](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L19" s="56" t="str">
         <f t="shared" si="6"/>
@@ -48637,13 +48634,13 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D20" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E20" s="56" t="str">
         <f t="shared" si="8"/>
@@ -48726,11 +48723,11 @@
       </c>
       <c r="J20" s="56" t="str">
         <f>IF(ISBLANK(C20),"",CONCATENATE("[",B20,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C20,".html)"))</f>
-        <v>[Feature Dummies](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Feature Dummies](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K20" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Twitter](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Strings - Regular Expressions](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Feature Dummies](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Twitter](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Strings - Regular Expressions](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Feature Dummies](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L20" s="56" t="str">
         <f t="shared" si="6"/>
@@ -48742,13 +48739,13 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D21" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E21" s="56" t="str">
         <f t="shared" si="8"/>
@@ -48834,15 +48831,15 @@
       </c>
       <c r="J21" s="56" t="str">
         <f>IF(ISBLANK(C21),"",CONCATENATE("[",B21,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C21,".html)"))</f>
-        <v>[Assignment 3](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Assignment 3](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K21" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Twitter](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Strings - Regular Expressions](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Feature Dummies](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 3](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Twitter](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Strings - Regular Expressions](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Feature Dummies](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 3](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L21" s="56" t="str">
         <f t="shared" si="6"/>
-        <v>[Twitter](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Strings - Regular Expressions](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Feature Dummies](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 3](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Twitter](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Strings - Regular Expressions](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Feature Dummies](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 3](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="17">
@@ -48850,13 +48847,13 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D22" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E22" s="56" t="str">
         <f t="shared" si="8"/>
@@ -48945,11 +48942,11 @@
       </c>
       <c r="J22" s="56" t="str">
         <f>IF(ISBLANK(C22),"",CONCATENATE("[",B22,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C22,".html)"))</f>
-        <v>[The Simplest Neural Network with Numpy](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K22" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[The Simplest Neural Network with Numpy](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L22" s="56" t="str">
         <f t="shared" si="6"/>
@@ -48961,13 +48958,13 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D23" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E23" s="56" t="str">
         <f t="shared" si="8"/>
@@ -49059,11 +49056,11 @@
       </c>
       <c r="J23" s="56" t="str">
         <f>IF(ISBLANK(C23),"",CONCATENATE("[",B23,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C23,".html)"))</f>
-        <v>[Train Test Split](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Train Test Split](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K23" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[The Simplest Neural Network with Numpy](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L23" s="56" t="str">
         <f t="shared" si="6"/>
@@ -49075,13 +49072,13 @@
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D24" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E24" s="56" t="str">
         <f t="shared" si="8"/>
@@ -49176,11 +49173,11 @@
       </c>
       <c r="J24" s="56" t="str">
         <f>IF(ISBLANK(C24),"",CONCATENATE("[",B24,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C24,".html)"))</f>
-        <v>[Introduction to Logistic Regression](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Introduction to Logistic Regression](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K24" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[The Simplest Neural Network with Numpy](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L24" s="56" t="str">
         <f t="shared" si="6"/>
@@ -49192,13 +49189,13 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D25" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E25" s="56" t="str">
         <f t="shared" si="8"/>
@@ -49296,11 +49293,11 @@
       </c>
       <c r="J25" s="56" t="str">
         <f>IF(ISBLANK(C25),"",CONCATENATE("[",B25,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C25,".html)"))</f>
-        <v>[K Nearest Neighbor](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[K Nearest Neighbor](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K25" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[The Simplest Neural Network with Numpy](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L25" s="56" t="str">
         <f t="shared" si="6"/>
@@ -49312,13 +49309,13 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D26" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E26" s="56" t="str">
         <f t="shared" si="8"/>
@@ -49419,11 +49416,11 @@
       </c>
       <c r="J26" s="56" t="str">
         <f>IF(ISBLANK(C26),"",CONCATENATE("[",B26,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C26,".html)"))</f>
-        <v>[ROC and SVM](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[ROC and SVM](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K26" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[The Simplest Neural Network with Numpy](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[ROC and SVM](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[ROC and SVM](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L26" s="56" t="str">
         <f t="shared" si="6"/>
@@ -49435,13 +49432,13 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D27" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E27" s="56" t="str">
         <f t="shared" si="8"/>
@@ -49545,11 +49542,11 @@
       </c>
       <c r="J27" s="56" t="str">
         <f>IF(ISBLANK(C27),"",CONCATENATE("[",B27,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C27,".html)"))</f>
-        <v>[HM5A Visualization &amp; Screen Scraping](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[HM5A Visualization &amp; Screen Scraping](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K27" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[The Simplest Neural Network with Numpy](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[ROC and SVM](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5A Visualization &amp; Screen Scraping](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[ROC and SVM](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5A Visualization &amp; Screen Scraping](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L27" s="56" t="str">
         <f t="shared" si="6"/>
@@ -49561,13 +49558,13 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D28" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E28" s="56" t="str">
         <f t="shared" si="8"/>
@@ -49674,15 +49671,15 @@
       </c>
       <c r="J28" s="56" t="str">
         <f>IF(ISBLANK(C28),"",CONCATENATE("[",B28,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C28,".html)"))</f>
-        <v>[HM5B Intro Modeling](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[HM5B Intro Modeling](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K28" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[The Simplest Neural Network with Numpy](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[ROC and SVM](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5A Visualization &amp; Screen Scraping](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5B Intro Modeling](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[ROC and SVM](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5A Visualization &amp; Screen Scraping](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5B Intro Modeling](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L28" s="56" t="str">
         <f t="shared" si="6"/>
-        <v>[The Simplest Neural Network with Numpy](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[ROC and SVM](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5A Visualization &amp; Screen Scraping](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5B Intro Modeling](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[ROC and SVM](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5A Visualization &amp; Screen Scraping](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5B Intro Modeling](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="17">
@@ -49690,13 +49687,13 @@
         <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D29" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E29" s="56" t="str">
         <f t="shared" si="8"/>
@@ -49806,11 +49803,11 @@
       </c>
       <c r="J29" s="56" t="str">
         <f>IF(ISBLANK(C29),"",CONCATENATE("[",B29,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C29,".html)"))</f>
-        <v>[Matrix Regression](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Matrix Regression](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K29" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Matrix Regression](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Matrix Regression](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L29" s="56" t="str">
         <f t="shared" si="6"/>
@@ -49822,13 +49819,13 @@
         <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D30" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E30" s="56" t="str">
         <f t="shared" si="8"/>
@@ -49941,11 +49938,11 @@
       </c>
       <c r="J30" s="56" t="str">
         <f>IF(ISBLANK(C30),"",CONCATENATE("[",B30,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C30,".html)"))</f>
-        <v>[Regression Basics](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Regression Basics](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K30" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Matrix Regression](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Regression Basics](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Matrix Regression](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Regression Basics](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L30" s="56" t="str">
         <f t="shared" si="6"/>
@@ -49957,13 +49954,13 @@
         <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D31" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E31" s="56" t="str">
         <f t="shared" si="8"/>
@@ -50079,15 +50076,15 @@
       </c>
       <c r="J31" s="56" t="str">
         <f>IF(ISBLANK(C31),"",CONCATENATE("[",B31,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C31,".html)"))</f>
-        <v>[Ridge and Lasso Regression](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Ridge and Lasso Regression](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K31" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Matrix Regression](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Regression Basics](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Ridge and Lasso Regression](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Matrix Regression](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Regression Basics](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Ridge and Lasso Regression](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L31" s="56" t="str">
         <f t="shared" si="6"/>
-        <v>[Matrix Regression](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Regression Basics](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Ridge and Lasso Regression](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Matrix Regression](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Regression Basics](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Ridge and Lasso Regression](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="17">
@@ -50095,13 +50092,13 @@
         <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D32" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E32" s="56" t="str">
         <f t="shared" si="8"/>
@@ -50220,11 +50217,11 @@
       </c>
       <c r="J32" s="56" t="str">
         <f>IF(ISBLANK(C32),"",CONCATENATE("[",B32,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C32,".html)"))</f>
-        <v>[Ridge and Lasso Regression](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Ridge and Lasso Regression](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K32" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Ridge and Lasso Regression](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Ridge and Lasso Regression](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L32" s="56" t="str">
         <f t="shared" si="6"/>
@@ -50236,13 +50233,13 @@
         <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D33" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E33" s="56" t="str">
         <f t="shared" si="8"/>
@@ -50364,11 +50361,11 @@
       </c>
       <c r="J33" s="56" t="str">
         <f>IF(ISBLANK(C33),"",CONCATENATE("[",B33,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C33,".html)"))</f>
-        <v>[PCA](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[PCA](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K33" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Ridge and Lasso Regression](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[PCA](https://rpi-data.github.io/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Ridge and Lasso Regression](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[PCA](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L33" s="56" t="e">
         <f>IF(A33&lt;&gt;#REF!,K33,"")</f>
@@ -50398,7 +50395,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B1" s="23" t="str">
         <f>Configuration!B2</f>
@@ -50407,7 +50404,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B2" s="18" t="str">
         <f>Configuration!B8</f>
@@ -50416,7 +50413,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B3" s="18" t="str">
         <f>Configuration!B9</f>
@@ -50425,7 +50422,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B4" s="18" t="str">
         <f>Configuration!B27</f>
@@ -50434,7 +50431,7 @@
     </row>
     <row r="5" spans="1:2" s="4" customFormat="1">
       <c r="A5" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B5" s="18" t="str">
         <f>Configuration!B28</f>
@@ -50443,11 +50440,11 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B6" s="18" t="str">
         <f>Configuration!B29</f>
-        <v>https://rpi-data.github.io</v>
+        <v>https://rpi.analyticsdojo.com</v>
       </c>
     </row>
   </sheetData>
@@ -52068,17 +52065,17 @@
   <sheetData>
     <row r="1" spans="1:1" ht="404">
       <c r="A1" s="30" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="204">
       <c r="A2" s="30" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="136">
       <c r="A3" s="26" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="4" spans="1:1" s="29" customFormat="1" ht="409.6">
@@ -52177,7 +52174,7 @@
     </row>
     <row r="5" spans="1:1" ht="85">
       <c r="A5" s="30" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="6" spans="1:1" s="29" customFormat="1" ht="392.75" customHeight="1">
@@ -52284,7 +52281,7 @@
     </row>
     <row r="7" spans="1:1" ht="85">
       <c r="A7" s="30" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="8" spans="1:1" s="29" customFormat="1" ht="409.6">
@@ -52302,7 +52299,7 @@
     </row>
     <row r="9" spans="1:1" ht="409.6">
       <c r="A9" s="31" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
   </sheetData>
@@ -52328,25 +52325,25 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="68" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B1" s="68" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C1" s="69" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="68"/>
       <c r="B2" s="68" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="C2" s="79" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D2" s="29" t="b">
         <v>1</v>
@@ -52865,7 +52862,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="51">
       <c r="A1" s="20" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="409.6">

--- a/book.xlsx
+++ b/book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/course-intro-ml-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3450129A-971A-CF48-B2EA-3FB50480E571}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FBC879-3F3B-1341-AA89-02D2848539D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5560" yWindow="2660" windowWidth="23240" windowHeight="12700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2149,9 +2149,6 @@
     <t>url</t>
   </si>
   <si>
-    <t>/course-intro-ml-app</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
@@ -2888,6 +2885,9 @@
   </si>
   <si>
     <t>https://rpi.analyticsdojo.com</t>
+  </si>
+  <si>
+    <t>""</t>
   </si>
 </sst>
 </file>
@@ -3528,14 +3528,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3544,28 +3536,20 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -3602,6 +3586,22 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3927,7 +3927,7 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:E34"/>
+      <selection activeCell="B29" sqref="B29:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -3947,56 +3947,56 @@
       <c r="A2" s="29" t="s">
         <v>655</v>
       </c>
-      <c r="B2" s="98" t="s">
-        <v>857</v>
-      </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
+      <c r="B2" s="97" t="s">
+        <v>856</v>
+      </c>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
     </row>
     <row r="3" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>689</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="95" t="s">
         <v>671</v>
       </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>692</v>
       </c>
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="95" t="s">
         <v>690</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
     </row>
     <row r="5" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>691</v>
       </c>
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="95" t="s">
         <v>693</v>
       </c>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="B6" s="95">
+      <c r="B6" s="96">
         <v>14</v>
       </c>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
     </row>
     <row r="7" spans="1:5" s="29" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="1"/>
@@ -4006,54 +4006,54 @@
       <c r="A8" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="95" t="s">
         <v>672</v>
       </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
     </row>
     <row r="9" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="B9" s="96" t="s">
+      <c r="B9" s="94" t="s">
         <v>674</v>
       </c>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
     </row>
     <row r="10" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="B10" s="95" t="s">
+      <c r="B10" s="96" t="s">
         <v>681</v>
       </c>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
     </row>
     <row r="11" spans="1:5" s="29" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="B11" s="95"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
+        <v>858</v>
+      </c>
+      <c r="B11" s="96"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
     </row>
     <row r="12" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="B12" s="95" t="s">
+      <c r="B12" s="96" t="s">
         <v>682</v>
       </c>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
     </row>
     <row r="13" spans="1:5" s="29" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="1"/>
@@ -4063,52 +4063,52 @@
       <c r="A14" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="B14" s="95" t="s">
+      <c r="B14" s="96" t="s">
         <v>683</v>
       </c>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
     </row>
     <row r="15" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="B15" s="96" t="s">
+      <c r="B15" s="94" t="s">
         <v>684</v>
       </c>
-      <c r="C15" s="96"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="96"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
     </row>
     <row r="16" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="B16" s="95" t="s">
+      <c r="B16" s="96" t="s">
         <v>685</v>
       </c>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
     </row>
     <row r="17" spans="1:6" s="29" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="B17" s="95"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
+        <v>858</v>
+      </c>
+      <c r="B17" s="96"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
     </row>
     <row r="18" spans="1:6" s="29" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="B18" s="95"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
     </row>
     <row r="19" spans="1:6" s="29" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="1"/>
@@ -4118,12 +4118,12 @@
       <c r="A20" s="22" t="s">
         <v>686</v>
       </c>
-      <c r="B20" s="93" t="s">
+      <c r="B20" s="98" t="s">
         <v>687</v>
       </c>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
     </row>
     <row r="21" spans="1:6" s="29" customFormat="1" ht="14.75" customHeight="1">
       <c r="A21" s="22"/>
@@ -4134,32 +4134,32 @@
     </row>
     <row r="22" spans="1:6" s="4" customFormat="1" ht="99" customHeight="1">
       <c r="A22" s="22" t="s">
-        <v>855</v>
-      </c>
-      <c r="B22" s="93" t="s">
+        <v>854</v>
+      </c>
+      <c r="B22" s="98" t="s">
         <v>695</v>
       </c>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
     </row>
     <row r="23" spans="1:6" s="29" customFormat="1" ht="38" customHeight="1">
       <c r="A23" s="22" t="s">
-        <v>856</v>
-      </c>
-      <c r="B23" s="94"/>
-      <c r="C23" s="94"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="94"/>
+        <v>855</v>
+      </c>
+      <c r="B23" s="99"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
     </row>
     <row r="24" spans="1:6" s="29" customFormat="1" ht="38" customHeight="1">
       <c r="A24" s="22" t="s">
-        <v>858</v>
-      </c>
-      <c r="B24" s="94"/>
-      <c r="C24" s="94"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="94"/>
+        <v>857</v>
+      </c>
+      <c r="B24" s="99"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
     </row>
     <row r="25" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="1"/>
@@ -4175,39 +4175,39 @@
       <c r="A27" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="B27" s="97" t="s">
+      <c r="B27" s="95" t="s">
         <v>673</v>
       </c>
-      <c r="C27" s="97"/>
-      <c r="D27" s="97"/>
-      <c r="E27" s="97"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="95"/>
     </row>
     <row r="28" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="B28" s="97" t="s">
-        <v>702</v>
-      </c>
-      <c r="C28" s="97"/>
-      <c r="D28" s="97"/>
-      <c r="E28" s="97"/>
+      <c r="B28" s="95" t="s">
+        <v>904</v>
+      </c>
+      <c r="C28" s="95"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="95"/>
       <c r="F28" s="14" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="B29" s="96" t="s">
-        <v>904</v>
-      </c>
-      <c r="C29" s="96"/>
-      <c r="D29" s="96"/>
-      <c r="E29" s="96"/>
+      <c r="B29" s="94" t="s">
+        <v>903</v>
+      </c>
+      <c r="C29" s="94"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="94"/>
       <c r="F29" s="14" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1">
@@ -4222,58 +4222,58 @@
     </row>
     <row r="32" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>719</v>
-      </c>
-      <c r="B32" s="99" t="s">
+        <v>718</v>
+      </c>
+      <c r="B32" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="99"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="99"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
       <c r="F32" s="14" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="9" t="s">
         <v>668</v>
       </c>
-      <c r="B33" s="99" t="s">
+      <c r="B33" s="93" t="s">
         <v>675</v>
       </c>
-      <c r="C33" s="99"/>
-      <c r="D33" s="99"/>
-      <c r="E33" s="99"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
       <c r="F33" s="14" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A34" s="9" t="s">
         <v>670</v>
       </c>
-      <c r="B34" s="96" t="s">
-        <v>904</v>
-      </c>
-      <c r="C34" s="96"/>
-      <c r="D34" s="96"/>
-      <c r="E34" s="96"/>
+      <c r="B34" s="94" t="s">
+        <v>903</v>
+      </c>
+      <c r="C34" s="94"/>
+      <c r="D34" s="94"/>
+      <c r="E34" s="94"/>
       <c r="F34" s="14" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>863</v>
-      </c>
-      <c r="B35" s="99" t="s">
+        <v>862</v>
+      </c>
+      <c r="B35" s="93" t="s">
         <v>669</v>
       </c>
-      <c r="C35" s="99"/>
-      <c r="D35" s="99"/>
-      <c r="E35" s="99"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="93"/>
       <c r="F35" s="14" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1">
@@ -4283,110 +4283,110 @@
     </row>
     <row r="37" spans="1:6" ht="19">
       <c r="A37" s="15" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>706</v>
-      </c>
-      <c r="B38" s="95" t="s">
+        <v>705</v>
+      </c>
+      <c r="B38" s="96" t="s">
         <v>658</v>
       </c>
-      <c r="C38" s="95"/>
-      <c r="D38" s="95"/>
-      <c r="E38" s="95"/>
+      <c r="C38" s="96"/>
+      <c r="D38" s="96"/>
+      <c r="E38" s="96"/>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>727</v>
-      </c>
-      <c r="B39" s="96" t="s">
+        <v>726</v>
+      </c>
+      <c r="B39" s="94" t="s">
         <v>661</v>
       </c>
-      <c r="C39" s="96"/>
-      <c r="D39" s="96"/>
-      <c r="E39" s="96"/>
+      <c r="C39" s="94"/>
+      <c r="D39" s="94"/>
+      <c r="E39" s="94"/>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>707</v>
-      </c>
-      <c r="B40" s="99" t="s">
+        <v>706</v>
+      </c>
+      <c r="B40" s="93" t="s">
         <v>659</v>
       </c>
-      <c r="C40" s="99"/>
-      <c r="D40" s="99"/>
-      <c r="E40" s="99"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="93"/>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>727</v>
-      </c>
-      <c r="B41" s="96" t="s">
+        <v>726</v>
+      </c>
+      <c r="B41" s="94" t="s">
         <v>662</v>
       </c>
-      <c r="C41" s="96"/>
-      <c r="D41" s="96"/>
-      <c r="E41" s="96"/>
+      <c r="C41" s="94"/>
+      <c r="D41" s="94"/>
+      <c r="E41" s="94"/>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>708</v>
-      </c>
-      <c r="B42" s="99" t="s">
+        <v>707</v>
+      </c>
+      <c r="B42" s="93" t="s">
         <v>660</v>
       </c>
-      <c r="C42" s="99"/>
-      <c r="D42" s="99"/>
-      <c r="E42" s="99"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="93"/>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>727</v>
-      </c>
-      <c r="B43" s="96" t="s">
+        <v>726</v>
+      </c>
+      <c r="B43" s="94" t="s">
         <v>663</v>
       </c>
-      <c r="C43" s="96"/>
-      <c r="D43" s="96"/>
-      <c r="E43" s="96"/>
+      <c r="C43" s="94"/>
+      <c r="D43" s="94"/>
+      <c r="E43" s="94"/>
     </row>
     <row r="45" spans="1:6" ht="19">
       <c r="A45" s="32" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1">
       <c r="A46" s="25" t="s">
+        <v>709</v>
+      </c>
+      <c r="B46" s="24" t="s">
         <v>710</v>
-      </c>
-      <c r="B46" s="24" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1">
       <c r="A47" s="84" t="s">
+        <v>711</v>
+      </c>
+      <c r="B47" s="80" t="s">
         <v>712</v>
-      </c>
-      <c r="B47" s="80" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1">
       <c r="A48" s="85" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B48" s="81" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15" customHeight="1">
       <c r="A49" s="85" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B49" s="81" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15" customHeight="1">
@@ -4394,7 +4394,7 @@
         <v>31</v>
       </c>
       <c r="B50" s="89" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15" customHeight="1">
@@ -4420,29 +4420,6 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertHyperlinks="0" selectLockedCells="1"/>
   <mergeCells count="32">
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B8:E8"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B23:E23"/>
@@ -4452,6 +4429,29 @@
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -4485,12 +4485,12 @@
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="51">
       <c r="A1" s="10" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -4498,14 +4498,14 @@
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1">
       <c r="A4" s="4" t="str">
         <f>CONCATENATE("| ",Schedule!A3," | ",Schedule!B3," | ",Schedule!C3," | ",TEXT(Schedule!D3,"mm/dd")," | ",Schedule!Q3," |")</f>
-        <v>| 1 | 1 | Th | 08/29 | **Course Overview &amp; Introduction to the Data Science Lifecycle** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session1.html) |</v>
+        <v>| 1 | 1 | Th | 08/29 | **Course Overview &amp; Introduction to the Data Science Lifecycle** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session1.html) |</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -4518,151 +4518,151 @@
     <row r="6" spans="1:4" ht="15" customHeight="1">
       <c r="A6" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A5," | ",Schedule!B5," | ",Schedule!C5," | ",TEXT(Schedule!D5,"mm/dd")," | ",Schedule!Q5," |")</f>
-        <v>| 2 | 2 | Tu | 09/03 | **Python Basics** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session2.html) &lt;br&gt; *Assignment 1 due 09/17* &lt;br&gt; |</v>
+        <v>| 2 | 2 | Tu | 09/03 | **Python Basics** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session2.html) &lt;br&gt; *Assignment 1 due 09/17* &lt;br&gt; |</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1">
       <c r="A7" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A6," | ",Schedule!B6," | ",Schedule!C6," | ",TEXT(Schedule!D6,"mm/dd")," | ",Schedule!Q6," |")</f>
-        <v>| 2 | 3 | Th | 09/05 | **Python Basics** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session3.html) |</v>
+        <v>| 2 | 3 | Th | 09/05 | **Python Basics** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session3.html) |</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1">
       <c r="A8" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A7," | ",Schedule!B7," | ",Schedule!C7," | ",TEXT(Schedule!D7,"mm/dd")," | ",Schedule!Q7," |")</f>
-        <v>| 3 | 4 | M | 09/09 | **Python conditionals, loops, functions, aggregating.** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session4.html) |</v>
+        <v>| 3 | 4 | M | 09/09 | **Python conditionals, loops, functions, aggregating.** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session4.html) |</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1">
       <c r="A9" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A8," | ",Schedule!B8," | ",Schedule!C8," | ",TEXT(Schedule!D8,"mm/dd")," | ",Schedule!Q8," |")</f>
-        <v>| 3 | 5 | Th | 09/12 | **Python conditionals, loops, functions, aggregating (continued)** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session5.html) &lt;br&gt; *Assignment 2 due 09/26* &lt;br&gt; |</v>
+        <v>| 3 | 5 | Th | 09/12 | **Python conditionals, loops, functions, aggregating (continued)** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session5.html) &lt;br&gt; *Assignment 2 due 09/26* &lt;br&gt; |</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1">
       <c r="A10" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A9," | ",Schedule!B9," | ",Schedule!C9," | ",TEXT(Schedule!D9,"mm/dd")," | ",Schedule!Q9," |")</f>
-        <v>| 4 | 6 | M | 09/16 | **Python visualization, data manipulation , and feature creation.** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session6.html) |</v>
+        <v>| 4 | 6 | M | 09/16 | **Python visualization, data manipulation , and feature creation.** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session6.html) |</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1">
       <c r="A11" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A10," | ",Schedule!B10," | ",Schedule!C10," | ",TEXT(Schedule!D10,"mm/dd")," | ",Schedule!Q10," |")</f>
-        <v>| 4 | 7 | Th | 09/19 | **Python visualization, data manipulation , and feature creation (continued)** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session7.html) |</v>
+        <v>| 4 | 7 | Th | 09/19 | **Python visualization, data manipulation , and feature creation (continued)** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session7.html) |</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1">
       <c r="A12" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A11," | ",Schedule!B11," | ",Schedule!C11," | ",TEXT(Schedule!D11,"mm/dd")," | ",Schedule!Q11," |")</f>
-        <v>| 5 | 8 | M | 09/23 | **Python and Unsupervised Learning** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session8.html) |</v>
+        <v>| 5 | 8 | M | 09/23 | **Python and Unsupervised Learning** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session8.html) |</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1">
       <c r="A13" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A12," | ",Schedule!B12," | ",Schedule!C12," | ",TEXT(Schedule!D12,"mm/dd")," | ",Schedule!Q12," |")</f>
-        <v>| 5 | 9 | Th | 09/26 | **Python and Unsupervised Learning** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session9.html) |</v>
+        <v>| 5 | 9 | Th | 09/26 | **Python and Unsupervised Learning** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session9.html) |</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1">
       <c r="A14" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A13," | ",Schedule!B13," | ",Schedule!C13," | ",TEXT(Schedule!D13,"mm/dd")," | ",Schedule!Q13," |")</f>
-        <v>| 6 | 10 | M | 09/30 | **Introduction to R** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session10.html) |</v>
+        <v>| 6 | 10 | M | 09/30 | **Introduction to R** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session10.html) |</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1">
       <c r="A15" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A14," | ",Schedule!B14," | ",Schedule!C14," | ",TEXT(Schedule!D14,"mm/dd")," | ",Schedule!Q14," |")</f>
-        <v>| 6 | 11 | Th | 10/03 | **Introduction to R** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session11.html) |</v>
+        <v>| 6 | 11 | Th | 10/03 | **Introduction to R** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session11.html) |</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1">
       <c r="A16" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A15," | ",Schedule!B15," | ",Schedule!C15," | ",TEXT(Schedule!D15,"mm/dd")," | ",Schedule!Q15," |")</f>
-        <v>| 7 | 12 | M | 10/07 | **Overview of Modeling** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session12.html) |</v>
+        <v>| 7 | 12 | M | 10/07 | **Overview of Modeling** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session12.html) |</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15" customHeight="1">
       <c r="A17" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A16," | ",Schedule!B16," | ",Schedule!C16," | ",TEXT(Schedule!D16,"mm/dd")," | ",Schedule!Q16," |")</f>
-        <v>| 7 | 13 | Th | 10/10 | **Overview of Modeling** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session13.html) |</v>
+        <v>| 7 | 13 | Th | 10/10 | **Overview of Modeling** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session13.html) |</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15" customHeight="1">
       <c r="A18" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A17," | ",Schedule!B17," | ",Schedule!C17," | ",TEXT(Schedule!D17,"mm/dd")," | ",Schedule!Q17," |")</f>
-        <v>| 8 | 14 | M | 10/14 | **Review/Kaggle Project Introduction** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session14.html) |</v>
+        <v>| 8 | 14 | M | 10/14 | **Review/Kaggle Project Introduction** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session14.html) |</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15" customHeight="1">
       <c r="A19" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A18," | ",Schedule!B18," | ",Schedule!C18," | ",TEXT(Schedule!D18,"mm/dd")," | ",Schedule!Q18," |")</f>
-        <v>| 8 | 15 | Th | 10/17 | **Midterm** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session15.html) |</v>
+        <v>| 8 | 15 | Th | 10/17 | **Midterm** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session15.html) |</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15" customHeight="1">
       <c r="A20" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A19," | ",Schedule!B19," | ",Schedule!C19," | ",TEXT(Schedule!D19,"mm/dd")," | ",Schedule!Q19," |")</f>
-        <v>| 9 | 16 | M | 10/21 | **Classification** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session16.html) |</v>
+        <v>| 9 | 16 | M | 10/21 | **Classification** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session16.html) |</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15" customHeight="1">
       <c r="A21" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A20," | ",Schedule!B20," | ",Schedule!C20," | ",TEXT(Schedule!D20,"mm/dd")," | ",Schedule!Q20," |")</f>
-        <v>| 9 | 17 | Th | 10/24 | **Classification** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session17.html) |</v>
+        <v>| 9 | 17 | Th | 10/24 | **Classification** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session17.html) |</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15" customHeight="1">
       <c r="A22" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A21," | ",Schedule!B21," | ",Schedule!C21," | ",TEXT(Schedule!D21,"mm/dd")," | ",Schedule!Q21," |")</f>
-        <v>| 10 | 18 | M | 10/28 | **Regression** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session18.html) |</v>
+        <v>| 10 | 18 | M | 10/28 | **Regression** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session18.html) |</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15" customHeight="1">
       <c r="A23" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A22," | ",Schedule!B22," | ",Schedule!C22," | ",TEXT(Schedule!D22,"mm/dd")," | ",Schedule!Q22," |")</f>
-        <v>| 10 | 19 | Th | 10/31 | **Regression** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session19.html) |</v>
+        <v>| 10 | 19 | Th | 10/31 | **Regression** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session19.html) |</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15" customHeight="1">
       <c r="A24" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A23," | ",Schedule!B23," | ",Schedule!C23," | ",TEXT(Schedule!D23,"mm/dd")," | ",Schedule!Q23," |")</f>
-        <v>| 11 | 20 | M | 11/04 | **Text and NLP** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session20.html) |</v>
+        <v>| 11 | 20 | M | 11/04 | **Text and NLP** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session20.html) |</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15" customHeight="1">
       <c r="A25" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A24," | ",Schedule!B24," | ",Schedule!C24," | ",TEXT(Schedule!D24,"mm/dd")," | ",Schedule!Q24," |")</f>
-        <v>| 11 | 21 | Th | 11/07 | **Text and NLP** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session21.html) |</v>
+        <v>| 11 | 21 | Th | 11/07 | **Text and NLP** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session21.html) |</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15" customHeight="1">
       <c r="A26" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A25," | ",Schedule!B25," | ",Schedule!C25," | ",TEXT(Schedule!D25,"mm/dd")," | ",Schedule!Q25," |")</f>
-        <v>| 12 | 22 | M | 11/11 | **Introduction to Big Data** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session22.html) |</v>
+        <v>| 12 | 22 | M | 11/11 | **Introduction to Big Data** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session22.html) |</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15" customHeight="1">
       <c r="A27" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A26," | ",Schedule!B26," | ",Schedule!C26," | ",TEXT(Schedule!D26,"mm/dd")," | ",Schedule!Q26," |")</f>
-        <v>| 12 | 23 | Th | 11/14 | **Time Series Analysis** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session23.html) |</v>
+        <v>| 12 | 23 | Th | 11/14 | **Time Series Analysis** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session23.html) |</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15" customHeight="1">
       <c r="A28" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A27," | ",Schedule!B27," | ",Schedule!C27," | ",TEXT(Schedule!D27,"mm/dd")," | ",Schedule!Q27," |")</f>
-        <v>| 13 | 24 | M | 11/18 | **Image Data and Deep Learning** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session24.html) |</v>
+        <v>| 13 | 24 | M | 11/18 | **Image Data and Deep Learning** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session24.html) |</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15" customHeight="1">
       <c r="A29" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A28," | ",Schedule!B28," | ",Schedule!C28," | ",TEXT(Schedule!D28,"mm/dd")," | ",Schedule!Q28," |")</f>
-        <v>| 13 | 25 | Th | 11/21 | **Image Data and Deep Learning** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session25.html) |</v>
+        <v>| 13 | 25 | Th | 11/21 | **Image Data and Deep Learning** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session25.html) |</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="16">
       <c r="A30" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A29," | ",Schedule!B29," | ",Schedule!C29," | ",TEXT(Schedule!D29,"mm/dd")," | ",Schedule!Q29," |")</f>
-        <v>| 14 | 26 | M | 11/25 | **Automl and Modeling Packages** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session26.html) |</v>
+        <v>| 14 | 26 | M | 11/25 | **Automl and Modeling Packages** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session26.html) |</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="16">
@@ -4674,19 +4674,19 @@
     <row r="32" spans="1:1" ht="16">
       <c r="A32" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A31," | ",Schedule!B31," | ",Schedule!C31," | ",TEXT(Schedule!D31,"mm/dd")," | ",Schedule!Q31," |")</f>
-        <v>| 15 | 27 | M | 12/02 | **Automl and Model Search** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session27.html) |</v>
+        <v>| 15 | 27 | M | 12/02 | **Automl and Model Search** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session27.html) |</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="16">
       <c r="A33" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A32," | ",Schedule!B32," | ",Schedule!C32," | ",TEXT(Schedule!D32,"mm/dd")," | ",Schedule!Q32," |")</f>
-        <v>| 15 | 28 | Th | 12/05 | **Final Presentations** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session28.html) |</v>
+        <v>| 15 | 28 | Th | 12/05 | **Final Presentations** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session28.html) |</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="16">
       <c r="A34" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A33," | ",Schedule!B33," | ",Schedule!C33," | ",TEXT(Schedule!D33,"mm/dd")," | ",Schedule!Q33," |")</f>
-        <v>| 16 | 29 | M | 12/09 | **Final Presentations** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session29.html) |</v>
+        <v>| 16 | 29 | M | 12/09 | **Final Presentations** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session29.html) |</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="16">
@@ -4716,17 +4716,17 @@
   <sheetData>
     <row r="1" spans="1:1" ht="51">
       <c r="A1" s="30" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="9" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="9" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -4756,19 +4756,19 @@
     <row r="8" spans="1:1">
       <c r="A8" s="29" t="str">
         <f>IF(Readings!F6="","",CONCATENATE("| [",Readings!A6,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Readings!A6,".html) | ",Readings!F6," |"))</f>
-        <v>| [2](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session2.html) | [Doing Data Science (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/9781449363871)&lt;br&gt;[Data Science for Business (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/business-intelligence/9781449374273)&lt;br&gt;[Command Line Cheat Sheet](https://www.git-tower.com/blog/command-line-cheat-sheet/)&lt;br&gt;[Assignment Process](/assignments)&lt;br&gt;[Running Jupyter locally](http://rpi.analyticsdojo.com/setup/anaconda/) |</v>
+        <v>| [2](https://rpi.analyticsdojo.com""/sessions/session2.html) | [Doing Data Science (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/9781449363871)&lt;br&gt;[Data Science for Business (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/business-intelligence/9781449374273)&lt;br&gt;[Command Line Cheat Sheet](https://www.git-tower.com/blog/command-line-cheat-sheet/)&lt;br&gt;[Assignment Process](/assignments)&lt;br&gt;[Running Jupyter locally](http://rpi.analyticsdojo.com/setup/anaconda/) |</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="29" t="str">
         <f>IF(Readings!F7="","",CONCATENATE("| [",Readings!A7,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Readings!A7,".html) | ",Readings!F7," |"))</f>
-        <v>| [4](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session4.html) | [Principles of Data Wrangling (Chapters 1-3)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/business-intelligence/9781491938911) |</v>
+        <v>| [4](https://rpi.analyticsdojo.com""/sessions/session4.html) | [Principles of Data Wrangling (Chapters 1-3)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/business-intelligence/9781491938911) |</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="29" t="str">
         <f>IF(Readings!F8="","",CONCATENATE("| [",Readings!A8,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Readings!A8,".html) | ",Readings!F8," |"))</f>
-        <v>| [6](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session6.html) | [Introduction to Machine Learning with Python (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/programming/machine-learning/9781449369880) |</v>
+        <v>| [6](https://rpi.analyticsdojo.com""/sessions/session6.html) | [Introduction to Machine Learning with Python (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/programming/machine-learning/9781449369880) |</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -4798,7 +4798,7 @@
     <row r="15" spans="1:1">
       <c r="A15" s="29" t="str">
         <f>IF(Readings!F13="","",CONCATENATE("| [",Readings!A13,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Readings!A13,".html) | ",Readings!F13," |"))</f>
-        <v>| [8](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session8.html) | [Install Tableau (free for students)](https://www.tableau.com/academic/students)&lt;br&gt;[Tableau - Data analytics for university students guide](https://www.tableau.com/university-students)&lt;br&gt;[Designing Great Visualizations](http://www.tableau.com/sites/default/files/media/designing-great-visualizations.pdf)&lt;br&gt;[Tableau getting Started](http://www.tableau.com/learn/tutorials/on-demand/getting-started)&lt;br&gt;[TED Talk](https://www.ted.com/talks/david_mccandless_the_beauty_of_data_visualization#t-304102) |</v>
+        <v>| [8](https://rpi.analyticsdojo.com""/sessions/session8.html) | [Install Tableau (free for students)](https://www.tableau.com/academic/students)&lt;br&gt;[Tableau - Data analytics for university students guide](https://www.tableau.com/university-students)&lt;br&gt;[Designing Great Visualizations](http://www.tableau.com/sites/default/files/media/designing-great-visualizations.pdf)&lt;br&gt;[Tableau getting Started](http://www.tableau.com/learn/tutorials/on-demand/getting-started)&lt;br&gt;[TED Talk](https://www.ted.com/talks/david_mccandless_the_beauty_of_data_visualization#t-304102) |</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -4810,7 +4810,7 @@
     <row r="17" spans="1:1">
       <c r="A17" s="29" t="str">
         <f>IF(Readings!F15="","",CONCATENATE("| [",Readings!A15,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Readings!A15,".html) | ",Readings!F15," |"))</f>
-        <v>| [10](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session10.html) | [R for Data Science (Chapters 1-3)](https://r4ds.had.co.nz)&lt;br&gt;[RStudio Cloud](https://rstudio.cloud) |</v>
+        <v>| [10](https://rpi.analyticsdojo.com""/sessions/session10.html) | [R for Data Science (Chapters 1-3)](https://r4ds.had.co.nz)&lt;br&gt;[RStudio Cloud](https://rstudio.cloud) |</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -4840,7 +4840,7 @@
     <row r="22" spans="1:1">
       <c r="A22" s="29" t="str">
         <f>IF(Readings!F20="","",CONCATENATE("| [",Readings!A20,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Readings!A20,".html) | ",Readings!F20," |"))</f>
-        <v>| [12](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session12.html) | [Cross Validation](https://www.analyticsvidhya.com/blog/2015/11/improve-model-performance-cross-validation-in-python-r/)&lt;br&gt;[The 10 Algorithms Machine Learning Engineers Need to Know](https://gab41.lab41.org/the-10-algorithms-machine-learning-engineers-need-to-know-f4bb63f5b2fa#.4rekzo2o1)&lt;br&gt;[15 Algorithms Machine Learning Engineers Must Need to Know](https://www.favouriteblog.com/15-algorithms-machine-learning-engineers/)&lt;br&gt;[A Tour of Machine Learning Algorithms](http://machinelearningmastery.com/a-tour-of-machine-learning-algorithms/)&lt;br&gt;[An Introduction to Machine Learning with Python (Chapter 2-3)](http://proquestcombo.safaribooksonline.com/book/programming/machine-learning/9781449369880) |</v>
+        <v>| [12](https://rpi.analyticsdojo.com""/sessions/session12.html) | [Cross Validation](https://www.analyticsvidhya.com/blog/2015/11/improve-model-performance-cross-validation-in-python-r/)&lt;br&gt;[The 10 Algorithms Machine Learning Engineers Need to Know](https://gab41.lab41.org/the-10-algorithms-machine-learning-engineers-need-to-know-f4bb63f5b2fa#.4rekzo2o1)&lt;br&gt;[15 Algorithms Machine Learning Engineers Must Need to Know](https://www.favouriteblog.com/15-algorithms-machine-learning-engineers/)&lt;br&gt;[A Tour of Machine Learning Algorithms](http://machinelearningmastery.com/a-tour-of-machine-learning-algorithms/)&lt;br&gt;[An Introduction to Machine Learning with Python (Chapter 2-3)](http://proquestcombo.safaribooksonline.com/book/programming/machine-learning/9781449369880) |</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -4864,7 +4864,7 @@
     <row r="26" spans="1:1">
       <c r="A26" s="29" t="str">
         <f>IF(Readings!F24="","",CONCATENATE("| [",Readings!A24,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Readings!A24,".html) | ",Readings!F24," |"))</f>
-        <v>| [20](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session20.html) | [The Seven Practice Areas of Text Mining](http://cdn2.hubspot.net/hubfs/2176909/Whitepaper_The_Seven_Practice_Areas_of_Text_Analytics_Chapter_2_Excerpt.pdf?t=1469213247687)&lt;br&gt;[The Amazing Power of Word Vectors](https://blog.acolyer.org/2016/04/21/the-amazing-power-of-word-vectors/)&lt;br&gt;[Bag of Words Tutorial](https://www.kaggle.com/c/word2vec-nlp-tutorial/details/part-1-for-beginners-bag-of-words)&lt;br&gt;[Word Vectors](https://www.kaggle.com/c/word2vec-nlp-tutorial/details/part-2-word-vectors) |</v>
+        <v>| [20](https://rpi.analyticsdojo.com""/sessions/session20.html) | [The Seven Practice Areas of Text Mining](http://cdn2.hubspot.net/hubfs/2176909/Whitepaper_The_Seven_Practice_Areas_of_Text_Analytics_Chapter_2_Excerpt.pdf?t=1469213247687)&lt;br&gt;[The Amazing Power of Word Vectors](https://blog.acolyer.org/2016/04/21/the-amazing-power-of-word-vectors/)&lt;br&gt;[Bag of Words Tutorial](https://www.kaggle.com/c/word2vec-nlp-tutorial/details/part-1-for-beginners-bag-of-words)&lt;br&gt;[Word Vectors](https://www.kaggle.com/c/word2vec-nlp-tutorial/details/part-2-word-vectors) |</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -4882,7 +4882,7 @@
     <row r="29" spans="1:1">
       <c r="A29" s="29" t="str">
         <f>IF(Readings!F27="","",CONCATENATE("| [",Readings!A27,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Readings!A27,".html) | ",Readings!F27," |"))</f>
-        <v>| [23](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session23.html) | [Introduction to Time Series](https://www.youtube.com/watch?v=d4Sn6ny_5LI)&lt;br&gt;[7 Ways Time Series Forecasting Differs from Machine Learning](https://www.datascience.com/blog/time-series-forecasting-machine-learning-differences)&lt;br&gt;[Aggregation Techniques and Cryptocurrencies](https://medium.com/python-data/time-series-aggregation-techniques-with-python-a-look-at-major-cryptocurrencies-a9eb1dd49c1b) |</v>
+        <v>| [23](https://rpi.analyticsdojo.com""/sessions/session23.html) | [Introduction to Time Series](https://www.youtube.com/watch?v=d4Sn6ny_5LI)&lt;br&gt;[7 Ways Time Series Forecasting Differs from Machine Learning](https://www.datascience.com/blog/time-series-forecasting-machine-learning-differences)&lt;br&gt;[Aggregation Techniques and Cryptocurrencies](https://medium.com/python-data/time-series-aggregation-techniques-with-python-a-look-at-major-cryptocurrencies-a9eb1dd49c1b) |</v>
       </c>
     </row>
   </sheetData>
@@ -4906,17 +4906,17 @@
   <sheetData>
     <row r="1" spans="1:4" ht="51">
       <c r="A1" s="10" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="9" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="9" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4946,7 +4946,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="29" t="str">
         <f>IF(Notebooks!G5="","",CONCATENATE("| [",Notebooks!A5,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A5,") | ",Notebooks!G5," |"))</f>
-        <v>| [1](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session1) | What is Jupyter? - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/01-what-is-jupyter.ipynb#scrollTo=mdFTkIqGwgOJ)&lt;br&gt;Notebook Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/02-notebook-basics.ipynb)&lt;br&gt;Running Code - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/03-running-code.ipynb)&lt;br&gt;Markdown - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/04-markdown.ipynb) |</v>
+        <v>| [1](https://rpi.analyticsdojo.com""/sessions/session1) | What is Jupyter? - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/01-what-is-jupyter.ipynb#scrollTo=mdFTkIqGwgOJ)&lt;br&gt;Notebook Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/02-notebook-basics.ipynb)&lt;br&gt;Running Code - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/03-running-code.ipynb)&lt;br&gt;Markdown - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/04-markdown.ipynb) |</v>
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
@@ -4982,7 +4982,7 @@
     <row r="11" spans="1:4">
       <c r="A11" s="29" t="str">
         <f>IF(Notebooks!G9="","",CONCATENATE("| [",Notebooks!A9,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A9,") | ",Notebooks!G9," |"))</f>
-        <v>| [2](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session2) | Python Overview - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/01-intro-python-overview.ipynb)&lt;br&gt;Basic Data Structures - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/02-intro-python-datastructures.ipynbhttps://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/03-intro-python-numpy.ipynb)&lt;br&gt;Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)&lt;br&gt;Pandas - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb) |</v>
+        <v>| [2](https://rpi.analyticsdojo.com""/sessions/session2) | Python Overview - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/01-intro-python-overview.ipynb)&lt;br&gt;Basic Data Structures - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/02-intro-python-datastructures.ipynbhttps://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/03-intro-python-numpy.ipynb)&lt;br&gt;Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)&lt;br&gt;Pandas - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb) |</v>
       </c>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
@@ -5036,7 +5036,7 @@
     <row r="17" spans="1:4">
       <c r="A17" s="29" t="str">
         <f>IF(Notebooks!G15="","",CONCATENATE("| [",Notebooks!A15,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A15,") | ",Notebooks!G15," |"))</f>
-        <v>| [4](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session4) | Conditional-Loops - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb)&lt;br&gt;Functions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/02-intro-python-functions.ipynb)&lt;br&gt;Null Values - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/03-intro-python-null-values.ipynb)&lt;br&gt;Groupby - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/04-intro-python-groupby.ipynb)&lt;br&gt;Kaggle Baseline - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/05-intro-kaggle-baseline.ipynb)&lt;br&gt;Assignment 2 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/hm-02/hm02.ipynb) |</v>
+        <v>| [4](https://rpi.analyticsdojo.com""/sessions/session4) | Conditional-Loops - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb)&lt;br&gt;Functions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/02-intro-python-functions.ipynb)&lt;br&gt;Null Values - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/03-intro-python-null-values.ipynb)&lt;br&gt;Groupby - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/04-intro-python-groupby.ipynb)&lt;br&gt;Kaggle Baseline - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/05-intro-kaggle-baseline.ipynb)&lt;br&gt;Assignment 2 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/hm-02/hm02.ipynb) |</v>
       </c>
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
@@ -5090,7 +5090,7 @@
     <row r="23" spans="1:4">
       <c r="A23" s="29" t="str">
         <f>IF(Notebooks!G21="","",CONCATENATE("| [",Notebooks!A21,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A21,") | ",Notebooks!G21," |"))</f>
-        <v>| [6](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session6) | Twitter - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb)&lt;br&gt;Web Mining - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/02_intro_python_webmining.ipynb)&lt;br&gt;Visualizations - Seaborn - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/03_visualization_python_seaborn.ipynb)&lt;br&gt;Strings - Regular Expressions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/04_strings_and_regular_expressions.ipynb)&lt;br&gt;Feature Dummies - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/05_features_dummies.ipynb)&lt;br&gt;Assignment 3 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/hm-03/hm03.ipynb) |</v>
+        <v>| [6](https://rpi.analyticsdojo.com""/sessions/session6) | Twitter - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb)&lt;br&gt;Web Mining - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/02_intro_python_webmining.ipynb)&lt;br&gt;Visualizations - Seaborn - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/03_visualization_python_seaborn.ipynb)&lt;br&gt;Strings - Regular Expressions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/04_strings_and_regular_expressions.ipynb)&lt;br&gt;Feature Dummies - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/05_features_dummies.ipynb)&lt;br&gt;Assignment 3 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/hm-03/hm03.ipynb) |</v>
       </c>
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
@@ -5153,7 +5153,7 @@
     <row r="30" spans="1:4">
       <c r="A30" s="29" t="str">
         <f>IF(Notebooks!G28="","",CONCATENATE("| [",Notebooks!A28,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A28,") | ",Notebooks!G28," |"))</f>
-        <v>| [9](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session9) | The Simplest Neural Network with Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)&lt;br&gt;Train Test Split - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb)&lt;br&gt;Introduction to Logistic Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/02-intro-logistic-knn.ipynb)&lt;br&gt;K Nearest Neighbor - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/03-knn.ipynb)&lt;br&gt;ROC and SVM - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/04-svm-roc.ipynb)&lt;br&gt;HM5A Visualization &amp; Screen Scraping - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05A.ipynb)&lt;br&gt;HM5B Intro Modeling - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05B.ipynb) |</v>
+        <v>| [9](https://rpi.analyticsdojo.com""/sessions/session9) | The Simplest Neural Network with Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)&lt;br&gt;Train Test Split - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb)&lt;br&gt;Introduction to Logistic Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/02-intro-logistic-knn.ipynb)&lt;br&gt;K Nearest Neighbor - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/03-knn.ipynb)&lt;br&gt;ROC and SVM - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/04-svm-roc.ipynb)&lt;br&gt;HM5A Visualization &amp; Screen Scraping - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05A.ipynb)&lt;br&gt;HM5B Intro Modeling - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05B.ipynb) |</v>
       </c>
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
@@ -5180,7 +5180,7 @@
     <row r="33" spans="1:4">
       <c r="A33" s="29" t="str">
         <f>IF(Notebooks!G31="","",CONCATENATE("| [",Notebooks!A31,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A31,") | ",Notebooks!G31," |"))</f>
-        <v>| [13](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session13) | Matrix Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/01-matrix-regression-gradient-decent-python.ipynb)&lt;br&gt;Regression Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/02-regression-boston-housing-python.ipynb)&lt;br&gt;Ridge and Lasso Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb) |</v>
+        <v>| [13](https://rpi.analyticsdojo.com""/sessions/session13) | Matrix Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/01-matrix-regression-gradient-decent-python.ipynb)&lt;br&gt;Regression Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/02-regression-boston-housing-python.ipynb)&lt;br&gt;Ridge and Lasso Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb) |</v>
       </c>
       <c r="B33" s="29"/>
       <c r="C33" s="29"/>
@@ -5285,17 +5285,17 @@
   <sheetData>
     <row r="1" spans="1:1" ht="51">
       <c r="A1" s="26" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="9" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="9" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -5313,7 +5313,7 @@
     <row r="6" spans="1:1">
       <c r="A6" s="29" t="str">
         <f>IF(ISBLANK(Schedule!H5),"",CONCATENATE("| ",Schedule!H5," | [",Schedule!B5,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Schedule!B5,".html) | ",TEXT(Schedule!D5+Configuration!$B$6, "mm/dd")," | ",Schedule!I5," | ",IF(ISBLANK(Schedule!K5),"*None*",Schedule!R5)," |"))</f>
-        <v>| 1 | [2](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session2.html) | 09/17 | This introductory assignment introduces the basics of loading files from a variety of formats.  | [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/hm-01/hm01.ipynb) |</v>
+        <v>| 1 | [2](https://rpi.analyticsdojo.com""/sessions/session2.html) | 09/17 | This introductory assignment introduces the basics of loading files from a variety of formats.  | [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/hm-01/hm01.ipynb) |</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -5331,7 +5331,7 @@
     <row r="9" spans="1:1">
       <c r="A9" s="29" t="str">
         <f>IF(ISBLANK(Schedule!H8),"",CONCATENATE("| ",Schedule!H8," | [",Schedule!B8,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Schedule!B8,".html) | ",TEXT(Schedule!D8+Configuration!$B$6, "mm/dd")," | ",Schedule!I8," | ",IF(ISBLANK(Schedule!K8),"*None*",Schedule!R8)," |"))</f>
-        <v>| 2 | [5](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session5.html) | 09/26 |  | [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/hm-02/hm02.ipynb) |</v>
+        <v>| 2 | [5](https://rpi.analyticsdojo.com""/sessions/session5.html) | 09/26 |  | [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/hm-02/hm02.ipynb) |</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -5550,7 +5550,7 @@
 ### Readings
 *None*
 ### Notebooks
-[What is Jupyter?](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/01-what-is-jupyter.html)&lt;br&gt;[Notebook Basics](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/02-notebook-basics.html)&lt;br&gt;[Running Code](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/03-running-code.html)&lt;br&gt;[Markdown](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/04-markdown.html)</v>
+[What is Jupyter?](https://rpi.analyticsdojo.com""/notebooks/01-what-is-jupyter.html)&lt;br&gt;[Notebook Basics](https://rpi.analyticsdojo.com""/notebooks/02-notebook-basics.html)&lt;br&gt;[Running Code](https://rpi.analyticsdojo.com""/notebooks/03-running-code.html)&lt;br&gt;[Markdown](https://rpi.analyticsdojo.com""/notebooks/04-markdown.html)</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>18</v>
@@ -5580,7 +5580,7 @@
 ### Readings
 *None*
 ### Notebooks
-[What is Jupyter?](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/01-what-is-jupyter.html)&lt;br&gt;[Notebook Basics](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/02-notebook-basics.html)&lt;br&gt;[Running Code](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/03-running-code.html)&lt;br&gt;[Markdown](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/04-markdown.html)</v>
+[What is Jupyter?](https://rpi.analyticsdojo.com""/notebooks/01-what-is-jupyter.html)&lt;br&gt;[Notebook Basics](https://rpi.analyticsdojo.com""/notebooks/02-notebook-basics.html)&lt;br&gt;[Running Code](https://rpi.analyticsdojo.com""/notebooks/03-running-code.html)&lt;br&gt;[Markdown](https://rpi.analyticsdojo.com""/notebooks/04-markdown.html)</v>
       </c>
       <c r="G2" s="26"/>
     </row>
@@ -5650,7 +5650,7 @@
 ### Readings
 [Doing Data Science (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/9781449363871)&lt;br&gt;[Data Science for Business (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/business-intelligence/9781449374273)&lt;br&gt;[Command Line Cheat Sheet](https://www.git-tower.com/blog/command-line-cheat-sheet/)&lt;br&gt;[Assignment Process](/assignments)&lt;br&gt;[Running Jupyter locally](http://rpi.analyticsdojo.com/setup/anaconda/)
 ### Notebooks
-[Python Overview](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/05-intro-python-overview.html)&lt;br&gt;[Basic Data Structures](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/06-intro-python-datastructures.html)&lt;br&gt;[Numpy](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/07-intro-python-numpy.html)&lt;br&gt;[Pandas](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+[Python Overview](https://rpi.analyticsdojo.com""/notebooks/05-intro-python-overview.html)&lt;br&gt;[Basic Data Structures](https://rpi.analyticsdojo.com""/notebooks/06-intro-python-datastructures.html)&lt;br&gt;[Numpy](https://rpi.analyticsdojo.com""/notebooks/07-intro-python-numpy.html)&lt;br&gt;[Pandas](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>18</v>
@@ -5681,7 +5681,7 @@
 ### Readings
 [Doing Data Science (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/9781449363871)&lt;br&gt;[Data Science for Business (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/business-intelligence/9781449374273)&lt;br&gt;[Command Line Cheat Sheet](https://www.git-tower.com/blog/command-line-cheat-sheet/)&lt;br&gt;[Assignment Process](/assignments)&lt;br&gt;[Running Jupyter locally](http://rpi.analyticsdojo.com/setup/anaconda/)
 ### Notebooks
-[Python Overview](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/05-intro-python-overview.html)&lt;br&gt;[Basic Data Structures](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/06-intro-python-datastructures.html)&lt;br&gt;[Numpy](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/07-intro-python-numpy.html)&lt;br&gt;[Pandas](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+[Python Overview](https://rpi.analyticsdojo.com""/notebooks/05-intro-python-overview.html)&lt;br&gt;[Basic Data Structures](https://rpi.analyticsdojo.com""/notebooks/06-intro-python-datastructures.html)&lt;br&gt;[Numpy](https://rpi.analyticsdojo.com""/notebooks/07-intro-python-numpy.html)&lt;br&gt;[Pandas](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="F4" s="31"/>
     </row>
@@ -5749,7 +5749,7 @@
 ### Readings
 [Principles of Data Wrangling (Chapters 1-3)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/business-intelligence/9781491938911)
 ### Notebooks
-[Conditional-Loops](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Groupby](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Kaggle Baseline](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 2](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+[Conditional-Loops](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Groupby](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Kaggle Baseline](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 2](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>18</v>
@@ -5778,7 +5778,7 @@
 ### Readings
 [Principles of Data Wrangling (Chapters 1-3)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/business-intelligence/9781491938911)
 ### Notebooks
-[Conditional-Loops](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Groupby](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Kaggle Baseline](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 2](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+[Conditional-Loops](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Groupby](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Kaggle Baseline](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 2](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1">
@@ -5845,7 +5845,7 @@
 ### Readings
 [Introduction to Machine Learning with Python (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/programming/machine-learning/9781449369880)
 ### Notebooks
-[Twitter](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Strings - Regular Expressions](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Feature Dummies](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 3](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+[Twitter](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Strings - Regular Expressions](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Feature Dummies](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 3](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>18</v>
@@ -5874,7 +5874,7 @@
 ### Readings
 [Introduction to Machine Learning with Python (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/programming/machine-learning/9781449369880)
 ### Notebooks
-[Twitter](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Strings - Regular Expressions](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Feature Dummies](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 3](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+[Twitter](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Strings - Regular Expressions](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Feature Dummies](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 3](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1">
@@ -5989,7 +5989,7 @@
 ### Readings
 *None*
 ### Notebooks
-[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[ROC and SVM](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5A Visualization &amp; Screen Scraping](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5B Intro Modeling](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[ROC and SVM](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5A Visualization &amp; Screen Scraping](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5B Intro Modeling](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>18</v>
@@ -6018,7 +6018,7 @@
 ### Readings
 *None*
 ### Notebooks
-[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[ROC and SVM](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5A Visualization &amp; Screen Scraping](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5B Intro Modeling](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[ROC and SVM](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5A Visualization &amp; Screen Scraping](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5B Intro Modeling](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1">
@@ -6181,7 +6181,7 @@
 ### Readings
 *None*
 ### Notebooks
-[Matrix Regression](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Regression Basics](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Ridge and Lasso Regression](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+[Matrix Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Regression Basics](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Ridge and Lasso Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>18</v>
@@ -6210,7 +6210,7 @@
 ### Readings
 *None*
 ### Notebooks
-[Matrix Regression](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Regression Basics](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Ridge and Lasso Regression](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+[Matrix Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Regression Basics](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Ridge and Lasso Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1">
@@ -7080,17 +7080,17 @@
   <sheetData>
     <row r="1" spans="1:1" ht="51">
       <c r="A1" s="10" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="9" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="9" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -28510,71 +28510,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="32" customFormat="1" ht="18.25" customHeight="1" thickBot="1">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="100" t="s">
-        <v>704</v>
-      </c>
-      <c r="C1" s="100" t="s">
+      <c r="B1" s="112" t="s">
+        <v>703</v>
+      </c>
+      <c r="C1" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="109" t="s">
+      <c r="D1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="107" t="s">
+      <c r="E1" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="111" t="s">
-        <v>843</v>
-      </c>
-      <c r="G1" s="112"/>
-      <c r="H1" s="113" t="s">
-        <v>853</v>
-      </c>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="116" t="s">
+      <c r="F1" s="105" t="s">
+        <v>842</v>
+      </c>
+      <c r="G1" s="106"/>
+      <c r="H1" s="107" t="s">
+        <v>852</v>
+      </c>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="110" t="s">
+        <v>850</v>
+      </c>
+      <c r="M1" s="110" t="s">
         <v>851</v>
       </c>
-      <c r="M1" s="116" t="s">
-        <v>852</v>
-      </c>
-      <c r="N1" s="104" t="s">
+      <c r="N1" s="116" t="s">
+        <v>882</v>
+      </c>
+      <c r="O1" s="117" t="s">
         <v>883</v>
       </c>
-      <c r="O1" s="105" t="s">
+      <c r="P1" s="100" t="s">
         <v>884</v>
       </c>
-      <c r="P1" s="106" t="s">
+      <c r="Q1" s="100" t="s">
         <v>885</v>
       </c>
-      <c r="Q1" s="106" t="s">
+      <c r="R1" s="100" t="s">
         <v>886</v>
       </c>
-      <c r="R1" s="106" t="s">
+      <c r="S1" s="100" t="s">
+        <v>880</v>
+      </c>
+      <c r="T1" s="100" t="s">
+        <v>881</v>
+      </c>
+      <c r="U1" s="100" t="s">
         <v>887</v>
       </c>
-      <c r="S1" s="106" t="s">
-        <v>881</v>
-      </c>
-      <c r="T1" s="106" t="s">
-        <v>882</v>
-      </c>
-      <c r="U1" s="106" t="s">
+      <c r="V1" s="100" t="s">
         <v>888</v>
       </c>
-      <c r="V1" s="106" t="s">
-        <v>889</v>
-      </c>
     </row>
     <row r="2" spans="1:22" s="32" customFormat="1" ht="22" thickTop="1" thickBot="1">
-      <c r="A2" s="103"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="108"/>
+      <c r="A2" s="115"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="102"/>
       <c r="F2" s="72" t="s">
         <v>4</v>
       </c>
@@ -28588,22 +28588,22 @@
         <v>7</v>
       </c>
       <c r="J2" s="76" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="K2" s="77" t="s">
-        <v>854</v>
-      </c>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="106"/>
-      <c r="U2" s="106"/>
-      <c r="V2" s="106"/>
+        <v>853</v>
+      </c>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="100"/>
+      <c r="V2" s="100"/>
     </row>
     <row r="3" spans="1:22" ht="68">
       <c r="A3" s="42">
@@ -28625,7 +28625,7 @@
         <v>101</v>
       </c>
       <c r="G3" s="48" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="L3" s="39" t="b">
         <v>0</v>
@@ -28639,7 +28639,7 @@
       </c>
       <c r="O3" s="56" t="str">
         <f>IF(B3&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B3,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session1.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com""/sessions/session1.html)</v>
       </c>
       <c r="P3" s="56" t="str">
         <f>IF(ISBLANK(H3),"",CONCATENATE(" &lt;br&gt; *",N3,"* &lt;br&gt;"))</f>
@@ -28647,7 +28647,7 @@
       </c>
       <c r="Q3" s="56" t="str">
         <f t="shared" ref="Q3:Q34" si="0">CONCATENATE("**",TRIM(E3),"** &lt;br&gt; ", O3, P3)</f>
-        <v>**Course Overview &amp; Introduction to the Data Science Lifecycle** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session1.html)</v>
+        <v>**Course Overview &amp; Introduction to the Data Science Lifecycle** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session1.html)</v>
       </c>
       <c r="R3" s="56" t="str">
         <f>CONCATENATE("[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",K3,")")</f>
@@ -28773,7 +28773,7 @@
         <v>100</v>
       </c>
       <c r="G5" s="51" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H5" s="42">
         <v>1</v>
@@ -28783,7 +28783,7 @@
       </c>
       <c r="J5" s="47"/>
       <c r="K5" s="67" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="L5" s="60" t="b">
         <v>1</v>
@@ -28797,7 +28797,7 @@
       </c>
       <c r="O5" s="56" t="str">
         <f>IF(B5&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B5,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session2.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com""/sessions/session2.html)</v>
       </c>
       <c r="P5" s="56" t="str">
         <f t="shared" si="1"/>
@@ -28805,7 +28805,7 @@
       </c>
       <c r="Q5" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Python Basics** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session2.html) &lt;br&gt; *Assignment 1 due 09/17* &lt;br&gt;</v>
+        <v>**Python Basics** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session2.html) &lt;br&gt; *Assignment 1 due 09/17* &lt;br&gt;</v>
       </c>
       <c r="R5" s="56" t="str">
         <f t="shared" si="2"/>
@@ -28875,7 +28875,7 @@
       </c>
       <c r="O6" s="56" t="str">
         <f>IF(B6&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B6,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session3.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com""/sessions/session3.html)</v>
       </c>
       <c r="P6" s="56" t="str">
         <f t="shared" si="1"/>
@@ -28883,7 +28883,7 @@
       </c>
       <c r="Q6" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Python Basics** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session3.html)</v>
+        <v>**Python Basics** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session3.html)</v>
       </c>
       <c r="R6" s="56" t="str">
         <f t="shared" si="2"/>
@@ -28956,7 +28956,7 @@
       </c>
       <c r="O7" s="56" t="str">
         <f>IF(B7&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B7,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session4.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com""/sessions/session4.html)</v>
       </c>
       <c r="P7" s="56" t="str">
         <f t="shared" si="1"/>
@@ -28964,7 +28964,7 @@
       </c>
       <c r="Q7" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Python conditionals, loops, functions, aggregating.** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session4.html)</v>
+        <v>**Python conditionals, loops, functions, aggregating.** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session4.html)</v>
       </c>
       <c r="R7" s="56" t="str">
         <f t="shared" si="2"/>
@@ -29032,7 +29032,7 @@
         <v>2</v>
       </c>
       <c r="K8" s="67" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="L8" s="39" t="b">
         <v>0</v>
@@ -29046,7 +29046,7 @@
       </c>
       <c r="O8" s="56" t="str">
         <f>IF(B8&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B8,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session5.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com""/sessions/session5.html)</v>
       </c>
       <c r="P8" s="56" t="str">
         <f t="shared" si="1"/>
@@ -29054,7 +29054,7 @@
       </c>
       <c r="Q8" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Python conditionals, loops, functions, aggregating (continued)** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session5.html) &lt;br&gt; *Assignment 2 due 09/26* &lt;br&gt;</v>
+        <v>**Python conditionals, loops, functions, aggregating (continued)** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session5.html) &lt;br&gt; *Assignment 2 due 09/26* &lt;br&gt;</v>
       </c>
       <c r="R8" s="56" t="str">
         <f t="shared" si="2"/>
@@ -29137,7 +29137,7 @@
       </c>
       <c r="O9" s="56" t="str">
         <f>IF(B9&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B9,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session6.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com""/sessions/session6.html)</v>
       </c>
       <c r="P9" s="56" t="str">
         <f t="shared" si="1"/>
@@ -29145,7 +29145,7 @@
       </c>
       <c r="Q9" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Python visualization, data manipulation , and feature creation.** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session6.html)</v>
+        <v>**Python visualization, data manipulation , and feature creation.** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session6.html)</v>
       </c>
       <c r="R9" s="56" t="str">
         <f t="shared" si="2"/>
@@ -29219,7 +29219,7 @@
       </c>
       <c r="G10" s="46"/>
       <c r="K10" s="67" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="L10" s="39" t="b">
         <v>0</v>
@@ -29233,7 +29233,7 @@
       </c>
       <c r="O10" s="56" t="str">
         <f>IF(B10&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B10,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session7.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com""/sessions/session7.html)</v>
       </c>
       <c r="P10" s="56" t="str">
         <f t="shared" si="1"/>
@@ -29241,7 +29241,7 @@
       </c>
       <c r="Q10" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Python visualization, data manipulation , and feature creation (continued)** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session7.html)</v>
+        <v>**Python visualization, data manipulation , and feature creation (continued)** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session7.html)</v>
       </c>
       <c r="R10" s="56" t="str">
         <f t="shared" si="2"/>
@@ -29311,7 +29311,7 @@
         <v>43731</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F11" s="47" t="s">
         <v>636</v>
@@ -29329,7 +29329,7 @@
       </c>
       <c r="O11" s="56" t="str">
         <f>IF(B11&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B11,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session8.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com""/sessions/session8.html)</v>
       </c>
       <c r="P11" s="56" t="str">
         <f t="shared" si="1"/>
@@ -29337,7 +29337,7 @@
       </c>
       <c r="Q11" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Python and Unsupervised Learning** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session8.html)</v>
+        <v>**Python and Unsupervised Learning** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session8.html)</v>
       </c>
       <c r="R11" s="56" t="str">
         <f t="shared" si="2"/>
@@ -29410,7 +29410,7 @@
         <v>43734</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F12" s="47" t="s">
         <v>99</v>
@@ -29428,7 +29428,7 @@
       </c>
       <c r="O12" s="56" t="str">
         <f>IF(B12&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B12,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session9.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com""/sessions/session9.html)</v>
       </c>
       <c r="P12" s="56" t="str">
         <f t="shared" si="1"/>
@@ -29436,7 +29436,7 @@
       </c>
       <c r="Q12" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Python and Unsupervised Learning** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session9.html)</v>
+        <v>**Python and Unsupervised Learning** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session9.html)</v>
       </c>
       <c r="R12" s="56" t="str">
         <f t="shared" si="2"/>
@@ -29530,7 +29530,7 @@
       </c>
       <c r="O13" s="56" t="str">
         <f>IF(B13&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B13,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session10.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com""/sessions/session10.html)</v>
       </c>
       <c r="P13" s="56" t="str">
         <f t="shared" si="1"/>
@@ -29538,7 +29538,7 @@
       </c>
       <c r="Q13" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Introduction to R** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session10.html)</v>
+        <v>**Introduction to R** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session10.html)</v>
       </c>
       <c r="R13" s="56" t="str">
         <f t="shared" si="2"/>
@@ -29634,7 +29634,7 @@
       </c>
       <c r="O14" s="56" t="str">
         <f>IF(B14&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B14,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session11.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com""/sessions/session11.html)</v>
       </c>
       <c r="P14" s="56" t="str">
         <f t="shared" si="1"/>
@@ -29642,7 +29642,7 @@
       </c>
       <c r="Q14" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Introduction to R** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session11.html)</v>
+        <v>**Introduction to R** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session11.html)</v>
       </c>
       <c r="R14" s="56" t="str">
         <f t="shared" si="2"/>
@@ -29742,7 +29742,7 @@
       </c>
       <c r="O15" s="56" t="str">
         <f>IF(B15&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B15,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session12.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com""/sessions/session12.html)</v>
       </c>
       <c r="P15" s="56" t="str">
         <f t="shared" si="1"/>
@@ -29750,7 +29750,7 @@
       </c>
       <c r="Q15" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Overview of Modeling** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session12.html)</v>
+        <v>**Overview of Modeling** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session12.html)</v>
       </c>
       <c r="R15" s="56" t="str">
         <f t="shared" si="2"/>
@@ -29852,7 +29852,7 @@
       </c>
       <c r="O16" s="56" t="str">
         <f>IF(B16&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B16,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session13.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com""/sessions/session13.html)</v>
       </c>
       <c r="P16" s="56" t="str">
         <f t="shared" si="1"/>
@@ -29860,7 +29860,7 @@
       </c>
       <c r="Q16" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Overview of Modeling** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session13.html)</v>
+        <v>**Overview of Modeling** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session13.html)</v>
       </c>
       <c r="R16" s="56" t="str">
         <f t="shared" si="2"/>
@@ -29964,7 +29964,7 @@
       </c>
       <c r="O17" s="56" t="str">
         <f>IF(B17&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B17,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session14.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com""/sessions/session14.html)</v>
       </c>
       <c r="P17" s="56" t="str">
         <f t="shared" si="1"/>
@@ -29972,7 +29972,7 @@
       </c>
       <c r="Q17" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Review/Kaggle Project Introduction** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session14.html)</v>
+        <v>**Review/Kaggle Project Introduction** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session14.html)</v>
       </c>
       <c r="R17" s="56" t="str">
         <f t="shared" si="2"/>
@@ -30077,7 +30077,7 @@
       </c>
       <c r="O18" s="56" t="str">
         <f>IF(B18&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B18,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session15.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com""/sessions/session15.html)</v>
       </c>
       <c r="P18" s="56" t="str">
         <f t="shared" si="1"/>
@@ -30085,7 +30085,7 @@
       </c>
       <c r="Q18" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Midterm** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session15.html)</v>
+        <v>**Midterm** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session15.html)</v>
       </c>
       <c r="R18" s="56" t="str">
         <f t="shared" si="2"/>
@@ -30197,7 +30197,7 @@
       </c>
       <c r="O19" s="56" t="str">
         <f>IF(B19&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B19,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session16.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com""/sessions/session16.html)</v>
       </c>
       <c r="P19" s="56" t="str">
         <f t="shared" si="1"/>
@@ -30205,7 +30205,7 @@
       </c>
       <c r="Q19" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Classification** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session16.html)</v>
+        <v>**Classification** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session16.html)</v>
       </c>
       <c r="R19" s="56" t="str">
         <f t="shared" si="2"/>
@@ -30320,7 +30320,7 @@
       </c>
       <c r="O20" s="56" t="str">
         <f>IF(B20&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B20,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session17.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com""/sessions/session17.html)</v>
       </c>
       <c r="P20" s="56" t="str">
         <f t="shared" si="1"/>
@@ -30328,7 +30328,7 @@
       </c>
       <c r="Q20" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Classification** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session17.html)</v>
+        <v>**Classification** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session17.html)</v>
       </c>
       <c r="R20" s="56" t="str">
         <f t="shared" si="2"/>
@@ -30446,7 +30446,7 @@
       </c>
       <c r="O21" s="56" t="str">
         <f>IF(B21&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B21,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session18.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com""/sessions/session18.html)</v>
       </c>
       <c r="P21" s="56" t="str">
         <f t="shared" si="1"/>
@@ -30454,7 +30454,7 @@
       </c>
       <c r="Q21" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Regression** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session18.html)</v>
+        <v>**Regression** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session18.html)</v>
       </c>
       <c r="R21" s="56" t="str">
         <f t="shared" si="2"/>
@@ -30575,7 +30575,7 @@
       </c>
       <c r="O22" s="56" t="str">
         <f>IF(B22&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B22,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session19.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com""/sessions/session19.html)</v>
       </c>
       <c r="P22" s="56" t="str">
         <f t="shared" si="1"/>
@@ -30583,7 +30583,7 @@
       </c>
       <c r="Q22" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Regression** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session19.html)</v>
+        <v>**Regression** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session19.html)</v>
       </c>
       <c r="R22" s="56" t="str">
         <f t="shared" si="2"/>
@@ -30707,7 +30707,7 @@
       </c>
       <c r="O23" s="56" t="str">
         <f>IF(B23&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B23,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session20.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com""/sessions/session20.html)</v>
       </c>
       <c r="P23" s="56" t="str">
         <f t="shared" si="1"/>
@@ -30715,7 +30715,7 @@
       </c>
       <c r="Q23" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Text and NLP** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session20.html)</v>
+        <v>**Text and NLP** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session20.html)</v>
       </c>
       <c r="R23" s="56" t="str">
         <f t="shared" si="2"/>
@@ -30842,7 +30842,7 @@
       </c>
       <c r="O24" s="56" t="str">
         <f>IF(B24&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B24,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session21.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com""/sessions/session21.html)</v>
       </c>
       <c r="P24" s="56" t="str">
         <f t="shared" si="1"/>
@@ -30850,7 +30850,7 @@
       </c>
       <c r="Q24" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Text and NLP** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session21.html)</v>
+        <v>**Text and NLP** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session21.html)</v>
       </c>
       <c r="R24" s="56" t="str">
         <f t="shared" si="2"/>
@@ -30980,7 +30980,7 @@
       </c>
       <c r="O25" s="56" t="str">
         <f>IF(B25&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B25,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session22.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com""/sessions/session22.html)</v>
       </c>
       <c r="P25" s="56" t="str">
         <f t="shared" si="1"/>
@@ -30988,7 +30988,7 @@
       </c>
       <c r="Q25" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Introduction to Big Data** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session22.html)</v>
+        <v>**Introduction to Big Data** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session22.html)</v>
       </c>
       <c r="R25" s="56" t="str">
         <f t="shared" si="2"/>
@@ -31121,7 +31121,7 @@
       </c>
       <c r="O26" s="56" t="str">
         <f>IF(B26&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B26,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session23.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com""/sessions/session23.html)</v>
       </c>
       <c r="P26" s="56" t="str">
         <f t="shared" si="1"/>
@@ -31129,7 +31129,7 @@
       </c>
       <c r="Q26" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Time Series Analysis** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session23.html)</v>
+        <v>**Time Series Analysis** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session23.html)</v>
       </c>
       <c r="R26" s="56" t="str">
         <f t="shared" si="2"/>
@@ -31265,7 +31265,7 @@
       </c>
       <c r="O27" s="56" t="str">
         <f>IF(B27&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B27,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session24.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com""/sessions/session24.html)</v>
       </c>
       <c r="P27" s="56" t="str">
         <f t="shared" si="1"/>
@@ -31273,7 +31273,7 @@
       </c>
       <c r="Q27" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Image Data and Deep Learning** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session24.html)</v>
+        <v>**Image Data and Deep Learning** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session24.html)</v>
       </c>
       <c r="R27" s="56" t="str">
         <f t="shared" si="2"/>
@@ -31412,7 +31412,7 @@
       </c>
       <c r="O28" s="56" t="str">
         <f>IF(B28&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B28,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session25.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com""/sessions/session25.html)</v>
       </c>
       <c r="P28" s="56" t="str">
         <f t="shared" si="1"/>
@@ -31420,7 +31420,7 @@
       </c>
       <c r="Q28" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Image Data and Deep Learning** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session25.html)</v>
+        <v>**Image Data and Deep Learning** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session25.html)</v>
       </c>
       <c r="R28" s="56" t="str">
         <f t="shared" si="2"/>
@@ -31562,7 +31562,7 @@
       </c>
       <c r="O29" s="56" t="str">
         <f>IF(B29&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B29,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session26.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com""/sessions/session26.html)</v>
       </c>
       <c r="P29" s="56" t="str">
         <f t="shared" si="1"/>
@@ -31570,7 +31570,7 @@
       </c>
       <c r="Q29" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Automl and Modeling Packages** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session26.html)</v>
+        <v>**Automl and Modeling Packages** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session26.html)</v>
       </c>
       <c r="R29" s="56" t="str">
         <f t="shared" si="2"/>
@@ -31860,7 +31860,7 @@
       </c>
       <c r="O31" s="56" t="str">
         <f>IF(B31&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B31,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session27.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com""/sessions/session27.html)</v>
       </c>
       <c r="P31" s="56" t="str">
         <f t="shared" si="1"/>
@@ -31868,7 +31868,7 @@
       </c>
       <c r="Q31" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Automl and Model Search** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session27.html)</v>
+        <v>**Automl and Model Search** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session27.html)</v>
       </c>
       <c r="R31" s="56" t="str">
         <f t="shared" si="2"/>
@@ -32014,7 +32014,7 @@
       </c>
       <c r="O32" s="56" t="str">
         <f>IF(B32&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B32,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session28.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com""/sessions/session28.html)</v>
       </c>
       <c r="P32" s="56" t="str">
         <f t="shared" si="1"/>
@@ -32022,7 +32022,7 @@
       </c>
       <c r="Q32" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Final Presentations** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session28.html)</v>
+        <v>**Final Presentations** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session28.html)</v>
       </c>
       <c r="R32" s="56" t="str">
         <f t="shared" si="2"/>
@@ -32170,7 +32170,7 @@
       </c>
       <c r="O33" s="56" t="str">
         <f>IF(B33&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B33,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session29.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com""/sessions/session29.html)</v>
       </c>
       <c r="P33" s="56" t="str">
         <f t="shared" si="1"/>
@@ -32178,7 +32178,7 @@
       </c>
       <c r="Q33" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Final Presentations** &lt;br&gt; [more](https://rpi.analyticsdojo.com/course-intro-ml-app/sessions/session29.html)</v>
+        <v>**Final Presentations** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session29.html)</v>
       </c>
       <c r="R33" s="56" t="str">
         <f t="shared" si="2"/>
@@ -46503,12 +46503,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
@@ -46516,11 +46515,12 @@
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -46548,7 +46548,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="32" customFormat="1" ht="19">
       <c r="A1" s="33" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B1" s="32" t="s">
         <v>6</v>
@@ -46557,13 +46557,13 @@
         <v>9</v>
       </c>
       <c r="D1" s="55" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1" s="55" t="s">
         <v>878</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="F1" s="55" t="s">
         <v>879</v>
-      </c>
-      <c r="F1" s="55" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17">
@@ -46571,10 +46571,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D2" s="56" t="str">
         <f t="shared" ref="D2:D4" si="0">CONCATENATE("[",B2,"](",C2,")")</f>
@@ -46598,10 +46598,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D3" s="56" t="str">
         <f t="shared" si="0"/>
@@ -46625,10 +46625,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D4" s="56" t="str">
         <f t="shared" si="0"/>
@@ -46652,10 +46652,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D5" s="56" t="str">
         <f>CONCATENATE("[",B5,"](",C5,")")</f>
@@ -46675,10 +46675,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D6" s="56" t="str">
         <f t="shared" ref="D6:D27" si="3">CONCATENATE("[",B6,"](",C6,")")</f>
@@ -46698,10 +46698,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D7" s="56" t="str">
         <f t="shared" si="3"/>
@@ -46721,10 +46721,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D8" s="56" t="str">
         <f t="shared" si="3"/>
@@ -46744,10 +46744,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D9" s="56" t="str">
         <f t="shared" si="3"/>
@@ -46767,10 +46767,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="35" t="s">
+        <v>757</v>
+      </c>
+      <c r="C10" s="29" t="s">
         <v>758</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>759</v>
       </c>
       <c r="D10" s="56" t="str">
         <f t="shared" si="3"/>
@@ -46790,10 +46790,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="35" t="s">
+        <v>760</v>
+      </c>
+      <c r="C11" s="29" t="s">
         <v>761</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>762</v>
       </c>
       <c r="D11" s="56" t="str">
         <f t="shared" si="3"/>
@@ -46813,10 +46813,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D12" s="56" t="str">
         <f t="shared" si="3"/>
@@ -46836,10 +46836,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="35" t="s">
+        <v>764</v>
+      </c>
+      <c r="C13" s="29" t="s">
         <v>765</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>766</v>
       </c>
       <c r="D13" s="56" t="str">
         <f t="shared" si="3"/>
@@ -46859,10 +46859,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D14" s="56" t="str">
         <f t="shared" si="3"/>
@@ -46882,10 +46882,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D15" s="56" t="str">
         <f t="shared" si="3"/>
@@ -46905,10 +46905,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D16" s="56" t="str">
         <f t="shared" si="3"/>
@@ -46928,10 +46928,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D17" s="56" t="str">
         <f t="shared" si="3"/>
@@ -46951,10 +46951,10 @@
         <v>12</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D18" s="56" t="str">
         <f t="shared" si="3"/>
@@ -46974,10 +46974,10 @@
         <v>12</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D19" s="56" t="str">
         <f t="shared" si="3"/>
@@ -46997,10 +46997,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D20" s="56" t="str">
         <f t="shared" si="3"/>
@@ -47020,10 +47020,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D21" s="56" t="str">
         <f t="shared" si="3"/>
@@ -47043,10 +47043,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D22" s="56" t="str">
         <f t="shared" si="3"/>
@@ -47066,10 +47066,10 @@
         <v>20</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D23" s="56" t="str">
         <f t="shared" si="3"/>
@@ -47089,10 +47089,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D24" s="56" t="str">
         <f t="shared" si="3"/>
@@ -47112,10 +47112,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D25" s="56" t="str">
         <f t="shared" si="3"/>
@@ -47135,10 +47135,10 @@
         <v>23</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D26" s="56" t="str">
         <f t="shared" si="3"/>
@@ -47158,10 +47158,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D27" s="56" t="str">
         <f t="shared" si="3"/>
@@ -47214,36 +47214,36 @@
   <sheetData>
     <row r="1" spans="1:12" s="32" customFormat="1" ht="19">
       <c r="A1" s="33" t="s">
+        <v>727</v>
+      </c>
+      <c r="B1" s="32" t="s">
         <v>728</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>729</v>
-      </c>
       <c r="C1" s="32" t="s">
+        <v>859</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>860</v>
       </c>
-      <c r="D1" s="32" t="s">
-        <v>861</v>
-      </c>
       <c r="E1" s="55" t="s">
+        <v>877</v>
+      </c>
+      <c r="F1" s="55" t="s">
         <v>878</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="G1" s="55" t="s">
         <v>879</v>
-      </c>
-      <c r="G1" s="55" t="s">
-        <v>880</v>
       </c>
       <c r="H1" s="55"/>
       <c r="I1" s="55"/>
       <c r="J1" s="88" t="s">
+        <v>899</v>
+      </c>
+      <c r="K1" s="88" t="s">
         <v>900</v>
       </c>
-      <c r="K1" s="88" t="s">
+      <c r="L1" s="88" t="s">
         <v>901</v>
-      </c>
-      <c r="L1" s="88" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="17">
@@ -47251,13 +47251,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E2" s="56" t="str">
         <f>CONCATENATE(B2," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D2,")")</f>
@@ -47289,11 +47289,11 @@
       </c>
       <c r="J2" s="56" t="str">
         <f>IF(ISBLANK(C2),"",CONCATENATE("[",B2,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C2,".html)"))</f>
-        <v>[What is Jupyter?](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/01-what-is-jupyter.html)</v>
+        <v>[What is Jupyter?](https://rpi.analyticsdojo.com""/notebooks/01-what-is-jupyter.html)</v>
       </c>
       <c r="K2" s="56" t="str">
         <f>IF(A2=A1,K1&amp;"&lt;br&gt;"&amp;J2,J2)</f>
-        <v>[What is Jupyter?](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/01-what-is-jupyter.html)</v>
+        <v>[What is Jupyter?](https://rpi.analyticsdojo.com""/notebooks/01-what-is-jupyter.html)</v>
       </c>
       <c r="L2" s="56" t="str">
         <f>IF(A2&lt;&gt;A3,K2,"")</f>
@@ -47305,13 +47305,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E3" s="56" t="str">
         <f t="shared" ref="E3:E5" si="0">CONCATENATE(B3," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D3,")")</f>
@@ -47346,11 +47346,11 @@
       </c>
       <c r="J3" s="56" t="str">
         <f>IF(ISBLANK(C3),"",CONCATENATE("[",B3,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C3,".html)"))</f>
-        <v>[Notebook Basics](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/02-notebook-basics.html)</v>
+        <v>[Notebook Basics](https://rpi.analyticsdojo.com""/notebooks/02-notebook-basics.html)</v>
       </c>
       <c r="K3" s="56" t="str">
         <f t="shared" ref="K3:K33" si="5">IF(A3=A2,K2&amp;"&lt;br&gt;"&amp;J3,J3)</f>
-        <v>[What is Jupyter?](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/01-what-is-jupyter.html)&lt;br&gt;[Notebook Basics](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/02-notebook-basics.html)</v>
+        <v>[What is Jupyter?](https://rpi.analyticsdojo.com""/notebooks/01-what-is-jupyter.html)&lt;br&gt;[Notebook Basics](https://rpi.analyticsdojo.com""/notebooks/02-notebook-basics.html)</v>
       </c>
       <c r="L3" s="56" t="str">
         <f t="shared" ref="L3:L32" si="6">IF(A3&lt;&gt;A4,K3,"")</f>
@@ -47362,13 +47362,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E4" s="56" t="str">
         <f t="shared" si="0"/>
@@ -47403,11 +47403,11 @@
       </c>
       <c r="J4" s="56" t="str">
         <f>IF(ISBLANK(C4),"",CONCATENATE("[",B4,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C4,".html)"))</f>
-        <v>[Running Code](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/03-running-code.html)</v>
+        <v>[Running Code](https://rpi.analyticsdojo.com""/notebooks/03-running-code.html)</v>
       </c>
       <c r="K4" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[What is Jupyter?](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/01-what-is-jupyter.html)&lt;br&gt;[Notebook Basics](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/02-notebook-basics.html)&lt;br&gt;[Running Code](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/03-running-code.html)</v>
+        <v>[What is Jupyter?](https://rpi.analyticsdojo.com""/notebooks/01-what-is-jupyter.html)&lt;br&gt;[Notebook Basics](https://rpi.analyticsdojo.com""/notebooks/02-notebook-basics.html)&lt;br&gt;[Running Code](https://rpi.analyticsdojo.com""/notebooks/03-running-code.html)</v>
       </c>
       <c r="L4" s="56" t="str">
         <f t="shared" si="6"/>
@@ -47422,10 +47422,10 @@
         <v>13</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E5" s="56" t="str">
         <f t="shared" si="0"/>
@@ -47463,15 +47463,15 @@
       </c>
       <c r="J5" s="56" t="str">
         <f>IF(ISBLANK(C5),"",CONCATENATE("[",B5,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C5,".html)"))</f>
-        <v>[Markdown](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/04-markdown.html)</v>
+        <v>[Markdown](https://rpi.analyticsdojo.com""/notebooks/04-markdown.html)</v>
       </c>
       <c r="K5" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[What is Jupyter?](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/01-what-is-jupyter.html)&lt;br&gt;[Notebook Basics](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/02-notebook-basics.html)&lt;br&gt;[Running Code](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/03-running-code.html)&lt;br&gt;[Markdown](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/04-markdown.html)</v>
+        <v>[What is Jupyter?](https://rpi.analyticsdojo.com""/notebooks/01-what-is-jupyter.html)&lt;br&gt;[Notebook Basics](https://rpi.analyticsdojo.com""/notebooks/02-notebook-basics.html)&lt;br&gt;[Running Code](https://rpi.analyticsdojo.com""/notebooks/03-running-code.html)&lt;br&gt;[Markdown](https://rpi.analyticsdojo.com""/notebooks/04-markdown.html)</v>
       </c>
       <c r="L5" s="56" t="str">
         <f t="shared" si="6"/>
-        <v>[What is Jupyter?](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/01-what-is-jupyter.html)&lt;br&gt;[Notebook Basics](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/02-notebook-basics.html)&lt;br&gt;[Running Code](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/03-running-code.html)&lt;br&gt;[Markdown](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/04-markdown.html)</v>
+        <v>[What is Jupyter?](https://rpi.analyticsdojo.com""/notebooks/01-what-is-jupyter.html)&lt;br&gt;[Notebook Basics](https://rpi.analyticsdojo.com""/notebooks/02-notebook-basics.html)&lt;br&gt;[Running Code](https://rpi.analyticsdojo.com""/notebooks/03-running-code.html)&lt;br&gt;[Markdown](https://rpi.analyticsdojo.com""/notebooks/04-markdown.html)</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="17">
@@ -47479,13 +47479,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E6" s="56" t="str">
         <f t="shared" ref="E6:E33" si="8">CONCATENATE(B6," - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",D6,")")</f>
@@ -47526,11 +47526,11 @@
       </c>
       <c r="J6" s="56" t="str">
         <f>IF(ISBLANK(C6),"",CONCATENATE("[",B6,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C6,".html)"))</f>
-        <v>[Python Overview](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/05-intro-python-overview.html)</v>
+        <v>[Python Overview](https://rpi.analyticsdojo.com""/notebooks/05-intro-python-overview.html)</v>
       </c>
       <c r="K6" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Python Overview](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/05-intro-python-overview.html)</v>
+        <v>[Python Overview](https://rpi.analyticsdojo.com""/notebooks/05-intro-python-overview.html)</v>
       </c>
       <c r="L6" s="56" t="str">
         <f t="shared" si="6"/>
@@ -47542,13 +47542,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E7" s="56" t="str">
         <f t="shared" si="8"/>
@@ -47592,11 +47592,11 @@
       </c>
       <c r="J7" s="56" t="str">
         <f>IF(ISBLANK(C7),"",CONCATENATE("[",B7,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C7,".html)"))</f>
-        <v>[Basic Data Structures](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/06-intro-python-datastructures.html)</v>
+        <v>[Basic Data Structures](https://rpi.analyticsdojo.com""/notebooks/06-intro-python-datastructures.html)</v>
       </c>
       <c r="K7" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Python Overview](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/05-intro-python-overview.html)&lt;br&gt;[Basic Data Structures](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/06-intro-python-datastructures.html)</v>
+        <v>[Python Overview](https://rpi.analyticsdojo.com""/notebooks/05-intro-python-overview.html)&lt;br&gt;[Basic Data Structures](https://rpi.analyticsdojo.com""/notebooks/06-intro-python-datastructures.html)</v>
       </c>
       <c r="L7" s="56" t="str">
         <f t="shared" si="6"/>
@@ -47608,13 +47608,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D8" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E8" s="56" t="str">
         <f t="shared" si="8"/>
@@ -47661,11 +47661,11 @@
       </c>
       <c r="J8" s="56" t="str">
         <f>IF(ISBLANK(C8),"",CONCATENATE("[",B8,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C8,".html)"))</f>
-        <v>[Numpy](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/07-intro-python-numpy.html)</v>
+        <v>[Numpy](https://rpi.analyticsdojo.com""/notebooks/07-intro-python-numpy.html)</v>
       </c>
       <c r="K8" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Python Overview](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/05-intro-python-overview.html)&lt;br&gt;[Basic Data Structures](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/06-intro-python-datastructures.html)&lt;br&gt;[Numpy](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/07-intro-python-numpy.html)</v>
+        <v>[Python Overview](https://rpi.analyticsdojo.com""/notebooks/05-intro-python-overview.html)&lt;br&gt;[Basic Data Structures](https://rpi.analyticsdojo.com""/notebooks/06-intro-python-datastructures.html)&lt;br&gt;[Numpy](https://rpi.analyticsdojo.com""/notebooks/07-intro-python-numpy.html)</v>
       </c>
       <c r="L8" s="56" t="str">
         <f t="shared" si="6"/>
@@ -47677,13 +47677,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D9" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E9" s="56" t="str">
         <f t="shared" si="8"/>
@@ -47733,15 +47733,15 @@
       </c>
       <c r="J9" s="56" t="str">
         <f>IF(ISBLANK(C9),"",CONCATENATE("[",B9,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C9,".html)"))</f>
-        <v>[Pandas](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Pandas](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K9" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Python Overview](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/05-intro-python-overview.html)&lt;br&gt;[Basic Data Structures](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/06-intro-python-datastructures.html)&lt;br&gt;[Numpy](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/07-intro-python-numpy.html)&lt;br&gt;[Pandas](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Python Overview](https://rpi.analyticsdojo.com""/notebooks/05-intro-python-overview.html)&lt;br&gt;[Basic Data Structures](https://rpi.analyticsdojo.com""/notebooks/06-intro-python-datastructures.html)&lt;br&gt;[Numpy](https://rpi.analyticsdojo.com""/notebooks/07-intro-python-numpy.html)&lt;br&gt;[Pandas](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L9" s="56" t="str">
         <f t="shared" si="6"/>
-        <v>[Python Overview](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/05-intro-python-overview.html)&lt;br&gt;[Basic Data Structures](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/06-intro-python-datastructures.html)&lt;br&gt;[Numpy](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/07-intro-python-numpy.html)&lt;br&gt;[Pandas](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Python Overview](https://rpi.analyticsdojo.com""/notebooks/05-intro-python-overview.html)&lt;br&gt;[Basic Data Structures](https://rpi.analyticsdojo.com""/notebooks/06-intro-python-datastructures.html)&lt;br&gt;[Numpy](https://rpi.analyticsdojo.com""/notebooks/07-intro-python-numpy.html)&lt;br&gt;[Pandas](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="17">
@@ -47749,13 +47749,13 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
+        <v>794</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>873</v>
+      </c>
+      <c r="D10" t="s">
         <v>795</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>874</v>
-      </c>
-      <c r="D10" t="s">
-        <v>796</v>
       </c>
       <c r="E10" s="56" t="str">
         <f t="shared" si="8"/>
@@ -47808,11 +47808,11 @@
       </c>
       <c r="J10" s="56" t="str">
         <f>IF(ISBLANK(C10),"",CONCATENATE("[",B10,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C10,".html)"))</f>
-        <v>[Conditional-Loops](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Conditional-Loops](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K10" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Conditional-Loops](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Conditional-Loops](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L10" s="56" t="str">
         <f t="shared" si="6"/>
@@ -47824,13 +47824,13 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
+        <v>796</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>873</v>
+      </c>
+      <c r="D11" t="s">
         <v>797</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>874</v>
-      </c>
-      <c r="D11" t="s">
-        <v>798</v>
       </c>
       <c r="E11" s="56" t="str">
         <f t="shared" si="8"/>
@@ -47886,11 +47886,11 @@
       </c>
       <c r="J11" s="56" t="str">
         <f>IF(ISBLANK(C11),"",CONCATENATE("[",B11,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C11,".html)"))</f>
-        <v>[Functions](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Functions](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K11" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Conditional-Loops](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Conditional-Loops](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L11" s="56" t="str">
         <f t="shared" si="6"/>
@@ -47902,13 +47902,13 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
+        <v>798</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>873</v>
+      </c>
+      <c r="D12" t="s">
         <v>799</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>874</v>
-      </c>
-      <c r="D12" t="s">
-        <v>800</v>
       </c>
       <c r="E12" s="56" t="str">
         <f t="shared" si="8"/>
@@ -47967,11 +47967,11 @@
       </c>
       <c r="J12" s="56" t="str">
         <f>IF(ISBLANK(C12),"",CONCATENATE("[",B12,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C12,".html)"))</f>
-        <v>[Null Values](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Null Values](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K12" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Conditional-Loops](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Conditional-Loops](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L12" s="56" t="str">
         <f t="shared" si="6"/>
@@ -47983,13 +47983,13 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D13" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E13" s="56" t="str">
         <f t="shared" si="8"/>
@@ -48051,11 +48051,11 @@
       </c>
       <c r="J13" s="56" t="str">
         <f>IF(ISBLANK(C13),"",CONCATENATE("[",B13,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C13,".html)"))</f>
-        <v>[Groupby](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Groupby](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K13" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Conditional-Loops](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Groupby](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Conditional-Loops](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Groupby](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L13" s="56" t="str">
         <f t="shared" si="6"/>
@@ -48067,13 +48067,13 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D14" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E14" s="56" t="str">
         <f t="shared" si="8"/>
@@ -48138,11 +48138,11 @@
       </c>
       <c r="J14" s="56" t="str">
         <f>IF(ISBLANK(C14),"",CONCATENATE("[",B14,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C14,".html)"))</f>
-        <v>[Kaggle Baseline](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Kaggle Baseline](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K14" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Conditional-Loops](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Groupby](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Kaggle Baseline](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Conditional-Loops](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Groupby](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Kaggle Baseline](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L14" s="56" t="str">
         <f t="shared" si="6"/>
@@ -48154,13 +48154,13 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D15" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E15" s="56" t="str">
         <f t="shared" si="8"/>
@@ -48228,15 +48228,15 @@
       </c>
       <c r="J15" s="56" t="str">
         <f>IF(ISBLANK(C15),"",CONCATENATE("[",B15,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C15,".html)"))</f>
-        <v>[Assignment 2](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Assignment 2](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K15" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Conditional-Loops](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Groupby](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Kaggle Baseline](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 2](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Conditional-Loops](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Groupby](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Kaggle Baseline](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 2](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L15" s="56" t="str">
         <f t="shared" si="6"/>
-        <v>[Conditional-Loops](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Groupby](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Kaggle Baseline](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 2](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Conditional-Loops](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Groupby](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Kaggle Baseline](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 2](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="17">
@@ -48244,13 +48244,13 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D16" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E16" s="56" t="str">
         <f t="shared" si="8"/>
@@ -48321,11 +48321,11 @@
       </c>
       <c r="J16" s="56" t="str">
         <f>IF(ISBLANK(C16),"",CONCATENATE("[",B16,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C16,".html)"))</f>
-        <v>[Twitter](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Twitter](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K16" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Twitter](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Twitter](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L16" s="56" t="str">
         <f t="shared" si="6"/>
@@ -48337,13 +48337,13 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E17" s="56" t="str">
         <f t="shared" si="8"/>
@@ -48417,11 +48417,11 @@
       </c>
       <c r="J17" s="56" t="str">
         <f>IF(ISBLANK(C17),"",CONCATENATE("[",B17,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C17,".html)"))</f>
-        <v>[Web Mining](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Web Mining](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K17" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Twitter](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Twitter](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L17" s="56" t="str">
         <f t="shared" si="6"/>
@@ -48433,13 +48433,13 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D18" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E18" s="56" t="str">
         <f t="shared" si="8"/>
@@ -48516,11 +48516,11 @@
       </c>
       <c r="J18" s="56" t="str">
         <f>IF(ISBLANK(C18),"",CONCATENATE("[",B18,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C18,".html)"))</f>
-        <v>[Visualizations - Seaborn](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Visualizations - Seaborn](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K18" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Twitter](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Twitter](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L18" s="56" t="str">
         <f t="shared" si="6"/>
@@ -48532,13 +48532,13 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D19" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E19" s="56" t="str">
         <f t="shared" si="8"/>
@@ -48618,11 +48618,11 @@
       </c>
       <c r="J19" s="56" t="str">
         <f>IF(ISBLANK(C19),"",CONCATENATE("[",B19,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C19,".html)"))</f>
-        <v>[Strings - Regular Expressions](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Strings - Regular Expressions](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K19" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Twitter](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Strings - Regular Expressions](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Twitter](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Strings - Regular Expressions](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L19" s="56" t="str">
         <f t="shared" si="6"/>
@@ -48634,13 +48634,13 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D20" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E20" s="56" t="str">
         <f t="shared" si="8"/>
@@ -48723,11 +48723,11 @@
       </c>
       <c r="J20" s="56" t="str">
         <f>IF(ISBLANK(C20),"",CONCATENATE("[",B20,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C20,".html)"))</f>
-        <v>[Feature Dummies](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Feature Dummies](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K20" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Twitter](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Strings - Regular Expressions](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Feature Dummies](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Twitter](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Strings - Regular Expressions](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Feature Dummies](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L20" s="56" t="str">
         <f t="shared" si="6"/>
@@ -48739,13 +48739,13 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D21" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E21" s="56" t="str">
         <f t="shared" si="8"/>
@@ -48831,15 +48831,15 @@
       </c>
       <c r="J21" s="56" t="str">
         <f>IF(ISBLANK(C21),"",CONCATENATE("[",B21,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C21,".html)"))</f>
-        <v>[Assignment 3](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Assignment 3](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K21" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Twitter](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Strings - Regular Expressions](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Feature Dummies](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 3](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Twitter](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Strings - Regular Expressions](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Feature Dummies](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 3](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L21" s="56" t="str">
         <f t="shared" si="6"/>
-        <v>[Twitter](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Strings - Regular Expressions](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Feature Dummies](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 3](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Twitter](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Strings - Regular Expressions](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Feature Dummies](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 3](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="17">
@@ -48847,13 +48847,13 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D22" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E22" s="56" t="str">
         <f t="shared" si="8"/>
@@ -48942,11 +48942,11 @@
       </c>
       <c r="J22" s="56" t="str">
         <f>IF(ISBLANK(C22),"",CONCATENATE("[",B22,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C22,".html)"))</f>
-        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K22" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L22" s="56" t="str">
         <f t="shared" si="6"/>
@@ -48958,13 +48958,13 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D23" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E23" s="56" t="str">
         <f t="shared" si="8"/>
@@ -49056,11 +49056,11 @@
       </c>
       <c r="J23" s="56" t="str">
         <f>IF(ISBLANK(C23),"",CONCATENATE("[",B23,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C23,".html)"))</f>
-        <v>[Train Test Split](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Train Test Split](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K23" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L23" s="56" t="str">
         <f t="shared" si="6"/>
@@ -49072,13 +49072,13 @@
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D24" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E24" s="56" t="str">
         <f t="shared" si="8"/>
@@ -49173,11 +49173,11 @@
       </c>
       <c r="J24" s="56" t="str">
         <f>IF(ISBLANK(C24),"",CONCATENATE("[",B24,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C24,".html)"))</f>
-        <v>[Introduction to Logistic Regression](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Introduction to Logistic Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K24" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L24" s="56" t="str">
         <f t="shared" si="6"/>
@@ -49189,13 +49189,13 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D25" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E25" s="56" t="str">
         <f t="shared" si="8"/>
@@ -49293,11 +49293,11 @@
       </c>
       <c r="J25" s="56" t="str">
         <f>IF(ISBLANK(C25),"",CONCATENATE("[",B25,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C25,".html)"))</f>
-        <v>[K Nearest Neighbor](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[K Nearest Neighbor](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K25" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L25" s="56" t="str">
         <f t="shared" si="6"/>
@@ -49309,13 +49309,13 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D26" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E26" s="56" t="str">
         <f t="shared" si="8"/>
@@ -49416,11 +49416,11 @@
       </c>
       <c r="J26" s="56" t="str">
         <f>IF(ISBLANK(C26),"",CONCATENATE("[",B26,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C26,".html)"))</f>
-        <v>[ROC and SVM](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[ROC and SVM](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K26" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[ROC and SVM](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[ROC and SVM](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L26" s="56" t="str">
         <f t="shared" si="6"/>
@@ -49432,13 +49432,13 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D27" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E27" s="56" t="str">
         <f t="shared" si="8"/>
@@ -49542,11 +49542,11 @@
       </c>
       <c r="J27" s="56" t="str">
         <f>IF(ISBLANK(C27),"",CONCATENATE("[",B27,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C27,".html)"))</f>
-        <v>[HM5A Visualization &amp; Screen Scraping](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[HM5A Visualization &amp; Screen Scraping](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K27" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[ROC and SVM](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5A Visualization &amp; Screen Scraping](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[ROC and SVM](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5A Visualization &amp; Screen Scraping](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L27" s="56" t="str">
         <f t="shared" si="6"/>
@@ -49558,13 +49558,13 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
+        <v>824</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>873</v>
+      </c>
+      <c r="D28" t="s">
         <v>825</v>
-      </c>
-      <c r="C28" s="35" t="s">
-        <v>874</v>
-      </c>
-      <c r="D28" t="s">
-        <v>826</v>
       </c>
       <c r="E28" s="56" t="str">
         <f t="shared" si="8"/>
@@ -49671,15 +49671,15 @@
       </c>
       <c r="J28" s="56" t="str">
         <f>IF(ISBLANK(C28),"",CONCATENATE("[",B28,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C28,".html)"))</f>
-        <v>[HM5B Intro Modeling](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[HM5B Intro Modeling](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K28" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[ROC and SVM](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5A Visualization &amp; Screen Scraping](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5B Intro Modeling](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[ROC and SVM](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5A Visualization &amp; Screen Scraping](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5B Intro Modeling](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L28" s="56" t="str">
         <f t="shared" si="6"/>
-        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[ROC and SVM](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5A Visualization &amp; Screen Scraping](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5B Intro Modeling](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[ROC and SVM](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5A Visualization &amp; Screen Scraping](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5B Intro Modeling](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="17">
@@ -49687,13 +49687,13 @@
         <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D29" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E29" s="56" t="str">
         <f t="shared" si="8"/>
@@ -49803,11 +49803,11 @@
       </c>
       <c r="J29" s="56" t="str">
         <f>IF(ISBLANK(C29),"",CONCATENATE("[",B29,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C29,".html)"))</f>
-        <v>[Matrix Regression](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Matrix Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K29" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Matrix Regression](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Matrix Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L29" s="56" t="str">
         <f t="shared" si="6"/>
@@ -49819,13 +49819,13 @@
         <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D30" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E30" s="56" t="str">
         <f t="shared" si="8"/>
@@ -49938,11 +49938,11 @@
       </c>
       <c r="J30" s="56" t="str">
         <f>IF(ISBLANK(C30),"",CONCATENATE("[",B30,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C30,".html)"))</f>
-        <v>[Regression Basics](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Regression Basics](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K30" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Matrix Regression](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Regression Basics](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Matrix Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Regression Basics](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L30" s="56" t="str">
         <f t="shared" si="6"/>
@@ -49954,13 +49954,13 @@
         <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D31" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E31" s="56" t="str">
         <f t="shared" si="8"/>
@@ -50076,15 +50076,15 @@
       </c>
       <c r="J31" s="56" t="str">
         <f>IF(ISBLANK(C31),"",CONCATENATE("[",B31,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C31,".html)"))</f>
-        <v>[Ridge and Lasso Regression](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Ridge and Lasso Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K31" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Matrix Regression](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Regression Basics](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Ridge and Lasso Regression](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Matrix Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Regression Basics](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Ridge and Lasso Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L31" s="56" t="str">
         <f t="shared" si="6"/>
-        <v>[Matrix Regression](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Regression Basics](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Ridge and Lasso Regression](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Matrix Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Regression Basics](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Ridge and Lasso Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="17">
@@ -50092,13 +50092,13 @@
         <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D32" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E32" s="56" t="str">
         <f t="shared" si="8"/>
@@ -50217,11 +50217,11 @@
       </c>
       <c r="J32" s="56" t="str">
         <f>IF(ISBLANK(C32),"",CONCATENATE("[",B32,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C32,".html)"))</f>
-        <v>[Ridge and Lasso Regression](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Ridge and Lasso Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K32" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Ridge and Lasso Regression](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Ridge and Lasso Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L32" s="56" t="str">
         <f t="shared" si="6"/>
@@ -50233,13 +50233,13 @@
         <v>15</v>
       </c>
       <c r="B33" t="s">
+        <v>838</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>873</v>
+      </c>
+      <c r="D33" t="s">
         <v>839</v>
-      </c>
-      <c r="C33" s="35" t="s">
-        <v>874</v>
-      </c>
-      <c r="D33" t="s">
-        <v>840</v>
       </c>
       <c r="E33" s="56" t="str">
         <f t="shared" si="8"/>
@@ -50361,11 +50361,11 @@
       </c>
       <c r="J33" s="56" t="str">
         <f>IF(ISBLANK(C33),"",CONCATENATE("[",B33,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C33,".html)"))</f>
-        <v>[PCA](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[PCA](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K33" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Ridge and Lasso Regression](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)&lt;br&gt;[PCA](https://rpi.analyticsdojo.com/course-intro-ml-app/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Ridge and Lasso Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[PCA](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L33" s="56" t="e">
         <f>IF(A33&lt;&gt;#REF!,K33,"")</f>
@@ -50435,7 +50435,7 @@
       </c>
       <c r="B5" s="18" t="str">
         <f>Configuration!B28</f>
-        <v>/course-intro-ml-app</v>
+        <v>""</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -52065,17 +52065,17 @@
   <sheetData>
     <row r="1" spans="1:1" ht="404">
       <c r="A1" s="30" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="204">
       <c r="A2" s="30" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="136">
       <c r="A3" s="26" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="4" spans="1:1" s="29" customFormat="1" ht="409.6">
@@ -52174,7 +52174,7 @@
     </row>
     <row r="5" spans="1:1" ht="85">
       <c r="A5" s="30" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="6" spans="1:1" s="29" customFormat="1" ht="392.75" customHeight="1">
@@ -52281,7 +52281,7 @@
     </row>
     <row r="7" spans="1:1" ht="85">
       <c r="A7" s="30" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="8" spans="1:1" s="29" customFormat="1" ht="409.6">
@@ -52299,7 +52299,7 @@
     </row>
     <row r="9" spans="1:1" ht="409.6">
       <c r="A9" s="31" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
   </sheetData>
@@ -52325,7 +52325,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="68" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B1" s="68" t="s">
         <v>696</v>
@@ -52334,16 +52334,16 @@
         <v>701</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="68"/>
       <c r="B2" s="68" t="s">
+        <v>891</v>
+      </c>
+      <c r="C2" s="79" t="s">
         <v>892</v>
-      </c>
-      <c r="C2" s="79" t="s">
-        <v>893</v>
       </c>
       <c r="D2" s="29" t="b">
         <v>1</v>
@@ -52862,7 +52862,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="51">
       <c r="A1" s="20" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="409.6">

--- a/book.xlsx
+++ b/book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/course-intro-ml-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FBC879-3F3B-1341-AA89-02D2848539D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A628B53B-3F74-A04E-A66F-350307540DB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5560" yWindow="2660" windowWidth="23240" windowHeight="12700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4160" uniqueCount="905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4159" uniqueCount="904">
   <si>
     <t>Wk</t>
   </si>
@@ -2885,9 +2885,6 @@
   </si>
   <si>
     <t>https://rpi.analyticsdojo.com</t>
-  </si>
-  <si>
-    <t>""</t>
   </si>
 </sst>
 </file>
@@ -3927,7 +3924,7 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:E29"/>
+      <selection activeCell="B28" sqref="B28:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -4186,9 +4183,7 @@
       <c r="A28" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="B28" s="95" t="s">
-        <v>904</v>
-      </c>
+      <c r="B28" s="95"/>
       <c r="C28" s="95"/>
       <c r="D28" s="95"/>
       <c r="E28" s="95"/>
@@ -4505,7 +4500,7 @@
     <row r="4" spans="1:4" ht="15" customHeight="1">
       <c r="A4" s="4" t="str">
         <f>CONCATENATE("| ",Schedule!A3," | ",Schedule!B3," | ",Schedule!C3," | ",TEXT(Schedule!D3,"mm/dd")," | ",Schedule!Q3," |")</f>
-        <v>| 1 | 1 | Th | 08/29 | **Course Overview &amp; Introduction to the Data Science Lifecycle** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session1.html) |</v>
+        <v>| 1 | 1 | Th | 08/29 | **Course Overview &amp; Introduction to the Data Science Lifecycle** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session1.html) |</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -4518,151 +4513,151 @@
     <row r="6" spans="1:4" ht="15" customHeight="1">
       <c r="A6" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A5," | ",Schedule!B5," | ",Schedule!C5," | ",TEXT(Schedule!D5,"mm/dd")," | ",Schedule!Q5," |")</f>
-        <v>| 2 | 2 | Tu | 09/03 | **Python Basics** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session2.html) &lt;br&gt; *Assignment 1 due 09/17* &lt;br&gt; |</v>
+        <v>| 2 | 2 | Tu | 09/03 | **Python Basics** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session2.html) &lt;br&gt; *Assignment 1 due 09/17* &lt;br&gt; |</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1">
       <c r="A7" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A6," | ",Schedule!B6," | ",Schedule!C6," | ",TEXT(Schedule!D6,"mm/dd")," | ",Schedule!Q6," |")</f>
-        <v>| 2 | 3 | Th | 09/05 | **Python Basics** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session3.html) |</v>
+        <v>| 2 | 3 | Th | 09/05 | **Python Basics** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session3.html) |</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1">
       <c r="A8" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A7," | ",Schedule!B7," | ",Schedule!C7," | ",TEXT(Schedule!D7,"mm/dd")," | ",Schedule!Q7," |")</f>
-        <v>| 3 | 4 | M | 09/09 | **Python conditionals, loops, functions, aggregating.** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session4.html) |</v>
+        <v>| 3 | 4 | M | 09/09 | **Python conditionals, loops, functions, aggregating.** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session4.html) |</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1">
       <c r="A9" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A8," | ",Schedule!B8," | ",Schedule!C8," | ",TEXT(Schedule!D8,"mm/dd")," | ",Schedule!Q8," |")</f>
-        <v>| 3 | 5 | Th | 09/12 | **Python conditionals, loops, functions, aggregating (continued)** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session5.html) &lt;br&gt; *Assignment 2 due 09/26* &lt;br&gt; |</v>
+        <v>| 3 | 5 | Th | 09/12 | **Python conditionals, loops, functions, aggregating (continued)** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session5.html) &lt;br&gt; *Assignment 2 due 09/26* &lt;br&gt; |</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1">
       <c r="A10" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A9," | ",Schedule!B9," | ",Schedule!C9," | ",TEXT(Schedule!D9,"mm/dd")," | ",Schedule!Q9," |")</f>
-        <v>| 4 | 6 | M | 09/16 | **Python visualization, data manipulation , and feature creation.** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session6.html) |</v>
+        <v>| 4 | 6 | M | 09/16 | **Python visualization, data manipulation , and feature creation.** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session6.html) |</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1">
       <c r="A11" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A10," | ",Schedule!B10," | ",Schedule!C10," | ",TEXT(Schedule!D10,"mm/dd")," | ",Schedule!Q10," |")</f>
-        <v>| 4 | 7 | Th | 09/19 | **Python visualization, data manipulation , and feature creation (continued)** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session7.html) |</v>
+        <v>| 4 | 7 | Th | 09/19 | **Python visualization, data manipulation , and feature creation (continued)** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session7.html) |</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1">
       <c r="A12" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A11," | ",Schedule!B11," | ",Schedule!C11," | ",TEXT(Schedule!D11,"mm/dd")," | ",Schedule!Q11," |")</f>
-        <v>| 5 | 8 | M | 09/23 | **Python and Unsupervised Learning** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session8.html) |</v>
+        <v>| 5 | 8 | M | 09/23 | **Python and Unsupervised Learning** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session8.html) |</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1">
       <c r="A13" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A12," | ",Schedule!B12," | ",Schedule!C12," | ",TEXT(Schedule!D12,"mm/dd")," | ",Schedule!Q12," |")</f>
-        <v>| 5 | 9 | Th | 09/26 | **Python and Unsupervised Learning** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session9.html) |</v>
+        <v>| 5 | 9 | Th | 09/26 | **Python and Unsupervised Learning** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session9.html) |</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1">
       <c r="A14" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A13," | ",Schedule!B13," | ",Schedule!C13," | ",TEXT(Schedule!D13,"mm/dd")," | ",Schedule!Q13," |")</f>
-        <v>| 6 | 10 | M | 09/30 | **Introduction to R** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session10.html) |</v>
+        <v>| 6 | 10 | M | 09/30 | **Introduction to R** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session10.html) |</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1">
       <c r="A15" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A14," | ",Schedule!B14," | ",Schedule!C14," | ",TEXT(Schedule!D14,"mm/dd")," | ",Schedule!Q14," |")</f>
-        <v>| 6 | 11 | Th | 10/03 | **Introduction to R** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session11.html) |</v>
+        <v>| 6 | 11 | Th | 10/03 | **Introduction to R** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session11.html) |</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1">
       <c r="A16" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A15," | ",Schedule!B15," | ",Schedule!C15," | ",TEXT(Schedule!D15,"mm/dd")," | ",Schedule!Q15," |")</f>
-        <v>| 7 | 12 | M | 10/07 | **Overview of Modeling** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session12.html) |</v>
+        <v>| 7 | 12 | M | 10/07 | **Overview of Modeling** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session12.html) |</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15" customHeight="1">
       <c r="A17" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A16," | ",Schedule!B16," | ",Schedule!C16," | ",TEXT(Schedule!D16,"mm/dd")," | ",Schedule!Q16," |")</f>
-        <v>| 7 | 13 | Th | 10/10 | **Overview of Modeling** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session13.html) |</v>
+        <v>| 7 | 13 | Th | 10/10 | **Overview of Modeling** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session13.html) |</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15" customHeight="1">
       <c r="A18" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A17," | ",Schedule!B17," | ",Schedule!C17," | ",TEXT(Schedule!D17,"mm/dd")," | ",Schedule!Q17," |")</f>
-        <v>| 8 | 14 | M | 10/14 | **Review/Kaggle Project Introduction** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session14.html) |</v>
+        <v>| 8 | 14 | M | 10/14 | **Review/Kaggle Project Introduction** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session14.html) |</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15" customHeight="1">
       <c r="A19" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A18," | ",Schedule!B18," | ",Schedule!C18," | ",TEXT(Schedule!D18,"mm/dd")," | ",Schedule!Q18," |")</f>
-        <v>| 8 | 15 | Th | 10/17 | **Midterm** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session15.html) |</v>
+        <v>| 8 | 15 | Th | 10/17 | **Midterm** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session15.html) |</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15" customHeight="1">
       <c r="A20" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A19," | ",Schedule!B19," | ",Schedule!C19," | ",TEXT(Schedule!D19,"mm/dd")," | ",Schedule!Q19," |")</f>
-        <v>| 9 | 16 | M | 10/21 | **Classification** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session16.html) |</v>
+        <v>| 9 | 16 | M | 10/21 | **Classification** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session16.html) |</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15" customHeight="1">
       <c r="A21" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A20," | ",Schedule!B20," | ",Schedule!C20," | ",TEXT(Schedule!D20,"mm/dd")," | ",Schedule!Q20," |")</f>
-        <v>| 9 | 17 | Th | 10/24 | **Classification** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session17.html) |</v>
+        <v>| 9 | 17 | Th | 10/24 | **Classification** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session17.html) |</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15" customHeight="1">
       <c r="A22" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A21," | ",Schedule!B21," | ",Schedule!C21," | ",TEXT(Schedule!D21,"mm/dd")," | ",Schedule!Q21," |")</f>
-        <v>| 10 | 18 | M | 10/28 | **Regression** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session18.html) |</v>
+        <v>| 10 | 18 | M | 10/28 | **Regression** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session18.html) |</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15" customHeight="1">
       <c r="A23" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A22," | ",Schedule!B22," | ",Schedule!C22," | ",TEXT(Schedule!D22,"mm/dd")," | ",Schedule!Q22," |")</f>
-        <v>| 10 | 19 | Th | 10/31 | **Regression** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session19.html) |</v>
+        <v>| 10 | 19 | Th | 10/31 | **Regression** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session19.html) |</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15" customHeight="1">
       <c r="A24" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A23," | ",Schedule!B23," | ",Schedule!C23," | ",TEXT(Schedule!D23,"mm/dd")," | ",Schedule!Q23," |")</f>
-        <v>| 11 | 20 | M | 11/04 | **Text and NLP** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session20.html) |</v>
+        <v>| 11 | 20 | M | 11/04 | **Text and NLP** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session20.html) |</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15" customHeight="1">
       <c r="A25" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A24," | ",Schedule!B24," | ",Schedule!C24," | ",TEXT(Schedule!D24,"mm/dd")," | ",Schedule!Q24," |")</f>
-        <v>| 11 | 21 | Th | 11/07 | **Text and NLP** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session21.html) |</v>
+        <v>| 11 | 21 | Th | 11/07 | **Text and NLP** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session21.html) |</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15" customHeight="1">
       <c r="A26" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A25," | ",Schedule!B25," | ",Schedule!C25," | ",TEXT(Schedule!D25,"mm/dd")," | ",Schedule!Q25," |")</f>
-        <v>| 12 | 22 | M | 11/11 | **Introduction to Big Data** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session22.html) |</v>
+        <v>| 12 | 22 | M | 11/11 | **Introduction to Big Data** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session22.html) |</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15" customHeight="1">
       <c r="A27" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A26," | ",Schedule!B26," | ",Schedule!C26," | ",TEXT(Schedule!D26,"mm/dd")," | ",Schedule!Q26," |")</f>
-        <v>| 12 | 23 | Th | 11/14 | **Time Series Analysis** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session23.html) |</v>
+        <v>| 12 | 23 | Th | 11/14 | **Time Series Analysis** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session23.html) |</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15" customHeight="1">
       <c r="A28" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A27," | ",Schedule!B27," | ",Schedule!C27," | ",TEXT(Schedule!D27,"mm/dd")," | ",Schedule!Q27," |")</f>
-        <v>| 13 | 24 | M | 11/18 | **Image Data and Deep Learning** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session24.html) |</v>
+        <v>| 13 | 24 | M | 11/18 | **Image Data and Deep Learning** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session24.html) |</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15" customHeight="1">
       <c r="A29" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A28," | ",Schedule!B28," | ",Schedule!C28," | ",TEXT(Schedule!D28,"mm/dd")," | ",Schedule!Q28," |")</f>
-        <v>| 13 | 25 | Th | 11/21 | **Image Data and Deep Learning** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session25.html) |</v>
+        <v>| 13 | 25 | Th | 11/21 | **Image Data and Deep Learning** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session25.html) |</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="16">
       <c r="A30" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A29," | ",Schedule!B29," | ",Schedule!C29," | ",TEXT(Schedule!D29,"mm/dd")," | ",Schedule!Q29," |")</f>
-        <v>| 14 | 26 | M | 11/25 | **Automl and Modeling Packages** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session26.html) |</v>
+        <v>| 14 | 26 | M | 11/25 | **Automl and Modeling Packages** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session26.html) |</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="16">
@@ -4674,19 +4669,19 @@
     <row r="32" spans="1:1" ht="16">
       <c r="A32" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A31," | ",Schedule!B31," | ",Schedule!C31," | ",TEXT(Schedule!D31,"mm/dd")," | ",Schedule!Q31," |")</f>
-        <v>| 15 | 27 | M | 12/02 | **Automl and Model Search** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session27.html) |</v>
+        <v>| 15 | 27 | M | 12/02 | **Automl and Model Search** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session27.html) |</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="16">
       <c r="A33" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A32," | ",Schedule!B32," | ",Schedule!C32," | ",TEXT(Schedule!D32,"mm/dd")," | ",Schedule!Q32," |")</f>
-        <v>| 15 | 28 | Th | 12/05 | **Final Presentations** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session28.html) |</v>
+        <v>| 15 | 28 | Th | 12/05 | **Final Presentations** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session28.html) |</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="16">
       <c r="A34" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A33," | ",Schedule!B33," | ",Schedule!C33," | ",TEXT(Schedule!D33,"mm/dd")," | ",Schedule!Q33," |")</f>
-        <v>| 16 | 29 | M | 12/09 | **Final Presentations** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session29.html) |</v>
+        <v>| 16 | 29 | M | 12/09 | **Final Presentations** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session29.html) |</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="16">
@@ -4756,19 +4751,19 @@
     <row r="8" spans="1:1">
       <c r="A8" s="29" t="str">
         <f>IF(Readings!F6="","",CONCATENATE("| [",Readings!A6,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Readings!A6,".html) | ",Readings!F6," |"))</f>
-        <v>| [2](https://rpi.analyticsdojo.com""/sessions/session2.html) | [Doing Data Science (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/9781449363871)&lt;br&gt;[Data Science for Business (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/business-intelligence/9781449374273)&lt;br&gt;[Command Line Cheat Sheet](https://www.git-tower.com/blog/command-line-cheat-sheet/)&lt;br&gt;[Assignment Process](/assignments)&lt;br&gt;[Running Jupyter locally](http://rpi.analyticsdojo.com/setup/anaconda/) |</v>
+        <v>| [2](https://rpi.analyticsdojo.com/sessions/session2.html) | [Doing Data Science (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/9781449363871)&lt;br&gt;[Data Science for Business (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/business-intelligence/9781449374273)&lt;br&gt;[Command Line Cheat Sheet](https://www.git-tower.com/blog/command-line-cheat-sheet/)&lt;br&gt;[Assignment Process](/assignments)&lt;br&gt;[Running Jupyter locally](http://rpi.analyticsdojo.com/setup/anaconda/) |</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="29" t="str">
         <f>IF(Readings!F7="","",CONCATENATE("| [",Readings!A7,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Readings!A7,".html) | ",Readings!F7," |"))</f>
-        <v>| [4](https://rpi.analyticsdojo.com""/sessions/session4.html) | [Principles of Data Wrangling (Chapters 1-3)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/business-intelligence/9781491938911) |</v>
+        <v>| [4](https://rpi.analyticsdojo.com/sessions/session4.html) | [Principles of Data Wrangling (Chapters 1-3)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/business-intelligence/9781491938911) |</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="29" t="str">
         <f>IF(Readings!F8="","",CONCATENATE("| [",Readings!A8,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Readings!A8,".html) | ",Readings!F8," |"))</f>
-        <v>| [6](https://rpi.analyticsdojo.com""/sessions/session6.html) | [Introduction to Machine Learning with Python (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/programming/machine-learning/9781449369880) |</v>
+        <v>| [6](https://rpi.analyticsdojo.com/sessions/session6.html) | [Introduction to Machine Learning with Python (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/programming/machine-learning/9781449369880) |</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -4798,7 +4793,7 @@
     <row r="15" spans="1:1">
       <c r="A15" s="29" t="str">
         <f>IF(Readings!F13="","",CONCATENATE("| [",Readings!A13,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Readings!A13,".html) | ",Readings!F13," |"))</f>
-        <v>| [8](https://rpi.analyticsdojo.com""/sessions/session8.html) | [Install Tableau (free for students)](https://www.tableau.com/academic/students)&lt;br&gt;[Tableau - Data analytics for university students guide](https://www.tableau.com/university-students)&lt;br&gt;[Designing Great Visualizations](http://www.tableau.com/sites/default/files/media/designing-great-visualizations.pdf)&lt;br&gt;[Tableau getting Started](http://www.tableau.com/learn/tutorials/on-demand/getting-started)&lt;br&gt;[TED Talk](https://www.ted.com/talks/david_mccandless_the_beauty_of_data_visualization#t-304102) |</v>
+        <v>| [8](https://rpi.analyticsdojo.com/sessions/session8.html) | [Install Tableau (free for students)](https://www.tableau.com/academic/students)&lt;br&gt;[Tableau - Data analytics for university students guide](https://www.tableau.com/university-students)&lt;br&gt;[Designing Great Visualizations](http://www.tableau.com/sites/default/files/media/designing-great-visualizations.pdf)&lt;br&gt;[Tableau getting Started](http://www.tableau.com/learn/tutorials/on-demand/getting-started)&lt;br&gt;[TED Talk](https://www.ted.com/talks/david_mccandless_the_beauty_of_data_visualization#t-304102) |</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -4810,7 +4805,7 @@
     <row r="17" spans="1:1">
       <c r="A17" s="29" t="str">
         <f>IF(Readings!F15="","",CONCATENATE("| [",Readings!A15,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Readings!A15,".html) | ",Readings!F15," |"))</f>
-        <v>| [10](https://rpi.analyticsdojo.com""/sessions/session10.html) | [R for Data Science (Chapters 1-3)](https://r4ds.had.co.nz)&lt;br&gt;[RStudio Cloud](https://rstudio.cloud) |</v>
+        <v>| [10](https://rpi.analyticsdojo.com/sessions/session10.html) | [R for Data Science (Chapters 1-3)](https://r4ds.had.co.nz)&lt;br&gt;[RStudio Cloud](https://rstudio.cloud) |</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -4840,7 +4835,7 @@
     <row r="22" spans="1:1">
       <c r="A22" s="29" t="str">
         <f>IF(Readings!F20="","",CONCATENATE("| [",Readings!A20,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Readings!A20,".html) | ",Readings!F20," |"))</f>
-        <v>| [12](https://rpi.analyticsdojo.com""/sessions/session12.html) | [Cross Validation](https://www.analyticsvidhya.com/blog/2015/11/improve-model-performance-cross-validation-in-python-r/)&lt;br&gt;[The 10 Algorithms Machine Learning Engineers Need to Know](https://gab41.lab41.org/the-10-algorithms-machine-learning-engineers-need-to-know-f4bb63f5b2fa#.4rekzo2o1)&lt;br&gt;[15 Algorithms Machine Learning Engineers Must Need to Know](https://www.favouriteblog.com/15-algorithms-machine-learning-engineers/)&lt;br&gt;[A Tour of Machine Learning Algorithms](http://machinelearningmastery.com/a-tour-of-machine-learning-algorithms/)&lt;br&gt;[An Introduction to Machine Learning with Python (Chapter 2-3)](http://proquestcombo.safaribooksonline.com/book/programming/machine-learning/9781449369880) |</v>
+        <v>| [12](https://rpi.analyticsdojo.com/sessions/session12.html) | [Cross Validation](https://www.analyticsvidhya.com/blog/2015/11/improve-model-performance-cross-validation-in-python-r/)&lt;br&gt;[The 10 Algorithms Machine Learning Engineers Need to Know](https://gab41.lab41.org/the-10-algorithms-machine-learning-engineers-need-to-know-f4bb63f5b2fa#.4rekzo2o1)&lt;br&gt;[15 Algorithms Machine Learning Engineers Must Need to Know](https://www.favouriteblog.com/15-algorithms-machine-learning-engineers/)&lt;br&gt;[A Tour of Machine Learning Algorithms](http://machinelearningmastery.com/a-tour-of-machine-learning-algorithms/)&lt;br&gt;[An Introduction to Machine Learning with Python (Chapter 2-3)](http://proquestcombo.safaribooksonline.com/book/programming/machine-learning/9781449369880) |</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -4864,7 +4859,7 @@
     <row r="26" spans="1:1">
       <c r="A26" s="29" t="str">
         <f>IF(Readings!F24="","",CONCATENATE("| [",Readings!A24,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Readings!A24,".html) | ",Readings!F24," |"))</f>
-        <v>| [20](https://rpi.analyticsdojo.com""/sessions/session20.html) | [The Seven Practice Areas of Text Mining](http://cdn2.hubspot.net/hubfs/2176909/Whitepaper_The_Seven_Practice_Areas_of_Text_Analytics_Chapter_2_Excerpt.pdf?t=1469213247687)&lt;br&gt;[The Amazing Power of Word Vectors](https://blog.acolyer.org/2016/04/21/the-amazing-power-of-word-vectors/)&lt;br&gt;[Bag of Words Tutorial](https://www.kaggle.com/c/word2vec-nlp-tutorial/details/part-1-for-beginners-bag-of-words)&lt;br&gt;[Word Vectors](https://www.kaggle.com/c/word2vec-nlp-tutorial/details/part-2-word-vectors) |</v>
+        <v>| [20](https://rpi.analyticsdojo.com/sessions/session20.html) | [The Seven Practice Areas of Text Mining](http://cdn2.hubspot.net/hubfs/2176909/Whitepaper_The_Seven_Practice_Areas_of_Text_Analytics_Chapter_2_Excerpt.pdf?t=1469213247687)&lt;br&gt;[The Amazing Power of Word Vectors](https://blog.acolyer.org/2016/04/21/the-amazing-power-of-word-vectors/)&lt;br&gt;[Bag of Words Tutorial](https://www.kaggle.com/c/word2vec-nlp-tutorial/details/part-1-for-beginners-bag-of-words)&lt;br&gt;[Word Vectors](https://www.kaggle.com/c/word2vec-nlp-tutorial/details/part-2-word-vectors) |</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -4882,7 +4877,7 @@
     <row r="29" spans="1:1">
       <c r="A29" s="29" t="str">
         <f>IF(Readings!F27="","",CONCATENATE("| [",Readings!A27,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Readings!A27,".html) | ",Readings!F27," |"))</f>
-        <v>| [23](https://rpi.analyticsdojo.com""/sessions/session23.html) | [Introduction to Time Series](https://www.youtube.com/watch?v=d4Sn6ny_5LI)&lt;br&gt;[7 Ways Time Series Forecasting Differs from Machine Learning](https://www.datascience.com/blog/time-series-forecasting-machine-learning-differences)&lt;br&gt;[Aggregation Techniques and Cryptocurrencies](https://medium.com/python-data/time-series-aggregation-techniques-with-python-a-look-at-major-cryptocurrencies-a9eb1dd49c1b) |</v>
+        <v>| [23](https://rpi.analyticsdojo.com/sessions/session23.html) | [Introduction to Time Series](https://www.youtube.com/watch?v=d4Sn6ny_5LI)&lt;br&gt;[7 Ways Time Series Forecasting Differs from Machine Learning](https://www.datascience.com/blog/time-series-forecasting-machine-learning-differences)&lt;br&gt;[Aggregation Techniques and Cryptocurrencies](https://medium.com/python-data/time-series-aggregation-techniques-with-python-a-look-at-major-cryptocurrencies-a9eb1dd49c1b) |</v>
       </c>
     </row>
   </sheetData>
@@ -4946,7 +4941,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="29" t="str">
         <f>IF(Notebooks!G5="","",CONCATENATE("| [",Notebooks!A5,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A5,") | ",Notebooks!G5," |"))</f>
-        <v>| [1](https://rpi.analyticsdojo.com""/sessions/session1) | What is Jupyter? - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/01-what-is-jupyter.ipynb#scrollTo=mdFTkIqGwgOJ)&lt;br&gt;Notebook Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/02-notebook-basics.ipynb)&lt;br&gt;Running Code - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/03-running-code.ipynb)&lt;br&gt;Markdown - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/04-markdown.ipynb) |</v>
+        <v>| [1](https://rpi.analyticsdojo.com/sessions/session1) | What is Jupyter? - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/01-what-is-jupyter.ipynb#scrollTo=mdFTkIqGwgOJ)&lt;br&gt;Notebook Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/02-notebook-basics.ipynb)&lt;br&gt;Running Code - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/03-running-code.ipynb)&lt;br&gt;Markdown - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/04-markdown.ipynb) |</v>
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
@@ -4982,7 +4977,7 @@
     <row r="11" spans="1:4">
       <c r="A11" s="29" t="str">
         <f>IF(Notebooks!G9="","",CONCATENATE("| [",Notebooks!A9,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A9,") | ",Notebooks!G9," |"))</f>
-        <v>| [2](https://rpi.analyticsdojo.com""/sessions/session2) | Python Overview - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/01-intro-python-overview.ipynb)&lt;br&gt;Basic Data Structures - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/02-intro-python-datastructures.ipynbhttps://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/03-intro-python-numpy.ipynb)&lt;br&gt;Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)&lt;br&gt;Pandas - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb) |</v>
+        <v>| [2](https://rpi.analyticsdojo.com/sessions/session2) | Python Overview - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/01-intro-python-overview.ipynb)&lt;br&gt;Basic Data Structures - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/02-intro-python-datastructures.ipynbhttps://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/03-intro-python-numpy.ipynb)&lt;br&gt;Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)&lt;br&gt;Pandas - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb) |</v>
       </c>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
@@ -5036,7 +5031,7 @@
     <row r="17" spans="1:4">
       <c r="A17" s="29" t="str">
         <f>IF(Notebooks!G15="","",CONCATENATE("| [",Notebooks!A15,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A15,") | ",Notebooks!G15," |"))</f>
-        <v>| [4](https://rpi.analyticsdojo.com""/sessions/session4) | Conditional-Loops - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb)&lt;br&gt;Functions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/02-intro-python-functions.ipynb)&lt;br&gt;Null Values - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/03-intro-python-null-values.ipynb)&lt;br&gt;Groupby - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/04-intro-python-groupby.ipynb)&lt;br&gt;Kaggle Baseline - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/05-intro-kaggle-baseline.ipynb)&lt;br&gt;Assignment 2 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/hm-02/hm02.ipynb) |</v>
+        <v>| [4](https://rpi.analyticsdojo.com/sessions/session4) | Conditional-Loops - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb)&lt;br&gt;Functions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/02-intro-python-functions.ipynb)&lt;br&gt;Null Values - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/03-intro-python-null-values.ipynb)&lt;br&gt;Groupby - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/04-intro-python-groupby.ipynb)&lt;br&gt;Kaggle Baseline - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/05-intro-kaggle-baseline.ipynb)&lt;br&gt;Assignment 2 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/hm-02/hm02.ipynb) |</v>
       </c>
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
@@ -5090,7 +5085,7 @@
     <row r="23" spans="1:4">
       <c r="A23" s="29" t="str">
         <f>IF(Notebooks!G21="","",CONCATENATE("| [",Notebooks!A21,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A21,") | ",Notebooks!G21," |"))</f>
-        <v>| [6](https://rpi.analyticsdojo.com""/sessions/session6) | Twitter - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb)&lt;br&gt;Web Mining - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/02_intro_python_webmining.ipynb)&lt;br&gt;Visualizations - Seaborn - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/03_visualization_python_seaborn.ipynb)&lt;br&gt;Strings - Regular Expressions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/04_strings_and_regular_expressions.ipynb)&lt;br&gt;Feature Dummies - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/05_features_dummies.ipynb)&lt;br&gt;Assignment 3 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/hm-03/hm03.ipynb) |</v>
+        <v>| [6](https://rpi.analyticsdojo.com/sessions/session6) | Twitter - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb)&lt;br&gt;Web Mining - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/02_intro_python_webmining.ipynb)&lt;br&gt;Visualizations - Seaborn - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/03_visualization_python_seaborn.ipynb)&lt;br&gt;Strings - Regular Expressions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/04_strings_and_regular_expressions.ipynb)&lt;br&gt;Feature Dummies - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/05_features_dummies.ipynb)&lt;br&gt;Assignment 3 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/hm-03/hm03.ipynb) |</v>
       </c>
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
@@ -5153,7 +5148,7 @@
     <row r="30" spans="1:4">
       <c r="A30" s="29" t="str">
         <f>IF(Notebooks!G28="","",CONCATENATE("| [",Notebooks!A28,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A28,") | ",Notebooks!G28," |"))</f>
-        <v>| [9](https://rpi.analyticsdojo.com""/sessions/session9) | The Simplest Neural Network with Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)&lt;br&gt;Train Test Split - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb)&lt;br&gt;Introduction to Logistic Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/02-intro-logistic-knn.ipynb)&lt;br&gt;K Nearest Neighbor - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/03-knn.ipynb)&lt;br&gt;ROC and SVM - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/04-svm-roc.ipynb)&lt;br&gt;HM5A Visualization &amp; Screen Scraping - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05A.ipynb)&lt;br&gt;HM5B Intro Modeling - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05B.ipynb) |</v>
+        <v>| [9](https://rpi.analyticsdojo.com/sessions/session9) | The Simplest Neural Network with Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)&lt;br&gt;Train Test Split - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb)&lt;br&gt;Introduction to Logistic Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/02-intro-logistic-knn.ipynb)&lt;br&gt;K Nearest Neighbor - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/03-knn.ipynb)&lt;br&gt;ROC and SVM - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/04-svm-roc.ipynb)&lt;br&gt;HM5A Visualization &amp; Screen Scraping - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05A.ipynb)&lt;br&gt;HM5B Intro Modeling - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05B.ipynb) |</v>
       </c>
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
@@ -5180,7 +5175,7 @@
     <row r="33" spans="1:4">
       <c r="A33" s="29" t="str">
         <f>IF(Notebooks!G31="","",CONCATENATE("| [",Notebooks!A31,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A31,") | ",Notebooks!G31," |"))</f>
-        <v>| [13](https://rpi.analyticsdojo.com""/sessions/session13) | Matrix Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/01-matrix-regression-gradient-decent-python.ipynb)&lt;br&gt;Regression Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/02-regression-boston-housing-python.ipynb)&lt;br&gt;Ridge and Lasso Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb) |</v>
+        <v>| [13](https://rpi.analyticsdojo.com/sessions/session13) | Matrix Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/01-matrix-regression-gradient-decent-python.ipynb)&lt;br&gt;Regression Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/02-regression-boston-housing-python.ipynb)&lt;br&gt;Ridge and Lasso Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb) |</v>
       </c>
       <c r="B33" s="29"/>
       <c r="C33" s="29"/>
@@ -5313,7 +5308,7 @@
     <row r="6" spans="1:1">
       <c r="A6" s="29" t="str">
         <f>IF(ISBLANK(Schedule!H5),"",CONCATENATE("| ",Schedule!H5," | [",Schedule!B5,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Schedule!B5,".html) | ",TEXT(Schedule!D5+Configuration!$B$6, "mm/dd")," | ",Schedule!I5," | ",IF(ISBLANK(Schedule!K5),"*None*",Schedule!R5)," |"))</f>
-        <v>| 1 | [2](https://rpi.analyticsdojo.com""/sessions/session2.html) | 09/17 | This introductory assignment introduces the basics of loading files from a variety of formats.  | [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/hm-01/hm01.ipynb) |</v>
+        <v>| 1 | [2](https://rpi.analyticsdojo.com/sessions/session2.html) | 09/17 | This introductory assignment introduces the basics of loading files from a variety of formats.  | [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/hm-01/hm01.ipynb) |</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -5331,7 +5326,7 @@
     <row r="9" spans="1:1">
       <c r="A9" s="29" t="str">
         <f>IF(ISBLANK(Schedule!H8),"",CONCATENATE("| ",Schedule!H8," | [",Schedule!B8,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Schedule!B8,".html) | ",TEXT(Schedule!D8+Configuration!$B$6, "mm/dd")," | ",Schedule!I8," | ",IF(ISBLANK(Schedule!K8),"*None*",Schedule!R8)," |"))</f>
-        <v>| 2 | [5](https://rpi.analyticsdojo.com""/sessions/session5.html) | 09/26 |  | [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/hm-02/hm02.ipynb) |</v>
+        <v>| 2 | [5](https://rpi.analyticsdojo.com/sessions/session5.html) | 09/26 |  | [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/hm-02/hm02.ipynb) |</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -5550,7 +5545,7 @@
 ### Readings
 *None*
 ### Notebooks
-[What is Jupyter?](https://rpi.analyticsdojo.com""/notebooks/01-what-is-jupyter.html)&lt;br&gt;[Notebook Basics](https://rpi.analyticsdojo.com""/notebooks/02-notebook-basics.html)&lt;br&gt;[Running Code](https://rpi.analyticsdojo.com""/notebooks/03-running-code.html)&lt;br&gt;[Markdown](https://rpi.analyticsdojo.com""/notebooks/04-markdown.html)</v>
+[What is Jupyter?](https://rpi.analyticsdojo.com/notebooks/01-what-is-jupyter.html)&lt;br&gt;[Notebook Basics](https://rpi.analyticsdojo.com/notebooks/02-notebook-basics.html)&lt;br&gt;[Running Code](https://rpi.analyticsdojo.com/notebooks/03-running-code.html)&lt;br&gt;[Markdown](https://rpi.analyticsdojo.com/notebooks/04-markdown.html)</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>18</v>
@@ -5580,7 +5575,7 @@
 ### Readings
 *None*
 ### Notebooks
-[What is Jupyter?](https://rpi.analyticsdojo.com""/notebooks/01-what-is-jupyter.html)&lt;br&gt;[Notebook Basics](https://rpi.analyticsdojo.com""/notebooks/02-notebook-basics.html)&lt;br&gt;[Running Code](https://rpi.analyticsdojo.com""/notebooks/03-running-code.html)&lt;br&gt;[Markdown](https://rpi.analyticsdojo.com""/notebooks/04-markdown.html)</v>
+[What is Jupyter?](https://rpi.analyticsdojo.com/notebooks/01-what-is-jupyter.html)&lt;br&gt;[Notebook Basics](https://rpi.analyticsdojo.com/notebooks/02-notebook-basics.html)&lt;br&gt;[Running Code](https://rpi.analyticsdojo.com/notebooks/03-running-code.html)&lt;br&gt;[Markdown](https://rpi.analyticsdojo.com/notebooks/04-markdown.html)</v>
       </c>
       <c r="G2" s="26"/>
     </row>
@@ -5650,7 +5645,7 @@
 ### Readings
 [Doing Data Science (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/9781449363871)&lt;br&gt;[Data Science for Business (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/business-intelligence/9781449374273)&lt;br&gt;[Command Line Cheat Sheet](https://www.git-tower.com/blog/command-line-cheat-sheet/)&lt;br&gt;[Assignment Process](/assignments)&lt;br&gt;[Running Jupyter locally](http://rpi.analyticsdojo.com/setup/anaconda/)
 ### Notebooks
-[Python Overview](https://rpi.analyticsdojo.com""/notebooks/05-intro-python-overview.html)&lt;br&gt;[Basic Data Structures](https://rpi.analyticsdojo.com""/notebooks/06-intro-python-datastructures.html)&lt;br&gt;[Numpy](https://rpi.analyticsdojo.com""/notebooks/07-intro-python-numpy.html)&lt;br&gt;[Pandas](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+[Python Overview](https://rpi.analyticsdojo.com/notebooks/05-intro-python-overview.html)&lt;br&gt;[Basic Data Structures](https://rpi.analyticsdojo.com/notebooks/06-intro-python-datastructures.html)&lt;br&gt;[Numpy](https://rpi.analyticsdojo.com/notebooks/07-intro-python-numpy.html)&lt;br&gt;[Pandas](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>18</v>
@@ -5681,7 +5676,7 @@
 ### Readings
 [Doing Data Science (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/9781449363871)&lt;br&gt;[Data Science for Business (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/business-intelligence/9781449374273)&lt;br&gt;[Command Line Cheat Sheet](https://www.git-tower.com/blog/command-line-cheat-sheet/)&lt;br&gt;[Assignment Process](/assignments)&lt;br&gt;[Running Jupyter locally](http://rpi.analyticsdojo.com/setup/anaconda/)
 ### Notebooks
-[Python Overview](https://rpi.analyticsdojo.com""/notebooks/05-intro-python-overview.html)&lt;br&gt;[Basic Data Structures](https://rpi.analyticsdojo.com""/notebooks/06-intro-python-datastructures.html)&lt;br&gt;[Numpy](https://rpi.analyticsdojo.com""/notebooks/07-intro-python-numpy.html)&lt;br&gt;[Pandas](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+[Python Overview](https://rpi.analyticsdojo.com/notebooks/05-intro-python-overview.html)&lt;br&gt;[Basic Data Structures](https://rpi.analyticsdojo.com/notebooks/06-intro-python-datastructures.html)&lt;br&gt;[Numpy](https://rpi.analyticsdojo.com/notebooks/07-intro-python-numpy.html)&lt;br&gt;[Pandas](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="F4" s="31"/>
     </row>
@@ -5749,7 +5744,7 @@
 ### Readings
 [Principles of Data Wrangling (Chapters 1-3)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/business-intelligence/9781491938911)
 ### Notebooks
-[Conditional-Loops](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Groupby](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Kaggle Baseline](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 2](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+[Conditional-Loops](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Groupby](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Kaggle Baseline](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 2](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>18</v>
@@ -5778,7 +5773,7 @@
 ### Readings
 [Principles of Data Wrangling (Chapters 1-3)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/business-intelligence/9781491938911)
 ### Notebooks
-[Conditional-Loops](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Groupby](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Kaggle Baseline](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 2](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+[Conditional-Loops](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Groupby](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Kaggle Baseline](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 2](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1">
@@ -5845,7 +5840,7 @@
 ### Readings
 [Introduction to Machine Learning with Python (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/programming/machine-learning/9781449369880)
 ### Notebooks
-[Twitter](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Strings - Regular Expressions](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Feature Dummies](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 3](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+[Twitter](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Strings - Regular Expressions](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Feature Dummies](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 3](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>18</v>
@@ -5874,7 +5869,7 @@
 ### Readings
 [Introduction to Machine Learning with Python (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/programming/machine-learning/9781449369880)
 ### Notebooks
-[Twitter](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Strings - Regular Expressions](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Feature Dummies](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 3](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+[Twitter](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Strings - Regular Expressions](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Feature Dummies](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 3](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1">
@@ -5989,7 +5984,7 @@
 ### Readings
 *None*
 ### Notebooks
-[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[ROC and SVM](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5A Visualization &amp; Screen Scraping](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5B Intro Modeling](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[ROC and SVM](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5A Visualization &amp; Screen Scraping](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5B Intro Modeling](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>18</v>
@@ -6018,7 +6013,7 @@
 ### Readings
 *None*
 ### Notebooks
-[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[ROC and SVM](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5A Visualization &amp; Screen Scraping](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5B Intro Modeling](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[ROC and SVM](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5A Visualization &amp; Screen Scraping](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5B Intro Modeling](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1">
@@ -6181,7 +6176,7 @@
 ### Readings
 *None*
 ### Notebooks
-[Matrix Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Regression Basics](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Ridge and Lasso Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+[Matrix Regression](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Regression Basics](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Ridge and Lasso Regression](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>18</v>
@@ -6210,7 +6205,7 @@
 ### Readings
 *None*
 ### Notebooks
-[Matrix Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Regression Basics](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Ridge and Lasso Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+[Matrix Regression](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Regression Basics](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Ridge and Lasso Regression](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1">
@@ -28639,7 +28634,7 @@
       </c>
       <c r="O3" s="56" t="str">
         <f>IF(B3&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B3,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com""/sessions/session1.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com/sessions/session1.html)</v>
       </c>
       <c r="P3" s="56" t="str">
         <f>IF(ISBLANK(H3),"",CONCATENATE(" &lt;br&gt; *",N3,"* &lt;br&gt;"))</f>
@@ -28647,7 +28642,7 @@
       </c>
       <c r="Q3" s="56" t="str">
         <f t="shared" ref="Q3:Q34" si="0">CONCATENATE("**",TRIM(E3),"** &lt;br&gt; ", O3, P3)</f>
-        <v>**Course Overview &amp; Introduction to the Data Science Lifecycle** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session1.html)</v>
+        <v>**Course Overview &amp; Introduction to the Data Science Lifecycle** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session1.html)</v>
       </c>
       <c r="R3" s="56" t="str">
         <f>CONCATENATE("[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",K3,")")</f>
@@ -28797,7 +28792,7 @@
       </c>
       <c r="O5" s="56" t="str">
         <f>IF(B5&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B5,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com""/sessions/session2.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com/sessions/session2.html)</v>
       </c>
       <c r="P5" s="56" t="str">
         <f t="shared" si="1"/>
@@ -28805,7 +28800,7 @@
       </c>
       <c r="Q5" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Python Basics** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session2.html) &lt;br&gt; *Assignment 1 due 09/17* &lt;br&gt;</v>
+        <v>**Python Basics** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session2.html) &lt;br&gt; *Assignment 1 due 09/17* &lt;br&gt;</v>
       </c>
       <c r="R5" s="56" t="str">
         <f t="shared" si="2"/>
@@ -28875,7 +28870,7 @@
       </c>
       <c r="O6" s="56" t="str">
         <f>IF(B6&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B6,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com""/sessions/session3.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com/sessions/session3.html)</v>
       </c>
       <c r="P6" s="56" t="str">
         <f t="shared" si="1"/>
@@ -28883,7 +28878,7 @@
       </c>
       <c r="Q6" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Python Basics** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session3.html)</v>
+        <v>**Python Basics** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session3.html)</v>
       </c>
       <c r="R6" s="56" t="str">
         <f t="shared" si="2"/>
@@ -28956,7 +28951,7 @@
       </c>
       <c r="O7" s="56" t="str">
         <f>IF(B7&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B7,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com""/sessions/session4.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com/sessions/session4.html)</v>
       </c>
       <c r="P7" s="56" t="str">
         <f t="shared" si="1"/>
@@ -28964,7 +28959,7 @@
       </c>
       <c r="Q7" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Python conditionals, loops, functions, aggregating.** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session4.html)</v>
+        <v>**Python conditionals, loops, functions, aggregating.** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session4.html)</v>
       </c>
       <c r="R7" s="56" t="str">
         <f t="shared" si="2"/>
@@ -29046,7 +29041,7 @@
       </c>
       <c r="O8" s="56" t="str">
         <f>IF(B8&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B8,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com""/sessions/session5.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com/sessions/session5.html)</v>
       </c>
       <c r="P8" s="56" t="str">
         <f t="shared" si="1"/>
@@ -29054,7 +29049,7 @@
       </c>
       <c r="Q8" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Python conditionals, loops, functions, aggregating (continued)** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session5.html) &lt;br&gt; *Assignment 2 due 09/26* &lt;br&gt;</v>
+        <v>**Python conditionals, loops, functions, aggregating (continued)** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session5.html) &lt;br&gt; *Assignment 2 due 09/26* &lt;br&gt;</v>
       </c>
       <c r="R8" s="56" t="str">
         <f t="shared" si="2"/>
@@ -29137,7 +29132,7 @@
       </c>
       <c r="O9" s="56" t="str">
         <f>IF(B9&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B9,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com""/sessions/session6.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com/sessions/session6.html)</v>
       </c>
       <c r="P9" s="56" t="str">
         <f t="shared" si="1"/>
@@ -29145,7 +29140,7 @@
       </c>
       <c r="Q9" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Python visualization, data manipulation , and feature creation.** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session6.html)</v>
+        <v>**Python visualization, data manipulation , and feature creation.** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session6.html)</v>
       </c>
       <c r="R9" s="56" t="str">
         <f t="shared" si="2"/>
@@ -29233,7 +29228,7 @@
       </c>
       <c r="O10" s="56" t="str">
         <f>IF(B10&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B10,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com""/sessions/session7.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com/sessions/session7.html)</v>
       </c>
       <c r="P10" s="56" t="str">
         <f t="shared" si="1"/>
@@ -29241,7 +29236,7 @@
       </c>
       <c r="Q10" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Python visualization, data manipulation , and feature creation (continued)** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session7.html)</v>
+        <v>**Python visualization, data manipulation , and feature creation (continued)** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session7.html)</v>
       </c>
       <c r="R10" s="56" t="str">
         <f t="shared" si="2"/>
@@ -29329,7 +29324,7 @@
       </c>
       <c r="O11" s="56" t="str">
         <f>IF(B11&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B11,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com""/sessions/session8.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com/sessions/session8.html)</v>
       </c>
       <c r="P11" s="56" t="str">
         <f t="shared" si="1"/>
@@ -29337,7 +29332,7 @@
       </c>
       <c r="Q11" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Python and Unsupervised Learning** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session8.html)</v>
+        <v>**Python and Unsupervised Learning** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session8.html)</v>
       </c>
       <c r="R11" s="56" t="str">
         <f t="shared" si="2"/>
@@ -29428,7 +29423,7 @@
       </c>
       <c r="O12" s="56" t="str">
         <f>IF(B12&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B12,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com""/sessions/session9.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com/sessions/session9.html)</v>
       </c>
       <c r="P12" s="56" t="str">
         <f t="shared" si="1"/>
@@ -29436,7 +29431,7 @@
       </c>
       <c r="Q12" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Python and Unsupervised Learning** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session9.html)</v>
+        <v>**Python and Unsupervised Learning** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session9.html)</v>
       </c>
       <c r="R12" s="56" t="str">
         <f t="shared" si="2"/>
@@ -29530,7 +29525,7 @@
       </c>
       <c r="O13" s="56" t="str">
         <f>IF(B13&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B13,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com""/sessions/session10.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com/sessions/session10.html)</v>
       </c>
       <c r="P13" s="56" t="str">
         <f t="shared" si="1"/>
@@ -29538,7 +29533,7 @@
       </c>
       <c r="Q13" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Introduction to R** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session10.html)</v>
+        <v>**Introduction to R** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session10.html)</v>
       </c>
       <c r="R13" s="56" t="str">
         <f t="shared" si="2"/>
@@ -29634,7 +29629,7 @@
       </c>
       <c r="O14" s="56" t="str">
         <f>IF(B14&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B14,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com""/sessions/session11.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com/sessions/session11.html)</v>
       </c>
       <c r="P14" s="56" t="str">
         <f t="shared" si="1"/>
@@ -29642,7 +29637,7 @@
       </c>
       <c r="Q14" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Introduction to R** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session11.html)</v>
+        <v>**Introduction to R** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session11.html)</v>
       </c>
       <c r="R14" s="56" t="str">
         <f t="shared" si="2"/>
@@ -29742,7 +29737,7 @@
       </c>
       <c r="O15" s="56" t="str">
         <f>IF(B15&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B15,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com""/sessions/session12.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com/sessions/session12.html)</v>
       </c>
       <c r="P15" s="56" t="str">
         <f t="shared" si="1"/>
@@ -29750,7 +29745,7 @@
       </c>
       <c r="Q15" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Overview of Modeling** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session12.html)</v>
+        <v>**Overview of Modeling** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session12.html)</v>
       </c>
       <c r="R15" s="56" t="str">
         <f t="shared" si="2"/>
@@ -29852,7 +29847,7 @@
       </c>
       <c r="O16" s="56" t="str">
         <f>IF(B16&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B16,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com""/sessions/session13.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com/sessions/session13.html)</v>
       </c>
       <c r="P16" s="56" t="str">
         <f t="shared" si="1"/>
@@ -29860,7 +29855,7 @@
       </c>
       <c r="Q16" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Overview of Modeling** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session13.html)</v>
+        <v>**Overview of Modeling** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session13.html)</v>
       </c>
       <c r="R16" s="56" t="str">
         <f t="shared" si="2"/>
@@ -29964,7 +29959,7 @@
       </c>
       <c r="O17" s="56" t="str">
         <f>IF(B17&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B17,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com""/sessions/session14.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com/sessions/session14.html)</v>
       </c>
       <c r="P17" s="56" t="str">
         <f t="shared" si="1"/>
@@ -29972,7 +29967,7 @@
       </c>
       <c r="Q17" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Review/Kaggle Project Introduction** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session14.html)</v>
+        <v>**Review/Kaggle Project Introduction** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session14.html)</v>
       </c>
       <c r="R17" s="56" t="str">
         <f t="shared" si="2"/>
@@ -30077,7 +30072,7 @@
       </c>
       <c r="O18" s="56" t="str">
         <f>IF(B18&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B18,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com""/sessions/session15.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com/sessions/session15.html)</v>
       </c>
       <c r="P18" s="56" t="str">
         <f t="shared" si="1"/>
@@ -30085,7 +30080,7 @@
       </c>
       <c r="Q18" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Midterm** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session15.html)</v>
+        <v>**Midterm** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session15.html)</v>
       </c>
       <c r="R18" s="56" t="str">
         <f t="shared" si="2"/>
@@ -30197,7 +30192,7 @@
       </c>
       <c r="O19" s="56" t="str">
         <f>IF(B19&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B19,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com""/sessions/session16.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com/sessions/session16.html)</v>
       </c>
       <c r="P19" s="56" t="str">
         <f t="shared" si="1"/>
@@ -30205,7 +30200,7 @@
       </c>
       <c r="Q19" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Classification** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session16.html)</v>
+        <v>**Classification** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session16.html)</v>
       </c>
       <c r="R19" s="56" t="str">
         <f t="shared" si="2"/>
@@ -30320,7 +30315,7 @@
       </c>
       <c r="O20" s="56" t="str">
         <f>IF(B20&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B20,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com""/sessions/session17.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com/sessions/session17.html)</v>
       </c>
       <c r="P20" s="56" t="str">
         <f t="shared" si="1"/>
@@ -30328,7 +30323,7 @@
       </c>
       <c r="Q20" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Classification** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session17.html)</v>
+        <v>**Classification** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session17.html)</v>
       </c>
       <c r="R20" s="56" t="str">
         <f t="shared" si="2"/>
@@ -30446,7 +30441,7 @@
       </c>
       <c r="O21" s="56" t="str">
         <f>IF(B21&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B21,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com""/sessions/session18.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com/sessions/session18.html)</v>
       </c>
       <c r="P21" s="56" t="str">
         <f t="shared" si="1"/>
@@ -30454,7 +30449,7 @@
       </c>
       <c r="Q21" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Regression** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session18.html)</v>
+        <v>**Regression** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session18.html)</v>
       </c>
       <c r="R21" s="56" t="str">
         <f t="shared" si="2"/>
@@ -30575,7 +30570,7 @@
       </c>
       <c r="O22" s="56" t="str">
         <f>IF(B22&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B22,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com""/sessions/session19.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com/sessions/session19.html)</v>
       </c>
       <c r="P22" s="56" t="str">
         <f t="shared" si="1"/>
@@ -30583,7 +30578,7 @@
       </c>
       <c r="Q22" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Regression** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session19.html)</v>
+        <v>**Regression** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session19.html)</v>
       </c>
       <c r="R22" s="56" t="str">
         <f t="shared" si="2"/>
@@ -30707,7 +30702,7 @@
       </c>
       <c r="O23" s="56" t="str">
         <f>IF(B23&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B23,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com""/sessions/session20.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com/sessions/session20.html)</v>
       </c>
       <c r="P23" s="56" t="str">
         <f t="shared" si="1"/>
@@ -30715,7 +30710,7 @@
       </c>
       <c r="Q23" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Text and NLP** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session20.html)</v>
+        <v>**Text and NLP** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session20.html)</v>
       </c>
       <c r="R23" s="56" t="str">
         <f t="shared" si="2"/>
@@ -30842,7 +30837,7 @@
       </c>
       <c r="O24" s="56" t="str">
         <f>IF(B24&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B24,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com""/sessions/session21.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com/sessions/session21.html)</v>
       </c>
       <c r="P24" s="56" t="str">
         <f t="shared" si="1"/>
@@ -30850,7 +30845,7 @@
       </c>
       <c r="Q24" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Text and NLP** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session21.html)</v>
+        <v>**Text and NLP** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session21.html)</v>
       </c>
       <c r="R24" s="56" t="str">
         <f t="shared" si="2"/>
@@ -30980,7 +30975,7 @@
       </c>
       <c r="O25" s="56" t="str">
         <f>IF(B25&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B25,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com""/sessions/session22.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com/sessions/session22.html)</v>
       </c>
       <c r="P25" s="56" t="str">
         <f t="shared" si="1"/>
@@ -30988,7 +30983,7 @@
       </c>
       <c r="Q25" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Introduction to Big Data** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session22.html)</v>
+        <v>**Introduction to Big Data** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session22.html)</v>
       </c>
       <c r="R25" s="56" t="str">
         <f t="shared" si="2"/>
@@ -31121,7 +31116,7 @@
       </c>
       <c r="O26" s="56" t="str">
         <f>IF(B26&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B26,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com""/sessions/session23.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com/sessions/session23.html)</v>
       </c>
       <c r="P26" s="56" t="str">
         <f t="shared" si="1"/>
@@ -31129,7 +31124,7 @@
       </c>
       <c r="Q26" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Time Series Analysis** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session23.html)</v>
+        <v>**Time Series Analysis** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session23.html)</v>
       </c>
       <c r="R26" s="56" t="str">
         <f t="shared" si="2"/>
@@ -31265,7 +31260,7 @@
       </c>
       <c r="O27" s="56" t="str">
         <f>IF(B27&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B27,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com""/sessions/session24.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com/sessions/session24.html)</v>
       </c>
       <c r="P27" s="56" t="str">
         <f t="shared" si="1"/>
@@ -31273,7 +31268,7 @@
       </c>
       <c r="Q27" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Image Data and Deep Learning** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session24.html)</v>
+        <v>**Image Data and Deep Learning** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session24.html)</v>
       </c>
       <c r="R27" s="56" t="str">
         <f t="shared" si="2"/>
@@ -31412,7 +31407,7 @@
       </c>
       <c r="O28" s="56" t="str">
         <f>IF(B28&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B28,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com""/sessions/session25.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com/sessions/session25.html)</v>
       </c>
       <c r="P28" s="56" t="str">
         <f t="shared" si="1"/>
@@ -31420,7 +31415,7 @@
       </c>
       <c r="Q28" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Image Data and Deep Learning** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session25.html)</v>
+        <v>**Image Data and Deep Learning** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session25.html)</v>
       </c>
       <c r="R28" s="56" t="str">
         <f t="shared" si="2"/>
@@ -31562,7 +31557,7 @@
       </c>
       <c r="O29" s="56" t="str">
         <f>IF(B29&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B29,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com""/sessions/session26.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com/sessions/session26.html)</v>
       </c>
       <c r="P29" s="56" t="str">
         <f t="shared" si="1"/>
@@ -31570,7 +31565,7 @@
       </c>
       <c r="Q29" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Automl and Modeling Packages** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session26.html)</v>
+        <v>**Automl and Modeling Packages** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session26.html)</v>
       </c>
       <c r="R29" s="56" t="str">
         <f t="shared" si="2"/>
@@ -31860,7 +31855,7 @@
       </c>
       <c r="O31" s="56" t="str">
         <f>IF(B31&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B31,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com""/sessions/session27.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com/sessions/session27.html)</v>
       </c>
       <c r="P31" s="56" t="str">
         <f t="shared" si="1"/>
@@ -31868,7 +31863,7 @@
       </c>
       <c r="Q31" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Automl and Model Search** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session27.html)</v>
+        <v>**Automl and Model Search** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session27.html)</v>
       </c>
       <c r="R31" s="56" t="str">
         <f t="shared" si="2"/>
@@ -32014,7 +32009,7 @@
       </c>
       <c r="O32" s="56" t="str">
         <f>IF(B32&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B32,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com""/sessions/session28.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com/sessions/session28.html)</v>
       </c>
       <c r="P32" s="56" t="str">
         <f t="shared" si="1"/>
@@ -32022,7 +32017,7 @@
       </c>
       <c r="Q32" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Final Presentations** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session28.html)</v>
+        <v>**Final Presentations** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session28.html)</v>
       </c>
       <c r="R32" s="56" t="str">
         <f t="shared" si="2"/>
@@ -32170,7 +32165,7 @@
       </c>
       <c r="O33" s="56" t="str">
         <f>IF(B33&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B33,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com""/sessions/session29.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com/sessions/session29.html)</v>
       </c>
       <c r="P33" s="56" t="str">
         <f t="shared" si="1"/>
@@ -32178,7 +32173,7 @@
       </c>
       <c r="Q33" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Final Presentations** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session29.html)</v>
+        <v>**Final Presentations** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session29.html)</v>
       </c>
       <c r="R33" s="56" t="str">
         <f t="shared" si="2"/>
@@ -47289,11 +47284,11 @@
       </c>
       <c r="J2" s="56" t="str">
         <f>IF(ISBLANK(C2),"",CONCATENATE("[",B2,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C2,".html)"))</f>
-        <v>[What is Jupyter?](https://rpi.analyticsdojo.com""/notebooks/01-what-is-jupyter.html)</v>
+        <v>[What is Jupyter?](https://rpi.analyticsdojo.com/notebooks/01-what-is-jupyter.html)</v>
       </c>
       <c r="K2" s="56" t="str">
         <f>IF(A2=A1,K1&amp;"&lt;br&gt;"&amp;J2,J2)</f>
-        <v>[What is Jupyter?](https://rpi.analyticsdojo.com""/notebooks/01-what-is-jupyter.html)</v>
+        <v>[What is Jupyter?](https://rpi.analyticsdojo.com/notebooks/01-what-is-jupyter.html)</v>
       </c>
       <c r="L2" s="56" t="str">
         <f>IF(A2&lt;&gt;A3,K2,"")</f>
@@ -47346,11 +47341,11 @@
       </c>
       <c r="J3" s="56" t="str">
         <f>IF(ISBLANK(C3),"",CONCATENATE("[",B3,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C3,".html)"))</f>
-        <v>[Notebook Basics](https://rpi.analyticsdojo.com""/notebooks/02-notebook-basics.html)</v>
+        <v>[Notebook Basics](https://rpi.analyticsdojo.com/notebooks/02-notebook-basics.html)</v>
       </c>
       <c r="K3" s="56" t="str">
         <f t="shared" ref="K3:K33" si="5">IF(A3=A2,K2&amp;"&lt;br&gt;"&amp;J3,J3)</f>
-        <v>[What is Jupyter?](https://rpi.analyticsdojo.com""/notebooks/01-what-is-jupyter.html)&lt;br&gt;[Notebook Basics](https://rpi.analyticsdojo.com""/notebooks/02-notebook-basics.html)</v>
+        <v>[What is Jupyter?](https://rpi.analyticsdojo.com/notebooks/01-what-is-jupyter.html)&lt;br&gt;[Notebook Basics](https://rpi.analyticsdojo.com/notebooks/02-notebook-basics.html)</v>
       </c>
       <c r="L3" s="56" t="str">
         <f t="shared" ref="L3:L32" si="6">IF(A3&lt;&gt;A4,K3,"")</f>
@@ -47403,11 +47398,11 @@
       </c>
       <c r="J4" s="56" t="str">
         <f>IF(ISBLANK(C4),"",CONCATENATE("[",B4,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C4,".html)"))</f>
-        <v>[Running Code](https://rpi.analyticsdojo.com""/notebooks/03-running-code.html)</v>
+        <v>[Running Code](https://rpi.analyticsdojo.com/notebooks/03-running-code.html)</v>
       </c>
       <c r="K4" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[What is Jupyter?](https://rpi.analyticsdojo.com""/notebooks/01-what-is-jupyter.html)&lt;br&gt;[Notebook Basics](https://rpi.analyticsdojo.com""/notebooks/02-notebook-basics.html)&lt;br&gt;[Running Code](https://rpi.analyticsdojo.com""/notebooks/03-running-code.html)</v>
+        <v>[What is Jupyter?](https://rpi.analyticsdojo.com/notebooks/01-what-is-jupyter.html)&lt;br&gt;[Notebook Basics](https://rpi.analyticsdojo.com/notebooks/02-notebook-basics.html)&lt;br&gt;[Running Code](https://rpi.analyticsdojo.com/notebooks/03-running-code.html)</v>
       </c>
       <c r="L4" s="56" t="str">
         <f t="shared" si="6"/>
@@ -47463,15 +47458,15 @@
       </c>
       <c r="J5" s="56" t="str">
         <f>IF(ISBLANK(C5),"",CONCATENATE("[",B5,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C5,".html)"))</f>
-        <v>[Markdown](https://rpi.analyticsdojo.com""/notebooks/04-markdown.html)</v>
+        <v>[Markdown](https://rpi.analyticsdojo.com/notebooks/04-markdown.html)</v>
       </c>
       <c r="K5" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[What is Jupyter?](https://rpi.analyticsdojo.com""/notebooks/01-what-is-jupyter.html)&lt;br&gt;[Notebook Basics](https://rpi.analyticsdojo.com""/notebooks/02-notebook-basics.html)&lt;br&gt;[Running Code](https://rpi.analyticsdojo.com""/notebooks/03-running-code.html)&lt;br&gt;[Markdown](https://rpi.analyticsdojo.com""/notebooks/04-markdown.html)</v>
+        <v>[What is Jupyter?](https://rpi.analyticsdojo.com/notebooks/01-what-is-jupyter.html)&lt;br&gt;[Notebook Basics](https://rpi.analyticsdojo.com/notebooks/02-notebook-basics.html)&lt;br&gt;[Running Code](https://rpi.analyticsdojo.com/notebooks/03-running-code.html)&lt;br&gt;[Markdown](https://rpi.analyticsdojo.com/notebooks/04-markdown.html)</v>
       </c>
       <c r="L5" s="56" t="str">
         <f t="shared" si="6"/>
-        <v>[What is Jupyter?](https://rpi.analyticsdojo.com""/notebooks/01-what-is-jupyter.html)&lt;br&gt;[Notebook Basics](https://rpi.analyticsdojo.com""/notebooks/02-notebook-basics.html)&lt;br&gt;[Running Code](https://rpi.analyticsdojo.com""/notebooks/03-running-code.html)&lt;br&gt;[Markdown](https://rpi.analyticsdojo.com""/notebooks/04-markdown.html)</v>
+        <v>[What is Jupyter?](https://rpi.analyticsdojo.com/notebooks/01-what-is-jupyter.html)&lt;br&gt;[Notebook Basics](https://rpi.analyticsdojo.com/notebooks/02-notebook-basics.html)&lt;br&gt;[Running Code](https://rpi.analyticsdojo.com/notebooks/03-running-code.html)&lt;br&gt;[Markdown](https://rpi.analyticsdojo.com/notebooks/04-markdown.html)</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="17">
@@ -47526,11 +47521,11 @@
       </c>
       <c r="J6" s="56" t="str">
         <f>IF(ISBLANK(C6),"",CONCATENATE("[",B6,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C6,".html)"))</f>
-        <v>[Python Overview](https://rpi.analyticsdojo.com""/notebooks/05-intro-python-overview.html)</v>
+        <v>[Python Overview](https://rpi.analyticsdojo.com/notebooks/05-intro-python-overview.html)</v>
       </c>
       <c r="K6" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Python Overview](https://rpi.analyticsdojo.com""/notebooks/05-intro-python-overview.html)</v>
+        <v>[Python Overview](https://rpi.analyticsdojo.com/notebooks/05-intro-python-overview.html)</v>
       </c>
       <c r="L6" s="56" t="str">
         <f t="shared" si="6"/>
@@ -47592,11 +47587,11 @@
       </c>
       <c r="J7" s="56" t="str">
         <f>IF(ISBLANK(C7),"",CONCATENATE("[",B7,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C7,".html)"))</f>
-        <v>[Basic Data Structures](https://rpi.analyticsdojo.com""/notebooks/06-intro-python-datastructures.html)</v>
+        <v>[Basic Data Structures](https://rpi.analyticsdojo.com/notebooks/06-intro-python-datastructures.html)</v>
       </c>
       <c r="K7" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Python Overview](https://rpi.analyticsdojo.com""/notebooks/05-intro-python-overview.html)&lt;br&gt;[Basic Data Structures](https://rpi.analyticsdojo.com""/notebooks/06-intro-python-datastructures.html)</v>
+        <v>[Python Overview](https://rpi.analyticsdojo.com/notebooks/05-intro-python-overview.html)&lt;br&gt;[Basic Data Structures](https://rpi.analyticsdojo.com/notebooks/06-intro-python-datastructures.html)</v>
       </c>
       <c r="L7" s="56" t="str">
         <f t="shared" si="6"/>
@@ -47661,11 +47656,11 @@
       </c>
       <c r="J8" s="56" t="str">
         <f>IF(ISBLANK(C8),"",CONCATENATE("[",B8,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C8,".html)"))</f>
-        <v>[Numpy](https://rpi.analyticsdojo.com""/notebooks/07-intro-python-numpy.html)</v>
+        <v>[Numpy](https://rpi.analyticsdojo.com/notebooks/07-intro-python-numpy.html)</v>
       </c>
       <c r="K8" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Python Overview](https://rpi.analyticsdojo.com""/notebooks/05-intro-python-overview.html)&lt;br&gt;[Basic Data Structures](https://rpi.analyticsdojo.com""/notebooks/06-intro-python-datastructures.html)&lt;br&gt;[Numpy](https://rpi.analyticsdojo.com""/notebooks/07-intro-python-numpy.html)</v>
+        <v>[Python Overview](https://rpi.analyticsdojo.com/notebooks/05-intro-python-overview.html)&lt;br&gt;[Basic Data Structures](https://rpi.analyticsdojo.com/notebooks/06-intro-python-datastructures.html)&lt;br&gt;[Numpy](https://rpi.analyticsdojo.com/notebooks/07-intro-python-numpy.html)</v>
       </c>
       <c r="L8" s="56" t="str">
         <f t="shared" si="6"/>
@@ -47733,15 +47728,15 @@
       </c>
       <c r="J9" s="56" t="str">
         <f>IF(ISBLANK(C9),"",CONCATENATE("[",B9,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C9,".html)"))</f>
-        <v>[Pandas](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Pandas](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K9" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Python Overview](https://rpi.analyticsdojo.com""/notebooks/05-intro-python-overview.html)&lt;br&gt;[Basic Data Structures](https://rpi.analyticsdojo.com""/notebooks/06-intro-python-datastructures.html)&lt;br&gt;[Numpy](https://rpi.analyticsdojo.com""/notebooks/07-intro-python-numpy.html)&lt;br&gt;[Pandas](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Python Overview](https://rpi.analyticsdojo.com/notebooks/05-intro-python-overview.html)&lt;br&gt;[Basic Data Structures](https://rpi.analyticsdojo.com/notebooks/06-intro-python-datastructures.html)&lt;br&gt;[Numpy](https://rpi.analyticsdojo.com/notebooks/07-intro-python-numpy.html)&lt;br&gt;[Pandas](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L9" s="56" t="str">
         <f t="shared" si="6"/>
-        <v>[Python Overview](https://rpi.analyticsdojo.com""/notebooks/05-intro-python-overview.html)&lt;br&gt;[Basic Data Structures](https://rpi.analyticsdojo.com""/notebooks/06-intro-python-datastructures.html)&lt;br&gt;[Numpy](https://rpi.analyticsdojo.com""/notebooks/07-intro-python-numpy.html)&lt;br&gt;[Pandas](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Python Overview](https://rpi.analyticsdojo.com/notebooks/05-intro-python-overview.html)&lt;br&gt;[Basic Data Structures](https://rpi.analyticsdojo.com/notebooks/06-intro-python-datastructures.html)&lt;br&gt;[Numpy](https://rpi.analyticsdojo.com/notebooks/07-intro-python-numpy.html)&lt;br&gt;[Pandas](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="17">
@@ -47808,11 +47803,11 @@
       </c>
       <c r="J10" s="56" t="str">
         <f>IF(ISBLANK(C10),"",CONCATENATE("[",B10,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C10,".html)"))</f>
-        <v>[Conditional-Loops](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Conditional-Loops](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K10" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Conditional-Loops](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Conditional-Loops](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L10" s="56" t="str">
         <f t="shared" si="6"/>
@@ -47886,11 +47881,11 @@
       </c>
       <c r="J11" s="56" t="str">
         <f>IF(ISBLANK(C11),"",CONCATENATE("[",B11,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C11,".html)"))</f>
-        <v>[Functions](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Functions](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K11" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Conditional-Loops](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Conditional-Loops](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L11" s="56" t="str">
         <f t="shared" si="6"/>
@@ -47967,11 +47962,11 @@
       </c>
       <c r="J12" s="56" t="str">
         <f>IF(ISBLANK(C12),"",CONCATENATE("[",B12,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C12,".html)"))</f>
-        <v>[Null Values](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Null Values](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K12" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Conditional-Loops](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Conditional-Loops](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L12" s="56" t="str">
         <f t="shared" si="6"/>
@@ -48051,11 +48046,11 @@
       </c>
       <c r="J13" s="56" t="str">
         <f>IF(ISBLANK(C13),"",CONCATENATE("[",B13,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C13,".html)"))</f>
-        <v>[Groupby](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Groupby](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K13" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Conditional-Loops](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Groupby](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Conditional-Loops](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Groupby](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L13" s="56" t="str">
         <f t="shared" si="6"/>
@@ -48138,11 +48133,11 @@
       </c>
       <c r="J14" s="56" t="str">
         <f>IF(ISBLANK(C14),"",CONCATENATE("[",B14,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C14,".html)"))</f>
-        <v>[Kaggle Baseline](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Kaggle Baseline](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K14" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Conditional-Loops](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Groupby](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Kaggle Baseline](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Conditional-Loops](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Groupby](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Kaggle Baseline](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L14" s="56" t="str">
         <f t="shared" si="6"/>
@@ -48228,15 +48223,15 @@
       </c>
       <c r="J15" s="56" t="str">
         <f>IF(ISBLANK(C15),"",CONCATENATE("[",B15,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C15,".html)"))</f>
-        <v>[Assignment 2](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Assignment 2](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K15" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Conditional-Loops](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Groupby](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Kaggle Baseline](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 2](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Conditional-Loops](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Groupby](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Kaggle Baseline](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 2](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L15" s="56" t="str">
         <f t="shared" si="6"/>
-        <v>[Conditional-Loops](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Groupby](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Kaggle Baseline](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 2](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Conditional-Loops](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Groupby](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Kaggle Baseline](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 2](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="17">
@@ -48321,11 +48316,11 @@
       </c>
       <c r="J16" s="56" t="str">
         <f>IF(ISBLANK(C16),"",CONCATENATE("[",B16,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C16,".html)"))</f>
-        <v>[Twitter](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Twitter](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K16" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Twitter](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Twitter](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L16" s="56" t="str">
         <f t="shared" si="6"/>
@@ -48417,11 +48412,11 @@
       </c>
       <c r="J17" s="56" t="str">
         <f>IF(ISBLANK(C17),"",CONCATENATE("[",B17,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C17,".html)"))</f>
-        <v>[Web Mining](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Web Mining](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K17" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Twitter](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Twitter](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L17" s="56" t="str">
         <f t="shared" si="6"/>
@@ -48516,11 +48511,11 @@
       </c>
       <c r="J18" s="56" t="str">
         <f>IF(ISBLANK(C18),"",CONCATENATE("[",B18,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C18,".html)"))</f>
-        <v>[Visualizations - Seaborn](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Visualizations - Seaborn](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K18" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Twitter](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Twitter](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L18" s="56" t="str">
         <f t="shared" si="6"/>
@@ -48618,11 +48613,11 @@
       </c>
       <c r="J19" s="56" t="str">
         <f>IF(ISBLANK(C19),"",CONCATENATE("[",B19,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C19,".html)"))</f>
-        <v>[Strings - Regular Expressions](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Strings - Regular Expressions](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K19" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Twitter](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Strings - Regular Expressions](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Twitter](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Strings - Regular Expressions](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L19" s="56" t="str">
         <f t="shared" si="6"/>
@@ -48723,11 +48718,11 @@
       </c>
       <c r="J20" s="56" t="str">
         <f>IF(ISBLANK(C20),"",CONCATENATE("[",B20,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C20,".html)"))</f>
-        <v>[Feature Dummies](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Feature Dummies](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K20" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Twitter](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Strings - Regular Expressions](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Feature Dummies](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Twitter](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Strings - Regular Expressions](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Feature Dummies](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L20" s="56" t="str">
         <f t="shared" si="6"/>
@@ -48831,15 +48826,15 @@
       </c>
       <c r="J21" s="56" t="str">
         <f>IF(ISBLANK(C21),"",CONCATENATE("[",B21,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C21,".html)"))</f>
-        <v>[Assignment 3](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Assignment 3](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K21" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Twitter](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Strings - Regular Expressions](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Feature Dummies](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 3](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Twitter](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Strings - Regular Expressions](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Feature Dummies](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 3](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L21" s="56" t="str">
         <f t="shared" si="6"/>
-        <v>[Twitter](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Strings - Regular Expressions](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Feature Dummies](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 3](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Twitter](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Strings - Regular Expressions](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Feature Dummies](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 3](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="17">
@@ -48942,11 +48937,11 @@
       </c>
       <c r="J22" s="56" t="str">
         <f>IF(ISBLANK(C22),"",CONCATENATE("[",B22,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C22,".html)"))</f>
-        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K22" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L22" s="56" t="str">
         <f t="shared" si="6"/>
@@ -49056,11 +49051,11 @@
       </c>
       <c r="J23" s="56" t="str">
         <f>IF(ISBLANK(C23),"",CONCATENATE("[",B23,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C23,".html)"))</f>
-        <v>[Train Test Split](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Train Test Split](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K23" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L23" s="56" t="str">
         <f t="shared" si="6"/>
@@ -49173,11 +49168,11 @@
       </c>
       <c r="J24" s="56" t="str">
         <f>IF(ISBLANK(C24),"",CONCATENATE("[",B24,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C24,".html)"))</f>
-        <v>[Introduction to Logistic Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Introduction to Logistic Regression](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K24" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L24" s="56" t="str">
         <f t="shared" si="6"/>
@@ -49293,11 +49288,11 @@
       </c>
       <c r="J25" s="56" t="str">
         <f>IF(ISBLANK(C25),"",CONCATENATE("[",B25,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C25,".html)"))</f>
-        <v>[K Nearest Neighbor](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+        <v>[K Nearest Neighbor](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K25" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L25" s="56" t="str">
         <f t="shared" si="6"/>
@@ -49416,11 +49411,11 @@
       </c>
       <c r="J26" s="56" t="str">
         <f>IF(ISBLANK(C26),"",CONCATENATE("[",B26,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C26,".html)"))</f>
-        <v>[ROC and SVM](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+        <v>[ROC and SVM](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K26" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[ROC and SVM](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[ROC and SVM](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L26" s="56" t="str">
         <f t="shared" si="6"/>
@@ -49542,11 +49537,11 @@
       </c>
       <c r="J27" s="56" t="str">
         <f>IF(ISBLANK(C27),"",CONCATENATE("[",B27,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C27,".html)"))</f>
-        <v>[HM5A Visualization &amp; Screen Scraping](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+        <v>[HM5A Visualization &amp; Screen Scraping](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K27" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[ROC and SVM](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5A Visualization &amp; Screen Scraping](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[ROC and SVM](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5A Visualization &amp; Screen Scraping](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L27" s="56" t="str">
         <f t="shared" si="6"/>
@@ -49671,15 +49666,15 @@
       </c>
       <c r="J28" s="56" t="str">
         <f>IF(ISBLANK(C28),"",CONCATENATE("[",B28,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C28,".html)"))</f>
-        <v>[HM5B Intro Modeling](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+        <v>[HM5B Intro Modeling](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K28" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[ROC and SVM](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5A Visualization &amp; Screen Scraping](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5B Intro Modeling](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[ROC and SVM](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5A Visualization &amp; Screen Scraping](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5B Intro Modeling](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L28" s="56" t="str">
         <f t="shared" si="6"/>
-        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[ROC and SVM](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5A Visualization &amp; Screen Scraping](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5B Intro Modeling](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[ROC and SVM](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5A Visualization &amp; Screen Scraping](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5B Intro Modeling](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="17">
@@ -49803,11 +49798,11 @@
       </c>
       <c r="J29" s="56" t="str">
         <f>IF(ISBLANK(C29),"",CONCATENATE("[",B29,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C29,".html)"))</f>
-        <v>[Matrix Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Matrix Regression](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K29" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Matrix Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Matrix Regression](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L29" s="56" t="str">
         <f t="shared" si="6"/>
@@ -49938,11 +49933,11 @@
       </c>
       <c r="J30" s="56" t="str">
         <f>IF(ISBLANK(C30),"",CONCATENATE("[",B30,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C30,".html)"))</f>
-        <v>[Regression Basics](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Regression Basics](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K30" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Matrix Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Regression Basics](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Matrix Regression](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Regression Basics](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L30" s="56" t="str">
         <f t="shared" si="6"/>
@@ -50076,15 +50071,15 @@
       </c>
       <c r="J31" s="56" t="str">
         <f>IF(ISBLANK(C31),"",CONCATENATE("[",B31,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C31,".html)"))</f>
-        <v>[Ridge and Lasso Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Ridge and Lasso Regression](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K31" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Matrix Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Regression Basics](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Ridge and Lasso Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Matrix Regression](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Regression Basics](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Ridge and Lasso Regression](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L31" s="56" t="str">
         <f t="shared" si="6"/>
-        <v>[Matrix Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Regression Basics](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Ridge and Lasso Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Matrix Regression](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Regression Basics](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Ridge and Lasso Regression](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="17">
@@ -50217,11 +50212,11 @@
       </c>
       <c r="J32" s="56" t="str">
         <f>IF(ISBLANK(C32),"",CONCATENATE("[",B32,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C32,".html)"))</f>
-        <v>[Ridge and Lasso Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Ridge and Lasso Regression](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K32" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Ridge and Lasso Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Ridge and Lasso Regression](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L32" s="56" t="str">
         <f t="shared" si="6"/>
@@ -50361,11 +50356,11 @@
       </c>
       <c r="J33" s="56" t="str">
         <f>IF(ISBLANK(C33),"",CONCATENATE("[",B33,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C33,".html)"))</f>
-        <v>[PCA](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+        <v>[PCA](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K33" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Ridge and Lasso Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[PCA](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Ridge and Lasso Regression](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[PCA](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L33" s="56" t="e">
         <f>IF(A33&lt;&gt;#REF!,K33,"")</f>
@@ -50433,9 +50428,9 @@
       <c r="A5" s="4" t="s">
         <v>700</v>
       </c>
-      <c r="B5" s="18" t="str">
+      <c r="B5" s="18">
         <f>Configuration!B28</f>
-        <v>""</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">

--- a/book.xlsx
+++ b/book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/course-intro-ml-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A628B53B-3F74-A04E-A66F-350307540DB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A609E8-3EF5-7645-ABC4-514E3A21835A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5560" yWindow="2660" windowWidth="23240" windowHeight="12700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4159" uniqueCount="904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4160" uniqueCount="905">
   <si>
     <t>Wk</t>
   </si>
@@ -2885,6 +2885,9 @@
   </si>
   <si>
     <t>https://rpi.analyticsdojo.com</t>
+  </si>
+  <si>
+    <t>""</t>
   </si>
 </sst>
 </file>
@@ -3330,7 +3333,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -3603,6 +3606,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4183,7 +4189,9 @@
       <c r="A28" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="B28" s="95"/>
+      <c r="B28" s="120" t="s">
+        <v>904</v>
+      </c>
       <c r="C28" s="95"/>
       <c r="D28" s="95"/>
       <c r="E28" s="95"/>
@@ -4500,7 +4508,7 @@
     <row r="4" spans="1:4" ht="15" customHeight="1">
       <c r="A4" s="4" t="str">
         <f>CONCATENATE("| ",Schedule!A3," | ",Schedule!B3," | ",Schedule!C3," | ",TEXT(Schedule!D3,"mm/dd")," | ",Schedule!Q3," |")</f>
-        <v>| 1 | 1 | Th | 08/29 | **Course Overview &amp; Introduction to the Data Science Lifecycle** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session1.html) |</v>
+        <v>| 1 | 1 | Th | 08/29 | **Course Overview &amp; Introduction to the Data Science Lifecycle** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session1.html) |</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -4513,151 +4521,151 @@
     <row r="6" spans="1:4" ht="15" customHeight="1">
       <c r="A6" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A5," | ",Schedule!B5," | ",Schedule!C5," | ",TEXT(Schedule!D5,"mm/dd")," | ",Schedule!Q5," |")</f>
-        <v>| 2 | 2 | Tu | 09/03 | **Python Basics** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session2.html) &lt;br&gt; *Assignment 1 due 09/17* &lt;br&gt; |</v>
+        <v>| 2 | 2 | Tu | 09/03 | **Python Basics** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session2.html) &lt;br&gt; *Assignment 1 due 09/17* &lt;br&gt; |</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1">
       <c r="A7" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A6," | ",Schedule!B6," | ",Schedule!C6," | ",TEXT(Schedule!D6,"mm/dd")," | ",Schedule!Q6," |")</f>
-        <v>| 2 | 3 | Th | 09/05 | **Python Basics** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session3.html) |</v>
+        <v>| 2 | 3 | Th | 09/05 | **Python Basics** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session3.html) |</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1">
       <c r="A8" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A7," | ",Schedule!B7," | ",Schedule!C7," | ",TEXT(Schedule!D7,"mm/dd")," | ",Schedule!Q7," |")</f>
-        <v>| 3 | 4 | M | 09/09 | **Python conditionals, loops, functions, aggregating.** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session4.html) |</v>
+        <v>| 3 | 4 | M | 09/09 | **Python conditionals, loops, functions, aggregating.** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session4.html) |</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1">
       <c r="A9" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A8," | ",Schedule!B8," | ",Schedule!C8," | ",TEXT(Schedule!D8,"mm/dd")," | ",Schedule!Q8," |")</f>
-        <v>| 3 | 5 | Th | 09/12 | **Python conditionals, loops, functions, aggregating (continued)** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session5.html) &lt;br&gt; *Assignment 2 due 09/26* &lt;br&gt; |</v>
+        <v>| 3 | 5 | Th | 09/12 | **Python conditionals, loops, functions, aggregating (continued)** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session5.html) &lt;br&gt; *Assignment 2 due 09/26* &lt;br&gt; |</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1">
       <c r="A10" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A9," | ",Schedule!B9," | ",Schedule!C9," | ",TEXT(Schedule!D9,"mm/dd")," | ",Schedule!Q9," |")</f>
-        <v>| 4 | 6 | M | 09/16 | **Python visualization, data manipulation , and feature creation.** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session6.html) |</v>
+        <v>| 4 | 6 | M | 09/16 | **Python visualization, data manipulation , and feature creation.** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session6.html) |</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1">
       <c r="A11" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A10," | ",Schedule!B10," | ",Schedule!C10," | ",TEXT(Schedule!D10,"mm/dd")," | ",Schedule!Q10," |")</f>
-        <v>| 4 | 7 | Th | 09/19 | **Python visualization, data manipulation , and feature creation (continued)** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session7.html) |</v>
+        <v>| 4 | 7 | Th | 09/19 | **Python visualization, data manipulation , and feature creation (continued)** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session7.html) |</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1">
       <c r="A12" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A11," | ",Schedule!B11," | ",Schedule!C11," | ",TEXT(Schedule!D11,"mm/dd")," | ",Schedule!Q11," |")</f>
-        <v>| 5 | 8 | M | 09/23 | **Python and Unsupervised Learning** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session8.html) |</v>
+        <v>| 5 | 8 | M | 09/23 | **Python and Unsupervised Learning** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session8.html) |</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1">
       <c r="A13" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A12," | ",Schedule!B12," | ",Schedule!C12," | ",TEXT(Schedule!D12,"mm/dd")," | ",Schedule!Q12," |")</f>
-        <v>| 5 | 9 | Th | 09/26 | **Python and Unsupervised Learning** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session9.html) |</v>
+        <v>| 5 | 9 | Th | 09/26 | **Python and Unsupervised Learning** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session9.html) |</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1">
       <c r="A14" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A13," | ",Schedule!B13," | ",Schedule!C13," | ",TEXT(Schedule!D13,"mm/dd")," | ",Schedule!Q13," |")</f>
-        <v>| 6 | 10 | M | 09/30 | **Introduction to R** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session10.html) |</v>
+        <v>| 6 | 10 | M | 09/30 | **Introduction to R** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session10.html) |</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1">
       <c r="A15" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A14," | ",Schedule!B14," | ",Schedule!C14," | ",TEXT(Schedule!D14,"mm/dd")," | ",Schedule!Q14," |")</f>
-        <v>| 6 | 11 | Th | 10/03 | **Introduction to R** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session11.html) |</v>
+        <v>| 6 | 11 | Th | 10/03 | **Introduction to R** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session11.html) |</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1">
       <c r="A16" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A15," | ",Schedule!B15," | ",Schedule!C15," | ",TEXT(Schedule!D15,"mm/dd")," | ",Schedule!Q15," |")</f>
-        <v>| 7 | 12 | M | 10/07 | **Overview of Modeling** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session12.html) |</v>
+        <v>| 7 | 12 | M | 10/07 | **Overview of Modeling** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session12.html) |</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15" customHeight="1">
       <c r="A17" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A16," | ",Schedule!B16," | ",Schedule!C16," | ",TEXT(Schedule!D16,"mm/dd")," | ",Schedule!Q16," |")</f>
-        <v>| 7 | 13 | Th | 10/10 | **Overview of Modeling** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session13.html) |</v>
+        <v>| 7 | 13 | Th | 10/10 | **Overview of Modeling** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session13.html) |</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15" customHeight="1">
       <c r="A18" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A17," | ",Schedule!B17," | ",Schedule!C17," | ",TEXT(Schedule!D17,"mm/dd")," | ",Schedule!Q17," |")</f>
-        <v>| 8 | 14 | M | 10/14 | **Review/Kaggle Project Introduction** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session14.html) |</v>
+        <v>| 8 | 14 | M | 10/14 | **Review/Kaggle Project Introduction** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session14.html) |</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15" customHeight="1">
       <c r="A19" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A18," | ",Schedule!B18," | ",Schedule!C18," | ",TEXT(Schedule!D18,"mm/dd")," | ",Schedule!Q18," |")</f>
-        <v>| 8 | 15 | Th | 10/17 | **Midterm** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session15.html) |</v>
+        <v>| 8 | 15 | Th | 10/17 | **Midterm** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session15.html) |</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15" customHeight="1">
       <c r="A20" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A19," | ",Schedule!B19," | ",Schedule!C19," | ",TEXT(Schedule!D19,"mm/dd")," | ",Schedule!Q19," |")</f>
-        <v>| 9 | 16 | M | 10/21 | **Classification** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session16.html) |</v>
+        <v>| 9 | 16 | M | 10/21 | **Classification** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session16.html) |</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15" customHeight="1">
       <c r="A21" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A20," | ",Schedule!B20," | ",Schedule!C20," | ",TEXT(Schedule!D20,"mm/dd")," | ",Schedule!Q20," |")</f>
-        <v>| 9 | 17 | Th | 10/24 | **Classification** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session17.html) |</v>
+        <v>| 9 | 17 | Th | 10/24 | **Classification** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session17.html) |</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15" customHeight="1">
       <c r="A22" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A21," | ",Schedule!B21," | ",Schedule!C21," | ",TEXT(Schedule!D21,"mm/dd")," | ",Schedule!Q21," |")</f>
-        <v>| 10 | 18 | M | 10/28 | **Regression** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session18.html) |</v>
+        <v>| 10 | 18 | M | 10/28 | **Regression** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session18.html) |</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15" customHeight="1">
       <c r="A23" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A22," | ",Schedule!B22," | ",Schedule!C22," | ",TEXT(Schedule!D22,"mm/dd")," | ",Schedule!Q22," |")</f>
-        <v>| 10 | 19 | Th | 10/31 | **Regression** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session19.html) |</v>
+        <v>| 10 | 19 | Th | 10/31 | **Regression** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session19.html) |</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15" customHeight="1">
       <c r="A24" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A23," | ",Schedule!B23," | ",Schedule!C23," | ",TEXT(Schedule!D23,"mm/dd")," | ",Schedule!Q23," |")</f>
-        <v>| 11 | 20 | M | 11/04 | **Text and NLP** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session20.html) |</v>
+        <v>| 11 | 20 | M | 11/04 | **Text and NLP** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session20.html) |</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15" customHeight="1">
       <c r="A25" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A24," | ",Schedule!B24," | ",Schedule!C24," | ",TEXT(Schedule!D24,"mm/dd")," | ",Schedule!Q24," |")</f>
-        <v>| 11 | 21 | Th | 11/07 | **Text and NLP** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session21.html) |</v>
+        <v>| 11 | 21 | Th | 11/07 | **Text and NLP** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session21.html) |</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15" customHeight="1">
       <c r="A26" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A25," | ",Schedule!B25," | ",Schedule!C25," | ",TEXT(Schedule!D25,"mm/dd")," | ",Schedule!Q25," |")</f>
-        <v>| 12 | 22 | M | 11/11 | **Introduction to Big Data** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session22.html) |</v>
+        <v>| 12 | 22 | M | 11/11 | **Introduction to Big Data** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session22.html) |</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15" customHeight="1">
       <c r="A27" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A26," | ",Schedule!B26," | ",Schedule!C26," | ",TEXT(Schedule!D26,"mm/dd")," | ",Schedule!Q26," |")</f>
-        <v>| 12 | 23 | Th | 11/14 | **Time Series Analysis** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session23.html) |</v>
+        <v>| 12 | 23 | Th | 11/14 | **Time Series Analysis** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session23.html) |</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15" customHeight="1">
       <c r="A28" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A27," | ",Schedule!B27," | ",Schedule!C27," | ",TEXT(Schedule!D27,"mm/dd")," | ",Schedule!Q27," |")</f>
-        <v>| 13 | 24 | M | 11/18 | **Image Data and Deep Learning** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session24.html) |</v>
+        <v>| 13 | 24 | M | 11/18 | **Image Data and Deep Learning** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session24.html) |</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15" customHeight="1">
       <c r="A29" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A28," | ",Schedule!B28," | ",Schedule!C28," | ",TEXT(Schedule!D28,"mm/dd")," | ",Schedule!Q28," |")</f>
-        <v>| 13 | 25 | Th | 11/21 | **Image Data and Deep Learning** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session25.html) |</v>
+        <v>| 13 | 25 | Th | 11/21 | **Image Data and Deep Learning** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session25.html) |</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="16">
       <c r="A30" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A29," | ",Schedule!B29," | ",Schedule!C29," | ",TEXT(Schedule!D29,"mm/dd")," | ",Schedule!Q29," |")</f>
-        <v>| 14 | 26 | M | 11/25 | **Automl and Modeling Packages** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session26.html) |</v>
+        <v>| 14 | 26 | M | 11/25 | **Automl and Modeling Packages** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session26.html) |</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="16">
@@ -4669,19 +4677,19 @@
     <row r="32" spans="1:1" ht="16">
       <c r="A32" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A31," | ",Schedule!B31," | ",Schedule!C31," | ",TEXT(Schedule!D31,"mm/dd")," | ",Schedule!Q31," |")</f>
-        <v>| 15 | 27 | M | 12/02 | **Automl and Model Search** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session27.html) |</v>
+        <v>| 15 | 27 | M | 12/02 | **Automl and Model Search** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session27.html) |</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="16">
       <c r="A33" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A32," | ",Schedule!B32," | ",Schedule!C32," | ",TEXT(Schedule!D32,"mm/dd")," | ",Schedule!Q32," |")</f>
-        <v>| 15 | 28 | Th | 12/05 | **Final Presentations** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session28.html) |</v>
+        <v>| 15 | 28 | Th | 12/05 | **Final Presentations** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session28.html) |</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="16">
       <c r="A34" s="29" t="str">
         <f>CONCATENATE("| ",Schedule!A33," | ",Schedule!B33," | ",Schedule!C33," | ",TEXT(Schedule!D33,"mm/dd")," | ",Schedule!Q33," |")</f>
-        <v>| 16 | 29 | M | 12/09 | **Final Presentations** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session29.html) |</v>
+        <v>| 16 | 29 | M | 12/09 | **Final Presentations** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session29.html) |</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="16">
@@ -4751,19 +4759,19 @@
     <row r="8" spans="1:1">
       <c r="A8" s="29" t="str">
         <f>IF(Readings!F6="","",CONCATENATE("| [",Readings!A6,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Readings!A6,".html) | ",Readings!F6," |"))</f>
-        <v>| [2](https://rpi.analyticsdojo.com/sessions/session2.html) | [Doing Data Science (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/9781449363871)&lt;br&gt;[Data Science for Business (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/business-intelligence/9781449374273)&lt;br&gt;[Command Line Cheat Sheet](https://www.git-tower.com/blog/command-line-cheat-sheet/)&lt;br&gt;[Assignment Process](/assignments)&lt;br&gt;[Running Jupyter locally](http://rpi.analyticsdojo.com/setup/anaconda/) |</v>
+        <v>| [2](https://rpi.analyticsdojo.com""/sessions/session2.html) | [Doing Data Science (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/9781449363871)&lt;br&gt;[Data Science for Business (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/business-intelligence/9781449374273)&lt;br&gt;[Command Line Cheat Sheet](https://www.git-tower.com/blog/command-line-cheat-sheet/)&lt;br&gt;[Assignment Process](/assignments)&lt;br&gt;[Running Jupyter locally](http://rpi.analyticsdojo.com/setup/anaconda/) |</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="29" t="str">
         <f>IF(Readings!F7="","",CONCATENATE("| [",Readings!A7,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Readings!A7,".html) | ",Readings!F7," |"))</f>
-        <v>| [4](https://rpi.analyticsdojo.com/sessions/session4.html) | [Principles of Data Wrangling (Chapters 1-3)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/business-intelligence/9781491938911) |</v>
+        <v>| [4](https://rpi.analyticsdojo.com""/sessions/session4.html) | [Principles of Data Wrangling (Chapters 1-3)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/business-intelligence/9781491938911) |</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="29" t="str">
         <f>IF(Readings!F8="","",CONCATENATE("| [",Readings!A8,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Readings!A8,".html) | ",Readings!F8," |"))</f>
-        <v>| [6](https://rpi.analyticsdojo.com/sessions/session6.html) | [Introduction to Machine Learning with Python (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/programming/machine-learning/9781449369880) |</v>
+        <v>| [6](https://rpi.analyticsdojo.com""/sessions/session6.html) | [Introduction to Machine Learning with Python (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/programming/machine-learning/9781449369880) |</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -4793,7 +4801,7 @@
     <row r="15" spans="1:1">
       <c r="A15" s="29" t="str">
         <f>IF(Readings!F13="","",CONCATENATE("| [",Readings!A13,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Readings!A13,".html) | ",Readings!F13," |"))</f>
-        <v>| [8](https://rpi.analyticsdojo.com/sessions/session8.html) | [Install Tableau (free for students)](https://www.tableau.com/academic/students)&lt;br&gt;[Tableau - Data analytics for university students guide](https://www.tableau.com/university-students)&lt;br&gt;[Designing Great Visualizations](http://www.tableau.com/sites/default/files/media/designing-great-visualizations.pdf)&lt;br&gt;[Tableau getting Started](http://www.tableau.com/learn/tutorials/on-demand/getting-started)&lt;br&gt;[TED Talk](https://www.ted.com/talks/david_mccandless_the_beauty_of_data_visualization#t-304102) |</v>
+        <v>| [8](https://rpi.analyticsdojo.com""/sessions/session8.html) | [Install Tableau (free for students)](https://www.tableau.com/academic/students)&lt;br&gt;[Tableau - Data analytics for university students guide](https://www.tableau.com/university-students)&lt;br&gt;[Designing Great Visualizations](http://www.tableau.com/sites/default/files/media/designing-great-visualizations.pdf)&lt;br&gt;[Tableau getting Started](http://www.tableau.com/learn/tutorials/on-demand/getting-started)&lt;br&gt;[TED Talk](https://www.ted.com/talks/david_mccandless_the_beauty_of_data_visualization#t-304102) |</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -4805,7 +4813,7 @@
     <row r="17" spans="1:1">
       <c r="A17" s="29" t="str">
         <f>IF(Readings!F15="","",CONCATENATE("| [",Readings!A15,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Readings!A15,".html) | ",Readings!F15," |"))</f>
-        <v>| [10](https://rpi.analyticsdojo.com/sessions/session10.html) | [R for Data Science (Chapters 1-3)](https://r4ds.had.co.nz)&lt;br&gt;[RStudio Cloud](https://rstudio.cloud) |</v>
+        <v>| [10](https://rpi.analyticsdojo.com""/sessions/session10.html) | [R for Data Science (Chapters 1-3)](https://r4ds.had.co.nz)&lt;br&gt;[RStudio Cloud](https://rstudio.cloud) |</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -4835,7 +4843,7 @@
     <row r="22" spans="1:1">
       <c r="A22" s="29" t="str">
         <f>IF(Readings!F20="","",CONCATENATE("| [",Readings!A20,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Readings!A20,".html) | ",Readings!F20," |"))</f>
-        <v>| [12](https://rpi.analyticsdojo.com/sessions/session12.html) | [Cross Validation](https://www.analyticsvidhya.com/blog/2015/11/improve-model-performance-cross-validation-in-python-r/)&lt;br&gt;[The 10 Algorithms Machine Learning Engineers Need to Know](https://gab41.lab41.org/the-10-algorithms-machine-learning-engineers-need-to-know-f4bb63f5b2fa#.4rekzo2o1)&lt;br&gt;[15 Algorithms Machine Learning Engineers Must Need to Know](https://www.favouriteblog.com/15-algorithms-machine-learning-engineers/)&lt;br&gt;[A Tour of Machine Learning Algorithms](http://machinelearningmastery.com/a-tour-of-machine-learning-algorithms/)&lt;br&gt;[An Introduction to Machine Learning with Python (Chapter 2-3)](http://proquestcombo.safaribooksonline.com/book/programming/machine-learning/9781449369880) |</v>
+        <v>| [12](https://rpi.analyticsdojo.com""/sessions/session12.html) | [Cross Validation](https://www.analyticsvidhya.com/blog/2015/11/improve-model-performance-cross-validation-in-python-r/)&lt;br&gt;[The 10 Algorithms Machine Learning Engineers Need to Know](https://gab41.lab41.org/the-10-algorithms-machine-learning-engineers-need-to-know-f4bb63f5b2fa#.4rekzo2o1)&lt;br&gt;[15 Algorithms Machine Learning Engineers Must Need to Know](https://www.favouriteblog.com/15-algorithms-machine-learning-engineers/)&lt;br&gt;[A Tour of Machine Learning Algorithms](http://machinelearningmastery.com/a-tour-of-machine-learning-algorithms/)&lt;br&gt;[An Introduction to Machine Learning with Python (Chapter 2-3)](http://proquestcombo.safaribooksonline.com/book/programming/machine-learning/9781449369880) |</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -4859,7 +4867,7 @@
     <row r="26" spans="1:1">
       <c r="A26" s="29" t="str">
         <f>IF(Readings!F24="","",CONCATENATE("| [",Readings!A24,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Readings!A24,".html) | ",Readings!F24," |"))</f>
-        <v>| [20](https://rpi.analyticsdojo.com/sessions/session20.html) | [The Seven Practice Areas of Text Mining](http://cdn2.hubspot.net/hubfs/2176909/Whitepaper_The_Seven_Practice_Areas_of_Text_Analytics_Chapter_2_Excerpt.pdf?t=1469213247687)&lt;br&gt;[The Amazing Power of Word Vectors](https://blog.acolyer.org/2016/04/21/the-amazing-power-of-word-vectors/)&lt;br&gt;[Bag of Words Tutorial](https://www.kaggle.com/c/word2vec-nlp-tutorial/details/part-1-for-beginners-bag-of-words)&lt;br&gt;[Word Vectors](https://www.kaggle.com/c/word2vec-nlp-tutorial/details/part-2-word-vectors) |</v>
+        <v>| [20](https://rpi.analyticsdojo.com""/sessions/session20.html) | [The Seven Practice Areas of Text Mining](http://cdn2.hubspot.net/hubfs/2176909/Whitepaper_The_Seven_Practice_Areas_of_Text_Analytics_Chapter_2_Excerpt.pdf?t=1469213247687)&lt;br&gt;[The Amazing Power of Word Vectors](https://blog.acolyer.org/2016/04/21/the-amazing-power-of-word-vectors/)&lt;br&gt;[Bag of Words Tutorial](https://www.kaggle.com/c/word2vec-nlp-tutorial/details/part-1-for-beginners-bag-of-words)&lt;br&gt;[Word Vectors](https://www.kaggle.com/c/word2vec-nlp-tutorial/details/part-2-word-vectors) |</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -4877,7 +4885,7 @@
     <row r="29" spans="1:1">
       <c r="A29" s="29" t="str">
         <f>IF(Readings!F27="","",CONCATENATE("| [",Readings!A27,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Readings!A27,".html) | ",Readings!F27," |"))</f>
-        <v>| [23](https://rpi.analyticsdojo.com/sessions/session23.html) | [Introduction to Time Series](https://www.youtube.com/watch?v=d4Sn6ny_5LI)&lt;br&gt;[7 Ways Time Series Forecasting Differs from Machine Learning](https://www.datascience.com/blog/time-series-forecasting-machine-learning-differences)&lt;br&gt;[Aggregation Techniques and Cryptocurrencies](https://medium.com/python-data/time-series-aggregation-techniques-with-python-a-look-at-major-cryptocurrencies-a9eb1dd49c1b) |</v>
+        <v>| [23](https://rpi.analyticsdojo.com""/sessions/session23.html) | [Introduction to Time Series](https://www.youtube.com/watch?v=d4Sn6ny_5LI)&lt;br&gt;[7 Ways Time Series Forecasting Differs from Machine Learning](https://www.datascience.com/blog/time-series-forecasting-machine-learning-differences)&lt;br&gt;[Aggregation Techniques and Cryptocurrencies](https://medium.com/python-data/time-series-aggregation-techniques-with-python-a-look-at-major-cryptocurrencies-a9eb1dd49c1b) |</v>
       </c>
     </row>
   </sheetData>
@@ -4941,7 +4949,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="29" t="str">
         <f>IF(Notebooks!G5="","",CONCATENATE("| [",Notebooks!A5,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A5,") | ",Notebooks!G5," |"))</f>
-        <v>| [1](https://rpi.analyticsdojo.com/sessions/session1) | What is Jupyter? - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/01-what-is-jupyter.ipynb#scrollTo=mdFTkIqGwgOJ)&lt;br&gt;Notebook Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/02-notebook-basics.ipynb)&lt;br&gt;Running Code - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/03-running-code.ipynb)&lt;br&gt;Markdown - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/04-markdown.ipynb) |</v>
+        <v>| [1](https://rpi.analyticsdojo.com""/sessions/session1) | What is Jupyter? - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/01-what-is-jupyter.ipynb#scrollTo=mdFTkIqGwgOJ)&lt;br&gt;Notebook Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/02-notebook-basics.ipynb)&lt;br&gt;Running Code - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/03-running-code.ipynb)&lt;br&gt;Markdown - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/04-markdown.ipynb) |</v>
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
@@ -4977,7 +4985,7 @@
     <row r="11" spans="1:4">
       <c r="A11" s="29" t="str">
         <f>IF(Notebooks!G9="","",CONCATENATE("| [",Notebooks!A9,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A9,") | ",Notebooks!G9," |"))</f>
-        <v>| [2](https://rpi.analyticsdojo.com/sessions/session2) | Python Overview - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/01-intro-python-overview.ipynb)&lt;br&gt;Basic Data Structures - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/02-intro-python-datastructures.ipynbhttps://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/03-intro-python-numpy.ipynb)&lt;br&gt;Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)&lt;br&gt;Pandas - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb) |</v>
+        <v>| [2](https://rpi.analyticsdojo.com""/sessions/session2) | Python Overview - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/01-intro-python-overview.ipynb)&lt;br&gt;Basic Data Structures - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/02-intro-python-datastructures.ipynbhttps://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/03-intro-python-numpy.ipynb)&lt;br&gt;Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)&lt;br&gt;Pandas - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb) |</v>
       </c>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
@@ -5031,7 +5039,7 @@
     <row r="17" spans="1:4">
       <c r="A17" s="29" t="str">
         <f>IF(Notebooks!G15="","",CONCATENATE("| [",Notebooks!A15,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A15,") | ",Notebooks!G15," |"))</f>
-        <v>| [4](https://rpi.analyticsdojo.com/sessions/session4) | Conditional-Loops - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb)&lt;br&gt;Functions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/02-intro-python-functions.ipynb)&lt;br&gt;Null Values - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/03-intro-python-null-values.ipynb)&lt;br&gt;Groupby - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/04-intro-python-groupby.ipynb)&lt;br&gt;Kaggle Baseline - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/05-intro-kaggle-baseline.ipynb)&lt;br&gt;Assignment 2 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/hm-02/hm02.ipynb) |</v>
+        <v>| [4](https://rpi.analyticsdojo.com""/sessions/session4) | Conditional-Loops - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb)&lt;br&gt;Functions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/02-intro-python-functions.ipynb)&lt;br&gt;Null Values - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/03-intro-python-null-values.ipynb)&lt;br&gt;Groupby - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/04-intro-python-groupby.ipynb)&lt;br&gt;Kaggle Baseline - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/05-intro-kaggle-baseline.ipynb)&lt;br&gt;Assignment 2 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/hm-02/hm02.ipynb) |</v>
       </c>
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
@@ -5085,7 +5093,7 @@
     <row r="23" spans="1:4">
       <c r="A23" s="29" t="str">
         <f>IF(Notebooks!G21="","",CONCATENATE("| [",Notebooks!A21,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A21,") | ",Notebooks!G21," |"))</f>
-        <v>| [6](https://rpi.analyticsdojo.com/sessions/session6) | Twitter - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb)&lt;br&gt;Web Mining - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/02_intro_python_webmining.ipynb)&lt;br&gt;Visualizations - Seaborn - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/03_visualization_python_seaborn.ipynb)&lt;br&gt;Strings - Regular Expressions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/04_strings_and_regular_expressions.ipynb)&lt;br&gt;Feature Dummies - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/05_features_dummies.ipynb)&lt;br&gt;Assignment 3 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/hm-03/hm03.ipynb) |</v>
+        <v>| [6](https://rpi.analyticsdojo.com""/sessions/session6) | Twitter - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb)&lt;br&gt;Web Mining - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/02_intro_python_webmining.ipynb)&lt;br&gt;Visualizations - Seaborn - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/03_visualization_python_seaborn.ipynb)&lt;br&gt;Strings - Regular Expressions - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/04_strings_and_regular_expressions.ipynb)&lt;br&gt;Feature Dummies - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/05_features_dummies.ipynb)&lt;br&gt;Assignment 3 - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/hm-03/hm03.ipynb) |</v>
       </c>
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
@@ -5148,7 +5156,7 @@
     <row r="30" spans="1:4">
       <c r="A30" s="29" t="str">
         <f>IF(Notebooks!G28="","",CONCATENATE("| [",Notebooks!A28,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A28,") | ",Notebooks!G28," |"))</f>
-        <v>| [9](https://rpi.analyticsdojo.com/sessions/session9) | The Simplest Neural Network with Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)&lt;br&gt;Train Test Split - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb)&lt;br&gt;Introduction to Logistic Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/02-intro-logistic-knn.ipynb)&lt;br&gt;K Nearest Neighbor - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/03-knn.ipynb)&lt;br&gt;ROC and SVM - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/04-svm-roc.ipynb)&lt;br&gt;HM5A Visualization &amp; Screen Scraping - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05A.ipynb)&lt;br&gt;HM5B Intro Modeling - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05B.ipynb) |</v>
+        <v>| [9](https://rpi.analyticsdojo.com""/sessions/session9) | The Simplest Neural Network with Numpy - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)&lt;br&gt;Train Test Split - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb)&lt;br&gt;Introduction to Logistic Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/02-intro-logistic-knn.ipynb)&lt;br&gt;K Nearest Neighbor - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/03-knn.ipynb)&lt;br&gt;ROC and SVM - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/04-svm-roc.ipynb)&lt;br&gt;HM5A Visualization &amp; Screen Scraping - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05A.ipynb)&lt;br&gt;HM5B Intro Modeling - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05B.ipynb) |</v>
       </c>
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
@@ -5175,7 +5183,7 @@
     <row r="33" spans="1:4">
       <c r="A33" s="29" t="str">
         <f>IF(Notebooks!G31="","",CONCATENATE("| [",Notebooks!A31,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Notebooks!A31,") | ",Notebooks!G31," |"))</f>
-        <v>| [13](https://rpi.analyticsdojo.com/sessions/session13) | Matrix Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/01-matrix-regression-gradient-decent-python.ipynb)&lt;br&gt;Regression Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/02-regression-boston-housing-python.ipynb)&lt;br&gt;Ridge and Lasso Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb) |</v>
+        <v>| [13](https://rpi.analyticsdojo.com""/sessions/session13) | Matrix Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/01-matrix-regression-gradient-decent-python.ipynb)&lt;br&gt;Regression Basics - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/02-regression-boston-housing-python.ipynb)&lt;br&gt;Ridge and Lasso Regression - [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb) |</v>
       </c>
       <c r="B33" s="29"/>
       <c r="C33" s="29"/>
@@ -5308,7 +5316,7 @@
     <row r="6" spans="1:1">
       <c r="A6" s="29" t="str">
         <f>IF(ISBLANK(Schedule!H5),"",CONCATENATE("| ",Schedule!H5," | [",Schedule!B5,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Schedule!B5,".html) | ",TEXT(Schedule!D5+Configuration!$B$6, "mm/dd")," | ",Schedule!I5," | ",IF(ISBLANK(Schedule!K5),"*None*",Schedule!R5)," |"))</f>
-        <v>| 1 | [2](https://rpi.analyticsdojo.com/sessions/session2.html) | 09/17 | This introductory assignment introduces the basics of loading files from a variety of formats.  | [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/hm-01/hm01.ipynb) |</v>
+        <v>| 1 | [2](https://rpi.analyticsdojo.com""/sessions/session2.html) | 09/17 | This introductory assignment introduces the basics of loading files from a variety of formats.  | [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/hm-01/hm01.ipynb) |</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -5326,7 +5334,7 @@
     <row r="9" spans="1:1">
       <c r="A9" s="29" t="str">
         <f>IF(ISBLANK(Schedule!H8),"",CONCATENATE("| ",Schedule!H8," | [",Schedule!B8,"](",Configuration!B$29,Configuration!B$28,"/sessions/session",Schedule!B8,".html) | ",TEXT(Schedule!D8+Configuration!$B$6, "mm/dd")," | ",Schedule!I8," | ",IF(ISBLANK(Schedule!K8),"*None*",Schedule!R8)," |"))</f>
-        <v>| 2 | [5](https://rpi.analyticsdojo.com/sessions/session5.html) | 09/26 |  | [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/hm-02/hm02.ipynb) |</v>
+        <v>| 2 | [5](https://rpi.analyticsdojo.com""/sessions/session5.html) | 09/26 |  | [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/hm-02/hm02.ipynb) |</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -5545,7 +5553,7 @@
 ### Readings
 *None*
 ### Notebooks
-[What is Jupyter?](https://rpi.analyticsdojo.com/notebooks/01-what-is-jupyter.html)&lt;br&gt;[Notebook Basics](https://rpi.analyticsdojo.com/notebooks/02-notebook-basics.html)&lt;br&gt;[Running Code](https://rpi.analyticsdojo.com/notebooks/03-running-code.html)&lt;br&gt;[Markdown](https://rpi.analyticsdojo.com/notebooks/04-markdown.html)</v>
+[What is Jupyter?](https://rpi.analyticsdojo.com""/notebooks/01-what-is-jupyter.html)&lt;br&gt;[Notebook Basics](https://rpi.analyticsdojo.com""/notebooks/02-notebook-basics.html)&lt;br&gt;[Running Code](https://rpi.analyticsdojo.com""/notebooks/03-running-code.html)&lt;br&gt;[Markdown](https://rpi.analyticsdojo.com""/notebooks/04-markdown.html)</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>18</v>
@@ -5575,7 +5583,7 @@
 ### Readings
 *None*
 ### Notebooks
-[What is Jupyter?](https://rpi.analyticsdojo.com/notebooks/01-what-is-jupyter.html)&lt;br&gt;[Notebook Basics](https://rpi.analyticsdojo.com/notebooks/02-notebook-basics.html)&lt;br&gt;[Running Code](https://rpi.analyticsdojo.com/notebooks/03-running-code.html)&lt;br&gt;[Markdown](https://rpi.analyticsdojo.com/notebooks/04-markdown.html)</v>
+[What is Jupyter?](https://rpi.analyticsdojo.com""/notebooks/01-what-is-jupyter.html)&lt;br&gt;[Notebook Basics](https://rpi.analyticsdojo.com""/notebooks/02-notebook-basics.html)&lt;br&gt;[Running Code](https://rpi.analyticsdojo.com""/notebooks/03-running-code.html)&lt;br&gt;[Markdown](https://rpi.analyticsdojo.com""/notebooks/04-markdown.html)</v>
       </c>
       <c r="G2" s="26"/>
     </row>
@@ -5645,7 +5653,7 @@
 ### Readings
 [Doing Data Science (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/9781449363871)&lt;br&gt;[Data Science for Business (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/business-intelligence/9781449374273)&lt;br&gt;[Command Line Cheat Sheet](https://www.git-tower.com/blog/command-line-cheat-sheet/)&lt;br&gt;[Assignment Process](/assignments)&lt;br&gt;[Running Jupyter locally](http://rpi.analyticsdojo.com/setup/anaconda/)
 ### Notebooks
-[Python Overview](https://rpi.analyticsdojo.com/notebooks/05-intro-python-overview.html)&lt;br&gt;[Basic Data Structures](https://rpi.analyticsdojo.com/notebooks/06-intro-python-datastructures.html)&lt;br&gt;[Numpy](https://rpi.analyticsdojo.com/notebooks/07-intro-python-numpy.html)&lt;br&gt;[Pandas](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+[Python Overview](https://rpi.analyticsdojo.com""/notebooks/05-intro-python-overview.html)&lt;br&gt;[Basic Data Structures](https://rpi.analyticsdojo.com""/notebooks/06-intro-python-datastructures.html)&lt;br&gt;[Numpy](https://rpi.analyticsdojo.com""/notebooks/07-intro-python-numpy.html)&lt;br&gt;[Pandas](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>18</v>
@@ -5676,7 +5684,7 @@
 ### Readings
 [Doing Data Science (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/9781449363871)&lt;br&gt;[Data Science for Business (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/business-intelligence/9781449374273)&lt;br&gt;[Command Line Cheat Sheet](https://www.git-tower.com/blog/command-line-cheat-sheet/)&lt;br&gt;[Assignment Process](/assignments)&lt;br&gt;[Running Jupyter locally](http://rpi.analyticsdojo.com/setup/anaconda/)
 ### Notebooks
-[Python Overview](https://rpi.analyticsdojo.com/notebooks/05-intro-python-overview.html)&lt;br&gt;[Basic Data Structures](https://rpi.analyticsdojo.com/notebooks/06-intro-python-datastructures.html)&lt;br&gt;[Numpy](https://rpi.analyticsdojo.com/notebooks/07-intro-python-numpy.html)&lt;br&gt;[Pandas](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+[Python Overview](https://rpi.analyticsdojo.com""/notebooks/05-intro-python-overview.html)&lt;br&gt;[Basic Data Structures](https://rpi.analyticsdojo.com""/notebooks/06-intro-python-datastructures.html)&lt;br&gt;[Numpy](https://rpi.analyticsdojo.com""/notebooks/07-intro-python-numpy.html)&lt;br&gt;[Pandas](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="F4" s="31"/>
     </row>
@@ -5744,7 +5752,7 @@
 ### Readings
 [Principles of Data Wrangling (Chapters 1-3)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/business-intelligence/9781491938911)
 ### Notebooks
-[Conditional-Loops](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Groupby](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Kaggle Baseline](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 2](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+[Conditional-Loops](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Groupby](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Kaggle Baseline](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 2](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>18</v>
@@ -5773,7 +5781,7 @@
 ### Readings
 [Principles of Data Wrangling (Chapters 1-3)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/databases/business-intelligence/9781491938911)
 ### Notebooks
-[Conditional-Loops](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Groupby](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Kaggle Baseline](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 2](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+[Conditional-Loops](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Groupby](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Kaggle Baseline](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 2](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1">
@@ -5840,7 +5848,7 @@
 ### Readings
 [Introduction to Machine Learning with Python (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/programming/machine-learning/9781449369880)
 ### Notebooks
-[Twitter](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Strings - Regular Expressions](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Feature Dummies](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 3](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+[Twitter](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Strings - Regular Expressions](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Feature Dummies](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 3](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>18</v>
@@ -5869,7 +5877,7 @@
 ### Readings
 [Introduction to Machine Learning with Python (Chapter 1)](http://proquestcombo.safaribooksonline.com.libproxy.rpi.edu/book/programming/machine-learning/9781449369880)
 ### Notebooks
-[Twitter](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Strings - Regular Expressions](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Feature Dummies](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 3](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+[Twitter](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Strings - Regular Expressions](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Feature Dummies](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 3](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1">
@@ -5984,7 +5992,7 @@
 ### Readings
 *None*
 ### Notebooks
-[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[ROC and SVM](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5A Visualization &amp; Screen Scraping](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5B Intro Modeling](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[ROC and SVM](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5A Visualization &amp; Screen Scraping](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5B Intro Modeling](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>18</v>
@@ -6013,7 +6021,7 @@
 ### Readings
 *None*
 ### Notebooks
-[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[ROC and SVM](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5A Visualization &amp; Screen Scraping](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5B Intro Modeling](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[ROC and SVM](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5A Visualization &amp; Screen Scraping](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5B Intro Modeling](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1">
@@ -6176,7 +6184,7 @@
 ### Readings
 *None*
 ### Notebooks
-[Matrix Regression](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Regression Basics](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Ridge and Lasso Regression](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+[Matrix Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Regression Basics](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Ridge and Lasso Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>18</v>
@@ -6205,7 +6213,7 @@
 ### Readings
 *None*
 ### Notebooks
-[Matrix Regression](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Regression Basics](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Ridge and Lasso Regression](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+[Matrix Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Regression Basics](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Ridge and Lasso Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1">
@@ -28634,7 +28642,7 @@
       </c>
       <c r="O3" s="56" t="str">
         <f>IF(B3&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B3,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com/sessions/session1.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com""/sessions/session1.html)</v>
       </c>
       <c r="P3" s="56" t="str">
         <f>IF(ISBLANK(H3),"",CONCATENATE(" &lt;br&gt; *",N3,"* &lt;br&gt;"))</f>
@@ -28642,7 +28650,7 @@
       </c>
       <c r="Q3" s="56" t="str">
         <f t="shared" ref="Q3:Q34" si="0">CONCATENATE("**",TRIM(E3),"** &lt;br&gt; ", O3, P3)</f>
-        <v>**Course Overview &amp; Introduction to the Data Science Lifecycle** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session1.html)</v>
+        <v>**Course Overview &amp; Introduction to the Data Science Lifecycle** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session1.html)</v>
       </c>
       <c r="R3" s="56" t="str">
         <f>CONCATENATE("[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](",K3,")")</f>
@@ -28792,7 +28800,7 @@
       </c>
       <c r="O5" s="56" t="str">
         <f>IF(B5&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B5,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com/sessions/session2.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com""/sessions/session2.html)</v>
       </c>
       <c r="P5" s="56" t="str">
         <f t="shared" si="1"/>
@@ -28800,7 +28808,7 @@
       </c>
       <c r="Q5" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Python Basics** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session2.html) &lt;br&gt; *Assignment 1 due 09/17* &lt;br&gt;</v>
+        <v>**Python Basics** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session2.html) &lt;br&gt; *Assignment 1 due 09/17* &lt;br&gt;</v>
       </c>
       <c r="R5" s="56" t="str">
         <f t="shared" si="2"/>
@@ -28870,7 +28878,7 @@
       </c>
       <c r="O6" s="56" t="str">
         <f>IF(B6&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B6,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com/sessions/session3.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com""/sessions/session3.html)</v>
       </c>
       <c r="P6" s="56" t="str">
         <f t="shared" si="1"/>
@@ -28878,7 +28886,7 @@
       </c>
       <c r="Q6" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Python Basics** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session3.html)</v>
+        <v>**Python Basics** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session3.html)</v>
       </c>
       <c r="R6" s="56" t="str">
         <f t="shared" si="2"/>
@@ -28951,7 +28959,7 @@
       </c>
       <c r="O7" s="56" t="str">
         <f>IF(B7&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B7,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com/sessions/session4.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com""/sessions/session4.html)</v>
       </c>
       <c r="P7" s="56" t="str">
         <f t="shared" si="1"/>
@@ -28959,7 +28967,7 @@
       </c>
       <c r="Q7" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Python conditionals, loops, functions, aggregating.** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session4.html)</v>
+        <v>**Python conditionals, loops, functions, aggregating.** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session4.html)</v>
       </c>
       <c r="R7" s="56" t="str">
         <f t="shared" si="2"/>
@@ -29041,7 +29049,7 @@
       </c>
       <c r="O8" s="56" t="str">
         <f>IF(B8&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B8,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com/sessions/session5.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com""/sessions/session5.html)</v>
       </c>
       <c r="P8" s="56" t="str">
         <f t="shared" si="1"/>
@@ -29049,7 +29057,7 @@
       </c>
       <c r="Q8" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Python conditionals, loops, functions, aggregating (continued)** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session5.html) &lt;br&gt; *Assignment 2 due 09/26* &lt;br&gt;</v>
+        <v>**Python conditionals, loops, functions, aggregating (continued)** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session5.html) &lt;br&gt; *Assignment 2 due 09/26* &lt;br&gt;</v>
       </c>
       <c r="R8" s="56" t="str">
         <f t="shared" si="2"/>
@@ -29132,7 +29140,7 @@
       </c>
       <c r="O9" s="56" t="str">
         <f>IF(B9&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B9,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com/sessions/session6.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com""/sessions/session6.html)</v>
       </c>
       <c r="P9" s="56" t="str">
         <f t="shared" si="1"/>
@@ -29140,7 +29148,7 @@
       </c>
       <c r="Q9" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Python visualization, data manipulation , and feature creation.** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session6.html)</v>
+        <v>**Python visualization, data manipulation , and feature creation.** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session6.html)</v>
       </c>
       <c r="R9" s="56" t="str">
         <f t="shared" si="2"/>
@@ -29228,7 +29236,7 @@
       </c>
       <c r="O10" s="56" t="str">
         <f>IF(B10&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B10,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com/sessions/session7.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com""/sessions/session7.html)</v>
       </c>
       <c r="P10" s="56" t="str">
         <f t="shared" si="1"/>
@@ -29236,7 +29244,7 @@
       </c>
       <c r="Q10" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Python visualization, data manipulation , and feature creation (continued)** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session7.html)</v>
+        <v>**Python visualization, data manipulation , and feature creation (continued)** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session7.html)</v>
       </c>
       <c r="R10" s="56" t="str">
         <f t="shared" si="2"/>
@@ -29324,7 +29332,7 @@
       </c>
       <c r="O11" s="56" t="str">
         <f>IF(B11&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B11,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com/sessions/session8.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com""/sessions/session8.html)</v>
       </c>
       <c r="P11" s="56" t="str">
         <f t="shared" si="1"/>
@@ -29332,7 +29340,7 @@
       </c>
       <c r="Q11" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Python and Unsupervised Learning** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session8.html)</v>
+        <v>**Python and Unsupervised Learning** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session8.html)</v>
       </c>
       <c r="R11" s="56" t="str">
         <f t="shared" si="2"/>
@@ -29423,7 +29431,7 @@
       </c>
       <c r="O12" s="56" t="str">
         <f>IF(B12&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B12,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com/sessions/session9.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com""/sessions/session9.html)</v>
       </c>
       <c r="P12" s="56" t="str">
         <f t="shared" si="1"/>
@@ -29431,7 +29439,7 @@
       </c>
       <c r="Q12" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Python and Unsupervised Learning** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session9.html)</v>
+        <v>**Python and Unsupervised Learning** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session9.html)</v>
       </c>
       <c r="R12" s="56" t="str">
         <f t="shared" si="2"/>
@@ -29525,7 +29533,7 @@
       </c>
       <c r="O13" s="56" t="str">
         <f>IF(B13&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B13,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com/sessions/session10.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com""/sessions/session10.html)</v>
       </c>
       <c r="P13" s="56" t="str">
         <f t="shared" si="1"/>
@@ -29533,7 +29541,7 @@
       </c>
       <c r="Q13" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Introduction to R** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session10.html)</v>
+        <v>**Introduction to R** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session10.html)</v>
       </c>
       <c r="R13" s="56" t="str">
         <f t="shared" si="2"/>
@@ -29629,7 +29637,7 @@
       </c>
       <c r="O14" s="56" t="str">
         <f>IF(B14&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B14,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com/sessions/session11.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com""/sessions/session11.html)</v>
       </c>
       <c r="P14" s="56" t="str">
         <f t="shared" si="1"/>
@@ -29637,7 +29645,7 @@
       </c>
       <c r="Q14" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Introduction to R** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session11.html)</v>
+        <v>**Introduction to R** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session11.html)</v>
       </c>
       <c r="R14" s="56" t="str">
         <f t="shared" si="2"/>
@@ -29737,7 +29745,7 @@
       </c>
       <c r="O15" s="56" t="str">
         <f>IF(B15&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B15,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com/sessions/session12.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com""/sessions/session12.html)</v>
       </c>
       <c r="P15" s="56" t="str">
         <f t="shared" si="1"/>
@@ -29745,7 +29753,7 @@
       </c>
       <c r="Q15" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Overview of Modeling** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session12.html)</v>
+        <v>**Overview of Modeling** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session12.html)</v>
       </c>
       <c r="R15" s="56" t="str">
         <f t="shared" si="2"/>
@@ -29847,7 +29855,7 @@
       </c>
       <c r="O16" s="56" t="str">
         <f>IF(B16&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B16,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com/sessions/session13.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com""/sessions/session13.html)</v>
       </c>
       <c r="P16" s="56" t="str">
         <f t="shared" si="1"/>
@@ -29855,7 +29863,7 @@
       </c>
       <c r="Q16" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Overview of Modeling** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session13.html)</v>
+        <v>**Overview of Modeling** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session13.html)</v>
       </c>
       <c r="R16" s="56" t="str">
         <f t="shared" si="2"/>
@@ -29959,7 +29967,7 @@
       </c>
       <c r="O17" s="56" t="str">
         <f>IF(B17&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B17,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com/sessions/session14.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com""/sessions/session14.html)</v>
       </c>
       <c r="P17" s="56" t="str">
         <f t="shared" si="1"/>
@@ -29967,7 +29975,7 @@
       </c>
       <c r="Q17" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Review/Kaggle Project Introduction** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session14.html)</v>
+        <v>**Review/Kaggle Project Introduction** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session14.html)</v>
       </c>
       <c r="R17" s="56" t="str">
         <f t="shared" si="2"/>
@@ -30072,7 +30080,7 @@
       </c>
       <c r="O18" s="56" t="str">
         <f>IF(B18&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B18,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com/sessions/session15.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com""/sessions/session15.html)</v>
       </c>
       <c r="P18" s="56" t="str">
         <f t="shared" si="1"/>
@@ -30080,7 +30088,7 @@
       </c>
       <c r="Q18" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Midterm** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session15.html)</v>
+        <v>**Midterm** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session15.html)</v>
       </c>
       <c r="R18" s="56" t="str">
         <f t="shared" si="2"/>
@@ -30192,7 +30200,7 @@
       </c>
       <c r="O19" s="56" t="str">
         <f>IF(B19&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B19,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com/sessions/session16.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com""/sessions/session16.html)</v>
       </c>
       <c r="P19" s="56" t="str">
         <f t="shared" si="1"/>
@@ -30200,7 +30208,7 @@
       </c>
       <c r="Q19" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Classification** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session16.html)</v>
+        <v>**Classification** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session16.html)</v>
       </c>
       <c r="R19" s="56" t="str">
         <f t="shared" si="2"/>
@@ -30315,7 +30323,7 @@
       </c>
       <c r="O20" s="56" t="str">
         <f>IF(B20&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B20,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com/sessions/session17.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com""/sessions/session17.html)</v>
       </c>
       <c r="P20" s="56" t="str">
         <f t="shared" si="1"/>
@@ -30323,7 +30331,7 @@
       </c>
       <c r="Q20" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Classification** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session17.html)</v>
+        <v>**Classification** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session17.html)</v>
       </c>
       <c r="R20" s="56" t="str">
         <f t="shared" si="2"/>
@@ -30441,7 +30449,7 @@
       </c>
       <c r="O21" s="56" t="str">
         <f>IF(B21&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B21,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com/sessions/session18.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com""/sessions/session18.html)</v>
       </c>
       <c r="P21" s="56" t="str">
         <f t="shared" si="1"/>
@@ -30449,7 +30457,7 @@
       </c>
       <c r="Q21" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Regression** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session18.html)</v>
+        <v>**Regression** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session18.html)</v>
       </c>
       <c r="R21" s="56" t="str">
         <f t="shared" si="2"/>
@@ -30570,7 +30578,7 @@
       </c>
       <c r="O22" s="56" t="str">
         <f>IF(B22&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B22,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com/sessions/session19.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com""/sessions/session19.html)</v>
       </c>
       <c r="P22" s="56" t="str">
         <f t="shared" si="1"/>
@@ -30578,7 +30586,7 @@
       </c>
       <c r="Q22" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Regression** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session19.html)</v>
+        <v>**Regression** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session19.html)</v>
       </c>
       <c r="R22" s="56" t="str">
         <f t="shared" si="2"/>
@@ -30702,7 +30710,7 @@
       </c>
       <c r="O23" s="56" t="str">
         <f>IF(B23&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B23,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com/sessions/session20.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com""/sessions/session20.html)</v>
       </c>
       <c r="P23" s="56" t="str">
         <f t="shared" si="1"/>
@@ -30710,7 +30718,7 @@
       </c>
       <c r="Q23" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Text and NLP** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session20.html)</v>
+        <v>**Text and NLP** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session20.html)</v>
       </c>
       <c r="R23" s="56" t="str">
         <f t="shared" si="2"/>
@@ -30837,7 +30845,7 @@
       </c>
       <c r="O24" s="56" t="str">
         <f>IF(B24&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B24,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com/sessions/session21.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com""/sessions/session21.html)</v>
       </c>
       <c r="P24" s="56" t="str">
         <f t="shared" si="1"/>
@@ -30845,7 +30853,7 @@
       </c>
       <c r="Q24" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Text and NLP** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session21.html)</v>
+        <v>**Text and NLP** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session21.html)</v>
       </c>
       <c r="R24" s="56" t="str">
         <f t="shared" si="2"/>
@@ -30975,7 +30983,7 @@
       </c>
       <c r="O25" s="56" t="str">
         <f>IF(B25&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B25,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com/sessions/session22.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com""/sessions/session22.html)</v>
       </c>
       <c r="P25" s="56" t="str">
         <f t="shared" si="1"/>
@@ -30983,7 +30991,7 @@
       </c>
       <c r="Q25" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Introduction to Big Data** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session22.html)</v>
+        <v>**Introduction to Big Data** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session22.html)</v>
       </c>
       <c r="R25" s="56" t="str">
         <f t="shared" si="2"/>
@@ -31116,7 +31124,7 @@
       </c>
       <c r="O26" s="56" t="str">
         <f>IF(B26&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B26,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com/sessions/session23.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com""/sessions/session23.html)</v>
       </c>
       <c r="P26" s="56" t="str">
         <f t="shared" si="1"/>
@@ -31124,7 +31132,7 @@
       </c>
       <c r="Q26" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Time Series Analysis** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session23.html)</v>
+        <v>**Time Series Analysis** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session23.html)</v>
       </c>
       <c r="R26" s="56" t="str">
         <f t="shared" si="2"/>
@@ -31260,7 +31268,7 @@
       </c>
       <c r="O27" s="56" t="str">
         <f>IF(B27&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B27,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com/sessions/session24.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com""/sessions/session24.html)</v>
       </c>
       <c r="P27" s="56" t="str">
         <f t="shared" si="1"/>
@@ -31268,7 +31276,7 @@
       </c>
       <c r="Q27" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Image Data and Deep Learning** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session24.html)</v>
+        <v>**Image Data and Deep Learning** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session24.html)</v>
       </c>
       <c r="R27" s="56" t="str">
         <f t="shared" si="2"/>
@@ -31407,7 +31415,7 @@
       </c>
       <c r="O28" s="56" t="str">
         <f>IF(B28&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B28,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com/sessions/session25.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com""/sessions/session25.html)</v>
       </c>
       <c r="P28" s="56" t="str">
         <f t="shared" si="1"/>
@@ -31415,7 +31423,7 @@
       </c>
       <c r="Q28" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Image Data and Deep Learning** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session25.html)</v>
+        <v>**Image Data and Deep Learning** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session25.html)</v>
       </c>
       <c r="R28" s="56" t="str">
         <f t="shared" si="2"/>
@@ -31557,7 +31565,7 @@
       </c>
       <c r="O29" s="56" t="str">
         <f>IF(B29&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B29,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com/sessions/session26.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com""/sessions/session26.html)</v>
       </c>
       <c r="P29" s="56" t="str">
         <f t="shared" si="1"/>
@@ -31565,7 +31573,7 @@
       </c>
       <c r="Q29" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Automl and Modeling Packages** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session26.html)</v>
+        <v>**Automl and Modeling Packages** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session26.html)</v>
       </c>
       <c r="R29" s="56" t="str">
         <f t="shared" si="2"/>
@@ -31855,7 +31863,7 @@
       </c>
       <c r="O31" s="56" t="str">
         <f>IF(B31&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B31,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com/sessions/session27.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com""/sessions/session27.html)</v>
       </c>
       <c r="P31" s="56" t="str">
         <f t="shared" si="1"/>
@@ -31863,7 +31871,7 @@
       </c>
       <c r="Q31" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Automl and Model Search** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session27.html)</v>
+        <v>**Automl and Model Search** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session27.html)</v>
       </c>
       <c r="R31" s="56" t="str">
         <f t="shared" si="2"/>
@@ -32009,7 +32017,7 @@
       </c>
       <c r="O32" s="56" t="str">
         <f>IF(B32&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B32,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com/sessions/session28.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com""/sessions/session28.html)</v>
       </c>
       <c r="P32" s="56" t="str">
         <f t="shared" si="1"/>
@@ -32017,7 +32025,7 @@
       </c>
       <c r="Q32" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Final Presentations** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session28.html)</v>
+        <v>**Final Presentations** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session28.html)</v>
       </c>
       <c r="R32" s="56" t="str">
         <f t="shared" si="2"/>
@@ -32165,7 +32173,7 @@
       </c>
       <c r="O33" s="56" t="str">
         <f>IF(B33&gt;0,CONCATENATE("[more](",Configuration!B$29,Configuration!B$28,"/sessions/session",B33,".html)"),"")</f>
-        <v>[more](https://rpi.analyticsdojo.com/sessions/session29.html)</v>
+        <v>[more](https://rpi.analyticsdojo.com""/sessions/session29.html)</v>
       </c>
       <c r="P33" s="56" t="str">
         <f t="shared" si="1"/>
@@ -32173,7 +32181,7 @@
       </c>
       <c r="Q33" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>**Final Presentations** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session29.html)</v>
+        <v>**Final Presentations** &lt;br&gt; [more](https://rpi.analyticsdojo.com""/sessions/session29.html)</v>
       </c>
       <c r="R33" s="56" t="str">
         <f t="shared" si="2"/>
@@ -47284,11 +47292,11 @@
       </c>
       <c r="J2" s="56" t="str">
         <f>IF(ISBLANK(C2),"",CONCATENATE("[",B2,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C2,".html)"))</f>
-        <v>[What is Jupyter?](https://rpi.analyticsdojo.com/notebooks/01-what-is-jupyter.html)</v>
+        <v>[What is Jupyter?](https://rpi.analyticsdojo.com""/notebooks/01-what-is-jupyter.html)</v>
       </c>
       <c r="K2" s="56" t="str">
         <f>IF(A2=A1,K1&amp;"&lt;br&gt;"&amp;J2,J2)</f>
-        <v>[What is Jupyter?](https://rpi.analyticsdojo.com/notebooks/01-what-is-jupyter.html)</v>
+        <v>[What is Jupyter?](https://rpi.analyticsdojo.com""/notebooks/01-what-is-jupyter.html)</v>
       </c>
       <c r="L2" s="56" t="str">
         <f>IF(A2&lt;&gt;A3,K2,"")</f>
@@ -47341,11 +47349,11 @@
       </c>
       <c r="J3" s="56" t="str">
         <f>IF(ISBLANK(C3),"",CONCATENATE("[",B3,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C3,".html)"))</f>
-        <v>[Notebook Basics](https://rpi.analyticsdojo.com/notebooks/02-notebook-basics.html)</v>
+        <v>[Notebook Basics](https://rpi.analyticsdojo.com""/notebooks/02-notebook-basics.html)</v>
       </c>
       <c r="K3" s="56" t="str">
         <f t="shared" ref="K3:K33" si="5">IF(A3=A2,K2&amp;"&lt;br&gt;"&amp;J3,J3)</f>
-        <v>[What is Jupyter?](https://rpi.analyticsdojo.com/notebooks/01-what-is-jupyter.html)&lt;br&gt;[Notebook Basics](https://rpi.analyticsdojo.com/notebooks/02-notebook-basics.html)</v>
+        <v>[What is Jupyter?](https://rpi.analyticsdojo.com""/notebooks/01-what-is-jupyter.html)&lt;br&gt;[Notebook Basics](https://rpi.analyticsdojo.com""/notebooks/02-notebook-basics.html)</v>
       </c>
       <c r="L3" s="56" t="str">
         <f t="shared" ref="L3:L32" si="6">IF(A3&lt;&gt;A4,K3,"")</f>
@@ -47398,11 +47406,11 @@
       </c>
       <c r="J4" s="56" t="str">
         <f>IF(ISBLANK(C4),"",CONCATENATE("[",B4,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C4,".html)"))</f>
-        <v>[Running Code](https://rpi.analyticsdojo.com/notebooks/03-running-code.html)</v>
+        <v>[Running Code](https://rpi.analyticsdojo.com""/notebooks/03-running-code.html)</v>
       </c>
       <c r="K4" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[What is Jupyter?](https://rpi.analyticsdojo.com/notebooks/01-what-is-jupyter.html)&lt;br&gt;[Notebook Basics](https://rpi.analyticsdojo.com/notebooks/02-notebook-basics.html)&lt;br&gt;[Running Code](https://rpi.analyticsdojo.com/notebooks/03-running-code.html)</v>
+        <v>[What is Jupyter?](https://rpi.analyticsdojo.com""/notebooks/01-what-is-jupyter.html)&lt;br&gt;[Notebook Basics](https://rpi.analyticsdojo.com""/notebooks/02-notebook-basics.html)&lt;br&gt;[Running Code](https://rpi.analyticsdojo.com""/notebooks/03-running-code.html)</v>
       </c>
       <c r="L4" s="56" t="str">
         <f t="shared" si="6"/>
@@ -47458,15 +47466,15 @@
       </c>
       <c r="J5" s="56" t="str">
         <f>IF(ISBLANK(C5),"",CONCATENATE("[",B5,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C5,".html)"))</f>
-        <v>[Markdown](https://rpi.analyticsdojo.com/notebooks/04-markdown.html)</v>
+        <v>[Markdown](https://rpi.analyticsdojo.com""/notebooks/04-markdown.html)</v>
       </c>
       <c r="K5" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[What is Jupyter?](https://rpi.analyticsdojo.com/notebooks/01-what-is-jupyter.html)&lt;br&gt;[Notebook Basics](https://rpi.analyticsdojo.com/notebooks/02-notebook-basics.html)&lt;br&gt;[Running Code](https://rpi.analyticsdojo.com/notebooks/03-running-code.html)&lt;br&gt;[Markdown](https://rpi.analyticsdojo.com/notebooks/04-markdown.html)</v>
+        <v>[What is Jupyter?](https://rpi.analyticsdojo.com""/notebooks/01-what-is-jupyter.html)&lt;br&gt;[Notebook Basics](https://rpi.analyticsdojo.com""/notebooks/02-notebook-basics.html)&lt;br&gt;[Running Code](https://rpi.analyticsdojo.com""/notebooks/03-running-code.html)&lt;br&gt;[Markdown](https://rpi.analyticsdojo.com""/notebooks/04-markdown.html)</v>
       </c>
       <c r="L5" s="56" t="str">
         <f t="shared" si="6"/>
-        <v>[What is Jupyter?](https://rpi.analyticsdojo.com/notebooks/01-what-is-jupyter.html)&lt;br&gt;[Notebook Basics](https://rpi.analyticsdojo.com/notebooks/02-notebook-basics.html)&lt;br&gt;[Running Code](https://rpi.analyticsdojo.com/notebooks/03-running-code.html)&lt;br&gt;[Markdown](https://rpi.analyticsdojo.com/notebooks/04-markdown.html)</v>
+        <v>[What is Jupyter?](https://rpi.analyticsdojo.com""/notebooks/01-what-is-jupyter.html)&lt;br&gt;[Notebook Basics](https://rpi.analyticsdojo.com""/notebooks/02-notebook-basics.html)&lt;br&gt;[Running Code](https://rpi.analyticsdojo.com""/notebooks/03-running-code.html)&lt;br&gt;[Markdown](https://rpi.analyticsdojo.com""/notebooks/04-markdown.html)</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="17">
@@ -47521,11 +47529,11 @@
       </c>
       <c r="J6" s="56" t="str">
         <f>IF(ISBLANK(C6),"",CONCATENATE("[",B6,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C6,".html)"))</f>
-        <v>[Python Overview](https://rpi.analyticsdojo.com/notebooks/05-intro-python-overview.html)</v>
+        <v>[Python Overview](https://rpi.analyticsdojo.com""/notebooks/05-intro-python-overview.html)</v>
       </c>
       <c r="K6" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Python Overview](https://rpi.analyticsdojo.com/notebooks/05-intro-python-overview.html)</v>
+        <v>[Python Overview](https://rpi.analyticsdojo.com""/notebooks/05-intro-python-overview.html)</v>
       </c>
       <c r="L6" s="56" t="str">
         <f t="shared" si="6"/>
@@ -47587,11 +47595,11 @@
       </c>
       <c r="J7" s="56" t="str">
         <f>IF(ISBLANK(C7),"",CONCATENATE("[",B7,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C7,".html)"))</f>
-        <v>[Basic Data Structures](https://rpi.analyticsdojo.com/notebooks/06-intro-python-datastructures.html)</v>
+        <v>[Basic Data Structures](https://rpi.analyticsdojo.com""/notebooks/06-intro-python-datastructures.html)</v>
       </c>
       <c r="K7" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Python Overview](https://rpi.analyticsdojo.com/notebooks/05-intro-python-overview.html)&lt;br&gt;[Basic Data Structures](https://rpi.analyticsdojo.com/notebooks/06-intro-python-datastructures.html)</v>
+        <v>[Python Overview](https://rpi.analyticsdojo.com""/notebooks/05-intro-python-overview.html)&lt;br&gt;[Basic Data Structures](https://rpi.analyticsdojo.com""/notebooks/06-intro-python-datastructures.html)</v>
       </c>
       <c r="L7" s="56" t="str">
         <f t="shared" si="6"/>
@@ -47656,11 +47664,11 @@
       </c>
       <c r="J8" s="56" t="str">
         <f>IF(ISBLANK(C8),"",CONCATENATE("[",B8,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C8,".html)"))</f>
-        <v>[Numpy](https://rpi.analyticsdojo.com/notebooks/07-intro-python-numpy.html)</v>
+        <v>[Numpy](https://rpi.analyticsdojo.com""/notebooks/07-intro-python-numpy.html)</v>
       </c>
       <c r="K8" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Python Overview](https://rpi.analyticsdojo.com/notebooks/05-intro-python-overview.html)&lt;br&gt;[Basic Data Structures](https://rpi.analyticsdojo.com/notebooks/06-intro-python-datastructures.html)&lt;br&gt;[Numpy](https://rpi.analyticsdojo.com/notebooks/07-intro-python-numpy.html)</v>
+        <v>[Python Overview](https://rpi.analyticsdojo.com""/notebooks/05-intro-python-overview.html)&lt;br&gt;[Basic Data Structures](https://rpi.analyticsdojo.com""/notebooks/06-intro-python-datastructures.html)&lt;br&gt;[Numpy](https://rpi.analyticsdojo.com""/notebooks/07-intro-python-numpy.html)</v>
       </c>
       <c r="L8" s="56" t="str">
         <f t="shared" si="6"/>
@@ -47728,15 +47736,15 @@
       </c>
       <c r="J9" s="56" t="str">
         <f>IF(ISBLANK(C9),"",CONCATENATE("[",B9,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C9,".html)"))</f>
-        <v>[Pandas](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Pandas](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K9" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Python Overview](https://rpi.analyticsdojo.com/notebooks/05-intro-python-overview.html)&lt;br&gt;[Basic Data Structures](https://rpi.analyticsdojo.com/notebooks/06-intro-python-datastructures.html)&lt;br&gt;[Numpy](https://rpi.analyticsdojo.com/notebooks/07-intro-python-numpy.html)&lt;br&gt;[Pandas](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Python Overview](https://rpi.analyticsdojo.com""/notebooks/05-intro-python-overview.html)&lt;br&gt;[Basic Data Structures](https://rpi.analyticsdojo.com""/notebooks/06-intro-python-datastructures.html)&lt;br&gt;[Numpy](https://rpi.analyticsdojo.com""/notebooks/07-intro-python-numpy.html)&lt;br&gt;[Pandas](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L9" s="56" t="str">
         <f t="shared" si="6"/>
-        <v>[Python Overview](https://rpi.analyticsdojo.com/notebooks/05-intro-python-overview.html)&lt;br&gt;[Basic Data Structures](https://rpi.analyticsdojo.com/notebooks/06-intro-python-datastructures.html)&lt;br&gt;[Numpy](https://rpi.analyticsdojo.com/notebooks/07-intro-python-numpy.html)&lt;br&gt;[Pandas](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Python Overview](https://rpi.analyticsdojo.com""/notebooks/05-intro-python-overview.html)&lt;br&gt;[Basic Data Structures](https://rpi.analyticsdojo.com""/notebooks/06-intro-python-datastructures.html)&lt;br&gt;[Numpy](https://rpi.analyticsdojo.com""/notebooks/07-intro-python-numpy.html)&lt;br&gt;[Pandas](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="17">
@@ -47803,11 +47811,11 @@
       </c>
       <c r="J10" s="56" t="str">
         <f>IF(ISBLANK(C10),"",CONCATENATE("[",B10,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C10,".html)"))</f>
-        <v>[Conditional-Loops](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Conditional-Loops](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K10" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Conditional-Loops](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Conditional-Loops](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L10" s="56" t="str">
         <f t="shared" si="6"/>
@@ -47881,11 +47889,11 @@
       </c>
       <c r="J11" s="56" t="str">
         <f>IF(ISBLANK(C11),"",CONCATENATE("[",B11,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C11,".html)"))</f>
-        <v>[Functions](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Functions](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K11" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Conditional-Loops](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Conditional-Loops](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L11" s="56" t="str">
         <f t="shared" si="6"/>
@@ -47962,11 +47970,11 @@
       </c>
       <c r="J12" s="56" t="str">
         <f>IF(ISBLANK(C12),"",CONCATENATE("[",B12,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C12,".html)"))</f>
-        <v>[Null Values](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Null Values](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K12" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Conditional-Loops](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Conditional-Loops](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L12" s="56" t="str">
         <f t="shared" si="6"/>
@@ -48046,11 +48054,11 @@
       </c>
       <c r="J13" s="56" t="str">
         <f>IF(ISBLANK(C13),"",CONCATENATE("[",B13,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C13,".html)"))</f>
-        <v>[Groupby](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Groupby](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K13" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Conditional-Loops](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Groupby](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Conditional-Loops](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Groupby](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L13" s="56" t="str">
         <f t="shared" si="6"/>
@@ -48133,11 +48141,11 @@
       </c>
       <c r="J14" s="56" t="str">
         <f>IF(ISBLANK(C14),"",CONCATENATE("[",B14,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C14,".html)"))</f>
-        <v>[Kaggle Baseline](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Kaggle Baseline](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K14" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Conditional-Loops](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Groupby](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Kaggle Baseline](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Conditional-Loops](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Groupby](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Kaggle Baseline](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L14" s="56" t="str">
         <f t="shared" si="6"/>
@@ -48223,15 +48231,15 @@
       </c>
       <c r="J15" s="56" t="str">
         <f>IF(ISBLANK(C15),"",CONCATENATE("[",B15,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C15,".html)"))</f>
-        <v>[Assignment 2](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Assignment 2](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K15" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Conditional-Loops](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Groupby](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Kaggle Baseline](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 2](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Conditional-Loops](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Groupby](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Kaggle Baseline](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 2](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L15" s="56" t="str">
         <f t="shared" si="6"/>
-        <v>[Conditional-Loops](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Groupby](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Kaggle Baseline](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 2](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Conditional-Loops](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Functions](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Null Values](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Groupby](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Kaggle Baseline](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 2](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="17">
@@ -48316,11 +48324,11 @@
       </c>
       <c r="J16" s="56" t="str">
         <f>IF(ISBLANK(C16),"",CONCATENATE("[",B16,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C16,".html)"))</f>
-        <v>[Twitter](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Twitter](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K16" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Twitter](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Twitter](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L16" s="56" t="str">
         <f t="shared" si="6"/>
@@ -48412,11 +48420,11 @@
       </c>
       <c r="J17" s="56" t="str">
         <f>IF(ISBLANK(C17),"",CONCATENATE("[",B17,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C17,".html)"))</f>
-        <v>[Web Mining](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Web Mining](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K17" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Twitter](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Twitter](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L17" s="56" t="str">
         <f t="shared" si="6"/>
@@ -48511,11 +48519,11 @@
       </c>
       <c r="J18" s="56" t="str">
         <f>IF(ISBLANK(C18),"",CONCATENATE("[",B18,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C18,".html)"))</f>
-        <v>[Visualizations - Seaborn](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Visualizations - Seaborn](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K18" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Twitter](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Twitter](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L18" s="56" t="str">
         <f t="shared" si="6"/>
@@ -48613,11 +48621,11 @@
       </c>
       <c r="J19" s="56" t="str">
         <f>IF(ISBLANK(C19),"",CONCATENATE("[",B19,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C19,".html)"))</f>
-        <v>[Strings - Regular Expressions](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Strings - Regular Expressions](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K19" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Twitter](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Strings - Regular Expressions](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Twitter](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Strings - Regular Expressions](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L19" s="56" t="str">
         <f t="shared" si="6"/>
@@ -48718,11 +48726,11 @@
       </c>
       <c r="J20" s="56" t="str">
         <f>IF(ISBLANK(C20),"",CONCATENATE("[",B20,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C20,".html)"))</f>
-        <v>[Feature Dummies](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Feature Dummies](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K20" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Twitter](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Strings - Regular Expressions](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Feature Dummies](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Twitter](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Strings - Regular Expressions](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Feature Dummies](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L20" s="56" t="str">
         <f t="shared" si="6"/>
@@ -48826,15 +48834,15 @@
       </c>
       <c r="J21" s="56" t="str">
         <f>IF(ISBLANK(C21),"",CONCATENATE("[",B21,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C21,".html)"))</f>
-        <v>[Assignment 3](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Assignment 3](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K21" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Twitter](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Strings - Regular Expressions](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Feature Dummies](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 3](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Twitter](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Strings - Regular Expressions](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Feature Dummies](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 3](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L21" s="56" t="str">
         <f t="shared" si="6"/>
-        <v>[Twitter](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Strings - Regular Expressions](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Feature Dummies](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 3](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Twitter](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Web Mining](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Visualizations - Seaborn](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Strings - Regular Expressions](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Feature Dummies](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Assignment 3](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="17">
@@ -48937,11 +48945,11 @@
       </c>
       <c r="J22" s="56" t="str">
         <f>IF(ISBLANK(C22),"",CONCATENATE("[",B22,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C22,".html)"))</f>
-        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K22" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L22" s="56" t="str">
         <f t="shared" si="6"/>
@@ -49051,11 +49059,11 @@
       </c>
       <c r="J23" s="56" t="str">
         <f>IF(ISBLANK(C23),"",CONCATENATE("[",B23,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C23,".html)"))</f>
-        <v>[Train Test Split](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Train Test Split](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K23" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L23" s="56" t="str">
         <f t="shared" si="6"/>
@@ -49168,11 +49176,11 @@
       </c>
       <c r="J24" s="56" t="str">
         <f>IF(ISBLANK(C24),"",CONCATENATE("[",B24,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C24,".html)"))</f>
-        <v>[Introduction to Logistic Regression](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Introduction to Logistic Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K24" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L24" s="56" t="str">
         <f t="shared" si="6"/>
@@ -49288,11 +49296,11 @@
       </c>
       <c r="J25" s="56" t="str">
         <f>IF(ISBLANK(C25),"",CONCATENATE("[",B25,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C25,".html)"))</f>
-        <v>[K Nearest Neighbor](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+        <v>[K Nearest Neighbor](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K25" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L25" s="56" t="str">
         <f t="shared" si="6"/>
@@ -49411,11 +49419,11 @@
       </c>
       <c r="J26" s="56" t="str">
         <f>IF(ISBLANK(C26),"",CONCATENATE("[",B26,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C26,".html)"))</f>
-        <v>[ROC and SVM](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+        <v>[ROC and SVM](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K26" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[ROC and SVM](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[ROC and SVM](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L26" s="56" t="str">
         <f t="shared" si="6"/>
@@ -49537,11 +49545,11 @@
       </c>
       <c r="J27" s="56" t="str">
         <f>IF(ISBLANK(C27),"",CONCATENATE("[",B27,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C27,".html)"))</f>
-        <v>[HM5A Visualization &amp; Screen Scraping](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+        <v>[HM5A Visualization &amp; Screen Scraping](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K27" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[ROC and SVM](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5A Visualization &amp; Screen Scraping](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[ROC and SVM](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5A Visualization &amp; Screen Scraping](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L27" s="56" t="str">
         <f t="shared" si="6"/>
@@ -49666,15 +49674,15 @@
       </c>
       <c r="J28" s="56" t="str">
         <f>IF(ISBLANK(C28),"",CONCATENATE("[",B28,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C28,".html)"))</f>
-        <v>[HM5B Intro Modeling](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+        <v>[HM5B Intro Modeling](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K28" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[ROC and SVM](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5A Visualization &amp; Screen Scraping](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5B Intro Modeling](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[ROC and SVM](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5A Visualization &amp; Screen Scraping](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5B Intro Modeling](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L28" s="56" t="str">
         <f t="shared" si="6"/>
-        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[ROC and SVM](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5A Visualization &amp; Screen Scraping](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5B Intro Modeling](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+        <v>[The Simplest Neural Network with Numpy](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Train Test Split](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Introduction to Logistic Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[K Nearest Neighbor](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[ROC and SVM](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5A Visualization &amp; Screen Scraping](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[HM5B Intro Modeling](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="17">
@@ -49798,11 +49806,11 @@
       </c>
       <c r="J29" s="56" t="str">
         <f>IF(ISBLANK(C29),"",CONCATENATE("[",B29,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C29,".html)"))</f>
-        <v>[Matrix Regression](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Matrix Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K29" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Matrix Regression](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Matrix Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L29" s="56" t="str">
         <f t="shared" si="6"/>
@@ -49933,11 +49941,11 @@
       </c>
       <c r="J30" s="56" t="str">
         <f>IF(ISBLANK(C30),"",CONCATENATE("[",B30,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C30,".html)"))</f>
-        <v>[Regression Basics](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Regression Basics](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K30" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Matrix Regression](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Regression Basics](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Matrix Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Regression Basics](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L30" s="56" t="str">
         <f t="shared" si="6"/>
@@ -50071,15 +50079,15 @@
       </c>
       <c r="J31" s="56" t="str">
         <f>IF(ISBLANK(C31),"",CONCATENATE("[",B31,"](",Configuration!B$29,Configuration!B$28,"/notebooks/",C31,".html)"))</f>
-        <v>[Ridge and Lasso Regression](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Ridge and Lasso Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="K31" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>[Matrix Regression](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Regression Basics](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Ridge and Lasso Regression](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Matrix Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Regression Basics](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Ridge and Lasso Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
       <c r="L31" s="56" t="str">
         <f t="shared" si="6"/>
-        <v>[Matrix Regression](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Regression Basics](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Ridge and Lasso Regression](https://rpi.analyticsdojo.com/notebooks/08-intro-python-pandas.html)</v>
+        <v>[Matrix Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Regression Basics](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)&lt;br&gt;[Ridge and Lasso Regression](https://rpi.analyticsdojo.com""/notebooks/08-intro-python-pandas.html)</v>
       </c>
     </row>
 